--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>250746932</v>
+        <v>256099108</v>
       </c>
       <c r="E2" t="n">
-        <v>1572398763</v>
+        <v>1605961511</v>
       </c>
       <c r="F2" t="n">
-        <v>182183.1826318069</v>
+        <v>64147.42751615761</v>
       </c>
       <c r="G2" t="n">
-        <v>205707.1949774167</v>
+        <v>110072.4869493632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>20014833</v>
+        <v>23213025</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>149064238</v>
+        <v>148154836</v>
       </c>
       <c r="E3" t="n">
-        <v>165186471</v>
+        <v>164178712</v>
       </c>
       <c r="F3" t="n">
-        <v>78846.83506852321</v>
+        <v>73659.14460492229</v>
       </c>
       <c r="G3" t="n">
-        <v>168979.3231846746</v>
+        <v>195433.5302948484</v>
       </c>
       <c r="H3" t="n">
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>46059538</v>
+        <v>49144739</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>598269835</v>
+        <v>588119439</v>
       </c>
       <c r="E4" t="n">
-        <v>748346645</v>
+        <v>735650008</v>
       </c>
       <c r="F4" t="n">
-        <v>124609.7348964946</v>
+        <v>130911.0307470004</v>
       </c>
       <c r="G4" t="n">
-        <v>164745.2974124088</v>
+        <v>134134.3958923341</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>76483120</v>
+        <v>88049767</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145057236</v>
+        <v>145899163</v>
       </c>
       <c r="E5" t="n">
-        <v>145057236</v>
+        <v>145899163</v>
       </c>
       <c r="F5" t="n">
-        <v>79468.05568069038</v>
+        <v>100842.8983115775</v>
       </c>
       <c r="G5" t="n">
-        <v>101492.2929844231</v>
+        <v>93181.27486899892</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>79316801</v>
+        <v>86691928</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>268363376</v>
+        <v>266980243</v>
       </c>
       <c r="E6" t="n">
-        <v>268363376</v>
+        <v>266980243</v>
       </c>
       <c r="F6" t="n">
-        <v>76467.73478894144</v>
+        <v>66624.99641751208</v>
       </c>
       <c r="G6" t="n">
-        <v>102269.5753221115</v>
+        <v>113745.2670882784</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>21445669</v>
+        <v>26065806</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99578222</v>
+        <v>100423619</v>
       </c>
       <c r="E7" t="n">
-        <v>124162370</v>
+        <v>125216481</v>
       </c>
       <c r="F7" t="n">
-        <v>18717.28454943283</v>
+        <v>14954.36252173513</v>
       </c>
       <c r="G7" t="n">
-        <v>43817.84521570483</v>
+        <v>45837.23279070474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>12685442</v>
+        <v>13295675</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>89367460</v>
+        <v>90126042</v>
       </c>
       <c r="E8" t="n">
-        <v>186323976</v>
+        <v>187905559</v>
       </c>
       <c r="F8" t="n">
-        <v>47963.47974136307</v>
+        <v>49238.71591468763</v>
       </c>
       <c r="G8" t="n">
-        <v>50876.40475605507</v>
+        <v>56160.34082907203</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>56959963</v>
+        <v>65416390</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145029360</v>
+        <v>143640453</v>
       </c>
       <c r="E9" t="n">
-        <v>145085603</v>
+        <v>143697055</v>
       </c>
       <c r="F9" t="n">
-        <v>10587.6397538602</v>
+        <v>11000.92028107407</v>
       </c>
       <c r="G9" t="n">
-        <v>13435.20896907651</v>
+        <v>11811.68209763251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2753215</v>
+        <v>3044144</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>694453436</v>
+        <v>688888422</v>
       </c>
       <c r="E10" t="n">
-        <v>694453436</v>
+        <v>688888422</v>
       </c>
       <c r="F10" t="n">
-        <v>406188.7171293876</v>
+        <v>365370.9446634592</v>
       </c>
       <c r="G10" t="n">
-        <v>522540.1053202605</v>
+        <v>578850.8926526931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>435396636</v>
+        <v>489824208</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72598843</v>
+        <v>72178009</v>
       </c>
       <c r="E11" t="n">
-        <v>83297925</v>
+        <v>82815072</v>
       </c>
       <c r="F11" t="n">
-        <v>1960.077757545795</v>
+        <v>6142.341604941174</v>
       </c>
       <c r="G11" t="n">
-        <v>3164.657778861516</v>
+        <v>5321.924776588635</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.71</v>
       </c>
       <c r="I11" t="n">
-        <v>1460706</v>
+        <v>1488432</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>271324949</v>
+        <v>270099278</v>
       </c>
       <c r="E12" t="n">
-        <v>1171189104</v>
+        <v>1165898429</v>
       </c>
       <c r="F12" t="n">
-        <v>310908.8997837921</v>
+        <v>313846.2748348205</v>
       </c>
       <c r="G12" t="n">
-        <v>384331.3129695675</v>
+        <v>396222.4157203087</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>116166923</v>
+        <v>132588890</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116059091</v>
+        <v>116076528</v>
       </c>
       <c r="E13" t="n">
-        <v>116059091</v>
+        <v>116076528</v>
       </c>
       <c r="F13" t="n">
-        <v>6488.543570045523</v>
+        <v>6655.66551433601</v>
       </c>
       <c r="G13" t="n">
-        <v>3808.405257200942</v>
+        <v>3450.907749086555</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="I13" t="n">
-        <v>7615115</v>
+        <v>6755917</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18939353</v>
+        <v>17492813</v>
       </c>
       <c r="E14" t="n">
-        <v>47348383</v>
+        <v>43732034</v>
       </c>
       <c r="F14" t="n">
-        <v>2326.945062563411</v>
+        <v>11988.37790029208</v>
       </c>
       <c r="G14" t="n">
-        <v>11557.27472050425</v>
+        <v>7800.839186142207</v>
       </c>
       <c r="H14" t="n">
         <v>0.09</v>
       </c>
       <c r="I14" t="n">
-        <v>2464758</v>
+        <v>3183784</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12936351</v>
+        <v>13078887</v>
       </c>
       <c r="E15" t="n">
-        <v>19022660</v>
+        <v>19232257</v>
       </c>
       <c r="F15" t="n">
-        <v>2082.335320802314</v>
+        <v>7146.517207465878</v>
       </c>
       <c r="G15" t="n">
-        <v>4373.455990650371</v>
+        <v>4772.969197909175</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>5053741</v>
+        <v>6778805</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31707588</v>
+        <v>31467303</v>
       </c>
       <c r="E16" t="n">
-        <v>98727254</v>
+        <v>97979085</v>
       </c>
       <c r="F16" t="n">
-        <v>12877.29924390969</v>
+        <v>11247.60398686679</v>
       </c>
       <c r="G16" t="n">
-        <v>20716.03431207017</v>
+        <v>18954.85048391504</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>9934986</v>
+        <v>10017147</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>339209664</v>
+        <v>336759066</v>
       </c>
       <c r="E17" t="n">
-        <v>3051740476</v>
+        <v>3029693376</v>
       </c>
       <c r="F17" t="n">
-        <v>5530.354288653388</v>
+        <v>7116.873194704534</v>
       </c>
       <c r="G17" t="n">
-        <v>6288.333084463875</v>
+        <v>7052.993084576426</v>
       </c>
       <c r="H17" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>50078899</v>
+        <v>56017212</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15882743</v>
+        <v>15831959</v>
       </c>
       <c r="E18" t="n">
-        <v>97350558</v>
+        <v>97039285</v>
       </c>
       <c r="F18" t="n">
-        <v>29487.90928653854</v>
+        <v>31243.13946462307</v>
       </c>
       <c r="G18" t="n">
-        <v>39099.03405892248</v>
+        <v>34753.45459616918</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>10801951</v>
+        <v>11238117</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50591433</v>
+        <v>50282402</v>
       </c>
       <c r="E19" t="n">
-        <v>217942363</v>
+        <v>216611090</v>
       </c>
       <c r="F19" t="n">
-        <v>37592.01547727782</v>
+        <v>21921.68495912528</v>
       </c>
       <c r="G19" t="n">
-        <v>58182.43401029587</v>
+        <v>51236.84812587583</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>11091998</v>
+        <v>11733157</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>304756775</v>
+        <v>304993523</v>
       </c>
       <c r="E20" t="n">
-        <v>304756775</v>
+        <v>304993523</v>
       </c>
       <c r="F20" t="n">
-        <v>82238.64042513193</v>
+        <v>75406.74566365438</v>
       </c>
       <c r="G20" t="n">
-        <v>127390.5736070685</v>
+        <v>114386.4596932405</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>77599068</v>
+        <v>84538263</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31729716</v>
+        <v>30345478</v>
       </c>
       <c r="E21" t="n">
-        <v>142066956</v>
+        <v>135869155</v>
       </c>
       <c r="F21" t="n">
-        <v>47805.26719152306</v>
+        <v>37085.93511791097</v>
       </c>
       <c r="G21" t="n">
-        <v>70422.77796294671</v>
+        <v>57863.98668979803</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>9829802</v>
+        <v>11749434</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51056318</v>
+        <v>51069762</v>
       </c>
       <c r="E22" t="n">
-        <v>331086632</v>
+        <v>331173817</v>
       </c>
       <c r="F22" t="n">
-        <v>10121.86987079341</v>
+        <v>11399.48714955881</v>
       </c>
       <c r="G22" t="n">
-        <v>94697.49393065838</v>
+        <v>97708.92811713407</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>17802125</v>
+        <v>19061391</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125340738</v>
+        <v>123454323</v>
       </c>
       <c r="E23" t="n">
-        <v>2075745286</v>
+        <v>2044504694</v>
       </c>
       <c r="F23" t="n">
-        <v>353703.1882152918</v>
+        <v>68958.91859208506</v>
       </c>
       <c r="G23" t="n">
-        <v>338138.9795632912</v>
+        <v>81956.68248893844</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>5318925</v>
+        <v>12338015</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6909299</v>
+        <v>6525574</v>
       </c>
       <c r="E24" t="n">
-        <v>35546245</v>
+        <v>33572093</v>
       </c>
       <c r="F24" t="n">
-        <v>743.3709644896918</v>
+        <v>29.75450526964289</v>
       </c>
       <c r="G24" t="n">
-        <v>1302.101411751719</v>
+        <v>6199.635270275178</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I24" t="n">
-        <v>954048</v>
+        <v>958312</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23530138</v>
+        <v>23368194</v>
       </c>
       <c r="E25" t="n">
-        <v>23530138</v>
+        <v>23368194</v>
       </c>
       <c r="F25" t="n">
-        <v>7192.641689306137</v>
+        <v>2150.222314650029</v>
       </c>
       <c r="G25" t="n">
-        <v>10557.19912677367</v>
+        <v>15155.01779106653</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2298123</v>
+        <v>2441690</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>328224496</v>
+        <v>323261079</v>
       </c>
       <c r="E27" t="n">
-        <v>607290168</v>
+        <v>598106714</v>
       </c>
       <c r="F27" t="n">
-        <v>106381.127565221</v>
+        <v>10544.35356068443</v>
       </c>
       <c r="G27" t="n">
-        <v>126605.7067731896</v>
+        <v>16157.25628664573</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I27" t="n">
-        <v>14106199</v>
+        <v>14765663</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45142911</v>
+        <v>45302914</v>
       </c>
       <c r="E28" t="n">
-        <v>45142911</v>
+        <v>45302914</v>
       </c>
       <c r="F28" t="n">
-        <v>26682.55958068176</v>
+        <v>26571.31557129015</v>
       </c>
       <c r="G28" t="n">
-        <v>40322.44042380884</v>
+        <v>45608.2177648998</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>9533656</v>
+        <v>10076827</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>614991370</v>
+        <v>606544836</v>
       </c>
       <c r="E29" t="n">
-        <v>2381770842</v>
+        <v>2349058660</v>
       </c>
       <c r="F29" t="n">
-        <v>122118.0132035933</v>
+        <v>74249.90652609541</v>
       </c>
       <c r="G29" t="n">
-        <v>446752.5120870441</v>
+        <v>343654.8731978145</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>44379456</v>
+        <v>52499141</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125935566</v>
+        <v>125937067</v>
       </c>
       <c r="E30" t="n">
-        <v>483109101</v>
+        <v>483114860</v>
       </c>
       <c r="F30" t="n">
-        <v>144075.524895401</v>
+        <v>143107.4281881103</v>
       </c>
       <c r="G30" t="n">
-        <v>176891.5716426349</v>
+        <v>179501.0063584053</v>
       </c>
       <c r="H30" t="n">
         <v>0.14</v>
       </c>
       <c r="I30" t="n">
-        <v>38943335</v>
+        <v>40778724</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36083741</v>
+        <v>35447030</v>
       </c>
       <c r="F31" t="n">
-        <v>13591.29435289248</v>
+        <v>20470.81288205929</v>
       </c>
       <c r="G31" t="n">
-        <v>12282.09314714356</v>
+        <v>73563.39184967658</v>
       </c>
       <c r="H31" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>6461184</v>
+        <v>7197933</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88899590</v>
+        <v>88925713</v>
       </c>
       <c r="E32" t="n">
-        <v>328615497</v>
+        <v>328710443</v>
       </c>
       <c r="F32" t="n">
-        <v>9395.314958613284</v>
+        <v>9357.586991107135</v>
       </c>
       <c r="G32" t="n">
-        <v>8995.727215735906</v>
+        <v>2273.811782788812</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>178826</v>
+        <v>206982</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>498142154</v>
+        <v>494947356</v>
       </c>
       <c r="E33" t="n">
-        <v>1733991379</v>
+        <v>1722870554</v>
       </c>
       <c r="F33" t="n">
-        <v>227104.9515045914</v>
+        <v>113420.6321222473</v>
       </c>
       <c r="G33" t="n">
-        <v>284210.3917484747</v>
+        <v>157784.4254509789</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>39180813</v>
+        <v>42902942</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>109292595</v>
+        <v>106625174</v>
       </c>
       <c r="E34" t="n">
-        <v>165590910</v>
+        <v>161549458</v>
       </c>
       <c r="F34" t="n">
-        <v>65396.34545136367</v>
+        <v>35470.104004554</v>
       </c>
       <c r="G34" t="n">
-        <v>65736.68784200914</v>
+        <v>58267.52362471951</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9111840</v>
+        <v>9489059</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2628252</v>
+        <v>2572400</v>
       </c>
       <c r="E35" t="n">
-        <v>10513007</v>
+        <v>10289601</v>
       </c>
       <c r="F35" t="n">
-        <v>14203.8410223335</v>
+        <v>78775.12806513606</v>
       </c>
       <c r="G35" t="n">
-        <v>83859.3467255767</v>
+        <v>84890.73255450305</v>
       </c>
       <c r="H35" t="n">
         <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>7050866</v>
+        <v>7111796</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>226825438</v>
+        <v>221184646</v>
       </c>
       <c r="E36" t="n">
-        <v>697402861</v>
+        <v>680059549</v>
       </c>
       <c r="F36" t="n">
-        <v>187857.7427027823</v>
+        <v>168961.4408945013</v>
       </c>
       <c r="G36" t="n">
-        <v>196768.2802918424</v>
+        <v>155117.1179502284</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>22732360</v>
+        <v>19988850</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>144372079</v>
+        <v>141913369</v>
       </c>
       <c r="E37" t="n">
-        <v>377168052</v>
+        <v>370744741</v>
       </c>
       <c r="F37" t="n">
-        <v>46985.37718148152</v>
+        <v>78314.48975685284</v>
       </c>
       <c r="G37" t="n">
-        <v>48726.77325722478</v>
+        <v>35618.02746002923</v>
       </c>
       <c r="H37" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I37" t="n">
-        <v>8462653</v>
+        <v>8808615</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401207005</v>
+        <v>397288993</v>
       </c>
       <c r="E38" t="n">
-        <v>2292611458</v>
+        <v>2270222818</v>
       </c>
       <c r="F38" t="n">
-        <v>34970.15397585332</v>
+        <v>50851.19765261994</v>
       </c>
       <c r="G38" t="n">
-        <v>90732.36095987883</v>
+        <v>89486.27087363291</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>45196198</v>
+        <v>52305950</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>256099108</v>
+        <v>256604405</v>
       </c>
       <c r="E2" t="n">
-        <v>1605961511</v>
+        <v>1609130154</v>
       </c>
       <c r="F2" t="n">
-        <v>64147.42751615761</v>
+        <v>81458.90342363785</v>
       </c>
       <c r="G2" t="n">
-        <v>110072.4869493632</v>
+        <v>105890.5630788589</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>23213025</v>
+        <v>23843801</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>148154836</v>
+        <v>146033158</v>
       </c>
       <c r="E3" t="n">
-        <v>164178712</v>
+        <v>161827561</v>
       </c>
       <c r="F3" t="n">
-        <v>73659.14460492229</v>
+        <v>77053.66475198021</v>
       </c>
       <c r="G3" t="n">
-        <v>195433.5302948484</v>
+        <v>91557.42519899744</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>49144739</v>
+        <v>49522623</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>588119439</v>
+        <v>574692303</v>
       </c>
       <c r="E4" t="n">
-        <v>735650008</v>
+        <v>718854656</v>
       </c>
       <c r="F4" t="n">
-        <v>130911.0307470004</v>
+        <v>127137.0484572667</v>
       </c>
       <c r="G4" t="n">
-        <v>134134.3958923341</v>
+        <v>135832.2497158279</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>88049767</v>
+        <v>88030542</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145899163</v>
+        <v>143677499</v>
       </c>
       <c r="E5" t="n">
-        <v>145899163</v>
+        <v>143677499</v>
       </c>
       <c r="F5" t="n">
-        <v>100842.8983115775</v>
+        <v>91181.63208501953</v>
       </c>
       <c r="G5" t="n">
-        <v>93181.27486899892</v>
+        <v>98944.45806332481</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>86691928</v>
+        <v>87609775</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>266980243</v>
+        <v>263617511</v>
       </c>
       <c r="E6" t="n">
-        <v>266980243</v>
+        <v>263617511</v>
       </c>
       <c r="F6" t="n">
-        <v>66624.99641751208</v>
+        <v>66415.02460713231</v>
       </c>
       <c r="G6" t="n">
-        <v>113745.2670882784</v>
+        <v>94358.01863876723</v>
       </c>
       <c r="H6" t="n">
         <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>26065806</v>
+        <v>25376924</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100423619</v>
+        <v>99386929</v>
       </c>
       <c r="E7" t="n">
-        <v>125216481</v>
+        <v>123923851</v>
       </c>
       <c r="F7" t="n">
-        <v>14954.36252173513</v>
+        <v>21640.1747209663</v>
       </c>
       <c r="G7" t="n">
-        <v>45837.23279070474</v>
+        <v>55998.47173187281</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>13295675</v>
+        <v>11088954</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>90126042</v>
+        <v>89760137</v>
       </c>
       <c r="E8" t="n">
-        <v>187905559</v>
+        <v>187142677</v>
       </c>
       <c r="F8" t="n">
-        <v>49238.71591468763</v>
+        <v>28147.1541798317</v>
       </c>
       <c r="G8" t="n">
-        <v>56160.34082907203</v>
+        <v>47399.20615389539</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I8" t="n">
-        <v>65416390</v>
+        <v>67224311</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143640453</v>
+        <v>142532954</v>
       </c>
       <c r="E9" t="n">
-        <v>143697055</v>
+        <v>142589477</v>
       </c>
       <c r="F9" t="n">
-        <v>11000.92028107407</v>
+        <v>11612.12162974969</v>
       </c>
       <c r="G9" t="n">
-        <v>11811.68209763251</v>
+        <v>11017.899116533</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>3044144</v>
+        <v>3055552</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>688888422</v>
+        <v>675715529</v>
       </c>
       <c r="E10" t="n">
-        <v>688888422</v>
+        <v>675715529</v>
       </c>
       <c r="F10" t="n">
-        <v>365370.9446634592</v>
+        <v>378477.1889677735</v>
       </c>
       <c r="G10" t="n">
-        <v>578850.8926526931</v>
+        <v>562064.5080029797</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I10" t="n">
-        <v>489824208</v>
+        <v>499422847</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72178009</v>
+        <v>71733981</v>
       </c>
       <c r="E11" t="n">
-        <v>82815072</v>
+        <v>82305605</v>
       </c>
       <c r="F11" t="n">
-        <v>6142.341604941174</v>
+        <v>3504.67593101792</v>
       </c>
       <c r="G11" t="n">
-        <v>5321.924776588635</v>
+        <v>4611.496608045555</v>
       </c>
       <c r="H11" t="n">
-        <v>0.71</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1488432</v>
+        <v>1381823</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>270099278</v>
+        <v>267068291</v>
       </c>
       <c r="E12" t="n">
-        <v>1165898429</v>
+        <v>1152815002</v>
       </c>
       <c r="F12" t="n">
-        <v>313846.2748348205</v>
+        <v>169414.6546669707</v>
       </c>
       <c r="G12" t="n">
-        <v>396222.4157203087</v>
+        <v>284398.4471930457</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>132588890</v>
+        <v>135083012</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116076528</v>
+        <v>114660409</v>
       </c>
       <c r="E13" t="n">
-        <v>116076528</v>
+        <v>114660409</v>
       </c>
       <c r="F13" t="n">
-        <v>6655.66551433601</v>
+        <v>6226.018660284715</v>
       </c>
       <c r="G13" t="n">
-        <v>3450.907749086555</v>
+        <v>2476.860421634978</v>
       </c>
       <c r="H13" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>6755917</v>
+        <v>8027311</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17492813</v>
+        <v>16266805</v>
       </c>
       <c r="E14" t="n">
-        <v>43732034</v>
+        <v>40667013</v>
       </c>
       <c r="F14" t="n">
-        <v>11988.37790029208</v>
+        <v>24079.31354476565</v>
       </c>
       <c r="G14" t="n">
-        <v>7800.839186142207</v>
+        <v>17885.75506954689</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>3183784</v>
+        <v>4018635</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13078887</v>
+        <v>12821105</v>
       </c>
       <c r="E15" t="n">
-        <v>19232257</v>
+        <v>18853193</v>
       </c>
       <c r="F15" t="n">
-        <v>7146.517207465878</v>
+        <v>10399.5002494285</v>
       </c>
       <c r="G15" t="n">
-        <v>4772.969197909175</v>
+        <v>37599.68688107416</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6778805</v>
+        <v>7066362</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31467303</v>
+        <v>31258276</v>
       </c>
       <c r="E16" t="n">
-        <v>97979085</v>
+        <v>97328243</v>
       </c>
       <c r="F16" t="n">
-        <v>11247.60398686679</v>
+        <v>13542.58699374047</v>
       </c>
       <c r="G16" t="n">
-        <v>18954.85048391504</v>
+        <v>21613.46812860891</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>10017147</v>
+        <v>10146362</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>336759066</v>
+        <v>331802335</v>
       </c>
       <c r="E17" t="n">
-        <v>3029693376</v>
+        <v>2985099547</v>
       </c>
       <c r="F17" t="n">
-        <v>7116.873194704534</v>
+        <v>6553.851417775272</v>
       </c>
       <c r="G17" t="n">
-        <v>7052.993084576426</v>
+        <v>5471.127953123525</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>56017212</v>
+        <v>59472873</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15831959</v>
+        <v>15801379</v>
       </c>
       <c r="E18" t="n">
-        <v>97039285</v>
+        <v>96851849</v>
       </c>
       <c r="F18" t="n">
-        <v>31243.13946462307</v>
+        <v>31486.39028931862</v>
       </c>
       <c r="G18" t="n">
-        <v>34753.45459616918</v>
+        <v>40941.01429651224</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>11238117</v>
+        <v>11346728</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50282402</v>
+        <v>49675355</v>
       </c>
       <c r="E19" t="n">
-        <v>216611090</v>
+        <v>213995998</v>
       </c>
       <c r="F19" t="n">
-        <v>21921.68495912528</v>
+        <v>26980.48179401259</v>
       </c>
       <c r="G19" t="n">
-        <v>51236.84812587583</v>
+        <v>40912.83075308659</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>11733157</v>
+        <v>12004220</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>304993523</v>
+        <v>300354551</v>
       </c>
       <c r="E20" t="n">
-        <v>304993523</v>
+        <v>300354551</v>
       </c>
       <c r="F20" t="n">
-        <v>75406.74566365438</v>
+        <v>73212.87384729848</v>
       </c>
       <c r="G20" t="n">
-        <v>114386.4596932405</v>
+        <v>120384.9660889206</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>84538263</v>
+        <v>85244446</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30345478</v>
+        <v>30277478</v>
       </c>
       <c r="E21" t="n">
-        <v>135869155</v>
+        <v>135564688</v>
       </c>
       <c r="F21" t="n">
-        <v>37085.93511791097</v>
+        <v>36774.79796741937</v>
       </c>
       <c r="G21" t="n">
-        <v>57863.98668979803</v>
+        <v>50712.536197037</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>11749434</v>
+        <v>12210219</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51069762</v>
+        <v>50219955</v>
       </c>
       <c r="E22" t="n">
-        <v>331173817</v>
+        <v>325663045</v>
       </c>
       <c r="F22" t="n">
-        <v>11399.48714955881</v>
+        <v>16853.42001492799</v>
       </c>
       <c r="G22" t="n">
-        <v>97708.92811713407</v>
+        <v>94036.77535568894</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>19061391</v>
+        <v>19242654</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123454323</v>
+        <v>123612660</v>
       </c>
       <c r="E23" t="n">
-        <v>2044504694</v>
+        <v>2047126895</v>
       </c>
       <c r="F23" t="n">
-        <v>68958.91859208506</v>
+        <v>57438.35361453453</v>
       </c>
       <c r="G23" t="n">
-        <v>81956.68248893844</v>
+        <v>62655.99699677031</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>12338015</v>
+        <v>21647481</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6525574</v>
+        <v>6362384</v>
       </c>
       <c r="E24" t="n">
-        <v>33572093</v>
+        <v>32732531</v>
       </c>
       <c r="F24" t="n">
-        <v>29.75450526964289</v>
+        <v>1322.719994031992</v>
       </c>
       <c r="G24" t="n">
-        <v>6199.635270275178</v>
+        <v>3692.682451386308</v>
       </c>
       <c r="H24" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>958312</v>
+        <v>945674</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23368194</v>
+        <v>23276905</v>
       </c>
       <c r="E25" t="n">
-        <v>23368194</v>
+        <v>23276905</v>
       </c>
       <c r="F25" t="n">
-        <v>2150.222314650029</v>
+        <v>15353.99570479203</v>
       </c>
       <c r="G25" t="n">
-        <v>15155.01779106653</v>
+        <v>7180.641399013163</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2441690</v>
+        <v>2408477</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>323261079</v>
+        <v>315783005</v>
       </c>
       <c r="E27" t="n">
-        <v>598106714</v>
+        <v>584270572</v>
       </c>
       <c r="F27" t="n">
-        <v>10544.35356068443</v>
+        <v>15090.64479010963</v>
       </c>
       <c r="G27" t="n">
-        <v>16157.25628664573</v>
+        <v>15372.18238635774</v>
       </c>
       <c r="H27" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>14765663</v>
+        <v>15629707</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45302914</v>
+        <v>45008409</v>
       </c>
       <c r="E28" t="n">
-        <v>45302914</v>
+        <v>45008409</v>
       </c>
       <c r="F28" t="n">
-        <v>26571.31557129015</v>
+        <v>27689.39710250906</v>
       </c>
       <c r="G28" t="n">
-        <v>45608.2177648998</v>
+        <v>40303.59679405122</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I28" t="n">
-        <v>10076827</v>
+        <v>10181323</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>606544836</v>
+        <v>595359427</v>
       </c>
       <c r="E29" t="n">
-        <v>2349058660</v>
+        <v>2305739222</v>
       </c>
       <c r="F29" t="n">
-        <v>74249.90652609541</v>
+        <v>81441.6783540881</v>
       </c>
       <c r="G29" t="n">
-        <v>343654.8731978145</v>
+        <v>263283.0385543588</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>52499141</v>
+        <v>52365261</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125937067</v>
+        <v>125474164</v>
       </c>
       <c r="E30" t="n">
-        <v>483114860</v>
+        <v>481339088</v>
       </c>
       <c r="F30" t="n">
-        <v>143107.4281881103</v>
+        <v>147057.8037250346</v>
       </c>
       <c r="G30" t="n">
-        <v>179501.0063584053</v>
+        <v>184300.0453227222</v>
       </c>
       <c r="H30" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>40778724</v>
+        <v>40427237</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35447030</v>
+        <v>35387706</v>
       </c>
       <c r="F31" t="n">
-        <v>20470.81288205929</v>
+        <v>19744.58931695186</v>
       </c>
       <c r="G31" t="n">
-        <v>73563.39184967658</v>
+        <v>153101.5635872426</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>7197933</v>
+        <v>7362758</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88925713</v>
+        <v>88188680</v>
       </c>
       <c r="E32" t="n">
-        <v>328710443</v>
+        <v>325985682</v>
       </c>
       <c r="F32" t="n">
-        <v>9357.586991107135</v>
+        <v>9181.997612629399</v>
       </c>
       <c r="G32" t="n">
-        <v>2273.811782788812</v>
+        <v>8890.501439516211</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>206982</v>
+        <v>215354</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>494947356</v>
+        <v>490399355</v>
       </c>
       <c r="E33" t="n">
-        <v>1722870554</v>
+        <v>1707039342</v>
       </c>
       <c r="F33" t="n">
-        <v>113420.6321222473</v>
+        <v>106696.1849858105</v>
       </c>
       <c r="G33" t="n">
-        <v>157784.4254509789</v>
+        <v>155832.4842520553</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>42902942</v>
+        <v>44091158</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106625174</v>
+        <v>106017604</v>
       </c>
       <c r="E34" t="n">
-        <v>161549458</v>
+        <v>160628920</v>
       </c>
       <c r="F34" t="n">
-        <v>35470.104004554</v>
+        <v>55290.28869213752</v>
       </c>
       <c r="G34" t="n">
-        <v>58267.52362471951</v>
+        <v>55200.07730171452</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>9489059</v>
+        <v>9480595</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2572400</v>
+        <v>2545145</v>
       </c>
       <c r="E35" t="n">
-        <v>10289601</v>
+        <v>10180581</v>
       </c>
       <c r="F35" t="n">
-        <v>78775.12806513606</v>
+        <v>50569.03319566992</v>
       </c>
       <c r="G35" t="n">
-        <v>84890.73255450305</v>
+        <v>89163.74823136177</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>7111796</v>
+        <v>7121949</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>221184646</v>
+        <v>217692403</v>
       </c>
       <c r="E36" t="n">
-        <v>680059549</v>
+        <v>669322217</v>
       </c>
       <c r="F36" t="n">
-        <v>168961.4408945013</v>
+        <v>132042.0305184806</v>
       </c>
       <c r="G36" t="n">
-        <v>155117.1179502284</v>
+        <v>147805.3832497449</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>19988850</v>
+        <v>24948846</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>141913369</v>
+        <v>139460330</v>
       </c>
       <c r="E37" t="n">
-        <v>370744741</v>
+        <v>364336242</v>
       </c>
       <c r="F37" t="n">
-        <v>78314.48975685284</v>
+        <v>44829.96875026416</v>
       </c>
       <c r="G37" t="n">
-        <v>35618.02746002923</v>
+        <v>41212.78711882218</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>8808615</v>
+        <v>8917468</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>397288993</v>
+        <v>392107386</v>
       </c>
       <c r="E38" t="n">
-        <v>2270222818</v>
+        <v>2240613636</v>
       </c>
       <c r="F38" t="n">
-        <v>50851.19765261994</v>
+        <v>40909.88701362619</v>
       </c>
       <c r="G38" t="n">
-        <v>89486.27087363291</v>
+        <v>97565.18682129854</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>52305950</v>
+        <v>53739218</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>256604405</v>
+        <v>253419847</v>
       </c>
       <c r="E2" t="n">
-        <v>1609130154</v>
+        <v>1589160241</v>
       </c>
       <c r="F2" t="n">
-        <v>81458.90342363785</v>
+        <v>91801.67509744047</v>
       </c>
       <c r="G2" t="n">
-        <v>105890.5630788589</v>
+        <v>107993.1610586985</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>23843801</v>
+        <v>22444843</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>146033158</v>
+        <v>142839129</v>
       </c>
       <c r="E3" t="n">
-        <v>161827561</v>
+        <v>158288077</v>
       </c>
       <c r="F3" t="n">
-        <v>77053.66475198021</v>
+        <v>76710.86004537254</v>
       </c>
       <c r="G3" t="n">
-        <v>91557.42519899744</v>
+        <v>88399.49383795536</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>49522623</v>
+        <v>48461193</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>574692303</v>
+        <v>566672089</v>
       </c>
       <c r="E4" t="n">
-        <v>718854656</v>
+        <v>708822560</v>
       </c>
       <c r="F4" t="n">
-        <v>127137.0484572667</v>
+        <v>130801.0648293785</v>
       </c>
       <c r="G4" t="n">
-        <v>135832.2497158279</v>
+        <v>130171.0894365484</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>88030542</v>
+        <v>88691307</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143677499</v>
+        <v>141300741</v>
       </c>
       <c r="E5" t="n">
-        <v>143677499</v>
+        <v>141300741</v>
       </c>
       <c r="F5" t="n">
-        <v>91181.63208501953</v>
+        <v>97398.27924450955</v>
       </c>
       <c r="G5" t="n">
-        <v>98944.45806332481</v>
+        <v>93309.29643092626</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>87609775</v>
+        <v>88060317</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>263617511</v>
+        <v>258469132</v>
       </c>
       <c r="E6" t="n">
-        <v>263617511</v>
+        <v>258469132</v>
       </c>
       <c r="F6" t="n">
-        <v>66415.02460713231</v>
+        <v>72331.31147529877</v>
       </c>
       <c r="G6" t="n">
-        <v>94358.01863876723</v>
+        <v>98570.78558155827</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25376924</v>
+        <v>22670795</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99386929</v>
+        <v>97883383</v>
       </c>
       <c r="E7" t="n">
-        <v>123923851</v>
+        <v>122049105</v>
       </c>
       <c r="F7" t="n">
-        <v>21640.1747209663</v>
+        <v>15494.39610958574</v>
       </c>
       <c r="G7" t="n">
-        <v>55998.47173187281</v>
+        <v>48923.10965498898</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11088954</v>
+        <v>11276267</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>89760137</v>
+        <v>86870537</v>
       </c>
       <c r="E8" t="n">
-        <v>187142677</v>
+        <v>181118093</v>
       </c>
       <c r="F8" t="n">
-        <v>28147.1541798317</v>
+        <v>27108.89065816876</v>
       </c>
       <c r="G8" t="n">
-        <v>47399.20615389539</v>
+        <v>58082.24121888613</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>67224311</v>
+        <v>67290391</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142532954</v>
+        <v>141083717</v>
       </c>
       <c r="E9" t="n">
-        <v>142589477</v>
+        <v>141139666</v>
       </c>
       <c r="F9" t="n">
-        <v>11612.12162974969</v>
+        <v>8686.762951648827</v>
       </c>
       <c r="G9" t="n">
-        <v>11017.899116533</v>
+        <v>13739.14360833592</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>3055552</v>
+        <v>3092517</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>675715529</v>
+        <v>665457949</v>
       </c>
       <c r="E10" t="n">
-        <v>675715529</v>
+        <v>665457949</v>
       </c>
       <c r="F10" t="n">
-        <v>378477.1889677735</v>
+        <v>403580.6280071897</v>
       </c>
       <c r="G10" t="n">
-        <v>562064.5080029797</v>
+        <v>525248.030114827</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>499422847</v>
+        <v>504536153</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71733981</v>
+        <v>71826385</v>
       </c>
       <c r="E11" t="n">
-        <v>82305605</v>
+        <v>82411627</v>
       </c>
       <c r="F11" t="n">
-        <v>3504.67593101792</v>
+        <v>2590.023292024969</v>
       </c>
       <c r="G11" t="n">
-        <v>4611.496608045555</v>
+        <v>3428.43426902184</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1381823</v>
+        <v>1246879</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267068291</v>
+        <v>261890256</v>
       </c>
       <c r="E12" t="n">
-        <v>1152815002</v>
+        <v>1130463730</v>
       </c>
       <c r="F12" t="n">
-        <v>169414.6546669707</v>
+        <v>159467.3022214873</v>
       </c>
       <c r="G12" t="n">
-        <v>284398.4471930457</v>
+        <v>261384.0665591297</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>135083012</v>
+        <v>135774099</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114660409</v>
+        <v>113873099</v>
       </c>
       <c r="E13" t="n">
-        <v>114660409</v>
+        <v>113873099</v>
       </c>
       <c r="F13" t="n">
-        <v>6226.018660284715</v>
+        <v>5545.487669667123</v>
       </c>
       <c r="G13" t="n">
-        <v>2476.860421634978</v>
+        <v>3360.915107223151</v>
       </c>
       <c r="H13" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>8027311</v>
+        <v>6943681</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16266805</v>
+        <v>16159011</v>
       </c>
       <c r="E14" t="n">
-        <v>40667013</v>
+        <v>40397527</v>
       </c>
       <c r="F14" t="n">
-        <v>24079.31354476565</v>
+        <v>19444.09446284109</v>
       </c>
       <c r="G14" t="n">
-        <v>17885.75506954689</v>
+        <v>10324.6648786867</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>4018635</v>
+        <v>4103461</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12821105</v>
+        <v>12701135</v>
       </c>
       <c r="E15" t="n">
-        <v>18853193</v>
+        <v>18676780</v>
       </c>
       <c r="F15" t="n">
-        <v>10399.5002494285</v>
+        <v>5759.753517143854</v>
       </c>
       <c r="G15" t="n">
-        <v>37599.68688107416</v>
+        <v>8295.532762088782</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I15" t="n">
-        <v>7066362</v>
+        <v>7149860</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31258276</v>
+        <v>30266351</v>
       </c>
       <c r="E16" t="n">
-        <v>97328243</v>
+        <v>94239707</v>
       </c>
       <c r="F16" t="n">
-        <v>13542.58699374047</v>
+        <v>19423.50259685539</v>
       </c>
       <c r="G16" t="n">
-        <v>21613.46812860891</v>
+        <v>15256.77738502603</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>10146362</v>
+        <v>10220402</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>331802335</v>
+        <v>327759833</v>
       </c>
       <c r="E17" t="n">
-        <v>2985099547</v>
+        <v>2948730692</v>
       </c>
       <c r="F17" t="n">
-        <v>6553.851417775272</v>
+        <v>6546.868611354586</v>
       </c>
       <c r="G17" t="n">
-        <v>5471.127953123525</v>
+        <v>7231.160834032155</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>59472873</v>
+        <v>61159840</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15801379</v>
+        <v>15656341</v>
       </c>
       <c r="E18" t="n">
-        <v>96851849</v>
+        <v>95962864</v>
       </c>
       <c r="F18" t="n">
-        <v>31486.39028931862</v>
+        <v>25729.0727351358</v>
       </c>
       <c r="G18" t="n">
-        <v>40941.01429651224</v>
+        <v>40392.12729063453</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>11346728</v>
+        <v>11291319</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49675355</v>
+        <v>48680241</v>
       </c>
       <c r="E19" t="n">
-        <v>213995998</v>
+        <v>209709157</v>
       </c>
       <c r="F19" t="n">
-        <v>26980.48179401259</v>
+        <v>27945.74058098755</v>
       </c>
       <c r="G19" t="n">
-        <v>40912.83075308659</v>
+        <v>41960.38915479398</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I19" t="n">
-        <v>12004220</v>
+        <v>11696377</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300354551</v>
+        <v>295177574</v>
       </c>
       <c r="E20" t="n">
-        <v>300354551</v>
+        <v>295177574</v>
       </c>
       <c r="F20" t="n">
-        <v>73212.87384729848</v>
+        <v>71990.24427673903</v>
       </c>
       <c r="G20" t="n">
-        <v>120384.9660889206</v>
+        <v>124697.9209928257</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>85244446</v>
+        <v>86376299</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30277478</v>
+        <v>29410351</v>
       </c>
       <c r="E21" t="n">
-        <v>135564688</v>
+        <v>131682206</v>
       </c>
       <c r="F21" t="n">
-        <v>36774.79796741937</v>
+        <v>34262.92145683403</v>
       </c>
       <c r="G21" t="n">
-        <v>50712.536197037</v>
+        <v>48139.17869431288</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>12210219</v>
+        <v>12502010</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50219955</v>
+        <v>49500733</v>
       </c>
       <c r="E22" t="n">
-        <v>325663045</v>
+        <v>320999077</v>
       </c>
       <c r="F22" t="n">
-        <v>16853.42001492799</v>
+        <v>11426.26793531517</v>
       </c>
       <c r="G22" t="n">
-        <v>94036.77535568894</v>
+        <v>96139.95996556515</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>19242654</v>
+        <v>19653911</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123612660</v>
+        <v>123198170</v>
       </c>
       <c r="E23" t="n">
-        <v>2047126895</v>
+        <v>2040262602</v>
       </c>
       <c r="F23" t="n">
-        <v>57438.35361453453</v>
+        <v>49717.64979982686</v>
       </c>
       <c r="G23" t="n">
-        <v>62655.99699677031</v>
+        <v>63975.62043419332</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>21647481</v>
+        <v>23114349</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6362384</v>
+        <v>6310656</v>
       </c>
       <c r="E24" t="n">
-        <v>32732531</v>
+        <v>32466408</v>
       </c>
       <c r="F24" t="n">
-        <v>1322.719994031992</v>
+        <v>856.968540407536</v>
       </c>
       <c r="G24" t="n">
-        <v>3692.682451386308</v>
+        <v>3883.595548040411</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>945674</v>
+        <v>887541</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23276905</v>
+        <v>22945494</v>
       </c>
       <c r="E25" t="n">
-        <v>23276905</v>
+        <v>22945494</v>
       </c>
       <c r="F25" t="n">
-        <v>15353.99570479203</v>
+        <v>15041.63968064749</v>
       </c>
       <c r="G25" t="n">
-        <v>7180.641399013163</v>
+        <v>7747.877465196624</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>2408477</v>
+        <v>2388132</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>315783005</v>
+        <v>307500677</v>
       </c>
       <c r="E27" t="n">
-        <v>584270572</v>
+        <v>568946378</v>
       </c>
       <c r="F27" t="n">
-        <v>15090.64479010963</v>
+        <v>11998.33066218303</v>
       </c>
       <c r="G27" t="n">
-        <v>15372.18238635774</v>
+        <v>18404.35645206014</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I27" t="n">
-        <v>15629707</v>
+        <v>16612067</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45008409</v>
+        <v>44165092</v>
       </c>
       <c r="E28" t="n">
-        <v>45008409</v>
+        <v>44165092</v>
       </c>
       <c r="F28" t="n">
-        <v>27689.39710250906</v>
+        <v>29868.90907962331</v>
       </c>
       <c r="G28" t="n">
-        <v>40303.59679405122</v>
+        <v>41858.85461244875</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>10181323</v>
+        <v>10301222</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>595359427</v>
+        <v>588147265</v>
       </c>
       <c r="E29" t="n">
-        <v>2305739222</v>
+        <v>2277807583</v>
       </c>
       <c r="F29" t="n">
-        <v>81441.6783540881</v>
+        <v>80286.55169828077</v>
       </c>
       <c r="G29" t="n">
-        <v>263283.0385543588</v>
+        <v>244251.1748932862</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>52365261</v>
+        <v>53864417</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125474164</v>
+        <v>123471334</v>
       </c>
       <c r="E30" t="n">
-        <v>481339088</v>
+        <v>473655913</v>
       </c>
       <c r="F30" t="n">
-        <v>147057.8037250346</v>
+        <v>141881.0965773469</v>
       </c>
       <c r="G30" t="n">
-        <v>184300.0453227222</v>
+        <v>180126.9870903143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>40427237</v>
+        <v>40367280</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35387706</v>
+        <v>35122568</v>
       </c>
       <c r="F31" t="n">
-        <v>19744.58931695186</v>
+        <v>23731.91115514519</v>
       </c>
       <c r="G31" t="n">
-        <v>153101.5635872426</v>
+        <v>66129.12977358056</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>7362758</v>
+        <v>7410266</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88188680</v>
+        <v>88137977</v>
       </c>
       <c r="E32" t="n">
-        <v>325985682</v>
+        <v>325797512</v>
       </c>
       <c r="F32" t="n">
-        <v>9181.997612629399</v>
+        <v>9399.657688737056</v>
       </c>
       <c r="G32" t="n">
-        <v>8890.501439516211</v>
+        <v>8833.657177419796</v>
       </c>
       <c r="H32" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>215354</v>
+        <v>217582</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>490399355</v>
+        <v>482274629</v>
       </c>
       <c r="E33" t="n">
-        <v>1707039342</v>
+        <v>1678757846</v>
       </c>
       <c r="F33" t="n">
-        <v>106696.1849858105</v>
+        <v>69270.85221138771</v>
       </c>
       <c r="G33" t="n">
-        <v>155832.4842520553</v>
+        <v>138389.523101218</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>44091158</v>
+        <v>44509898</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106017604</v>
+        <v>104846350</v>
       </c>
       <c r="E34" t="n">
-        <v>160628920</v>
+        <v>158854334</v>
       </c>
       <c r="F34" t="n">
-        <v>55290.28869213752</v>
+        <v>58910.98063515088</v>
       </c>
       <c r="G34" t="n">
-        <v>55200.07730171452</v>
+        <v>53193.43213271478</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9480595</v>
+        <v>9560232</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2545145</v>
+        <v>2531373</v>
       </c>
       <c r="E35" t="n">
-        <v>10180581</v>
+        <v>10125493</v>
       </c>
       <c r="F35" t="n">
-        <v>50569.03319566992</v>
+        <v>88064.02876427834</v>
       </c>
       <c r="G35" t="n">
-        <v>89163.74823136177</v>
+        <v>62046.61038038519</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7121949</v>
+        <v>7112777</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>217692403</v>
+        <v>214610941</v>
       </c>
       <c r="E36" t="n">
-        <v>669322217</v>
+        <v>659847879</v>
       </c>
       <c r="F36" t="n">
-        <v>132042.0305184806</v>
+        <v>160192.0454900403</v>
       </c>
       <c r="G36" t="n">
-        <v>147805.3832497449</v>
+        <v>182196.0494553791</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>24948846</v>
+        <v>20484547</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>139460330</v>
+        <v>137279800</v>
       </c>
       <c r="E37" t="n">
-        <v>364336242</v>
+        <v>358639670</v>
       </c>
       <c r="F37" t="n">
-        <v>44829.96875026416</v>
+        <v>44627.41318779845</v>
       </c>
       <c r="G37" t="n">
-        <v>41212.78711882218</v>
+        <v>46179.70638881608</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8917468</v>
+        <v>8895046</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>392107386</v>
+        <v>385311940</v>
       </c>
       <c r="E38" t="n">
-        <v>2240613636</v>
+        <v>2201782516</v>
       </c>
       <c r="F38" t="n">
-        <v>40909.88701362619</v>
+        <v>37025.78404944231</v>
       </c>
       <c r="G38" t="n">
-        <v>97565.18682129854</v>
+        <v>91615.38035552486</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>53739218</v>
+        <v>54940286</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>253419847</v>
+        <v>249992035</v>
       </c>
       <c r="E2" t="n">
-        <v>1589160241</v>
+        <v>1567664913</v>
       </c>
       <c r="F2" t="n">
-        <v>91801.67509744047</v>
+        <v>101894.9808912904</v>
       </c>
       <c r="G2" t="n">
-        <v>107993.1610586985</v>
+        <v>128187.0458981075</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>22444843</v>
+        <v>23902380</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142839129</v>
+        <v>142970163</v>
       </c>
       <c r="E3" t="n">
-        <v>158288077</v>
+        <v>158433283</v>
       </c>
       <c r="F3" t="n">
-        <v>76710.86004537254</v>
+        <v>71479.05217174022</v>
       </c>
       <c r="G3" t="n">
-        <v>88399.49383795536</v>
+        <v>94093.72938261251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>48461193</v>
+        <v>50514037</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>566672089</v>
+        <v>563756387</v>
       </c>
       <c r="E4" t="n">
-        <v>708822560</v>
+        <v>705175451</v>
       </c>
       <c r="F4" t="n">
-        <v>130801.0648293785</v>
+        <v>117328.8623062829</v>
       </c>
       <c r="G4" t="n">
-        <v>130171.0894365484</v>
+        <v>153264.6423403964</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>88691307</v>
+        <v>91794183</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141300741</v>
+        <v>141458745</v>
       </c>
       <c r="E5" t="n">
-        <v>141300741</v>
+        <v>141458745</v>
       </c>
       <c r="F5" t="n">
-        <v>97398.27924450955</v>
+        <v>73370.05147468775</v>
       </c>
       <c r="G5" t="n">
-        <v>93309.29643092626</v>
+        <v>128070.968272072</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>88060317</v>
+        <v>86886311</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>258469132</v>
+        <v>256982061</v>
       </c>
       <c r="E6" t="n">
-        <v>258469132</v>
+        <v>256982061</v>
       </c>
       <c r="F6" t="n">
-        <v>72331.31147529877</v>
+        <v>64386.69146595189</v>
       </c>
       <c r="G6" t="n">
-        <v>98570.78558155827</v>
+        <v>101915.8226553348</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>22670795</v>
+        <v>24141328</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97883383</v>
+        <v>97074229</v>
       </c>
       <c r="E7" t="n">
-        <v>122049105</v>
+        <v>121040184</v>
       </c>
       <c r="F7" t="n">
-        <v>15494.39610958574</v>
+        <v>13398.26400686526</v>
       </c>
       <c r="G7" t="n">
-        <v>48923.10965498898</v>
+        <v>47045.40686638708</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>11276267</v>
+        <v>11549503</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86870537</v>
+        <v>86106886</v>
       </c>
       <c r="E8" t="n">
-        <v>181118093</v>
+        <v>179525942</v>
       </c>
       <c r="F8" t="n">
-        <v>27108.89065816876</v>
+        <v>21244.54402339148</v>
       </c>
       <c r="G8" t="n">
-        <v>58082.24121888613</v>
+        <v>52853.86656279111</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I8" t="n">
-        <v>67290391</v>
+        <v>68576915</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>141083717</v>
+        <v>140372687</v>
       </c>
       <c r="E9" t="n">
-        <v>141139666</v>
+        <v>140428868</v>
       </c>
       <c r="F9" t="n">
-        <v>8686.762951648827</v>
+        <v>9435.940702794433</v>
       </c>
       <c r="G9" t="n">
-        <v>13739.14360833592</v>
+        <v>14668.40321929142</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>3092517</v>
+        <v>3183970</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>665457949</v>
+        <v>656203888</v>
       </c>
       <c r="E10" t="n">
-        <v>665457949</v>
+        <v>656203888</v>
       </c>
       <c r="F10" t="n">
-        <v>403580.6280071897</v>
+        <v>375683.9624560965</v>
       </c>
       <c r="G10" t="n">
-        <v>525248.030114827</v>
+        <v>563228.8307487149</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>504536153</v>
+        <v>523742686</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71826385</v>
+        <v>72692199</v>
       </c>
       <c r="E11" t="n">
-        <v>82411627</v>
+        <v>83405039</v>
       </c>
       <c r="F11" t="n">
-        <v>2590.023292024969</v>
+        <v>8579.851909999836</v>
       </c>
       <c r="G11" t="n">
-        <v>3428.43426902184</v>
+        <v>1840.382629926095</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1246879</v>
+        <v>1574637</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>261890256</v>
+        <v>262925639</v>
       </c>
       <c r="E12" t="n">
-        <v>1130463730</v>
+        <v>1134933019</v>
       </c>
       <c r="F12" t="n">
-        <v>159467.3022214873</v>
+        <v>191541.1989535111</v>
       </c>
       <c r="G12" t="n">
-        <v>261384.0665591297</v>
+        <v>265664.9664544952</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>135774099</v>
+        <v>133381056</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113873099</v>
+        <v>113351629</v>
       </c>
       <c r="E13" t="n">
-        <v>113873099</v>
+        <v>113351629</v>
       </c>
       <c r="F13" t="n">
-        <v>5545.487669667123</v>
+        <v>5839.960857668959</v>
       </c>
       <c r="G13" t="n">
-        <v>3360.915107223151</v>
+        <v>3544.053391816278</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I13" t="n">
-        <v>6943681</v>
+        <v>6862391</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16159011</v>
+        <v>15865433</v>
       </c>
       <c r="E14" t="n">
-        <v>40397527</v>
+        <v>39663582</v>
       </c>
       <c r="F14" t="n">
-        <v>19444.09446284109</v>
+        <v>11042.34899945214</v>
       </c>
       <c r="G14" t="n">
-        <v>10324.6648786867</v>
+        <v>21136.9403618073</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4103461</v>
+        <v>4465054</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12701135</v>
+        <v>12646565</v>
       </c>
       <c r="E15" t="n">
-        <v>18676780</v>
+        <v>18596535</v>
       </c>
       <c r="F15" t="n">
-        <v>5759.753517143854</v>
+        <v>6514.136907977642</v>
       </c>
       <c r="G15" t="n">
-        <v>8295.532762088782</v>
+        <v>1785.699198427312</v>
       </c>
       <c r="H15" t="n">
-        <v>0.48</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>7149860</v>
+        <v>7137791</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30266351</v>
+        <v>29913660</v>
       </c>
       <c r="E16" t="n">
-        <v>94239707</v>
+        <v>93141539</v>
       </c>
       <c r="F16" t="n">
-        <v>19423.50259685539</v>
+        <v>16251.7310700445</v>
       </c>
       <c r="G16" t="n">
-        <v>15256.77738502603</v>
+        <v>12821.70659132235</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>10220402</v>
+        <v>10307355</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>327759833</v>
+        <v>325155934</v>
       </c>
       <c r="E17" t="n">
-        <v>2948730692</v>
+        <v>2925304404</v>
       </c>
       <c r="F17" t="n">
-        <v>6546.868611354586</v>
+        <v>6787.776032785232</v>
       </c>
       <c r="G17" t="n">
-        <v>7231.160834032155</v>
+        <v>4540.873011251553</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I17" t="n">
-        <v>61159840</v>
+        <v>62246217</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15656341</v>
+        <v>15621997</v>
       </c>
       <c r="E18" t="n">
-        <v>95962864</v>
+        <v>95752359</v>
       </c>
       <c r="F18" t="n">
-        <v>25729.0727351358</v>
+        <v>18000.02911689347</v>
       </c>
       <c r="G18" t="n">
-        <v>40392.12729063453</v>
+        <v>32671.03412799784</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11291319</v>
+        <v>12116436</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48680241</v>
+        <v>47458332</v>
       </c>
       <c r="E19" t="n">
-        <v>209709157</v>
+        <v>204445306</v>
       </c>
       <c r="F19" t="n">
-        <v>27945.74058098755</v>
+        <v>30633.60007138594</v>
       </c>
       <c r="G19" t="n">
-        <v>41960.38915479398</v>
+        <v>35996.2907236234</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>11696377</v>
+        <v>11779965</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>295177574</v>
+        <v>294148073</v>
       </c>
       <c r="E20" t="n">
-        <v>295177574</v>
+        <v>294148073</v>
       </c>
       <c r="F20" t="n">
-        <v>71990.24427673903</v>
+        <v>71054.5688262511</v>
       </c>
       <c r="G20" t="n">
-        <v>124697.9209928257</v>
+        <v>125396.5294869391</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>86376299</v>
+        <v>88270450</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29410351</v>
+        <v>29339533</v>
       </c>
       <c r="E21" t="n">
-        <v>131682206</v>
+        <v>131365127</v>
       </c>
       <c r="F21" t="n">
-        <v>34262.92145683403</v>
+        <v>35314.75198566514</v>
       </c>
       <c r="G21" t="n">
-        <v>48139.17869431288</v>
+        <v>66729.55731849797</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>12502010</v>
+        <v>13240691</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49500733</v>
+        <v>49200793</v>
       </c>
       <c r="E22" t="n">
-        <v>320999077</v>
+        <v>319054049</v>
       </c>
       <c r="F22" t="n">
-        <v>11426.26793531517</v>
+        <v>12738.48200611453</v>
       </c>
       <c r="G22" t="n">
-        <v>96139.95996556515</v>
+        <v>95746.5299225974</v>
       </c>
       <c r="H22" t="n">
         <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>19653911</v>
+        <v>20272144</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123198170</v>
+        <v>123539869</v>
       </c>
       <c r="E23" t="n">
-        <v>2040262602</v>
+        <v>2045921409</v>
       </c>
       <c r="F23" t="n">
-        <v>49717.64979982686</v>
+        <v>50397.61523271542</v>
       </c>
       <c r="G23" t="n">
-        <v>63975.62043419332</v>
+        <v>80091.07986530729</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>23114349</v>
+        <v>31632666</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6310656</v>
+        <v>6331371</v>
       </c>
       <c r="E24" t="n">
-        <v>32466408</v>
+        <v>32572979</v>
       </c>
       <c r="F24" t="n">
-        <v>856.968540407536</v>
+        <v>564.3748729038551</v>
       </c>
       <c r="G24" t="n">
-        <v>3883.595548040411</v>
+        <v>3518.327199990581</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>887541</v>
+        <v>952041</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22945494</v>
+        <v>23125747</v>
       </c>
       <c r="E25" t="n">
-        <v>22945494</v>
+        <v>23125903</v>
       </c>
       <c r="F25" t="n">
-        <v>15041.63968064749</v>
+        <v>3850.356630429103</v>
       </c>
       <c r="G25" t="n">
-        <v>7747.877465196624</v>
+        <v>8493.843301836738</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>2388132</v>
+        <v>2393140</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>307500677</v>
+        <v>299723122</v>
       </c>
       <c r="E27" t="n">
-        <v>568946378</v>
+        <v>554556128</v>
       </c>
       <c r="F27" t="n">
-        <v>11998.33066218303</v>
+        <v>6761.829322827415</v>
       </c>
       <c r="G27" t="n">
-        <v>18404.35645206014</v>
+        <v>13062.7171026421</v>
       </c>
       <c r="H27" t="n">
         <v>0.09</v>
       </c>
       <c r="I27" t="n">
-        <v>16612067</v>
+        <v>16149009</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44165092</v>
+        <v>44367203</v>
       </c>
       <c r="E28" t="n">
-        <v>44165092</v>
+        <v>44367203</v>
       </c>
       <c r="F28" t="n">
-        <v>29868.90907962331</v>
+        <v>25351.38119064076</v>
       </c>
       <c r="G28" t="n">
-        <v>41858.85461244875</v>
+        <v>44948.30436673235</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>10301222</v>
+        <v>10618062</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>588147265</v>
+        <v>587293258</v>
       </c>
       <c r="E29" t="n">
-        <v>2277807583</v>
+        <v>2274500141</v>
       </c>
       <c r="F29" t="n">
-        <v>80286.55169828077</v>
+        <v>54394.63323734186</v>
       </c>
       <c r="G29" t="n">
-        <v>244251.1748932862</v>
+        <v>128626.4774337071</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>53864417</v>
+        <v>55396641</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>123471334</v>
+        <v>122679072</v>
       </c>
       <c r="E30" t="n">
-        <v>473655913</v>
+        <v>470616666</v>
       </c>
       <c r="F30" t="n">
-        <v>141881.0965773469</v>
+        <v>148022.3048986976</v>
       </c>
       <c r="G30" t="n">
-        <v>180126.9870903143</v>
+        <v>184659.7697512296</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>40367280</v>
+        <v>40308044</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35122568</v>
+        <v>36368536</v>
       </c>
       <c r="F31" t="n">
-        <v>23731.91115514519</v>
+        <v>16618.32216419652</v>
       </c>
       <c r="G31" t="n">
-        <v>66129.12977358056</v>
+        <v>21256.26973351442</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>7410266</v>
+        <v>7618484</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88137977</v>
+        <v>87740649</v>
       </c>
       <c r="E32" t="n">
-        <v>325797512</v>
+        <v>324327648</v>
       </c>
       <c r="F32" t="n">
-        <v>9399.657688737056</v>
+        <v>9154.431554844326</v>
       </c>
       <c r="G32" t="n">
-        <v>8833.657177419796</v>
+        <v>9512.626686729775</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>217582</v>
+        <v>235433</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>482274629</v>
+        <v>480862143</v>
       </c>
       <c r="E33" t="n">
-        <v>1678757846</v>
+        <v>1673841101</v>
       </c>
       <c r="F33" t="n">
-        <v>69270.85221138771</v>
+        <v>107668.0276008871</v>
       </c>
       <c r="G33" t="n">
-        <v>138389.523101218</v>
+        <v>168402.8853470918</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>44509898</v>
+        <v>44400922</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>104846350</v>
+        <v>106456308</v>
       </c>
       <c r="E34" t="n">
-        <v>158854334</v>
+        <v>161293607</v>
       </c>
       <c r="F34" t="n">
-        <v>58910.98063515088</v>
+        <v>47258.97368676445</v>
       </c>
       <c r="G34" t="n">
-        <v>53193.43213271478</v>
+        <v>54858.75748719473</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9560232</v>
+        <v>9656687</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2531373</v>
+        <v>2366284</v>
       </c>
       <c r="E35" t="n">
-        <v>10125493</v>
+        <v>9465138</v>
       </c>
       <c r="F35" t="n">
-        <v>88064.02876427834</v>
+        <v>7368.949411787613</v>
       </c>
       <c r="G35" t="n">
-        <v>62046.61038038519</v>
+        <v>2984.112899207082</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>7112777</v>
+        <v>7273599</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>214610941</v>
+        <v>214109161</v>
       </c>
       <c r="E36" t="n">
-        <v>659847879</v>
+        <v>658305097</v>
       </c>
       <c r="F36" t="n">
-        <v>160192.0454900403</v>
+        <v>116799.5504027324</v>
       </c>
       <c r="G36" t="n">
-        <v>182196.0494553791</v>
+        <v>189004.6285196731</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>20484547</v>
+        <v>21537453</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>137279800</v>
+        <v>138604093</v>
       </c>
       <c r="E37" t="n">
-        <v>358639670</v>
+        <v>362099349</v>
       </c>
       <c r="F37" t="n">
-        <v>44627.41318779845</v>
+        <v>41967.1225269132</v>
       </c>
       <c r="G37" t="n">
-        <v>46179.70638881608</v>
+        <v>76616.76332744218</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>8895046</v>
+        <v>9221020</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>385311940</v>
+        <v>385594920</v>
       </c>
       <c r="E38" t="n">
-        <v>2201782516</v>
+        <v>2203399543</v>
       </c>
       <c r="F38" t="n">
-        <v>37025.78404944231</v>
+        <v>43574.71056777026</v>
       </c>
       <c r="G38" t="n">
-        <v>91615.38035552486</v>
+        <v>90836.92890817781</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>54940286</v>
+        <v>56300273</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249992035</v>
+        <v>242516680</v>
       </c>
       <c r="E2" t="n">
-        <v>1567664913</v>
+        <v>1520788009</v>
       </c>
       <c r="F2" t="n">
-        <v>101894.9808912904</v>
+        <v>98451.43120135124</v>
       </c>
       <c r="G2" t="n">
-        <v>128187.0458981075</v>
+        <v>150658.2701341431</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>23902380</v>
+        <v>24509159</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142970163</v>
+        <v>140458309</v>
       </c>
       <c r="E3" t="n">
-        <v>158433283</v>
+        <v>155649757</v>
       </c>
       <c r="F3" t="n">
-        <v>71479.05217174022</v>
+        <v>77421.84916124826</v>
       </c>
       <c r="G3" t="n">
-        <v>94093.72938261251</v>
+        <v>176545.162602683</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>50514037</v>
+        <v>50990013</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>563756387</v>
+        <v>552741622</v>
       </c>
       <c r="E4" t="n">
-        <v>705175451</v>
+        <v>691397616</v>
       </c>
       <c r="F4" t="n">
-        <v>117328.8623062829</v>
+        <v>118849.2416926508</v>
       </c>
       <c r="G4" t="n">
-        <v>153264.6423403964</v>
+        <v>148695.5787109789</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>91794183</v>
+        <v>83657665</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141458745</v>
+        <v>139434647</v>
       </c>
       <c r="E5" t="n">
-        <v>141458745</v>
+        <v>139434647</v>
       </c>
       <c r="F5" t="n">
-        <v>73370.05147468775</v>
+        <v>89810.74608219186</v>
       </c>
       <c r="G5" t="n">
-        <v>128070.968272072</v>
+        <v>104022.2056719577</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>86886311</v>
+        <v>87393688</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>256982061</v>
+        <v>252858520</v>
       </c>
       <c r="E6" t="n">
-        <v>256982061</v>
+        <v>252858520</v>
       </c>
       <c r="F6" t="n">
-        <v>64386.69146595189</v>
+        <v>69335.51689195672</v>
       </c>
       <c r="G6" t="n">
-        <v>101915.8226553348</v>
+        <v>115174.6862678987</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>24141328</v>
+        <v>29463850</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97074229</v>
+        <v>96593171</v>
       </c>
       <c r="E7" t="n">
-        <v>121040184</v>
+        <v>120440361</v>
       </c>
       <c r="F7" t="n">
-        <v>13398.26400686526</v>
+        <v>14282.73646579631</v>
       </c>
       <c r="G7" t="n">
-        <v>47045.40686638708</v>
+        <v>46902.88981514412</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11549503</v>
+        <v>14196887</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86106886</v>
+        <v>83272686</v>
       </c>
       <c r="E8" t="n">
-        <v>179525942</v>
+        <v>173616862</v>
       </c>
       <c r="F8" t="n">
-        <v>21244.54402339148</v>
+        <v>19418.6753163953</v>
       </c>
       <c r="G8" t="n">
-        <v>52853.86656279111</v>
+        <v>55253.90760443952</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
-        <v>68576915</v>
+        <v>69124865</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>140372687</v>
+        <v>139412160</v>
       </c>
       <c r="E9" t="n">
-        <v>140428868</v>
+        <v>139468539</v>
       </c>
       <c r="F9" t="n">
-        <v>9435.940702794433</v>
+        <v>11033.93444201168</v>
       </c>
       <c r="G9" t="n">
-        <v>14668.40321929142</v>
+        <v>12823.53873396065</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>3183970</v>
+        <v>3174489</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>656203888</v>
+        <v>639829424</v>
       </c>
       <c r="E10" t="n">
-        <v>656203888</v>
+        <v>639829424</v>
       </c>
       <c r="F10" t="n">
-        <v>375683.9624560965</v>
+        <v>336519.5262879665</v>
       </c>
       <c r="G10" t="n">
-        <v>563228.8307487149</v>
+        <v>562412.2279523138</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>523742686</v>
+        <v>408568905</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72692199</v>
+        <v>74030503</v>
       </c>
       <c r="E11" t="n">
-        <v>83405039</v>
+        <v>84940572</v>
       </c>
       <c r="F11" t="n">
-        <v>8579.851909999836</v>
+        <v>6855.463141008262</v>
       </c>
       <c r="G11" t="n">
-        <v>1840.382629926095</v>
+        <v>7849.944003042197</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.83</v>
       </c>
       <c r="I11" t="n">
-        <v>1574637</v>
+        <v>1601987</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>262925639</v>
+        <v>257988816</v>
       </c>
       <c r="E12" t="n">
-        <v>1134933019</v>
+        <v>1113622951</v>
       </c>
       <c r="F12" t="n">
-        <v>191541.1989535111</v>
+        <v>265459.5090569153</v>
       </c>
       <c r="G12" t="n">
-        <v>265664.9664544952</v>
+        <v>393790.8502268529</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>133381056</v>
+        <v>138262160</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113351629</v>
+        <v>112829468</v>
       </c>
       <c r="E13" t="n">
-        <v>113351629</v>
+        <v>112829468</v>
       </c>
       <c r="F13" t="n">
-        <v>5839.960857668959</v>
+        <v>6131.539063477844</v>
       </c>
       <c r="G13" t="n">
-        <v>3544.053391816278</v>
+        <v>3334.937603841829</v>
       </c>
       <c r="H13" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>6862391</v>
+        <v>6896434</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15865433</v>
+        <v>15581353</v>
       </c>
       <c r="E14" t="n">
-        <v>39663582</v>
+        <v>38953382</v>
       </c>
       <c r="F14" t="n">
-        <v>11042.34899945214</v>
+        <v>14510.73168829003</v>
       </c>
       <c r="G14" t="n">
-        <v>21136.9403618073</v>
+        <v>22229.11594153045</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>4465054</v>
+        <v>4615511</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12646565</v>
+        <v>12577852</v>
       </c>
       <c r="E15" t="n">
-        <v>18596535</v>
+        <v>18495494</v>
       </c>
       <c r="F15" t="n">
-        <v>6514.136907977642</v>
+        <v>4159.892911593616</v>
       </c>
       <c r="G15" t="n">
-        <v>1785.699198427312</v>
+        <v>2720.064098061919</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>7137791</v>
+        <v>7047929</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29913660</v>
+        <v>28976068</v>
       </c>
       <c r="E16" t="n">
-        <v>93141539</v>
+        <v>90222179</v>
       </c>
       <c r="F16" t="n">
-        <v>16251.7310700445</v>
+        <v>14878.87272721694</v>
       </c>
       <c r="G16" t="n">
-        <v>12821.70659132235</v>
+        <v>18934.86263132099</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I16" t="n">
-        <v>10307355</v>
+        <v>10281893</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>325155934</v>
+        <v>321161329</v>
       </c>
       <c r="E17" t="n">
-        <v>2925304404</v>
+        <v>2889366465</v>
       </c>
       <c r="F17" t="n">
-        <v>6787.776032785232</v>
+        <v>6771.445117776998</v>
       </c>
       <c r="G17" t="n">
-        <v>4540.873011251553</v>
+        <v>6105.476278890558</v>
       </c>
       <c r="H17" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>62246217</v>
+        <v>62500887</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15621997</v>
+        <v>15107678</v>
       </c>
       <c r="E18" t="n">
-        <v>95752359</v>
+        <v>92599926</v>
       </c>
       <c r="F18" t="n">
-        <v>18000.02911689347</v>
+        <v>16434.10471135609</v>
       </c>
       <c r="G18" t="n">
-        <v>32671.03412799784</v>
+        <v>26228.50559808174</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>12116436</v>
+        <v>12125250</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47458332</v>
+        <v>47411665</v>
       </c>
       <c r="E19" t="n">
-        <v>204445306</v>
+        <v>204244268</v>
       </c>
       <c r="F19" t="n">
-        <v>30633.60007138594</v>
+        <v>45491.88245990413</v>
       </c>
       <c r="G19" t="n">
-        <v>35996.2907236234</v>
+        <v>63673.72096587751</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>11779965</v>
+        <v>12074848</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>294148073</v>
+        <v>289498223</v>
       </c>
       <c r="E20" t="n">
-        <v>294148073</v>
+        <v>289498223</v>
       </c>
       <c r="F20" t="n">
-        <v>71054.5688262511</v>
+        <v>77829.58516125694</v>
       </c>
       <c r="G20" t="n">
-        <v>125396.5294869391</v>
+        <v>118115.7999173964</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>88270450</v>
+        <v>88292402</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29339533</v>
+        <v>28925701</v>
       </c>
       <c r="E21" t="n">
-        <v>131365127</v>
+        <v>129512231</v>
       </c>
       <c r="F21" t="n">
-        <v>35314.75198566514</v>
+        <v>38083.79702339779</v>
       </c>
       <c r="G21" t="n">
-        <v>66729.55731849797</v>
+        <v>65617.46458223739</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>13240691</v>
+        <v>13473184</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49200793</v>
+        <v>48539290</v>
       </c>
       <c r="E22" t="n">
-        <v>319054049</v>
+        <v>314764378</v>
       </c>
       <c r="F22" t="n">
-        <v>12738.48200611453</v>
+        <v>5166.514057502694</v>
       </c>
       <c r="G22" t="n">
-        <v>95746.5299225974</v>
+        <v>4717.331696703367</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>20272144</v>
+        <v>20460503</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123539869</v>
+        <v>123308680</v>
       </c>
       <c r="E23" t="n">
-        <v>2045921409</v>
+        <v>2042092741</v>
       </c>
       <c r="F23" t="n">
-        <v>50397.61523271542</v>
+        <v>58232.15177256001</v>
       </c>
       <c r="G23" t="n">
-        <v>80091.07986530729</v>
+        <v>73868.05565093973</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>31632666</v>
+        <v>33559497</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6331371</v>
+        <v>6329970</v>
       </c>
       <c r="E24" t="n">
-        <v>32572979</v>
+        <v>32565774</v>
       </c>
       <c r="F24" t="n">
-        <v>564.3748729038551</v>
+        <v>602.8928300099055</v>
       </c>
       <c r="G24" t="n">
-        <v>3518.327199990581</v>
+        <v>4273.072364866872</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="n">
-        <v>952041</v>
+        <v>945514</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23125747</v>
+        <v>22632641</v>
       </c>
       <c r="E25" t="n">
-        <v>23125903</v>
+        <v>22632641</v>
       </c>
       <c r="F25" t="n">
-        <v>3850.356630429103</v>
+        <v>4906.808192249292</v>
       </c>
       <c r="G25" t="n">
-        <v>8493.843301836738</v>
+        <v>9601.113787340788</v>
       </c>
       <c r="H25" t="n">
         <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>2393140</v>
+        <v>2346966</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>299723122</v>
+        <v>292832402</v>
       </c>
       <c r="E27" t="n">
-        <v>554556128</v>
+        <v>541806722</v>
       </c>
       <c r="F27" t="n">
-        <v>6761.829322827415</v>
+        <v>11822.08762854692</v>
       </c>
       <c r="G27" t="n">
-        <v>13062.7171026421</v>
+        <v>15533.36766238471</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>16149009</v>
+        <v>16499560</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44367203</v>
+        <v>43814706</v>
       </c>
       <c r="E28" t="n">
-        <v>44367203</v>
+        <v>43814706</v>
       </c>
       <c r="F28" t="n">
-        <v>25351.38119064076</v>
+        <v>27795.60815439138</v>
       </c>
       <c r="G28" t="n">
-        <v>44948.30436673235</v>
+        <v>44094.80373680405</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>10618062</v>
+        <v>10643250</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>587293258</v>
+        <v>578120375</v>
       </c>
       <c r="E29" t="n">
-        <v>2274500141</v>
+        <v>2238974916</v>
       </c>
       <c r="F29" t="n">
-        <v>54394.63323734186</v>
+        <v>93194.73878652978</v>
       </c>
       <c r="G29" t="n">
-        <v>128626.4774337071</v>
+        <v>152348.512813549</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>55396641</v>
+        <v>57255041</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122679072</v>
+        <v>121124474</v>
       </c>
       <c r="E30" t="n">
-        <v>470616666</v>
+        <v>464652977</v>
       </c>
       <c r="F30" t="n">
-        <v>148022.3048986976</v>
+        <v>148573.8486672482</v>
       </c>
       <c r="G30" t="n">
-        <v>184659.7697512296</v>
+        <v>183797.6096799665</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>40308044</v>
+        <v>39727316</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36368536</v>
+        <v>35320073</v>
       </c>
       <c r="F31" t="n">
-        <v>16618.32216419652</v>
+        <v>15574.50232949775</v>
       </c>
       <c r="G31" t="n">
-        <v>21256.26973351442</v>
+        <v>157491.4749567278</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>7618484</v>
+        <v>7576056</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87740649</v>
+        <v>87537016</v>
       </c>
       <c r="E32" t="n">
-        <v>324327648</v>
+        <v>323574835</v>
       </c>
       <c r="F32" t="n">
-        <v>9154.431554844326</v>
+        <v>9263.292626836061</v>
       </c>
       <c r="G32" t="n">
-        <v>9512.626686729775</v>
+        <v>10490.09042326162</v>
       </c>
       <c r="H32" t="n">
         <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>235433</v>
+        <v>236937</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>480862143</v>
+        <v>472922845</v>
       </c>
       <c r="E33" t="n">
-        <v>1673841101</v>
+        <v>1646205064</v>
       </c>
       <c r="F33" t="n">
-        <v>107668.0276008871</v>
+        <v>107713.6326430351</v>
       </c>
       <c r="G33" t="n">
-        <v>168402.8853470918</v>
+        <v>160829.7197360941</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>44400922</v>
+        <v>46210150</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106456308</v>
+        <v>104972832</v>
       </c>
       <c r="E34" t="n">
-        <v>161293607</v>
+        <v>159045970</v>
       </c>
       <c r="F34" t="n">
-        <v>47258.97368676445</v>
+        <v>54503.06681687345</v>
       </c>
       <c r="G34" t="n">
-        <v>54858.75748719473</v>
+        <v>69344.76179042032</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9656687</v>
+        <v>9730231</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2366284</v>
+        <v>2385515</v>
       </c>
       <c r="E35" t="n">
-        <v>9465138</v>
+        <v>9542061</v>
       </c>
       <c r="F35" t="n">
-        <v>7368.949411787613</v>
+        <v>64020.08279438216</v>
       </c>
       <c r="G35" t="n">
-        <v>2984.112899207082</v>
+        <v>42313.03582991105</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="I35" t="n">
-        <v>7273599</v>
+        <v>7461982</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>214109161</v>
+        <v>212201081</v>
       </c>
       <c r="E36" t="n">
-        <v>658305097</v>
+        <v>652438467</v>
       </c>
       <c r="F36" t="n">
-        <v>116799.5504027324</v>
+        <v>170309.0459270448</v>
       </c>
       <c r="G36" t="n">
-        <v>189004.6285196731</v>
+        <v>213621.7837447458</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>21537453</v>
+        <v>21773937</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>138604093</v>
+        <v>135385233</v>
       </c>
       <c r="E37" t="n">
-        <v>362099349</v>
+        <v>353690165</v>
       </c>
       <c r="F37" t="n">
-        <v>41967.1225269132</v>
+        <v>38780.24058889777</v>
       </c>
       <c r="G37" t="n">
-        <v>76616.76332744218</v>
+        <v>58657.35276099422</v>
       </c>
       <c r="H37" t="n">
         <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>9221020</v>
+        <v>9431834</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>385594920</v>
+        <v>381279680</v>
       </c>
       <c r="E38" t="n">
-        <v>2203399543</v>
+        <v>2178741029</v>
       </c>
       <c r="F38" t="n">
-        <v>43574.71056777026</v>
+        <v>48039.34403128775</v>
       </c>
       <c r="G38" t="n">
-        <v>90836.92890817781</v>
+        <v>91321.57741517988</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>56300273</v>
+        <v>57305354</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>242516680</v>
+        <v>240025346</v>
       </c>
       <c r="E2" t="n">
-        <v>1520788009</v>
+        <v>1505165208</v>
       </c>
       <c r="F2" t="n">
-        <v>98451.43120135124</v>
+        <v>80937.82817180239</v>
       </c>
       <c r="G2" t="n">
-        <v>150658.2701341431</v>
+        <v>110733.6269226419</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>24509159</v>
+        <v>24357501</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140458309</v>
+        <v>138809750</v>
       </c>
       <c r="E3" t="n">
-        <v>155649757</v>
+        <v>153822896</v>
       </c>
       <c r="F3" t="n">
-        <v>77421.84916124826</v>
+        <v>75139.18515512161</v>
       </c>
       <c r="G3" t="n">
-        <v>176545.162602683</v>
+        <v>177414.4116755381</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>50990013</v>
+        <v>51318217</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>552741622</v>
+        <v>546331005</v>
       </c>
       <c r="E4" t="n">
-        <v>691397616</v>
+        <v>683378888</v>
       </c>
       <c r="F4" t="n">
-        <v>118849.2416926508</v>
+        <v>117007.6960259172</v>
       </c>
       <c r="G4" t="n">
-        <v>148695.5787109789</v>
+        <v>134586.1938349202</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>83657665</v>
+        <v>93671636</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139434647</v>
+        <v>136538771</v>
       </c>
       <c r="E5" t="n">
-        <v>139434647</v>
+        <v>136538771</v>
       </c>
       <c r="F5" t="n">
-        <v>89810.74608219186</v>
+        <v>83497.0042493423</v>
       </c>
       <c r="G5" t="n">
-        <v>104022.2056719577</v>
+        <v>82398.58440107034</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>87393688</v>
+        <v>92718032</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>252858520</v>
+        <v>250219624</v>
       </c>
       <c r="E6" t="n">
-        <v>252858520</v>
+        <v>250219624</v>
       </c>
       <c r="F6" t="n">
-        <v>69335.51689195672</v>
+        <v>56057.84385840392</v>
       </c>
       <c r="G6" t="n">
-        <v>115174.6862678987</v>
+        <v>94973.64272391744</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>29463850</v>
+        <v>24841071</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96593171</v>
+        <v>95574317</v>
       </c>
       <c r="E7" t="n">
-        <v>120440361</v>
+        <v>119169969</v>
       </c>
       <c r="F7" t="n">
-        <v>14282.73646579631</v>
+        <v>19767.44118306014</v>
       </c>
       <c r="G7" t="n">
-        <v>46902.88981514412</v>
+        <v>40811.59679181575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
-        <v>14196887</v>
+        <v>12059598</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83272686</v>
+        <v>82528057</v>
       </c>
       <c r="E8" t="n">
-        <v>173616862</v>
+        <v>172064372</v>
       </c>
       <c r="F8" t="n">
-        <v>19418.6753163953</v>
+        <v>18265.19686649377</v>
       </c>
       <c r="G8" t="n">
-        <v>55253.90760443952</v>
+        <v>53211.48240984026</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I8" t="n">
-        <v>69124865</v>
+        <v>69411677</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>139412160</v>
+        <v>136960415</v>
       </c>
       <c r="E9" t="n">
-        <v>139468539</v>
+        <v>137016091</v>
       </c>
       <c r="F9" t="n">
-        <v>11033.93444201168</v>
+        <v>10829.30833705131</v>
       </c>
       <c r="G9" t="n">
-        <v>12823.53873396065</v>
+        <v>12056.69913888911</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>3174489</v>
+        <v>3226431</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>639829424</v>
+        <v>633939657</v>
       </c>
       <c r="E10" t="n">
-        <v>639829424</v>
+        <v>633939657</v>
       </c>
       <c r="F10" t="n">
-        <v>336519.5262879665</v>
+        <v>333435.3224294392</v>
       </c>
       <c r="G10" t="n">
-        <v>562412.2279523138</v>
+        <v>491645.0570363493</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>408568905</v>
+        <v>540124199</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74030503</v>
+        <v>73654224</v>
       </c>
       <c r="E11" t="n">
-        <v>84940572</v>
+        <v>84508841</v>
       </c>
       <c r="F11" t="n">
-        <v>6855.463141008262</v>
+        <v>3568.386754406881</v>
       </c>
       <c r="G11" t="n">
-        <v>7849.944003042197</v>
+        <v>10883.47072579497</v>
       </c>
       <c r="H11" t="n">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1601987</v>
+        <v>1599993</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>257988816</v>
+        <v>255080292</v>
       </c>
       <c r="E12" t="n">
-        <v>1113622951</v>
+        <v>1101068144</v>
       </c>
       <c r="F12" t="n">
-        <v>265459.5090569153</v>
+        <v>287932.0977351306</v>
       </c>
       <c r="G12" t="n">
-        <v>393790.8502268529</v>
+        <v>354968.8581584783</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>138262160</v>
+        <v>138471632</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112829468</v>
+        <v>112485704</v>
       </c>
       <c r="E13" t="n">
-        <v>112829468</v>
+        <v>112485704</v>
       </c>
       <c r="F13" t="n">
-        <v>6131.539063477844</v>
+        <v>6143.576898468526</v>
       </c>
       <c r="G13" t="n">
-        <v>3334.937603841829</v>
+        <v>2767.351613784945</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I13" t="n">
-        <v>6896434</v>
+        <v>8193589</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15581353</v>
+        <v>15626358</v>
       </c>
       <c r="E14" t="n">
-        <v>38953382</v>
+        <v>39065894</v>
       </c>
       <c r="F14" t="n">
-        <v>14510.73168829003</v>
+        <v>13482.73213923161</v>
       </c>
       <c r="G14" t="n">
-        <v>22229.11594153045</v>
+        <v>20273.72656972694</v>
       </c>
       <c r="H14" t="n">
         <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>4615511</v>
+        <v>4637427</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12577852</v>
+        <v>12465777</v>
       </c>
       <c r="E15" t="n">
-        <v>18495494</v>
+        <v>18330690</v>
       </c>
       <c r="F15" t="n">
-        <v>4159.892911593616</v>
+        <v>5073.391777061352</v>
       </c>
       <c r="G15" t="n">
-        <v>2720.064098061919</v>
+        <v>1788.157623282393</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>7047929</v>
+        <v>7000099</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28976068</v>
+        <v>29364650</v>
       </c>
       <c r="E16" t="n">
-        <v>90222179</v>
+        <v>91432099</v>
       </c>
       <c r="F16" t="n">
-        <v>14878.87272721694</v>
+        <v>12973.94927056623</v>
       </c>
       <c r="G16" t="n">
-        <v>18934.86263132099</v>
+        <v>19271.04453458072</v>
       </c>
       <c r="H16" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>10281893</v>
+        <v>10332698</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>321161329</v>
+        <v>317455794</v>
       </c>
       <c r="E17" t="n">
-        <v>2889366465</v>
+        <v>2856029172</v>
       </c>
       <c r="F17" t="n">
-        <v>6771.445117776998</v>
+        <v>6509.952961547721</v>
       </c>
       <c r="G17" t="n">
-        <v>6105.476278890558</v>
+        <v>6786.030608472982</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>62500887</v>
+        <v>65616096</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15107678</v>
+        <v>14972839</v>
       </c>
       <c r="E18" t="n">
-        <v>92599926</v>
+        <v>91773457</v>
       </c>
       <c r="F18" t="n">
-        <v>16434.10471135609</v>
+        <v>19256.82761965146</v>
       </c>
       <c r="G18" t="n">
-        <v>26228.50559808174</v>
+        <v>33099.13374304062</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>12125250</v>
+        <v>12189459</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47411665</v>
+        <v>47250612</v>
       </c>
       <c r="E19" t="n">
-        <v>204244268</v>
+        <v>203550469</v>
       </c>
       <c r="F19" t="n">
-        <v>45491.88245990413</v>
+        <v>55556.00981389076</v>
       </c>
       <c r="G19" t="n">
-        <v>63673.72096587751</v>
+        <v>74474.72414211184</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>12074848</v>
+        <v>12188099</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>289498223</v>
+        <v>284200278</v>
       </c>
       <c r="E20" t="n">
-        <v>289498223</v>
+        <v>284200278</v>
       </c>
       <c r="F20" t="n">
-        <v>77829.58516125694</v>
+        <v>65145.51403826151</v>
       </c>
       <c r="G20" t="n">
-        <v>118115.7999173964</v>
+        <v>109075.8538783428</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>88292402</v>
+        <v>89118247</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28925701</v>
+        <v>28596176</v>
       </c>
       <c r="E21" t="n">
-        <v>129512231</v>
+        <v>128036812</v>
       </c>
       <c r="F21" t="n">
-        <v>38083.79702339779</v>
+        <v>41157.42369762429</v>
       </c>
       <c r="G21" t="n">
-        <v>65617.46458223739</v>
+        <v>74437.65524019006</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I21" t="n">
-        <v>13473184</v>
+        <v>13655439</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48539290</v>
+        <v>47690116</v>
       </c>
       <c r="E22" t="n">
-        <v>314764378</v>
+        <v>309257707</v>
       </c>
       <c r="F22" t="n">
-        <v>5166.514057502694</v>
+        <v>4218.578080710492</v>
       </c>
       <c r="G22" t="n">
-        <v>4717.331696703367</v>
+        <v>3086.98306491226</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>20460503</v>
+        <v>20672582</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123308680</v>
+        <v>123022144</v>
       </c>
       <c r="E23" t="n">
-        <v>2042092741</v>
+        <v>2037347465</v>
       </c>
       <c r="F23" t="n">
-        <v>58232.15177256001</v>
+        <v>59068.85264674217</v>
       </c>
       <c r="G23" t="n">
-        <v>73868.05565093973</v>
+        <v>66932.97395294454</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>33559497</v>
+        <v>33978202</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6329970</v>
+        <v>6274416</v>
       </c>
       <c r="E24" t="n">
-        <v>32565774</v>
+        <v>32279962</v>
       </c>
       <c r="F24" t="n">
-        <v>602.8928300099055</v>
+        <v>2094.740169169368</v>
       </c>
       <c r="G24" t="n">
-        <v>4273.072364866872</v>
+        <v>4518.692024506016</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>945514</v>
+        <v>948201</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22632641</v>
+        <v>22426295</v>
       </c>
       <c r="E25" t="n">
-        <v>22632641</v>
+        <v>22426449</v>
       </c>
       <c r="F25" t="n">
-        <v>4906.808192249292</v>
+        <v>3947.267457843955</v>
       </c>
       <c r="G25" t="n">
-        <v>9601.113787340788</v>
+        <v>6636.406515723433</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2346966</v>
+        <v>2373284</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>292832402</v>
+        <v>289642099</v>
       </c>
       <c r="E27" t="n">
-        <v>541806722</v>
+        <v>535903935</v>
       </c>
       <c r="F27" t="n">
-        <v>11822.08762854692</v>
+        <v>12944.83277648208</v>
       </c>
       <c r="G27" t="n">
-        <v>15533.36766238471</v>
+        <v>16352.08264254993</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>16499560</v>
+        <v>17799398</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43814706</v>
+        <v>43427561</v>
       </c>
       <c r="E28" t="n">
-        <v>43814706</v>
+        <v>43427561</v>
       </c>
       <c r="F28" t="n">
-        <v>27795.60815439138</v>
+        <v>27142.34348347816</v>
       </c>
       <c r="G28" t="n">
-        <v>44094.80373680405</v>
+        <v>43484.85247889271</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>10643250</v>
+        <v>10765694</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>578120375</v>
+        <v>572880365</v>
       </c>
       <c r="E29" t="n">
-        <v>2238974916</v>
+        <v>2218681129</v>
       </c>
       <c r="F29" t="n">
-        <v>93194.73878652978</v>
+        <v>114379.3415433374</v>
       </c>
       <c r="G29" t="n">
-        <v>152348.512813549</v>
+        <v>154312.8374980596</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>57255041</v>
+        <v>57681383</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>121124474</v>
+        <v>120492108</v>
       </c>
       <c r="E30" t="n">
-        <v>464652977</v>
+        <v>462227122</v>
       </c>
       <c r="F30" t="n">
-        <v>148573.8486672482</v>
+        <v>144084.007668597</v>
       </c>
       <c r="G30" t="n">
-        <v>183797.6096799665</v>
+        <v>180486.925950597</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I30" t="n">
-        <v>39727316</v>
+        <v>39745593</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35320073</v>
+        <v>35189325</v>
       </c>
       <c r="F31" t="n">
-        <v>15574.50232949775</v>
+        <v>15006.99714975758</v>
       </c>
       <c r="G31" t="n">
-        <v>157491.4749567278</v>
+        <v>69079.49393941219</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>7576056</v>
+        <v>7667723</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87537016</v>
+        <v>87552617</v>
       </c>
       <c r="E32" t="n">
-        <v>323574835</v>
+        <v>323631757</v>
       </c>
       <c r="F32" t="n">
-        <v>9263.292626836061</v>
+        <v>9092.838100848961</v>
       </c>
       <c r="G32" t="n">
-        <v>10490.09042326162</v>
+        <v>8979.804511536038</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>236937</v>
+        <v>240633</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>472922845</v>
+        <v>465530434</v>
       </c>
       <c r="E33" t="n">
-        <v>1646205064</v>
+        <v>1620472698</v>
       </c>
       <c r="F33" t="n">
-        <v>107713.6326430351</v>
+        <v>112562.6829896387</v>
       </c>
       <c r="G33" t="n">
-        <v>160829.7197360941</v>
+        <v>160512.2446951417</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>46210150</v>
+        <v>46818681</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>104972832</v>
+        <v>105625304</v>
       </c>
       <c r="E34" t="n">
-        <v>159045970</v>
+        <v>160034539</v>
       </c>
       <c r="F34" t="n">
-        <v>54503.06681687345</v>
+        <v>49169.67239269476</v>
       </c>
       <c r="G34" t="n">
-        <v>69344.76179042032</v>
+        <v>76886.62351987959</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>9730231</v>
+        <v>9831964</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2385515</v>
+        <v>2370258</v>
       </c>
       <c r="E35" t="n">
-        <v>9542061</v>
+        <v>9481033</v>
       </c>
       <c r="F35" t="n">
-        <v>64020.08279438216</v>
+        <v>80294.38393222996</v>
       </c>
       <c r="G35" t="n">
-        <v>42313.03582991105</v>
+        <v>27398.22246457571</v>
       </c>
       <c r="H35" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7461982</v>
+        <v>7516350</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>212201081</v>
+        <v>211601755</v>
       </c>
       <c r="E36" t="n">
-        <v>652438467</v>
+        <v>650595768</v>
       </c>
       <c r="F36" t="n">
-        <v>170309.0459270448</v>
+        <v>151559.2136157537</v>
       </c>
       <c r="G36" t="n">
-        <v>213621.7837447458</v>
+        <v>214147.0914593214</v>
       </c>
       <c r="H36" t="n">
         <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>21773937</v>
+        <v>21913819</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>135385233</v>
+        <v>134258525</v>
       </c>
       <c r="E37" t="n">
-        <v>353690165</v>
+        <v>350746673</v>
       </c>
       <c r="F37" t="n">
-        <v>38780.24058889777</v>
+        <v>44258.29657461793</v>
       </c>
       <c r="G37" t="n">
-        <v>58657.35276099422</v>
+        <v>58764.10029812559</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>9431834</v>
+        <v>9499499</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>381279680</v>
+        <v>376258719</v>
       </c>
       <c r="E38" t="n">
-        <v>2178741029</v>
+        <v>2150049826</v>
       </c>
       <c r="F38" t="n">
-        <v>48039.34403128775</v>
+        <v>42461.12782772944</v>
       </c>
       <c r="G38" t="n">
-        <v>91321.57741517988</v>
+        <v>90989.03730824155</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>57305354</v>
+        <v>58371313</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>240025346</v>
+        <v>244004913</v>
       </c>
       <c r="E2" t="n">
-        <v>1505165208</v>
+        <v>1530120510</v>
       </c>
       <c r="F2" t="n">
-        <v>80937.82817180239</v>
+        <v>115825.9575695138</v>
       </c>
       <c r="G2" t="n">
-        <v>110733.6269226419</v>
+        <v>125038.3580372353</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>24357501</v>
+        <v>25467845</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138809750</v>
+        <v>140175793</v>
       </c>
       <c r="E3" t="n">
-        <v>153822896</v>
+        <v>155336686</v>
       </c>
       <c r="F3" t="n">
-        <v>75139.18515512161</v>
+        <v>67958.07913188633</v>
       </c>
       <c r="G3" t="n">
-        <v>177414.4116755381</v>
+        <v>186479.5262492909</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>51318217</v>
+        <v>52432142</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>546331005</v>
+        <v>553425799</v>
       </c>
       <c r="E4" t="n">
-        <v>683378888</v>
+        <v>692253421</v>
       </c>
       <c r="F4" t="n">
-        <v>117007.6960259172</v>
+        <v>116992.7492675782</v>
       </c>
       <c r="G4" t="n">
-        <v>134586.1938349202</v>
+        <v>151558.0059227869</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>93671636</v>
+        <v>97134909</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136538771</v>
+        <v>137748501</v>
       </c>
       <c r="E5" t="n">
-        <v>136538771</v>
+        <v>137748501</v>
       </c>
       <c r="F5" t="n">
-        <v>83497.0042493423</v>
+        <v>73330.51651723191</v>
       </c>
       <c r="G5" t="n">
-        <v>82398.58440107034</v>
+        <v>119738.5602587294</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>92718032</v>
+        <v>94591482</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250219624</v>
+        <v>250602084</v>
       </c>
       <c r="E6" t="n">
-        <v>250219624</v>
+        <v>250602084</v>
       </c>
       <c r="F6" t="n">
-        <v>56057.84385840392</v>
+        <v>49250.88098761611</v>
       </c>
       <c r="G6" t="n">
-        <v>94973.64272391744</v>
+        <v>107443.0447990712</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>24841071</v>
+        <v>25719207</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>95574317</v>
+        <v>97742018</v>
       </c>
       <c r="E7" t="n">
-        <v>119169969</v>
+        <v>121872838</v>
       </c>
       <c r="F7" t="n">
-        <v>19767.44118306014</v>
+        <v>17691.75421257169</v>
       </c>
       <c r="G7" t="n">
-        <v>40811.59679181575</v>
+        <v>40805.31758912749</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>12059598</v>
+        <v>12200386</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82528057</v>
+        <v>83433043</v>
       </c>
       <c r="E8" t="n">
-        <v>172064372</v>
+        <v>173951194</v>
       </c>
       <c r="F8" t="n">
-        <v>18265.19686649377</v>
+        <v>21467.83482110225</v>
       </c>
       <c r="G8" t="n">
-        <v>53211.48240984026</v>
+        <v>57866.46138727967</v>
       </c>
       <c r="H8" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>69411677</v>
+        <v>70189012</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>136960415</v>
+        <v>137809899</v>
       </c>
       <c r="E9" t="n">
-        <v>137016091</v>
+        <v>137866211</v>
       </c>
       <c r="F9" t="n">
-        <v>10829.30833705131</v>
+        <v>11501.5022128885</v>
       </c>
       <c r="G9" t="n">
-        <v>12056.69913888911</v>
+        <v>11212.52225284904</v>
       </c>
       <c r="H9" t="n">
         <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>3226431</v>
+        <v>3297098</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>633939657</v>
+        <v>642085655</v>
       </c>
       <c r="E10" t="n">
-        <v>633939657</v>
+        <v>642085655</v>
       </c>
       <c r="F10" t="n">
-        <v>333435.3224294392</v>
+        <v>337290.0425732598</v>
       </c>
       <c r="G10" t="n">
-        <v>491645.0570363493</v>
+        <v>476583.6460652528</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>540124199</v>
+        <v>550057794</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73654224</v>
+        <v>73111268</v>
       </c>
       <c r="E11" t="n">
-        <v>84508841</v>
+        <v>83885867</v>
       </c>
       <c r="F11" t="n">
-        <v>3568.386754406881</v>
+        <v>1219.335168102032</v>
       </c>
       <c r="G11" t="n">
-        <v>10883.47072579497</v>
+        <v>5149.932684267856</v>
       </c>
       <c r="H11" t="n">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1599993</v>
+        <v>1605396</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>255080292</v>
+        <v>259424066</v>
       </c>
       <c r="E12" t="n">
-        <v>1101068144</v>
+        <v>1119818285</v>
       </c>
       <c r="F12" t="n">
-        <v>287932.0977351306</v>
+        <v>280940.2860908003</v>
       </c>
       <c r="G12" t="n">
-        <v>354968.8581584783</v>
+        <v>344903.4653305655</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>138471632</v>
+        <v>142658666</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112485704</v>
+        <v>112208791</v>
       </c>
       <c r="E13" t="n">
-        <v>112485704</v>
+        <v>112208791</v>
       </c>
       <c r="F13" t="n">
-        <v>6143.576898468526</v>
+        <v>5868.854614153503</v>
       </c>
       <c r="G13" t="n">
-        <v>2767.351613784945</v>
+        <v>3483.848616839591</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>8193589</v>
+        <v>7012463</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15626358</v>
+        <v>15754395</v>
       </c>
       <c r="E14" t="n">
-        <v>39065894</v>
+        <v>39385987</v>
       </c>
       <c r="F14" t="n">
-        <v>13482.73213923161</v>
+        <v>16103.00546237598</v>
       </c>
       <c r="G14" t="n">
-        <v>20273.72656972694</v>
+        <v>20016.39060702736</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>4637427</v>
+        <v>4809861</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12465777</v>
+        <v>12425580</v>
       </c>
       <c r="E15" t="n">
-        <v>18330690</v>
+        <v>18271580</v>
       </c>
       <c r="F15" t="n">
-        <v>5073.391777061352</v>
+        <v>2056.7231420445</v>
       </c>
       <c r="G15" t="n">
-        <v>1788.157623282393</v>
+        <v>48529.68365870611</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>7000099</v>
+        <v>7048686</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29364650</v>
+        <v>29417710</v>
       </c>
       <c r="E16" t="n">
-        <v>91432099</v>
+        <v>91597310</v>
       </c>
       <c r="F16" t="n">
-        <v>12973.94927056623</v>
+        <v>14909.5629657531</v>
       </c>
       <c r="G16" t="n">
-        <v>19271.04453458072</v>
+        <v>18203.59124076429</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>10332698</v>
+        <v>10369709</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>317455794</v>
+        <v>322256688</v>
       </c>
       <c r="E17" t="n">
-        <v>2856029172</v>
+        <v>2899220993</v>
       </c>
       <c r="F17" t="n">
-        <v>6509.952961547721</v>
+        <v>6794.388479303703</v>
       </c>
       <c r="G17" t="n">
-        <v>6786.030608472982</v>
+        <v>7054.369919877621</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>65616096</v>
+        <v>66051582</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14972839</v>
+        <v>15043605</v>
       </c>
       <c r="E18" t="n">
-        <v>91773457</v>
+        <v>92207201</v>
       </c>
       <c r="F18" t="n">
-        <v>19256.82761965146</v>
+        <v>20962.7094531168</v>
       </c>
       <c r="G18" t="n">
-        <v>33099.13374304062</v>
+        <v>36403.0432476155</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>12189459</v>
+        <v>12202425</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47250612</v>
+        <v>50695186</v>
       </c>
       <c r="E19" t="n">
-        <v>203550469</v>
+        <v>218389316</v>
       </c>
       <c r="F19" t="n">
-        <v>55556.00981389076</v>
+        <v>45796.45783983401</v>
       </c>
       <c r="G19" t="n">
-        <v>74474.72414211184</v>
+        <v>72428.50925531317</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>12188099</v>
+        <v>12982601</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>284200278</v>
+        <v>288217214</v>
       </c>
       <c r="E20" t="n">
-        <v>284200278</v>
+        <v>288217214</v>
       </c>
       <c r="F20" t="n">
-        <v>65145.51403826151</v>
+        <v>67593.48991873814</v>
       </c>
       <c r="G20" t="n">
-        <v>109075.8538783428</v>
+        <v>112521.1274849889</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>89118247</v>
+        <v>92441183</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28596176</v>
+        <v>28837252</v>
       </c>
       <c r="E21" t="n">
-        <v>128036812</v>
+        <v>129116205</v>
       </c>
       <c r="F21" t="n">
-        <v>41157.42369762429</v>
+        <v>36608.03289907057</v>
       </c>
       <c r="G21" t="n">
-        <v>74437.65524019006</v>
+        <v>61300.5026539578</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>13655439</v>
+        <v>14216148</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47690116</v>
+        <v>47936438</v>
       </c>
       <c r="E22" t="n">
-        <v>309257707</v>
+        <v>310855045</v>
       </c>
       <c r="F22" t="n">
-        <v>4218.578080710492</v>
+        <v>11255.53309185056</v>
       </c>
       <c r="G22" t="n">
-        <v>3086.98306491226</v>
+        <v>91023.78281570166</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>20672582</v>
+        <v>20989838</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123022144</v>
+        <v>123816634</v>
       </c>
       <c r="E23" t="n">
-        <v>2037347465</v>
+        <v>2050504866</v>
       </c>
       <c r="F23" t="n">
-        <v>59068.85264674217</v>
+        <v>342390.2947720849</v>
       </c>
       <c r="G23" t="n">
-        <v>66932.97395294454</v>
+        <v>340995.1477183528</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>33978202</v>
+        <v>35167491</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6274416</v>
+        <v>6312869</v>
       </c>
       <c r="E24" t="n">
-        <v>32279962</v>
+        <v>32477793</v>
       </c>
       <c r="F24" t="n">
-        <v>2094.740169169368</v>
+        <v>1708.203488698948</v>
       </c>
       <c r="G24" t="n">
-        <v>4518.692024506016</v>
+        <v>2238.679750164609</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="I24" t="n">
-        <v>948201</v>
+        <v>951278</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22426295</v>
+        <v>22761136</v>
       </c>
       <c r="E25" t="n">
-        <v>22426449</v>
+        <v>22761136</v>
       </c>
       <c r="F25" t="n">
-        <v>3947.267457843955</v>
+        <v>1530.994518772915</v>
       </c>
       <c r="G25" t="n">
-        <v>6636.406515723433</v>
+        <v>6740.420281630347</v>
       </c>
       <c r="H25" t="n">
         <v>0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2373284</v>
+        <v>2418370</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>289642099</v>
+        <v>291996066</v>
       </c>
       <c r="E27" t="n">
-        <v>535903935</v>
+        <v>540259311</v>
       </c>
       <c r="F27" t="n">
-        <v>12944.83277648208</v>
+        <v>75991.80086263003</v>
       </c>
       <c r="G27" t="n">
-        <v>16352.08264254993</v>
+        <v>73410.68953290136</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>17799398</v>
+        <v>17221368</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43427561</v>
+        <v>43716298</v>
       </c>
       <c r="E28" t="n">
-        <v>43427561</v>
+        <v>43716298</v>
       </c>
       <c r="F28" t="n">
-        <v>27142.34348347816</v>
+        <v>24572.09692662678</v>
       </c>
       <c r="G28" t="n">
-        <v>43484.85247889271</v>
+        <v>45002.53695066303</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>10765694</v>
+        <v>11254731</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>572880365</v>
+        <v>577851550</v>
       </c>
       <c r="E29" t="n">
-        <v>2218681129</v>
+        <v>2237933798</v>
       </c>
       <c r="F29" t="n">
-        <v>114379.3415433374</v>
+        <v>76503.84680657386</v>
       </c>
       <c r="G29" t="n">
-        <v>154312.8374980596</v>
+        <v>252036.7024016006</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>57681383</v>
+        <v>60373529</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120492108</v>
+        <v>120516139</v>
       </c>
       <c r="E30" t="n">
-        <v>462227122</v>
+        <v>462319305</v>
       </c>
       <c r="F30" t="n">
-        <v>144084.007668597</v>
+        <v>147758.0512800404</v>
       </c>
       <c r="G30" t="n">
-        <v>180486.925950597</v>
+        <v>182824.5956613308</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>39745593</v>
+        <v>39588398</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35189325</v>
+        <v>35875685</v>
       </c>
       <c r="F31" t="n">
-        <v>15006.99714975758</v>
+        <v>30587.11538506249</v>
       </c>
       <c r="G31" t="n">
-        <v>69079.49393941219</v>
+        <v>20948.79247130341</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I31" t="n">
-        <v>7667723</v>
+        <v>7915586</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87552617</v>
+        <v>88825779</v>
       </c>
       <c r="E32" t="n">
-        <v>323631757</v>
+        <v>328337477</v>
       </c>
       <c r="F32" t="n">
-        <v>9092.838100848961</v>
+        <v>1382.242597971833</v>
       </c>
       <c r="G32" t="n">
-        <v>8979.804511536038</v>
+        <v>9169.804948597422</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>240633</v>
+        <v>251115</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>465530434</v>
+        <v>469003399</v>
       </c>
       <c r="E33" t="n">
-        <v>1620472698</v>
+        <v>1632561801</v>
       </c>
       <c r="F33" t="n">
-        <v>112562.6829896387</v>
+        <v>238331.1963076093</v>
       </c>
       <c r="G33" t="n">
-        <v>160512.2446951417</v>
+        <v>287416.6675439698</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>46818681</v>
+        <v>46956285</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>105625304</v>
+        <v>106462232</v>
       </c>
       <c r="E34" t="n">
-        <v>160034539</v>
+        <v>161302582</v>
       </c>
       <c r="F34" t="n">
-        <v>49169.67239269476</v>
+        <v>60140.97735771412</v>
       </c>
       <c r="G34" t="n">
-        <v>76886.62351987959</v>
+        <v>82534.91092479341</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9831964</v>
+        <v>9993461</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2370258</v>
+        <v>2359905</v>
       </c>
       <c r="E35" t="n">
-        <v>9481033</v>
+        <v>9439621</v>
       </c>
       <c r="F35" t="n">
-        <v>80294.38393222996</v>
+        <v>39873.56239291876</v>
       </c>
       <c r="G35" t="n">
-        <v>27398.22246457571</v>
+        <v>85319.99127763651</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7516350</v>
+        <v>7488027</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211601755</v>
+        <v>210616658</v>
       </c>
       <c r="E36" t="n">
-        <v>650595768</v>
+        <v>647566963</v>
       </c>
       <c r="F36" t="n">
-        <v>151559.2136157537</v>
+        <v>156584.0507019246</v>
       </c>
       <c r="G36" t="n">
-        <v>214147.0914593214</v>
+        <v>206619.0534510086</v>
       </c>
       <c r="H36" t="n">
         <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>21913819</v>
+        <v>22403400</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>134258525</v>
+        <v>135076702</v>
       </c>
       <c r="E37" t="n">
-        <v>350746673</v>
+        <v>352884138</v>
       </c>
       <c r="F37" t="n">
-        <v>44258.29657461793</v>
+        <v>61575.01955108414</v>
       </c>
       <c r="G37" t="n">
-        <v>58764.10029812559</v>
+        <v>47204.49175409914</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="I37" t="n">
-        <v>9499499</v>
+        <v>9385383</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>376258719</v>
+        <v>381280420</v>
       </c>
       <c r="E38" t="n">
-        <v>2150049826</v>
+        <v>2178745258</v>
       </c>
       <c r="F38" t="n">
-        <v>42461.12782772944</v>
+        <v>39571.25841351981</v>
       </c>
       <c r="G38" t="n">
-        <v>90989.03730824155</v>
+        <v>86643.22999045416</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>58371313</v>
+        <v>60462375</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244004913</v>
+        <v>243248238</v>
       </c>
       <c r="E2" t="n">
-        <v>1530120510</v>
+        <v>1525375511</v>
       </c>
       <c r="F2" t="n">
-        <v>115825.9575695138</v>
+        <v>146618.5073266136</v>
       </c>
       <c r="G2" t="n">
-        <v>125038.3580372353</v>
+        <v>217115.8275549054</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>25467845</v>
+        <v>26114994</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140175793</v>
+        <v>138801697</v>
       </c>
       <c r="E3" t="n">
-        <v>155336686</v>
+        <v>153813972</v>
       </c>
       <c r="F3" t="n">
-        <v>67958.07913188633</v>
+        <v>77750.8865686374</v>
       </c>
       <c r="G3" t="n">
-        <v>186479.5262492909</v>
+        <v>184552.3682184941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>52432142</v>
+        <v>52623480</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>553425799</v>
+        <v>545750432</v>
       </c>
       <c r="E4" t="n">
-        <v>692253421</v>
+        <v>682652678</v>
       </c>
       <c r="F4" t="n">
-        <v>116992.7492675782</v>
+        <v>116593.2657466139</v>
       </c>
       <c r="G4" t="n">
-        <v>151558.0059227869</v>
+        <v>132371.4956135422</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>97134909</v>
+        <v>97960197</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137748501</v>
+        <v>135302695</v>
       </c>
       <c r="E5" t="n">
-        <v>137748501</v>
+        <v>135302695</v>
       </c>
       <c r="F5" t="n">
-        <v>73330.51651723191</v>
+        <v>90090.65802179409</v>
       </c>
       <c r="G5" t="n">
-        <v>119738.5602587294</v>
+        <v>101648.4731912157</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>94591482</v>
+        <v>90845564</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250602084</v>
+        <v>246780030</v>
       </c>
       <c r="E6" t="n">
-        <v>250602084</v>
+        <v>246780030</v>
       </c>
       <c r="F6" t="n">
-        <v>49250.88098761611</v>
+        <v>59731.81981435094</v>
       </c>
       <c r="G6" t="n">
-        <v>107443.0447990712</v>
+        <v>90370.81276498229</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25719207</v>
+        <v>25877062</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97742018</v>
+        <v>96438946</v>
       </c>
       <c r="E7" t="n">
-        <v>121872838</v>
+        <v>120248061</v>
       </c>
       <c r="F7" t="n">
-        <v>17691.75421257169</v>
+        <v>14371.96667800309</v>
       </c>
       <c r="G7" t="n">
-        <v>40805.31758912749</v>
+        <v>46274.32720612842</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>12200386</v>
+        <v>12179702</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83433043</v>
+        <v>81833060</v>
       </c>
       <c r="E8" t="n">
-        <v>173951194</v>
+        <v>170615357</v>
       </c>
       <c r="F8" t="n">
-        <v>21467.83482110225</v>
+        <v>30382.31790005942</v>
       </c>
       <c r="G8" t="n">
-        <v>57866.46138727967</v>
+        <v>53069.5854143832</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>70189012</v>
+        <v>70568911</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>137809899</v>
+        <v>136248671</v>
       </c>
       <c r="E9" t="n">
-        <v>137866211</v>
+        <v>136304896</v>
       </c>
       <c r="F9" t="n">
-        <v>11501.5022128885</v>
+        <v>10034.41362224262</v>
       </c>
       <c r="G9" t="n">
-        <v>11212.52225284904</v>
+        <v>11137.78161623054</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>3297098</v>
+        <v>3322103</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>642085655</v>
+        <v>634567424</v>
       </c>
       <c r="E10" t="n">
-        <v>642085655</v>
+        <v>634567424</v>
       </c>
       <c r="F10" t="n">
-        <v>337290.0425732598</v>
+        <v>337775.3270320452</v>
       </c>
       <c r="G10" t="n">
-        <v>476583.6460652528</v>
+        <v>533337.5606895672</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>550057794</v>
+        <v>548357965</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73111268</v>
+        <v>73199131</v>
       </c>
       <c r="E11" t="n">
-        <v>83885867</v>
+        <v>83986679</v>
       </c>
       <c r="F11" t="n">
-        <v>1219.335168102032</v>
+        <v>14336.816084368</v>
       </c>
       <c r="G11" t="n">
-        <v>5149.932684267856</v>
+        <v>1410.87179872323</v>
       </c>
       <c r="H11" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>1605396</v>
+        <v>1618850</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>259424066</v>
+        <v>254443152</v>
       </c>
       <c r="E12" t="n">
-        <v>1119818285</v>
+        <v>1098317895</v>
       </c>
       <c r="F12" t="n">
-        <v>280940.2860908003</v>
+        <v>279528.3599370744</v>
       </c>
       <c r="G12" t="n">
-        <v>344903.4653305655</v>
+        <v>364604.5235906268</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142658666</v>
+        <v>141556783</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112208791</v>
+        <v>112020772</v>
       </c>
       <c r="E13" t="n">
-        <v>112208791</v>
+        <v>112020772</v>
       </c>
       <c r="F13" t="n">
-        <v>5868.854614153503</v>
+        <v>6212.13285661106</v>
       </c>
       <c r="G13" t="n">
-        <v>3483.848616839591</v>
+        <v>3358.093524076965</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="I13" t="n">
-        <v>7012463</v>
+        <v>7029871</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15754395</v>
+        <v>15613312</v>
       </c>
       <c r="E14" t="n">
-        <v>39385987</v>
+        <v>39033281</v>
       </c>
       <c r="F14" t="n">
-        <v>16103.00546237598</v>
+        <v>15008.0394338143</v>
       </c>
       <c r="G14" t="n">
-        <v>20016.39060702736</v>
+        <v>14776.59613264705</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>4809861</v>
+        <v>4889675</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12425580</v>
+        <v>12468778</v>
       </c>
       <c r="E15" t="n">
-        <v>18271580</v>
+        <v>18335103</v>
       </c>
       <c r="F15" t="n">
-        <v>2056.7231420445</v>
+        <v>2530.021421650099</v>
       </c>
       <c r="G15" t="n">
-        <v>48529.68365870611</v>
+        <v>8130.864483925718</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I15" t="n">
-        <v>7048686</v>
+        <v>7092231</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29417710</v>
+        <v>29656379</v>
       </c>
       <c r="E16" t="n">
-        <v>91597310</v>
+        <v>92340449</v>
       </c>
       <c r="F16" t="n">
-        <v>14909.5629657531</v>
+        <v>10874.47181870725</v>
       </c>
       <c r="G16" t="n">
-        <v>18203.59124076429</v>
+        <v>22243.37626908941</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>10369709</v>
+        <v>10547772</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>322256688</v>
+        <v>319485186</v>
       </c>
       <c r="E17" t="n">
-        <v>2899220993</v>
+        <v>2874286841</v>
       </c>
       <c r="F17" t="n">
-        <v>6794.388479303703</v>
+        <v>7518.09242407594</v>
       </c>
       <c r="G17" t="n">
-        <v>7054.369919877621</v>
+        <v>6778.840453018945</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>66051582</v>
+        <v>67228751</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15043605</v>
+        <v>15065410</v>
       </c>
       <c r="E18" t="n">
-        <v>92207201</v>
+        <v>92340851</v>
       </c>
       <c r="F18" t="n">
-        <v>20962.7094531168</v>
+        <v>19507.96448675626</v>
       </c>
       <c r="G18" t="n">
-        <v>36403.0432476155</v>
+        <v>31584.15281716039</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>12202425</v>
+        <v>12240565</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50695186</v>
+        <v>50138929</v>
       </c>
       <c r="E19" t="n">
-        <v>218389316</v>
+        <v>215993025</v>
       </c>
       <c r="F19" t="n">
-        <v>45796.45783983401</v>
+        <v>58748.83497993211</v>
       </c>
       <c r="G19" t="n">
-        <v>72428.50925531317</v>
+        <v>69089.84204155217</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>12982601</v>
+        <v>13223179</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>288217214</v>
+        <v>285457021</v>
       </c>
       <c r="E20" t="n">
-        <v>288217214</v>
+        <v>285457021</v>
       </c>
       <c r="F20" t="n">
-        <v>67593.48991873814</v>
+        <v>64167.00212392492</v>
       </c>
       <c r="G20" t="n">
-        <v>112521.1274849889</v>
+        <v>112263.6109214303</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>92441183</v>
+        <v>93193721</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28837252</v>
+        <v>28912351</v>
       </c>
       <c r="E21" t="n">
-        <v>129116205</v>
+        <v>129452457</v>
       </c>
       <c r="F21" t="n">
-        <v>36608.03289907057</v>
+        <v>33207.01732734157</v>
       </c>
       <c r="G21" t="n">
-        <v>61300.5026539578</v>
+        <v>64361.52974286476</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>14216148</v>
+        <v>14537347</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47936438</v>
+        <v>47202877</v>
       </c>
       <c r="E22" t="n">
-        <v>310855045</v>
+        <v>306098097</v>
       </c>
       <c r="F22" t="n">
-        <v>11255.53309185056</v>
+        <v>12736.39406063894</v>
       </c>
       <c r="G22" t="n">
-        <v>91023.78281570166</v>
+        <v>90990.68664291309</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>20989838</v>
+        <v>21312851</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123816634</v>
+        <v>123436227</v>
       </c>
       <c r="E23" t="n">
-        <v>2050504866</v>
+        <v>2044205015</v>
       </c>
       <c r="F23" t="n">
-        <v>342390.2947720849</v>
+        <v>62770.36979994845</v>
       </c>
       <c r="G23" t="n">
-        <v>340995.1477183528</v>
+        <v>63379.47834843062</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>35167491</v>
+        <v>35947081</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6312869</v>
+        <v>6282867</v>
       </c>
       <c r="E24" t="n">
-        <v>32477793</v>
+        <v>32323440</v>
       </c>
       <c r="F24" t="n">
-        <v>1708.203488698948</v>
+        <v>1536.325658335651</v>
       </c>
       <c r="G24" t="n">
-        <v>2238.679750164609</v>
+        <v>1752.143281283096</v>
       </c>
       <c r="H24" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I24" t="n">
-        <v>951278</v>
+        <v>952386</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22761136</v>
+        <v>22678582</v>
       </c>
       <c r="E25" t="n">
-        <v>22761136</v>
+        <v>22678707</v>
       </c>
       <c r="F25" t="n">
-        <v>1530.994518772915</v>
+        <v>16162.81883370698</v>
       </c>
       <c r="G25" t="n">
-        <v>6740.420281630347</v>
+        <v>6877.767625008593</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I25" t="n">
-        <v>2418370</v>
+        <v>2306983</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>291996066</v>
+        <v>286430216</v>
       </c>
       <c r="E27" t="n">
-        <v>540259311</v>
+        <v>529961220</v>
       </c>
       <c r="F27" t="n">
-        <v>75991.80086263003</v>
+        <v>71892.12902912108</v>
       </c>
       <c r="G27" t="n">
-        <v>73410.68953290136</v>
+        <v>75579.53048169715</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>17221368</v>
+        <v>17546873</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43716298</v>
+        <v>43278648</v>
       </c>
       <c r="E28" t="n">
-        <v>43716298</v>
+        <v>43278648</v>
       </c>
       <c r="F28" t="n">
-        <v>24572.09692662678</v>
+        <v>28896.10733658196</v>
       </c>
       <c r="G28" t="n">
-        <v>45002.53695066303</v>
+        <v>44820.58705816619</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>11254731</v>
+        <v>11758841</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>577851550</v>
+        <v>572165483</v>
       </c>
       <c r="E29" t="n">
-        <v>2237933798</v>
+        <v>2215912497</v>
       </c>
       <c r="F29" t="n">
-        <v>76503.84680657386</v>
+        <v>62378.11292269702</v>
       </c>
       <c r="G29" t="n">
-        <v>252036.7024016006</v>
+        <v>253265.6092311209</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>60373529</v>
+        <v>60981974</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120516139</v>
+        <v>120865969</v>
       </c>
       <c r="E30" t="n">
-        <v>462319305</v>
+        <v>463661313</v>
       </c>
       <c r="F30" t="n">
-        <v>147758.0512800404</v>
+        <v>147249.9678474948</v>
       </c>
       <c r="G30" t="n">
-        <v>182824.5956613308</v>
+        <v>180081.2927253836</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>39588398</v>
+        <v>39527233</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35875685</v>
+        <v>35969480</v>
       </c>
       <c r="F31" t="n">
-        <v>30587.11538506249</v>
+        <v>15867.2896453022</v>
       </c>
       <c r="G31" t="n">
-        <v>20948.79247130341</v>
+        <v>22148.46986383146</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>7915586</v>
+        <v>8059473</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88825779</v>
+        <v>89249814</v>
       </c>
       <c r="E32" t="n">
-        <v>328337477</v>
+        <v>329903952</v>
       </c>
       <c r="F32" t="n">
-        <v>1382.242597971833</v>
+        <v>561.9125996899958</v>
       </c>
       <c r="G32" t="n">
-        <v>9169.804948597422</v>
+        <v>9286.174903413834</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>251115</v>
+        <v>271924</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>469003399</v>
+        <v>461984228</v>
       </c>
       <c r="E33" t="n">
-        <v>1632561801</v>
+        <v>1608128649</v>
       </c>
       <c r="F33" t="n">
-        <v>238331.1963076093</v>
+        <v>238062.9980790131</v>
       </c>
       <c r="G33" t="n">
-        <v>287416.6675439698</v>
+        <v>282293.0378826898</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>46956285</v>
+        <v>48231996</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106462232</v>
+        <v>105599583</v>
       </c>
       <c r="E34" t="n">
-        <v>161302582</v>
+        <v>159995569</v>
       </c>
       <c r="F34" t="n">
-        <v>60140.97735771412</v>
+        <v>58803.61270407652</v>
       </c>
       <c r="G34" t="n">
-        <v>82534.91092479341</v>
+        <v>77371.73325183643</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9993461</v>
+        <v>9697216</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2359905</v>
+        <v>2360569</v>
       </c>
       <c r="E35" t="n">
-        <v>9439621</v>
+        <v>9442274</v>
       </c>
       <c r="F35" t="n">
-        <v>39873.56239291876</v>
+        <v>79415.50348198939</v>
       </c>
       <c r="G35" t="n">
-        <v>85319.99127763651</v>
+        <v>83078.89934712056</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7488027</v>
+        <v>7513742</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210616658</v>
+        <v>207547802</v>
       </c>
       <c r="E36" t="n">
-        <v>647566963</v>
+        <v>638131387</v>
       </c>
       <c r="F36" t="n">
-        <v>156584.0507019246</v>
+        <v>192822.7563193598</v>
       </c>
       <c r="G36" t="n">
-        <v>206619.0534510086</v>
+        <v>222411.3793659896</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>22403400</v>
+        <v>22565740</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>135076702</v>
+        <v>134085123</v>
       </c>
       <c r="E37" t="n">
-        <v>352884138</v>
+        <v>350293663</v>
       </c>
       <c r="F37" t="n">
-        <v>61575.01955108414</v>
+        <v>50680.19845316398</v>
       </c>
       <c r="G37" t="n">
-        <v>47204.49175409914</v>
+        <v>42125.49815100885</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>9385383</v>
+        <v>8837426</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>381280420</v>
+        <v>379864178</v>
       </c>
       <c r="E38" t="n">
-        <v>2178745258</v>
+        <v>2170652444</v>
       </c>
       <c r="F38" t="n">
-        <v>39571.25841351981</v>
+        <v>37834.21007096172</v>
       </c>
       <c r="G38" t="n">
-        <v>86643.22999045416</v>
+        <v>86018.33669330865</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>60462375</v>
+        <v>61386450</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>243248238</v>
+        <v>244235783</v>
       </c>
       <c r="E2" t="n">
-        <v>1525375511</v>
+        <v>1531568268</v>
       </c>
       <c r="F2" t="n">
-        <v>146618.5073266136</v>
+        <v>113936.6655150943</v>
       </c>
       <c r="G2" t="n">
-        <v>217115.8275549054</v>
+        <v>140791.8223558587</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>26114994</v>
+        <v>26292846</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138801697</v>
+        <v>138041314</v>
       </c>
       <c r="E3" t="n">
-        <v>153813972</v>
+        <v>152971349</v>
       </c>
       <c r="F3" t="n">
-        <v>77750.8865686374</v>
+        <v>73275.46934508928</v>
       </c>
       <c r="G3" t="n">
-        <v>184552.3682184941</v>
+        <v>173138.130833928</v>
       </c>
       <c r="H3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>52623480</v>
+        <v>52749844</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>545750432</v>
+        <v>544190951</v>
       </c>
       <c r="E4" t="n">
-        <v>682652678</v>
+        <v>680701999</v>
       </c>
       <c r="F4" t="n">
-        <v>116593.2657466139</v>
+        <v>102221.9264712222</v>
       </c>
       <c r="G4" t="n">
-        <v>132371.4956135422</v>
+        <v>144813.4815530835</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>97960197</v>
+        <v>98196893</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135302695</v>
+        <v>135249207</v>
       </c>
       <c r="E5" t="n">
-        <v>135302695</v>
+        <v>135249207</v>
       </c>
       <c r="F5" t="n">
-        <v>90090.65802179409</v>
+        <v>59703.56144973934</v>
       </c>
       <c r="G5" t="n">
-        <v>101648.4731912157</v>
+        <v>118691.3339070737</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>90845564</v>
+        <v>91100854</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>246780030</v>
+        <v>246330012</v>
       </c>
       <c r="E6" t="n">
-        <v>246780030</v>
+        <v>246330012</v>
       </c>
       <c r="F6" t="n">
-        <v>59731.81981435094</v>
+        <v>52815.50696721113</v>
       </c>
       <c r="G6" t="n">
-        <v>90370.81276498229</v>
+        <v>100813.3082735387</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25877062</v>
+        <v>25891250</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96438946</v>
+        <v>96181982</v>
       </c>
       <c r="E7" t="n">
-        <v>120248061</v>
+        <v>119927656</v>
       </c>
       <c r="F7" t="n">
-        <v>14371.96667800309</v>
+        <v>15185.25328268425</v>
       </c>
       <c r="G7" t="n">
-        <v>46274.32720612842</v>
+        <v>39432.61186464108</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>12179702</v>
+        <v>12202649</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81833060</v>
+        <v>81362697</v>
       </c>
       <c r="E8" t="n">
-        <v>170615357</v>
+        <v>169634688</v>
       </c>
       <c r="F8" t="n">
-        <v>30382.31790005942</v>
+        <v>32903.31670805422</v>
       </c>
       <c r="G8" t="n">
-        <v>53069.5854143832</v>
+        <v>52472.02929173684</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
-        <v>70568911</v>
+        <v>70776007</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>136248671</v>
+        <v>135966883</v>
       </c>
       <c r="E9" t="n">
-        <v>136304896</v>
+        <v>136023266</v>
       </c>
       <c r="F9" t="n">
-        <v>10034.41362224262</v>
+        <v>7621.040679312848</v>
       </c>
       <c r="G9" t="n">
-        <v>11137.78161623054</v>
+        <v>14778.91391094473</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>3322103</v>
+        <v>3331524</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>634567424</v>
+        <v>633855454</v>
       </c>
       <c r="E10" t="n">
-        <v>634567424</v>
+        <v>633855454</v>
       </c>
       <c r="F10" t="n">
-        <v>337775.3270320452</v>
+        <v>353016.0819566568</v>
       </c>
       <c r="G10" t="n">
-        <v>533337.5606895672</v>
+        <v>525415.7793361861</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>548357965</v>
+        <v>548180414</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73199131</v>
+        <v>72952354</v>
       </c>
       <c r="E11" t="n">
-        <v>83986679</v>
+        <v>83703533</v>
       </c>
       <c r="F11" t="n">
-        <v>14336.816084368</v>
+        <v>2452.530838603759</v>
       </c>
       <c r="G11" t="n">
-        <v>1410.87179872323</v>
+        <v>1003.184669500108</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1618850</v>
+        <v>1603438</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>254443152</v>
+        <v>254791288</v>
       </c>
       <c r="E12" t="n">
-        <v>1098317895</v>
+        <v>1099820642</v>
       </c>
       <c r="F12" t="n">
-        <v>279528.3599370744</v>
+        <v>298944.9696750678</v>
       </c>
       <c r="G12" t="n">
-        <v>364604.5235906268</v>
+        <v>364060.7870696993</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>141556783</v>
+        <v>141594583</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112020772</v>
+        <v>111667282</v>
       </c>
       <c r="E13" t="n">
-        <v>112020772</v>
+        <v>111667282</v>
       </c>
       <c r="F13" t="n">
-        <v>6212.13285661106</v>
+        <v>5792.008536220393</v>
       </c>
       <c r="G13" t="n">
-        <v>3358.093524076965</v>
+        <v>3421.749894248426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>7029871</v>
+        <v>7046026</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15613312</v>
+        <v>15684368</v>
       </c>
       <c r="E14" t="n">
-        <v>39033281</v>
+        <v>39210920</v>
       </c>
       <c r="F14" t="n">
-        <v>15008.0394338143</v>
+        <v>9965.439795697963</v>
       </c>
       <c r="G14" t="n">
-        <v>14776.59613264705</v>
+        <v>20003.78974241499</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>4889675</v>
+        <v>4916934</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12468778</v>
+        <v>12578712</v>
       </c>
       <c r="E15" t="n">
-        <v>18335103</v>
+        <v>18496758</v>
       </c>
       <c r="F15" t="n">
-        <v>2530.021421650099</v>
+        <v>2291.977608411091</v>
       </c>
       <c r="G15" t="n">
-        <v>8130.864483925718</v>
+        <v>8803.046575886254</v>
       </c>
       <c r="H15" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>7092231</v>
+        <v>6977737</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29656379</v>
+        <v>29645714</v>
       </c>
       <c r="E16" t="n">
-        <v>92340449</v>
+        <v>92307243</v>
       </c>
       <c r="F16" t="n">
-        <v>10874.47181870725</v>
+        <v>9110.020371357839</v>
       </c>
       <c r="G16" t="n">
-        <v>22243.37626908941</v>
+        <v>22376.76076245232</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>10547772</v>
+        <v>10558299</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>319485186</v>
+        <v>318743891</v>
       </c>
       <c r="E17" t="n">
-        <v>2874286841</v>
+        <v>2867617693</v>
       </c>
       <c r="F17" t="n">
-        <v>7518.09242407594</v>
+        <v>6544.134969080821</v>
       </c>
       <c r="G17" t="n">
-        <v>6778.840453018945</v>
+        <v>7044.072979585197</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>67228751</v>
+        <v>68979113</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15065410</v>
+        <v>14993968</v>
       </c>
       <c r="E18" t="n">
-        <v>92340851</v>
+        <v>91902961</v>
       </c>
       <c r="F18" t="n">
-        <v>19507.96448675626</v>
+        <v>17583.60266353896</v>
       </c>
       <c r="G18" t="n">
-        <v>31584.15281716039</v>
+        <v>21007.48281921439</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>12240565</v>
+        <v>12197766</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50138929</v>
+        <v>49535098</v>
       </c>
       <c r="E19" t="n">
-        <v>215993025</v>
+        <v>213391784</v>
       </c>
       <c r="F19" t="n">
-        <v>58748.83497993211</v>
+        <v>48337.85290192968</v>
       </c>
       <c r="G19" t="n">
-        <v>69089.84204155217</v>
+        <v>75330.36574639638</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>13223179</v>
+        <v>13283204</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>285457021</v>
+        <v>286230369</v>
       </c>
       <c r="E20" t="n">
-        <v>285457021</v>
+        <v>286230369</v>
       </c>
       <c r="F20" t="n">
-        <v>64167.00212392492</v>
+        <v>64897.47282988501</v>
       </c>
       <c r="G20" t="n">
-        <v>112263.6109214303</v>
+        <v>111575.0435069834</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>93193721</v>
+        <v>93008539</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28912351</v>
+        <v>28691983</v>
       </c>
       <c r="E21" t="n">
-        <v>129452457</v>
+        <v>128465777</v>
       </c>
       <c r="F21" t="n">
-        <v>33207.01732734157</v>
+        <v>33867.62768385719</v>
       </c>
       <c r="G21" t="n">
-        <v>64361.52974286476</v>
+        <v>55251.10377545279</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>14537347</v>
+        <v>14599045</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47202877</v>
+        <v>47178720</v>
       </c>
       <c r="E22" t="n">
-        <v>306098097</v>
+        <v>305941443</v>
       </c>
       <c r="F22" t="n">
-        <v>12736.39406063894</v>
+        <v>12655.17521573311</v>
       </c>
       <c r="G22" t="n">
-        <v>90990.68664291309</v>
+        <v>92027.18202960475</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21312851</v>
+        <v>21255364</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123436227</v>
+        <v>123638310</v>
       </c>
       <c r="E23" t="n">
-        <v>2044205015</v>
+        <v>2047551683</v>
       </c>
       <c r="F23" t="n">
-        <v>62770.36979994845</v>
+        <v>68486.39507850377</v>
       </c>
       <c r="G23" t="n">
-        <v>63379.47834843062</v>
+        <v>63344.26959474037</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>35947081</v>
+        <v>36077331</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6282867</v>
+        <v>6255696</v>
       </c>
       <c r="E24" t="n">
-        <v>32323440</v>
+        <v>32183655</v>
       </c>
       <c r="F24" t="n">
-        <v>1536.325658335651</v>
+        <v>1813.75685275964</v>
       </c>
       <c r="G24" t="n">
-        <v>1752.143281283096</v>
+        <v>1843.688899937542</v>
       </c>
       <c r="H24" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>952386</v>
+        <v>886395</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22678582</v>
+        <v>22142559</v>
       </c>
       <c r="E25" t="n">
-        <v>22678707</v>
+        <v>22142559</v>
       </c>
       <c r="F25" t="n">
-        <v>16162.81883370698</v>
+        <v>4320.03952715931</v>
       </c>
       <c r="G25" t="n">
-        <v>6877.767625008593</v>
+        <v>8385.497539331071</v>
       </c>
       <c r="H25" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>2306983</v>
+        <v>2376239</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>286430216</v>
+        <v>286782706</v>
       </c>
       <c r="E27" t="n">
-        <v>529961220</v>
+        <v>530613406</v>
       </c>
       <c r="F27" t="n">
-        <v>71892.12902912108</v>
+        <v>76064.70258630114</v>
       </c>
       <c r="G27" t="n">
-        <v>75579.53048169715</v>
+        <v>28294.05531055525</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>17546873</v>
+        <v>17011242</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43278648</v>
+        <v>43035252</v>
       </c>
       <c r="E28" t="n">
-        <v>43278648</v>
+        <v>43035252</v>
       </c>
       <c r="F28" t="n">
-        <v>28896.10733658196</v>
+        <v>28007.8453228845</v>
       </c>
       <c r="G28" t="n">
-        <v>44820.58705816619</v>
+        <v>41705.61421649062</v>
       </c>
       <c r="H28" t="n">
         <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>11758841</v>
+        <v>11813017</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>572165483</v>
+        <v>571219353</v>
       </c>
       <c r="E29" t="n">
-        <v>2215912497</v>
+        <v>2212248278</v>
       </c>
       <c r="F29" t="n">
-        <v>62378.11292269702</v>
+        <v>57278.19373012451</v>
       </c>
       <c r="G29" t="n">
-        <v>253265.6092311209</v>
+        <v>266536.8151054251</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>60981974</v>
+        <v>60610950</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120865969</v>
+        <v>120315873</v>
       </c>
       <c r="E30" t="n">
-        <v>463661313</v>
+        <v>461551053</v>
       </c>
       <c r="F30" t="n">
-        <v>147249.9678474948</v>
+        <v>146299.1287332705</v>
       </c>
       <c r="G30" t="n">
-        <v>180081.2927253836</v>
+        <v>183853.6946600946</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>39527233</v>
+        <v>39443422</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35969480</v>
+        <v>35966193</v>
       </c>
       <c r="F31" t="n">
-        <v>15867.2896453022</v>
+        <v>18400.34263013641</v>
       </c>
       <c r="G31" t="n">
-        <v>22148.46986383146</v>
+        <v>20960.10729533303</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>8059473</v>
+        <v>8005989</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89249814</v>
+        <v>89327141</v>
       </c>
       <c r="E32" t="n">
-        <v>329903952</v>
+        <v>330188757</v>
       </c>
       <c r="F32" t="n">
-        <v>561.9125996899958</v>
+        <v>962.607710605072</v>
       </c>
       <c r="G32" t="n">
-        <v>9286.174903413834</v>
+        <v>9216.229286485786</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>271924</v>
+        <v>272140</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>461984228</v>
+        <v>460817069</v>
       </c>
       <c r="E33" t="n">
-        <v>1608128649</v>
+        <v>1604065867</v>
       </c>
       <c r="F33" t="n">
-        <v>238062.9980790131</v>
+        <v>177361.9459257088</v>
       </c>
       <c r="G33" t="n">
-        <v>282293.0378826898</v>
+        <v>256875.2417640371</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>48231996</v>
+        <v>47308903</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>105599583</v>
+        <v>105045879</v>
       </c>
       <c r="E34" t="n">
-        <v>159995569</v>
+        <v>159156644</v>
       </c>
       <c r="F34" t="n">
-        <v>58803.61270407652</v>
+        <v>59390.5178361639</v>
       </c>
       <c r="G34" t="n">
-        <v>77371.73325183643</v>
+        <v>78923.50865846254</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>9697216</v>
+        <v>9690429</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2360569</v>
+        <v>2346309</v>
       </c>
       <c r="E35" t="n">
-        <v>9442274</v>
+        <v>9385237</v>
       </c>
       <c r="F35" t="n">
-        <v>79415.50348198939</v>
+        <v>86634.47278740571</v>
       </c>
       <c r="G35" t="n">
-        <v>83078.89934712056</v>
+        <v>82999.8232830825</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7513742</v>
+        <v>7552206</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>207547802</v>
+        <v>207713672</v>
       </c>
       <c r="E36" t="n">
-        <v>638131387</v>
+        <v>638641373</v>
       </c>
       <c r="F36" t="n">
-        <v>192822.7563193598</v>
+        <v>116487.6922960334</v>
       </c>
       <c r="G36" t="n">
-        <v>222411.3793659896</v>
+        <v>192112.6439159808</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>22565740</v>
+        <v>22663358</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>134085123</v>
+        <v>133450457</v>
       </c>
       <c r="E37" t="n">
-        <v>350293663</v>
+        <v>348635616</v>
       </c>
       <c r="F37" t="n">
-        <v>50680.19845316398</v>
+        <v>51240.18622183966</v>
       </c>
       <c r="G37" t="n">
-        <v>42125.49815100885</v>
+        <v>40688.9110046768</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I37" t="n">
-        <v>8837426</v>
+        <v>8760770</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>379864178</v>
+        <v>378237807</v>
       </c>
       <c r="E38" t="n">
-        <v>2170652444</v>
+        <v>2161358899</v>
       </c>
       <c r="F38" t="n">
-        <v>37834.21007096172</v>
+        <v>33864.35289361101</v>
       </c>
       <c r="G38" t="n">
-        <v>86018.33669330865</v>
+        <v>89239.75694628304</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>61386450</v>
+        <v>61627167</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244235783</v>
+        <v>249347865</v>
       </c>
       <c r="E2" t="n">
-        <v>1531568268</v>
+        <v>1563625413</v>
       </c>
       <c r="F2" t="n">
-        <v>113936.6655150943</v>
+        <v>108013.566762931</v>
       </c>
       <c r="G2" t="n">
-        <v>140791.8223558587</v>
+        <v>134869.6090930651</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>26292846</v>
+        <v>26727923</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138041314</v>
+        <v>139669685</v>
       </c>
       <c r="E3" t="n">
-        <v>152971349</v>
+        <v>154775839</v>
       </c>
       <c r="F3" t="n">
-        <v>73275.46934508928</v>
+        <v>65447.66208046566</v>
       </c>
       <c r="G3" t="n">
-        <v>173138.130833928</v>
+        <v>175852.8415856975</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>52749844</v>
+        <v>52449012</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>544190951</v>
+        <v>545887162</v>
       </c>
       <c r="E4" t="n">
-        <v>680701999</v>
+        <v>682823707</v>
       </c>
       <c r="F4" t="n">
-        <v>102221.9264712222</v>
+        <v>105025.7586069847</v>
       </c>
       <c r="G4" t="n">
-        <v>144813.4815530835</v>
+        <v>123500.5889068609</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>98196893</v>
+        <v>98988487</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135249207</v>
+        <v>137184536</v>
       </c>
       <c r="E5" t="n">
-        <v>135249207</v>
+        <v>137184536</v>
       </c>
       <c r="F5" t="n">
-        <v>59703.56144973934</v>
+        <v>63457.04018951406</v>
       </c>
       <c r="G5" t="n">
-        <v>118691.3339070737</v>
+        <v>95588.75044547448</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>91100854</v>
+        <v>95089041</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>246330012</v>
+        <v>248750864</v>
       </c>
       <c r="E6" t="n">
-        <v>246330012</v>
+        <v>248750864</v>
       </c>
       <c r="F6" t="n">
-        <v>52815.50696721113</v>
+        <v>49005.14090790247</v>
       </c>
       <c r="G6" t="n">
-        <v>100813.3082735387</v>
+        <v>88319.76377781287</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25891250</v>
+        <v>26106991</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96181982</v>
+        <v>97080205</v>
       </c>
       <c r="E7" t="n">
-        <v>119927656</v>
+        <v>121047636</v>
       </c>
       <c r="F7" t="n">
-        <v>15185.25328268425</v>
+        <v>11162.34264398459</v>
       </c>
       <c r="G7" t="n">
-        <v>39432.61186464108</v>
+        <v>37003.33924096938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>12202649</v>
+        <v>12677018</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81362697</v>
+        <v>85574927</v>
       </c>
       <c r="E8" t="n">
-        <v>169634688</v>
+        <v>178416849</v>
       </c>
       <c r="F8" t="n">
-        <v>32903.31670805422</v>
+        <v>41804.65557983163</v>
       </c>
       <c r="G8" t="n">
-        <v>52472.02929173684</v>
+        <v>46073.0741921089</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I8" t="n">
-        <v>70776007</v>
+        <v>72585645</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135966883</v>
+        <v>137682050</v>
       </c>
       <c r="E9" t="n">
-        <v>136023266</v>
+        <v>137739707</v>
       </c>
       <c r="F9" t="n">
-        <v>7621.040679312848</v>
+        <v>9000.263995821193</v>
       </c>
       <c r="G9" t="n">
-        <v>14778.91391094473</v>
+        <v>16697.62091072286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3331524</v>
+        <v>3455641</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>633855454</v>
+        <v>645177399</v>
       </c>
       <c r="E10" t="n">
-        <v>633855454</v>
+        <v>645177399</v>
       </c>
       <c r="F10" t="n">
-        <v>353016.0819566568</v>
+        <v>293740.5822631372</v>
       </c>
       <c r="G10" t="n">
-        <v>525415.7793361861</v>
+        <v>429092.5067760231</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>548180414</v>
+        <v>555731157</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72952354</v>
+        <v>75259253</v>
       </c>
       <c r="E11" t="n">
-        <v>83703533</v>
+        <v>86350407</v>
       </c>
       <c r="F11" t="n">
-        <v>2452.530838603759</v>
+        <v>11531.2684346926</v>
       </c>
       <c r="G11" t="n">
-        <v>1003.184669500108</v>
+        <v>13157.08884950262</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1603438</v>
+        <v>1690508</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>254791288</v>
+        <v>256790031</v>
       </c>
       <c r="E12" t="n">
-        <v>1099820642</v>
+        <v>1108448327</v>
       </c>
       <c r="F12" t="n">
-        <v>298944.9696750678</v>
+        <v>248891.4261438571</v>
       </c>
       <c r="G12" t="n">
-        <v>364060.7870696993</v>
+        <v>331321.053740272</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>141594583</v>
+        <v>142798242</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111667282</v>
+        <v>112043312</v>
       </c>
       <c r="E13" t="n">
-        <v>111667282</v>
+        <v>112043312</v>
       </c>
       <c r="F13" t="n">
-        <v>5792.008536220393</v>
+        <v>6031.321193347315</v>
       </c>
       <c r="G13" t="n">
-        <v>3421.749894248426</v>
+        <v>4157.618946583234</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="I13" t="n">
-        <v>7046026</v>
+        <v>7087617</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15684368</v>
+        <v>16113022</v>
       </c>
       <c r="E14" t="n">
-        <v>39210920</v>
+        <v>40282555</v>
       </c>
       <c r="F14" t="n">
-        <v>9965.439795697963</v>
+        <v>7600.573648908122</v>
       </c>
       <c r="G14" t="n">
-        <v>20003.78974241499</v>
+        <v>16551.92607282666</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>4916934</v>
+        <v>5058204</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12578712</v>
+        <v>12593043</v>
       </c>
       <c r="E15" t="n">
-        <v>18496758</v>
+        <v>18517832</v>
       </c>
       <c r="F15" t="n">
-        <v>2291.977608411091</v>
+        <v>2257.852232283929</v>
       </c>
       <c r="G15" t="n">
-        <v>8803.046575886254</v>
+        <v>3811.291046443312</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>6977737</v>
+        <v>6768355</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29645714</v>
+        <v>29896493</v>
       </c>
       <c r="E16" t="n">
-        <v>92307243</v>
+        <v>93088087</v>
       </c>
       <c r="F16" t="n">
-        <v>9110.020371357839</v>
+        <v>9514.016448597062</v>
       </c>
       <c r="G16" t="n">
-        <v>22376.76076245232</v>
+        <v>21680.3321136452</v>
       </c>
       <c r="H16" t="n">
         <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>10558299</v>
+        <v>10612145</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>318743891</v>
+        <v>319916989</v>
       </c>
       <c r="E17" t="n">
-        <v>2867617693</v>
+        <v>2878171606</v>
       </c>
       <c r="F17" t="n">
-        <v>6544.134969080821</v>
+        <v>6294.867241015438</v>
       </c>
       <c r="G17" t="n">
-        <v>7044.072979585197</v>
+        <v>6884.374332457947</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>68979113</v>
+        <v>69409276</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14993968</v>
+        <v>15233374</v>
       </c>
       <c r="E18" t="n">
-        <v>91902961</v>
+        <v>93370356</v>
       </c>
       <c r="F18" t="n">
-        <v>17583.60266353896</v>
+        <v>14301.95568026806</v>
       </c>
       <c r="G18" t="n">
-        <v>21007.48281921439</v>
+        <v>15087.46744839343</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>12197766</v>
+        <v>11723286</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49535098</v>
+        <v>49457407</v>
       </c>
       <c r="E19" t="n">
-        <v>213391784</v>
+        <v>213057102</v>
       </c>
       <c r="F19" t="n">
-        <v>48337.85290192968</v>
+        <v>42734.90241430532</v>
       </c>
       <c r="G19" t="n">
-        <v>75330.36574639638</v>
+        <v>80686.13149620968</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>13283204</v>
+        <v>13061864</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>286230369</v>
+        <v>288745612</v>
       </c>
       <c r="E20" t="n">
-        <v>286230369</v>
+        <v>288745612</v>
       </c>
       <c r="F20" t="n">
-        <v>64897.47282988501</v>
+        <v>52649.81162355886</v>
       </c>
       <c r="G20" t="n">
-        <v>111575.0435069834</v>
+        <v>104201.9902033173</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>93008539</v>
+        <v>93526917</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28691983</v>
+        <v>29095571</v>
       </c>
       <c r="E21" t="n">
-        <v>128465777</v>
+        <v>130272809</v>
       </c>
       <c r="F21" t="n">
-        <v>33867.62768385719</v>
+        <v>29114.36890128626</v>
       </c>
       <c r="G21" t="n">
-        <v>55251.10377545279</v>
+        <v>66902.79985131371</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>14599045</v>
+        <v>14903311</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47178720</v>
+        <v>47853183</v>
       </c>
       <c r="E22" t="n">
-        <v>305941443</v>
+        <v>310315155</v>
       </c>
       <c r="F22" t="n">
-        <v>12655.17521573311</v>
+        <v>11276.27110076971</v>
       </c>
       <c r="G22" t="n">
-        <v>92027.18202960475</v>
+        <v>90220.76394543062</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>21255364</v>
+        <v>21804025</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123638310</v>
+        <v>124193291</v>
       </c>
       <c r="E23" t="n">
-        <v>2047551683</v>
+        <v>2056742609</v>
       </c>
       <c r="F23" t="n">
-        <v>68486.39507850377</v>
+        <v>54781.3159322521</v>
       </c>
       <c r="G23" t="n">
-        <v>63344.26959474037</v>
+        <v>55935.58803902227</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>36077331</v>
+        <v>36441258</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6255696</v>
+        <v>6269856</v>
       </c>
       <c r="E24" t="n">
-        <v>32183655</v>
+        <v>32256505</v>
       </c>
       <c r="F24" t="n">
-        <v>1813.75685275964</v>
+        <v>1225.809764103676</v>
       </c>
       <c r="G24" t="n">
-        <v>1843.688899937542</v>
+        <v>2500.110827899721</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>886395</v>
+        <v>958958</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22142559</v>
+        <v>22504302</v>
       </c>
       <c r="E25" t="n">
-        <v>22142559</v>
+        <v>22504659</v>
       </c>
       <c r="F25" t="n">
-        <v>4320.03952715931</v>
+        <v>19769.50452747621</v>
       </c>
       <c r="G25" t="n">
-        <v>8385.497539331071</v>
+        <v>11454.91567210235</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2376239</v>
+        <v>2376208</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>286782706</v>
+        <v>287244642</v>
       </c>
       <c r="E27" t="n">
-        <v>530613406</v>
+        <v>531468093</v>
       </c>
       <c r="F27" t="n">
-        <v>76064.70258630114</v>
+        <v>72678.81906406417</v>
       </c>
       <c r="G27" t="n">
-        <v>28294.05531055525</v>
+        <v>69918.11590254388</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>17011242</v>
+        <v>18443189</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43035252</v>
+        <v>43172889</v>
       </c>
       <c r="E28" t="n">
-        <v>43035252</v>
+        <v>43172889</v>
       </c>
       <c r="F28" t="n">
-        <v>28007.8453228845</v>
+        <v>21035.73592603692</v>
       </c>
       <c r="G28" t="n">
-        <v>41705.61421649062</v>
+        <v>36946.60336424308</v>
       </c>
       <c r="H28" t="n">
         <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>11813017</v>
+        <v>12018184</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>571219353</v>
+        <v>576699124</v>
       </c>
       <c r="E29" t="n">
-        <v>2212248278</v>
+        <v>2233470619</v>
       </c>
       <c r="F29" t="n">
-        <v>57278.19373012451</v>
+        <v>48689.33792142502</v>
       </c>
       <c r="G29" t="n">
-        <v>266536.8151054251</v>
+        <v>143890.2686340388</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>60610950</v>
+        <v>61877511</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120315873</v>
+        <v>120738446</v>
       </c>
       <c r="E30" t="n">
-        <v>461551053</v>
+        <v>463172113</v>
       </c>
       <c r="F30" t="n">
-        <v>146299.1287332705</v>
+        <v>140914.0027790859</v>
       </c>
       <c r="G30" t="n">
-        <v>183853.6946600946</v>
+        <v>180578.0207140154</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>39443422</v>
+        <v>36256335</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35966193</v>
+        <v>36923925</v>
       </c>
       <c r="F31" t="n">
-        <v>18400.34263013641</v>
+        <v>9082.577065121783</v>
       </c>
       <c r="G31" t="n">
-        <v>20960.10729533303</v>
+        <v>11596.34218945584</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>8005989</v>
+        <v>8150044</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89327141</v>
+        <v>89941019</v>
       </c>
       <c r="E32" t="n">
-        <v>330188757</v>
+        <v>332457235</v>
       </c>
       <c r="F32" t="n">
-        <v>962.607710605072</v>
+        <v>382.1051707771319</v>
       </c>
       <c r="G32" t="n">
-        <v>9216.229286485786</v>
+        <v>9180.234896715669</v>
       </c>
       <c r="H32" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>272140</v>
+        <v>253564</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>460817069</v>
+        <v>466922941</v>
       </c>
       <c r="E33" t="n">
-        <v>1604065867</v>
+        <v>1625319897</v>
       </c>
       <c r="F33" t="n">
-        <v>177361.9459257088</v>
+        <v>224022.4899374782</v>
       </c>
       <c r="G33" t="n">
-        <v>256875.2417640371</v>
+        <v>272840.7741439949</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>47308903</v>
+        <v>47598588</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>105045879</v>
+        <v>105875395</v>
       </c>
       <c r="E34" t="n">
-        <v>159156644</v>
+        <v>160413457</v>
       </c>
       <c r="F34" t="n">
-        <v>59390.5178361639</v>
+        <v>55353.94564386539</v>
       </c>
       <c r="G34" t="n">
-        <v>78923.50865846254</v>
+        <v>76731.03381275124</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>9690429</v>
+        <v>9742656</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2346309</v>
+        <v>2317915</v>
       </c>
       <c r="E35" t="n">
-        <v>9385237</v>
+        <v>9271662</v>
       </c>
       <c r="F35" t="n">
-        <v>86634.47278740571</v>
+        <v>90512.99388476486</v>
       </c>
       <c r="G35" t="n">
-        <v>82999.8232830825</v>
+        <v>54781.94911851593</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7552206</v>
+        <v>7728803</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>207713672</v>
+        <v>210542961</v>
       </c>
       <c r="E36" t="n">
-        <v>638641373</v>
+        <v>647340374</v>
       </c>
       <c r="F36" t="n">
-        <v>116487.6922960334</v>
+        <v>187572.50410656</v>
       </c>
       <c r="G36" t="n">
-        <v>192112.6439159808</v>
+        <v>209092.7130795889</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>22663358</v>
+        <v>22946816</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>133450457</v>
+        <v>135108154</v>
       </c>
       <c r="E37" t="n">
-        <v>348635616</v>
+        <v>352966304</v>
       </c>
       <c r="F37" t="n">
-        <v>51240.18622183966</v>
+        <v>38468.13271100826</v>
       </c>
       <c r="G37" t="n">
-        <v>40688.9110046768</v>
+        <v>34526.33642145986</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>8760770</v>
+        <v>8357525</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>378237807</v>
+        <v>379640613</v>
       </c>
       <c r="E38" t="n">
-        <v>2161358899</v>
+        <v>2169374930</v>
       </c>
       <c r="F38" t="n">
-        <v>33864.35289361101</v>
+        <v>33167.8039188101</v>
       </c>
       <c r="G38" t="n">
-        <v>89239.75694628304</v>
+        <v>82376.39167942019</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I38" t="n">
-        <v>61627167</v>
+        <v>62664107</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249347865</v>
+        <v>252650612</v>
       </c>
       <c r="E2" t="n">
-        <v>1563625413</v>
+        <v>1584336475</v>
       </c>
       <c r="F2" t="n">
-        <v>108013.566762931</v>
+        <v>116827.859992996</v>
       </c>
       <c r="G2" t="n">
-        <v>134869.6090930651</v>
+        <v>134831.7545378465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>26727923</v>
+        <v>27886958</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139669685</v>
+        <v>140603093</v>
       </c>
       <c r="E3" t="n">
-        <v>154775839</v>
+        <v>155810201</v>
       </c>
       <c r="F3" t="n">
-        <v>65447.66208046566</v>
+        <v>63444.40778703196</v>
       </c>
       <c r="G3" t="n">
-        <v>175852.8415856975</v>
+        <v>197324.3314984859</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>52449012</v>
+        <v>53833988</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>545887162</v>
+        <v>547935871</v>
       </c>
       <c r="E4" t="n">
-        <v>682823707</v>
+        <v>685386336</v>
       </c>
       <c r="F4" t="n">
-        <v>105025.7586069847</v>
+        <v>99751.95664522135</v>
       </c>
       <c r="G4" t="n">
-        <v>123500.5889068609</v>
+        <v>151456.8394858536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>98988487</v>
+        <v>99071057</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137184536</v>
+        <v>137384260</v>
       </c>
       <c r="E5" t="n">
-        <v>137184536</v>
+        <v>137384260</v>
       </c>
       <c r="F5" t="n">
-        <v>63457.04018951406</v>
+        <v>58017.06764586797</v>
       </c>
       <c r="G5" t="n">
-        <v>95588.75044547448</v>
+        <v>111190.0556018521</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>95089041</v>
+        <v>91530774</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>248750864</v>
+        <v>249445220</v>
       </c>
       <c r="E6" t="n">
-        <v>248750864</v>
+        <v>249445220</v>
       </c>
       <c r="F6" t="n">
-        <v>49005.14090790247</v>
+        <v>49275.79367344423</v>
       </c>
       <c r="G6" t="n">
-        <v>88319.76377781287</v>
+        <v>110981.2451912585</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>26106991</v>
+        <v>26358728</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97080205</v>
+        <v>96651768</v>
       </c>
       <c r="E7" t="n">
-        <v>121047636</v>
+        <v>120513425</v>
       </c>
       <c r="F7" t="n">
-        <v>11162.34264398459</v>
+        <v>20543.70126465965</v>
       </c>
       <c r="G7" t="n">
-        <v>37003.33924096938</v>
+        <v>43538.82559930059</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>12677018</v>
+        <v>12634112</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>85574927</v>
+        <v>88429982</v>
       </c>
       <c r="E8" t="n">
-        <v>178416849</v>
+        <v>184369411</v>
       </c>
       <c r="F8" t="n">
-        <v>41804.65557983163</v>
+        <v>49062.13974411238</v>
       </c>
       <c r="G8" t="n">
-        <v>46073.0741921089</v>
+        <v>53832.27076810012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I8" t="n">
-        <v>72585645</v>
+        <v>76923518</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>137682050</v>
+        <v>138480080</v>
       </c>
       <c r="E9" t="n">
-        <v>137739707</v>
+        <v>138538071</v>
       </c>
       <c r="F9" t="n">
-        <v>9000.263995821193</v>
+        <v>7051.704432141782</v>
       </c>
       <c r="G9" t="n">
-        <v>16697.62091072286</v>
+        <v>18438.8522801872</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="n">
-        <v>3455641</v>
+        <v>3469939</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>645177399</v>
+        <v>646379420</v>
       </c>
       <c r="E10" t="n">
-        <v>645177399</v>
+        <v>646379420</v>
       </c>
       <c r="F10" t="n">
-        <v>293740.5822631372</v>
+        <v>324390.2149454246</v>
       </c>
       <c r="G10" t="n">
-        <v>429092.5067760231</v>
+        <v>468926.2011822377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>555731157</v>
+        <v>554380141</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75259253</v>
+        <v>74820017</v>
       </c>
       <c r="E11" t="n">
-        <v>86350407</v>
+        <v>85846439</v>
       </c>
       <c r="F11" t="n">
-        <v>11531.2684346926</v>
+        <v>1870.674364508136</v>
       </c>
       <c r="G11" t="n">
-        <v>13157.08884950262</v>
+        <v>6467.409303546995</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
       <c r="I11" t="n">
-        <v>1690508</v>
+        <v>1718315</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>256790031</v>
+        <v>258845526</v>
       </c>
       <c r="E12" t="n">
-        <v>1108448327</v>
+        <v>1117320987</v>
       </c>
       <c r="F12" t="n">
-        <v>248891.4261438571</v>
+        <v>355239.4066980233</v>
       </c>
       <c r="G12" t="n">
-        <v>331321.053740272</v>
+        <v>347083.0092543711</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142798242</v>
+        <v>142340389</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112043312</v>
+        <v>112416808</v>
       </c>
       <c r="E13" t="n">
-        <v>112043312</v>
+        <v>112416808</v>
       </c>
       <c r="F13" t="n">
-        <v>6031.321193347315</v>
+        <v>5471.018752324107</v>
       </c>
       <c r="G13" t="n">
-        <v>4157.618946583234</v>
+        <v>3954.536287670256</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>7087617</v>
+        <v>7030076</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16113022</v>
+        <v>15987214</v>
       </c>
       <c r="E14" t="n">
-        <v>40282555</v>
+        <v>39968034</v>
       </c>
       <c r="F14" t="n">
-        <v>7600.573648908122</v>
+        <v>16842.70541127396</v>
       </c>
       <c r="G14" t="n">
-        <v>16551.92607282666</v>
+        <v>17935.80669456755</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>5058204</v>
+        <v>4976343</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12593043</v>
+        <v>12747973</v>
       </c>
       <c r="E15" t="n">
-        <v>18517832</v>
+        <v>18745654</v>
       </c>
       <c r="F15" t="n">
-        <v>2257.852232283929</v>
+        <v>2266.99555070296</v>
       </c>
       <c r="G15" t="n">
-        <v>3811.291046443312</v>
+        <v>3976.445163873637</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I15" t="n">
-        <v>6768355</v>
+        <v>6903410</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29896493</v>
+        <v>29854149</v>
       </c>
       <c r="E16" t="n">
-        <v>93088087</v>
+        <v>92956241</v>
       </c>
       <c r="F16" t="n">
-        <v>9514.016448597062</v>
+        <v>13063.87169489698</v>
       </c>
       <c r="G16" t="n">
-        <v>21680.3321136452</v>
+        <v>21876.5044096597</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>10612145</v>
+        <v>10657547</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>319916989</v>
+        <v>320815926</v>
       </c>
       <c r="E17" t="n">
-        <v>2878171606</v>
+        <v>2886259004</v>
       </c>
       <c r="F17" t="n">
-        <v>6294.867241015438</v>
+        <v>6791.082415368083</v>
       </c>
       <c r="G17" t="n">
-        <v>6884.374332457947</v>
+        <v>5953.261696016611</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>69409276</v>
+        <v>70471195</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15233374</v>
+        <v>15342250</v>
       </c>
       <c r="E18" t="n">
-        <v>93370356</v>
+        <v>94037695</v>
       </c>
       <c r="F18" t="n">
-        <v>14301.95568026806</v>
+        <v>16818.01038905051</v>
       </c>
       <c r="G18" t="n">
-        <v>15087.46744839343</v>
+        <v>23692.27535941524</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>11723286</v>
+        <v>12065803</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49457407</v>
+        <v>50016195</v>
       </c>
       <c r="E19" t="n">
-        <v>213057102</v>
+        <v>215464298</v>
       </c>
       <c r="F19" t="n">
-        <v>42734.90241430532</v>
+        <v>55924.64785166436</v>
       </c>
       <c r="G19" t="n">
-        <v>80686.13149620968</v>
+        <v>65557.9098820635</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>13061864</v>
+        <v>13254174</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>288745612</v>
+        <v>288975234</v>
       </c>
       <c r="E20" t="n">
-        <v>288745612</v>
+        <v>288975234</v>
       </c>
       <c r="F20" t="n">
-        <v>52649.81162355886</v>
+        <v>84162.48797954837</v>
       </c>
       <c r="G20" t="n">
-        <v>104201.9902033173</v>
+        <v>121751.5003385555</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>93526917</v>
+        <v>93207997</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29095571</v>
+        <v>29541215</v>
       </c>
       <c r="E21" t="n">
-        <v>130272809</v>
+        <v>132268138</v>
       </c>
       <c r="F21" t="n">
-        <v>29114.36890128626</v>
+        <v>33939.49603417633</v>
       </c>
       <c r="G21" t="n">
-        <v>66902.79985131371</v>
+        <v>74690.4085501193</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>14903311</v>
+        <v>15105350</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47853183</v>
+        <v>48070543</v>
       </c>
       <c r="E22" t="n">
-        <v>310315155</v>
+        <v>311724679</v>
       </c>
       <c r="F22" t="n">
-        <v>11276.27110076971</v>
+        <v>14505.90704240569</v>
       </c>
       <c r="G22" t="n">
-        <v>90220.76394543062</v>
+        <v>93802.98150485755</v>
       </c>
       <c r="H22" t="n">
         <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>21804025</v>
+        <v>21980443</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124193291</v>
+        <v>124295108</v>
       </c>
       <c r="E23" t="n">
-        <v>2056742609</v>
+        <v>2058428786</v>
       </c>
       <c r="F23" t="n">
-        <v>54781.3159322521</v>
+        <v>67718.64396786256</v>
       </c>
       <c r="G23" t="n">
-        <v>55935.58803902227</v>
+        <v>71677.87720436933</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>36441258</v>
+        <v>36636786</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6269856</v>
+        <v>6307976</v>
       </c>
       <c r="E24" t="n">
-        <v>32256505</v>
+        <v>32452619</v>
       </c>
       <c r="F24" t="n">
-        <v>1225.809764103676</v>
+        <v>3460.793265478314</v>
       </c>
       <c r="G24" t="n">
-        <v>2500.110827899721</v>
+        <v>1875.378576566113</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I24" t="n">
-        <v>958958</v>
+        <v>966645</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22504302</v>
+        <v>22307433</v>
       </c>
       <c r="E25" t="n">
-        <v>22504659</v>
+        <v>22307433</v>
       </c>
       <c r="F25" t="n">
-        <v>19769.50452747621</v>
+        <v>5299.67082597684</v>
       </c>
       <c r="G25" t="n">
-        <v>11454.91567210235</v>
+        <v>12975.2390903485</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2376208</v>
+        <v>2376407</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>287244642</v>
+        <v>283786320</v>
       </c>
       <c r="E27" t="n">
-        <v>531468093</v>
+        <v>525069408</v>
       </c>
       <c r="F27" t="n">
-        <v>72678.81906406417</v>
+        <v>7718.52670453016</v>
       </c>
       <c r="G27" t="n">
-        <v>69918.11590254388</v>
+        <v>11390.07903987208</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>18443189</v>
+        <v>21340279</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43172889</v>
+        <v>43347726</v>
       </c>
       <c r="E28" t="n">
-        <v>43172889</v>
+        <v>43347726</v>
       </c>
       <c r="F28" t="n">
-        <v>21035.73592603692</v>
+        <v>22253.34996938283</v>
       </c>
       <c r="G28" t="n">
-        <v>36946.60336424308</v>
+        <v>43147.67397811454</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>12018184</v>
+        <v>11705168</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>576699124</v>
+        <v>580535570</v>
       </c>
       <c r="E29" t="n">
-        <v>2233470619</v>
+        <v>2248328611</v>
       </c>
       <c r="F29" t="n">
-        <v>48689.33792142502</v>
+        <v>48572.44334520751</v>
       </c>
       <c r="G29" t="n">
-        <v>143890.2686340388</v>
+        <v>161589.6194754156</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>61877511</v>
+        <v>62243154</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120738446</v>
+        <v>120304361</v>
       </c>
       <c r="E30" t="n">
-        <v>463172113</v>
+        <v>461506893</v>
       </c>
       <c r="F30" t="n">
-        <v>140914.0027790859</v>
+        <v>143616.7011870859</v>
       </c>
       <c r="G30" t="n">
-        <v>180578.0207140154</v>
+        <v>184166.7000344022</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>36256335</v>
+        <v>33432384</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36923925</v>
+        <v>38145990</v>
       </c>
       <c r="F31" t="n">
-        <v>9082.577065121783</v>
+        <v>23776.90764047547</v>
       </c>
       <c r="G31" t="n">
-        <v>11596.34218945584</v>
+        <v>35585.83436575845</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>8150044</v>
+        <v>8455256</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89941019</v>
+        <v>90769822</v>
       </c>
       <c r="E32" t="n">
-        <v>332457235</v>
+        <v>335519826</v>
       </c>
       <c r="F32" t="n">
-        <v>382.1051707771319</v>
+        <v>1702.920866819081</v>
       </c>
       <c r="G32" t="n">
-        <v>9180.234896715669</v>
+        <v>9377.527204052329</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>253564</v>
+        <v>310104</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>466922941</v>
+        <v>467647849</v>
       </c>
       <c r="E33" t="n">
-        <v>1625319897</v>
+        <v>1627843243</v>
       </c>
       <c r="F33" t="n">
-        <v>224022.4899374782</v>
+        <v>101679.0083960126</v>
       </c>
       <c r="G33" t="n">
-        <v>272840.7741439949</v>
+        <v>155064.6309881489</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>47598588</v>
+        <v>47837382</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>105875395</v>
+        <v>106085777</v>
       </c>
       <c r="E34" t="n">
-        <v>160413457</v>
+        <v>160732209</v>
       </c>
       <c r="F34" t="n">
-        <v>55353.94564386539</v>
+        <v>55824.25036780541</v>
       </c>
       <c r="G34" t="n">
-        <v>76731.03381275124</v>
+        <v>66812.43598797762</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9742656</v>
+        <v>9768720</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2317915</v>
+        <v>2316938</v>
       </c>
       <c r="E35" t="n">
-        <v>9271662</v>
+        <v>9267752</v>
       </c>
       <c r="F35" t="n">
-        <v>90512.99388476486</v>
+        <v>56681.32570223918</v>
       </c>
       <c r="G35" t="n">
-        <v>54781.94911851593</v>
+        <v>85396.96896373999</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7728803</v>
+        <v>7696617</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210542961</v>
+        <v>210515112</v>
       </c>
       <c r="E36" t="n">
-        <v>647340374</v>
+        <v>647254746</v>
       </c>
       <c r="F36" t="n">
-        <v>187572.50410656</v>
+        <v>196007.2050070169</v>
       </c>
       <c r="G36" t="n">
-        <v>209092.7130795889</v>
+        <v>223528.3921024092</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>22946816</v>
+        <v>22967739</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>135108154</v>
+        <v>136167918</v>
       </c>
       <c r="E37" t="n">
-        <v>352966304</v>
+        <v>355734907</v>
       </c>
       <c r="F37" t="n">
-        <v>38468.13271100826</v>
+        <v>48634.94571368717</v>
       </c>
       <c r="G37" t="n">
-        <v>34526.33642145986</v>
+        <v>38013.03003012152</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8357525</v>
+        <v>8343293</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>379640613</v>
+        <v>381056939</v>
       </c>
       <c r="E38" t="n">
-        <v>2169374930</v>
+        <v>2177468224</v>
       </c>
       <c r="F38" t="n">
-        <v>33167.8039188101</v>
+        <v>43193.03038467433</v>
       </c>
       <c r="G38" t="n">
-        <v>82376.39167942019</v>
+        <v>84465.04550092987</v>
       </c>
       <c r="H38" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>62664107</v>
+        <v>63674338</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252650612</v>
+        <v>251860400</v>
       </c>
       <c r="E2" t="n">
-        <v>1584336475</v>
+        <v>1579381169</v>
       </c>
       <c r="F2" t="n">
-        <v>116827.859992996</v>
+        <v>117925.2618041707</v>
       </c>
       <c r="G2" t="n">
-        <v>134831.7545378465</v>
+        <v>134778.203394207</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>27886958</v>
+        <v>28061798</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140603093</v>
+        <v>140348099</v>
       </c>
       <c r="E3" t="n">
-        <v>155810201</v>
+        <v>155527627</v>
       </c>
       <c r="F3" t="n">
-        <v>63444.40778703196</v>
+        <v>66950.65483446485</v>
       </c>
       <c r="G3" t="n">
-        <v>197324.3314984859</v>
+        <v>192495.3470496267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>53833988</v>
+        <v>53653984</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>547935871</v>
+        <v>548346361</v>
       </c>
       <c r="E4" t="n">
-        <v>685386336</v>
+        <v>685899799</v>
       </c>
       <c r="F4" t="n">
-        <v>99751.95664522135</v>
+        <v>108504.8016222957</v>
       </c>
       <c r="G4" t="n">
-        <v>151456.8394858536</v>
+        <v>145625.4010891971</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>99071057</v>
+        <v>98998746</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137384260</v>
+        <v>137376440</v>
       </c>
       <c r="E5" t="n">
-        <v>137384260</v>
+        <v>137376440</v>
       </c>
       <c r="F5" t="n">
-        <v>58017.06764586797</v>
+        <v>76643.05134927791</v>
       </c>
       <c r="G5" t="n">
-        <v>111190.0556018521</v>
+        <v>95693.92503151893</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>91530774</v>
+        <v>94902897</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>249445220</v>
+        <v>248874276</v>
       </c>
       <c r="E6" t="n">
-        <v>249445220</v>
+        <v>248874276</v>
       </c>
       <c r="F6" t="n">
-        <v>49275.79367344423</v>
+        <v>55864.90803098997</v>
       </c>
       <c r="G6" t="n">
-        <v>110981.2451912585</v>
+        <v>95189.1274868046</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>26358728</v>
+        <v>26299854</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96651768</v>
+        <v>96582962</v>
       </c>
       <c r="E7" t="n">
-        <v>120513425</v>
+        <v>120427631</v>
       </c>
       <c r="F7" t="n">
-        <v>20543.70126465965</v>
+        <v>19353.94210159622</v>
       </c>
       <c r="G7" t="n">
-        <v>43538.82559930059</v>
+        <v>43811.43132562655</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>12634112</v>
+        <v>12631029</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>88429982</v>
+        <v>87596151</v>
       </c>
       <c r="E8" t="n">
-        <v>184369411</v>
+        <v>182630939</v>
       </c>
       <c r="F8" t="n">
-        <v>49062.13974411238</v>
+        <v>53510.25212413063</v>
       </c>
       <c r="G8" t="n">
-        <v>53832.27076810012</v>
+        <v>55735.31288738924</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>76923518</v>
+        <v>77276421</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138480080</v>
+        <v>138620845</v>
       </c>
       <c r="E9" t="n">
-        <v>138538071</v>
+        <v>138679508</v>
       </c>
       <c r="F9" t="n">
-        <v>7051.704432141782</v>
+        <v>9164.2644576191</v>
       </c>
       <c r="G9" t="n">
-        <v>18438.8522801872</v>
+        <v>17398.88278726315</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3469939</v>
+        <v>3467306</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>646379420</v>
+        <v>645747743</v>
       </c>
       <c r="E10" t="n">
-        <v>646379420</v>
+        <v>645747743</v>
       </c>
       <c r="F10" t="n">
-        <v>324390.2149454246</v>
+        <v>325288.1052817873</v>
       </c>
       <c r="G10" t="n">
-        <v>468926.2011822377</v>
+        <v>540190.9112033403</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>554380141</v>
+        <v>554278328</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74820017</v>
+        <v>74493690</v>
       </c>
       <c r="E11" t="n">
-        <v>85846439</v>
+        <v>85472021</v>
       </c>
       <c r="F11" t="n">
-        <v>1870.674364508136</v>
+        <v>1333.966281652748</v>
       </c>
       <c r="G11" t="n">
-        <v>6467.409303546995</v>
+        <v>2307.995874719606</v>
       </c>
       <c r="H11" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="I11" t="n">
-        <v>1718315</v>
+        <v>1706915</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>258845526</v>
+        <v>259390851</v>
       </c>
       <c r="E12" t="n">
-        <v>1117320987</v>
+        <v>1119674913</v>
       </c>
       <c r="F12" t="n">
-        <v>355239.4066980233</v>
+        <v>363452.8358315224</v>
       </c>
       <c r="G12" t="n">
-        <v>347083.0092543711</v>
+        <v>371178.4780135108</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142340389</v>
+        <v>142180052</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112416808</v>
+        <v>112306408</v>
       </c>
       <c r="E13" t="n">
-        <v>112416808</v>
+        <v>112306408</v>
       </c>
       <c r="F13" t="n">
-        <v>5471.018752324107</v>
+        <v>5847.39183879943</v>
       </c>
       <c r="G13" t="n">
-        <v>3954.536287670256</v>
+        <v>4158.847364924996</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I13" t="n">
-        <v>7030076</v>
+        <v>7006594</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15987214</v>
+        <v>16039471</v>
       </c>
       <c r="E14" t="n">
-        <v>39968034</v>
+        <v>40098676</v>
       </c>
       <c r="F14" t="n">
-        <v>16842.70541127396</v>
+        <v>17971.15320856818</v>
       </c>
       <c r="G14" t="n">
-        <v>17935.80669456755</v>
+        <v>25301.17459302277</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>4976343</v>
+        <v>5094533</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12747973</v>
+        <v>12719059</v>
       </c>
       <c r="E15" t="n">
-        <v>18745654</v>
+        <v>18703136</v>
       </c>
       <c r="F15" t="n">
-        <v>2266.99555070296</v>
+        <v>1714.951299103136</v>
       </c>
       <c r="G15" t="n">
-        <v>3976.445163873637</v>
+        <v>15586.56917730738</v>
       </c>
       <c r="H15" t="n">
-        <v>0.48</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>6903410</v>
+        <v>6893935</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29854149</v>
+        <v>30012325</v>
       </c>
       <c r="E16" t="n">
-        <v>92956241</v>
+        <v>93448749</v>
       </c>
       <c r="F16" t="n">
-        <v>13063.87169489698</v>
+        <v>18587.80934461035</v>
       </c>
       <c r="G16" t="n">
-        <v>21876.5044096597</v>
+        <v>29531.84603363607</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>10657547</v>
+        <v>10661674</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>320815926</v>
+        <v>320975726</v>
       </c>
       <c r="E17" t="n">
-        <v>2886259004</v>
+        <v>2887696659</v>
       </c>
       <c r="F17" t="n">
-        <v>6791.082415368083</v>
+        <v>6545.201316372474</v>
       </c>
       <c r="G17" t="n">
-        <v>5953.261696016611</v>
+        <v>7029.555486224922</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>70471195</v>
+        <v>70399579</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15342250</v>
+        <v>15367269</v>
       </c>
       <c r="E18" t="n">
-        <v>94037695</v>
+        <v>94191045</v>
       </c>
       <c r="F18" t="n">
-        <v>16818.01038905051</v>
+        <v>15477.2335771895</v>
       </c>
       <c r="G18" t="n">
-        <v>23692.27535941524</v>
+        <v>21382.09954377441</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>12065803</v>
+        <v>12263447</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50016195</v>
+        <v>50096615</v>
       </c>
       <c r="E19" t="n">
-        <v>215464298</v>
+        <v>215810739</v>
       </c>
       <c r="F19" t="n">
-        <v>55924.64785166436</v>
+        <v>34621.89886562393</v>
       </c>
       <c r="G19" t="n">
-        <v>65557.9098820635</v>
+        <v>86088.23752438158</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>13254174</v>
+        <v>13204848</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>288975234</v>
+        <v>289766216</v>
       </c>
       <c r="E20" t="n">
-        <v>288975234</v>
+        <v>289766216</v>
       </c>
       <c r="F20" t="n">
-        <v>84162.48797954837</v>
+        <v>82451.79974051459</v>
       </c>
       <c r="G20" t="n">
-        <v>121751.5003385555</v>
+        <v>120650.3151681143</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>93207997</v>
+        <v>93242852</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29541215</v>
+        <v>29666459</v>
       </c>
       <c r="E21" t="n">
-        <v>132268138</v>
+        <v>132828905</v>
       </c>
       <c r="F21" t="n">
-        <v>33939.49603417633</v>
+        <v>35520.37073204479</v>
       </c>
       <c r="G21" t="n">
-        <v>74690.4085501193</v>
+        <v>72388.1279509669</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>15105350</v>
+        <v>15251398</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48070543</v>
+        <v>48106564</v>
       </c>
       <c r="E22" t="n">
-        <v>311724679</v>
+        <v>311958263</v>
       </c>
       <c r="F22" t="n">
-        <v>14505.90704240569</v>
+        <v>13090.84293142549</v>
       </c>
       <c r="G22" t="n">
-        <v>93802.98150485755</v>
+        <v>92493.2091585247</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21980443</v>
+        <v>21973823</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124295108</v>
+        <v>124549695</v>
       </c>
       <c r="E23" t="n">
-        <v>2058428786</v>
+        <v>2062644956</v>
       </c>
       <c r="F23" t="n">
-        <v>67718.64396786256</v>
+        <v>64101.32428128139</v>
       </c>
       <c r="G23" t="n">
-        <v>71677.87720436933</v>
+        <v>60281.06691508946</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>36636786</v>
+        <v>36898760</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6307976</v>
+        <v>6304376</v>
       </c>
       <c r="E24" t="n">
-        <v>32452619</v>
+        <v>32434097</v>
       </c>
       <c r="F24" t="n">
-        <v>3460.793265478314</v>
+        <v>3237.635132179516</v>
       </c>
       <c r="G24" t="n">
-        <v>1875.378576566113</v>
+        <v>1840.099232683493</v>
       </c>
       <c r="H24" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>966645</v>
+        <v>968262</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22307433</v>
+        <v>22380574</v>
       </c>
       <c r="E25" t="n">
-        <v>22307433</v>
+        <v>22380574</v>
       </c>
       <c r="F25" t="n">
-        <v>5299.67082597684</v>
+        <v>16953.64777203187</v>
       </c>
       <c r="G25" t="n">
-        <v>12975.2390903485</v>
+        <v>8553.392606064013</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>2376407</v>
+        <v>2386766</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>283786320</v>
+        <v>284251449</v>
       </c>
       <c r="E27" t="n">
-        <v>525069408</v>
+        <v>525930003</v>
       </c>
       <c r="F27" t="n">
-        <v>7718.52670453016</v>
+        <v>8629.814240067431</v>
       </c>
       <c r="G27" t="n">
-        <v>11390.07903987208</v>
+        <v>13963.19066363577</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>21340279</v>
+        <v>21483437</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43347726</v>
+        <v>43347722</v>
       </c>
       <c r="E28" t="n">
-        <v>43347726</v>
+        <v>43347722</v>
       </c>
       <c r="F28" t="n">
-        <v>22253.34996938283</v>
+        <v>23218.77942886353</v>
       </c>
       <c r="G28" t="n">
-        <v>43147.67397811454</v>
+        <v>44536.22538101143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>11705168</v>
+        <v>9309444</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>580535570</v>
+        <v>579548419</v>
       </c>
       <c r="E29" t="n">
-        <v>2248328611</v>
+        <v>2244505520</v>
       </c>
       <c r="F29" t="n">
-        <v>48572.44334520751</v>
+        <v>53814.15013349777</v>
       </c>
       <c r="G29" t="n">
-        <v>161589.6194754156</v>
+        <v>163605.6853748107</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>62243154</v>
+        <v>62111563</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120304361</v>
+        <v>120427356</v>
       </c>
       <c r="E30" t="n">
-        <v>461506893</v>
+        <v>461978721</v>
       </c>
       <c r="F30" t="n">
-        <v>143616.7011870859</v>
+        <v>140073.1784062976</v>
       </c>
       <c r="G30" t="n">
-        <v>184166.7000344022</v>
+        <v>181311.9257162799</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>33432384</v>
+        <v>32899889</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>38145990</v>
+        <v>38216179</v>
       </c>
       <c r="F31" t="n">
-        <v>23776.90764047547</v>
+        <v>21633.00272792827</v>
       </c>
       <c r="G31" t="n">
-        <v>35585.83436575845</v>
+        <v>20213.77907836809</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>8455256</v>
+        <v>8453221</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>90769822</v>
+        <v>90686086</v>
       </c>
       <c r="E32" t="n">
-        <v>335519826</v>
+        <v>335210175</v>
       </c>
       <c r="F32" t="n">
-        <v>1702.920866819081</v>
+        <v>1603.072365884949</v>
       </c>
       <c r="G32" t="n">
-        <v>9377.527204052329</v>
+        <v>9170.14480770015</v>
       </c>
       <c r="H32" t="n">
         <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>310104</v>
+        <v>312164</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>467647849</v>
+        <v>467004996</v>
       </c>
       <c r="E33" t="n">
-        <v>1627843243</v>
+        <v>1625605524</v>
       </c>
       <c r="F33" t="n">
-        <v>101679.0083960126</v>
+        <v>95373.2100704553</v>
       </c>
       <c r="G33" t="n">
-        <v>155064.6309881489</v>
+        <v>154219.3469955858</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>47837382</v>
+        <v>48118628</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106085777</v>
+        <v>106498232</v>
       </c>
       <c r="E34" t="n">
-        <v>160732209</v>
+        <v>161357126</v>
       </c>
       <c r="F34" t="n">
-        <v>55824.25036780541</v>
+        <v>53127.26095002476</v>
       </c>
       <c r="G34" t="n">
-        <v>66812.43598797762</v>
+        <v>70389.76120758353</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I34" t="n">
-        <v>9768720</v>
+        <v>9762645</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2316938</v>
+        <v>2319509</v>
       </c>
       <c r="E35" t="n">
-        <v>9267752</v>
+        <v>9278038</v>
       </c>
       <c r="F35" t="n">
-        <v>56681.32570223918</v>
+        <v>56681.40224599655</v>
       </c>
       <c r="G35" t="n">
-        <v>85396.96896373999</v>
+        <v>54861.60587520267</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7696617</v>
+        <v>7692965</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210515112</v>
+        <v>209973577</v>
       </c>
       <c r="E36" t="n">
-        <v>647254746</v>
+        <v>645589733</v>
       </c>
       <c r="F36" t="n">
-        <v>196007.2050070169</v>
+        <v>166182.7946927381</v>
       </c>
       <c r="G36" t="n">
-        <v>223528.3921024092</v>
+        <v>208954.2152356658</v>
       </c>
       <c r="H36" t="n">
         <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>22967739</v>
+        <v>23023029</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>136167918</v>
+        <v>136393399</v>
       </c>
       <c r="E37" t="n">
-        <v>355734907</v>
+        <v>356323971</v>
       </c>
       <c r="F37" t="n">
-        <v>48634.94571368717</v>
+        <v>43899.62851170522</v>
       </c>
       <c r="G37" t="n">
-        <v>38013.03003012152</v>
+        <v>35516.92371350327</v>
       </c>
       <c r="H37" t="n">
         <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8343293</v>
+        <v>8335447</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>381056939</v>
+        <v>382043358</v>
       </c>
       <c r="E38" t="n">
-        <v>2177468224</v>
+        <v>2183104901</v>
       </c>
       <c r="F38" t="n">
-        <v>43193.03038467433</v>
+        <v>36007.89594778581</v>
       </c>
       <c r="G38" t="n">
-        <v>84465.04550092987</v>
+        <v>87271.84847532897</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>63674338</v>
+        <v>63308170</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>251860400</v>
+        <v>252862088</v>
       </c>
       <c r="E2" t="n">
-        <v>1579381169</v>
+        <v>1585662611</v>
       </c>
       <c r="F2" t="n">
-        <v>117925.2618041707</v>
+        <v>104918.4182252504</v>
       </c>
       <c r="G2" t="n">
-        <v>134778.203394207</v>
+        <v>131629.2916884838</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>28061798</v>
+        <v>29177271</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140348099</v>
+        <v>141839204</v>
       </c>
       <c r="E3" t="n">
-        <v>155527627</v>
+        <v>157180005</v>
       </c>
       <c r="F3" t="n">
-        <v>66950.65483446485</v>
+        <v>62226.21147591739</v>
       </c>
       <c r="G3" t="n">
-        <v>192495.3470496267</v>
+        <v>197906.1038488412</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>53653984</v>
+        <v>53604867</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>548346361</v>
+        <v>556531911</v>
       </c>
       <c r="E4" t="n">
-        <v>685899799</v>
+        <v>696138705</v>
       </c>
       <c r="F4" t="n">
-        <v>108504.8016222957</v>
+        <v>100946.1520252066</v>
       </c>
       <c r="G4" t="n">
-        <v>145625.4010891971</v>
+        <v>147944.2016472426</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>98998746</v>
+        <v>101648045</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137376440</v>
+        <v>139959305</v>
       </c>
       <c r="E5" t="n">
-        <v>137376440</v>
+        <v>139959305</v>
       </c>
       <c r="F5" t="n">
-        <v>76643.05134927791</v>
+        <v>62422.84227897183</v>
       </c>
       <c r="G5" t="n">
-        <v>95693.92503151893</v>
+        <v>115946.3967432614</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>94902897</v>
+        <v>96976709</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>248874276</v>
+        <v>252036398</v>
       </c>
       <c r="E6" t="n">
-        <v>248874276</v>
+        <v>252036398</v>
       </c>
       <c r="F6" t="n">
-        <v>55864.90803098997</v>
+        <v>45517.29900617155</v>
       </c>
       <c r="G6" t="n">
-        <v>95189.1274868046</v>
+        <v>112901.8100662027</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>26299854</v>
+        <v>26840677</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96582962</v>
+        <v>96451457</v>
       </c>
       <c r="E7" t="n">
-        <v>120427631</v>
+        <v>120263661</v>
       </c>
       <c r="F7" t="n">
-        <v>19353.94210159622</v>
+        <v>20500.7297097384</v>
       </c>
       <c r="G7" t="n">
-        <v>43811.43132562655</v>
+        <v>40656.84239080334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>12631029</v>
+        <v>13180881</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87596151</v>
+        <v>84738827</v>
       </c>
       <c r="E8" t="n">
-        <v>182630939</v>
+        <v>176673648</v>
       </c>
       <c r="F8" t="n">
-        <v>53510.25212413063</v>
+        <v>50565.53045520317</v>
       </c>
       <c r="G8" t="n">
-        <v>55735.31288738924</v>
+        <v>57176.78823773784</v>
       </c>
       <c r="H8" t="n">
         <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>77276421</v>
+        <v>81307122</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138620845</v>
+        <v>138496324</v>
       </c>
       <c r="E9" t="n">
-        <v>138679508</v>
+        <v>138556746</v>
       </c>
       <c r="F9" t="n">
-        <v>9164.2644576191</v>
+        <v>7985.815673194161</v>
       </c>
       <c r="G9" t="n">
-        <v>17398.88278726315</v>
+        <v>15393.55926846671</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>3467306</v>
+        <v>3394998</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>645747743</v>
+        <v>646228260</v>
       </c>
       <c r="E10" t="n">
-        <v>645747743</v>
+        <v>646228260</v>
       </c>
       <c r="F10" t="n">
-        <v>325288.1052817873</v>
+        <v>354206.5380033744</v>
       </c>
       <c r="G10" t="n">
-        <v>540190.9112033403</v>
+        <v>519427.6395016384</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>554278328</v>
+        <v>555595190</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74493690</v>
+        <v>73488206</v>
       </c>
       <c r="E11" t="n">
-        <v>85472021</v>
+        <v>84318356</v>
       </c>
       <c r="F11" t="n">
-        <v>1333.966281652748</v>
+        <v>1576.408397688132</v>
       </c>
       <c r="G11" t="n">
-        <v>2307.995874719606</v>
+        <v>6661.287982011195</v>
       </c>
       <c r="H11" t="n">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="I11" t="n">
-        <v>1706915</v>
+        <v>1762264</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>259390851</v>
+        <v>261438364</v>
       </c>
       <c r="E12" t="n">
-        <v>1119674913</v>
+        <v>1128513116</v>
       </c>
       <c r="F12" t="n">
-        <v>363452.8358315224</v>
+        <v>307296.008613628</v>
       </c>
       <c r="G12" t="n">
-        <v>371178.4780135108</v>
+        <v>374023.0500722638</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142180052</v>
+        <v>142563270</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112306408</v>
+        <v>113703698</v>
       </c>
       <c r="E13" t="n">
-        <v>112306408</v>
+        <v>113703698</v>
       </c>
       <c r="F13" t="n">
-        <v>5847.39183879943</v>
+        <v>5572.505990758626</v>
       </c>
       <c r="G13" t="n">
-        <v>4158.847364924996</v>
+        <v>3060.122880452357</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>7006594</v>
+        <v>7234399</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16039471</v>
+        <v>15728379</v>
       </c>
       <c r="E14" t="n">
-        <v>40098676</v>
+        <v>39320947</v>
       </c>
       <c r="F14" t="n">
-        <v>17971.15320856818</v>
+        <v>15051.09662252786</v>
       </c>
       <c r="G14" t="n">
-        <v>25301.17459302277</v>
+        <v>23164.63960516044</v>
       </c>
       <c r="H14" t="n">
         <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>5094533</v>
+        <v>5204051</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12719059</v>
+        <v>12796348</v>
       </c>
       <c r="E15" t="n">
-        <v>18703136</v>
+        <v>18816788</v>
       </c>
       <c r="F15" t="n">
-        <v>1714.951299103136</v>
+        <v>4759.723999879659</v>
       </c>
       <c r="G15" t="n">
-        <v>15586.56917730738</v>
+        <v>13812.83083175537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>6893935</v>
+        <v>6808970</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30012325</v>
+        <v>29282799</v>
       </c>
       <c r="E16" t="n">
-        <v>93448749</v>
+        <v>91177239</v>
       </c>
       <c r="F16" t="n">
-        <v>18587.80934461035</v>
+        <v>13340.3631585515</v>
       </c>
       <c r="G16" t="n">
-        <v>29531.84603363607</v>
+        <v>17820.61398570182</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>10661674</v>
+        <v>11026951</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>320975726</v>
+        <v>323262107</v>
       </c>
       <c r="E17" t="n">
-        <v>2887696659</v>
+        <v>2908266366</v>
       </c>
       <c r="F17" t="n">
-        <v>6545.201316372474</v>
+        <v>6791.404573293874</v>
       </c>
       <c r="G17" t="n">
-        <v>7029.555486224922</v>
+        <v>6774.800529965666</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>70399579</v>
+        <v>71067562</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15367269</v>
+        <v>15896111</v>
       </c>
       <c r="E18" t="n">
-        <v>94191045</v>
+        <v>97432492</v>
       </c>
       <c r="F18" t="n">
-        <v>15477.2335771895</v>
+        <v>26502.84695439821</v>
       </c>
       <c r="G18" t="n">
-        <v>21382.09954377441</v>
+        <v>32896.33508073843</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>12263447</v>
+        <v>12428507</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50096615</v>
+        <v>49753064</v>
       </c>
       <c r="E19" t="n">
-        <v>215810739</v>
+        <v>214330760</v>
       </c>
       <c r="F19" t="n">
-        <v>34621.89886562393</v>
+        <v>56994.8156518426</v>
       </c>
       <c r="G19" t="n">
-        <v>86088.23752438158</v>
+        <v>64137.64313574419</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>13204848</v>
+        <v>13651565</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>289766216</v>
+        <v>306339739</v>
       </c>
       <c r="E20" t="n">
-        <v>289766216</v>
+        <v>306339739</v>
       </c>
       <c r="F20" t="n">
-        <v>82451.79974051459</v>
+        <v>92128.20343984581</v>
       </c>
       <c r="G20" t="n">
-        <v>120650.3151681143</v>
+        <v>118949.2381979896</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>93242852</v>
+        <v>110798901</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29666459</v>
+        <v>30235032</v>
       </c>
       <c r="E21" t="n">
-        <v>132828905</v>
+        <v>135374642</v>
       </c>
       <c r="F21" t="n">
-        <v>35520.37073204479</v>
+        <v>34904.22469781774</v>
       </c>
       <c r="G21" t="n">
-        <v>72388.1279509669</v>
+        <v>76322.64824788074</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>15251398</v>
+        <v>16343396</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48106564</v>
+        <v>48138021</v>
       </c>
       <c r="E22" t="n">
-        <v>311958263</v>
+        <v>312162257</v>
       </c>
       <c r="F22" t="n">
-        <v>13090.84293142549</v>
+        <v>14726.27566719393</v>
       </c>
       <c r="G22" t="n">
-        <v>92493.2091585247</v>
+        <v>92622.45069005295</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21973823</v>
+        <v>22045011</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124549695</v>
+        <v>123719972</v>
       </c>
       <c r="E23" t="n">
-        <v>2062644956</v>
+        <v>2048904069</v>
       </c>
       <c r="F23" t="n">
-        <v>64101.32428128139</v>
+        <v>92735.05336416686</v>
       </c>
       <c r="G23" t="n">
-        <v>60281.06691508946</v>
+        <v>76255.14331199763</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>36898760</v>
+        <v>41553852</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6304376</v>
+        <v>6221233</v>
       </c>
       <c r="E24" t="n">
-        <v>32434097</v>
+        <v>32006354</v>
       </c>
       <c r="F24" t="n">
-        <v>3237.635132179516</v>
+        <v>6096.161976468477</v>
       </c>
       <c r="G24" t="n">
-        <v>1840.099232683493</v>
+        <v>3322.53776030944</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
-        <v>968262</v>
+        <v>969961</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22380574</v>
+        <v>22725137</v>
       </c>
       <c r="E25" t="n">
-        <v>22380574</v>
+        <v>22725137</v>
       </c>
       <c r="F25" t="n">
-        <v>16953.64777203187</v>
+        <v>18659.09899503985</v>
       </c>
       <c r="G25" t="n">
-        <v>8553.392606064013</v>
+        <v>9844.893310430889</v>
       </c>
       <c r="H25" t="n">
         <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>2386766</v>
+        <v>2257334</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>284251449</v>
+        <v>285799410</v>
       </c>
       <c r="E27" t="n">
-        <v>525930003</v>
+        <v>528794083</v>
       </c>
       <c r="F27" t="n">
-        <v>8629.814240067431</v>
+        <v>10295.36766442536</v>
       </c>
       <c r="G27" t="n">
-        <v>13963.19066363577</v>
+        <v>18499.08528556125</v>
       </c>
       <c r="H27" t="n">
         <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>21483437</v>
+        <v>23213651</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43347722</v>
+        <v>43981946</v>
       </c>
       <c r="E28" t="n">
-        <v>43347722</v>
+        <v>43981946</v>
       </c>
       <c r="F28" t="n">
-        <v>23218.77942886353</v>
+        <v>26801.04064102769</v>
       </c>
       <c r="G28" t="n">
-        <v>44536.22538101143</v>
+        <v>45361.55483016423</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>9309444</v>
+        <v>12504862</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>579548419</v>
+        <v>584101254</v>
       </c>
       <c r="E29" t="n">
-        <v>2244505520</v>
+        <v>2262137977</v>
       </c>
       <c r="F29" t="n">
-        <v>53814.15013349777</v>
+        <v>48658.24586572243</v>
       </c>
       <c r="G29" t="n">
-        <v>163605.6853748107</v>
+        <v>161071.1636074831</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>62111563</v>
+        <v>62815697</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120427356</v>
+        <v>123374684</v>
       </c>
       <c r="E30" t="n">
-        <v>461978721</v>
+        <v>473285147</v>
       </c>
       <c r="F30" t="n">
-        <v>140073.1784062976</v>
+        <v>143839.8170505764</v>
       </c>
       <c r="G30" t="n">
-        <v>181311.9257162799</v>
+        <v>188230.4594180607</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>32899889</v>
+        <v>32446068</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>38216179</v>
+        <v>41249325</v>
       </c>
       <c r="F31" t="n">
-        <v>21633.00272792827</v>
+        <v>17793.68433652019</v>
       </c>
       <c r="G31" t="n">
-        <v>20213.77907836809</v>
+        <v>27048.96053092602</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>8453221</v>
+        <v>9910526</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>90686086</v>
+        <v>91029225</v>
       </c>
       <c r="E32" t="n">
-        <v>335210175</v>
+        <v>336475057</v>
       </c>
       <c r="F32" t="n">
-        <v>1603.072365884949</v>
+        <v>9810.143151361082</v>
       </c>
       <c r="G32" t="n">
-        <v>9170.14480770015</v>
+        <v>8538.011797867857</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>312164</v>
+        <v>330079</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>467004996</v>
+        <v>467958039</v>
       </c>
       <c r="E33" t="n">
-        <v>1625605524</v>
+        <v>1628097412</v>
       </c>
       <c r="F33" t="n">
-        <v>95373.2100704553</v>
+        <v>105644.6287404837</v>
       </c>
       <c r="G33" t="n">
-        <v>154219.3469955858</v>
+        <v>154141.176516497</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>48118628</v>
+        <v>49253905</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106498232</v>
+        <v>109092126</v>
       </c>
       <c r="E34" t="n">
-        <v>161357126</v>
+        <v>165287176</v>
       </c>
       <c r="F34" t="n">
-        <v>53127.26095002476</v>
+        <v>53530.8432285006</v>
       </c>
       <c r="G34" t="n">
-        <v>70389.76120758353</v>
+        <v>58946.17264381373</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>9762645</v>
+        <v>10003653</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2319509</v>
+        <v>2294525</v>
       </c>
       <c r="E35" t="n">
-        <v>9278038</v>
+        <v>9178098</v>
       </c>
       <c r="F35" t="n">
-        <v>56681.40224599655</v>
+        <v>64446.68442846611</v>
       </c>
       <c r="G35" t="n">
-        <v>54861.60587520267</v>
+        <v>63558.32903031213</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7692965</v>
+        <v>7878788</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>209973577</v>
+        <v>210271157</v>
       </c>
       <c r="E36" t="n">
-        <v>645589733</v>
+        <v>646504678</v>
       </c>
       <c r="F36" t="n">
-        <v>166182.7946927381</v>
+        <v>193601.3551067535</v>
       </c>
       <c r="G36" t="n">
-        <v>208954.2152356658</v>
+        <v>235115.8197086468</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>23023029</v>
+        <v>23247392</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>136393399</v>
+        <v>139858407</v>
       </c>
       <c r="E37" t="n">
-        <v>356323971</v>
+        <v>365376207</v>
       </c>
       <c r="F37" t="n">
-        <v>43899.62851170522</v>
+        <v>44085.46098319586</v>
       </c>
       <c r="G37" t="n">
-        <v>35516.92371350327</v>
+        <v>35949.42725526825</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>8335447</v>
+        <v>8850978</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>382043358</v>
+        <v>381038146</v>
       </c>
       <c r="E38" t="n">
-        <v>2183104901</v>
+        <v>2177360834</v>
       </c>
       <c r="F38" t="n">
-        <v>36007.89594778581</v>
+        <v>43364.88869419846</v>
       </c>
       <c r="G38" t="n">
-        <v>87271.84847532897</v>
+        <v>89069.16108387944</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>63308170</v>
+        <v>63509684</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252862088</v>
+        <v>250268935</v>
       </c>
       <c r="E2" t="n">
-        <v>1585662611</v>
+        <v>1569401313</v>
       </c>
       <c r="F2" t="n">
-        <v>104918.4182252504</v>
+        <v>140746.9515595452</v>
       </c>
       <c r="G2" t="n">
-        <v>131629.2916884838</v>
+        <v>215225.1218335209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>29177271</v>
+        <v>29631132</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141839204</v>
+        <v>139850430</v>
       </c>
       <c r="E3" t="n">
-        <v>157180005</v>
+        <v>154976132</v>
       </c>
       <c r="F3" t="n">
-        <v>62226.21147591739</v>
+        <v>73239.62125810652</v>
       </c>
       <c r="G3" t="n">
-        <v>197906.1038488412</v>
+        <v>182285.4969419789</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>53604867</v>
+        <v>53420483</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>556531911</v>
+        <v>549661821</v>
       </c>
       <c r="E4" t="n">
-        <v>696138705</v>
+        <v>687545243</v>
       </c>
       <c r="F4" t="n">
-        <v>100946.1520252066</v>
+        <v>121677.3598043473</v>
       </c>
       <c r="G4" t="n">
-        <v>147944.2016472426</v>
+        <v>128643.274908733</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>101648045</v>
+        <v>100616081</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139959305</v>
+        <v>139171269</v>
       </c>
       <c r="E5" t="n">
-        <v>139959305</v>
+        <v>139171269</v>
       </c>
       <c r="F5" t="n">
-        <v>62422.84227897183</v>
+        <v>83912.09026013529</v>
       </c>
       <c r="G5" t="n">
-        <v>115946.3967432614</v>
+        <v>95290.74860121644</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>96976709</v>
+        <v>96863839</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>252036398</v>
+        <v>249493984</v>
       </c>
       <c r="E6" t="n">
-        <v>252036398</v>
+        <v>249493984</v>
       </c>
       <c r="F6" t="n">
-        <v>45517.29900617155</v>
+        <v>61265.13191241444</v>
       </c>
       <c r="G6" t="n">
-        <v>112901.8100662027</v>
+        <v>89912.98499198075</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>26840677</v>
+        <v>27103070</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96451457</v>
+        <v>96416725</v>
       </c>
       <c r="E7" t="n">
-        <v>120263661</v>
+        <v>120220354</v>
       </c>
       <c r="F7" t="n">
-        <v>20500.7297097384</v>
+        <v>16107.6782109738</v>
       </c>
       <c r="G7" t="n">
-        <v>40656.84239080334</v>
+        <v>39400.99479553027</v>
       </c>
       <c r="H7" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>13180881</v>
+        <v>13168230</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84738827</v>
+        <v>84772261</v>
       </c>
       <c r="E8" t="n">
-        <v>176673648</v>
+        <v>176743356</v>
       </c>
       <c r="F8" t="n">
-        <v>50565.53045520317</v>
+        <v>48291.88112508371</v>
       </c>
       <c r="G8" t="n">
-        <v>57176.78823773784</v>
+        <v>51230.67203157947</v>
       </c>
       <c r="H8" t="n">
         <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>81307122</v>
+        <v>83356105</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138496324</v>
+        <v>138546126</v>
       </c>
       <c r="E9" t="n">
-        <v>138556746</v>
+        <v>138607136</v>
       </c>
       <c r="F9" t="n">
-        <v>7985.815673194161</v>
+        <v>10353.12006725767</v>
       </c>
       <c r="G9" t="n">
-        <v>15393.55926846671</v>
+        <v>12164.83231409814</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>3394998</v>
+        <v>3241059</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>646228260</v>
+        <v>636169475</v>
       </c>
       <c r="E10" t="n">
-        <v>646228260</v>
+        <v>636169475</v>
       </c>
       <c r="F10" t="n">
-        <v>354206.5380033744</v>
+        <v>356817.4454953562</v>
       </c>
       <c r="G10" t="n">
-        <v>519427.6395016384</v>
+        <v>524445.1215705196</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>555595190</v>
+        <v>553810082</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Energi Ecosystem</t>
+          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Energi Ecosystem, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73488206</v>
+        <v>73393050</v>
       </c>
       <c r="E11" t="n">
-        <v>84318356</v>
+        <v>84209176</v>
       </c>
       <c r="F11" t="n">
-        <v>1576.408397688132</v>
+        <v>3630.541766702853</v>
       </c>
       <c r="G11" t="n">
-        <v>6661.287982011195</v>
+        <v>4310.23905363933</v>
       </c>
       <c r="H11" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="I11" t="n">
-        <v>1762264</v>
+        <v>1607415</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>261438364</v>
+        <v>259741801</v>
       </c>
       <c r="E12" t="n">
-        <v>1128513116</v>
+        <v>1121189808</v>
       </c>
       <c r="F12" t="n">
-        <v>307296.008613628</v>
+        <v>327764.0097691288</v>
       </c>
       <c r="G12" t="n">
-        <v>374023.0500722638</v>
+        <v>362298.4148543185</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142563270</v>
+        <v>142498618</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113703698</v>
+        <v>118738853</v>
       </c>
       <c r="E13" t="n">
-        <v>113703698</v>
+        <v>118738853</v>
       </c>
       <c r="F13" t="n">
-        <v>5572.505990758626</v>
+        <v>2435.789223278378</v>
       </c>
       <c r="G13" t="n">
-        <v>3060.122880452357</v>
+        <v>3798.84361126726</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I13" t="n">
-        <v>7234399</v>
+        <v>7973593</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15728379</v>
+        <v>15859181</v>
       </c>
       <c r="E14" t="n">
-        <v>39320947</v>
+        <v>39647953</v>
       </c>
       <c r="F14" t="n">
-        <v>15051.09662252786</v>
+        <v>13517.12997266668</v>
       </c>
       <c r="G14" t="n">
-        <v>23164.63960516044</v>
+        <v>23188.83459148693</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>5204051</v>
+        <v>5249689</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12796348</v>
+        <v>12903697</v>
       </c>
       <c r="E15" t="n">
-        <v>18816788</v>
+        <v>18974643</v>
       </c>
       <c r="F15" t="n">
-        <v>4759.723999879659</v>
+        <v>4427.402491644512</v>
       </c>
       <c r="G15" t="n">
-        <v>13812.83083175537</v>
+        <v>10524.66512421208</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6808970</v>
+        <v>6945236</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29282799</v>
+        <v>29117328</v>
       </c>
       <c r="E16" t="n">
-        <v>91177239</v>
+        <v>90662018</v>
       </c>
       <c r="F16" t="n">
-        <v>13340.3631585515</v>
+        <v>11146.20647062793</v>
       </c>
       <c r="G16" t="n">
-        <v>17820.61398570182</v>
+        <v>20459.60625425045</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>11026951</v>
+        <v>11080975</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>323262107</v>
+        <v>321268870</v>
       </c>
       <c r="E17" t="n">
-        <v>2908266366</v>
+        <v>2890333966</v>
       </c>
       <c r="F17" t="n">
-        <v>6791.404573293874</v>
+        <v>6534.191567444064</v>
       </c>
       <c r="G17" t="n">
-        <v>6774.800529965666</v>
+        <v>7039.970216085525</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>71067562</v>
+        <v>70426907</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15896111</v>
+        <v>15812550</v>
       </c>
       <c r="E18" t="n">
-        <v>97432492</v>
+        <v>96920318</v>
       </c>
       <c r="F18" t="n">
-        <v>26502.84695439821</v>
+        <v>34496.98843172545</v>
       </c>
       <c r="G18" t="n">
-        <v>32896.33508073843</v>
+        <v>39220.03582234168</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>12428507</v>
+        <v>9762778</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49753064</v>
+        <v>48789420</v>
       </c>
       <c r="E19" t="n">
-        <v>214330760</v>
+        <v>210179486</v>
       </c>
       <c r="F19" t="n">
-        <v>56994.8156518426</v>
+        <v>57152.23934424305</v>
       </c>
       <c r="G19" t="n">
-        <v>64137.64313574419</v>
+        <v>87546.03769900033</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>13651565</v>
+        <v>13706579</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>306339739</v>
+        <v>301235858</v>
       </c>
       <c r="E20" t="n">
-        <v>306339739</v>
+        <v>301235858</v>
       </c>
       <c r="F20" t="n">
-        <v>92128.20343984581</v>
+        <v>88331.40016755706</v>
       </c>
       <c r="G20" t="n">
-        <v>118949.2381979896</v>
+        <v>109133.8967365362</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>110798901</v>
+        <v>112498620</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30235032</v>
+        <v>30885220</v>
       </c>
       <c r="E21" t="n">
-        <v>135374642</v>
+        <v>138285798</v>
       </c>
       <c r="F21" t="n">
-        <v>34904.22469781774</v>
+        <v>33908.47152510217</v>
       </c>
       <c r="G21" t="n">
-        <v>76322.64824788074</v>
+        <v>79775.63072845098</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>16343396</v>
+        <v>16928184</v>
       </c>
     </row>
     <row r="22">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48138021</v>
+        <v>47746854</v>
       </c>
       <c r="E22" t="n">
-        <v>312162257</v>
+        <v>309625641</v>
       </c>
       <c r="F22" t="n">
-        <v>14726.27566719393</v>
+        <v>10781.76097095931</v>
       </c>
       <c r="G22" t="n">
-        <v>92622.45069005295</v>
+        <v>90285.63963670978</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>22045011</v>
+        <v>21950028</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123719972</v>
+        <v>123454354</v>
       </c>
       <c r="E23" t="n">
-        <v>2048904069</v>
+        <v>2044505213</v>
       </c>
       <c r="F23" t="n">
-        <v>92735.05336416686</v>
+        <v>365488.9658175873</v>
       </c>
       <c r="G23" t="n">
-        <v>76255.14331199763</v>
+        <v>331052.6525523253</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>41553852</v>
+        <v>43321127</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6221233</v>
+        <v>6123034</v>
       </c>
       <c r="E24" t="n">
-        <v>32006354</v>
+        <v>31501147</v>
       </c>
       <c r="F24" t="n">
-        <v>6096.161976468477</v>
+        <v>2349.119034545727</v>
       </c>
       <c r="G24" t="n">
-        <v>3322.53776030944</v>
+        <v>3084.728537942754</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="I24" t="n">
-        <v>969961</v>
+        <v>950826</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22725137</v>
+        <v>22483524</v>
       </c>
       <c r="E25" t="n">
-        <v>22725137</v>
+        <v>22483524</v>
       </c>
       <c r="F25" t="n">
-        <v>18659.09899503985</v>
+        <v>19641.59720487798</v>
       </c>
       <c r="G25" t="n">
-        <v>9844.893310430889</v>
+        <v>12975.61663556423</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2257334</v>
+        <v>2233126</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>285799410</v>
+        <v>287906559</v>
       </c>
       <c r="E27" t="n">
-        <v>528794083</v>
+        <v>532692790</v>
       </c>
       <c r="F27" t="n">
-        <v>10295.36766442536</v>
+        <v>71121.999784007</v>
       </c>
       <c r="G27" t="n">
-        <v>18499.08528556125</v>
+        <v>79056.53198480625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>23213651</v>
+        <v>23970407</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43981946</v>
+        <v>43764102</v>
       </c>
       <c r="E28" t="n">
-        <v>43981946</v>
+        <v>43764102</v>
       </c>
       <c r="F28" t="n">
-        <v>26801.04064102769</v>
+        <v>28235.37470540543</v>
       </c>
       <c r="G28" t="n">
-        <v>45361.55483016423</v>
+        <v>42095.5777086997</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>12504862</v>
+        <v>12858658</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>584101254</v>
+        <v>579273998</v>
       </c>
       <c r="E29" t="n">
-        <v>2262137977</v>
+        <v>2243442729</v>
       </c>
       <c r="F29" t="n">
-        <v>48658.24586572243</v>
+        <v>58088.40012285331</v>
       </c>
       <c r="G29" t="n">
-        <v>161071.1636074831</v>
+        <v>271044.9633955439</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>62815697</v>
+        <v>62467124</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>123374684</v>
+        <v>121417464</v>
       </c>
       <c r="E30" t="n">
-        <v>473285147</v>
+        <v>465776933</v>
       </c>
       <c r="F30" t="n">
-        <v>143839.8170505764</v>
+        <v>131527.998818865</v>
       </c>
       <c r="G30" t="n">
-        <v>188230.4594180607</v>
+        <v>187086.1779853091</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>32446068</v>
+        <v>32291126</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41249325</v>
+        <v>41037066</v>
       </c>
       <c r="F31" t="n">
-        <v>17793.68433652019</v>
+        <v>8894.589540895846</v>
       </c>
       <c r="G31" t="n">
-        <v>27048.96053092602</v>
+        <v>24455.48784582101</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I31" t="n">
-        <v>9910526</v>
+        <v>10043304</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>91029225</v>
+        <v>91543999</v>
       </c>
       <c r="E32" t="n">
-        <v>336475057</v>
+        <v>338376526</v>
       </c>
       <c r="F32" t="n">
-        <v>9810.143151361082</v>
+        <v>1159.855756650001</v>
       </c>
       <c r="G32" t="n">
-        <v>8538.011797867857</v>
+        <v>568.8279923014337</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>330079</v>
+        <v>328404</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>467958039</v>
+        <v>465913553</v>
       </c>
       <c r="E33" t="n">
-        <v>1628097412</v>
+        <v>1620984332</v>
       </c>
       <c r="F33" t="n">
-        <v>105644.6287404837</v>
+        <v>233422.1509742622</v>
       </c>
       <c r="G33" t="n">
-        <v>154141.176516497</v>
+        <v>279984.2118908312</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>49253905</v>
+        <v>49802813</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>109092126</v>
+        <v>108307925</v>
       </c>
       <c r="E34" t="n">
-        <v>165287176</v>
+        <v>164099021</v>
       </c>
       <c r="F34" t="n">
-        <v>53530.8432285006</v>
+        <v>53983.6148950546</v>
       </c>
       <c r="G34" t="n">
-        <v>58946.17264381373</v>
+        <v>73076.66144010662</v>
       </c>
       <c r="H34" t="n">
         <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>10003653</v>
+        <v>9989497</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2294525</v>
+        <v>2295805</v>
       </c>
       <c r="E35" t="n">
-        <v>9178098</v>
+        <v>9183221</v>
       </c>
       <c r="F35" t="n">
-        <v>64446.68442846611</v>
+        <v>34325.4861634654</v>
       </c>
       <c r="G35" t="n">
-        <v>63558.32903031213</v>
+        <v>32453.99539711171</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7878788</v>
+        <v>7960569</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210271157</v>
+        <v>208518245</v>
       </c>
       <c r="E36" t="n">
-        <v>646504678</v>
+        <v>641115133</v>
       </c>
       <c r="F36" t="n">
-        <v>193601.3551067535</v>
+        <v>198448.7859527739</v>
       </c>
       <c r="G36" t="n">
-        <v>235115.8197086468</v>
+        <v>217171.7731008947</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>23247392</v>
+        <v>23407092</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>139858407</v>
+        <v>138874753</v>
       </c>
       <c r="E37" t="n">
-        <v>365376207</v>
+        <v>362806440</v>
       </c>
       <c r="F37" t="n">
-        <v>44085.46098319586</v>
+        <v>44250.51782337655</v>
       </c>
       <c r="G37" t="n">
-        <v>35949.42725526825</v>
+        <v>34279.50358876384</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="I37" t="n">
-        <v>8850978</v>
+        <v>8772367</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>381038146</v>
+        <v>379717722</v>
       </c>
       <c r="E38" t="n">
-        <v>2177360834</v>
+        <v>2169815553</v>
       </c>
       <c r="F38" t="n">
-        <v>43364.88869419846</v>
+        <v>33150.93565417538</v>
       </c>
       <c r="G38" t="n">
-        <v>89069.16108387944</v>
+        <v>95211.98409291088</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>63509684</v>
+        <v>63787598</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>250268935</v>
+        <v>252332025</v>
       </c>
       <c r="E2" t="n">
-        <v>1569401313</v>
+        <v>1582338662</v>
       </c>
       <c r="F2" t="n">
-        <v>140746.9515595452</v>
+        <v>188999.7808651353</v>
       </c>
       <c r="G2" t="n">
-        <v>215225.1218335209</v>
+        <v>219108.6876175437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>29631132</v>
+        <v>29890381</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139850430</v>
+        <v>140312581</v>
       </c>
       <c r="E3" t="n">
-        <v>154976132</v>
+        <v>155488268</v>
       </c>
       <c r="F3" t="n">
-        <v>73239.62125810652</v>
+        <v>65021.8105626158</v>
       </c>
       <c r="G3" t="n">
-        <v>182285.4969419789</v>
+        <v>191533.5191302154</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>53420483</v>
+        <v>53105810</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>549661821</v>
+        <v>551943037</v>
       </c>
       <c r="E4" t="n">
-        <v>687545243</v>
+        <v>690398706</v>
       </c>
       <c r="F4" t="n">
-        <v>121677.3598043473</v>
+        <v>112663.121468936</v>
       </c>
       <c r="G4" t="n">
-        <v>128643.274908733</v>
+        <v>145367.4116198061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>100616081</v>
+        <v>99667119</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139171269</v>
+        <v>138890271</v>
       </c>
       <c r="E5" t="n">
-        <v>139171269</v>
+        <v>138890271</v>
       </c>
       <c r="F5" t="n">
-        <v>83912.09026013529</v>
+        <v>59431.4477965406</v>
       </c>
       <c r="G5" t="n">
-        <v>95290.74860121644</v>
+        <v>108032.5444341972</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>96863839</v>
+        <v>92363832</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>249493984</v>
+        <v>250345064</v>
       </c>
       <c r="E6" t="n">
-        <v>249493984</v>
+        <v>250345064</v>
       </c>
       <c r="F6" t="n">
-        <v>61265.13191241444</v>
+        <v>56469.60714158051</v>
       </c>
       <c r="G6" t="n">
-        <v>89912.98499198075</v>
+        <v>96916.27680676995</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>27103070</v>
+        <v>27780495</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96416725</v>
+        <v>97363715</v>
       </c>
       <c r="E7" t="n">
-        <v>120220354</v>
+        <v>121401139</v>
       </c>
       <c r="F7" t="n">
-        <v>16107.6782109738</v>
+        <v>19620.26453569852</v>
       </c>
       <c r="G7" t="n">
-        <v>39400.99479553027</v>
+        <v>47450.28636362767</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>13168230</v>
+        <v>13406752</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84772261</v>
+        <v>84507818</v>
       </c>
       <c r="E8" t="n">
-        <v>176743356</v>
+        <v>176192014</v>
       </c>
       <c r="F8" t="n">
-        <v>48291.88112508371</v>
+        <v>59804.1011273254</v>
       </c>
       <c r="G8" t="n">
-        <v>51230.67203157947</v>
+        <v>59226.90478134288</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>83356105</v>
+        <v>84486751</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138546126</v>
+        <v>138879273</v>
       </c>
       <c r="E9" t="n">
-        <v>138607136</v>
+        <v>138941012</v>
       </c>
       <c r="F9" t="n">
-        <v>10353.12006725767</v>
+        <v>7050.357700407116</v>
       </c>
       <c r="G9" t="n">
-        <v>12164.83231409814</v>
+        <v>19690.08378133568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3241059</v>
+        <v>3274408</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>636169475</v>
+        <v>638324389</v>
       </c>
       <c r="E10" t="n">
-        <v>636169475</v>
+        <v>638324389</v>
       </c>
       <c r="F10" t="n">
-        <v>356817.4454953562</v>
+        <v>352384.6477642233</v>
       </c>
       <c r="G10" t="n">
-        <v>524445.1215705196</v>
+        <v>550411.3652715177</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>553810082</v>
+        <v>557335777</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73393050</v>
+        <v>74215430</v>
       </c>
       <c r="E11" t="n">
-        <v>84209176</v>
+        <v>85152752</v>
       </c>
       <c r="F11" t="n">
-        <v>3630.541766702853</v>
+        <v>12412.93331325464</v>
       </c>
       <c r="G11" t="n">
-        <v>4310.23905363933</v>
+        <v>2165.503183546717</v>
       </c>
       <c r="H11" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1607415</v>
+        <v>1726012</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>259741801</v>
+        <v>261298437</v>
       </c>
       <c r="E12" t="n">
-        <v>1121189808</v>
+        <v>1127909112</v>
       </c>
       <c r="F12" t="n">
-        <v>327764.0097691288</v>
+        <v>293692.137286829</v>
       </c>
       <c r="G12" t="n">
-        <v>362298.4148543185</v>
+        <v>364572.8624016471</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142498618</v>
+        <v>142146289</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>118738853</v>
+        <v>117364376</v>
       </c>
       <c r="E13" t="n">
-        <v>118738853</v>
+        <v>117364376</v>
       </c>
       <c r="F13" t="n">
-        <v>2435.789223278378</v>
+        <v>4309.256938848265</v>
       </c>
       <c r="G13" t="n">
-        <v>3798.84361126726</v>
+        <v>2573.517811720343</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>7973593</v>
+        <v>9150841</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15859181</v>
+        <v>15898717</v>
       </c>
       <c r="E14" t="n">
-        <v>39647953</v>
+        <v>39746791</v>
       </c>
       <c r="F14" t="n">
-        <v>13517.12997266668</v>
+        <v>13646.748598935</v>
       </c>
       <c r="G14" t="n">
-        <v>23188.83459148693</v>
+        <v>23777.55154716893</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>5249689</v>
+        <v>5184219</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12903697</v>
+        <v>12993703</v>
       </c>
       <c r="E15" t="n">
-        <v>18974643</v>
+        <v>19106995</v>
       </c>
       <c r="F15" t="n">
-        <v>4427.402491644512</v>
+        <v>3698.074748337423</v>
       </c>
       <c r="G15" t="n">
-        <v>10524.66512421208</v>
+        <v>3266.169487073761</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>6945236</v>
+        <v>7079033</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29117328</v>
+        <v>29509176</v>
       </c>
       <c r="E16" t="n">
-        <v>90662018</v>
+        <v>91882107</v>
       </c>
       <c r="F16" t="n">
-        <v>11146.20647062793</v>
+        <v>12064.40189830232</v>
       </c>
       <c r="G16" t="n">
-        <v>20459.60625425045</v>
+        <v>17641.5116721431</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>11080975</v>
+        <v>11031273</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>321268870</v>
+        <v>323890155</v>
       </c>
       <c r="E17" t="n">
-        <v>2890333966</v>
+        <v>2913916671</v>
       </c>
       <c r="F17" t="n">
-        <v>6534.191567444064</v>
+        <v>6800.478409046503</v>
       </c>
       <c r="G17" t="n">
-        <v>7039.970216085525</v>
+        <v>6779.118455206369</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>70426907</v>
+        <v>70110784</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15812550</v>
+        <v>15909664</v>
       </c>
       <c r="E18" t="n">
-        <v>96920318</v>
+        <v>97515561</v>
       </c>
       <c r="F18" t="n">
-        <v>34496.98843172545</v>
+        <v>34359.66642842505</v>
       </c>
       <c r="G18" t="n">
-        <v>39220.03582234168</v>
+        <v>42749.83654016602</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>9762778</v>
+        <v>12780046</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48789420</v>
+        <v>48763265</v>
       </c>
       <c r="E19" t="n">
-        <v>210179486</v>
+        <v>210066816</v>
       </c>
       <c r="F19" t="n">
-        <v>57152.23934424305</v>
+        <v>57987.52891448052</v>
       </c>
       <c r="G19" t="n">
-        <v>87546.03769900033</v>
+        <v>71946.25525869215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>13706579</v>
+        <v>13678003</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>301235858</v>
+        <v>300174234</v>
       </c>
       <c r="E20" t="n">
-        <v>301235858</v>
+        <v>300174234</v>
       </c>
       <c r="F20" t="n">
-        <v>88331.40016755706</v>
+        <v>92582.88627357276</v>
       </c>
       <c r="G20" t="n">
-        <v>109133.8967365362</v>
+        <v>106311.0174368591</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>112498620</v>
+        <v>111871232</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30885220</v>
+        <v>30800375</v>
       </c>
       <c r="E21" t="n">
-        <v>138285798</v>
+        <v>137905916</v>
       </c>
       <c r="F21" t="n">
-        <v>33908.47152510217</v>
+        <v>32651.56232783863</v>
       </c>
       <c r="G21" t="n">
-        <v>79775.63072845098</v>
+        <v>72047.57197731339</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>16928184</v>
+        <v>17649519</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47746854</v>
+        <v>48011183</v>
       </c>
       <c r="E22" t="n">
-        <v>309625641</v>
+        <v>311339745</v>
       </c>
       <c r="F22" t="n">
-        <v>10781.76097095931</v>
+        <v>15882.63630224814</v>
       </c>
       <c r="G22" t="n">
-        <v>90285.63963670978</v>
+        <v>93088.90777562674</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>21950028</v>
+        <v>21976881</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123454354</v>
+        <v>123862675</v>
       </c>
       <c r="E23" t="n">
-        <v>2044505213</v>
+        <v>2051267340</v>
       </c>
       <c r="F23" t="n">
-        <v>365488.9658175873</v>
+        <v>350373.7270390044</v>
       </c>
       <c r="G23" t="n">
-        <v>331052.6525523253</v>
+        <v>354401.7646331563</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>43321127</v>
+        <v>45398284</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6123034</v>
+        <v>6152935</v>
       </c>
       <c r="E24" t="n">
-        <v>31501147</v>
+        <v>31654983</v>
       </c>
       <c r="F24" t="n">
-        <v>2349.119034545727</v>
+        <v>1809.188599230047</v>
       </c>
       <c r="G24" t="n">
-        <v>3084.728537942754</v>
+        <v>977.3053822832758</v>
       </c>
       <c r="H24" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I24" t="n">
-        <v>950826</v>
+        <v>959083</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22483524</v>
+        <v>22518038</v>
       </c>
       <c r="E25" t="n">
-        <v>22483524</v>
+        <v>22518038</v>
       </c>
       <c r="F25" t="n">
-        <v>19641.59720487798</v>
+        <v>7042.18978601689</v>
       </c>
       <c r="G25" t="n">
-        <v>12975.61663556423</v>
+        <v>13817.31436848125</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>2233126</v>
+        <v>2217491</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>287906559</v>
+        <v>294259019</v>
       </c>
       <c r="E27" t="n">
-        <v>532692790</v>
+        <v>544446290</v>
       </c>
       <c r="F27" t="n">
-        <v>71121.999784007</v>
+        <v>78447.20978055963</v>
       </c>
       <c r="G27" t="n">
-        <v>79056.53198480625</v>
+        <v>59495.68698795136</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I27" t="n">
-        <v>23970407</v>
+        <v>24892856</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43764102</v>
+        <v>43971027</v>
       </c>
       <c r="E28" t="n">
-        <v>43764102</v>
+        <v>43971027</v>
       </c>
       <c r="F28" t="n">
-        <v>28235.37470540543</v>
+        <v>26033.75889463571</v>
       </c>
       <c r="G28" t="n">
-        <v>42095.5777086997</v>
+        <v>45518.12785864188</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>12858658</v>
+        <v>13106939</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>579273998</v>
+        <v>583330456</v>
       </c>
       <c r="E29" t="n">
-        <v>2243442729</v>
+        <v>2259152793</v>
       </c>
       <c r="F29" t="n">
-        <v>58088.40012285331</v>
+        <v>42379.87520199542</v>
       </c>
       <c r="G29" t="n">
-        <v>271044.9633955439</v>
+        <v>260857.8268814074</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>62467124</v>
+        <v>62552143</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>121417464</v>
+        <v>122854498</v>
       </c>
       <c r="E30" t="n">
-        <v>465776933</v>
+        <v>471289630</v>
       </c>
       <c r="F30" t="n">
-        <v>131527.998818865</v>
+        <v>142476.4678913751</v>
       </c>
       <c r="G30" t="n">
-        <v>187086.1779853091</v>
+        <v>184341.9883567848</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>32291126</v>
+        <v>32603567</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41037066</v>
+        <v>42076022</v>
       </c>
       <c r="F31" t="n">
-        <v>8894.589540895846</v>
+        <v>27420.56435908716</v>
       </c>
       <c r="G31" t="n">
-        <v>24455.48784582101</v>
+        <v>20786.84153759302</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>10043304</v>
+        <v>10358237</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>91543999</v>
+        <v>91691891</v>
       </c>
       <c r="E32" t="n">
-        <v>338376526</v>
+        <v>338922456</v>
       </c>
       <c r="F32" t="n">
-        <v>1159.855756650001</v>
+        <v>1384.272223221879</v>
       </c>
       <c r="G32" t="n">
-        <v>568.8279923014337</v>
+        <v>479.6482990485812</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>328404</v>
+        <v>320532</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>465913553</v>
+        <v>470092372</v>
       </c>
       <c r="E33" t="n">
-        <v>1620984332</v>
+        <v>1635523081</v>
       </c>
       <c r="F33" t="n">
-        <v>233422.1509742622</v>
+        <v>234184.9348449376</v>
       </c>
       <c r="G33" t="n">
-        <v>279984.2118908312</v>
+        <v>287178.3449977165</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>49802813</v>
+        <v>50368863</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108307925</v>
+        <v>108748993</v>
       </c>
       <c r="E34" t="n">
-        <v>164099021</v>
+        <v>164767289</v>
       </c>
       <c r="F34" t="n">
-        <v>53983.6148950546</v>
+        <v>56908.14673576933</v>
       </c>
       <c r="G34" t="n">
-        <v>73076.66144010662</v>
+        <v>73187.62874902462</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>9989497</v>
+        <v>10055194</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2295805</v>
+        <v>2299303</v>
       </c>
       <c r="E35" t="n">
-        <v>9183221</v>
+        <v>9197211</v>
       </c>
       <c r="F35" t="n">
-        <v>34325.4861634654</v>
+        <v>27306.74200469709</v>
       </c>
       <c r="G35" t="n">
-        <v>32453.99539711171</v>
+        <v>74711.3603729445</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>7960569</v>
+        <v>8040649</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>208518245</v>
+        <v>210440055</v>
       </c>
       <c r="E36" t="n">
-        <v>641115133</v>
+        <v>647023977</v>
       </c>
       <c r="F36" t="n">
-        <v>198448.7859527739</v>
+        <v>181633.0309905646</v>
       </c>
       <c r="G36" t="n">
-        <v>217171.7731008947</v>
+        <v>228957.1264025087</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>23407092</v>
+        <v>23414336</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>138874753</v>
+        <v>138812270</v>
       </c>
       <c r="E37" t="n">
-        <v>362806440</v>
+        <v>362643206</v>
       </c>
       <c r="F37" t="n">
-        <v>44250.51782337655</v>
+        <v>48874.52430457479</v>
       </c>
       <c r="G37" t="n">
-        <v>34279.50358876384</v>
+        <v>37668.20651490991</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8772367</v>
+        <v>8766006</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>379717722</v>
+        <v>380193289</v>
       </c>
       <c r="E38" t="n">
-        <v>2169815553</v>
+        <v>2172533080</v>
       </c>
       <c r="F38" t="n">
-        <v>33150.93565417538</v>
+        <v>20272.880108008</v>
       </c>
       <c r="G38" t="n">
-        <v>95211.98409291088</v>
+        <v>95256.10491747299</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>63787598</v>
+        <v>64000309</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252332025</v>
+        <v>251839852</v>
       </c>
       <c r="E2" t="n">
-        <v>1582338662</v>
+        <v>1579252312</v>
       </c>
       <c r="F2" t="n">
-        <v>188999.7808651353</v>
+        <v>197090.4424504856</v>
       </c>
       <c r="G2" t="n">
-        <v>219108.6876175437</v>
+        <v>219146.0578078913</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>29890381</v>
+        <v>29918416</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140312581</v>
+        <v>140409653</v>
       </c>
       <c r="E3" t="n">
-        <v>155488268</v>
+        <v>155595839</v>
       </c>
       <c r="F3" t="n">
-        <v>65021.8105626158</v>
+        <v>64638.71444796002</v>
       </c>
       <c r="G3" t="n">
-        <v>191533.5191302154</v>
+        <v>193366.8511458171</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>53105810</v>
+        <v>52384817</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>551943037</v>
+        <v>552593850</v>
       </c>
       <c r="E4" t="n">
-        <v>690398706</v>
+        <v>691212776</v>
       </c>
       <c r="F4" t="n">
-        <v>112663.121468936</v>
+        <v>115909.8772502993</v>
       </c>
       <c r="G4" t="n">
-        <v>145367.4116198061</v>
+        <v>156813.924395941</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>99667119</v>
+        <v>97182498</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138890271</v>
+        <v>139108432</v>
       </c>
       <c r="E5" t="n">
-        <v>138890271</v>
+        <v>139108432</v>
       </c>
       <c r="F5" t="n">
-        <v>59431.4477965406</v>
+        <v>59428.0930438222</v>
       </c>
       <c r="G5" t="n">
-        <v>108032.5444341972</v>
+        <v>117833.9488169191</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>92363832</v>
+        <v>95297355</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250345064</v>
+        <v>251472220</v>
       </c>
       <c r="E6" t="n">
-        <v>250345064</v>
+        <v>251472220</v>
       </c>
       <c r="F6" t="n">
-        <v>56469.60714158051</v>
+        <v>58892.51122208132</v>
       </c>
       <c r="G6" t="n">
-        <v>96916.27680676995</v>
+        <v>99482.31722115798</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>27780495</v>
+        <v>28190204</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97363715</v>
+        <v>97491966</v>
       </c>
       <c r="E7" t="n">
-        <v>121401139</v>
+        <v>121561054</v>
       </c>
       <c r="F7" t="n">
-        <v>19620.26453569852</v>
+        <v>23125.64654645442</v>
       </c>
       <c r="G7" t="n">
-        <v>47450.28636362767</v>
+        <v>49903.31500515302</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>13406752</v>
+        <v>13465456</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84507818</v>
+        <v>85781161</v>
       </c>
       <c r="E8" t="n">
-        <v>176192014</v>
+        <v>178846831</v>
       </c>
       <c r="F8" t="n">
-        <v>59804.1011273254</v>
+        <v>50488.23321593826</v>
       </c>
       <c r="G8" t="n">
-        <v>59226.90478134288</v>
+        <v>54416.40505244871</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>84486751</v>
+        <v>84858996</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138879273</v>
+        <v>138790166</v>
       </c>
       <c r="E9" t="n">
-        <v>138941012</v>
+        <v>138851866</v>
       </c>
       <c r="F9" t="n">
-        <v>7050.357700407116</v>
+        <v>8519.523345149892</v>
       </c>
       <c r="G9" t="n">
-        <v>19690.08378133568</v>
+        <v>15567.42135708213</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>3274408</v>
+        <v>3273037</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>638324389</v>
+        <v>638358778</v>
       </c>
       <c r="E10" t="n">
-        <v>638324389</v>
+        <v>638358778</v>
       </c>
       <c r="F10" t="n">
-        <v>352384.6477642233</v>
+        <v>348125.412049375</v>
       </c>
       <c r="G10" t="n">
-        <v>550411.3652715177</v>
+        <v>531394.1529142252</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>557335777</v>
+        <v>551231217</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74215430</v>
+        <v>74270399</v>
       </c>
       <c r="E11" t="n">
-        <v>85152752</v>
+        <v>85215822</v>
       </c>
       <c r="F11" t="n">
-        <v>12412.93331325464</v>
+        <v>2789.931513897895</v>
       </c>
       <c r="G11" t="n">
-        <v>2165.503183546717</v>
+        <v>2914.001425418332</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>1726012</v>
+        <v>1577145</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>261298437</v>
+        <v>261608320</v>
       </c>
       <c r="E12" t="n">
-        <v>1127909112</v>
+        <v>1129246740</v>
       </c>
       <c r="F12" t="n">
-        <v>293692.137286829</v>
+        <v>318373.0728742607</v>
       </c>
       <c r="G12" t="n">
-        <v>364572.8624016471</v>
+        <v>356401.8982873063</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>142146289</v>
+        <v>141262497</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117364376</v>
+        <v>119791597</v>
       </c>
       <c r="E13" t="n">
-        <v>117364376</v>
+        <v>119791597</v>
       </c>
       <c r="F13" t="n">
-        <v>4309.256938848265</v>
+        <v>5104.492173353576</v>
       </c>
       <c r="G13" t="n">
-        <v>2573.517811720343</v>
+        <v>2336.768436678598</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>9150841</v>
+        <v>13206292</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15898717</v>
+        <v>15673472</v>
       </c>
       <c r="E14" t="n">
-        <v>39746791</v>
+        <v>39183680</v>
       </c>
       <c r="F14" t="n">
-        <v>13646.748598935</v>
+        <v>16843.23596155677</v>
       </c>
       <c r="G14" t="n">
-        <v>23777.55154716893</v>
+        <v>24631.34908297145</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>5184219</v>
+        <v>5271580</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12993703</v>
+        <v>12860207</v>
       </c>
       <c r="E15" t="n">
-        <v>19106995</v>
+        <v>18910692</v>
       </c>
       <c r="F15" t="n">
-        <v>3698.074748337423</v>
+        <v>3267.388136311792</v>
       </c>
       <c r="G15" t="n">
-        <v>3266.169487073761</v>
+        <v>3843.369622324631</v>
       </c>
       <c r="H15" t="n">
         <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>7079033</v>
+        <v>6943953</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29509176</v>
+        <v>29566540</v>
       </c>
       <c r="E16" t="n">
-        <v>91882107</v>
+        <v>92060719</v>
       </c>
       <c r="F16" t="n">
-        <v>12064.40189830232</v>
+        <v>11333.00154921682</v>
       </c>
       <c r="G16" t="n">
-        <v>17641.5116721431</v>
+        <v>14252.6271185357</v>
       </c>
       <c r="H16" t="n">
         <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>11031273</v>
+        <v>11043798</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>323890155</v>
+        <v>325123095</v>
       </c>
       <c r="E17" t="n">
-        <v>2913916671</v>
+        <v>2925008962</v>
       </c>
       <c r="F17" t="n">
-        <v>6800.478409046503</v>
+        <v>6800.488953519121</v>
       </c>
       <c r="G17" t="n">
-        <v>6779.118455206369</v>
+        <v>6757.699465541467</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>70110784</v>
+        <v>69801169</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15909664</v>
+        <v>15742478</v>
       </c>
       <c r="E18" t="n">
-        <v>97515561</v>
+        <v>96490823</v>
       </c>
       <c r="F18" t="n">
-        <v>34359.66642842505</v>
+        <v>32083.01257623834</v>
       </c>
       <c r="G18" t="n">
-        <v>42749.83654016602</v>
+        <v>47587.16650913677</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I18" t="n">
-        <v>12780046</v>
+        <v>12801756</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48763265</v>
+        <v>50457362</v>
       </c>
       <c r="E19" t="n">
-        <v>210066816</v>
+        <v>217364796</v>
       </c>
       <c r="F19" t="n">
-        <v>57987.52891448052</v>
+        <v>32002.41255754941</v>
       </c>
       <c r="G19" t="n">
-        <v>71946.25525869215</v>
+        <v>58589.97517101732</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>13678003</v>
+        <v>14135289</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300174234</v>
+        <v>300695292</v>
       </c>
       <c r="E20" t="n">
-        <v>300174234</v>
+        <v>300695292</v>
       </c>
       <c r="F20" t="n">
-        <v>92582.88627357276</v>
+        <v>92366.86568467069</v>
       </c>
       <c r="G20" t="n">
-        <v>106311.0174368591</v>
+        <v>116166.6939180362</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>111871232</v>
+        <v>112793459</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30800375</v>
+        <v>30996078</v>
       </c>
       <c r="E21" t="n">
-        <v>137905916</v>
+        <v>138782158</v>
       </c>
       <c r="F21" t="n">
-        <v>32651.56232783863</v>
+        <v>32247.65232241379</v>
       </c>
       <c r="G21" t="n">
-        <v>72047.57197731339</v>
+        <v>75314.20228843558</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>17649519</v>
+        <v>17754416</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48011183</v>
+        <v>47997967</v>
       </c>
       <c r="E22" t="n">
-        <v>311339745</v>
+        <v>311254043</v>
       </c>
       <c r="F22" t="n">
-        <v>15882.63630224814</v>
+        <v>12225.21325862792</v>
       </c>
       <c r="G22" t="n">
-        <v>93088.90777562674</v>
+        <v>92536.57616051973</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>21976881</v>
+        <v>20771314</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123862675</v>
+        <v>123861377</v>
       </c>
       <c r="E23" t="n">
-        <v>2051267340</v>
+        <v>2051245843</v>
       </c>
       <c r="F23" t="n">
-        <v>350373.7270390044</v>
+        <v>374285.4443283626</v>
       </c>
       <c r="G23" t="n">
-        <v>354401.7646331563</v>
+        <v>359473.9115413406</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>45398284</v>
+        <v>47274917</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6152935</v>
+        <v>6182022</v>
       </c>
       <c r="E24" t="n">
-        <v>31654983</v>
+        <v>31804625</v>
       </c>
       <c r="F24" t="n">
-        <v>1809.188599230047</v>
+        <v>5718.114453684499</v>
       </c>
       <c r="G24" t="n">
-        <v>977.3053822832758</v>
+        <v>1494.43736262791</v>
       </c>
       <c r="H24" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="I24" t="n">
-        <v>959083</v>
+        <v>960667</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22518038</v>
+        <v>22603691</v>
       </c>
       <c r="E25" t="n">
-        <v>22518038</v>
+        <v>22603691</v>
       </c>
       <c r="F25" t="n">
-        <v>7042.18978601689</v>
+        <v>5581.117149965547</v>
       </c>
       <c r="G25" t="n">
-        <v>13817.31436848125</v>
+        <v>13360.70958828037</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>2217491</v>
+        <v>2196790</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>294259019</v>
+        <v>301694261</v>
       </c>
       <c r="E27" t="n">
-        <v>544446290</v>
+        <v>558203183</v>
       </c>
       <c r="F27" t="n">
-        <v>78447.20978055963</v>
+        <v>41106.89167172009</v>
       </c>
       <c r="G27" t="n">
-        <v>59495.68698795136</v>
+        <v>80648.43682234151</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>24892856</v>
+        <v>29277973</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43971027</v>
+        <v>44112747</v>
       </c>
       <c r="E28" t="n">
-        <v>43971027</v>
+        <v>44112747</v>
       </c>
       <c r="F28" t="n">
-        <v>26033.75889463571</v>
+        <v>23924.54929164176</v>
       </c>
       <c r="G28" t="n">
-        <v>45518.12785864188</v>
+        <v>48616.14660349885</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>13106939</v>
+        <v>10782602</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>583330456</v>
+        <v>584094418</v>
       </c>
       <c r="E29" t="n">
-        <v>2259152793</v>
+        <v>2262111502</v>
       </c>
       <c r="F29" t="n">
-        <v>42379.87520199542</v>
+        <v>35884.48360015177</v>
       </c>
       <c r="G29" t="n">
-        <v>260857.8268814074</v>
+        <v>260429.176802235</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>62552143</v>
+        <v>62150500</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122854498</v>
+        <v>122972292</v>
       </c>
       <c r="E30" t="n">
-        <v>471289630</v>
+        <v>471741506</v>
       </c>
       <c r="F30" t="n">
-        <v>142476.4678913751</v>
+        <v>141033.5454998529</v>
       </c>
       <c r="G30" t="n">
-        <v>184341.9883567848</v>
+        <v>190021.4624534558</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>32603567</v>
+        <v>32362001</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42076022</v>
+        <v>42566260</v>
       </c>
       <c r="F31" t="n">
-        <v>27420.56435908716</v>
+        <v>21874.77256443891</v>
       </c>
       <c r="G31" t="n">
-        <v>20786.84153759302</v>
+        <v>11172.54688420265</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I31" t="n">
-        <v>10358237</v>
+        <v>10454710</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>91691891</v>
+        <v>91890121</v>
       </c>
       <c r="E32" t="n">
-        <v>338922456</v>
+        <v>339654129</v>
       </c>
       <c r="F32" t="n">
-        <v>1384.272223221879</v>
+        <v>1187.921188055807</v>
       </c>
       <c r="G32" t="n">
-        <v>479.6482990485812</v>
+        <v>557.2353468953908</v>
       </c>
       <c r="H32" t="n">
         <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>320532</v>
+        <v>320224</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>470092372</v>
+        <v>470852582</v>
       </c>
       <c r="E33" t="n">
-        <v>1635523081</v>
+        <v>1638167968</v>
       </c>
       <c r="F33" t="n">
-        <v>234184.9348449376</v>
+        <v>231245.8175611365</v>
       </c>
       <c r="G33" t="n">
-        <v>287178.3449977165</v>
+        <v>281242.2282496624</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>50368863</v>
+        <v>48800475</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108748993</v>
+        <v>107727067</v>
       </c>
       <c r="E34" t="n">
-        <v>164767289</v>
+        <v>163218953</v>
       </c>
       <c r="F34" t="n">
-        <v>56908.14673576933</v>
+        <v>59025.20324498657</v>
       </c>
       <c r="G34" t="n">
-        <v>73187.62874902462</v>
+        <v>116777.9015547461</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I34" t="n">
-        <v>10055194</v>
+        <v>10052931</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2299303</v>
+        <v>2290164</v>
       </c>
       <c r="E35" t="n">
-        <v>9197211</v>
+        <v>9160656</v>
       </c>
       <c r="F35" t="n">
-        <v>27306.74200469709</v>
+        <v>45370.58605006384</v>
       </c>
       <c r="G35" t="n">
-        <v>74711.3603729445</v>
+        <v>82900.09701322726</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>8040649</v>
+        <v>8105301</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210440055</v>
+        <v>210788867</v>
       </c>
       <c r="E36" t="n">
-        <v>647023977</v>
+        <v>648096441</v>
       </c>
       <c r="F36" t="n">
-        <v>181633.0309905646</v>
+        <v>193102.2604674191</v>
       </c>
       <c r="G36" t="n">
-        <v>228957.1264025087</v>
+        <v>224547.7885872593</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>23414336</v>
+        <v>23151957</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>138812270</v>
+        <v>138799325</v>
       </c>
       <c r="E37" t="n">
-        <v>362643206</v>
+        <v>362609386</v>
       </c>
       <c r="F37" t="n">
-        <v>48874.52430457479</v>
+        <v>51394.13137949153</v>
       </c>
       <c r="G37" t="n">
-        <v>37668.20651490991</v>
+        <v>37707.18328283492</v>
       </c>
       <c r="H37" t="n">
         <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8766006</v>
+        <v>8421068</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>380193289</v>
+        <v>379167022</v>
       </c>
       <c r="E38" t="n">
-        <v>2172533080</v>
+        <v>2166668698</v>
       </c>
       <c r="F38" t="n">
-        <v>20272.880108008</v>
+        <v>23546.78092588835</v>
       </c>
       <c r="G38" t="n">
-        <v>95256.10491747299</v>
+        <v>105530.188833298</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>64000309</v>
+        <v>64589196</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>251839852</v>
+        <v>251878335</v>
       </c>
       <c r="E2" t="n">
-        <v>1579252312</v>
+        <v>1579493637</v>
       </c>
       <c r="F2" t="n">
-        <v>197090.4424504856</v>
+        <v>195391.5016641087</v>
       </c>
       <c r="G2" t="n">
-        <v>219146.0578078913</v>
+        <v>207425.2005397111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>29918416</v>
+        <v>29685888</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140409653</v>
+        <v>140501995</v>
       </c>
       <c r="E3" t="n">
-        <v>155595839</v>
+        <v>155698168</v>
       </c>
       <c r="F3" t="n">
-        <v>64638.71444796002</v>
+        <v>65088.2023149672</v>
       </c>
       <c r="G3" t="n">
-        <v>193366.8511458171</v>
+        <v>194177.9501583724</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>52384817</v>
+        <v>52287289</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>552593850</v>
+        <v>550972775</v>
       </c>
       <c r="E4" t="n">
-        <v>691212776</v>
+        <v>689185053</v>
       </c>
       <c r="F4" t="n">
-        <v>115909.8772502993</v>
+        <v>119515.6190375769</v>
       </c>
       <c r="G4" t="n">
-        <v>156813.924395941</v>
+        <v>144882.8430798317</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>97182498</v>
+        <v>97662808</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139108432</v>
+        <v>139556921</v>
       </c>
       <c r="E5" t="n">
-        <v>139108432</v>
+        <v>139556921</v>
       </c>
       <c r="F5" t="n">
-        <v>59428.0930438222</v>
+        <v>79727.03903048935</v>
       </c>
       <c r="G5" t="n">
-        <v>117833.9488169191</v>
+        <v>96843.38811698182</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>95297355</v>
+        <v>94536635</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>251472220</v>
+        <v>250532007</v>
       </c>
       <c r="E6" t="n">
-        <v>251472220</v>
+        <v>250532007</v>
       </c>
       <c r="F6" t="n">
-        <v>58892.51122208132</v>
+        <v>59161.56607877142</v>
       </c>
       <c r="G6" t="n">
-        <v>99482.31722115798</v>
+        <v>97972.47876373332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>28190204</v>
+        <v>28593158</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97491966</v>
+        <v>97752361</v>
       </c>
       <c r="E7" t="n">
-        <v>121561054</v>
+        <v>121885735</v>
       </c>
       <c r="F7" t="n">
-        <v>23125.64654645442</v>
+        <v>23379.4424675984</v>
       </c>
       <c r="G7" t="n">
-        <v>49903.31500515302</v>
+        <v>44869.13075818217</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>13465456</v>
+        <v>13402179</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>85781161</v>
+        <v>84643667</v>
       </c>
       <c r="E8" t="n">
-        <v>178846831</v>
+        <v>176475247</v>
       </c>
       <c r="F8" t="n">
-        <v>50488.23321593826</v>
+        <v>48669.6099133914</v>
       </c>
       <c r="G8" t="n">
-        <v>54416.40505244871</v>
+        <v>55234.73535488953</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
-        <v>84858996</v>
+        <v>85831745</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138790166</v>
+        <v>138912680</v>
       </c>
       <c r="E9" t="n">
-        <v>138851866</v>
+        <v>138975640</v>
       </c>
       <c r="F9" t="n">
-        <v>8519.523345149892</v>
+        <v>9272.679516338847</v>
       </c>
       <c r="G9" t="n">
-        <v>15567.42135708213</v>
+        <v>15598.23735749412</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>3273037</v>
+        <v>3228901</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>638358778</v>
+        <v>635668302</v>
       </c>
       <c r="E10" t="n">
-        <v>638358778</v>
+        <v>635668302</v>
       </c>
       <c r="F10" t="n">
-        <v>348125.412049375</v>
+        <v>350923.5772524098</v>
       </c>
       <c r="G10" t="n">
-        <v>531394.1529142252</v>
+        <v>511686.871173986</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>551231217</v>
+        <v>551122288</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74270399</v>
+        <v>73474639</v>
       </c>
       <c r="E11" t="n">
-        <v>85215822</v>
+        <v>84302789</v>
       </c>
       <c r="F11" t="n">
-        <v>2789.931513897895</v>
+        <v>1940.073587830667</v>
       </c>
       <c r="G11" t="n">
-        <v>2914.001425418332</v>
+        <v>5187.000500032167</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1577145</v>
+        <v>1739094</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>261608320</v>
+        <v>262523514</v>
       </c>
       <c r="E12" t="n">
-        <v>1129246740</v>
+        <v>1133197222</v>
       </c>
       <c r="F12" t="n">
-        <v>318373.0728742607</v>
+        <v>274484.2811310037</v>
       </c>
       <c r="G12" t="n">
-        <v>356401.8982873063</v>
+        <v>359946.776015434</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>141262497</v>
+        <v>141775369</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>119791597</v>
+        <v>119277890</v>
       </c>
       <c r="E13" t="n">
-        <v>119791597</v>
+        <v>119277890</v>
       </c>
       <c r="F13" t="n">
-        <v>5104.492173353576</v>
+        <v>292.2888811892101</v>
       </c>
       <c r="G13" t="n">
-        <v>2336.768436678598</v>
+        <v>4714.133946567395</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>13206292</v>
+        <v>9756105</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15673472</v>
+        <v>15732649</v>
       </c>
       <c r="E14" t="n">
-        <v>39183680</v>
+        <v>39331622</v>
       </c>
       <c r="F14" t="n">
-        <v>16843.23596155677</v>
+        <v>15085.77474769496</v>
       </c>
       <c r="G14" t="n">
-        <v>24631.34908297145</v>
+        <v>24009.44593524276</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>5271580</v>
+        <v>5223812</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12860207</v>
+        <v>12958606</v>
       </c>
       <c r="E15" t="n">
-        <v>18910692</v>
+        <v>19055386</v>
       </c>
       <c r="F15" t="n">
-        <v>3267.388136311792</v>
+        <v>3286.392232847335</v>
       </c>
       <c r="G15" t="n">
-        <v>3843.369622324631</v>
+        <v>3249.044672700797</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>6943953</v>
+        <v>6980011</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29566540</v>
+        <v>29258568</v>
       </c>
       <c r="E16" t="n">
-        <v>92060719</v>
+        <v>91101794</v>
       </c>
       <c r="F16" t="n">
-        <v>11333.00154921682</v>
+        <v>12292.47724125824</v>
       </c>
       <c r="G16" t="n">
-        <v>14252.6271185357</v>
+        <v>20026.10727101624</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>11043798</v>
+        <v>11067529</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>325123095</v>
+        <v>324136768</v>
       </c>
       <c r="E17" t="n">
-        <v>2925008962</v>
+        <v>2916135355</v>
       </c>
       <c r="F17" t="n">
-        <v>6800.488953519121</v>
+        <v>6275.890179498978</v>
       </c>
       <c r="G17" t="n">
-        <v>6757.699465541467</v>
+        <v>6773.715569108606</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>69801169</v>
+        <v>71433317</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15742478</v>
+        <v>15586738</v>
       </c>
       <c r="E18" t="n">
-        <v>96490823</v>
+        <v>95536246</v>
       </c>
       <c r="F18" t="n">
-        <v>32083.01257623834</v>
+        <v>31686.27013865357</v>
       </c>
       <c r="G18" t="n">
-        <v>47587.16650913677</v>
+        <v>45816.42100902753</v>
       </c>
       <c r="H18" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>12801756</v>
+        <v>12999243</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50457362</v>
+        <v>51609602</v>
       </c>
       <c r="E19" t="n">
-        <v>217364796</v>
+        <v>222328523</v>
       </c>
       <c r="F19" t="n">
-        <v>32002.41255754941</v>
+        <v>43366.11836727502</v>
       </c>
       <c r="G19" t="n">
-        <v>58589.97517101732</v>
+        <v>59859.24329376573</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>14135289</v>
+        <v>14327323</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300695292</v>
+        <v>299995675</v>
       </c>
       <c r="E20" t="n">
-        <v>300695292</v>
+        <v>299995675</v>
       </c>
       <c r="F20" t="n">
-        <v>92366.86568467069</v>
+        <v>93217.91921698181</v>
       </c>
       <c r="G20" t="n">
-        <v>116166.6939180362</v>
+        <v>111348.5037117768</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>112793459</v>
+        <v>103114922</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30996078</v>
+        <v>30643588</v>
       </c>
       <c r="E21" t="n">
-        <v>138782158</v>
+        <v>137203916</v>
       </c>
       <c r="F21" t="n">
-        <v>32247.65232241379</v>
+        <v>32683.00740768768</v>
       </c>
       <c r="G21" t="n">
-        <v>75314.20228843558</v>
+        <v>68167.37754536764</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>17754416</v>
+        <v>19491798</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47997967</v>
+        <v>47964213</v>
       </c>
       <c r="E22" t="n">
-        <v>311254043</v>
+        <v>311035155</v>
       </c>
       <c r="F22" t="n">
-        <v>12225.21325862792</v>
+        <v>15172.21373876634</v>
       </c>
       <c r="G22" t="n">
-        <v>92536.57616051973</v>
+        <v>90556.29388665654</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>20771314</v>
+        <v>21845816</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123861377</v>
+        <v>123617951</v>
       </c>
       <c r="E23" t="n">
-        <v>2051245843</v>
+        <v>2047214512</v>
       </c>
       <c r="F23" t="n">
-        <v>374285.4443283626</v>
+        <v>368592.1444388013</v>
       </c>
       <c r="G23" t="n">
-        <v>359473.9115413406</v>
+        <v>349480.890236575</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>47274917</v>
+        <v>53498648</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6182022</v>
+        <v>6210821</v>
       </c>
       <c r="E24" t="n">
-        <v>31804625</v>
+        <v>31952789</v>
       </c>
       <c r="F24" t="n">
-        <v>5718.114453684499</v>
+        <v>7364.166075766892</v>
       </c>
       <c r="G24" t="n">
-        <v>1494.43736262791</v>
+        <v>1915.603127782585</v>
       </c>
       <c r="H24" t="n">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>960667</v>
+        <v>982793</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22603691</v>
+        <v>22499794</v>
       </c>
       <c r="E25" t="n">
-        <v>22603691</v>
+        <v>22500147</v>
       </c>
       <c r="F25" t="n">
-        <v>5581.117149965547</v>
+        <v>5576.785465497759</v>
       </c>
       <c r="G25" t="n">
-        <v>13360.70958828037</v>
+        <v>11216.45602229814</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>2196790</v>
+        <v>2168437</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>301694261</v>
+        <v>297718226</v>
       </c>
       <c r="E27" t="n">
-        <v>558203183</v>
+        <v>550846611</v>
       </c>
       <c r="F27" t="n">
-        <v>41106.89167172009</v>
+        <v>73908.0904371478</v>
       </c>
       <c r="G27" t="n">
-        <v>80648.43682234151</v>
+        <v>77675.31421071607</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>29277973</v>
+        <v>26199970</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44112747</v>
+        <v>44155411</v>
       </c>
       <c r="E28" t="n">
-        <v>44112747</v>
+        <v>44155411</v>
       </c>
       <c r="F28" t="n">
-        <v>23924.54929164176</v>
+        <v>26800.40136601181</v>
       </c>
       <c r="G28" t="n">
-        <v>48616.14660349885</v>
+        <v>44727.21752222465</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>10782602</v>
+        <v>11868683</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>584094418</v>
+        <v>582805595</v>
       </c>
       <c r="E29" t="n">
-        <v>2262111502</v>
+        <v>2257120084</v>
       </c>
       <c r="F29" t="n">
-        <v>35884.48360015177</v>
+        <v>35919.65542261802</v>
       </c>
       <c r="G29" t="n">
-        <v>260429.176802235</v>
+        <v>250313.4262913813</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>62150500</v>
+        <v>61894330</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122972292</v>
+        <v>120930057</v>
       </c>
       <c r="E30" t="n">
-        <v>471741506</v>
+        <v>463907161</v>
       </c>
       <c r="F30" t="n">
-        <v>141033.5454998529</v>
+        <v>145159.1069890401</v>
       </c>
       <c r="G30" t="n">
-        <v>190021.4624534558</v>
+        <v>182174.6292290826</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>32362001</v>
+        <v>32459051</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42566260</v>
+        <v>41258893</v>
       </c>
       <c r="F31" t="n">
-        <v>21874.77256443891</v>
+        <v>15789.03281455691</v>
       </c>
       <c r="G31" t="n">
-        <v>11172.54688420265</v>
+        <v>19333.64817861619</v>
       </c>
       <c r="H31" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>10454710</v>
+        <v>10906449</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>91890121</v>
+        <v>92352454</v>
       </c>
       <c r="E32" t="n">
-        <v>339654129</v>
+        <v>341361989</v>
       </c>
       <c r="F32" t="n">
-        <v>1187.921188055807</v>
+        <v>1194.84199675336</v>
       </c>
       <c r="G32" t="n">
-        <v>557.2353468953908</v>
+        <v>947.1509735622636</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>320224</v>
+        <v>332954</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>470852582</v>
+        <v>465853248</v>
       </c>
       <c r="E33" t="n">
-        <v>1638167968</v>
+        <v>1620774522</v>
       </c>
       <c r="F33" t="n">
-        <v>231245.8175611365</v>
+        <v>237507.7509369555</v>
       </c>
       <c r="G33" t="n">
-        <v>281242.2282496624</v>
+        <v>277506.7636718694</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>48800475</v>
+        <v>48836651</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>107727067</v>
+        <v>107311824</v>
       </c>
       <c r="E34" t="n">
-        <v>163218953</v>
+        <v>162589812</v>
       </c>
       <c r="F34" t="n">
-        <v>59025.20324498657</v>
+        <v>60106.70518325999</v>
       </c>
       <c r="G34" t="n">
-        <v>116777.9015547461</v>
+        <v>139558.0287505068</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>10052931</v>
+        <v>9509003</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2290164</v>
+        <v>2290006</v>
       </c>
       <c r="E35" t="n">
-        <v>9160656</v>
+        <v>9160023</v>
       </c>
       <c r="F35" t="n">
-        <v>45370.58605006384</v>
+        <v>87267.24425517302</v>
       </c>
       <c r="G35" t="n">
-        <v>82900.09701322726</v>
+        <v>65056.41359181324</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>8105301</v>
+        <v>8181105</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210788867</v>
+        <v>211521903</v>
       </c>
       <c r="E36" t="n">
-        <v>648096441</v>
+        <v>650350253</v>
       </c>
       <c r="F36" t="n">
-        <v>193102.2604674191</v>
+        <v>188049.0934189861</v>
       </c>
       <c r="G36" t="n">
-        <v>224547.7885872593</v>
+        <v>214898.8898577257</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>23151957</v>
+        <v>21457099</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>138799325</v>
+        <v>138568035</v>
       </c>
       <c r="E37" t="n">
-        <v>362609386</v>
+        <v>362005148</v>
       </c>
       <c r="F37" t="n">
-        <v>51394.13137949153</v>
+        <v>42369.53969639891</v>
       </c>
       <c r="G37" t="n">
-        <v>37707.18328283492</v>
+        <v>35588.2445613849</v>
       </c>
       <c r="H37" t="n">
         <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8421068</v>
+        <v>8247761</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>379167022</v>
+        <v>378670645</v>
       </c>
       <c r="E38" t="n">
-        <v>2166668698</v>
+        <v>2163832255</v>
       </c>
       <c r="F38" t="n">
-        <v>23546.78092588835</v>
+        <v>38044.13461808193</v>
       </c>
       <c r="G38" t="n">
-        <v>105530.188833298</v>
+        <v>91753.71485278806</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I38" t="n">
-        <v>64589196</v>
+        <v>64649729</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>251878335</v>
+        <v>253881110</v>
       </c>
       <c r="E2" t="n">
-        <v>1579493637</v>
+        <v>1592052758</v>
       </c>
       <c r="F2" t="n">
-        <v>195391.5016641087</v>
+        <v>195901.6086398494</v>
       </c>
       <c r="G2" t="n">
-        <v>207425.2005397111</v>
+        <v>216603.6159586937</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>29685888</v>
+        <v>29584684</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140501995</v>
+        <v>141527640</v>
       </c>
       <c r="E3" t="n">
-        <v>155698168</v>
+        <v>156834743</v>
       </c>
       <c r="F3" t="n">
-        <v>65088.2023149672</v>
+        <v>63925.20044356881</v>
       </c>
       <c r="G3" t="n">
-        <v>194177.9501583724</v>
+        <v>190943.4276287825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>52287289</v>
+        <v>51742943</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>550972775</v>
+        <v>557773010</v>
       </c>
       <c r="E4" t="n">
-        <v>689185053</v>
+        <v>697691136</v>
       </c>
       <c r="F4" t="n">
-        <v>119515.6190375769</v>
+        <v>120708.1164237986</v>
       </c>
       <c r="G4" t="n">
-        <v>144882.8430798317</v>
+        <v>146114.364521687</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>97662808</v>
+        <v>97819874</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139556921</v>
+        <v>140332043</v>
       </c>
       <c r="E5" t="n">
-        <v>139556921</v>
+        <v>140332043</v>
       </c>
       <c r="F5" t="n">
-        <v>79727.03903048935</v>
+        <v>70883.49026058288</v>
       </c>
       <c r="G5" t="n">
-        <v>96843.38811698182</v>
+        <v>113748.3174374279</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>94536635</v>
+        <v>93544450</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250532007</v>
+        <v>251905504</v>
       </c>
       <c r="E6" t="n">
-        <v>250532007</v>
+        <v>251905504</v>
       </c>
       <c r="F6" t="n">
-        <v>59161.56607877142</v>
+        <v>55913.41862715055</v>
       </c>
       <c r="G6" t="n">
-        <v>97972.47876373332</v>
+        <v>103685.6959945828</v>
       </c>
       <c r="H6" t="n">
         <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>28593158</v>
+        <v>28617890</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97752361</v>
+        <v>97993791</v>
       </c>
       <c r="E7" t="n">
-        <v>121885735</v>
+        <v>122186770</v>
       </c>
       <c r="F7" t="n">
-        <v>23379.4424675984</v>
+        <v>18387.99432844471</v>
       </c>
       <c r="G7" t="n">
-        <v>44869.13075818217</v>
+        <v>48574.05579875303</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>13402179</v>
+        <v>13436732</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84643667</v>
+        <v>84116156</v>
       </c>
       <c r="E8" t="n">
-        <v>176475247</v>
+        <v>175375430</v>
       </c>
       <c r="F8" t="n">
-        <v>48669.6099133914</v>
+        <v>46992.79258621868</v>
       </c>
       <c r="G8" t="n">
-        <v>55234.73535488953</v>
+        <v>76525.10337807859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>85831745</v>
+        <v>85281433</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138912680</v>
+        <v>139363345</v>
       </c>
       <c r="E9" t="n">
-        <v>138975640</v>
+        <v>139426510</v>
       </c>
       <c r="F9" t="n">
-        <v>9272.679516338847</v>
+        <v>8663.871309283939</v>
       </c>
       <c r="G9" t="n">
-        <v>15598.23735749412</v>
+        <v>16806.2500526666</v>
       </c>
       <c r="H9" t="n">
         <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>3228901</v>
+        <v>3218370</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>635668302</v>
+        <v>642368753</v>
       </c>
       <c r="E10" t="n">
-        <v>635668302</v>
+        <v>642368753</v>
       </c>
       <c r="F10" t="n">
-        <v>350923.5772524098</v>
+        <v>433194.3183602787</v>
       </c>
       <c r="G10" t="n">
-        <v>511686.871173986</v>
+        <v>529940.6544658507</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>551122288</v>
+        <v>553410459</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73474639</v>
+        <v>73954782</v>
       </c>
       <c r="E11" t="n">
-        <v>84302789</v>
+        <v>84853692</v>
       </c>
       <c r="F11" t="n">
-        <v>1940.073587830667</v>
+        <v>2948.632828803226</v>
       </c>
       <c r="G11" t="n">
-        <v>5187.000500032167</v>
+        <v>16816.50484617467</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>1739094</v>
+        <v>1802509</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>262523514</v>
+        <v>263877909</v>
       </c>
       <c r="E12" t="n">
-        <v>1133197222</v>
+        <v>1139043544</v>
       </c>
       <c r="F12" t="n">
-        <v>274484.2811310037</v>
+        <v>224405.8614979564</v>
       </c>
       <c r="G12" t="n">
-        <v>359946.776015434</v>
+        <v>303703.1102030823</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>141775369</v>
+        <v>141547335</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>119277890</v>
+        <v>119335328</v>
       </c>
       <c r="E13" t="n">
-        <v>119277890</v>
+        <v>119335328</v>
       </c>
       <c r="F13" t="n">
-        <v>292.2888811892101</v>
+        <v>10501.60830334172</v>
       </c>
       <c r="G13" t="n">
-        <v>4714.133946567395</v>
+        <v>3714.588468467777</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="I13" t="n">
-        <v>9756105</v>
+        <v>10070139</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15732649</v>
+        <v>15831930</v>
       </c>
       <c r="E14" t="n">
-        <v>39331622</v>
+        <v>39579824</v>
       </c>
       <c r="F14" t="n">
-        <v>15085.77474769496</v>
+        <v>16239.36090782865</v>
       </c>
       <c r="G14" t="n">
-        <v>24009.44593524276</v>
+        <v>23308.14624258982</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>5223812</v>
+        <v>5174885</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12958606</v>
+        <v>12930569</v>
       </c>
       <c r="E15" t="n">
-        <v>19055386</v>
+        <v>19014158</v>
       </c>
       <c r="F15" t="n">
-        <v>3286.392232847335</v>
+        <v>2892.035363315441</v>
       </c>
       <c r="G15" t="n">
-        <v>3249.044672700797</v>
+        <v>3368.770871656917</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6980011</v>
+        <v>4288692</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29258568</v>
+        <v>29335373</v>
       </c>
       <c r="E16" t="n">
-        <v>91101794</v>
+        <v>91340940</v>
       </c>
       <c r="F16" t="n">
-        <v>12292.47724125824</v>
+        <v>12325.19772269175</v>
       </c>
       <c r="G16" t="n">
-        <v>20026.10727101624</v>
+        <v>27086.39536028143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I16" t="n">
-        <v>11067529</v>
+        <v>11103651</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>324136768</v>
+        <v>321758796</v>
       </c>
       <c r="E17" t="n">
-        <v>2916135355</v>
+        <v>2894741641</v>
       </c>
       <c r="F17" t="n">
-        <v>6275.890179498978</v>
+        <v>6036.544976647807</v>
       </c>
       <c r="G17" t="n">
-        <v>6773.715569108606</v>
+        <v>6765.842624822295</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>71433317</v>
+        <v>70640215</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15586738</v>
+        <v>15569354</v>
       </c>
       <c r="E18" t="n">
-        <v>95536246</v>
+        <v>95429689</v>
       </c>
       <c r="F18" t="n">
-        <v>31686.27013865357</v>
+        <v>28084.60946123474</v>
       </c>
       <c r="G18" t="n">
-        <v>45816.42100902753</v>
+        <v>45066.84054732288</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>12999243</v>
+        <v>13069712</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51609602</v>
+        <v>52146474</v>
       </c>
       <c r="E19" t="n">
-        <v>222328523</v>
+        <v>224641308</v>
       </c>
       <c r="F19" t="n">
-        <v>43366.11836727502</v>
+        <v>42744.85308224617</v>
       </c>
       <c r="G19" t="n">
-        <v>59859.24329376573</v>
+        <v>66492.92586515049</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>14327323</v>
+        <v>14308426</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>299995675</v>
+        <v>300999684</v>
       </c>
       <c r="E20" t="n">
-        <v>299995675</v>
+        <v>300999684</v>
       </c>
       <c r="F20" t="n">
-        <v>93217.91921698181</v>
+        <v>93696.44095149949</v>
       </c>
       <c r="G20" t="n">
-        <v>111348.5037117768</v>
+        <v>116926.6595816954</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>103114922</v>
+        <v>91450748</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30643588</v>
+        <v>30579423</v>
       </c>
       <c r="E21" t="n">
-        <v>137203916</v>
+        <v>136916620</v>
       </c>
       <c r="F21" t="n">
-        <v>32683.00740768768</v>
+        <v>34482.95480503009</v>
       </c>
       <c r="G21" t="n">
-        <v>68167.37754536764</v>
+        <v>71883.41412638131</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>19491798</v>
+        <v>19740721</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47964213</v>
+        <v>48175173</v>
       </c>
       <c r="E22" t="n">
-        <v>311035155</v>
+        <v>312403173</v>
       </c>
       <c r="F22" t="n">
-        <v>15172.21373876634</v>
+        <v>11063.73385425956</v>
       </c>
       <c r="G22" t="n">
-        <v>90556.29388665654</v>
+        <v>92677.02107071689</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>21845816</v>
+        <v>21806896</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123617951</v>
+        <v>122906655</v>
       </c>
       <c r="E23" t="n">
-        <v>2047214512</v>
+        <v>2035434868</v>
       </c>
       <c r="F23" t="n">
-        <v>368592.1444388013</v>
+        <v>457154.1434682491</v>
       </c>
       <c r="G23" t="n">
-        <v>349480.890236575</v>
+        <v>351816.0441835469</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>53498648</v>
+        <v>60809455</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6210821</v>
+        <v>6255791</v>
       </c>
       <c r="E24" t="n">
-        <v>31952789</v>
+        <v>32184142</v>
       </c>
       <c r="F24" t="n">
-        <v>7364.166075766892</v>
+        <v>5843.233744018726</v>
       </c>
       <c r="G24" t="n">
-        <v>1915.603127782585</v>
+        <v>1395.460296469751</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>982793</v>
+        <v>982227</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22499794</v>
+        <v>22517574</v>
       </c>
       <c r="E25" t="n">
-        <v>22500147</v>
+        <v>22517574</v>
       </c>
       <c r="F25" t="n">
-        <v>5576.785465497759</v>
+        <v>5898.379766741561</v>
       </c>
       <c r="G25" t="n">
-        <v>11216.45602229814</v>
+        <v>12243.69866123065</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2168437</v>
+        <v>2137408</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>297718226</v>
+        <v>300029983</v>
       </c>
       <c r="E27" t="n">
-        <v>550846611</v>
+        <v>555123889</v>
       </c>
       <c r="F27" t="n">
-        <v>73908.0904371478</v>
+        <v>76757.99703430031</v>
       </c>
       <c r="G27" t="n">
-        <v>77675.31421071607</v>
+        <v>75021.96484629298</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>26199970</v>
+        <v>26105057</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44155411</v>
+        <v>44526006</v>
       </c>
       <c r="E28" t="n">
-        <v>44155411</v>
+        <v>44526006</v>
       </c>
       <c r="F28" t="n">
-        <v>26800.40136601181</v>
+        <v>25253.91853992912</v>
       </c>
       <c r="G28" t="n">
-        <v>44727.21752222465</v>
+        <v>45106.67653025995</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>11868683</v>
+        <v>11922869</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>582805595</v>
+        <v>583477090</v>
       </c>
       <c r="E29" t="n">
-        <v>2257120084</v>
+        <v>2259720683</v>
       </c>
       <c r="F29" t="n">
-        <v>35919.65542261802</v>
+        <v>44760.91501900463</v>
       </c>
       <c r="G29" t="n">
-        <v>250313.4262913813</v>
+        <v>241979.7866128815</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>61894330</v>
+        <v>62038018</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120930057</v>
+        <v>121921995</v>
       </c>
       <c r="E30" t="n">
-        <v>463907161</v>
+        <v>467712395</v>
       </c>
       <c r="F30" t="n">
-        <v>145159.1069890401</v>
+        <v>143567.3519123049</v>
       </c>
       <c r="G30" t="n">
-        <v>182174.6292290826</v>
+        <v>185219.2646280137</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>32459051</v>
+        <v>31613339</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41258893</v>
+        <v>42877851</v>
       </c>
       <c r="F31" t="n">
-        <v>15789.03281455691</v>
+        <v>12551.47810476118</v>
       </c>
       <c r="G31" t="n">
-        <v>19333.64817861619</v>
+        <v>28086.19851326515</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I31" t="n">
-        <v>10906449</v>
+        <v>11871477</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>92352454</v>
+        <v>92082892</v>
       </c>
       <c r="E32" t="n">
-        <v>341361989</v>
+        <v>340364812</v>
       </c>
       <c r="F32" t="n">
-        <v>1194.84199675336</v>
+        <v>2152.628776012857</v>
       </c>
       <c r="G32" t="n">
-        <v>947.1509735622636</v>
+        <v>2909.583950773892</v>
       </c>
       <c r="H32" t="n">
         <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>332954</v>
+        <v>338962</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>465853248</v>
+        <v>467471094</v>
       </c>
       <c r="E33" t="n">
-        <v>1620774522</v>
+        <v>1626403254</v>
       </c>
       <c r="F33" t="n">
-        <v>237507.7509369555</v>
+        <v>228184.1589009329</v>
       </c>
       <c r="G33" t="n">
-        <v>277506.7636718694</v>
+        <v>283282.2881997438</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>48836651</v>
+        <v>48983908</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>107311824</v>
+        <v>108272217</v>
       </c>
       <c r="E34" t="n">
-        <v>162589812</v>
+        <v>164044919</v>
       </c>
       <c r="F34" t="n">
-        <v>60106.70518325999</v>
+        <v>58523.24127853869</v>
       </c>
       <c r="G34" t="n">
-        <v>139558.0287505068</v>
+        <v>74094.61696563433</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9509003</v>
+        <v>9517357</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2290006</v>
+        <v>2277697</v>
       </c>
       <c r="E35" t="n">
-        <v>9160023</v>
+        <v>9110790</v>
       </c>
       <c r="F35" t="n">
-        <v>87267.24425517302</v>
+        <v>32180.96274161469</v>
       </c>
       <c r="G35" t="n">
-        <v>65056.41359181324</v>
+        <v>77839.62635689894</v>
       </c>
       <c r="H35" t="n">
         <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>8181105</v>
+        <v>8228097</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211521903</v>
+        <v>212323842</v>
       </c>
       <c r="E36" t="n">
-        <v>650350253</v>
+        <v>652815912</v>
       </c>
       <c r="F36" t="n">
-        <v>188049.0934189861</v>
+        <v>191861.5205218536</v>
       </c>
       <c r="G36" t="n">
-        <v>214898.8898577257</v>
+        <v>206508.3962753976</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>21457099</v>
+        <v>20865175</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>138568035</v>
+        <v>139588872</v>
       </c>
       <c r="E37" t="n">
-        <v>362005148</v>
+        <v>364672055</v>
       </c>
       <c r="F37" t="n">
-        <v>42369.53969639891</v>
+        <v>41469.26471999664</v>
       </c>
       <c r="G37" t="n">
-        <v>35588.2445613849</v>
+        <v>35586.53557619874</v>
       </c>
       <c r="H37" t="n">
         <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>8247761</v>
+        <v>7973220</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>378670645</v>
+        <v>382065649</v>
       </c>
       <c r="E38" t="n">
-        <v>2163832255</v>
+        <v>2183232281</v>
       </c>
       <c r="F38" t="n">
-        <v>38044.13461808193</v>
+        <v>28974.7037290926</v>
       </c>
       <c r="G38" t="n">
-        <v>91753.71485278806</v>
+        <v>91941.34509363578</v>
       </c>
       <c r="H38" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>64649729</v>
+        <v>64692234</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>253881110</v>
+        <v>252949145</v>
       </c>
       <c r="E2" t="n">
-        <v>1592052758</v>
+        <v>1586208532</v>
       </c>
       <c r="F2" t="n">
-        <v>195901.6086398494</v>
+        <v>188450.859949836</v>
       </c>
       <c r="G2" t="n">
-        <v>216603.6159586937</v>
+        <v>220430.0350645842</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>29584684</v>
+        <v>29592683</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141527640</v>
+        <v>141516768</v>
       </c>
       <c r="E3" t="n">
-        <v>156834743</v>
+        <v>156822696</v>
       </c>
       <c r="F3" t="n">
-        <v>63925.20044356881</v>
+        <v>67016.64747759174</v>
       </c>
       <c r="G3" t="n">
-        <v>190943.4276287825</v>
+        <v>189460.6447287012</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>51742943</v>
+        <v>51634199</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>557773010</v>
+        <v>556662691</v>
       </c>
       <c r="E4" t="n">
-        <v>697691136</v>
+        <v>696302292</v>
       </c>
       <c r="F4" t="n">
-        <v>120708.1164237986</v>
+        <v>123070.9656965054</v>
       </c>
       <c r="G4" t="n">
-        <v>146114.364521687</v>
+        <v>144715.8804163898</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>97819874</v>
+        <v>97574380</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140332043</v>
+        <v>140928001</v>
       </c>
       <c r="E5" t="n">
-        <v>140332043</v>
+        <v>140928001</v>
       </c>
       <c r="F5" t="n">
-        <v>70883.49026058288</v>
+        <v>64397.45805393482</v>
       </c>
       <c r="G5" t="n">
-        <v>113748.3174374279</v>
+        <v>117778.6256386634</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>93544450</v>
+        <v>93397029</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>251905504</v>
+        <v>251862132</v>
       </c>
       <c r="E6" t="n">
-        <v>251905504</v>
+        <v>251862132</v>
       </c>
       <c r="F6" t="n">
-        <v>55913.41862715055</v>
+        <v>52880.34343111077</v>
       </c>
       <c r="G6" t="n">
-        <v>103685.6959945828</v>
+        <v>104892.452410667</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>28617890</v>
+        <v>28702791</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97993791</v>
+        <v>97648766</v>
       </c>
       <c r="E7" t="n">
-        <v>122186770</v>
+        <v>121756564</v>
       </c>
       <c r="F7" t="n">
-        <v>18387.99432844471</v>
+        <v>24148.71552626616</v>
       </c>
       <c r="G7" t="n">
-        <v>48574.05579875303</v>
+        <v>44139.21023688552</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>13436732</v>
+        <v>13390934</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84116156</v>
+        <v>84081057</v>
       </c>
       <c r="E8" t="n">
-        <v>175375430</v>
+        <v>175302250</v>
       </c>
       <c r="F8" t="n">
-        <v>46992.79258621868</v>
+        <v>70204.22033899013</v>
       </c>
       <c r="G8" t="n">
-        <v>76525.10337807859</v>
+        <v>58201.52094279027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>85281433</v>
+        <v>85140716</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>139363345</v>
+        <v>139484897</v>
       </c>
       <c r="E9" t="n">
-        <v>139426510</v>
+        <v>139548727</v>
       </c>
       <c r="F9" t="n">
-        <v>8663.871309283939</v>
+        <v>7302.672596200689</v>
       </c>
       <c r="G9" t="n">
-        <v>16806.2500526666</v>
+        <v>15984.02644663523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I9" t="n">
-        <v>3218370</v>
+        <v>3222458</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>642368753</v>
+        <v>641001438</v>
       </c>
       <c r="E10" t="n">
-        <v>642368753</v>
+        <v>641001438</v>
       </c>
       <c r="F10" t="n">
-        <v>433194.3183602787</v>
+        <v>397642.5554197963</v>
       </c>
       <c r="G10" t="n">
-        <v>529940.6544658507</v>
+        <v>547784.146522103</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>553410459</v>
+        <v>553413178</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73954782</v>
+        <v>74002322</v>
       </c>
       <c r="E11" t="n">
-        <v>84853692</v>
+        <v>84908238</v>
       </c>
       <c r="F11" t="n">
-        <v>2948.632828803226</v>
+        <v>12053.48289679938</v>
       </c>
       <c r="G11" t="n">
-        <v>16816.50484617467</v>
+        <v>3459.223160609773</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.95</v>
       </c>
       <c r="I11" t="n">
-        <v>1802509</v>
+        <v>1801770</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>263877909</v>
+        <v>263122705</v>
       </c>
       <c r="E12" t="n">
-        <v>1139043544</v>
+        <v>1135783664</v>
       </c>
       <c r="F12" t="n">
-        <v>224405.8614979564</v>
+        <v>333692.5794772744</v>
       </c>
       <c r="G12" t="n">
-        <v>303703.1102030823</v>
+        <v>383852.8984926109</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>141547335</v>
+        <v>140476965</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>119335328</v>
+        <v>119618712</v>
       </c>
       <c r="E13" t="n">
-        <v>119335328</v>
+        <v>119618712</v>
       </c>
       <c r="F13" t="n">
-        <v>10501.60830334172</v>
+        <v>5824.725024322938</v>
       </c>
       <c r="G13" t="n">
-        <v>3714.588468467777</v>
+        <v>3702.352167757341</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>10070139</v>
+        <v>10132408</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15831930</v>
+        <v>15752865</v>
       </c>
       <c r="E14" t="n">
-        <v>39579824</v>
+        <v>39382161</v>
       </c>
       <c r="F14" t="n">
-        <v>16239.36090782865</v>
+        <v>14754.00984642178</v>
       </c>
       <c r="G14" t="n">
-        <v>23308.14624258982</v>
+        <v>17917.0018107524</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>5174885</v>
+        <v>5166516</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12930569</v>
+        <v>12928361</v>
       </c>
       <c r="E15" t="n">
-        <v>19014158</v>
+        <v>19010911</v>
       </c>
       <c r="F15" t="n">
-        <v>2892.035363315441</v>
+        <v>3065.054153374896</v>
       </c>
       <c r="G15" t="n">
-        <v>3368.770871656917</v>
+        <v>3479.823179516663</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>4288692</v>
+        <v>4077928</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29335373</v>
+        <v>29402939</v>
       </c>
       <c r="E16" t="n">
-        <v>91340940</v>
+        <v>91551318</v>
       </c>
       <c r="F16" t="n">
-        <v>12325.19772269175</v>
+        <v>11635.76288816051</v>
       </c>
       <c r="G16" t="n">
-        <v>27086.39536028143</v>
+        <v>18230.90375799629</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>11103651</v>
+        <v>11139864</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>321758796</v>
+        <v>317998965</v>
       </c>
       <c r="E17" t="n">
-        <v>2894741641</v>
+        <v>2860915874</v>
       </c>
       <c r="F17" t="n">
-        <v>6036.544976647807</v>
+        <v>7029.859682266055</v>
       </c>
       <c r="G17" t="n">
-        <v>6765.842624822295</v>
+        <v>6616.152828432269</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>70640215</v>
+        <v>72795864</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15569354</v>
+        <v>15565644</v>
       </c>
       <c r="E18" t="n">
-        <v>95429689</v>
+        <v>95406953</v>
       </c>
       <c r="F18" t="n">
-        <v>28084.60946123474</v>
+        <v>32728.30549100426</v>
       </c>
       <c r="G18" t="n">
-        <v>45066.84054732288</v>
+        <v>43059.57445795814</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>13069712</v>
+        <v>13108196</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52146474</v>
+        <v>52222162</v>
       </c>
       <c r="E19" t="n">
-        <v>224641308</v>
+        <v>224967364</v>
       </c>
       <c r="F19" t="n">
-        <v>42744.85308224617</v>
+        <v>44523.93112431645</v>
       </c>
       <c r="G19" t="n">
-        <v>66492.92586515049</v>
+        <v>71313.90687163692</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>14308426</v>
+        <v>15057075</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300999684</v>
+        <v>301894271</v>
       </c>
       <c r="E20" t="n">
-        <v>300999684</v>
+        <v>301894271</v>
       </c>
       <c r="F20" t="n">
-        <v>93696.44095149949</v>
+        <v>91264.48178844845</v>
       </c>
       <c r="G20" t="n">
-        <v>116926.6595816954</v>
+        <v>113519.659541523</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>91450748</v>
+        <v>91665755</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30579423</v>
+        <v>30545586</v>
       </c>
       <c r="E21" t="n">
-        <v>136916620</v>
+        <v>136765119</v>
       </c>
       <c r="F21" t="n">
-        <v>34482.95480503009</v>
+        <v>37008.35648602476</v>
       </c>
       <c r="G21" t="n">
-        <v>71883.41412638131</v>
+        <v>64443.34929103188</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>19740721</v>
+        <v>19764803</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48175173</v>
+        <v>48121951</v>
       </c>
       <c r="E22" t="n">
-        <v>312403173</v>
+        <v>312058044</v>
       </c>
       <c r="F22" t="n">
-        <v>11063.73385425956</v>
+        <v>12206.8204609921</v>
       </c>
       <c r="G22" t="n">
-        <v>92677.02107071689</v>
+        <v>92443.13392332534</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21806896</v>
+        <v>21766327</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122906655</v>
+        <v>122862228</v>
       </c>
       <c r="E23" t="n">
-        <v>2035434868</v>
+        <v>2034699131</v>
       </c>
       <c r="F23" t="n">
-        <v>457154.1434682491</v>
+        <v>456053.0681180309</v>
       </c>
       <c r="G23" t="n">
-        <v>351816.0441835469</v>
+        <v>212451.5476179702</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>60809455</v>
+        <v>63865451</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6255791</v>
+        <v>6257392</v>
       </c>
       <c r="E24" t="n">
-        <v>32184142</v>
+        <v>32192378</v>
       </c>
       <c r="F24" t="n">
-        <v>5843.233744018726</v>
+        <v>5910.269402586759</v>
       </c>
       <c r="G24" t="n">
-        <v>1395.460296469751</v>
+        <v>1933.673293441802</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>982227</v>
+        <v>982753</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22517574</v>
+        <v>22445783</v>
       </c>
       <c r="E25" t="n">
-        <v>22517574</v>
+        <v>22445221</v>
       </c>
       <c r="F25" t="n">
-        <v>5898.379766741561</v>
+        <v>7400.264872568451</v>
       </c>
       <c r="G25" t="n">
-        <v>12243.69866123065</v>
+        <v>13017.7552321128</v>
       </c>
       <c r="H25" t="n">
         <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2137408</v>
+        <v>2053212</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>300029983</v>
+        <v>302633232</v>
       </c>
       <c r="E27" t="n">
-        <v>555123889</v>
+        <v>559940494</v>
       </c>
       <c r="F27" t="n">
-        <v>76757.99703430031</v>
+        <v>78169.19177711397</v>
       </c>
       <c r="G27" t="n">
-        <v>75021.96484629298</v>
+        <v>47359.0239806905</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>26105057</v>
+        <v>26563958</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44526006</v>
+        <v>44445520</v>
       </c>
       <c r="E28" t="n">
-        <v>44526006</v>
+        <v>44445520</v>
       </c>
       <c r="F28" t="n">
-        <v>25253.91853992912</v>
+        <v>27161.43350590382</v>
       </c>
       <c r="G28" t="n">
-        <v>45106.67653025995</v>
+        <v>44349.57936620234</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>11922869</v>
+        <v>11977530</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>583477090</v>
+        <v>584350097</v>
       </c>
       <c r="E29" t="n">
-        <v>2259720683</v>
+        <v>2263101709</v>
       </c>
       <c r="F29" t="n">
-        <v>44760.91501900463</v>
+        <v>43870.80292473175</v>
       </c>
       <c r="G29" t="n">
-        <v>241979.7866128815</v>
+        <v>248712.1964486187</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>62038018</v>
+        <v>61754651</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>121921995</v>
+        <v>121759356</v>
       </c>
       <c r="E30" t="n">
-        <v>467712395</v>
+        <v>467088488</v>
       </c>
       <c r="F30" t="n">
-        <v>143567.3519123049</v>
+        <v>143890.8379005793</v>
       </c>
       <c r="G30" t="n">
-        <v>185219.2646280137</v>
+        <v>181092.8140843455</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>31613339</v>
+        <v>32050577</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42877851</v>
+        <v>42774475</v>
       </c>
       <c r="F31" t="n">
-        <v>12551.47810476118</v>
+        <v>6124.92806523918</v>
       </c>
       <c r="G31" t="n">
-        <v>28086.19851326515</v>
+        <v>21923.14922643509</v>
       </c>
       <c r="H31" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>11871477</v>
+        <v>11899099</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>92082892</v>
+        <v>92114016</v>
       </c>
       <c r="E32" t="n">
-        <v>340364812</v>
+        <v>340478978</v>
       </c>
       <c r="F32" t="n">
-        <v>2152.628776012857</v>
+        <v>10326.05892676752</v>
       </c>
       <c r="G32" t="n">
-        <v>2909.583950773892</v>
+        <v>9038.648121030041</v>
       </c>
       <c r="H32" t="n">
         <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>338962</v>
+        <v>338836</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>467471094</v>
+        <v>465457538</v>
       </c>
       <c r="E33" t="n">
-        <v>1626403254</v>
+        <v>1619397787</v>
       </c>
       <c r="F33" t="n">
-        <v>228184.1589009329</v>
+        <v>243827.1347223114</v>
       </c>
       <c r="G33" t="n">
-        <v>283282.2881997438</v>
+        <v>280661.5454848026</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>48983908</v>
+        <v>48943728</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108272217</v>
+        <v>108645729</v>
       </c>
       <c r="E34" t="n">
-        <v>164044919</v>
+        <v>164610832</v>
       </c>
       <c r="F34" t="n">
-        <v>58523.24127853869</v>
+        <v>54912.85440024529</v>
       </c>
       <c r="G34" t="n">
-        <v>74094.61696563433</v>
+        <v>74129.75249643445</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9517357</v>
+        <v>9494466</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2277697</v>
+        <v>2275324</v>
       </c>
       <c r="E35" t="n">
-        <v>9110790</v>
+        <v>9101295</v>
       </c>
       <c r="F35" t="n">
-        <v>32180.96274161469</v>
+        <v>78319.0586285778</v>
       </c>
       <c r="G35" t="n">
-        <v>77839.62635689894</v>
+        <v>25263.25823631408</v>
       </c>
       <c r="H35" t="n">
         <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>8228097</v>
+        <v>8251142</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>212323842</v>
+        <v>212178193</v>
       </c>
       <c r="E36" t="n">
-        <v>652815912</v>
+        <v>652368096</v>
       </c>
       <c r="F36" t="n">
-        <v>191861.5205218536</v>
+        <v>188760.2061211841</v>
       </c>
       <c r="G36" t="n">
-        <v>206508.3962753976</v>
+        <v>223178.9342227751</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>20865175</v>
+        <v>20874635</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>139588872</v>
+        <v>139674401</v>
       </c>
       <c r="E37" t="n">
-        <v>364672055</v>
+        <v>364895498</v>
       </c>
       <c r="F37" t="n">
-        <v>41469.26471999664</v>
+        <v>47432.12860078055</v>
       </c>
       <c r="G37" t="n">
-        <v>35586.53557619874</v>
+        <v>39612.65157014983</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>7973220</v>
+        <v>7897535</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>382065649</v>
+        <v>381218167</v>
       </c>
       <c r="E38" t="n">
-        <v>2183232281</v>
+        <v>2178389527</v>
       </c>
       <c r="F38" t="n">
-        <v>28974.7037290926</v>
+        <v>27336.04814600754</v>
       </c>
       <c r="G38" t="n">
-        <v>91941.34509363578</v>
+        <v>85180.92212900153</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>64692234</v>
+        <v>64578040</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252949145</v>
+        <v>252320062</v>
       </c>
       <c r="E2" t="n">
-        <v>1586208532</v>
+        <v>1582263644</v>
       </c>
       <c r="F2" t="n">
-        <v>188450.859949836</v>
+        <v>188728.1662123236</v>
       </c>
       <c r="G2" t="n">
-        <v>220430.0350645842</v>
+        <v>211574.3155487993</v>
       </c>
       <c r="H2" t="n">
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>29592683</v>
+        <v>29711330</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141516768</v>
+        <v>142411621</v>
       </c>
       <c r="E3" t="n">
-        <v>156822696</v>
+        <v>157814333</v>
       </c>
       <c r="F3" t="n">
-        <v>67016.64747759174</v>
+        <v>60812.06391916203</v>
       </c>
       <c r="G3" t="n">
-        <v>189460.6447287012</v>
+        <v>188209.7737838625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>51634199</v>
+        <v>52007312</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>556662691</v>
+        <v>561207187</v>
       </c>
       <c r="E4" t="n">
-        <v>696302292</v>
+        <v>701986780</v>
       </c>
       <c r="F4" t="n">
-        <v>123070.9656965054</v>
+        <v>117422.3765627901</v>
       </c>
       <c r="G4" t="n">
-        <v>144715.8804163898</v>
+        <v>143581.7148667523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>97574380</v>
+        <v>98965295</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140928001</v>
+        <v>143299949</v>
       </c>
       <c r="E5" t="n">
-        <v>140928001</v>
+        <v>143299949</v>
       </c>
       <c r="F5" t="n">
-        <v>64397.45805393482</v>
+        <v>72448.31216327178</v>
       </c>
       <c r="G5" t="n">
-        <v>117778.6256386634</v>
+        <v>111796.0820698038</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>93397029</v>
+        <v>94866168</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>251862132</v>
+        <v>253540768</v>
       </c>
       <c r="E6" t="n">
-        <v>251862132</v>
+        <v>253540768</v>
       </c>
       <c r="F6" t="n">
-        <v>52880.34343111077</v>
+        <v>50645.5386162229</v>
       </c>
       <c r="G6" t="n">
-        <v>104892.452410667</v>
+        <v>102042.5330792453</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>28702791</v>
+        <v>28916654</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97648766</v>
+        <v>97335117</v>
       </c>
       <c r="E7" t="n">
-        <v>121756564</v>
+        <v>121365482</v>
       </c>
       <c r="F7" t="n">
-        <v>24148.71552626616</v>
+        <v>19593.35931874715</v>
       </c>
       <c r="G7" t="n">
-        <v>44139.21023688552</v>
+        <v>44439.97807305391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>13390934</v>
+        <v>13247733</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84081057</v>
+        <v>84658396</v>
       </c>
       <c r="E8" t="n">
-        <v>175302250</v>
+        <v>176505956</v>
       </c>
       <c r="F8" t="n">
-        <v>70204.22033899013</v>
+        <v>21215.66928609341</v>
       </c>
       <c r="G8" t="n">
-        <v>58201.52094279027</v>
+        <v>74347.95700464812</v>
       </c>
       <c r="H8" t="n">
         <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>85140716</v>
+        <v>85268149</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>139484897</v>
+        <v>139684489</v>
       </c>
       <c r="E9" t="n">
-        <v>139548727</v>
+        <v>139748956</v>
       </c>
       <c r="F9" t="n">
-        <v>7302.672596200689</v>
+        <v>7758.495142200103</v>
       </c>
       <c r="G9" t="n">
-        <v>15984.02644663523</v>
+        <v>15790.86589830792</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3222458</v>
+        <v>3212374</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>641001438</v>
+        <v>643889651</v>
       </c>
       <c r="E10" t="n">
-        <v>641001438</v>
+        <v>643889651</v>
       </c>
       <c r="F10" t="n">
-        <v>397642.5554197963</v>
+        <v>384809.4074335229</v>
       </c>
       <c r="G10" t="n">
-        <v>547784.146522103</v>
+        <v>515979.9522777102</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>553413178</v>
+        <v>556886902</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74002322</v>
+        <v>73788816</v>
       </c>
       <c r="E11" t="n">
-        <v>84908238</v>
+        <v>84663267</v>
       </c>
       <c r="F11" t="n">
-        <v>12053.48289679938</v>
+        <v>3069.380042723487</v>
       </c>
       <c r="G11" t="n">
-        <v>3459.223160609773</v>
+        <v>2400.415965457727</v>
       </c>
       <c r="H11" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1801770</v>
+        <v>1801791</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>263122705</v>
+        <v>263071789</v>
       </c>
       <c r="E12" t="n">
-        <v>1135783664</v>
+        <v>1135563883</v>
       </c>
       <c r="F12" t="n">
-        <v>333692.5794772744</v>
+        <v>353399.9998195176</v>
       </c>
       <c r="G12" t="n">
-        <v>383852.8984926109</v>
+        <v>351638.7452371353</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>140476965</v>
+        <v>139392622</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>119618712</v>
+        <v>118830989</v>
       </c>
       <c r="E13" t="n">
-        <v>119618712</v>
+        <v>118830989</v>
       </c>
       <c r="F13" t="n">
-        <v>5824.725024322938</v>
+        <v>4881.419564867258</v>
       </c>
       <c r="G13" t="n">
-        <v>3702.352167757341</v>
+        <v>5504.074592452665</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>10132408</v>
+        <v>10207072</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15752865</v>
+        <v>15690979</v>
       </c>
       <c r="E14" t="n">
-        <v>39382161</v>
+        <v>39227447</v>
       </c>
       <c r="F14" t="n">
-        <v>14754.00984642178</v>
+        <v>15237.9309454146</v>
       </c>
       <c r="G14" t="n">
-        <v>17917.0018107524</v>
+        <v>21194.47834658064</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I14" t="n">
-        <v>5166516</v>
+        <v>5202875</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12928361</v>
+        <v>12799769</v>
       </c>
       <c r="E15" t="n">
-        <v>19010911</v>
+        <v>18821820</v>
       </c>
       <c r="F15" t="n">
-        <v>3065.054153374896</v>
+        <v>3406.155059033883</v>
       </c>
       <c r="G15" t="n">
-        <v>3479.823179516663</v>
+        <v>4861.675663177689</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>4077928</v>
+        <v>6265459</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29402939</v>
+        <v>29108961</v>
       </c>
       <c r="E16" t="n">
-        <v>91551318</v>
+        <v>90635964</v>
       </c>
       <c r="F16" t="n">
-        <v>11635.76288816051</v>
+        <v>14856.8853259947</v>
       </c>
       <c r="G16" t="n">
-        <v>18230.90375799629</v>
+        <v>14722.3188366778</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>11139864</v>
+        <v>11234553</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>317998965</v>
+        <v>316123887</v>
       </c>
       <c r="E17" t="n">
-        <v>2860915874</v>
+        <v>2844046513</v>
       </c>
       <c r="F17" t="n">
-        <v>7029.859682266055</v>
+        <v>6794.578145668611</v>
       </c>
       <c r="G17" t="n">
-        <v>6616.152828432269</v>
+        <v>7435.823326999037</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>72795864</v>
+        <v>70436566</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15565644</v>
+        <v>15689466</v>
       </c>
       <c r="E18" t="n">
-        <v>95406953</v>
+        <v>96165899</v>
       </c>
       <c r="F18" t="n">
-        <v>32728.30549100426</v>
+        <v>31025.51875755217</v>
       </c>
       <c r="G18" t="n">
-        <v>43059.57445795814</v>
+        <v>41428.23838110117</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>13108196</v>
+        <v>13035398</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52222162</v>
+        <v>50885781</v>
       </c>
       <c r="E19" t="n">
-        <v>224967364</v>
+        <v>219210379</v>
       </c>
       <c r="F19" t="n">
-        <v>44523.93112431645</v>
+        <v>36980.89690064129</v>
       </c>
       <c r="G19" t="n">
-        <v>71313.90687163692</v>
+        <v>61328.35549870932</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>15057075</v>
+        <v>14975291</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>301894271</v>
+        <v>303261881</v>
       </c>
       <c r="E20" t="n">
-        <v>301894271</v>
+        <v>303261881</v>
       </c>
       <c r="F20" t="n">
-        <v>91264.48178844845</v>
+        <v>94710.74231441796</v>
       </c>
       <c r="G20" t="n">
-        <v>113519.659541523</v>
+        <v>119160.3167192437</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>91665755</v>
+        <v>91548575</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30545586</v>
+        <v>30125466</v>
       </c>
       <c r="E21" t="n">
-        <v>136765119</v>
+        <v>134884068</v>
       </c>
       <c r="F21" t="n">
-        <v>37008.35648602476</v>
+        <v>32509.60924218479</v>
       </c>
       <c r="G21" t="n">
-        <v>64443.34929103188</v>
+        <v>66326.67357479664</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>19764803</v>
+        <v>20089525</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48121951</v>
+        <v>48425809</v>
       </c>
       <c r="E22" t="n">
-        <v>312058044</v>
+        <v>314028481</v>
       </c>
       <c r="F22" t="n">
-        <v>12206.8204609921</v>
+        <v>16681.72045900972</v>
       </c>
       <c r="G22" t="n">
-        <v>92443.13392332534</v>
+        <v>93906.8469644968</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>21766327</v>
+        <v>21820990</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122862228</v>
+        <v>123251317</v>
       </c>
       <c r="E23" t="n">
-        <v>2034699131</v>
+        <v>2041142747</v>
       </c>
       <c r="F23" t="n">
-        <v>456053.0681180309</v>
+        <v>448214.4440725476</v>
       </c>
       <c r="G23" t="n">
-        <v>212451.5476179702</v>
+        <v>351489.5438949784</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>63865451</v>
+        <v>77814655</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6257392</v>
+        <v>6190577</v>
       </c>
       <c r="E24" t="n">
-        <v>32192378</v>
+        <v>31848638</v>
       </c>
       <c r="F24" t="n">
-        <v>5910.269402586759</v>
+        <v>4464.559913786917</v>
       </c>
       <c r="G24" t="n">
-        <v>1933.673293441802</v>
+        <v>1863.764179759068</v>
       </c>
       <c r="H24" t="n">
         <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>982753</v>
+        <v>965619</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22445783</v>
+        <v>22374743</v>
       </c>
       <c r="E25" t="n">
-        <v>22445221</v>
+        <v>22374743</v>
       </c>
       <c r="F25" t="n">
-        <v>7400.264872568451</v>
+        <v>10075.89162518981</v>
       </c>
       <c r="G25" t="n">
-        <v>13017.7552321128</v>
+        <v>15476.60788602702</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>2053212</v>
+        <v>2102956</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>302633232</v>
+        <v>304321548</v>
       </c>
       <c r="E27" t="n">
-        <v>559940494</v>
+        <v>563064264</v>
       </c>
       <c r="F27" t="n">
-        <v>78169.19177711397</v>
+        <v>77532.69013544396</v>
       </c>
       <c r="G27" t="n">
-        <v>47359.0239806905</v>
+        <v>81126.16256703984</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>26563958</v>
+        <v>27219191</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44445520</v>
+        <v>44595664</v>
       </c>
       <c r="E28" t="n">
-        <v>44445520</v>
+        <v>44595664</v>
       </c>
       <c r="F28" t="n">
-        <v>27161.43350590382</v>
+        <v>22363.64528644841</v>
       </c>
       <c r="G28" t="n">
-        <v>44349.57936620234</v>
+        <v>42939.11201968458</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>11977530</v>
+        <v>12321091</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>584350097</v>
+        <v>582783872</v>
       </c>
       <c r="E29" t="n">
-        <v>2263101709</v>
+        <v>2257035953</v>
       </c>
       <c r="F29" t="n">
-        <v>43870.80292473175</v>
+        <v>56134.82070277737</v>
       </c>
       <c r="G29" t="n">
-        <v>248712.1964486187</v>
+        <v>256127.3929637749</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>61754651</v>
+        <v>61745582</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>121759356</v>
+        <v>123166161</v>
       </c>
       <c r="E30" t="n">
-        <v>467088488</v>
+        <v>472485217</v>
       </c>
       <c r="F30" t="n">
-        <v>143890.8379005793</v>
+        <v>146637.6004032545</v>
       </c>
       <c r="G30" t="n">
-        <v>181092.8140843455</v>
+        <v>186702.4686517555</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>32050577</v>
+        <v>31202868</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42774475</v>
+        <v>42365651</v>
       </c>
       <c r="F31" t="n">
-        <v>6124.92806523918</v>
+        <v>17689.86313992348</v>
       </c>
       <c r="G31" t="n">
-        <v>21923.14922643509</v>
+        <v>17471.18490541677</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>11899099</v>
+        <v>12117957</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>92114016</v>
+        <v>92050397</v>
       </c>
       <c r="E32" t="n">
-        <v>340478978</v>
+        <v>340243039</v>
       </c>
       <c r="F32" t="n">
-        <v>10326.05892676752</v>
+        <v>9847.887806253751</v>
       </c>
       <c r="G32" t="n">
-        <v>9038.648121030041</v>
+        <v>8948.930774855662</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>338836</v>
+        <v>333841</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>465457538</v>
+        <v>468127720</v>
       </c>
       <c r="E33" t="n">
-        <v>1619397787</v>
+        <v>1628687757</v>
       </c>
       <c r="F33" t="n">
-        <v>243827.1347223114</v>
+        <v>225821.5865452627</v>
       </c>
       <c r="G33" t="n">
-        <v>280661.5454848026</v>
+        <v>279954.8780819513</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>48943728</v>
+        <v>48686443</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108645729</v>
+        <v>108998706</v>
       </c>
       <c r="E34" t="n">
-        <v>164610832</v>
+        <v>165145633</v>
       </c>
       <c r="F34" t="n">
-        <v>54912.85440024529</v>
+        <v>57301.98434390422</v>
       </c>
       <c r="G34" t="n">
-        <v>74129.75249643445</v>
+        <v>67915.8756234567</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>9494466</v>
+        <v>9136155</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2275324</v>
+        <v>2273522</v>
       </c>
       <c r="E35" t="n">
-        <v>9101295</v>
+        <v>9094087</v>
       </c>
       <c r="F35" t="n">
-        <v>78319.0586285778</v>
+        <v>38759.60703012134</v>
       </c>
       <c r="G35" t="n">
-        <v>25263.25823631408</v>
+        <v>81587.37346136691</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>8251142</v>
+        <v>8287041</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>212178193</v>
+        <v>211563778</v>
       </c>
       <c r="E36" t="n">
-        <v>652368096</v>
+        <v>650479001</v>
       </c>
       <c r="F36" t="n">
-        <v>188760.2061211841</v>
+        <v>183164.894620747</v>
       </c>
       <c r="G36" t="n">
-        <v>223178.9342227751</v>
+        <v>216694.5557116917</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>20874635</v>
+        <v>20123242</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>139674401</v>
+        <v>139416963</v>
       </c>
       <c r="E37" t="n">
-        <v>364895498</v>
+        <v>364222948</v>
       </c>
       <c r="F37" t="n">
-        <v>47432.12860078055</v>
+        <v>45644.62704906239</v>
       </c>
       <c r="G37" t="n">
-        <v>39612.65157014983</v>
+        <v>42281.37918355894</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>7897535</v>
+        <v>7112162</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>381218167</v>
+        <v>382251490</v>
       </c>
       <c r="E38" t="n">
-        <v>2178389527</v>
+        <v>2184294230</v>
       </c>
       <c r="F38" t="n">
-        <v>27336.04814600754</v>
+        <v>28640.45473984328</v>
       </c>
       <c r="G38" t="n">
-        <v>85180.92212900153</v>
+        <v>93331.60695079864</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>64578040</v>
+        <v>64046529</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252320062</v>
+        <v>265935519</v>
       </c>
       <c r="E2" t="n">
-        <v>1582263644</v>
+        <v>1667644259</v>
       </c>
       <c r="F2" t="n">
-        <v>188728.1662123236</v>
+        <v>180630.2715032398</v>
       </c>
       <c r="G2" t="n">
-        <v>211574.3155487993</v>
+        <v>222558.6140029487</v>
       </c>
       <c r="H2" t="n">
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>29711330</v>
+        <v>28496941</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142411621</v>
+        <v>148758722</v>
       </c>
       <c r="E3" t="n">
-        <v>157814333</v>
+        <v>164847912</v>
       </c>
       <c r="F3" t="n">
-        <v>60812.06391916203</v>
+        <v>56344.36047080194</v>
       </c>
       <c r="G3" t="n">
-        <v>188209.7737838625</v>
+        <v>188538.5455045023</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>52007312</v>
+        <v>39875108</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>561207187</v>
+        <v>580592868</v>
       </c>
       <c r="E4" t="n">
-        <v>701986780</v>
+        <v>726235386</v>
       </c>
       <c r="F4" t="n">
-        <v>117422.3765627901</v>
+        <v>104184.0673432793</v>
       </c>
       <c r="G4" t="n">
-        <v>143581.7148667523</v>
+        <v>143086.0518516557</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>98965295</v>
+        <v>82534671</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143299949</v>
+        <v>154051203</v>
       </c>
       <c r="E5" t="n">
-        <v>143299949</v>
+        <v>154051203</v>
       </c>
       <c r="F5" t="n">
-        <v>72448.31216327178</v>
+        <v>56407.30001254987</v>
       </c>
       <c r="G5" t="n">
-        <v>111796.0820698038</v>
+        <v>115747.4519577709</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I5" t="n">
-        <v>94866168</v>
+        <v>102153352</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>253540768</v>
+        <v>265361137</v>
       </c>
       <c r="E6" t="n">
-        <v>253540768</v>
+        <v>265361137</v>
       </c>
       <c r="F6" t="n">
-        <v>50645.5386162229</v>
+        <v>49837.34541174172</v>
       </c>
       <c r="G6" t="n">
-        <v>102042.5330792453</v>
+        <v>117632.0660975007</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>28916654</v>
+        <v>22829696</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97335117</v>
+        <v>99024178</v>
       </c>
       <c r="E7" t="n">
-        <v>121365482</v>
+        <v>123471542</v>
       </c>
       <c r="F7" t="n">
-        <v>19593.35931874715</v>
+        <v>21316.24575863016</v>
       </c>
       <c r="G7" t="n">
-        <v>44439.97807305391</v>
+        <v>39982.68712435001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>13247733</v>
+        <v>11700237</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84658396</v>
+        <v>93056908</v>
       </c>
       <c r="E8" t="n">
-        <v>176505956</v>
+        <v>194016179</v>
       </c>
       <c r="F8" t="n">
-        <v>21215.66928609341</v>
+        <v>27235.63280072679</v>
       </c>
       <c r="G8" t="n">
-        <v>74347.95700464812</v>
+        <v>59028.29117513411</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>85268149</v>
+        <v>50200250</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>139684489</v>
+        <v>143017548</v>
       </c>
       <c r="E9" t="n">
-        <v>139748956</v>
+        <v>143088485</v>
       </c>
       <c r="F9" t="n">
-        <v>7758.495142200103</v>
+        <v>8746.197575020125</v>
       </c>
       <c r="G9" t="n">
-        <v>15790.86589830792</v>
+        <v>14309.50923626413</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3212374</v>
+        <v>3128789</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>643889651</v>
+        <v>709958662</v>
       </c>
       <c r="E10" t="n">
-        <v>643889651</v>
+        <v>709958662</v>
       </c>
       <c r="F10" t="n">
-        <v>384809.4074335229</v>
+        <v>375140.8082360219</v>
       </c>
       <c r="G10" t="n">
-        <v>515979.9522777102</v>
+        <v>537725.1636754365</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I10" t="n">
-        <v>556886902</v>
+        <v>485902716</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73788816</v>
+        <v>87173524</v>
       </c>
       <c r="E11" t="n">
-        <v>84663267</v>
+        <v>100020515</v>
       </c>
       <c r="F11" t="n">
-        <v>3069.380042723487</v>
+        <v>3555.269126386446</v>
       </c>
       <c r="G11" t="n">
-        <v>2400.415965457727</v>
+        <v>1309.956930117491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1801791</v>
+        <v>2400970</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>263071789</v>
+        <v>273872879</v>
       </c>
       <c r="E12" t="n">
-        <v>1135563883</v>
+        <v>1182187382</v>
       </c>
       <c r="F12" t="n">
-        <v>353399.9998195176</v>
+        <v>298928.5189808955</v>
       </c>
       <c r="G12" t="n">
-        <v>351638.7452371353</v>
+        <v>358859.7008751362</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>139392622</v>
+        <v>93049593</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>118830989</v>
+        <v>116191762</v>
       </c>
       <c r="E13" t="n">
-        <v>118830989</v>
+        <v>116191762</v>
       </c>
       <c r="F13" t="n">
-        <v>4881.419564867258</v>
+        <v>2198.021031415321</v>
       </c>
       <c r="G13" t="n">
-        <v>5504.074592452665</v>
+        <v>8390.367452084998</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I13" t="n">
-        <v>10207072</v>
+        <v>10478556</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15690979</v>
+        <v>16160464</v>
       </c>
       <c r="E14" t="n">
-        <v>39227447</v>
+        <v>40401159</v>
       </c>
       <c r="F14" t="n">
-        <v>15237.9309454146</v>
+        <v>12114.04084210835</v>
       </c>
       <c r="G14" t="n">
-        <v>21194.47834658064</v>
+        <v>21088.75093703575</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>5202875</v>
+        <v>4446276</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12799769</v>
+        <v>12805672</v>
       </c>
       <c r="E15" t="n">
-        <v>18821820</v>
+        <v>18830499</v>
       </c>
       <c r="F15" t="n">
-        <v>3406.155059033883</v>
+        <v>3378.531432034299</v>
       </c>
       <c r="G15" t="n">
-        <v>4861.675663177689</v>
+        <v>3843.288227271629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>6265459</v>
+        <v>4168877</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29108961</v>
+        <v>28865621</v>
       </c>
       <c r="E16" t="n">
-        <v>90635964</v>
+        <v>89878282</v>
       </c>
       <c r="F16" t="n">
-        <v>14856.8853259947</v>
+        <v>13170.2272547486</v>
       </c>
       <c r="G16" t="n">
-        <v>14722.3188366778</v>
+        <v>16313.58450715353</v>
       </c>
       <c r="H16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>11234553</v>
+        <v>11332302</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>316123887</v>
+        <v>329988035</v>
       </c>
       <c r="E17" t="n">
-        <v>2844046513</v>
+        <v>2968776981</v>
       </c>
       <c r="F17" t="n">
-        <v>6794.578145668611</v>
+        <v>4297.254437069993</v>
       </c>
       <c r="G17" t="n">
-        <v>7435.823326999037</v>
+        <v>7579.39961352619</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I17" t="n">
-        <v>70436566</v>
+        <v>56902614</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15689466</v>
+        <v>15756375</v>
       </c>
       <c r="E18" t="n">
-        <v>96165899</v>
+        <v>96576002</v>
       </c>
       <c r="F18" t="n">
-        <v>31025.51875755217</v>
+        <v>31111.11337689551</v>
       </c>
       <c r="G18" t="n">
-        <v>41428.23838110117</v>
+        <v>36360.60983647381</v>
       </c>
       <c r="H18" t="n">
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>13035398</v>
+        <v>12371273</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50885781</v>
+        <v>54770443</v>
       </c>
       <c r="E19" t="n">
-        <v>219210379</v>
+        <v>235945082</v>
       </c>
       <c r="F19" t="n">
-        <v>36980.89690064129</v>
+        <v>54039.79575603161</v>
       </c>
       <c r="G19" t="n">
-        <v>61328.35549870932</v>
+        <v>68325.77242207006</v>
       </c>
       <c r="H19" t="n">
         <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>14975291</v>
+        <v>14345481</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>303261881</v>
+        <v>314641519</v>
       </c>
       <c r="E20" t="n">
-        <v>303261881</v>
+        <v>314641519</v>
       </c>
       <c r="F20" t="n">
-        <v>94710.74231441796</v>
+        <v>93805.4740898911</v>
       </c>
       <c r="G20" t="n">
-        <v>119160.3167192437</v>
+        <v>117886.9612194512</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>91548575</v>
+        <v>81673138</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30125466</v>
+        <v>31923996</v>
       </c>
       <c r="E21" t="n">
-        <v>134884068</v>
+        <v>142936824</v>
       </c>
       <c r="F21" t="n">
-        <v>32509.60924218479</v>
+        <v>26428.17460023199</v>
       </c>
       <c r="G21" t="n">
-        <v>66326.67357479664</v>
+        <v>73618.12104787672</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>20089525</v>
+        <v>17628457</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48425809</v>
+        <v>50679664</v>
       </c>
       <c r="E22" t="n">
-        <v>314028481</v>
+        <v>328644131</v>
       </c>
       <c r="F22" t="n">
-        <v>16681.72045900972</v>
+        <v>9222.752511284538</v>
       </c>
       <c r="G22" t="n">
-        <v>93906.8469644968</v>
+        <v>96859.93723058334</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21820990</v>
+        <v>18596117</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123251317</v>
+        <v>124004577</v>
       </c>
       <c r="E23" t="n">
-        <v>2041142747</v>
+        <v>2053617358</v>
       </c>
       <c r="F23" t="n">
-        <v>448214.4440725476</v>
+        <v>373903.9324969571</v>
       </c>
       <c r="G23" t="n">
-        <v>351489.5438949784</v>
+        <v>348457.0151216001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>77814655</v>
+        <v>116986955</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6190577</v>
+        <v>6365481</v>
       </c>
       <c r="E24" t="n">
-        <v>31848638</v>
+        <v>32748467</v>
       </c>
       <c r="F24" t="n">
-        <v>4464.559913786917</v>
+        <v>2325.804262414018</v>
       </c>
       <c r="G24" t="n">
-        <v>1863.764179759068</v>
+        <v>1080.674676601885</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>965619</v>
+        <v>943384</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22374743</v>
+        <v>23872956</v>
       </c>
       <c r="E25" t="n">
-        <v>22374743</v>
+        <v>23872956</v>
       </c>
       <c r="F25" t="n">
-        <v>10075.89162518981</v>
+        <v>4656.343643691728</v>
       </c>
       <c r="G25" t="n">
-        <v>15476.60788602702</v>
+        <v>14377.56878239147</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2102956</v>
+        <v>1784009</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>304321548</v>
+        <v>304059384</v>
       </c>
       <c r="E27" t="n">
-        <v>563064264</v>
+        <v>562579200</v>
       </c>
       <c r="F27" t="n">
-        <v>77532.69013544396</v>
+        <v>89407.12625601939</v>
       </c>
       <c r="G27" t="n">
-        <v>81126.16256703984</v>
+        <v>95638.04257762256</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>27219191</v>
+        <v>25652488</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44595664</v>
+        <v>46540274</v>
       </c>
       <c r="E28" t="n">
-        <v>44595664</v>
+        <v>46540274</v>
       </c>
       <c r="F28" t="n">
-        <v>22363.64528644841</v>
+        <v>24503.00306171075</v>
       </c>
       <c r="G28" t="n">
-        <v>42939.11201968458</v>
+        <v>44487.31510569739</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>12321091</v>
+        <v>13760414</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>582783872</v>
+        <v>604102894</v>
       </c>
       <c r="E29" t="n">
-        <v>2257035953</v>
+        <v>2339601379</v>
       </c>
       <c r="F29" t="n">
-        <v>56134.82070277737</v>
+        <v>50020.49007013888</v>
       </c>
       <c r="G29" t="n">
-        <v>256127.3929637749</v>
+        <v>261100.9398369796</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>61745582</v>
+        <v>41169413</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>123166161</v>
+        <v>128546775</v>
       </c>
       <c r="E30" t="n">
-        <v>472485217</v>
+        <v>493126118</v>
       </c>
       <c r="F30" t="n">
-        <v>146637.6004032545</v>
+        <v>146629.2972103673</v>
       </c>
       <c r="G30" t="n">
-        <v>186702.4686517555</v>
+        <v>184640.2440295301</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>31202868</v>
+        <v>22623239</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42365651</v>
+        <v>35983652</v>
       </c>
       <c r="F31" t="n">
-        <v>17689.86313992348</v>
+        <v>8407.345000309335</v>
       </c>
       <c r="G31" t="n">
-        <v>17471.18490541677</v>
+        <v>18107.50722272795</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I31" t="n">
-        <v>12117957</v>
+        <v>15643966</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>92050397</v>
+        <v>98031575</v>
       </c>
       <c r="E32" t="n">
-        <v>340243039</v>
+        <v>362327184</v>
       </c>
       <c r="F32" t="n">
-        <v>9847.887806253751</v>
+        <v>8890.954845558133</v>
       </c>
       <c r="G32" t="n">
-        <v>8948.930774855662</v>
+        <v>8660.984200741615</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>333841</v>
+        <v>836957</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>468127720</v>
+        <v>479544324</v>
       </c>
       <c r="E33" t="n">
-        <v>1628687757</v>
+        <v>1668407863</v>
       </c>
       <c r="F33" t="n">
-        <v>225821.5865452627</v>
+        <v>235930.6532863655</v>
       </c>
       <c r="G33" t="n">
-        <v>279954.8780819513</v>
+        <v>288281.5962423075</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>48686443</v>
+        <v>39252117</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108998706</v>
+        <v>108550751</v>
       </c>
       <c r="E34" t="n">
-        <v>165145633</v>
+        <v>164466930</v>
       </c>
       <c r="F34" t="n">
-        <v>57301.98434390422</v>
+        <v>53841.60073468765</v>
       </c>
       <c r="G34" t="n">
-        <v>67915.8756234567</v>
+        <v>88891.38723534081</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>9136155</v>
+        <v>8262789</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2273522</v>
+        <v>2308913</v>
       </c>
       <c r="E35" t="n">
-        <v>9094087</v>
+        <v>9235652</v>
       </c>
       <c r="F35" t="n">
-        <v>38759.60703012134</v>
+        <v>86768.9430245832</v>
       </c>
       <c r="G35" t="n">
-        <v>81587.37346136691</v>
+        <v>55510.13740813548</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>8287041</v>
+        <v>8329999</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211563778</v>
+        <v>216744483</v>
       </c>
       <c r="E36" t="n">
-        <v>650479001</v>
+        <v>666407719</v>
       </c>
       <c r="F36" t="n">
-        <v>183164.894620747</v>
+        <v>158703.5194236704</v>
       </c>
       <c r="G36" t="n">
-        <v>216694.5557116917</v>
+        <v>225374.0719384698</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>20123242</v>
+        <v>15866166</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>139416963</v>
+        <v>140416091</v>
       </c>
       <c r="E37" t="n">
-        <v>364222948</v>
+        <v>366833142</v>
       </c>
       <c r="F37" t="n">
-        <v>45644.62704906239</v>
+        <v>38524.9340319767</v>
       </c>
       <c r="G37" t="n">
-        <v>42281.37918355894</v>
+        <v>63177.25705034351</v>
       </c>
       <c r="H37" t="n">
         <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>7112162</v>
+        <v>5471160</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>382251490</v>
+        <v>395034991</v>
       </c>
       <c r="E38" t="n">
-        <v>2184294230</v>
+        <v>2257342805</v>
       </c>
       <c r="F38" t="n">
-        <v>28640.45473984328</v>
+        <v>32937.95597108087</v>
       </c>
       <c r="G38" t="n">
-        <v>93331.60695079864</v>
+        <v>94685.50993611895</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>64046529</v>
+        <v>55230852</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>265935519</v>
+        <v>260628560</v>
       </c>
       <c r="E2" t="n">
-        <v>1667644259</v>
+        <v>1634365066</v>
       </c>
       <c r="F2" t="n">
-        <v>180630.2715032398</v>
+        <v>181311.1488705544</v>
       </c>
       <c r="G2" t="n">
-        <v>222558.6140029487</v>
+        <v>200968.5483176832</v>
       </c>
       <c r="H2" t="n">
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>28496941</v>
+        <v>22098549</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>148758722</v>
+        <v>148304136</v>
       </c>
       <c r="E3" t="n">
-        <v>164847912</v>
+        <v>164344159</v>
       </c>
       <c r="F3" t="n">
-        <v>56344.36047080194</v>
+        <v>72941.55533242808</v>
       </c>
       <c r="G3" t="n">
-        <v>188538.5455045023</v>
+        <v>185499.3153191767</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>39875108</v>
+        <v>32455850</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>580592868</v>
+        <v>582693299</v>
       </c>
       <c r="E4" t="n">
-        <v>726235386</v>
+        <v>728862713</v>
       </c>
       <c r="F4" t="n">
-        <v>104184.0673432793</v>
+        <v>122948.2093983224</v>
       </c>
       <c r="G4" t="n">
-        <v>143086.0518516557</v>
+        <v>135603.5626510029</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>82534671</v>
+        <v>67403883</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>154051203</v>
+        <v>150030776</v>
       </c>
       <c r="E5" t="n">
-        <v>154051203</v>
+        <v>150030776</v>
       </c>
       <c r="F5" t="n">
-        <v>56407.30001254987</v>
+        <v>70913.24526280278</v>
       </c>
       <c r="G5" t="n">
-        <v>115747.4519577709</v>
+        <v>99819.2277234397</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>102153352</v>
+        <v>100936086</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>265361137</v>
+        <v>260903235</v>
       </c>
       <c r="E6" t="n">
-        <v>265361137</v>
+        <v>260903235</v>
       </c>
       <c r="F6" t="n">
-        <v>49837.34541174172</v>
+        <v>68449.32118281447</v>
       </c>
       <c r="G6" t="n">
-        <v>117632.0660975007</v>
+        <v>101528.0663690912</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>22829696</v>
+        <v>18763426</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99024178</v>
+        <v>97169295</v>
       </c>
       <c r="E7" t="n">
-        <v>123471542</v>
+        <v>121158720</v>
       </c>
       <c r="F7" t="n">
-        <v>21316.24575863016</v>
+        <v>22534.43357358067</v>
       </c>
       <c r="G7" t="n">
-        <v>39982.68712435001</v>
+        <v>46776.01060550295</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11700237</v>
+        <v>10335141</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>93056908</v>
+        <v>87446157</v>
       </c>
       <c r="E8" t="n">
-        <v>194016179</v>
+        <v>185665504</v>
       </c>
       <c r="F8" t="n">
-        <v>27235.63280072679</v>
+        <v>34322.10480645613</v>
       </c>
       <c r="G8" t="n">
-        <v>59028.29117513411</v>
+        <v>62018.51877945763</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>50200250</v>
+        <v>36968944</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143017548</v>
+        <v>143980710</v>
       </c>
       <c r="E9" t="n">
-        <v>143088485</v>
+        <v>144057691</v>
       </c>
       <c r="F9" t="n">
-        <v>8746.197575020125</v>
+        <v>9471.176706501512</v>
       </c>
       <c r="G9" t="n">
-        <v>14309.50923626413</v>
+        <v>15175.34642962892</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>3128789</v>
+        <v>2742410</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>709958662</v>
+        <v>687302779</v>
       </c>
       <c r="E10" t="n">
-        <v>709958662</v>
+        <v>687302779</v>
       </c>
       <c r="F10" t="n">
-        <v>375140.8082360219</v>
+        <v>302526.7877210018</v>
       </c>
       <c r="G10" t="n">
-        <v>537725.1636754365</v>
+        <v>501076.5703900123</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>485902716</v>
+        <v>420202794</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>87173524</v>
+        <v>80475634</v>
       </c>
       <c r="E11" t="n">
-        <v>100020515</v>
+        <v>92335539</v>
       </c>
       <c r="F11" t="n">
-        <v>3555.269126386446</v>
+        <v>3463.37958764108</v>
       </c>
       <c r="G11" t="n">
-        <v>1309.956930117491</v>
+        <v>2132.212088798812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2400970</v>
+        <v>2186832</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>273872879</v>
+        <v>267971532</v>
       </c>
       <c r="E12" t="n">
-        <v>1182187382</v>
+        <v>1156713894</v>
       </c>
       <c r="F12" t="n">
-        <v>298928.5189808955</v>
+        <v>350793.066090534</v>
       </c>
       <c r="G12" t="n">
-        <v>358859.7008751362</v>
+        <v>364780.3527400721</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>93049593</v>
+        <v>70990354</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116191762</v>
+        <v>115952716</v>
       </c>
       <c r="E13" t="n">
-        <v>116191762</v>
+        <v>115952716</v>
       </c>
       <c r="F13" t="n">
-        <v>2198.021031415321</v>
+        <v>2603.636788624302</v>
       </c>
       <c r="G13" t="n">
-        <v>8390.367452084998</v>
+        <v>9730.132482043524</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>10478556</v>
+        <v>9762893</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16160464</v>
+        <v>16188393</v>
       </c>
       <c r="E14" t="n">
-        <v>40401159</v>
+        <v>40470982</v>
       </c>
       <c r="F14" t="n">
-        <v>12114.04084210835</v>
+        <v>7226.153254273898</v>
       </c>
       <c r="G14" t="n">
-        <v>21088.75093703575</v>
+        <v>14106.50832399846</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>4446276</v>
+        <v>2370035</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12805672</v>
+        <v>12662165</v>
       </c>
       <c r="E15" t="n">
-        <v>18830499</v>
+        <v>18619474</v>
       </c>
       <c r="F15" t="n">
-        <v>3378.531432034299</v>
+        <v>3262.305808465689</v>
       </c>
       <c r="G15" t="n">
-        <v>3843.288227271629</v>
+        <v>11842.80212351998</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>4168877</v>
+        <v>1471309</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28865621</v>
+        <v>31019822</v>
       </c>
       <c r="E16" t="n">
-        <v>89878282</v>
+        <v>96585773</v>
       </c>
       <c r="F16" t="n">
-        <v>13170.2272547486</v>
+        <v>10167.73794043401</v>
       </c>
       <c r="G16" t="n">
-        <v>16313.58450715353</v>
+        <v>13114.97116729475</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>11332302</v>
+        <v>10391511</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>329988035</v>
+        <v>327320756</v>
       </c>
       <c r="E17" t="n">
-        <v>2968776981</v>
+        <v>2944780485</v>
       </c>
       <c r="F17" t="n">
-        <v>4297.254437069993</v>
+        <v>969700.5584440083</v>
       </c>
       <c r="G17" t="n">
-        <v>7579.39961352619</v>
+        <v>1090049.695996935</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>56902614</v>
+        <v>37281060</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15756375</v>
+        <v>15010045</v>
       </c>
       <c r="E18" t="n">
-        <v>96576002</v>
+        <v>92001499</v>
       </c>
       <c r="F18" t="n">
-        <v>31111.11337689551</v>
+        <v>34328.34801264115</v>
       </c>
       <c r="G18" t="n">
-        <v>36360.60983647381</v>
+        <v>36910.43665227047</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>12371273</v>
+        <v>11752048</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54770443</v>
+        <v>49513447</v>
       </c>
       <c r="E19" t="n">
-        <v>235945082</v>
+        <v>213298517</v>
       </c>
       <c r="F19" t="n">
-        <v>54039.79575603161</v>
+        <v>52685.17332050606</v>
       </c>
       <c r="G19" t="n">
-        <v>68325.77242207006</v>
+        <v>71562.67211220977</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>14345481</v>
+        <v>13443347</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>314641519</v>
+        <v>304983036</v>
       </c>
       <c r="E20" t="n">
-        <v>314641519</v>
+        <v>304983036</v>
       </c>
       <c r="F20" t="n">
-        <v>93805.4740898911</v>
+        <v>93447.85123463761</v>
       </c>
       <c r="G20" t="n">
-        <v>117886.9612194512</v>
+        <v>120365.5938740296</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>81673138</v>
+        <v>71520606</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31923996</v>
+        <v>35399963</v>
       </c>
       <c r="E21" t="n">
-        <v>142936824</v>
+        <v>158500155</v>
       </c>
       <c r="F21" t="n">
-        <v>26428.17460023199</v>
+        <v>28073.72230363493</v>
       </c>
       <c r="G21" t="n">
-        <v>73618.12104787672</v>
+        <v>72884.86792331499</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>17628457</v>
+        <v>25136242</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50679664</v>
+        <v>50412671</v>
       </c>
       <c r="E22" t="n">
-        <v>328644131</v>
+        <v>326912757</v>
       </c>
       <c r="F22" t="n">
-        <v>9222.752511284538</v>
+        <v>7064.600522560596</v>
       </c>
       <c r="G22" t="n">
-        <v>96859.93723058334</v>
+        <v>100475.3617419259</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>18596117</v>
+        <v>18412165</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124004577</v>
+        <v>123546546</v>
       </c>
       <c r="E23" t="n">
-        <v>2053617358</v>
+        <v>2046031989</v>
       </c>
       <c r="F23" t="n">
-        <v>373903.9324969571</v>
+        <v>20719.69810854</v>
       </c>
       <c r="G23" t="n">
-        <v>348457.0151216001</v>
+        <v>5693.338723029999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>116986955</v>
+        <v>90695375</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6365481</v>
+        <v>6295410</v>
       </c>
       <c r="E24" t="n">
-        <v>32748467</v>
+        <v>32387971</v>
       </c>
       <c r="F24" t="n">
-        <v>2325.804262414018</v>
+        <v>4335.236758569705</v>
       </c>
       <c r="G24" t="n">
-        <v>1080.674676601885</v>
+        <v>7619.655904544663</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.49</v>
       </c>
       <c r="I24" t="n">
-        <v>943384</v>
+        <v>862340</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23872956</v>
+        <v>24755705</v>
       </c>
       <c r="E25" t="n">
-        <v>23872956</v>
+        <v>24755705</v>
       </c>
       <c r="F25" t="n">
-        <v>4656.343643691728</v>
+        <v>4606.091451139067</v>
       </c>
       <c r="G25" t="n">
-        <v>14377.56878239147</v>
+        <v>11793.88798225382</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>1784009</v>
+        <v>1800792</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>304059384</v>
+        <v>298412537</v>
       </c>
       <c r="E27" t="n">
-        <v>562579200</v>
+        <v>552131245</v>
       </c>
       <c r="F27" t="n">
-        <v>89407.12625601939</v>
+        <v>92552.45107167834</v>
       </c>
       <c r="G27" t="n">
-        <v>95638.04257762256</v>
+        <v>93962.44686735923</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>25652488</v>
+        <v>17232513</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46540274</v>
+        <v>46058319</v>
       </c>
       <c r="E28" t="n">
-        <v>46540274</v>
+        <v>46058319</v>
       </c>
       <c r="F28" t="n">
-        <v>24503.00306171075</v>
+        <v>29364.83068016561</v>
       </c>
       <c r="G28" t="n">
-        <v>44487.31510569739</v>
+        <v>41266.90874072983</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>13760414</v>
+        <v>13239910</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>604102894</v>
+        <v>598371107</v>
       </c>
       <c r="E29" t="n">
-        <v>2339601379</v>
+        <v>2317403014</v>
       </c>
       <c r="F29" t="n">
-        <v>50020.49007013888</v>
+        <v>72553.79642540452</v>
       </c>
       <c r="G29" t="n">
-        <v>261100.9398369796</v>
+        <v>278827.9807476145</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>41169413</v>
+        <v>25147688</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>128546775</v>
+        <v>127343786</v>
       </c>
       <c r="E30" t="n">
-        <v>493126118</v>
+        <v>488511261</v>
       </c>
       <c r="F30" t="n">
-        <v>146629.2972103673</v>
+        <v>145300.5051637076</v>
       </c>
       <c r="G30" t="n">
-        <v>184640.2440295301</v>
+        <v>189752.5602508539</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>22623239</v>
+        <v>19286312</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35983652</v>
+        <v>37742232</v>
       </c>
       <c r="F31" t="n">
-        <v>8407.345000309335</v>
+        <v>12251.05122441938</v>
       </c>
       <c r="G31" t="n">
-        <v>18107.50722272795</v>
+        <v>339367.6602155978</v>
       </c>
       <c r="H31" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>15643966</v>
+        <v>14213042</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>98031575</v>
+        <v>99604136</v>
       </c>
       <c r="E32" t="n">
-        <v>362327184</v>
+        <v>366862595</v>
       </c>
       <c r="F32" t="n">
-        <v>8890.954845558133</v>
+        <v>9059.583039371617</v>
       </c>
       <c r="G32" t="n">
-        <v>8660.984200741615</v>
+        <v>9219.780423294755</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I32" t="n">
-        <v>836957</v>
+        <v>839289</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>479544324</v>
+        <v>478534350</v>
       </c>
       <c r="E33" t="n">
-        <v>1668407863</v>
+        <v>1664050629</v>
       </c>
       <c r="F33" t="n">
-        <v>235930.6532863655</v>
+        <v>245507.9183789396</v>
       </c>
       <c r="G33" t="n">
-        <v>288281.5962423075</v>
+        <v>279817.0054626813</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>39252117</v>
+        <v>28085655</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108550751</v>
+        <v>109979242</v>
       </c>
       <c r="E34" t="n">
-        <v>164466930</v>
+        <v>166631258</v>
       </c>
       <c r="F34" t="n">
-        <v>53841.60073468765</v>
+        <v>56555.21985731809</v>
       </c>
       <c r="G34" t="n">
-        <v>88891.38723534081</v>
+        <v>70617.91217849792</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>8262789</v>
+        <v>7478799</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2308913</v>
+        <v>2243477</v>
       </c>
       <c r="E35" t="n">
-        <v>9235652</v>
+        <v>8973907</v>
       </c>
       <c r="F35" t="n">
-        <v>86768.9430245832</v>
+        <v>65199.44676507193</v>
       </c>
       <c r="G35" t="n">
-        <v>55510.13740813548</v>
+        <v>73435.06723842169</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>8329999</v>
+        <v>6741974</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216744483</v>
+        <v>228488299</v>
       </c>
       <c r="E36" t="n">
-        <v>666407719</v>
+        <v>702515535</v>
       </c>
       <c r="F36" t="n">
-        <v>158703.5194236704</v>
+        <v>91277.89993215963</v>
       </c>
       <c r="G36" t="n">
-        <v>225374.0719384698</v>
+        <v>208289.9510829212</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>15866166</v>
+        <v>31171830</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>140416091</v>
+        <v>133951699</v>
       </c>
       <c r="E37" t="n">
-        <v>366833142</v>
+        <v>349945095</v>
       </c>
       <c r="F37" t="n">
-        <v>38524.9340319767</v>
+        <v>40603.67071502008</v>
       </c>
       <c r="G37" t="n">
-        <v>63177.25705034351</v>
+        <v>34656.75929188315</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>5471160</v>
+        <v>3772586</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>395034991</v>
+        <v>387255382</v>
       </c>
       <c r="E38" t="n">
-        <v>2257342805</v>
+        <v>2212887897</v>
       </c>
       <c r="F38" t="n">
-        <v>32937.95597108087</v>
+        <v>21437.52313555828</v>
       </c>
       <c r="G38" t="n">
-        <v>94685.50993611895</v>
+        <v>94823.88008377707</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>55230852</v>
+        <v>42019621</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>260628560</v>
+        <v>258770325</v>
       </c>
       <c r="E2" t="n">
-        <v>1634365066</v>
+        <v>1622712338</v>
       </c>
       <c r="F2" t="n">
-        <v>181311.1488705544</v>
+        <v>186694.3341424596</v>
       </c>
       <c r="G2" t="n">
-        <v>200968.5483176832</v>
+        <v>216854.4701024092</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>22098549</v>
+        <v>20548554</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>148304136</v>
+        <v>150138524</v>
       </c>
       <c r="E3" t="n">
-        <v>164344159</v>
+        <v>166376948</v>
       </c>
       <c r="F3" t="n">
-        <v>72941.55533242808</v>
+        <v>67282.5201680506</v>
       </c>
       <c r="G3" t="n">
-        <v>185499.3153191767</v>
+        <v>187996.0723607881</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>32455850</v>
+        <v>31198466</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>582693299</v>
+        <v>580939787</v>
       </c>
       <c r="E4" t="n">
-        <v>728862713</v>
+        <v>726669330</v>
       </c>
       <c r="F4" t="n">
-        <v>122948.2093983224</v>
+        <v>116909.8671316325</v>
       </c>
       <c r="G4" t="n">
-        <v>135603.5626510029</v>
+        <v>146895.8157584415</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>67403883</v>
+        <v>66750357</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150030776</v>
+        <v>149020758</v>
       </c>
       <c r="E5" t="n">
-        <v>150030776</v>
+        <v>149020758</v>
       </c>
       <c r="F5" t="n">
-        <v>70913.24526280278</v>
+        <v>67223.37692023629</v>
       </c>
       <c r="G5" t="n">
-        <v>99819.2277234397</v>
+        <v>97513.07349040084</v>
       </c>
       <c r="H5" t="n">
         <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>100936086</v>
+        <v>98005184</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>260903235</v>
+        <v>262366680</v>
       </c>
       <c r="E6" t="n">
-        <v>260903235</v>
+        <v>262366680</v>
       </c>
       <c r="F6" t="n">
-        <v>68449.32118281447</v>
+        <v>64871.18038203334</v>
       </c>
       <c r="G6" t="n">
-        <v>101528.0663690912</v>
+        <v>95583.12994112923</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>18763426</v>
+        <v>12977620</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97169295</v>
+        <v>101079888</v>
       </c>
       <c r="E7" t="n">
-        <v>121158720</v>
+        <v>126034771</v>
       </c>
       <c r="F7" t="n">
-        <v>22534.43357358067</v>
+        <v>23767.45302238286</v>
       </c>
       <c r="G7" t="n">
-        <v>46776.01060550295</v>
+        <v>48614.81561369958</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>10335141</v>
+        <v>13614251</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87446157</v>
+        <v>88136435</v>
       </c>
       <c r="E8" t="n">
-        <v>185665504</v>
+        <v>183757389</v>
       </c>
       <c r="F8" t="n">
-        <v>34322.10480645613</v>
+        <v>48220.74112091663</v>
       </c>
       <c r="G8" t="n">
-        <v>62018.51877945763</v>
+        <v>56565.04589293232</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>36968944</v>
+        <v>31940798</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143980710</v>
+        <v>142769763</v>
       </c>
       <c r="E9" t="n">
-        <v>144057691</v>
+        <v>142847736</v>
       </c>
       <c r="F9" t="n">
-        <v>9471.176706501512</v>
+        <v>7795.141720759828</v>
       </c>
       <c r="G9" t="n">
-        <v>15175.34642962892</v>
+        <v>16916.34108442899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2742410</v>
+        <v>3095729</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>687302779</v>
+        <v>677874279</v>
       </c>
       <c r="E10" t="n">
-        <v>687302779</v>
+        <v>677874279</v>
       </c>
       <c r="F10" t="n">
-        <v>302526.7877210018</v>
+        <v>315715.1543705759</v>
       </c>
       <c r="G10" t="n">
-        <v>501076.5703900123</v>
+        <v>493164.3416807318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I10" t="n">
-        <v>420202794</v>
+        <v>401530947</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80475634</v>
+        <v>81937613</v>
       </c>
       <c r="E11" t="n">
-        <v>92335539</v>
+        <v>94012974</v>
       </c>
       <c r="F11" t="n">
-        <v>3463.37958764108</v>
+        <v>6285.576952127073</v>
       </c>
       <c r="G11" t="n">
-        <v>2132.212088798812</v>
+        <v>2338.712018760304</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I11" t="n">
-        <v>2186832</v>
+        <v>2231326</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267971532</v>
+        <v>272515072</v>
       </c>
       <c r="E12" t="n">
-        <v>1156713894</v>
+        <v>1176326337</v>
       </c>
       <c r="F12" t="n">
-        <v>350793.066090534</v>
+        <v>315790.2518804356</v>
       </c>
       <c r="G12" t="n">
-        <v>364780.3527400721</v>
+        <v>403240.8109849597</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>70990354</v>
+        <v>70137652</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115952716</v>
+        <v>116966700</v>
       </c>
       <c r="E13" t="n">
-        <v>115952716</v>
+        <v>116966700</v>
       </c>
       <c r="F13" t="n">
-        <v>2603.636788624302</v>
+        <v>5539.169390745262</v>
       </c>
       <c r="G13" t="n">
-        <v>9730.132482043524</v>
+        <v>6393.502405260614</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="I13" t="n">
-        <v>9762893</v>
+        <v>7142875</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16188393</v>
+        <v>15870081</v>
       </c>
       <c r="E14" t="n">
-        <v>40470982</v>
+        <v>39675203</v>
       </c>
       <c r="F14" t="n">
-        <v>7226.153254273898</v>
+        <v>17766.09686010749</v>
       </c>
       <c r="G14" t="n">
-        <v>14106.50832399846</v>
+        <v>10228.6345935123</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2370035</v>
+        <v>2344313</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12662165</v>
+        <v>12700421</v>
       </c>
       <c r="E15" t="n">
-        <v>18619474</v>
+        <v>18675729</v>
       </c>
       <c r="F15" t="n">
-        <v>3262.305808465689</v>
+        <v>2918.780661727655</v>
       </c>
       <c r="G15" t="n">
-        <v>11842.80212351998</v>
+        <v>4051.457449185987</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>1471309</v>
+        <v>2737528</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31019822</v>
+        <v>29794868</v>
       </c>
       <c r="E16" t="n">
-        <v>96585773</v>
+        <v>92771659</v>
       </c>
       <c r="F16" t="n">
-        <v>10167.73794043401</v>
+        <v>10001.64863871508</v>
       </c>
       <c r="G16" t="n">
-        <v>13114.97116729475</v>
+        <v>16722.31432543956</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I16" t="n">
-        <v>10391511</v>
+        <v>10329831</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>327320756</v>
+        <v>332701183</v>
       </c>
       <c r="E17" t="n">
-        <v>2944780485</v>
+        <v>2993186145</v>
       </c>
       <c r="F17" t="n">
-        <v>969700.5584440083</v>
+        <v>1000176.195887627</v>
       </c>
       <c r="G17" t="n">
-        <v>1090049.695996935</v>
+        <v>1077426.781775734</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37281060</v>
+        <v>32357327</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15010045</v>
+        <v>15018992</v>
       </c>
       <c r="E18" t="n">
-        <v>92001499</v>
+        <v>92056343</v>
       </c>
       <c r="F18" t="n">
-        <v>34328.34801264115</v>
+        <v>33512.39965005017</v>
       </c>
       <c r="G18" t="n">
-        <v>36910.43665227047</v>
+        <v>46889.23452132633</v>
       </c>
       <c r="H18" t="n">
         <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>11752048</v>
+        <v>11286758</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49513447</v>
+        <v>50139979</v>
       </c>
       <c r="E19" t="n">
-        <v>213298517</v>
+        <v>215997547</v>
       </c>
       <c r="F19" t="n">
-        <v>52685.17332050606</v>
+        <v>68676.65570438041</v>
       </c>
       <c r="G19" t="n">
-        <v>71562.67211220977</v>
+        <v>73569.16086945684</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>13443347</v>
+        <v>11468258</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>304983036</v>
+        <v>310432011</v>
       </c>
       <c r="E20" t="n">
-        <v>304983036</v>
+        <v>310432011</v>
       </c>
       <c r="F20" t="n">
-        <v>93447.85123463761</v>
+        <v>100320.3607839004</v>
       </c>
       <c r="G20" t="n">
-        <v>120365.5938740296</v>
+        <v>116692.9883742022</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>71520606</v>
+        <v>62956573</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35399963</v>
+        <v>33576540</v>
       </c>
       <c r="E21" t="n">
-        <v>158500155</v>
+        <v>150335942</v>
       </c>
       <c r="F21" t="n">
-        <v>28073.72230363493</v>
+        <v>40890.21508733076</v>
       </c>
       <c r="G21" t="n">
-        <v>72884.86792331499</v>
+        <v>76135.72874767819</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>25136242</v>
+        <v>26009071</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50412671</v>
+        <v>50788502</v>
       </c>
       <c r="E22" t="n">
-        <v>326912757</v>
+        <v>329349920</v>
       </c>
       <c r="F22" t="n">
-        <v>7064.600522560596</v>
+        <v>8531.149662283917</v>
       </c>
       <c r="G22" t="n">
-        <v>100475.3617419259</v>
+        <v>102580.740095834</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>18412165</v>
+        <v>19204562</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123546546</v>
+        <v>123761473</v>
       </c>
       <c r="E23" t="n">
-        <v>2046031989</v>
+        <v>2049591352</v>
       </c>
       <c r="F23" t="n">
-        <v>20719.69810854</v>
+        <v>369513.8343382332</v>
       </c>
       <c r="G23" t="n">
-        <v>5693.338723029999</v>
+        <v>340639.6994312982</v>
       </c>
       <c r="H23" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>90695375</v>
+        <v>57506921</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6295410</v>
+        <v>6367619</v>
       </c>
       <c r="E24" t="n">
-        <v>32387971</v>
+        <v>32759464</v>
       </c>
       <c r="F24" t="n">
-        <v>4335.236758569705</v>
+        <v>3655.277170501121</v>
       </c>
       <c r="G24" t="n">
-        <v>7619.655904544663</v>
+        <v>1139.31971187359</v>
       </c>
       <c r="H24" t="n">
-        <v>0.49</v>
+        <v>0.21</v>
       </c>
       <c r="I24" t="n">
-        <v>862340</v>
+        <v>879661</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24755705</v>
+        <v>25680648</v>
       </c>
       <c r="E25" t="n">
-        <v>24755705</v>
+        <v>25680648</v>
       </c>
       <c r="F25" t="n">
-        <v>4606.091451139067</v>
+        <v>17527.87129759836</v>
       </c>
       <c r="G25" t="n">
-        <v>11793.88798225382</v>
+        <v>8197.870538879301</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I25" t="n">
-        <v>1800792</v>
+        <v>2021643</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>298412537</v>
+        <v>305476882</v>
       </c>
       <c r="E27" t="n">
-        <v>552131245</v>
+        <v>565201894</v>
       </c>
       <c r="F27" t="n">
-        <v>92552.45107167834</v>
+        <v>90545.6229298148</v>
       </c>
       <c r="G27" t="n">
-        <v>93962.44686735923</v>
+        <v>95219.19597056812</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>17232513</v>
+        <v>12790856</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46058319</v>
+        <v>46157945</v>
       </c>
       <c r="E28" t="n">
-        <v>46058319</v>
+        <v>46157945</v>
       </c>
       <c r="F28" t="n">
-        <v>29364.83068016561</v>
+        <v>38748.36675141029</v>
       </c>
       <c r="G28" t="n">
-        <v>41266.90874072983</v>
+        <v>42078.93384353451</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>13239910</v>
+        <v>11366177</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>598371107</v>
+        <v>604319382</v>
       </c>
       <c r="E29" t="n">
-        <v>2317403014</v>
+        <v>2340439806</v>
       </c>
       <c r="F29" t="n">
-        <v>72553.79642540452</v>
+        <v>62168.70530157755</v>
       </c>
       <c r="G29" t="n">
-        <v>278827.9807476145</v>
+        <v>353688.9459083967</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>25147688</v>
+        <v>24775116</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>127343786</v>
+        <v>128082188</v>
       </c>
       <c r="E30" t="n">
-        <v>488511261</v>
+        <v>491343888</v>
       </c>
       <c r="F30" t="n">
-        <v>145300.5051637076</v>
+        <v>155982.3337828384</v>
       </c>
       <c r="G30" t="n">
-        <v>189752.5602508539</v>
+        <v>183967.8463492935</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>19286312</v>
+        <v>19119756</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>37742232</v>
+        <v>37840717</v>
       </c>
       <c r="F31" t="n">
-        <v>12251.05122441938</v>
+        <v>15836.71365978232</v>
       </c>
       <c r="G31" t="n">
-        <v>339367.6602155978</v>
+        <v>296870.532327527</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>14213042</v>
+        <v>12263615</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>99604136</v>
+        <v>101865977</v>
       </c>
       <c r="E32" t="n">
-        <v>366862595</v>
+        <v>375182657</v>
       </c>
       <c r="F32" t="n">
-        <v>9059.583039371617</v>
+        <v>9178.670166890055</v>
       </c>
       <c r="G32" t="n">
-        <v>9219.780423294755</v>
+        <v>9097.905821223931</v>
       </c>
       <c r="H32" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>839289</v>
+        <v>919612</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>478534350</v>
+        <v>478127015</v>
       </c>
       <c r="E33" t="n">
-        <v>1664050629</v>
+        <v>1662634165</v>
       </c>
       <c r="F33" t="n">
-        <v>245507.9183789396</v>
+        <v>239973.6571990522</v>
       </c>
       <c r="G33" t="n">
-        <v>279817.0054626813</v>
+        <v>281012.5361443887</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>28085655</v>
+        <v>24529702</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>109979242</v>
+        <v>110276602</v>
       </c>
       <c r="E34" t="n">
-        <v>166631258</v>
+        <v>167081793</v>
       </c>
       <c r="F34" t="n">
-        <v>56555.21985731809</v>
+        <v>54909.13099690947</v>
       </c>
       <c r="G34" t="n">
-        <v>70617.91217849792</v>
+        <v>70231.30274916036</v>
       </c>
       <c r="H34" t="n">
         <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>7478799</v>
+        <v>6777018</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2243477</v>
+        <v>2237031</v>
       </c>
       <c r="E35" t="n">
-        <v>8973907</v>
+        <v>8948125</v>
       </c>
       <c r="F35" t="n">
-        <v>65199.44676507193</v>
+        <v>15239.97735828874</v>
       </c>
       <c r="G35" t="n">
-        <v>73435.06723842169</v>
+        <v>69927.36332602966</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>6741974</v>
+        <v>6043228</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>228488299</v>
+        <v>226524677</v>
       </c>
       <c r="E36" t="n">
-        <v>702515535</v>
+        <v>696478135</v>
       </c>
       <c r="F36" t="n">
-        <v>91277.89993215963</v>
+        <v>81054.40219555845</v>
       </c>
       <c r="G36" t="n">
-        <v>208289.9510829212</v>
+        <v>219410.0830862797</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>31171830</v>
+        <v>33626499</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>133951699</v>
+        <v>136494143</v>
       </c>
       <c r="E37" t="n">
-        <v>349945095</v>
+        <v>356587162</v>
       </c>
       <c r="F37" t="n">
-        <v>40603.67071502008</v>
+        <v>40917.48723931858</v>
       </c>
       <c r="G37" t="n">
-        <v>34656.75929188315</v>
+        <v>37841.16870075938</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>3772586</v>
+        <v>3695813</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>387255382</v>
+        <v>396453173</v>
       </c>
       <c r="E38" t="n">
-        <v>2212887897</v>
+        <v>2265446703</v>
       </c>
       <c r="F38" t="n">
-        <v>21437.52313555828</v>
+        <v>22400.58939048321</v>
       </c>
       <c r="G38" t="n">
-        <v>94823.88008377707</v>
+        <v>94284.08391839812</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I38" t="n">
-        <v>42019621</v>
+        <v>41406458</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>258770325</v>
+        <v>250116662</v>
       </c>
       <c r="E2" t="n">
-        <v>1622712338</v>
+        <v>1568446428</v>
       </c>
       <c r="F2" t="n">
-        <v>186694.3341424596</v>
+        <v>190981.0002718008</v>
       </c>
       <c r="G2" t="n">
-        <v>216854.4701024092</v>
+        <v>210890.1930038523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>20548554</v>
+        <v>16445509</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>150138524</v>
+        <v>142585954</v>
       </c>
       <c r="E3" t="n">
-        <v>166376948</v>
+        <v>158007520</v>
       </c>
       <c r="F3" t="n">
-        <v>67282.5201680506</v>
+        <v>60512.8607039266</v>
       </c>
       <c r="G3" t="n">
-        <v>187996.0723607881</v>
+        <v>187798.1206157052</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>31198466</v>
+        <v>30263898</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>580939787</v>
+        <v>566558499</v>
       </c>
       <c r="E4" t="n">
-        <v>726669330</v>
+        <v>708680477</v>
       </c>
       <c r="F4" t="n">
-        <v>116909.8671316325</v>
+        <v>121730.1655103602</v>
       </c>
       <c r="G4" t="n">
-        <v>146895.8157584415</v>
+        <v>137087.8499566163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>66750357</v>
+        <v>44339821</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149020758</v>
+        <v>143046972</v>
       </c>
       <c r="E5" t="n">
-        <v>149020758</v>
+        <v>143046972</v>
       </c>
       <c r="F5" t="n">
-        <v>67223.37692023629</v>
+        <v>80723.60958629614</v>
       </c>
       <c r="G5" t="n">
-        <v>97513.07349040084</v>
+        <v>108163.4419501689</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>98005184</v>
+        <v>75301691</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>262366680</v>
+        <v>250473178</v>
       </c>
       <c r="E6" t="n">
-        <v>262366680</v>
+        <v>250473178</v>
       </c>
       <c r="F6" t="n">
-        <v>64871.18038203334</v>
+        <v>53436.03932482807</v>
       </c>
       <c r="G6" t="n">
-        <v>95583.12994112923</v>
+        <v>93282.98373085001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>12977620</v>
+        <v>11554427</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101079888</v>
+        <v>105602836</v>
       </c>
       <c r="E7" t="n">
-        <v>126034771</v>
+        <v>131674357</v>
       </c>
       <c r="F7" t="n">
-        <v>23767.45302238286</v>
+        <v>13691.96530840558</v>
       </c>
       <c r="G7" t="n">
-        <v>48614.81561369958</v>
+        <v>60205.46730370212</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>13614251</v>
+        <v>74705686</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>88136435</v>
+        <v>82810392</v>
       </c>
       <c r="E8" t="n">
-        <v>183757389</v>
+        <v>172653017</v>
       </c>
       <c r="F8" t="n">
-        <v>48220.74112091663</v>
+        <v>50258.42106064929</v>
       </c>
       <c r="G8" t="n">
-        <v>56565.04589293232</v>
+        <v>54132.4828741291</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>31940798</v>
+        <v>23299061</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142769763</v>
+        <v>141566700</v>
       </c>
       <c r="E9" t="n">
-        <v>142847736</v>
+        <v>141651180</v>
       </c>
       <c r="F9" t="n">
-        <v>7795.141720759828</v>
+        <v>8115.810453218886</v>
       </c>
       <c r="G9" t="n">
-        <v>16916.34108442899</v>
+        <v>16340.12985457702</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>3095729</v>
+        <v>2970130</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>677874279</v>
+        <v>658749788</v>
       </c>
       <c r="E10" t="n">
-        <v>677874279</v>
+        <v>658749788</v>
       </c>
       <c r="F10" t="n">
-        <v>315715.1543705759</v>
+        <v>346851.9673602793</v>
       </c>
       <c r="G10" t="n">
-        <v>493164.3416807318</v>
+        <v>484523.2524202118</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>401530947</v>
+        <v>287109021</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81937613</v>
+        <v>79957505</v>
       </c>
       <c r="E11" t="n">
-        <v>94012974</v>
+        <v>91741052</v>
       </c>
       <c r="F11" t="n">
-        <v>6285.576952127073</v>
+        <v>13282.27549320616</v>
       </c>
       <c r="G11" t="n">
-        <v>2338.712018760304</v>
+        <v>1666.440782498573</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="I11" t="n">
-        <v>2231326</v>
+        <v>1521692</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>272515072</v>
+        <v>266083191</v>
       </c>
       <c r="E12" t="n">
-        <v>1176326337</v>
+        <v>1148562766</v>
       </c>
       <c r="F12" t="n">
-        <v>315790.2518804356</v>
+        <v>302102.8328545292</v>
       </c>
       <c r="G12" t="n">
-        <v>403240.8109849597</v>
+        <v>401034.9710960886</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>70137652</v>
+        <v>66331362</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116966700</v>
+        <v>114360146</v>
       </c>
       <c r="E13" t="n">
-        <v>116966700</v>
+        <v>114360146</v>
       </c>
       <c r="F13" t="n">
-        <v>5539.169390745262</v>
+        <v>6458.24632623133</v>
       </c>
       <c r="G13" t="n">
-        <v>6393.502405260614</v>
+        <v>3282.223984980918</v>
       </c>
       <c r="H13" t="n">
-        <v>0.39</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>7142875</v>
+        <v>6070511</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15870081</v>
+        <v>14244326</v>
       </c>
       <c r="E14" t="n">
-        <v>39675203</v>
+        <v>35610815</v>
       </c>
       <c r="F14" t="n">
-        <v>17766.09686010749</v>
+        <v>10290.52104889985</v>
       </c>
       <c r="G14" t="n">
-        <v>10228.6345935123</v>
+        <v>14729.48991132282</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>2344313</v>
+        <v>2309468</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12700421</v>
+        <v>12877212</v>
       </c>
       <c r="E15" t="n">
-        <v>18675729</v>
+        <v>18935698</v>
       </c>
       <c r="F15" t="n">
-        <v>2918.780661727655</v>
+        <v>1924.743334255106</v>
       </c>
       <c r="G15" t="n">
-        <v>4051.457449185987</v>
+        <v>8043.957846330552</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>2737528</v>
+        <v>2011909</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29794868</v>
+        <v>28901126</v>
       </c>
       <c r="E16" t="n">
-        <v>92771659</v>
+        <v>89988833</v>
       </c>
       <c r="F16" t="n">
-        <v>10001.64863871508</v>
+        <v>12442.26419224596</v>
       </c>
       <c r="G16" t="n">
-        <v>16722.31432543956</v>
+        <v>23909.34469314557</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>10329831</v>
+        <v>9671970</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>332701183</v>
+        <v>325886672</v>
       </c>
       <c r="E17" t="n">
-        <v>2993186145</v>
+        <v>2931878573</v>
       </c>
       <c r="F17" t="n">
-        <v>1000176.195887627</v>
+        <v>1036614.336721415</v>
       </c>
       <c r="G17" t="n">
-        <v>1077426.781775734</v>
+        <v>1089224.346379328</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>32357327</v>
+        <v>27433816</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15018992</v>
+        <v>14967965</v>
       </c>
       <c r="E18" t="n">
-        <v>92056343</v>
+        <v>91743582</v>
       </c>
       <c r="F18" t="n">
-        <v>33512.39965005017</v>
+        <v>29276.25247063175</v>
       </c>
       <c r="G18" t="n">
-        <v>46889.23452132633</v>
+        <v>44901.20086120939</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11286758</v>
+        <v>10851956</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50139979</v>
+        <v>48745240</v>
       </c>
       <c r="E19" t="n">
-        <v>215997547</v>
+        <v>209989163</v>
       </c>
       <c r="F19" t="n">
-        <v>68676.65570438041</v>
+        <v>54989.83044508089</v>
       </c>
       <c r="G19" t="n">
-        <v>73569.16086945684</v>
+        <v>76671.42474723481</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>11468258</v>
+        <v>10169690</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>310432011</v>
+        <v>298700913</v>
       </c>
       <c r="E20" t="n">
-        <v>310432011</v>
+        <v>298700913</v>
       </c>
       <c r="F20" t="n">
-        <v>100320.3607839004</v>
+        <v>90250.17355231437</v>
       </c>
       <c r="G20" t="n">
-        <v>116692.9883742022</v>
+        <v>111222.0339803066</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>62956573</v>
+        <v>73405306</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33576540</v>
+        <v>30716461</v>
       </c>
       <c r="E21" t="n">
-        <v>150335942</v>
+        <v>137530199</v>
       </c>
       <c r="F21" t="n">
-        <v>40890.21508733076</v>
+        <v>36061.93215966748</v>
       </c>
       <c r="G21" t="n">
-        <v>76135.72874767819</v>
+        <v>64257.84076437473</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>26009071</v>
+        <v>25157329</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50788502</v>
+        <v>48410079</v>
       </c>
       <c r="E22" t="n">
-        <v>329349920</v>
+        <v>313926475</v>
       </c>
       <c r="F22" t="n">
-        <v>8531.149662283917</v>
+        <v>2913.669914937973</v>
       </c>
       <c r="G22" t="n">
-        <v>102580.740095834</v>
+        <v>94519.80301544876</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>19204562</v>
+        <v>19625370</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123761473</v>
+        <v>123477487</v>
       </c>
       <c r="E23" t="n">
-        <v>2049591352</v>
+        <v>2044888318</v>
       </c>
       <c r="F23" t="n">
-        <v>369513.8343382332</v>
+        <v>377228.3458644756</v>
       </c>
       <c r="G23" t="n">
-        <v>340639.6994312982</v>
+        <v>337901.1151097271</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>57506921</v>
+        <v>12951913</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6367619</v>
+        <v>6201411</v>
       </c>
       <c r="E24" t="n">
-        <v>32759464</v>
+        <v>31904377</v>
       </c>
       <c r="F24" t="n">
-        <v>3655.277170501121</v>
+        <v>1914.527712451542</v>
       </c>
       <c r="G24" t="n">
-        <v>1139.31971187359</v>
+        <v>3403.168059432719</v>
       </c>
       <c r="H24" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>879661</v>
+        <v>830341</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25680648</v>
+        <v>25412744</v>
       </c>
       <c r="E25" t="n">
-        <v>25680648</v>
+        <v>25412744</v>
       </c>
       <c r="F25" t="n">
-        <v>17527.87129759836</v>
+        <v>16554.42053638844</v>
       </c>
       <c r="G25" t="n">
-        <v>8197.870538879301</v>
+        <v>7097.157073350856</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2021643</v>
+        <v>1984399</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>305476882</v>
+        <v>293836755</v>
       </c>
       <c r="E27" t="n">
-        <v>565201894</v>
+        <v>543665005</v>
       </c>
       <c r="F27" t="n">
-        <v>90545.6229298148</v>
+        <v>90355.3617496462</v>
       </c>
       <c r="G27" t="n">
-        <v>95219.19597056812</v>
+        <v>94368.6196685997</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>12790856</v>
+        <v>11897117</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46157945</v>
+        <v>44506458</v>
       </c>
       <c r="E28" t="n">
-        <v>46157945</v>
+        <v>44506458</v>
       </c>
       <c r="F28" t="n">
-        <v>38748.36675141029</v>
+        <v>33622.66279958964</v>
       </c>
       <c r="G28" t="n">
-        <v>42078.93384353451</v>
+        <v>41431.52902702148</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>11366177</v>
+        <v>9018517</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>604319382</v>
+        <v>595987667</v>
       </c>
       <c r="E29" t="n">
-        <v>2340439806</v>
+        <v>2308172304</v>
       </c>
       <c r="F29" t="n">
-        <v>62168.70530157755</v>
+        <v>113916.9772143871</v>
       </c>
       <c r="G29" t="n">
-        <v>353688.9459083967</v>
+        <v>261304.459541081</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>24775116</v>
+        <v>25674496</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>128082188</v>
+        <v>125503973</v>
       </c>
       <c r="E30" t="n">
-        <v>491343888</v>
+        <v>481453443</v>
       </c>
       <c r="F30" t="n">
-        <v>155982.3337828384</v>
+        <v>150641.5114517108</v>
       </c>
       <c r="G30" t="n">
-        <v>183967.8463492935</v>
+        <v>188995.3443807583</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>19119756</v>
+        <v>16459655</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>37840717</v>
+        <v>37862737</v>
       </c>
       <c r="F31" t="n">
-        <v>15836.71365978232</v>
+        <v>11918.55484523097</v>
       </c>
       <c r="G31" t="n">
-        <v>296870.532327527</v>
+        <v>362071.0690273084</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>12263615</v>
+        <v>5079296</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>101865977</v>
+        <v>101891110</v>
       </c>
       <c r="E32" t="n">
-        <v>375182657</v>
+        <v>375266935</v>
       </c>
       <c r="F32" t="n">
-        <v>9178.670166890055</v>
+        <v>9446.693230606168</v>
       </c>
       <c r="G32" t="n">
-        <v>9097.905821223931</v>
+        <v>9281.616925372944</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>919612</v>
+        <v>374554</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>478127015</v>
+        <v>462261216</v>
       </c>
       <c r="E33" t="n">
-        <v>1662634165</v>
+        <v>1607462591</v>
       </c>
       <c r="F33" t="n">
-        <v>239973.6571990522</v>
+        <v>230539.5478858276</v>
       </c>
       <c r="G33" t="n">
-        <v>281012.5361443887</v>
+        <v>285407.4807147905</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>24529702</v>
+        <v>24628904</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>110276602</v>
+        <v>109279786</v>
       </c>
       <c r="E34" t="n">
-        <v>167081793</v>
+        <v>165571502</v>
       </c>
       <c r="F34" t="n">
-        <v>54909.13099690947</v>
+        <v>46358.97444186464</v>
       </c>
       <c r="G34" t="n">
-        <v>70231.30274916036</v>
+        <v>73457.26499712281</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>6777018</v>
+        <v>5566264</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2237031</v>
+        <v>2229778</v>
       </c>
       <c r="E35" t="n">
-        <v>8948125</v>
+        <v>8919111</v>
       </c>
       <c r="F35" t="n">
-        <v>15239.97735828874</v>
+        <v>49231.4025307288</v>
       </c>
       <c r="G35" t="n">
-        <v>69927.36332602966</v>
+        <v>75533.94443479209</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>6043228</v>
+        <v>5218759</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>226524677</v>
+        <v>221965829</v>
       </c>
       <c r="E36" t="n">
-        <v>696478135</v>
+        <v>682461394</v>
       </c>
       <c r="F36" t="n">
-        <v>81054.40219555845</v>
+        <v>53592.89697091356</v>
       </c>
       <c r="G36" t="n">
-        <v>219410.0830862797</v>
+        <v>221690.2975867624</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>33626499</v>
+        <v>39407377</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>136494143</v>
+        <v>134452184</v>
       </c>
       <c r="E37" t="n">
-        <v>356587162</v>
+        <v>351252599</v>
       </c>
       <c r="F37" t="n">
-        <v>40917.48723931858</v>
+        <v>35302.39182007937</v>
       </c>
       <c r="G37" t="n">
-        <v>37841.16870075938</v>
+        <v>40722.89192481582</v>
       </c>
       <c r="H37" t="n">
         <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>3695813</v>
+        <v>3666671</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>396453173</v>
+        <v>389428839</v>
       </c>
       <c r="E38" t="n">
-        <v>2265446703</v>
+        <v>2225307651</v>
       </c>
       <c r="F38" t="n">
-        <v>22400.58939048321</v>
+        <v>21656.25170385213</v>
       </c>
       <c r="G38" t="n">
-        <v>94284.08391839812</v>
+        <v>95173.94609349401</v>
       </c>
       <c r="H38" t="n">
         <v>0.19</v>
       </c>
       <c r="I38" t="n">
-        <v>41406458</v>
+        <v>34489741</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>250116662</v>
+        <v>247106590</v>
       </c>
       <c r="E2" t="n">
-        <v>1568446428</v>
+        <v>1549570694</v>
       </c>
       <c r="F2" t="n">
-        <v>190981.0002718008</v>
+        <v>183273.8228620463</v>
       </c>
       <c r="G2" t="n">
-        <v>210890.1930038523</v>
+        <v>205396.2852563956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>16445509</v>
+        <v>13449855</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142585954</v>
+        <v>139951842</v>
       </c>
       <c r="E3" t="n">
-        <v>158007520</v>
+        <v>155088513</v>
       </c>
       <c r="F3" t="n">
-        <v>60512.8607039266</v>
+        <v>64273.65030988204</v>
       </c>
       <c r="G3" t="n">
-        <v>187798.1206157052</v>
+        <v>191582.380485451</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>30263898</v>
+        <v>30191085</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>566558499</v>
+        <v>548953656</v>
       </c>
       <c r="E4" t="n">
-        <v>708680477</v>
+        <v>686659435</v>
       </c>
       <c r="F4" t="n">
-        <v>121730.1655103602</v>
+        <v>99934.77127747046</v>
       </c>
       <c r="G4" t="n">
-        <v>137087.8499566163</v>
+        <v>139830.8402735858</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>44339821</v>
+        <v>49864110</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143046972</v>
+        <v>141237624</v>
       </c>
       <c r="E5" t="n">
-        <v>143046972</v>
+        <v>141237624</v>
       </c>
       <c r="F5" t="n">
-        <v>80723.60958629614</v>
+        <v>63485.32838888087</v>
       </c>
       <c r="G5" t="n">
-        <v>108163.4419501689</v>
+        <v>108709.3549222585</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>75301691</v>
+        <v>63797341</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250473178</v>
+        <v>244423969</v>
       </c>
       <c r="E6" t="n">
-        <v>250473178</v>
+        <v>244423969</v>
       </c>
       <c r="F6" t="n">
-        <v>53436.03932482807</v>
+        <v>55288.40887118166</v>
       </c>
       <c r="G6" t="n">
-        <v>93282.98373085001</v>
+        <v>103323.5689192855</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>11554427</v>
+        <v>11397938</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>105602836</v>
+        <v>103697095</v>
       </c>
       <c r="E7" t="n">
-        <v>131674357</v>
+        <v>129298122</v>
       </c>
       <c r="F7" t="n">
-        <v>13691.96530840558</v>
+        <v>10007.64825373144</v>
       </c>
       <c r="G7" t="n">
-        <v>60205.46730370212</v>
+        <v>94716.77186257236</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>74705686</v>
+        <v>103214725</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82810392</v>
+        <v>83866277</v>
       </c>
       <c r="E8" t="n">
-        <v>172653017</v>
+        <v>174854452</v>
       </c>
       <c r="F8" t="n">
-        <v>50258.42106064929</v>
+        <v>49209.29137897295</v>
       </c>
       <c r="G8" t="n">
-        <v>54132.4828741291</v>
+        <v>51797.85221956119</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I8" t="n">
-        <v>23299061</v>
+        <v>16344917</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>141566700</v>
+        <v>139313345</v>
       </c>
       <c r="E9" t="n">
-        <v>141651180</v>
+        <v>139317170</v>
       </c>
       <c r="F9" t="n">
-        <v>8115.810453218886</v>
+        <v>10023.92179327058</v>
       </c>
       <c r="G9" t="n">
-        <v>16340.12985457702</v>
+        <v>11018.97708741701</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I9" t="n">
-        <v>2970130</v>
+        <v>3025921</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>658749788</v>
+        <v>642248010</v>
       </c>
       <c r="E10" t="n">
-        <v>658749788</v>
+        <v>642248010</v>
       </c>
       <c r="F10" t="n">
-        <v>346851.9673602793</v>
+        <v>289680.6668197061</v>
       </c>
       <c r="G10" t="n">
-        <v>484523.2524202118</v>
+        <v>586788.4477223024</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>287109021</v>
+        <v>226636963</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Energi Ecosystem, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Energi Ecosystem, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79957505</v>
+        <v>80889040</v>
       </c>
       <c r="E11" t="n">
-        <v>91741052</v>
+        <v>92809870</v>
       </c>
       <c r="F11" t="n">
-        <v>13282.27549320616</v>
+        <v>3046.446279513829</v>
       </c>
       <c r="G11" t="n">
-        <v>1666.440782498573</v>
+        <v>4024.631693836766</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I11" t="n">
-        <v>1521692</v>
+        <v>1638315</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>266083191</v>
+        <v>259222621</v>
       </c>
       <c r="E12" t="n">
-        <v>1148562766</v>
+        <v>1118948736</v>
       </c>
       <c r="F12" t="n">
-        <v>302102.8328545292</v>
+        <v>356223.0619876124</v>
       </c>
       <c r="G12" t="n">
-        <v>401034.9710960886</v>
+        <v>368688.0884627523</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>66331362</v>
+        <v>70474618</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114360146</v>
+        <v>113888954</v>
       </c>
       <c r="E13" t="n">
-        <v>114360146</v>
+        <v>113888954</v>
       </c>
       <c r="F13" t="n">
-        <v>6458.24632623133</v>
+        <v>2829.164525112242</v>
       </c>
       <c r="G13" t="n">
-        <v>3282.223984980918</v>
+        <v>7505.039711223478</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I13" t="n">
-        <v>6070511</v>
+        <v>7527281</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14244326</v>
+        <v>14510387</v>
       </c>
       <c r="E14" t="n">
-        <v>35610815</v>
+        <v>36275967</v>
       </c>
       <c r="F14" t="n">
-        <v>10290.52104889985</v>
+        <v>8715.030834803638</v>
       </c>
       <c r="G14" t="n">
-        <v>14729.48991132282</v>
+        <v>13746.20713093465</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>2309468</v>
+        <v>2629033</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12877212</v>
+        <v>13092109</v>
       </c>
       <c r="E15" t="n">
-        <v>18935698</v>
+        <v>19251699</v>
       </c>
       <c r="F15" t="n">
-        <v>1924.743334255106</v>
+        <v>1608.655309671971</v>
       </c>
       <c r="G15" t="n">
-        <v>8043.957846330552</v>
+        <v>4157.320133574709</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>2011909</v>
+        <v>2738730</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28901126</v>
+        <v>29162127</v>
       </c>
       <c r="E16" t="n">
-        <v>89988833</v>
+        <v>90801507</v>
       </c>
       <c r="F16" t="n">
-        <v>12442.26419224596</v>
+        <v>22438.63120106147</v>
       </c>
       <c r="G16" t="n">
-        <v>23909.34469314557</v>
+        <v>15937.95603368687</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I16" t="n">
-        <v>9671970</v>
+        <v>9463880</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>325886672</v>
+        <v>319459681</v>
       </c>
       <c r="E17" t="n">
-        <v>2931878573</v>
+        <v>2874057380</v>
       </c>
       <c r="F17" t="n">
-        <v>1036614.336721415</v>
+        <v>981249.4734565474</v>
       </c>
       <c r="G17" t="n">
-        <v>1089224.346379328</v>
+        <v>1069823.919289473</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>27433816</v>
+        <v>30718975</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Gaming Platform, Action Games</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14967965</v>
+        <v>14897630</v>
       </c>
       <c r="E18" t="n">
-        <v>91743582</v>
+        <v>91312475</v>
       </c>
       <c r="F18" t="n">
-        <v>29276.25247063175</v>
+        <v>32939.72359945522</v>
       </c>
       <c r="G18" t="n">
-        <v>44901.20086120939</v>
+        <v>49320.76318244135</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>10851956</v>
+        <v>9989283</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48745240</v>
+        <v>49540437</v>
       </c>
       <c r="E19" t="n">
-        <v>209989163</v>
+        <v>213414785</v>
       </c>
       <c r="F19" t="n">
-        <v>54989.83044508089</v>
+        <v>40618.00271149789</v>
       </c>
       <c r="G19" t="n">
-        <v>76671.42474723481</v>
+        <v>70459.61857284482</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>10169690</v>
+        <v>7988717</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>298700913</v>
+        <v>305690382</v>
       </c>
       <c r="E20" t="n">
-        <v>298700913</v>
+        <v>305690382</v>
       </c>
       <c r="F20" t="n">
-        <v>90250.17355231437</v>
+        <v>63983.94537920129</v>
       </c>
       <c r="G20" t="n">
-        <v>111222.0339803066</v>
+        <v>108462.3692141956</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>73405306</v>
+        <v>53991280</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30716461</v>
+        <v>30402421</v>
       </c>
       <c r="E21" t="n">
-        <v>137530199</v>
+        <v>136124111</v>
       </c>
       <c r="F21" t="n">
-        <v>36061.93215966748</v>
+        <v>34556.04938294475</v>
       </c>
       <c r="G21" t="n">
-        <v>64257.84076437473</v>
+        <v>65548.0424390524</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>25157329</v>
+        <v>13827119</v>
       </c>
     </row>
     <row r="22">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48410079</v>
+        <v>47046812</v>
       </c>
       <c r="E22" t="n">
-        <v>313926475</v>
+        <v>305086052</v>
       </c>
       <c r="F22" t="n">
-        <v>2913.669914937973</v>
+        <v>7613.47942011687</v>
       </c>
       <c r="G22" t="n">
-        <v>94519.80301544876</v>
+        <v>97434.64299589521</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>19625370</v>
+        <v>17623437</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123477487</v>
+        <v>123752918</v>
       </c>
       <c r="E23" t="n">
-        <v>2044888318</v>
+        <v>2049449676</v>
       </c>
       <c r="F23" t="n">
-        <v>377228.3458644756</v>
+        <v>379449.1156229448</v>
       </c>
       <c r="G23" t="n">
-        <v>337901.1151097271</v>
+        <v>336456.6441100654</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>12951913</v>
+        <v>10665900</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6201411</v>
+        <v>5996339</v>
       </c>
       <c r="E24" t="n">
-        <v>31904377</v>
+        <v>30849343</v>
       </c>
       <c r="F24" t="n">
-        <v>1914.527712451542</v>
+        <v>1895.865317208719</v>
       </c>
       <c r="G24" t="n">
-        <v>3403.168059432719</v>
+        <v>2618.950908996367</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I24" t="n">
-        <v>830341</v>
+        <v>875135</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25412744</v>
+        <v>23943465</v>
       </c>
       <c r="E25" t="n">
-        <v>25412744</v>
+        <v>23943465</v>
       </c>
       <c r="F25" t="n">
-        <v>16554.42053638844</v>
+        <v>6541.367735940199</v>
       </c>
       <c r="G25" t="n">
-        <v>7097.157073350856</v>
+        <v>26025.69477474565</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>1984399</v>
+        <v>1776678</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>293836755</v>
+        <v>287712294</v>
       </c>
       <c r="E27" t="n">
-        <v>543665005</v>
+        <v>532333355</v>
       </c>
       <c r="F27" t="n">
-        <v>90355.3617496462</v>
+        <v>93000.28771329315</v>
       </c>
       <c r="G27" t="n">
-        <v>94368.6196685997</v>
+        <v>87885.9188683689</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>11897117</v>
+        <v>11589602</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44506458</v>
+        <v>43154881</v>
       </c>
       <c r="E28" t="n">
-        <v>44506458</v>
+        <v>43154881</v>
       </c>
       <c r="F28" t="n">
-        <v>33622.66279958964</v>
+        <v>30018.44371401641</v>
       </c>
       <c r="G28" t="n">
-        <v>41431.52902702148</v>
+        <v>34651.47460186117</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>9018517</v>
+        <v>8350979</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>595987667</v>
+        <v>582905619</v>
       </c>
       <c r="E29" t="n">
-        <v>2308172304</v>
+        <v>2257507460</v>
       </c>
       <c r="F29" t="n">
-        <v>113916.9772143871</v>
+        <v>60535.7218722929</v>
       </c>
       <c r="G29" t="n">
-        <v>261304.459541081</v>
+        <v>255388.0342859376</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>25674496</v>
+        <v>26550938</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125503973</v>
+        <v>128151605</v>
       </c>
       <c r="E30" t="n">
-        <v>481453443</v>
+        <v>491610183</v>
       </c>
       <c r="F30" t="n">
-        <v>150641.5114517108</v>
+        <v>140117.3106244557</v>
       </c>
       <c r="G30" t="n">
-        <v>188995.3443807583</v>
+        <v>179925.1086374409</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>16459655</v>
+        <v>15166198</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>37862737</v>
+        <v>37105341</v>
       </c>
       <c r="F31" t="n">
-        <v>11918.55484523097</v>
+        <v>16149.01595961668</v>
       </c>
       <c r="G31" t="n">
-        <v>362071.0690273084</v>
+        <v>228686.328583991</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>5079296</v>
+        <v>9604399</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>101891110</v>
+        <v>102221986</v>
       </c>
       <c r="E32" t="n">
-        <v>375266935</v>
+        <v>376469454</v>
       </c>
       <c r="F32" t="n">
-        <v>9446.693230606168</v>
+        <v>9056.343888332643</v>
       </c>
       <c r="G32" t="n">
-        <v>9281.616925372944</v>
+        <v>9564.985214755832</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>374554</v>
+        <v>235429</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>462261216</v>
+        <v>452338267</v>
       </c>
       <c r="E33" t="n">
-        <v>1607462591</v>
+        <v>1572160222</v>
       </c>
       <c r="F33" t="n">
-        <v>230539.5478858276</v>
+        <v>223896.6588458011</v>
       </c>
       <c r="G33" t="n">
-        <v>285407.4807147905</v>
+        <v>276299.2599402727</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>24628904</v>
+        <v>26601290</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>109279786</v>
+        <v>108472910</v>
       </c>
       <c r="E34" t="n">
-        <v>165571502</v>
+        <v>164348992</v>
       </c>
       <c r="F34" t="n">
-        <v>46358.97444186464</v>
+        <v>48915.07623728619</v>
       </c>
       <c r="G34" t="n">
-        <v>73457.26499712281</v>
+        <v>58426.24828032222</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>5566264</v>
+        <v>4642554</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2229778</v>
+        <v>2133562</v>
       </c>
       <c r="E35" t="n">
-        <v>8919111</v>
+        <v>8534249</v>
       </c>
       <c r="F35" t="n">
-        <v>49231.4025307288</v>
+        <v>62723.88778383428</v>
       </c>
       <c r="G35" t="n">
-        <v>75533.94443479209</v>
+        <v>82379.79703638436</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I35" t="n">
-        <v>5218759</v>
+        <v>5032173</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>221965829</v>
+        <v>219761018</v>
       </c>
       <c r="E36" t="n">
-        <v>682461394</v>
+        <v>675682429</v>
       </c>
       <c r="F36" t="n">
-        <v>53592.89697091356</v>
+        <v>73326.47831507288</v>
       </c>
       <c r="G36" t="n">
-        <v>221690.2975867624</v>
+        <v>220845.7759224703</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>39407377</v>
+        <v>59670635</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>134452184</v>
+        <v>133262949</v>
       </c>
       <c r="E37" t="n">
-        <v>351252599</v>
+        <v>348145755</v>
       </c>
       <c r="F37" t="n">
-        <v>35302.39182007937</v>
+        <v>38436.36184165334</v>
       </c>
       <c r="G37" t="n">
-        <v>40722.89192481582</v>
+        <v>39627.96848185291</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3666671</v>
+        <v>3312622</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>389428839</v>
+        <v>380748575</v>
       </c>
       <c r="E38" t="n">
-        <v>2225307651</v>
+        <v>2175706145</v>
       </c>
       <c r="F38" t="n">
-        <v>21656.25170385213</v>
+        <v>16402.43433994158</v>
       </c>
       <c r="G38" t="n">
-        <v>95173.94609349401</v>
+        <v>106115.1353552023</v>
       </c>
       <c r="H38" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>34489741</v>
+        <v>37763465</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>247106590</v>
+        <v>233358147</v>
       </c>
       <c r="E2" t="n">
-        <v>1549570694</v>
+        <v>1463356141</v>
       </c>
       <c r="F2" t="n">
-        <v>183273.8228620463</v>
+        <v>185856.0950808072</v>
       </c>
       <c r="G2" t="n">
-        <v>205396.2852563956</v>
+        <v>196683.3050206497</v>
       </c>
       <c r="H2" t="n">
         <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>13449855</v>
+        <v>15061989</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139951842</v>
+        <v>134726464</v>
       </c>
       <c r="E3" t="n">
-        <v>155088513</v>
+        <v>149297978</v>
       </c>
       <c r="F3" t="n">
-        <v>64273.65030988204</v>
+        <v>64807.84055813726</v>
       </c>
       <c r="G3" t="n">
-        <v>191582.380485451</v>
+        <v>177959.7953382668</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>30191085</v>
+        <v>31976232</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Gaming Marketplace, Coinbase 50 Index</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>548953656</v>
+        <v>534694373</v>
       </c>
       <c r="E4" t="n">
-        <v>686659435</v>
+        <v>668823191</v>
       </c>
       <c r="F4" t="n">
-        <v>99934.77127747046</v>
+        <v>93806.52681366465</v>
       </c>
       <c r="G4" t="n">
-        <v>139830.8402735858</v>
+        <v>138986.9167848866</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>49864110</v>
+        <v>64858131</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141237624</v>
+        <v>134589114</v>
       </c>
       <c r="E5" t="n">
-        <v>141237624</v>
+        <v>134589114</v>
       </c>
       <c r="F5" t="n">
-        <v>63485.32838888087</v>
+        <v>56484.90054773448</v>
       </c>
       <c r="G5" t="n">
-        <v>108709.3549222585</v>
+        <v>110624.1350443687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>63797341</v>
+        <v>65435865</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>244423969</v>
+        <v>234464950</v>
       </c>
       <c r="E6" t="n">
-        <v>244423969</v>
+        <v>234464950</v>
       </c>
       <c r="F6" t="n">
-        <v>55288.40887118166</v>
+        <v>58487.21663148211</v>
       </c>
       <c r="G6" t="n">
-        <v>103323.5689192855</v>
+        <v>92314.92821867355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>11397938</v>
+        <v>14339682</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>103697095</v>
+        <v>102454262</v>
       </c>
       <c r="E7" t="n">
-        <v>129298122</v>
+        <v>127748455</v>
       </c>
       <c r="F7" t="n">
-        <v>10007.64825373144</v>
+        <v>19769.96610409773</v>
       </c>
       <c r="G7" t="n">
-        <v>94716.77186257236</v>
+        <v>48214.23993875298</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>103214725</v>
+        <v>98130430</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83866277</v>
+        <v>77023067</v>
       </c>
       <c r="E8" t="n">
-        <v>174854452</v>
+        <v>160586909</v>
       </c>
       <c r="F8" t="n">
-        <v>49209.29137897295</v>
+        <v>45874.02750858648</v>
       </c>
       <c r="G8" t="n">
-        <v>51797.85221956119</v>
+        <v>63580.0129257123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>16344917</v>
+        <v>17041945</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>139313345</v>
+        <v>137609985</v>
       </c>
       <c r="E9" t="n">
-        <v>139317170</v>
+        <v>137617290</v>
       </c>
       <c r="F9" t="n">
-        <v>10023.92179327058</v>
+        <v>7747.831637691875</v>
       </c>
       <c r="G9" t="n">
-        <v>11018.97708741701</v>
+        <v>17093.2556143762</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>3025921</v>
+        <v>3221841</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>642248010</v>
+        <v>613764468</v>
       </c>
       <c r="E10" t="n">
-        <v>642248010</v>
+        <v>613764468</v>
       </c>
       <c r="F10" t="n">
-        <v>289680.6668197061</v>
+        <v>248778.0605819069</v>
       </c>
       <c r="G10" t="n">
-        <v>586788.4477223024</v>
+        <v>526511.0471901343</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>226636963</v>
+        <v>266130141</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80889040</v>
+        <v>79332400</v>
       </c>
       <c r="E11" t="n">
-        <v>92809870</v>
+        <v>91023824</v>
       </c>
       <c r="F11" t="n">
-        <v>3046.446279513829</v>
+        <v>766.1636331755776</v>
       </c>
       <c r="G11" t="n">
-        <v>4024.631693836766</v>
+        <v>11848.59532525438</v>
       </c>
       <c r="H11" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="I11" t="n">
-        <v>1638315</v>
+        <v>1612948</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>259222621</v>
+        <v>251152113</v>
       </c>
       <c r="E12" t="n">
-        <v>1118948736</v>
+        <v>1084111946</v>
       </c>
       <c r="F12" t="n">
-        <v>356223.0619876124</v>
+        <v>333266.287915636</v>
       </c>
       <c r="G12" t="n">
-        <v>368688.0884627523</v>
+        <v>352154.4035284053</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>70474618</v>
+        <v>72904767</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113888954</v>
+        <v>111036310</v>
       </c>
       <c r="E13" t="n">
-        <v>113888954</v>
+        <v>111036310</v>
       </c>
       <c r="F13" t="n">
-        <v>2829.164525112242</v>
+        <v>2322.039217885643</v>
       </c>
       <c r="G13" t="n">
-        <v>7505.039711223478</v>
+        <v>7783.454457478299</v>
       </c>
       <c r="H13" t="n">
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>7527281</v>
+        <v>6191744</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14510387</v>
+        <v>13662741</v>
       </c>
       <c r="E14" t="n">
-        <v>36275967</v>
+        <v>34156853</v>
       </c>
       <c r="F14" t="n">
-        <v>8715.030834803638</v>
+        <v>21496.94942240794</v>
       </c>
       <c r="G14" t="n">
-        <v>13746.20713093465</v>
+        <v>17213.94952173123</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>2629033</v>
+        <v>3192387</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13092109</v>
+        <v>12747711</v>
       </c>
       <c r="E15" t="n">
-        <v>19251699</v>
+        <v>18745269</v>
       </c>
       <c r="F15" t="n">
-        <v>1608.655309671971</v>
+        <v>1955.908145982749</v>
       </c>
       <c r="G15" t="n">
-        <v>4157.320133574709</v>
+        <v>4145.310343965729</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>2738730</v>
+        <v>3118239</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29162127</v>
+        <v>28289950</v>
       </c>
       <c r="E16" t="n">
-        <v>90801507</v>
+        <v>88085828</v>
       </c>
       <c r="F16" t="n">
-        <v>22438.63120106147</v>
+        <v>9954.646767545311</v>
       </c>
       <c r="G16" t="n">
-        <v>15937.95603368687</v>
+        <v>14900.87505477462</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>9463880</v>
+        <v>9426331</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>319459681</v>
+        <v>309494714</v>
       </c>
       <c r="E17" t="n">
-        <v>2874057380</v>
+        <v>2784406359</v>
       </c>
       <c r="F17" t="n">
-        <v>981249.4734565474</v>
+        <v>981776.0791445931</v>
       </c>
       <c r="G17" t="n">
-        <v>1069823.919289473</v>
+        <v>1096011.122371431</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>30718975</v>
+        <v>34833159</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14897630</v>
+        <v>15343546</v>
       </c>
       <c r="E18" t="n">
-        <v>91312475</v>
+        <v>94045638</v>
       </c>
       <c r="F18" t="n">
-        <v>32939.72359945522</v>
+        <v>35112.89578611853</v>
       </c>
       <c r="G18" t="n">
-        <v>49320.76318244135</v>
+        <v>33451.12278209233</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>9989283</v>
+        <v>11561485</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49540437</v>
+        <v>47189288</v>
       </c>
       <c r="E19" t="n">
-        <v>213414785</v>
+        <v>203286294</v>
       </c>
       <c r="F19" t="n">
-        <v>40618.00271149789</v>
+        <v>45485.93857048805</v>
       </c>
       <c r="G19" t="n">
-        <v>70459.61857284482</v>
+        <v>70577.92912163321</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>7988717</v>
+        <v>8058393</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>305690382</v>
+        <v>296106997</v>
       </c>
       <c r="E20" t="n">
-        <v>305690382</v>
+        <v>296106997</v>
       </c>
       <c r="F20" t="n">
-        <v>63983.94537920129</v>
+        <v>65533.58499108401</v>
       </c>
       <c r="G20" t="n">
-        <v>108462.3692141956</v>
+        <v>106342.9099162812</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>53991280</v>
+        <v>78818642</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30402421</v>
+        <v>31651280</v>
       </c>
       <c r="E21" t="n">
-        <v>136124111</v>
+        <v>141715765</v>
       </c>
       <c r="F21" t="n">
-        <v>34556.04938294475</v>
+        <v>50332.81975496168</v>
       </c>
       <c r="G21" t="n">
-        <v>65548.0424390524</v>
+        <v>66060.16292182752</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>13827119</v>
+        <v>16186972</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47046812</v>
+        <v>45659480</v>
       </c>
       <c r="E22" t="n">
-        <v>305086052</v>
+        <v>296089576</v>
       </c>
       <c r="F22" t="n">
-        <v>7613.47942011687</v>
+        <v>3462.188763680599</v>
       </c>
       <c r="G22" t="n">
-        <v>97434.64299589521</v>
+        <v>94832.71753882355</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>17623437</v>
+        <v>18211492</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123752918</v>
+        <v>122800316</v>
       </c>
       <c r="E23" t="n">
-        <v>2049449676</v>
+        <v>2033673801</v>
       </c>
       <c r="F23" t="n">
-        <v>379449.1156229448</v>
+        <v>419602.8984354711</v>
       </c>
       <c r="G23" t="n">
-        <v>336456.6441100654</v>
+        <v>325702.6820944348</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>10665900</v>
+        <v>10654159</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5996339</v>
+        <v>5887157</v>
       </c>
       <c r="E24" t="n">
-        <v>30849343</v>
+        <v>30287634</v>
       </c>
       <c r="F24" t="n">
-        <v>1895.865317208719</v>
+        <v>3863.311471322387</v>
       </c>
       <c r="G24" t="n">
-        <v>2618.950908996367</v>
+        <v>1931.129271282999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>875135</v>
+        <v>812535</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23943465</v>
+        <v>23491582</v>
       </c>
       <c r="E25" t="n">
-        <v>23943465</v>
+        <v>23491582</v>
       </c>
       <c r="F25" t="n">
-        <v>6541.367735940199</v>
+        <v>7168.551845179401</v>
       </c>
       <c r="G25" t="n">
-        <v>26025.69477474565</v>
+        <v>27765.41016908742</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="I25" t="n">
-        <v>1776678</v>
+        <v>1837474</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>287712294</v>
+        <v>286005172</v>
       </c>
       <c r="E27" t="n">
-        <v>532333355</v>
+        <v>529174791</v>
       </c>
       <c r="F27" t="n">
-        <v>93000.28771329315</v>
+        <v>86258.67440206779</v>
       </c>
       <c r="G27" t="n">
-        <v>87885.9188683689</v>
+        <v>88622.38352332145</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>11589602</v>
+        <v>13072769</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43154881</v>
+        <v>41118724</v>
       </c>
       <c r="E28" t="n">
-        <v>43154881</v>
+        <v>41118724</v>
       </c>
       <c r="F28" t="n">
-        <v>30018.44371401641</v>
+        <v>28847.68609061603</v>
       </c>
       <c r="G28" t="n">
-        <v>34651.47460186117</v>
+        <v>37069.23386493637</v>
       </c>
       <c r="H28" t="n">
         <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>8350979</v>
+        <v>10935144</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>582905619</v>
+        <v>565292447</v>
       </c>
       <c r="E29" t="n">
-        <v>2257507460</v>
+        <v>2189294244</v>
       </c>
       <c r="F29" t="n">
-        <v>60535.7218722929</v>
+        <v>72689.6033429737</v>
       </c>
       <c r="G29" t="n">
-        <v>255388.0342859376</v>
+        <v>206367.5466169027</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>26550938</v>
+        <v>28377944</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>128151605</v>
+        <v>124105000</v>
       </c>
       <c r="E30" t="n">
-        <v>491610183</v>
+        <v>476086754</v>
       </c>
       <c r="F30" t="n">
-        <v>140117.3106244557</v>
+        <v>142378.6506573704</v>
       </c>
       <c r="G30" t="n">
-        <v>179925.1086374409</v>
+        <v>188198.1600041198</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>15166198</v>
+        <v>17033623</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>37105341</v>
+        <v>35162664</v>
       </c>
       <c r="F31" t="n">
-        <v>16149.01595961668</v>
+        <v>36243.22066922722</v>
       </c>
       <c r="G31" t="n">
-        <v>228686.328583991</v>
+        <v>206969.5177319548</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>9604399</v>
+        <v>9897155</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>102221986</v>
+        <v>103427824</v>
       </c>
       <c r="E32" t="n">
-        <v>376469454</v>
+        <v>380896839</v>
       </c>
       <c r="F32" t="n">
-        <v>9056.343888332643</v>
+        <v>8899.961169659864</v>
       </c>
       <c r="G32" t="n">
-        <v>9564.985214755832</v>
+        <v>9279.895896821447</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>235429</v>
+        <v>199762</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>452338267</v>
+        <v>432393976</v>
       </c>
       <c r="E33" t="n">
-        <v>1572160222</v>
+        <v>1502841258</v>
       </c>
       <c r="F33" t="n">
-        <v>223896.6588458011</v>
+        <v>218253.1669416499</v>
       </c>
       <c r="G33" t="n">
-        <v>276299.2599402727</v>
+        <v>268046.4096784146</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>26601290</v>
+        <v>31899918</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108472910</v>
+        <v>106955865</v>
       </c>
       <c r="E34" t="n">
-        <v>164348992</v>
+        <v>162050494</v>
       </c>
       <c r="F34" t="n">
-        <v>48915.07623728619</v>
+        <v>50813.64347276934</v>
       </c>
       <c r="G34" t="n">
-        <v>58426.24828032222</v>
+        <v>56025.97487563737</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>4642554</v>
+        <v>5118180</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2133562</v>
+        <v>2040470</v>
       </c>
       <c r="E35" t="n">
-        <v>8534249</v>
+        <v>8161881</v>
       </c>
       <c r="F35" t="n">
-        <v>62723.88778383428</v>
+        <v>31696.77052039453</v>
       </c>
       <c r="G35" t="n">
-        <v>82379.79703638436</v>
+        <v>38908.20596426582</v>
       </c>
       <c r="H35" t="n">
         <v>0.12</v>
       </c>
       <c r="I35" t="n">
-        <v>5032173</v>
+        <v>5041861</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>219761018</v>
+        <v>210424433</v>
       </c>
       <c r="E36" t="n">
-        <v>675682429</v>
+        <v>646975943</v>
       </c>
       <c r="F36" t="n">
-        <v>73326.47831507288</v>
+        <v>137062.7181886485</v>
       </c>
       <c r="G36" t="n">
-        <v>220845.7759224703</v>
+        <v>223856.9322326403</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>59670635</v>
+        <v>22127262</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>133262949</v>
+        <v>124481544</v>
       </c>
       <c r="E37" t="n">
-        <v>348145755</v>
+        <v>325204580</v>
       </c>
       <c r="F37" t="n">
-        <v>38436.36184165334</v>
+        <v>39451.67224346154</v>
       </c>
       <c r="G37" t="n">
-        <v>39627.96848185291</v>
+        <v>39047.28244931217</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I37" t="n">
-        <v>3312622</v>
+        <v>3949280</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>380748575</v>
+        <v>374592080</v>
       </c>
       <c r="E38" t="n">
-        <v>2175706145</v>
+        <v>2140526171</v>
       </c>
       <c r="F38" t="n">
-        <v>16402.43433994158</v>
+        <v>19659.15790226426</v>
       </c>
       <c r="G38" t="n">
-        <v>106115.1353552023</v>
+        <v>99675.92310698483</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I38" t="n">
-        <v>37763465</v>
+        <v>45267834</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>233358147</v>
+        <v>234346483</v>
       </c>
       <c r="E2" t="n">
-        <v>1463356141</v>
+        <v>1469553854</v>
       </c>
       <c r="F2" t="n">
-        <v>185856.0950808072</v>
+        <v>189580.2214206935</v>
       </c>
       <c r="G2" t="n">
-        <v>196683.3050206497</v>
+        <v>183608.2071848953</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>15061989</v>
+        <v>17318507</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>134726464</v>
+        <v>131938988</v>
       </c>
       <c r="E3" t="n">
-        <v>149297978</v>
+        <v>146209019</v>
       </c>
       <c r="F3" t="n">
-        <v>64807.84055813726</v>
+        <v>66257.93926217862</v>
       </c>
       <c r="G3" t="n">
-        <v>177959.7953382668</v>
+        <v>173154.7760659341</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>31976232</v>
+        <v>35016820</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>534694373</v>
+        <v>521686543</v>
       </c>
       <c r="E4" t="n">
-        <v>668823191</v>
+        <v>652552328</v>
       </c>
       <c r="F4" t="n">
-        <v>93806.52681366465</v>
+        <v>118569.4288059442</v>
       </c>
       <c r="G4" t="n">
-        <v>138986.9167848866</v>
+        <v>126268.3834811783</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>64858131</v>
+        <v>79573948</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>134589114</v>
+        <v>130600180</v>
       </c>
       <c r="E5" t="n">
-        <v>134589114</v>
+        <v>130600180</v>
       </c>
       <c r="F5" t="n">
-        <v>56484.90054773448</v>
+        <v>65669.74516357481</v>
       </c>
       <c r="G5" t="n">
-        <v>110624.1350443687</v>
+        <v>126797.7976265795</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>65435865</v>
+        <v>70838502</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>234464950</v>
+        <v>230914989</v>
       </c>
       <c r="E6" t="n">
-        <v>234464950</v>
+        <v>230914989</v>
       </c>
       <c r="F6" t="n">
-        <v>58487.21663148211</v>
+        <v>51557.2630314156</v>
       </c>
       <c r="G6" t="n">
-        <v>92314.92821867355</v>
+        <v>89015.2861259482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>14339682</v>
+        <v>26442061</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>102454262</v>
+        <v>99088808</v>
       </c>
       <c r="E7" t="n">
-        <v>127748455</v>
+        <v>123552128</v>
       </c>
       <c r="F7" t="n">
-        <v>19769.96610409773</v>
+        <v>17589.94795281559</v>
       </c>
       <c r="G7" t="n">
-        <v>48214.23993875298</v>
+        <v>52197.42554636813</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>98130430</v>
+        <v>47091419</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77023067</v>
+        <v>76254881</v>
       </c>
       <c r="E8" t="n">
-        <v>160586909</v>
+        <v>158985302</v>
       </c>
       <c r="F8" t="n">
-        <v>45874.02750858648</v>
+        <v>46792.72506478213</v>
       </c>
       <c r="G8" t="n">
-        <v>63580.0129257123</v>
+        <v>56312.56010114851</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>17041945</v>
+        <v>17932560</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>137609985</v>
+        <v>134267025</v>
       </c>
       <c r="E9" t="n">
-        <v>137617290</v>
+        <v>134278661</v>
       </c>
       <c r="F9" t="n">
-        <v>7747.831637691875</v>
+        <v>8730.78791819968</v>
       </c>
       <c r="G9" t="n">
-        <v>17093.2556143762</v>
+        <v>14154.43418548284</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I9" t="n">
-        <v>3221841</v>
+        <v>3642071</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>613764468</v>
+        <v>602206187</v>
       </c>
       <c r="E10" t="n">
-        <v>613764468</v>
+        <v>602206187</v>
       </c>
       <c r="F10" t="n">
-        <v>248778.0605819069</v>
+        <v>328855.1569738893</v>
       </c>
       <c r="G10" t="n">
-        <v>526511.0471901343</v>
+        <v>509641.1270776215</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>266130141</v>
+        <v>352152301</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79332400</v>
+        <v>77084826</v>
       </c>
       <c r="E11" t="n">
-        <v>91023824</v>
+        <v>88445019</v>
       </c>
       <c r="F11" t="n">
-        <v>766.1636331755776</v>
+        <v>3206.727958455449</v>
       </c>
       <c r="G11" t="n">
-        <v>11848.59532525438</v>
+        <v>20121.24347082095</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I11" t="n">
-        <v>1612948</v>
+        <v>1558768</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>251152113</v>
+        <v>246950722</v>
       </c>
       <c r="E12" t="n">
-        <v>1084111946</v>
+        <v>1065976408</v>
       </c>
       <c r="F12" t="n">
-        <v>333266.287915636</v>
+        <v>292780.4510169486</v>
       </c>
       <c r="G12" t="n">
-        <v>352154.4035284053</v>
+        <v>399894.9675482415</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>72904767</v>
+        <v>77021303</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111036310</v>
+        <v>110588567</v>
       </c>
       <c r="E13" t="n">
-        <v>111036310</v>
+        <v>110588567</v>
       </c>
       <c r="F13" t="n">
-        <v>2322.039217885643</v>
+        <v>2278.716409394698</v>
       </c>
       <c r="G13" t="n">
-        <v>7783.454457478299</v>
+        <v>7266.619519433497</v>
       </c>
       <c r="H13" t="n">
         <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>6191744</v>
+        <v>6687357</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13662741</v>
+        <v>13066186</v>
       </c>
       <c r="E14" t="n">
-        <v>34156853</v>
+        <v>32665465</v>
       </c>
       <c r="F14" t="n">
-        <v>21496.94942240794</v>
+        <v>7840.065365737291</v>
       </c>
       <c r="G14" t="n">
-        <v>17213.94952173123</v>
+        <v>7506.897052841869</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>3192387</v>
+        <v>3826727</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12747711</v>
+        <v>12004571</v>
       </c>
       <c r="E15" t="n">
-        <v>18745269</v>
+        <v>17652496</v>
       </c>
       <c r="F15" t="n">
-        <v>1955.908145982749</v>
+        <v>2988.084876244016</v>
       </c>
       <c r="G15" t="n">
-        <v>4145.310343965729</v>
+        <v>4433.522049088034</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>3118239</v>
+        <v>4926526</v>
       </c>
     </row>
     <row r="16">
@@ -978,7 +978,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem</t>
+          <t>BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, Mobile Mining</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28289950</v>
+        <v>28161732</v>
       </c>
       <c r="E16" t="n">
-        <v>88085828</v>
+        <v>87686599</v>
       </c>
       <c r="F16" t="n">
-        <v>9954.646767545311</v>
+        <v>2307.771434850159</v>
       </c>
       <c r="G16" t="n">
-        <v>14900.87505477462</v>
+        <v>14486.73854201842</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>9426331</v>
+        <v>9479732</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>309494714</v>
+        <v>300077745</v>
       </c>
       <c r="E17" t="n">
-        <v>2784406359</v>
+        <v>2699685463</v>
       </c>
       <c r="F17" t="n">
-        <v>981776.0791445931</v>
+        <v>6779.434662175307</v>
       </c>
       <c r="G17" t="n">
-        <v>1096011.122371431</v>
+        <v>6519.135826686873</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>34833159</v>
+        <v>45480358</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15343546</v>
+        <v>15222127</v>
       </c>
       <c r="E18" t="n">
-        <v>94045638</v>
+        <v>93301424</v>
       </c>
       <c r="F18" t="n">
-        <v>35112.89578611853</v>
+        <v>40483.17786793473</v>
       </c>
       <c r="G18" t="n">
-        <v>33451.12278209233</v>
+        <v>41627.01098920425</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11561485</v>
+        <v>13976295</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47189288</v>
+        <v>48019409</v>
       </c>
       <c r="E19" t="n">
-        <v>203286294</v>
+        <v>206862362</v>
       </c>
       <c r="F19" t="n">
-        <v>45485.93857048805</v>
+        <v>30759.42220897305</v>
       </c>
       <c r="G19" t="n">
-        <v>70577.92912163321</v>
+        <v>54211.05475424347</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>8058393</v>
+        <v>8827025</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>296106997</v>
+        <v>292177309</v>
       </c>
       <c r="E20" t="n">
-        <v>296106997</v>
+        <v>292177309</v>
       </c>
       <c r="F20" t="n">
-        <v>65533.58499108401</v>
+        <v>61746.59661857266</v>
       </c>
       <c r="G20" t="n">
-        <v>106342.9099162812</v>
+        <v>115719.2459893034</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>78818642</v>
+        <v>67496957</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31651280</v>
+        <v>31313105</v>
       </c>
       <c r="E21" t="n">
-        <v>141715765</v>
+        <v>140201617</v>
       </c>
       <c r="F21" t="n">
-        <v>50332.81975496168</v>
+        <v>56966.46651660417</v>
       </c>
       <c r="G21" t="n">
-        <v>66060.16292182752</v>
+        <v>71966.55452268876</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>16186972</v>
+        <v>22256920</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45659480</v>
+        <v>44731612</v>
       </c>
       <c r="E22" t="n">
-        <v>296089576</v>
+        <v>290072596</v>
       </c>
       <c r="F22" t="n">
-        <v>3462.188763680599</v>
+        <v>3249.39447190779</v>
       </c>
       <c r="G22" t="n">
-        <v>94832.71753882355</v>
+        <v>89020.46479689995</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>18211492</v>
+        <v>20692667</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122800316</v>
+        <v>123755090</v>
       </c>
       <c r="E23" t="n">
-        <v>2033673801</v>
+        <v>2049485651</v>
       </c>
       <c r="F23" t="n">
-        <v>419602.8984354711</v>
+        <v>378983.5184543802</v>
       </c>
       <c r="G23" t="n">
-        <v>325702.6820944348</v>
+        <v>336809.0315145655</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>10654159</v>
+        <v>11046508</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5887157</v>
+        <v>5815545</v>
       </c>
       <c r="E24" t="n">
-        <v>30287634</v>
+        <v>29919212</v>
       </c>
       <c r="F24" t="n">
-        <v>3863.311471322387</v>
+        <v>1602.992338805816</v>
       </c>
       <c r="G24" t="n">
-        <v>1931.129271282999</v>
+        <v>31.6414734477529</v>
       </c>
       <c r="H24" t="n">
         <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>812535</v>
+        <v>843691</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23491582</v>
+        <v>22882742</v>
       </c>
       <c r="E25" t="n">
-        <v>23491582</v>
+        <v>22883053</v>
       </c>
       <c r="F25" t="n">
-        <v>7168.551845179401</v>
+        <v>20281.42111486877</v>
       </c>
       <c r="G25" t="n">
-        <v>27765.41016908742</v>
+        <v>25457.46101058583</v>
       </c>
       <c r="H25" t="n">
-        <v>0.54</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>1837474</v>
+        <v>1941932</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>286005172</v>
+        <v>281398296</v>
       </c>
       <c r="E27" t="n">
-        <v>529174791</v>
+        <v>520651019</v>
       </c>
       <c r="F27" t="n">
-        <v>86258.67440206779</v>
+        <v>106366.8501351008</v>
       </c>
       <c r="G27" t="n">
-        <v>88622.38352332145</v>
+        <v>112498.7496634954</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>13072769</v>
+        <v>15671637</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41118724</v>
+        <v>38963820</v>
       </c>
       <c r="E28" t="n">
-        <v>41118724</v>
+        <v>38963820</v>
       </c>
       <c r="F28" t="n">
-        <v>28847.68609061603</v>
+        <v>26816.27099175159</v>
       </c>
       <c r="G28" t="n">
-        <v>37069.23386493637</v>
+        <v>26356.22159278369</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>10935144</v>
+        <v>15925635</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>565292447</v>
+        <v>558348351</v>
       </c>
       <c r="E29" t="n">
-        <v>2189294244</v>
+        <v>2162400783</v>
       </c>
       <c r="F29" t="n">
-        <v>72689.6033429737</v>
+        <v>90711.62272337993</v>
       </c>
       <c r="G29" t="n">
-        <v>206367.5466169027</v>
+        <v>245834.2604201632</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>28377944</v>
+        <v>30407183</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>124105000</v>
+        <v>122557290</v>
       </c>
       <c r="E30" t="n">
-        <v>476086754</v>
+        <v>470149491</v>
       </c>
       <c r="F30" t="n">
-        <v>142378.6506573704</v>
+        <v>147737.0021929801</v>
       </c>
       <c r="G30" t="n">
-        <v>188198.1600041198</v>
+        <v>188670.6179961924</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>17033623</v>
+        <v>21769225</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35162664</v>
+        <v>33168975</v>
       </c>
       <c r="F31" t="n">
-        <v>36243.22066922722</v>
+        <v>10034.90905286368</v>
       </c>
       <c r="G31" t="n">
-        <v>206969.5177319548</v>
+        <v>156798.9542204565</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>9897155</v>
+        <v>12413736</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>103427824</v>
+        <v>105337098</v>
       </c>
       <c r="E32" t="n">
-        <v>380896839</v>
+        <v>384027083</v>
       </c>
       <c r="F32" t="n">
-        <v>8899.961169659864</v>
+        <v>9449.375664245403</v>
       </c>
       <c r="G32" t="n">
-        <v>9279.895896821447</v>
+        <v>9241.737792196429</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>199762</v>
+        <v>354392</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>432393976</v>
+        <v>423217179</v>
       </c>
       <c r="E33" t="n">
-        <v>1502841258</v>
+        <v>1470946111</v>
       </c>
       <c r="F33" t="n">
-        <v>218253.1669416499</v>
+        <v>157610.7027443603</v>
       </c>
       <c r="G33" t="n">
-        <v>268046.4096784146</v>
+        <v>275340.6431591881</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>31899918</v>
+        <v>38490971</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106955865</v>
+        <v>108359356</v>
       </c>
       <c r="E34" t="n">
-        <v>162050494</v>
+        <v>164176944</v>
       </c>
       <c r="F34" t="n">
-        <v>50813.64347276934</v>
+        <v>52497.76198215293</v>
       </c>
       <c r="G34" t="n">
-        <v>56025.97487563737</v>
+        <v>69324.52746548284</v>
       </c>
       <c r="H34" t="n">
         <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>5118180</v>
+        <v>5728088</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2040470</v>
+        <v>1988496</v>
       </c>
       <c r="E35" t="n">
-        <v>8161881</v>
+        <v>7953983</v>
       </c>
       <c r="F35" t="n">
-        <v>31696.77052039453</v>
+        <v>79097.04442928098</v>
       </c>
       <c r="G35" t="n">
-        <v>38908.20596426582</v>
+        <v>60449.48780827422</v>
       </c>
       <c r="H35" t="n">
         <v>0.12</v>
       </c>
       <c r="I35" t="n">
-        <v>5041861</v>
+        <v>5139771</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210424433</v>
+        <v>206789442</v>
       </c>
       <c r="E36" t="n">
-        <v>646975943</v>
+        <v>635799714</v>
       </c>
       <c r="F36" t="n">
-        <v>137062.7181886485</v>
+        <v>43213.4134445987</v>
       </c>
       <c r="G36" t="n">
-        <v>223856.9322326403</v>
+        <v>211949.0710678762</v>
       </c>
       <c r="H36" t="n">
         <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>22127262</v>
+        <v>21290735</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>124481544</v>
+        <v>118256287</v>
       </c>
       <c r="E37" t="n">
-        <v>325204580</v>
+        <v>308941267</v>
       </c>
       <c r="F37" t="n">
-        <v>39451.67224346154</v>
+        <v>39013.07811732407</v>
       </c>
       <c r="G37" t="n">
-        <v>39047.28244931217</v>
+        <v>33064.17358038571</v>
       </c>
       <c r="H37" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>3949280</v>
+        <v>5755270</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>374592080</v>
+        <v>372293868</v>
       </c>
       <c r="E38" t="n">
-        <v>2140526171</v>
+        <v>2127393529</v>
       </c>
       <c r="F38" t="n">
-        <v>19659.15790226426</v>
+        <v>43565.09231295146</v>
       </c>
       <c r="G38" t="n">
-        <v>99675.92310698483</v>
+        <v>74251.8109905796</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>45267834</v>
+        <v>55100901</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>234346483</v>
+        <v>222875534</v>
       </c>
       <c r="E2" t="n">
-        <v>1469553854</v>
+        <v>1397621143</v>
       </c>
       <c r="F2" t="n">
-        <v>189580.2214206935</v>
+        <v>176699.3345896591</v>
       </c>
       <c r="G2" t="n">
-        <v>183608.2071848953</v>
+        <v>200777.1066954667</v>
       </c>
       <c r="H2" t="n">
         <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>17318507</v>
+        <v>23501104</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>131938988</v>
+        <v>118478293</v>
       </c>
       <c r="E3" t="n">
-        <v>146209019</v>
+        <v>131292464</v>
       </c>
       <c r="F3" t="n">
-        <v>66257.93926217862</v>
+        <v>66550.45109222461</v>
       </c>
       <c r="G3" t="n">
-        <v>173154.7760659341</v>
+        <v>169316.3147164111</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>35016820</v>
+        <v>40335452</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>521686543</v>
+        <v>467936530</v>
       </c>
       <c r="E4" t="n">
-        <v>652552328</v>
+        <v>585319051</v>
       </c>
       <c r="F4" t="n">
-        <v>118569.4288059442</v>
+        <v>85116.70855607747</v>
       </c>
       <c r="G4" t="n">
-        <v>126268.3834811783</v>
+        <v>135237.2854057007</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>79573948</v>
+        <v>107687190</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>130600180</v>
+        <v>115326809</v>
       </c>
       <c r="E5" t="n">
-        <v>130600180</v>
+        <v>115326809</v>
       </c>
       <c r="F5" t="n">
-        <v>65669.74516357481</v>
+        <v>59206.88881622472</v>
       </c>
       <c r="G5" t="n">
-        <v>126797.7976265795</v>
+        <v>110538.3498690963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>70838502</v>
+        <v>119803369</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>230914989</v>
+        <v>217269927</v>
       </c>
       <c r="E6" t="n">
-        <v>230914989</v>
+        <v>217269927</v>
       </c>
       <c r="F6" t="n">
-        <v>51557.2630314156</v>
+        <v>54175.95737449623</v>
       </c>
       <c r="G6" t="n">
-        <v>89015.2861259482</v>
+        <v>94700.92885923282</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>26442061</v>
+        <v>45882029</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99088808</v>
+        <v>92815946</v>
       </c>
       <c r="E7" t="n">
-        <v>123552128</v>
+        <v>115730605</v>
       </c>
       <c r="F7" t="n">
-        <v>17589.94795281559</v>
+        <v>26586.84292292048</v>
       </c>
       <c r="G7" t="n">
-        <v>52197.42554636813</v>
+        <v>39785.02166790106</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>47091419</v>
+        <v>22549199</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76254881</v>
+        <v>73196979</v>
       </c>
       <c r="E8" t="n">
-        <v>158985302</v>
+        <v>152609822</v>
       </c>
       <c r="F8" t="n">
-        <v>46792.72506478213</v>
+        <v>47993.11033206281</v>
       </c>
       <c r="G8" t="n">
-        <v>56312.56010114851</v>
+        <v>54161.30648609029</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>17932560</v>
+        <v>24101669</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>134267025</v>
+        <v>129802674</v>
       </c>
       <c r="E9" t="n">
-        <v>134278661</v>
+        <v>129818897</v>
       </c>
       <c r="F9" t="n">
-        <v>8730.78791819968</v>
+        <v>7450.746821662349</v>
       </c>
       <c r="G9" t="n">
-        <v>14154.43418548284</v>
+        <v>12823.76516106205</v>
       </c>
       <c r="H9" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3642071</v>
+        <v>4523811</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>602206187</v>
+        <v>550670491</v>
       </c>
       <c r="E10" t="n">
-        <v>602206187</v>
+        <v>550670491</v>
       </c>
       <c r="F10" t="n">
-        <v>328855.1569738893</v>
+        <v>155215.7355967668</v>
       </c>
       <c r="G10" t="n">
-        <v>509641.1270776215</v>
+        <v>455605.473588084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>352152301</v>
+        <v>498082897</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77084826</v>
+        <v>73688639</v>
       </c>
       <c r="E11" t="n">
-        <v>88445019</v>
+        <v>84548327</v>
       </c>
       <c r="F11" t="n">
-        <v>3206.727958455449</v>
+        <v>2860.073539684729</v>
       </c>
       <c r="G11" t="n">
-        <v>20121.24347082095</v>
+        <v>21152.3828877627</v>
       </c>
       <c r="H11" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I11" t="n">
-        <v>1558768</v>
+        <v>1847635</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>246950722</v>
+        <v>218470809</v>
       </c>
       <c r="E12" t="n">
-        <v>1065976408</v>
+        <v>943041293</v>
       </c>
       <c r="F12" t="n">
-        <v>292780.4510169486</v>
+        <v>321427.1212872692</v>
       </c>
       <c r="G12" t="n">
-        <v>399894.9675482415</v>
+        <v>359680.281166177</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>77021303</v>
+        <v>120441707</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110588567</v>
+        <v>107362954</v>
       </c>
       <c r="E13" t="n">
-        <v>110588567</v>
+        <v>107362954</v>
       </c>
       <c r="F13" t="n">
-        <v>2278.716409394698</v>
+        <v>1843.85429785945</v>
       </c>
       <c r="G13" t="n">
-        <v>7266.619519433497</v>
+        <v>6774.979841362076</v>
       </c>
       <c r="H13" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="I13" t="n">
-        <v>6687357</v>
+        <v>7677820</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13066186</v>
+        <v>12077882</v>
       </c>
       <c r="E14" t="n">
-        <v>32665465</v>
+        <v>30194705</v>
       </c>
       <c r="F14" t="n">
-        <v>7840.065365737291</v>
+        <v>9180.967319596592</v>
       </c>
       <c r="G14" t="n">
-        <v>7506.897052841869</v>
+        <v>10353.25090205638</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>3826727</v>
+        <v>4915905</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12004571</v>
+        <v>11276236</v>
       </c>
       <c r="E15" t="n">
-        <v>17652496</v>
+        <v>16581493</v>
       </c>
       <c r="F15" t="n">
-        <v>2988.084876244016</v>
+        <v>2665.247581812719</v>
       </c>
       <c r="G15" t="n">
-        <v>4433.522049088034</v>
+        <v>4681.274695721866</v>
       </c>
       <c r="H15" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>4926526</v>
+        <v>6726522</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28161732</v>
+        <v>27444482</v>
       </c>
       <c r="E16" t="n">
-        <v>87686599</v>
+        <v>85453310</v>
       </c>
       <c r="F16" t="n">
-        <v>2307.771434850159</v>
+        <v>4956.454346007915</v>
       </c>
       <c r="G16" t="n">
-        <v>14486.73854201842</v>
+        <v>11188.6439330849</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>9479732</v>
+        <v>10187364</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>300077745</v>
+        <v>275820360</v>
       </c>
       <c r="E17" t="n">
-        <v>2699685463</v>
+        <v>2481450988</v>
       </c>
       <c r="F17" t="n">
-        <v>6779.434662175307</v>
+        <v>944260.1205574593</v>
       </c>
       <c r="G17" t="n">
-        <v>6519.135826686873</v>
+        <v>1047715.113471055</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I17" t="n">
-        <v>45480358</v>
+        <v>67980196</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15222127</v>
+        <v>15262861</v>
       </c>
       <c r="E18" t="n">
-        <v>93301424</v>
+        <v>93551097</v>
       </c>
       <c r="F18" t="n">
-        <v>40483.17786793473</v>
+        <v>29798.93227616301</v>
       </c>
       <c r="G18" t="n">
-        <v>41627.01098920425</v>
+        <v>44413.96049965135</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>13976295</v>
+        <v>15461062</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48019409</v>
+        <v>45111451</v>
       </c>
       <c r="E19" t="n">
-        <v>206862362</v>
+        <v>194335198</v>
       </c>
       <c r="F19" t="n">
-        <v>30759.42220897305</v>
+        <v>56420.77280882014</v>
       </c>
       <c r="G19" t="n">
-        <v>54211.05475424347</v>
+        <v>68343.83041404985</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>8827025</v>
+        <v>12634432</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>292177309</v>
+        <v>257911089</v>
       </c>
       <c r="E20" t="n">
-        <v>292177309</v>
+        <v>257911089</v>
       </c>
       <c r="F20" t="n">
-        <v>61746.59661857266</v>
+        <v>59114.41487389967</v>
       </c>
       <c r="G20" t="n">
-        <v>115719.2459893034</v>
+        <v>101272.6813417875</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>67496957</v>
+        <v>94599433</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31313105</v>
+        <v>27941343</v>
       </c>
       <c r="E21" t="n">
-        <v>140201617</v>
+        <v>125104856</v>
       </c>
       <c r="F21" t="n">
-        <v>56966.46651660417</v>
+        <v>33553.09309230369</v>
       </c>
       <c r="G21" t="n">
-        <v>71966.55452268876</v>
+        <v>68800.11339630358</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>22256920</v>
+        <v>32326443</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>44731612</v>
+        <v>39859437</v>
       </c>
       <c r="E22" t="n">
-        <v>290072596</v>
+        <v>258477837</v>
       </c>
       <c r="F22" t="n">
-        <v>3249.39447190779</v>
+        <v>11467.75483450947</v>
       </c>
       <c r="G22" t="n">
-        <v>89020.46479689995</v>
+        <v>2454.624397723483</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>20692667</v>
+        <v>30997723</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123755090</v>
+        <v>124426281</v>
       </c>
       <c r="E23" t="n">
-        <v>2049485651</v>
+        <v>2060601116</v>
       </c>
       <c r="F23" t="n">
-        <v>378983.5184543802</v>
+        <v>376883.4823715052</v>
       </c>
       <c r="G23" t="n">
-        <v>336809.0315145655</v>
+        <v>346301.3031378242</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>11046508</v>
+        <v>11158949</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5815545</v>
+        <v>5130692</v>
       </c>
       <c r="E24" t="n">
-        <v>29919212</v>
+        <v>26395854</v>
       </c>
       <c r="F24" t="n">
-        <v>1602.992338805816</v>
+        <v>599.8800060424032</v>
       </c>
       <c r="G24" t="n">
-        <v>31.6414734477529</v>
+        <v>305.4957620193072</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>843691</v>
+        <v>813009</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22882742</v>
+        <v>21901988</v>
       </c>
       <c r="E25" t="n">
-        <v>22883053</v>
+        <v>21901988</v>
       </c>
       <c r="F25" t="n">
-        <v>20281.42111486877</v>
+        <v>15391.6934447429</v>
       </c>
       <c r="G25" t="n">
-        <v>25457.46101058583</v>
+        <v>6291.185524424941</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I25" t="n">
-        <v>1941932</v>
+        <v>2005655</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>281398296</v>
+        <v>264966824</v>
       </c>
       <c r="E27" t="n">
-        <v>520651019</v>
+        <v>490249049</v>
       </c>
       <c r="F27" t="n">
-        <v>106366.8501351008</v>
+        <v>79225.63230491556</v>
       </c>
       <c r="G27" t="n">
-        <v>112498.7496634954</v>
+        <v>85687.09514865668</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>15671637</v>
+        <v>18213363</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38963820</v>
+        <v>33836572</v>
       </c>
       <c r="E28" t="n">
-        <v>38963820</v>
+        <v>33836572</v>
       </c>
       <c r="F28" t="n">
-        <v>26816.27099175159</v>
+        <v>27636.35882428019</v>
       </c>
       <c r="G28" t="n">
-        <v>26356.22159278369</v>
+        <v>41003.40944618953</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>15925635</v>
+        <v>28264926</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>558348351</v>
+        <v>509560978</v>
       </c>
       <c r="E29" t="n">
-        <v>2162400783</v>
+        <v>1973454486</v>
       </c>
       <c r="F29" t="n">
-        <v>90711.62272337993</v>
+        <v>62462.2572227986</v>
       </c>
       <c r="G29" t="n">
-        <v>245834.2604201632</v>
+        <v>227378.1347272901</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>30407183</v>
+        <v>62008401</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122557290</v>
+        <v>118933166</v>
       </c>
       <c r="E30" t="n">
-        <v>470149491</v>
+        <v>456246767</v>
       </c>
       <c r="F30" t="n">
-        <v>147737.0021929801</v>
+        <v>143677.5705984821</v>
       </c>
       <c r="G30" t="n">
-        <v>188670.6179961924</v>
+        <v>181684.061388574</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>21769225</v>
+        <v>30580260</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33168975</v>
+        <v>34075102</v>
       </c>
       <c r="F31" t="n">
-        <v>10034.90905286368</v>
+        <v>34056.44441038378</v>
       </c>
       <c r="G31" t="n">
-        <v>156798.9542204565</v>
+        <v>12799.52652192099</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>12413736</v>
+        <v>10263961</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>105337098</v>
+        <v>102489011</v>
       </c>
       <c r="E32" t="n">
-        <v>384027083</v>
+        <v>373630738</v>
       </c>
       <c r="F32" t="n">
-        <v>9449.375664245403</v>
+        <v>9464.768928602287</v>
       </c>
       <c r="G32" t="n">
-        <v>9241.737792196429</v>
+        <v>1885.051647066442</v>
       </c>
       <c r="H32" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>354392</v>
+        <v>512123</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>423217179</v>
+        <v>390173503</v>
       </c>
       <c r="E33" t="n">
-        <v>1470946111</v>
+        <v>1355412274</v>
       </c>
       <c r="F33" t="n">
-        <v>157610.7027443603</v>
+        <v>152876.2082912396</v>
       </c>
       <c r="G33" t="n">
-        <v>275340.6431591881</v>
+        <v>200037.3120202129</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I33" t="n">
-        <v>38490971</v>
+        <v>66089277</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>108359356</v>
+        <v>98130780</v>
       </c>
       <c r="E34" t="n">
-        <v>164176944</v>
+        <v>148679469</v>
       </c>
       <c r="F34" t="n">
-        <v>52497.76198215293</v>
+        <v>56729.30171690453</v>
       </c>
       <c r="G34" t="n">
-        <v>69324.52746548284</v>
+        <v>54069.85586367578</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5728088</v>
+        <v>7537750</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1988496</v>
+        <v>1892115</v>
       </c>
       <c r="E35" t="n">
-        <v>7953983</v>
+        <v>7568461</v>
       </c>
       <c r="F35" t="n">
-        <v>79097.04442928098</v>
+        <v>82925.9500696171</v>
       </c>
       <c r="G35" t="n">
-        <v>60449.48780827422</v>
+        <v>79589.74541405358</v>
       </c>
       <c r="H35" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>5139771</v>
+        <v>5655073</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>206789442</v>
+        <v>190055371</v>
       </c>
       <c r="E36" t="n">
-        <v>635799714</v>
+        <v>584348745</v>
       </c>
       <c r="F36" t="n">
-        <v>43213.4134445987</v>
+        <v>32787.65952417732</v>
       </c>
       <c r="G36" t="n">
-        <v>211949.0710678762</v>
+        <v>209354.5206810089</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>21290735</v>
+        <v>25894020</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>118256287</v>
+        <v>108568026</v>
       </c>
       <c r="E37" t="n">
-        <v>308941267</v>
+        <v>283630955</v>
       </c>
       <c r="F37" t="n">
-        <v>39013.07811732407</v>
+        <v>42097.28153354795</v>
       </c>
       <c r="G37" t="n">
-        <v>33064.17358038571</v>
+        <v>40686.1896241111</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>5755270</v>
+        <v>10941333</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>372293868</v>
+        <v>346001668</v>
       </c>
       <c r="E38" t="n">
-        <v>2127393529</v>
+        <v>1977152391</v>
       </c>
       <c r="F38" t="n">
-        <v>43565.09231295146</v>
+        <v>44939.89677218159</v>
       </c>
       <c r="G38" t="n">
-        <v>74251.8109905796</v>
+        <v>87484.38417000818</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>55100901</v>
+        <v>76122692</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>222875534</v>
+        <v>213426235</v>
       </c>
       <c r="E2" t="n">
-        <v>1397621143</v>
+        <v>1338365918</v>
       </c>
       <c r="F2" t="n">
-        <v>176699.3345896591</v>
+        <v>179817.6673446151</v>
       </c>
       <c r="G2" t="n">
-        <v>200777.1066954667</v>
+        <v>171210.4124120508</v>
       </c>
       <c r="H2" t="n">
         <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>23501104</v>
+        <v>27742050</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>118478293</v>
+        <v>116294495</v>
       </c>
       <c r="E3" t="n">
-        <v>131292464</v>
+        <v>128872475</v>
       </c>
       <c r="F3" t="n">
-        <v>66550.45109222461</v>
+        <v>22699.42368666858</v>
       </c>
       <c r="G3" t="n">
-        <v>169316.3147164111</v>
+        <v>106926.314220991</v>
       </c>
       <c r="H3" t="n">
         <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>40335452</v>
+        <v>50349149</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>467936530</v>
+        <v>464914117</v>
       </c>
       <c r="E4" t="n">
-        <v>585319051</v>
+        <v>581538462</v>
       </c>
       <c r="F4" t="n">
-        <v>85116.70855607747</v>
+        <v>80829.3989444093</v>
       </c>
       <c r="G4" t="n">
-        <v>135237.2854057007</v>
+        <v>120027.0533785993</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>107687190</v>
+        <v>132775375</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115326809</v>
+        <v>115784734</v>
       </c>
       <c r="E5" t="n">
-        <v>115326809</v>
+        <v>115784734</v>
       </c>
       <c r="F5" t="n">
-        <v>59206.88881622472</v>
+        <v>46341.31234641119</v>
       </c>
       <c r="G5" t="n">
-        <v>110538.3498690963</v>
+        <v>101663.9228833539</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>119803369</v>
+        <v>143106177</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>217269927</v>
+        <v>207169148</v>
       </c>
       <c r="E6" t="n">
-        <v>217269927</v>
+        <v>207169148</v>
       </c>
       <c r="F6" t="n">
-        <v>54175.95737449623</v>
+        <v>57124.09506991253</v>
       </c>
       <c r="G6" t="n">
-        <v>94700.92885923282</v>
+        <v>100759.6935565201</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>45882029</v>
+        <v>52522420</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92815946</v>
+        <v>89649650</v>
       </c>
       <c r="E7" t="n">
-        <v>115730605</v>
+        <v>111782604</v>
       </c>
       <c r="F7" t="n">
-        <v>26586.84292292048</v>
+        <v>17375.35619103743</v>
       </c>
       <c r="G7" t="n">
-        <v>39785.02166790106</v>
+        <v>43966.62002548447</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>22549199</v>
+        <v>21291981</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73196979</v>
+        <v>70090078</v>
       </c>
       <c r="E8" t="n">
-        <v>152609822</v>
+        <v>146132183</v>
       </c>
       <c r="F8" t="n">
-        <v>47993.11033206281</v>
+        <v>46741.61883875233</v>
       </c>
       <c r="G8" t="n">
-        <v>54161.30648609029</v>
+        <v>56582.28533356122</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>24101669</v>
+        <v>24573891</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>129802674</v>
+        <v>129554292</v>
       </c>
       <c r="E9" t="n">
-        <v>129818897</v>
+        <v>129571984</v>
       </c>
       <c r="F9" t="n">
-        <v>7450.746821662349</v>
+        <v>7126.018370806444</v>
       </c>
       <c r="G9" t="n">
-        <v>12823.76516106205</v>
+        <v>10485.72338891727</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>4523811</v>
+        <v>4543546</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>550670491</v>
+        <v>529938241</v>
       </c>
       <c r="E10" t="n">
-        <v>550670491</v>
+        <v>529938241</v>
       </c>
       <c r="F10" t="n">
-        <v>155215.7355967668</v>
+        <v>203003.9747674285</v>
       </c>
       <c r="G10" t="n">
-        <v>455605.473588084</v>
+        <v>423883.6520659683</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>498082897</v>
+        <v>610697784</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73688639</v>
+        <v>72119898</v>
       </c>
       <c r="E11" t="n">
-        <v>84548327</v>
+        <v>82748396</v>
       </c>
       <c r="F11" t="n">
-        <v>2860.073539684729</v>
+        <v>1203.542328252476</v>
       </c>
       <c r="G11" t="n">
-        <v>21152.3828877627</v>
+        <v>8737.669498029798</v>
       </c>
       <c r="H11" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1847635</v>
+        <v>1827556</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>218470809</v>
+        <v>216555769</v>
       </c>
       <c r="E12" t="n">
-        <v>943041293</v>
+        <v>934774919</v>
       </c>
       <c r="F12" t="n">
-        <v>321427.1212872692</v>
+        <v>388515.4009758019</v>
       </c>
       <c r="G12" t="n">
-        <v>359680.281166177</v>
+        <v>343102.1827494459</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>120441707</v>
+        <v>147450746</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107362954</v>
+        <v>104237397</v>
       </c>
       <c r="E13" t="n">
-        <v>107362954</v>
+        <v>104237397</v>
       </c>
       <c r="F13" t="n">
-        <v>1843.85429785945</v>
+        <v>1660.378546231733</v>
       </c>
       <c r="G13" t="n">
-        <v>6774.979841362076</v>
+        <v>6198.336584556637</v>
       </c>
       <c r="H13" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="I13" t="n">
-        <v>7677820</v>
+        <v>11051950</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12077882</v>
+        <v>11909447</v>
       </c>
       <c r="E14" t="n">
-        <v>30194705</v>
+        <v>29773617</v>
       </c>
       <c r="F14" t="n">
-        <v>9180.967319596592</v>
+        <v>4413.250984563782</v>
       </c>
       <c r="G14" t="n">
-        <v>10353.25090205638</v>
+        <v>11946.64204827904</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>4915905</v>
+        <v>4706686</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11276236</v>
+        <v>11048966</v>
       </c>
       <c r="E15" t="n">
-        <v>16581493</v>
+        <v>16247297</v>
       </c>
       <c r="F15" t="n">
-        <v>2665.247581812719</v>
+        <v>3745.462927581767</v>
       </c>
       <c r="G15" t="n">
-        <v>4681.274695721866</v>
+        <v>3920.706603760841</v>
       </c>
       <c r="H15" t="n">
         <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>6726522</v>
+        <v>6562178</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27444482</v>
+        <v>27764079</v>
       </c>
       <c r="E16" t="n">
-        <v>85453310</v>
+        <v>86448433</v>
       </c>
       <c r="F16" t="n">
-        <v>4956.454346007915</v>
+        <v>3127.041115767972</v>
       </c>
       <c r="G16" t="n">
-        <v>11188.6439330849</v>
+        <v>12316.88045867518</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>10187364</v>
+        <v>11398460</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>275820360</v>
+        <v>268568174</v>
       </c>
       <c r="E17" t="n">
-        <v>2481450988</v>
+        <v>2416205829</v>
       </c>
       <c r="F17" t="n">
-        <v>944260.1205574593</v>
+        <v>947492.7409524226</v>
       </c>
       <c r="G17" t="n">
-        <v>1047715.113471055</v>
+        <v>1030753.717485142</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>67980196</v>
+        <v>79864496</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15262861</v>
+        <v>15427781</v>
       </c>
       <c r="E18" t="n">
-        <v>93551097</v>
+        <v>94561943</v>
       </c>
       <c r="F18" t="n">
-        <v>29798.93227616301</v>
+        <v>30307.33156722317</v>
       </c>
       <c r="G18" t="n">
-        <v>44413.96049965135</v>
+        <v>41811.13942968577</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>15461062</v>
+        <v>15961908</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45111451</v>
+        <v>41827175</v>
       </c>
       <c r="E19" t="n">
-        <v>194335198</v>
+        <v>180186894</v>
       </c>
       <c r="F19" t="n">
-        <v>56420.77280882014</v>
+        <v>46765.21466727503</v>
       </c>
       <c r="G19" t="n">
-        <v>68343.83041404985</v>
+        <v>77925.31054416903</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>12634432</v>
+        <v>15464717</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257911089</v>
+        <v>248409621</v>
       </c>
       <c r="E20" t="n">
-        <v>257911089</v>
+        <v>248409621</v>
       </c>
       <c r="F20" t="n">
-        <v>59114.41487389967</v>
+        <v>64617.13693073938</v>
       </c>
       <c r="G20" t="n">
-        <v>101272.6813417875</v>
+        <v>93803.41548777767</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>94599433</v>
+        <v>105045907</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27941343</v>
+        <v>27515291</v>
       </c>
       <c r="E21" t="n">
-        <v>125104856</v>
+        <v>123197247</v>
       </c>
       <c r="F21" t="n">
-        <v>33553.09309230369</v>
+        <v>40997.48617545375</v>
       </c>
       <c r="G21" t="n">
-        <v>68800.11339630358</v>
+        <v>62725.6799067141</v>
       </c>
       <c r="H21" t="n">
         <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>32326443</v>
+        <v>32479191</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39859437</v>
+        <v>39350722</v>
       </c>
       <c r="E22" t="n">
-        <v>258477837</v>
+        <v>255178959</v>
       </c>
       <c r="F22" t="n">
-        <v>11467.75483450947</v>
+        <v>45077.3164349356</v>
       </c>
       <c r="G22" t="n">
-        <v>2454.624397723483</v>
+        <v>83102.29579267453</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>30997723</v>
+        <v>38033554</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124426281</v>
+        <v>123424841</v>
       </c>
       <c r="E23" t="n">
-        <v>2060601116</v>
+        <v>2044016446</v>
       </c>
       <c r="F23" t="n">
-        <v>376883.4823715052</v>
+        <v>384818.3530334769</v>
       </c>
       <c r="G23" t="n">
-        <v>346301.3031378242</v>
+        <v>333087.1118238093</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>11158949</v>
+        <v>12874177</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5130692</v>
+        <v>4822444</v>
       </c>
       <c r="E24" t="n">
-        <v>26395854</v>
+        <v>24810008</v>
       </c>
       <c r="F24" t="n">
-        <v>599.8800060424032</v>
+        <v>1027.191689443175</v>
       </c>
       <c r="G24" t="n">
-        <v>305.4957620193072</v>
+        <v>614.3848801554853</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>813009</v>
+        <v>831817</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21901988</v>
+        <v>19615387</v>
       </c>
       <c r="E25" t="n">
-        <v>21901988</v>
+        <v>19615387</v>
       </c>
       <c r="F25" t="n">
-        <v>15391.6934447429</v>
+        <v>8017.241090943815</v>
       </c>
       <c r="G25" t="n">
-        <v>6291.185524424941</v>
+        <v>19778.15525828208</v>
       </c>
       <c r="H25" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>2005655</v>
+        <v>2763446</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>264966824</v>
+        <v>260560878</v>
       </c>
       <c r="E27" t="n">
-        <v>490249049</v>
+        <v>482097044</v>
       </c>
       <c r="F27" t="n">
-        <v>79225.63230491556</v>
+        <v>62654.88113906713</v>
       </c>
       <c r="G27" t="n">
-        <v>85687.09514865668</v>
+        <v>73569.34852292</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>18213363</v>
+        <v>20140754</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33836572</v>
+        <v>32832757</v>
       </c>
       <c r="E28" t="n">
-        <v>33836572</v>
+        <v>32832757</v>
       </c>
       <c r="F28" t="n">
-        <v>27636.35882428019</v>
+        <v>19939.76316762768</v>
       </c>
       <c r="G28" t="n">
-        <v>41003.40944618953</v>
+        <v>38000.67078534898</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>28264926</v>
+        <v>34921547</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>509560978</v>
+        <v>496936044</v>
       </c>
       <c r="E29" t="n">
-        <v>1973454486</v>
+        <v>1924559982</v>
       </c>
       <c r="F29" t="n">
-        <v>62462.2572227986</v>
+        <v>55456.51822745538</v>
       </c>
       <c r="G29" t="n">
-        <v>227378.1347272901</v>
+        <v>240807.4408472964</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>62008401</v>
+        <v>82166850</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>118933166</v>
+        <v>123559920</v>
       </c>
       <c r="E30" t="n">
-        <v>456246767</v>
+        <v>473995743</v>
       </c>
       <c r="F30" t="n">
-        <v>143677.5705984821</v>
+        <v>145597.6622956845</v>
       </c>
       <c r="G30" t="n">
-        <v>181684.061388574</v>
+        <v>180458.8256710777</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I30" t="n">
-        <v>30580260</v>
+        <v>34903069</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34075102</v>
+        <v>35606532</v>
       </c>
       <c r="F31" t="n">
-        <v>34056.44441038378</v>
+        <v>15678.17310498025</v>
       </c>
       <c r="G31" t="n">
-        <v>12799.52652192099</v>
+        <v>108840.7779325798</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I31" t="n">
-        <v>10263961</v>
+        <v>11413770</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>102489011</v>
+        <v>100768862</v>
       </c>
       <c r="E32" t="n">
-        <v>373630738</v>
+        <v>367352307</v>
       </c>
       <c r="F32" t="n">
-        <v>9464.768928602287</v>
+        <v>9546.312724763724</v>
       </c>
       <c r="G32" t="n">
-        <v>1885.051647066442</v>
+        <v>1598.933240262798</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>512123</v>
+        <v>540854</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>390173503</v>
+        <v>380829474</v>
       </c>
       <c r="E33" t="n">
-        <v>1355412274</v>
+        <v>1322952325</v>
       </c>
       <c r="F33" t="n">
-        <v>152876.2082912396</v>
+        <v>154321.8890733761</v>
       </c>
       <c r="G33" t="n">
-        <v>200037.3120202129</v>
+        <v>180127.6291033118</v>
       </c>
       <c r="H33" t="n">
         <v>0.15</v>
       </c>
       <c r="I33" t="n">
-        <v>66089277</v>
+        <v>77312602</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>98130780</v>
+        <v>97565782</v>
       </c>
       <c r="E34" t="n">
-        <v>148679469</v>
+        <v>147823433</v>
       </c>
       <c r="F34" t="n">
-        <v>56729.30171690453</v>
+        <v>15650.44804183429</v>
       </c>
       <c r="G34" t="n">
-        <v>54069.85586367578</v>
+        <v>42377.52892781704</v>
       </c>
       <c r="H34" t="n">
         <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>7537750</v>
+        <v>9247503</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1892115</v>
+        <v>1809223</v>
       </c>
       <c r="E35" t="n">
-        <v>7568461</v>
+        <v>7236891</v>
       </c>
       <c r="F35" t="n">
-        <v>82925.9500696171</v>
+        <v>60173.91501784604</v>
       </c>
       <c r="G35" t="n">
-        <v>79589.74541405358</v>
+        <v>43003.31922698319</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>5655073</v>
+        <v>5958650</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>190055371</v>
+        <v>187008792</v>
       </c>
       <c r="E36" t="n">
-        <v>584348745</v>
+        <v>574981660</v>
       </c>
       <c r="F36" t="n">
-        <v>32787.65952417732</v>
+        <v>104414.8238759437</v>
       </c>
       <c r="G36" t="n">
-        <v>209354.5206810089</v>
+        <v>199740.0505303701</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>25894020</v>
+        <v>30204296</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>108568026</v>
+        <v>101386653</v>
       </c>
       <c r="E37" t="n">
-        <v>283630955</v>
+        <v>264869816</v>
       </c>
       <c r="F37" t="n">
-        <v>42097.28153354795</v>
+        <v>39916.2158796441</v>
       </c>
       <c r="G37" t="n">
-        <v>40686.1896241111</v>
+        <v>38189.43793081323</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>10941333</v>
+        <v>13656549</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>346001668</v>
+        <v>339375168</v>
       </c>
       <c r="E38" t="n">
-        <v>1977152391</v>
+        <v>1939286675</v>
       </c>
       <c r="F38" t="n">
-        <v>44939.89677218159</v>
+        <v>50513.5272191234</v>
       </c>
       <c r="G38" t="n">
-        <v>87484.38417000818</v>
+        <v>109490.0161649488</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>76122692</v>
+        <v>89997645</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>213426235</v>
+        <v>213090813</v>
       </c>
       <c r="E2" t="n">
-        <v>1338365918</v>
+        <v>1336262538</v>
       </c>
       <c r="F2" t="n">
-        <v>179817.6673446151</v>
+        <v>173689.6247935896</v>
       </c>
       <c r="G2" t="n">
-        <v>171210.4124120508</v>
+        <v>197045.3429576572</v>
       </c>
       <c r="H2" t="n">
         <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>27742050</v>
+        <v>30129364</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>116294495</v>
+        <v>122888774</v>
       </c>
       <c r="E3" t="n">
-        <v>128872475</v>
+        <v>136179965</v>
       </c>
       <c r="F3" t="n">
-        <v>22699.42368666858</v>
+        <v>71295.88873359021</v>
       </c>
       <c r="G3" t="n">
-        <v>106926.314220991</v>
+        <v>170097.0952616062</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>50349149</v>
+        <v>57920031</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>464914117</v>
+        <v>484134816</v>
       </c>
       <c r="E4" t="n">
-        <v>581538462</v>
+        <v>605580699</v>
       </c>
       <c r="F4" t="n">
-        <v>80829.3989444093</v>
+        <v>109849.259077744</v>
       </c>
       <c r="G4" t="n">
-        <v>120027.0533785993</v>
+        <v>148058.4431982794</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>132775375</v>
+        <v>149804158</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115784734</v>
+        <v>125709889</v>
       </c>
       <c r="E5" t="n">
-        <v>115784734</v>
+        <v>125709889</v>
       </c>
       <c r="F5" t="n">
-        <v>46341.31234641119</v>
+        <v>39724.02769315233</v>
       </c>
       <c r="G5" t="n">
-        <v>101663.9228833539</v>
+        <v>94814.53257412044</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>143106177</v>
+        <v>165069009</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>207169148</v>
+        <v>211355887</v>
       </c>
       <c r="E6" t="n">
-        <v>207169148</v>
+        <v>211355887</v>
       </c>
       <c r="F6" t="n">
-        <v>57124.09506991253</v>
+        <v>52152.00871645427</v>
       </c>
       <c r="G6" t="n">
-        <v>100759.6935565201</v>
+        <v>86113.31367666263</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>52522420</v>
+        <v>60489692</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89649650</v>
+        <v>88283844</v>
       </c>
       <c r="E7" t="n">
-        <v>111782604</v>
+        <v>110079604</v>
       </c>
       <c r="F7" t="n">
-        <v>17375.35619103743</v>
+        <v>26859.61756460806</v>
       </c>
       <c r="G7" t="n">
-        <v>43966.62002548447</v>
+        <v>38248.60825644623</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>21291981</v>
+        <v>20081009</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70090078</v>
+        <v>74321137</v>
       </c>
       <c r="E8" t="n">
-        <v>146132183</v>
+        <v>154953601</v>
       </c>
       <c r="F8" t="n">
-        <v>46741.61883875233</v>
+        <v>29616.79976330561</v>
       </c>
       <c r="G8" t="n">
-        <v>56582.28533356122</v>
+        <v>54532.29574206224</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>24573891</v>
+        <v>26440792</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>129554292</v>
+        <v>130956180</v>
       </c>
       <c r="E9" t="n">
-        <v>129571984</v>
+        <v>130957896</v>
       </c>
       <c r="F9" t="n">
-        <v>7126.018370806444</v>
+        <v>4433.033883875416</v>
       </c>
       <c r="G9" t="n">
-        <v>10485.72338891727</v>
+        <v>15328.9990005235</v>
       </c>
       <c r="H9" t="n">
         <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>4543546</v>
+        <v>4320485</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>529938241</v>
+        <v>539927917</v>
       </c>
       <c r="E10" t="n">
-        <v>529938241</v>
+        <v>539927917</v>
       </c>
       <c r="F10" t="n">
-        <v>203003.9747674285</v>
+        <v>300810.5904316419</v>
       </c>
       <c r="G10" t="n">
-        <v>423883.6520659683</v>
+        <v>467861.5038942323</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>610697784</v>
+        <v>725734159</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72119898</v>
+        <v>73890022</v>
       </c>
       <c r="E11" t="n">
-        <v>82748396</v>
+        <v>84779388</v>
       </c>
       <c r="F11" t="n">
-        <v>1203.542328252476</v>
+        <v>2057.838925822778</v>
       </c>
       <c r="G11" t="n">
-        <v>8737.669498029798</v>
+        <v>3580.905649616305</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="I11" t="n">
-        <v>1827556</v>
+        <v>1935106</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>216555769</v>
+        <v>220932024</v>
       </c>
       <c r="E12" t="n">
-        <v>934774919</v>
+        <v>953665263</v>
       </c>
       <c r="F12" t="n">
-        <v>388515.4009758019</v>
+        <v>278995.4980032566</v>
       </c>
       <c r="G12" t="n">
-        <v>343102.1827494459</v>
+        <v>373953.6626662698</v>
       </c>
       <c r="H12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>147450746</v>
+        <v>173154507</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>104237397</v>
+        <v>104322674</v>
       </c>
       <c r="E13" t="n">
-        <v>104237397</v>
+        <v>104322674</v>
       </c>
       <c r="F13" t="n">
-        <v>1660.378546231733</v>
+        <v>1928.03503862185</v>
       </c>
       <c r="G13" t="n">
-        <v>6198.336584556637</v>
+        <v>6536.452289725389</v>
       </c>
       <c r="H13" t="n">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="I13" t="n">
-        <v>11051950</v>
+        <v>12739503</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11909447</v>
+        <v>12407441</v>
       </c>
       <c r="E14" t="n">
-        <v>29773617</v>
+        <v>31018604</v>
       </c>
       <c r="F14" t="n">
-        <v>4413.250984563782</v>
+        <v>5378.495878050267</v>
       </c>
       <c r="G14" t="n">
-        <v>11946.64204827904</v>
+        <v>8866.530070474319</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>4706686</v>
+        <v>4662111</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11048966</v>
+        <v>11007000</v>
       </c>
       <c r="E15" t="n">
-        <v>16247297</v>
+        <v>16185586</v>
       </c>
       <c r="F15" t="n">
-        <v>3745.462927581767</v>
+        <v>4577.29504290046</v>
       </c>
       <c r="G15" t="n">
-        <v>3920.706603760841</v>
+        <v>8043.884595200981</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>6562178</v>
+        <v>4792003</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27764079</v>
+        <v>27833674</v>
       </c>
       <c r="E16" t="n">
-        <v>86448433</v>
+        <v>86665131</v>
       </c>
       <c r="F16" t="n">
-        <v>3127.041115767972</v>
+        <v>4398.384932764636</v>
       </c>
       <c r="G16" t="n">
-        <v>12316.88045867518</v>
+        <v>6942.183679566641</v>
       </c>
       <c r="H16" t="n">
         <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>11398460</v>
+        <v>12764058</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268568174</v>
+        <v>280015469</v>
       </c>
       <c r="E17" t="n">
-        <v>2416205829</v>
+        <v>2519192794</v>
       </c>
       <c r="F17" t="n">
-        <v>947492.7409524226</v>
+        <v>979647.2959170891</v>
       </c>
       <c r="G17" t="n">
-        <v>1030753.717485142</v>
+        <v>1046917.751123379</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>79864496</v>
+        <v>87956339</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15427781</v>
+        <v>15322928</v>
       </c>
       <c r="E18" t="n">
-        <v>94561943</v>
+        <v>93919267</v>
       </c>
       <c r="F18" t="n">
-        <v>30307.33156722317</v>
+        <v>31007.85775233917</v>
       </c>
       <c r="G18" t="n">
-        <v>41811.13942968577</v>
+        <v>38883.81116432665</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>15961908</v>
+        <v>17069065</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41827175</v>
+        <v>43248592</v>
       </c>
       <c r="E19" t="n">
-        <v>180186894</v>
+        <v>186310206</v>
       </c>
       <c r="F19" t="n">
-        <v>46765.21466727503</v>
+        <v>60461.16388183858</v>
       </c>
       <c r="G19" t="n">
-        <v>77925.31054416903</v>
+        <v>74425.22104663217</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>15464717</v>
+        <v>17955162</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>248409621</v>
+        <v>261635515</v>
       </c>
       <c r="E20" t="n">
-        <v>248409621</v>
+        <v>261635515</v>
       </c>
       <c r="F20" t="n">
-        <v>64617.13693073938</v>
+        <v>40549.7072474159</v>
       </c>
       <c r="G20" t="n">
-        <v>93803.41548777767</v>
+        <v>103900.4645687091</v>
       </c>
       <c r="H20" t="n">
         <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>105045907</v>
+        <v>122255629</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27515291</v>
+        <v>28212286</v>
       </c>
       <c r="E21" t="n">
-        <v>123197247</v>
+        <v>126317978</v>
       </c>
       <c r="F21" t="n">
-        <v>40997.48617545375</v>
+        <v>49825.06625980511</v>
       </c>
       <c r="G21" t="n">
-        <v>62725.6799067141</v>
+        <v>39853.65892993374</v>
       </c>
       <c r="H21" t="n">
         <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>32479191</v>
+        <v>34430051</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39350722</v>
+        <v>40701151</v>
       </c>
       <c r="E22" t="n">
-        <v>255178959</v>
+        <v>263936133</v>
       </c>
       <c r="F22" t="n">
-        <v>45077.3164349356</v>
+        <v>46132.87377178861</v>
       </c>
       <c r="G22" t="n">
-        <v>83102.29579267453</v>
+        <v>82768.49307129715</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>38033554</v>
+        <v>43505113</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123424841</v>
+        <v>123556924</v>
       </c>
       <c r="E23" t="n">
-        <v>2044016446</v>
+        <v>2046203849</v>
       </c>
       <c r="F23" t="n">
-        <v>384818.3530334769</v>
+        <v>405665.4211823667</v>
       </c>
       <c r="G23" t="n">
-        <v>333087.1118238093</v>
+        <v>359984.5726593064</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>12874177</v>
+        <v>23011762</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4822444</v>
+        <v>4958212</v>
       </c>
       <c r="E24" t="n">
-        <v>24810008</v>
+        <v>25508496</v>
       </c>
       <c r="F24" t="n">
-        <v>1027.191689443175</v>
+        <v>2061.218237139998</v>
       </c>
       <c r="G24" t="n">
-        <v>614.3848801554853</v>
+        <v>689.7204463227389</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="I24" t="n">
-        <v>831817</v>
+        <v>887153</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19615387</v>
+        <v>17307948</v>
       </c>
       <c r="E25" t="n">
-        <v>19615387</v>
+        <v>17307948</v>
       </c>
       <c r="F25" t="n">
-        <v>8017.241090943815</v>
+        <v>14606.74625787653</v>
       </c>
       <c r="G25" t="n">
-        <v>19778.15525828208</v>
+        <v>10173.75585958322</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>2763446</v>
+        <v>6350877</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>260560878</v>
+        <v>269350044</v>
       </c>
       <c r="E27" t="n">
-        <v>482097044</v>
+        <v>498359006</v>
       </c>
       <c r="F27" t="n">
-        <v>62654.88113906713</v>
+        <v>64932.7829483576</v>
       </c>
       <c r="G27" t="n">
-        <v>73569.34852292</v>
+        <v>72961.40888041638</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>20140754</v>
+        <v>23210916</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32832757</v>
+        <v>34799129</v>
       </c>
       <c r="E28" t="n">
-        <v>32832757</v>
+        <v>34799129</v>
       </c>
       <c r="F28" t="n">
-        <v>19939.76316762768</v>
+        <v>35798.36719801849</v>
       </c>
       <c r="G28" t="n">
-        <v>38000.67078534898</v>
+        <v>40009.46735443253</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>34921547</v>
+        <v>30728902</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>496936044</v>
+        <v>523417813</v>
       </c>
       <c r="E29" t="n">
-        <v>1924559982</v>
+        <v>2027119965</v>
       </c>
       <c r="F29" t="n">
-        <v>55456.51822745538</v>
+        <v>48249.48447582751</v>
       </c>
       <c r="G29" t="n">
-        <v>240807.4408472964</v>
+        <v>179628.6781861599</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>82166850</v>
+        <v>99489406</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>123559920</v>
+        <v>124391450</v>
       </c>
       <c r="E30" t="n">
-        <v>473995743</v>
+        <v>477185624</v>
       </c>
       <c r="F30" t="n">
-        <v>145597.6622956845</v>
+        <v>140776.9945072524</v>
       </c>
       <c r="G30" t="n">
-        <v>180458.8256710777</v>
+        <v>176360.0207400659</v>
       </c>
       <c r="H30" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>34903069</v>
+        <v>38450745</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35606532</v>
+        <v>34341144</v>
       </c>
       <c r="F31" t="n">
-        <v>15678.17310498025</v>
+        <v>19622.44684124821</v>
       </c>
       <c r="G31" t="n">
-        <v>108840.7779325798</v>
+        <v>64051.94815778184</v>
       </c>
       <c r="H31" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I31" t="n">
-        <v>11413770</v>
+        <v>11976857</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>100768862</v>
+        <v>101315425</v>
       </c>
       <c r="E32" t="n">
-        <v>367352307</v>
+        <v>369333080</v>
       </c>
       <c r="F32" t="n">
-        <v>9546.312724763724</v>
+        <v>10266.83856363937</v>
       </c>
       <c r="G32" t="n">
-        <v>1598.933240262798</v>
+        <v>2384.898811521135</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I32" t="n">
-        <v>540854</v>
+        <v>441434</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>380829474</v>
+        <v>401577785</v>
       </c>
       <c r="E33" t="n">
-        <v>1322952325</v>
+        <v>1395029274</v>
       </c>
       <c r="F33" t="n">
-        <v>154321.8890733761</v>
+        <v>148901.0114534904</v>
       </c>
       <c r="G33" t="n">
-        <v>180127.6291033118</v>
+        <v>183259.8835941373</v>
       </c>
       <c r="H33" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>77312602</v>
+        <v>85520489</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>97565782</v>
+        <v>98015523</v>
       </c>
       <c r="E34" t="n">
-        <v>147823433</v>
+        <v>148504842</v>
       </c>
       <c r="F34" t="n">
-        <v>15650.44804183429</v>
+        <v>11965.09107359676</v>
       </c>
       <c r="G34" t="n">
-        <v>42377.52892781704</v>
+        <v>16929.6586422848</v>
       </c>
       <c r="H34" t="n">
         <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>9247503</v>
+        <v>10263085</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1809223</v>
+        <v>1869499</v>
       </c>
       <c r="E35" t="n">
-        <v>7236891</v>
+        <v>7477995</v>
       </c>
       <c r="F35" t="n">
-        <v>60173.91501784604</v>
+        <v>47618.77097509473</v>
       </c>
       <c r="G35" t="n">
-        <v>43003.31922698319</v>
+        <v>29611.90381968028</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>5958650</v>
+        <v>6685967</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>187008792</v>
+        <v>191434806</v>
       </c>
       <c r="E36" t="n">
-        <v>574981660</v>
+        <v>588589986</v>
       </c>
       <c r="F36" t="n">
-        <v>104414.8238759437</v>
+        <v>147940.227089421</v>
       </c>
       <c r="G36" t="n">
-        <v>199740.0505303701</v>
+        <v>207590.5916406654</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>30204296</v>
+        <v>36078112</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>101386653</v>
+        <v>99517658</v>
       </c>
       <c r="E37" t="n">
-        <v>264869816</v>
+        <v>259987118</v>
       </c>
       <c r="F37" t="n">
-        <v>39916.2158796441</v>
+        <v>46514.12960882506</v>
       </c>
       <c r="G37" t="n">
-        <v>38189.43793081323</v>
+        <v>43814.92024183095</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="I37" t="n">
-        <v>13656549</v>
+        <v>17240505</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>339375168</v>
+        <v>349593147</v>
       </c>
       <c r="E38" t="n">
-        <v>1939286675</v>
+        <v>1997675124</v>
       </c>
       <c r="F38" t="n">
-        <v>50513.5272191234</v>
+        <v>56232.57091827402</v>
       </c>
       <c r="G38" t="n">
-        <v>109490.0161649488</v>
+        <v>112867.2030748137</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>89997645</v>
+        <v>99133204</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>213090813</v>
+        <v>219509369</v>
       </c>
       <c r="E2" t="n">
-        <v>1336262538</v>
+        <v>1376512397</v>
       </c>
       <c r="F2" t="n">
-        <v>173689.6247935896</v>
+        <v>165591.3841730525</v>
       </c>
       <c r="G2" t="n">
-        <v>197045.3429576572</v>
+        <v>183935.9421026277</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>30129364</v>
+        <v>26417205</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>122888774</v>
+        <v>128341702</v>
       </c>
       <c r="E3" t="n">
-        <v>136179965</v>
+        <v>142222661</v>
       </c>
       <c r="F3" t="n">
-        <v>71295.88873359021</v>
+        <v>67334.97437003137</v>
       </c>
       <c r="G3" t="n">
-        <v>170097.0952616062</v>
+        <v>178012.9135530278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>57920031</v>
+        <v>46876333</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>484134816</v>
+        <v>503766466</v>
       </c>
       <c r="E4" t="n">
-        <v>605580699</v>
+        <v>630136976</v>
       </c>
       <c r="F4" t="n">
-        <v>109849.259077744</v>
+        <v>84879.78244542622</v>
       </c>
       <c r="G4" t="n">
-        <v>148058.4431982794</v>
+        <v>144106.5863942527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>149804158</v>
+        <v>116773494</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>125709889</v>
+        <v>129720079</v>
       </c>
       <c r="E5" t="n">
-        <v>125709889</v>
+        <v>129720079</v>
       </c>
       <c r="F5" t="n">
-        <v>39724.02769315233</v>
+        <v>30046.01409877003</v>
       </c>
       <c r="G5" t="n">
-        <v>94814.53257412044</v>
+        <v>76810.00850894758</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I5" t="n">
-        <v>165069009</v>
+        <v>124998349</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211355887</v>
+        <v>216241292</v>
       </c>
       <c r="E6" t="n">
-        <v>211355887</v>
+        <v>216241292</v>
       </c>
       <c r="F6" t="n">
-        <v>52152.00871645427</v>
+        <v>54589.19719571097</v>
       </c>
       <c r="G6" t="n">
-        <v>86113.31367666263</v>
+        <v>101341.385660136</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>60489692</v>
+        <v>41666038</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>88283844</v>
+        <v>95257577</v>
       </c>
       <c r="E7" t="n">
-        <v>110079604</v>
+        <v>118775033</v>
       </c>
       <c r="F7" t="n">
-        <v>26859.61756460806</v>
+        <v>21150.452765599</v>
       </c>
       <c r="G7" t="n">
-        <v>38248.60825644623</v>
+        <v>42580.62912967537</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>20081009</v>
+        <v>31177731</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74321137</v>
+        <v>75326744</v>
       </c>
       <c r="E8" t="n">
-        <v>154953601</v>
+        <v>157050211</v>
       </c>
       <c r="F8" t="n">
-        <v>29616.79976330561</v>
+        <v>46847.29735755421</v>
       </c>
       <c r="G8" t="n">
-        <v>54532.29574206224</v>
+        <v>53550.7281673129</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>26440792</v>
+        <v>21495499</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>130956180</v>
+        <v>135273588</v>
       </c>
       <c r="E9" t="n">
-        <v>130957896</v>
+        <v>135281167</v>
       </c>
       <c r="F9" t="n">
-        <v>4433.033883875416</v>
+        <v>4756.143832759898</v>
       </c>
       <c r="G9" t="n">
-        <v>15328.9990005235</v>
+        <v>19119.39843515394</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>4320485</v>
+        <v>3812414</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>539927917</v>
+        <v>576730994</v>
       </c>
       <c r="E10" t="n">
-        <v>539927917</v>
+        <v>576730994</v>
       </c>
       <c r="F10" t="n">
-        <v>300810.5904316419</v>
+        <v>222852.378877174</v>
       </c>
       <c r="G10" t="n">
-        <v>467861.5038942323</v>
+        <v>517806.5057580761</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>725734159</v>
+        <v>621069444</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73890022</v>
+        <v>77104194</v>
       </c>
       <c r="E11" t="n">
-        <v>84779388</v>
+        <v>88467241</v>
       </c>
       <c r="F11" t="n">
-        <v>2057.838925822778</v>
+        <v>4654.300751500906</v>
       </c>
       <c r="G11" t="n">
-        <v>3580.905649616305</v>
+        <v>15706.41972302167</v>
       </c>
       <c r="H11" t="n">
-        <v>0.62</v>
+        <v>0.28</v>
       </c>
       <c r="I11" t="n">
-        <v>1935106</v>
+        <v>2415657</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>220932024</v>
+        <v>225852276</v>
       </c>
       <c r="E12" t="n">
-        <v>953665263</v>
+        <v>974903803</v>
       </c>
       <c r="F12" t="n">
-        <v>278995.4980032566</v>
+        <v>276513.5709726639</v>
       </c>
       <c r="G12" t="n">
-        <v>373953.6626662698</v>
+        <v>394846.8827668367</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>173154507</v>
+        <v>135212266</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>104322674</v>
+        <v>105386075</v>
       </c>
       <c r="E13" t="n">
-        <v>104322674</v>
+        <v>105386075</v>
       </c>
       <c r="F13" t="n">
-        <v>1928.03503862185</v>
+        <v>1695.942626975493</v>
       </c>
       <c r="G13" t="n">
-        <v>6536.452289725389</v>
+        <v>6396.87560279134</v>
       </c>
       <c r="H13" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>12739503</v>
+        <v>9413011</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12407441</v>
+        <v>12238522</v>
       </c>
       <c r="E14" t="n">
-        <v>31018604</v>
+        <v>30596305</v>
       </c>
       <c r="F14" t="n">
-        <v>5378.495878050267</v>
+        <v>9856.812140344606</v>
       </c>
       <c r="G14" t="n">
-        <v>8866.530070474319</v>
+        <v>7620.946373291605</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>4662111</v>
+        <v>3820417</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11007000</v>
+        <v>11169180</v>
       </c>
       <c r="E15" t="n">
-        <v>16185586</v>
+        <v>16424069</v>
       </c>
       <c r="F15" t="n">
-        <v>4577.29504290046</v>
+        <v>2414.679193449158</v>
       </c>
       <c r="G15" t="n">
-        <v>8043.884595200981</v>
+        <v>5775.280712347894</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>4792003</v>
+        <v>1770454</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27833674</v>
+        <v>28411007</v>
       </c>
       <c r="E16" t="n">
-        <v>86665131</v>
+        <v>88462760</v>
       </c>
       <c r="F16" t="n">
-        <v>4398.384932764636</v>
+        <v>7746.83447853494</v>
       </c>
       <c r="G16" t="n">
-        <v>6942.183679566641</v>
+        <v>10209.98561035874</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>12764058</v>
+        <v>12214622</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>280015469</v>
+        <v>293286455</v>
       </c>
       <c r="E17" t="n">
-        <v>2519192794</v>
+        <v>2638586810</v>
       </c>
       <c r="F17" t="n">
-        <v>979647.2959170891</v>
+        <v>973621.448599977</v>
       </c>
       <c r="G17" t="n">
-        <v>1046917.751123379</v>
+        <v>1068082.273370094</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>87956339</v>
+        <v>68658903</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15322928</v>
+        <v>16050826</v>
       </c>
       <c r="E18" t="n">
-        <v>93919267</v>
+        <v>98380794</v>
       </c>
       <c r="F18" t="n">
-        <v>31007.85775233917</v>
+        <v>38698.75202851732</v>
       </c>
       <c r="G18" t="n">
-        <v>38883.81116432665</v>
+        <v>41470.55032425505</v>
       </c>
       <c r="H18" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>17069065</v>
+        <v>17281448</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43248592</v>
+        <v>44117004</v>
       </c>
       <c r="E19" t="n">
-        <v>186310206</v>
+        <v>190051230</v>
       </c>
       <c r="F19" t="n">
-        <v>60461.16388183858</v>
+        <v>53339.83974082021</v>
       </c>
       <c r="G19" t="n">
-        <v>74425.22104663217</v>
+        <v>63539.59675882738</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>17955162</v>
+        <v>15858938</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>261635515</v>
+        <v>268168709</v>
       </c>
       <c r="E20" t="n">
-        <v>261635515</v>
+        <v>268168709</v>
       </c>
       <c r="F20" t="n">
-        <v>40549.7072474159</v>
+        <v>52655.54990373647</v>
       </c>
       <c r="G20" t="n">
-        <v>103900.4645687091</v>
+        <v>96718.37016153077</v>
       </c>
       <c r="H20" t="n">
         <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>122255629</v>
+        <v>92679155</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28212286</v>
+        <v>30062969</v>
       </c>
       <c r="E21" t="n">
-        <v>126317978</v>
+        <v>134604243</v>
       </c>
       <c r="F21" t="n">
-        <v>49825.06625980511</v>
+        <v>37620.85687167491</v>
       </c>
       <c r="G21" t="n">
-        <v>39853.65892993374</v>
+        <v>51027.43602338499</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>34430051</v>
+        <v>28716908</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40701151</v>
+        <v>42182776</v>
       </c>
       <c r="E22" t="n">
-        <v>263936133</v>
+        <v>273544075</v>
       </c>
       <c r="F22" t="n">
-        <v>46132.87377178861</v>
+        <v>45460.48169161499</v>
       </c>
       <c r="G22" t="n">
-        <v>82768.49307129715</v>
+        <v>91712.07410306414</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>43505113</v>
+        <v>44853344</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123556924</v>
+        <v>122379823</v>
       </c>
       <c r="E23" t="n">
-        <v>2046203849</v>
+        <v>2026710097</v>
       </c>
       <c r="F23" t="n">
-        <v>405665.4211823667</v>
+        <v>372883.3862547169</v>
       </c>
       <c r="G23" t="n">
-        <v>359984.5726593064</v>
+        <v>323636.3844947232</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>23011762</v>
+        <v>25455374</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4958212</v>
+        <v>5172892</v>
       </c>
       <c r="E24" t="n">
-        <v>25508496</v>
+        <v>26612959</v>
       </c>
       <c r="F24" t="n">
-        <v>2061.218237139998</v>
+        <v>1040.596823167355</v>
       </c>
       <c r="G24" t="n">
-        <v>689.7204463227389</v>
+        <v>485.578375884434</v>
       </c>
       <c r="H24" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>887153</v>
+        <v>919850</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17307948</v>
+        <v>19818890</v>
       </c>
       <c r="E25" t="n">
-        <v>17307948</v>
+        <v>19818890</v>
       </c>
       <c r="F25" t="n">
-        <v>14606.74625787653</v>
+        <v>2629.843344805945</v>
       </c>
       <c r="G25" t="n">
-        <v>10173.75585958322</v>
+        <v>11022.5541881777</v>
       </c>
       <c r="H25" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>6350877</v>
+        <v>7440584</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>269350044</v>
+        <v>275436459</v>
       </c>
       <c r="E27" t="n">
-        <v>498359006</v>
+        <v>509620262</v>
       </c>
       <c r="F27" t="n">
-        <v>64932.7829483576</v>
+        <v>115046.0045198027</v>
       </c>
       <c r="G27" t="n">
-        <v>72961.40888041638</v>
+        <v>118011.3474295723</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>23210916</v>
+        <v>21539589</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34799129</v>
+        <v>34929500</v>
       </c>
       <c r="E28" t="n">
-        <v>34799129</v>
+        <v>34929500</v>
       </c>
       <c r="F28" t="n">
-        <v>35798.36719801849</v>
+        <v>29977.51771347418</v>
       </c>
       <c r="G28" t="n">
-        <v>40009.46735443253</v>
+        <v>42544.44747517074</v>
       </c>
       <c r="H28" t="n">
         <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>30728902</v>
+        <v>22007273</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>523417813</v>
+        <v>544605671</v>
       </c>
       <c r="E29" t="n">
-        <v>2027119965</v>
+        <v>2109177413</v>
       </c>
       <c r="F29" t="n">
-        <v>48249.48447582751</v>
+        <v>87964.81436220375</v>
       </c>
       <c r="G29" t="n">
-        <v>179628.6781861599</v>
+        <v>243959.8673858817</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>99489406</v>
+        <v>68521487</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>124391450</v>
+        <v>127761929</v>
       </c>
       <c r="E30" t="n">
-        <v>477185624</v>
+        <v>490115324</v>
       </c>
       <c r="F30" t="n">
-        <v>140776.9945072524</v>
+        <v>165770.8285476958</v>
       </c>
       <c r="G30" t="n">
-        <v>176360.0207400659</v>
+        <v>183750.5812367985</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>38450745</v>
+        <v>33145432</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34341144</v>
+        <v>35207639</v>
       </c>
       <c r="F31" t="n">
-        <v>19622.44684124821</v>
+        <v>12779.51595271332</v>
       </c>
       <c r="G31" t="n">
-        <v>64051.94815778184</v>
+        <v>115132.5480646855</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>11976857</v>
+        <v>9779645</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>101315425</v>
+        <v>104146766</v>
       </c>
       <c r="E32" t="n">
-        <v>369333080</v>
+        <v>379642607</v>
       </c>
       <c r="F32" t="n">
-        <v>10266.83856363937</v>
+        <v>11049.14916816494</v>
       </c>
       <c r="G32" t="n">
-        <v>2384.898811521135</v>
+        <v>5395.031356475456</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>441434</v>
+        <v>351926</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>401577785</v>
+        <v>402983936</v>
       </c>
       <c r="E33" t="n">
-        <v>1395029274</v>
+        <v>1399205988</v>
       </c>
       <c r="F33" t="n">
-        <v>148901.0114534904</v>
+        <v>133881.5463335639</v>
       </c>
       <c r="G33" t="n">
-        <v>183259.8835941373</v>
+        <v>175569.1545518089</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>85520489</v>
+        <v>63594195</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>98015523</v>
+        <v>95162205</v>
       </c>
       <c r="E34" t="n">
-        <v>148504842</v>
+        <v>144181736</v>
       </c>
       <c r="F34" t="n">
-        <v>11965.09107359676</v>
+        <v>14437.31988531087</v>
       </c>
       <c r="G34" t="n">
-        <v>16929.6586422848</v>
+        <v>16501.67375456762</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>10263085</v>
+        <v>9552596</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1869499</v>
+        <v>1904351</v>
       </c>
       <c r="E35" t="n">
-        <v>7477995</v>
+        <v>7617403</v>
       </c>
       <c r="F35" t="n">
-        <v>47618.77097509473</v>
+        <v>49215.43423600023</v>
       </c>
       <c r="G35" t="n">
-        <v>29611.90381968028</v>
+        <v>69903.6165363981</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6685967</v>
+        <v>7117482</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>191434806</v>
+        <v>197582737</v>
       </c>
       <c r="E36" t="n">
-        <v>588589986</v>
+        <v>607492563</v>
       </c>
       <c r="F36" t="n">
-        <v>147940.227089421</v>
+        <v>167320.8562431913</v>
       </c>
       <c r="G36" t="n">
-        <v>207590.5916406654</v>
+        <v>214317.5117201491</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>36078112</v>
+        <v>26709010</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>99517658</v>
+        <v>102113196</v>
       </c>
       <c r="E37" t="n">
-        <v>259987118</v>
+        <v>266767889</v>
       </c>
       <c r="F37" t="n">
-        <v>46514.12960882506</v>
+        <v>39122.27977601431</v>
       </c>
       <c r="G37" t="n">
-        <v>43814.92024183095</v>
+        <v>39669.33258229635</v>
       </c>
       <c r="H37" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>17240505</v>
+        <v>14132454</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>349593147</v>
+        <v>366743068</v>
       </c>
       <c r="E38" t="n">
-        <v>1997675124</v>
+        <v>2095674673</v>
       </c>
       <c r="F38" t="n">
-        <v>56232.57091827402</v>
+        <v>34841.59556656807</v>
       </c>
       <c r="G38" t="n">
-        <v>112867.2030748137</v>
+        <v>97538.31069256352</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>99133204</v>
+        <v>71074819</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>219509369</v>
+        <v>219172649</v>
       </c>
       <c r="E2" t="n">
-        <v>1376512397</v>
+        <v>1374400877</v>
       </c>
       <c r="F2" t="n">
-        <v>165591.3841730525</v>
+        <v>180264.7750744848</v>
       </c>
       <c r="G2" t="n">
-        <v>183935.9421026277</v>
+        <v>176782.4668991879</v>
       </c>
       <c r="H2" t="n">
         <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>26417205</v>
+        <v>21796709</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>128341702</v>
+        <v>127949338</v>
       </c>
       <c r="E3" t="n">
-        <v>142222661</v>
+        <v>141787861</v>
       </c>
       <c r="F3" t="n">
-        <v>67334.97437003137</v>
+        <v>76043.12574317821</v>
       </c>
       <c r="G3" t="n">
-        <v>178012.9135530278</v>
+        <v>185169.7963767339</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>46876333</v>
+        <v>32418990</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>503766466</v>
+        <v>503704750</v>
       </c>
       <c r="E4" t="n">
-        <v>630136976</v>
+        <v>630059779</v>
       </c>
       <c r="F4" t="n">
-        <v>84879.78244542622</v>
+        <v>100359.0706439227</v>
       </c>
       <c r="G4" t="n">
-        <v>144106.5863942527</v>
+        <v>180932.1562694572</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>116773494</v>
+        <v>88798882</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129720079</v>
+        <v>125342720</v>
       </c>
       <c r="E5" t="n">
-        <v>129720079</v>
+        <v>125342720</v>
       </c>
       <c r="F5" t="n">
-        <v>30046.01409877003</v>
+        <v>54278.62675455925</v>
       </c>
       <c r="G5" t="n">
-        <v>76810.00850894758</v>
+        <v>112779.8953665403</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>124998349</v>
+        <v>94683504</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>216241292</v>
+        <v>211339715</v>
       </c>
       <c r="E6" t="n">
-        <v>216241292</v>
+        <v>211339715</v>
       </c>
       <c r="F6" t="n">
-        <v>54589.19719571097</v>
+        <v>65845.62166552152</v>
       </c>
       <c r="G6" t="n">
-        <v>101341.385660136</v>
+        <v>84008.77946231466</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>41666038</v>
+        <v>30908048</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>95257577</v>
+        <v>94480665</v>
       </c>
       <c r="E7" t="n">
-        <v>118775033</v>
+        <v>117806315</v>
       </c>
       <c r="F7" t="n">
-        <v>21150.452765599</v>
+        <v>19499.17356042915</v>
       </c>
       <c r="G7" t="n">
-        <v>42580.62912967537</v>
+        <v>43285.76093844714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>31177731</v>
+        <v>21318474</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75326744</v>
+        <v>73216209</v>
       </c>
       <c r="E8" t="n">
-        <v>157050211</v>
+        <v>152649916</v>
       </c>
       <c r="F8" t="n">
-        <v>46847.29735755421</v>
+        <v>46045.22242183179</v>
       </c>
       <c r="G8" t="n">
-        <v>53550.7281673129</v>
+        <v>52221.6508724743</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>21495499</v>
+        <v>17911362</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135273588</v>
+        <v>137321484</v>
       </c>
       <c r="E9" t="n">
-        <v>135281167</v>
+        <v>137332703</v>
       </c>
       <c r="F9" t="n">
-        <v>4756.143832759898</v>
+        <v>8398.387600412636</v>
       </c>
       <c r="G9" t="n">
-        <v>19119.39843515394</v>
+        <v>16849.44376206653</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I9" t="n">
-        <v>3812414</v>
+        <v>3907900</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>576730994</v>
+        <v>553050331</v>
       </c>
       <c r="E10" t="n">
-        <v>576730994</v>
+        <v>553050331</v>
       </c>
       <c r="F10" t="n">
-        <v>222852.378877174</v>
+        <v>201103.2927163295</v>
       </c>
       <c r="G10" t="n">
-        <v>517806.5057580761</v>
+        <v>468001.988067958</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>621069444</v>
+        <v>476332648</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77104194</v>
+        <v>75790107</v>
       </c>
       <c r="E11" t="n">
-        <v>88467241</v>
+        <v>86959494</v>
       </c>
       <c r="F11" t="n">
-        <v>4654.300751500906</v>
+        <v>11783.8635756225</v>
       </c>
       <c r="G11" t="n">
-        <v>15706.41972302167</v>
+        <v>1589.938868054459</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2415657</v>
+        <v>2428684</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>225852276</v>
+        <v>220074651</v>
       </c>
       <c r="E12" t="n">
-        <v>974903803</v>
+        <v>949964367</v>
       </c>
       <c r="F12" t="n">
-        <v>276513.5709726639</v>
+        <v>407159.4408879502</v>
       </c>
       <c r="G12" t="n">
-        <v>394846.8827668367</v>
+        <v>400912.6017248213</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>135212266</v>
+        <v>104227991</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>105386075</v>
+        <v>103305140</v>
       </c>
       <c r="E13" t="n">
-        <v>105386075</v>
+        <v>103305140</v>
       </c>
       <c r="F13" t="n">
-        <v>1695.942626975493</v>
+        <v>3305.749849533532</v>
       </c>
       <c r="G13" t="n">
-        <v>6396.87560279134</v>
+        <v>6030.118418014974</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>9413011</v>
+        <v>8350349</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12238522</v>
+        <v>11790959</v>
       </c>
       <c r="E14" t="n">
-        <v>30596305</v>
+        <v>29477397</v>
       </c>
       <c r="F14" t="n">
-        <v>9856.812140344606</v>
+        <v>8154.769135545939</v>
       </c>
       <c r="G14" t="n">
-        <v>7620.946373291605</v>
+        <v>10980.35731316294</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3820417</v>
+        <v>3201623</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11169180</v>
+        <v>11193582</v>
       </c>
       <c r="E15" t="n">
-        <v>16424069</v>
+        <v>16459951</v>
       </c>
       <c r="F15" t="n">
-        <v>2414.679193449158</v>
+        <v>3408.854596316164</v>
       </c>
       <c r="G15" t="n">
-        <v>5775.280712347894</v>
+        <v>3865.66016448597</v>
       </c>
       <c r="H15" t="n">
         <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>1770454</v>
+        <v>1475660</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28411007</v>
+        <v>28117062</v>
       </c>
       <c r="E16" t="n">
-        <v>88462760</v>
+        <v>87547510</v>
       </c>
       <c r="F16" t="n">
-        <v>7746.83447853494</v>
+        <v>5085.069505226827</v>
       </c>
       <c r="G16" t="n">
-        <v>10209.98561035874</v>
+        <v>19413.18874475022</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>12214622</v>
+        <v>11176627</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>293286455</v>
+        <v>286802620</v>
       </c>
       <c r="E17" t="n">
-        <v>2638586810</v>
+        <v>2580254209</v>
       </c>
       <c r="F17" t="n">
-        <v>973621.448599977</v>
+        <v>6292.624872727461</v>
       </c>
       <c r="G17" t="n">
-        <v>1068082.273370094</v>
+        <v>7984.323650320008</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>68658903</v>
+        <v>52424223</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16050826</v>
+        <v>16222469</v>
       </c>
       <c r="E18" t="n">
-        <v>98380794</v>
+        <v>99432848</v>
       </c>
       <c r="F18" t="n">
-        <v>38698.75202851732</v>
+        <v>36196.85730865996</v>
       </c>
       <c r="G18" t="n">
-        <v>41470.55032425505</v>
+        <v>41667.02894868222</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>17281448</v>
+        <v>16615956</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44117004</v>
+        <v>43308801</v>
       </c>
       <c r="E19" t="n">
-        <v>190051230</v>
+        <v>186569578</v>
       </c>
       <c r="F19" t="n">
-        <v>53339.83974082021</v>
+        <v>37256.67352758841</v>
       </c>
       <c r="G19" t="n">
-        <v>63539.59675882738</v>
+        <v>58697.53449024751</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>15858938</v>
+        <v>13303719</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>268168709</v>
+        <v>272735458</v>
       </c>
       <c r="E20" t="n">
-        <v>268168709</v>
+        <v>272735458</v>
       </c>
       <c r="F20" t="n">
-        <v>52655.54990373647</v>
+        <v>64237.96045686107</v>
       </c>
       <c r="G20" t="n">
-        <v>96718.37016153077</v>
+        <v>107868.551289558</v>
       </c>
       <c r="H20" t="n">
         <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>92679155</v>
+        <v>75818370</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30062969</v>
+        <v>29457512</v>
       </c>
       <c r="E21" t="n">
-        <v>134604243</v>
+        <v>131893365</v>
       </c>
       <c r="F21" t="n">
-        <v>37620.85687167491</v>
+        <v>34453.41349725934</v>
       </c>
       <c r="G21" t="n">
-        <v>51027.43602338499</v>
+        <v>48397.3168975529</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>28716908</v>
+        <v>24715334</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42182776</v>
+        <v>41876963</v>
       </c>
       <c r="E22" t="n">
-        <v>273544075</v>
+        <v>271560957</v>
       </c>
       <c r="F22" t="n">
-        <v>45460.48169161499</v>
+        <v>47768.57056290122</v>
       </c>
       <c r="G22" t="n">
-        <v>91712.07410306414</v>
+        <v>96532.58687145291</v>
       </c>
       <c r="H22" t="n">
         <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>44853344</v>
+        <v>41495344</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122379823</v>
+        <v>122226368</v>
       </c>
       <c r="E23" t="n">
-        <v>2026710097</v>
+        <v>2024168762</v>
       </c>
       <c r="F23" t="n">
-        <v>372883.3862547169</v>
+        <v>378567.4305487439</v>
       </c>
       <c r="G23" t="n">
-        <v>323636.3844947232</v>
+        <v>302983.719787613</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>25455374</v>
+        <v>24085526</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5172892</v>
+        <v>5265291</v>
       </c>
       <c r="E24" t="n">
-        <v>26612959</v>
+        <v>27088324</v>
       </c>
       <c r="F24" t="n">
-        <v>1040.596823167355</v>
+        <v>543.445223421432</v>
       </c>
       <c r="G24" t="n">
-        <v>485.578375884434</v>
+        <v>703.3772290012272</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="I24" t="n">
-        <v>919850</v>
+        <v>893131</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19818890</v>
+        <v>18954859</v>
       </c>
       <c r="E25" t="n">
-        <v>19818890</v>
+        <v>18955630</v>
       </c>
       <c r="F25" t="n">
-        <v>2629.843344805945</v>
+        <v>14590.09949347436</v>
       </c>
       <c r="G25" t="n">
-        <v>11022.5541881777</v>
+        <v>16981.66928998942</v>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>7440584</v>
+        <v>6797626</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>275436459</v>
+        <v>275596201</v>
       </c>
       <c r="E27" t="n">
-        <v>509620262</v>
+        <v>509915821</v>
       </c>
       <c r="F27" t="n">
-        <v>115046.0045198027</v>
+        <v>115326.5239960587</v>
       </c>
       <c r="G27" t="n">
-        <v>118011.3474295723</v>
+        <v>121368.9423014741</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>21539589</v>
+        <v>20346677</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34929500</v>
+        <v>34279870</v>
       </c>
       <c r="E28" t="n">
-        <v>34929500</v>
+        <v>34279870</v>
       </c>
       <c r="F28" t="n">
-        <v>29977.51771347418</v>
+        <v>31459.73181759969</v>
       </c>
       <c r="G28" t="n">
-        <v>42544.44747517074</v>
+        <v>42868.30455257023</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>22007273</v>
+        <v>17125483</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>544605671</v>
+        <v>543320799</v>
       </c>
       <c r="E29" t="n">
-        <v>2109177413</v>
+        <v>2104201293</v>
       </c>
       <c r="F29" t="n">
-        <v>87964.81436220375</v>
+        <v>106566.3540281874</v>
       </c>
       <c r="G29" t="n">
-        <v>243959.8673858817</v>
+        <v>252037.9354731443</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>68521487</v>
+        <v>47208643</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>127761929</v>
+        <v>125281277</v>
       </c>
       <c r="E30" t="n">
-        <v>490115324</v>
+        <v>480599143</v>
       </c>
       <c r="F30" t="n">
-        <v>165770.8285476958</v>
+        <v>149116.0900228041</v>
       </c>
       <c r="G30" t="n">
-        <v>183750.5812367985</v>
+        <v>182669.8163251357</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>33145432</v>
+        <v>27925703</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35207639</v>
+        <v>34781597</v>
       </c>
       <c r="F31" t="n">
-        <v>12779.51595271332</v>
+        <v>11880.4422699488</v>
       </c>
       <c r="G31" t="n">
-        <v>115132.5480646855</v>
+        <v>23676.80936930197</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>9779645</v>
+        <v>7904858</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>104146766</v>
+        <v>108737930</v>
       </c>
       <c r="E32" t="n">
-        <v>379642607</v>
+        <v>396366119</v>
       </c>
       <c r="F32" t="n">
-        <v>11049.14916816494</v>
+        <v>1239.006516615834</v>
       </c>
       <c r="G32" t="n">
-        <v>5395.031356475456</v>
+        <v>13392.57425388865</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>351926</v>
+        <v>466967</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>402983936</v>
+        <v>399148083</v>
       </c>
       <c r="E33" t="n">
-        <v>1399205988</v>
+        <v>1385887470</v>
       </c>
       <c r="F33" t="n">
-        <v>133881.5463335639</v>
+        <v>212835.2161910482</v>
       </c>
       <c r="G33" t="n">
-        <v>175569.1545518089</v>
+        <v>248887.192854517</v>
       </c>
       <c r="H33" t="n">
         <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>63594195</v>
+        <v>46443169</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>95162205</v>
+        <v>93964775</v>
       </c>
       <c r="E34" t="n">
-        <v>144181736</v>
+        <v>142367492</v>
       </c>
       <c r="F34" t="n">
-        <v>14437.31988531087</v>
+        <v>10525.34367649391</v>
       </c>
       <c r="G34" t="n">
-        <v>16501.67375456762</v>
+        <v>56986.23333430339</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>9552596</v>
+        <v>8379876</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1904351</v>
+        <v>1885347</v>
       </c>
       <c r="E35" t="n">
-        <v>7617403</v>
+        <v>7541389</v>
       </c>
       <c r="F35" t="n">
-        <v>49215.43423600023</v>
+        <v>88863.06260088652</v>
       </c>
       <c r="G35" t="n">
-        <v>69903.6165363981</v>
+        <v>65853.65127080023</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>7117482</v>
+        <v>7152082</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>197582737</v>
+        <v>195635609</v>
       </c>
       <c r="E36" t="n">
-        <v>607492563</v>
+        <v>601505875</v>
       </c>
       <c r="F36" t="n">
-        <v>167320.8562431913</v>
+        <v>218013.7595056834</v>
       </c>
       <c r="G36" t="n">
-        <v>214317.5117201491</v>
+        <v>218754.1574213326</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>26709010</v>
+        <v>18111129</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>102113196</v>
+        <v>109524754</v>
       </c>
       <c r="E37" t="n">
-        <v>266767889</v>
+        <v>286130379</v>
       </c>
       <c r="F37" t="n">
-        <v>39122.27977601431</v>
+        <v>44956.73210807442</v>
       </c>
       <c r="G37" t="n">
-        <v>39669.33258229635</v>
+        <v>40922.85788746308</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I37" t="n">
-        <v>14132454</v>
+        <v>13760032</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>366743068</v>
+        <v>361990826</v>
       </c>
       <c r="E38" t="n">
-        <v>2095674673</v>
+        <v>2068519006</v>
       </c>
       <c r="F38" t="n">
-        <v>34841.59556656807</v>
+        <v>42333.68190227343</v>
       </c>
       <c r="G38" t="n">
-        <v>97538.31069256352</v>
+        <v>90192.02391158497</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>71074819</v>
+        <v>52240074</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>219172649</v>
+        <v>216124375</v>
       </c>
       <c r="E2" t="n">
-        <v>1374400877</v>
+        <v>1355285579</v>
       </c>
       <c r="F2" t="n">
-        <v>180264.7750744848</v>
+        <v>175190.2723196806</v>
       </c>
       <c r="G2" t="n">
-        <v>176782.4668991879</v>
+        <v>198367.7166369543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>21796709</v>
+        <v>17900330</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>127949338</v>
+        <v>129099030</v>
       </c>
       <c r="E3" t="n">
-        <v>141787861</v>
+        <v>143061900</v>
       </c>
       <c r="F3" t="n">
-        <v>76043.12574317821</v>
+        <v>59747.62554594417</v>
       </c>
       <c r="G3" t="n">
-        <v>185169.7963767339</v>
+        <v>188051.4356371532</v>
       </c>
       <c r="H3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>32418990</v>
+        <v>25513863</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>503704750</v>
+        <v>509242687</v>
       </c>
       <c r="E4" t="n">
-        <v>630059779</v>
+        <v>636986915</v>
       </c>
       <c r="F4" t="n">
-        <v>100359.0706439227</v>
+        <v>134837.2872127193</v>
       </c>
       <c r="G4" t="n">
-        <v>180932.1562694572</v>
+        <v>151667.4796053458</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>88798882</v>
+        <v>77087459</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>125342720</v>
+        <v>127513746</v>
       </c>
       <c r="E5" t="n">
-        <v>125342720</v>
+        <v>127513746</v>
       </c>
       <c r="F5" t="n">
-        <v>54278.62675455925</v>
+        <v>75141.09313716384</v>
       </c>
       <c r="G5" t="n">
-        <v>112779.8953665403</v>
+        <v>103259.3009001941</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I5" t="n">
-        <v>94683504</v>
+        <v>75723017</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211339715</v>
+        <v>211781683</v>
       </c>
       <c r="E6" t="n">
-        <v>211339715</v>
+        <v>211781683</v>
       </c>
       <c r="F6" t="n">
-        <v>65845.62166552152</v>
+        <v>72958.37161946289</v>
       </c>
       <c r="G6" t="n">
-        <v>84008.77946231466</v>
+        <v>92239.31299107461</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>30908048</v>
+        <v>23913394</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>94480665</v>
+        <v>93395924</v>
       </c>
       <c r="E7" t="n">
-        <v>117806315</v>
+        <v>116453769</v>
       </c>
       <c r="F7" t="n">
-        <v>19499.17356042915</v>
+        <v>19849.87273239328</v>
       </c>
       <c r="G7" t="n">
-        <v>43285.76093844714</v>
+        <v>41460.09388837672</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>21318474</v>
+        <v>19750844</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73216209</v>
+        <v>74906769</v>
       </c>
       <c r="E8" t="n">
-        <v>152649916</v>
+        <v>156174597</v>
       </c>
       <c r="F8" t="n">
-        <v>46045.22242183179</v>
+        <v>29938.66677578245</v>
       </c>
       <c r="G8" t="n">
-        <v>52221.6508724743</v>
+        <v>56679.56903168294</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>17911362</v>
+        <v>15284471</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>137321484</v>
+        <v>138446520</v>
       </c>
       <c r="E9" t="n">
-        <v>137332703</v>
+        <v>138462599</v>
       </c>
       <c r="F9" t="n">
-        <v>8398.387600412636</v>
+        <v>10507.55155598569</v>
       </c>
       <c r="G9" t="n">
-        <v>16849.44376206653</v>
+        <v>11678.25096510894</v>
       </c>
       <c r="H9" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I9" t="n">
-        <v>3907900</v>
+        <v>4173946</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>553050331</v>
+        <v>561788297</v>
       </c>
       <c r="E10" t="n">
-        <v>553050331</v>
+        <v>561788297</v>
       </c>
       <c r="F10" t="n">
-        <v>201103.2927163295</v>
+        <v>317578.9954909823</v>
       </c>
       <c r="G10" t="n">
-        <v>468001.988067958</v>
+        <v>431776.9099812109</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>476332648</v>
+        <v>346280388</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75790107</v>
+        <v>73662413</v>
       </c>
       <c r="E11" t="n">
-        <v>86959494</v>
+        <v>84518236</v>
       </c>
       <c r="F11" t="n">
-        <v>11783.8635756225</v>
+        <v>4370.905784730688</v>
       </c>
       <c r="G11" t="n">
-        <v>1589.938868054459</v>
+        <v>1096.835486648994</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>2428684</v>
+        <v>2403234</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>220074651</v>
+        <v>217670196</v>
       </c>
       <c r="E12" t="n">
-        <v>949964367</v>
+        <v>939585402</v>
       </c>
       <c r="F12" t="n">
-        <v>407159.4408879502</v>
+        <v>417992.3842507118</v>
       </c>
       <c r="G12" t="n">
-        <v>400912.6017248213</v>
+        <v>406536.8993425023</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>104227991</v>
+        <v>101136153</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103305140</v>
+        <v>103145263</v>
       </c>
       <c r="E13" t="n">
-        <v>103305140</v>
+        <v>103145263</v>
       </c>
       <c r="F13" t="n">
-        <v>3305.749849533532</v>
+        <v>3152.492225178138</v>
       </c>
       <c r="G13" t="n">
-        <v>6030.118418014974</v>
+        <v>6085.77669026055</v>
       </c>
       <c r="H13" t="n">
-        <v>0.12</v>
+        <v>1.11</v>
       </c>
       <c r="I13" t="n">
-        <v>8350349</v>
+        <v>8300587</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11790959</v>
+        <v>11684378</v>
       </c>
       <c r="E14" t="n">
-        <v>29477397</v>
+        <v>29210946</v>
       </c>
       <c r="F14" t="n">
-        <v>8154.769135545939</v>
+        <v>6549.150330163616</v>
       </c>
       <c r="G14" t="n">
-        <v>10980.35731316294</v>
+        <v>14470.65819414999</v>
       </c>
       <c r="H14" t="n">
         <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3201623</v>
+        <v>2678360</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11193582</v>
+        <v>11181316</v>
       </c>
       <c r="E15" t="n">
-        <v>16459951</v>
+        <v>16441914</v>
       </c>
       <c r="F15" t="n">
-        <v>3408.854596316164</v>
+        <v>2109.384565747796</v>
       </c>
       <c r="G15" t="n">
-        <v>3865.66016448597</v>
+        <v>4901.618367674253</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>1475660</v>
+        <v>1136679</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28117062</v>
+        <v>27018765</v>
       </c>
       <c r="E16" t="n">
-        <v>87547510</v>
+        <v>84127765</v>
       </c>
       <c r="F16" t="n">
-        <v>5085.069505226827</v>
+        <v>10269.55075002925</v>
       </c>
       <c r="G16" t="n">
-        <v>19413.18874475022</v>
+        <v>15097.57070061863</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>11176627</v>
+        <v>10619734</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>286802620</v>
+        <v>287042984</v>
       </c>
       <c r="E17" t="n">
-        <v>2580254209</v>
+        <v>2582416669</v>
       </c>
       <c r="F17" t="n">
-        <v>6292.624872727461</v>
+        <v>5628.220122196311</v>
       </c>
       <c r="G17" t="n">
-        <v>7984.323650320008</v>
+        <v>6946.936471974115</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I17" t="n">
-        <v>52424223</v>
+        <v>40746960</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16222469</v>
+        <v>16360762</v>
       </c>
       <c r="E18" t="n">
-        <v>99432848</v>
+        <v>100280488</v>
       </c>
       <c r="F18" t="n">
-        <v>36196.85730865996</v>
+        <v>38901.19636148379</v>
       </c>
       <c r="G18" t="n">
-        <v>41667.02894868222</v>
+        <v>41965.53303519238</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I18" t="n">
-        <v>16615956</v>
+        <v>13752598</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43308801</v>
+        <v>42116304</v>
       </c>
       <c r="E19" t="n">
-        <v>186569578</v>
+        <v>181432431</v>
       </c>
       <c r="F19" t="n">
-        <v>37256.67352758841</v>
+        <v>34289.03387931923</v>
       </c>
       <c r="G19" t="n">
-        <v>58697.53449024751</v>
+        <v>103920.6237023139</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>13303719</v>
+        <v>11979094</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>272735458</v>
+        <v>276019374</v>
       </c>
       <c r="E20" t="n">
-        <v>272735458</v>
+        <v>276019374</v>
       </c>
       <c r="F20" t="n">
-        <v>64237.96045686107</v>
+        <v>45351.90295110332</v>
       </c>
       <c r="G20" t="n">
-        <v>107868.551289558</v>
+        <v>101260.0123511942</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>75818370</v>
+        <v>97669240</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29457512</v>
+        <v>33000061</v>
       </c>
       <c r="E21" t="n">
-        <v>131893365</v>
+        <v>147754810</v>
       </c>
       <c r="F21" t="n">
-        <v>34453.41349725934</v>
+        <v>33663.20286484031</v>
       </c>
       <c r="G21" t="n">
-        <v>48397.3168975529</v>
+        <v>60755.53617765261</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>24715334</v>
+        <v>25834059</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41876963</v>
+        <v>41677214</v>
       </c>
       <c r="E22" t="n">
-        <v>271560957</v>
+        <v>270265638</v>
       </c>
       <c r="F22" t="n">
-        <v>47768.57056290122</v>
+        <v>34659.51001242668</v>
       </c>
       <c r="G22" t="n">
-        <v>96532.58687145291</v>
+        <v>84643.93115300119</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>41495344</v>
+        <v>35413711</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122226368</v>
+        <v>121402024</v>
       </c>
       <c r="E23" t="n">
-        <v>2024168762</v>
+        <v>2010516947</v>
       </c>
       <c r="F23" t="n">
-        <v>378567.4305487439</v>
+        <v>383858.9403526886</v>
       </c>
       <c r="G23" t="n">
-        <v>302983.719787613</v>
+        <v>310705.4635496252</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>24085526</v>
+        <v>20401714</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5265291</v>
+        <v>4907703</v>
       </c>
       <c r="E24" t="n">
-        <v>27088324</v>
+        <v>25248640</v>
       </c>
       <c r="F24" t="n">
-        <v>543.445223421432</v>
+        <v>1419.415550171477</v>
       </c>
       <c r="G24" t="n">
-        <v>703.3772290012272</v>
+        <v>1251.746971714299</v>
       </c>
       <c r="H24" t="n">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>893131</v>
+        <v>907773</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18954859</v>
+        <v>17938976</v>
       </c>
       <c r="E25" t="n">
-        <v>18955630</v>
+        <v>17939228</v>
       </c>
       <c r="F25" t="n">
-        <v>14590.09949347436</v>
+        <v>11561.26157280747</v>
       </c>
       <c r="G25" t="n">
-        <v>16981.66928998942</v>
+        <v>17756.51344284255</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
       <c r="I25" t="n">
-        <v>6797626</v>
+        <v>3139335</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>275596201</v>
+        <v>246104579</v>
       </c>
       <c r="E27" t="n">
-        <v>509915821</v>
+        <v>455349595</v>
       </c>
       <c r="F27" t="n">
-        <v>115326.5239960587</v>
+        <v>70997.90306590359</v>
       </c>
       <c r="G27" t="n">
-        <v>121368.9423014741</v>
+        <v>47241.77799113717</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I27" t="n">
-        <v>20346677</v>
+        <v>34184616</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34279870</v>
+        <v>33869487</v>
       </c>
       <c r="E28" t="n">
-        <v>34279870</v>
+        <v>33869487</v>
       </c>
       <c r="F28" t="n">
-        <v>31459.73181759969</v>
+        <v>29248.65553701748</v>
       </c>
       <c r="G28" t="n">
-        <v>42868.30455257023</v>
+        <v>34381.38766832009</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>17125483</v>
+        <v>15138351</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>543320799</v>
+        <v>547467644</v>
       </c>
       <c r="E29" t="n">
-        <v>2104201293</v>
+        <v>2120261410</v>
       </c>
       <c r="F29" t="n">
-        <v>106566.3540281874</v>
+        <v>50923.47445128753</v>
       </c>
       <c r="G29" t="n">
-        <v>252037.9354731443</v>
+        <v>144702.6251548415</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>47208643</v>
+        <v>38705187</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125281277</v>
+        <v>126982974</v>
       </c>
       <c r="E30" t="n">
-        <v>480599143</v>
+        <v>487127128</v>
       </c>
       <c r="F30" t="n">
-        <v>149116.0900228041</v>
+        <v>150319.131110166</v>
       </c>
       <c r="G30" t="n">
-        <v>182669.8163251357</v>
+        <v>186095.3588296758</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>27925703</v>
+        <v>30195092</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34781597</v>
+        <v>28754319</v>
       </c>
       <c r="F31" t="n">
-        <v>11880.4422699488</v>
+        <v>22468.6777186179</v>
       </c>
       <c r="G31" t="n">
-        <v>23676.80936930197</v>
+        <v>11930.7374800857</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>7904858</v>
+        <v>10085013</v>
       </c>
     </row>
     <row r="32">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Venom Ecosystem</t>
+          <t>Infrastructure, Smart Contract Platform, Venom Ecosystem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>108737930</v>
+        <v>115402834</v>
       </c>
       <c r="E32" t="n">
-        <v>396366119</v>
+        <v>420646147</v>
       </c>
       <c r="F32" t="n">
-        <v>1239.006516615834</v>
+        <v>52071.52103324917</v>
       </c>
       <c r="G32" t="n">
-        <v>13392.57425388865</v>
+        <v>9780.153822397591</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>466967</v>
+        <v>912637</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>399148083</v>
+        <v>395498732</v>
       </c>
       <c r="E33" t="n">
-        <v>1385887470</v>
+        <v>1373216509</v>
       </c>
       <c r="F33" t="n">
-        <v>212835.2161910482</v>
+        <v>210415.7350824959</v>
       </c>
       <c r="G33" t="n">
-        <v>248887.192854517</v>
+        <v>261460.8687009494</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>46443169</v>
+        <v>40221293</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>93964775</v>
+        <v>90672039</v>
       </c>
       <c r="E34" t="n">
-        <v>142367492</v>
+        <v>135267296</v>
       </c>
       <c r="F34" t="n">
-        <v>10525.34367649391</v>
+        <v>8256.974617998962</v>
       </c>
       <c r="G34" t="n">
-        <v>56986.23333430339</v>
+        <v>16189.98597065033</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I34" t="n">
-        <v>8379876</v>
+        <v>7925727</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1885347</v>
+        <v>1853943</v>
       </c>
       <c r="E35" t="n">
-        <v>7541389</v>
+        <v>7415774</v>
       </c>
       <c r="F35" t="n">
-        <v>88863.06260088652</v>
+        <v>4683.707566113815</v>
       </c>
       <c r="G35" t="n">
-        <v>65853.65127080023</v>
+        <v>104802.0366034735</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>7152082</v>
+        <v>6809910</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>195635609</v>
+        <v>195542300</v>
       </c>
       <c r="E36" t="n">
-        <v>601505875</v>
+        <v>601218985</v>
       </c>
       <c r="F36" t="n">
-        <v>218013.7595056834</v>
+        <v>216973.8037108333</v>
       </c>
       <c r="G36" t="n">
-        <v>218754.1574213326</v>
+        <v>228824.214189468</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>18111129</v>
+        <v>15821325</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>109524754</v>
+        <v>108201682</v>
       </c>
       <c r="E37" t="n">
-        <v>286130379</v>
+        <v>282673891</v>
       </c>
       <c r="F37" t="n">
-        <v>44956.73210807442</v>
+        <v>37149.07052024394</v>
       </c>
       <c r="G37" t="n">
-        <v>40922.85788746308</v>
+        <v>39189.48020362152</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>13760032</v>
+        <v>11874910</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>361990826</v>
+        <v>361616690</v>
       </c>
       <c r="E38" t="n">
-        <v>2068519006</v>
+        <v>2066381087</v>
       </c>
       <c r="F38" t="n">
-        <v>42333.68190227343</v>
+        <v>35564.23166466287</v>
       </c>
       <c r="G38" t="n">
-        <v>90192.02391158497</v>
+        <v>89207.8013625045</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>52240074</v>
+        <v>42814831</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>216124375</v>
+        <v>239934742</v>
       </c>
       <c r="E2" t="n">
-        <v>1355285579</v>
+        <v>1504597042</v>
       </c>
       <c r="F2" t="n">
-        <v>175190.2723196806</v>
+        <v>160233.2127064065</v>
       </c>
       <c r="G2" t="n">
-        <v>198367.7166369543</v>
+        <v>183129.9532216499</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>17900330</v>
+        <v>52433653</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>129099030</v>
+        <v>138967474</v>
       </c>
       <c r="E3" t="n">
-        <v>143061900</v>
+        <v>153997677</v>
       </c>
       <c r="F3" t="n">
-        <v>59747.62554594417</v>
+        <v>69886.69301719261</v>
       </c>
       <c r="G3" t="n">
-        <v>188051.4356371532</v>
+        <v>177101.8963167938</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>25513863</v>
+        <v>37047877</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>509242687</v>
+        <v>508889792</v>
       </c>
       <c r="E4" t="n">
-        <v>636986915</v>
+        <v>636545495</v>
       </c>
       <c r="F4" t="n">
-        <v>134837.2872127193</v>
+        <v>89226.83730547069</v>
       </c>
       <c r="G4" t="n">
-        <v>151667.4796053458</v>
+        <v>150390.3970344858</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>77087459</v>
+        <v>89627228</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>127513746</v>
+        <v>129644393</v>
       </c>
       <c r="E5" t="n">
-        <v>127513746</v>
+        <v>129644393</v>
       </c>
       <c r="F5" t="n">
-        <v>75141.09313716384</v>
+        <v>55232.47130229186</v>
       </c>
       <c r="G5" t="n">
-        <v>103259.3009001941</v>
+        <v>115309.7978655473</v>
       </c>
       <c r="H5" t="n">
         <v>0.11</v>
       </c>
       <c r="I5" t="n">
-        <v>75723017</v>
+        <v>80420274</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211781683</v>
+        <v>210883796</v>
       </c>
       <c r="E6" t="n">
-        <v>211781683</v>
+        <v>210883796</v>
       </c>
       <c r="F6" t="n">
-        <v>72958.37161946289</v>
+        <v>59163.37920957672</v>
       </c>
       <c r="G6" t="n">
-        <v>92239.31299107461</v>
+        <v>90457.8109825235</v>
       </c>
       <c r="H6" t="n">
         <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>23913394</v>
+        <v>38449521</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>93395924</v>
+        <v>92383856</v>
       </c>
       <c r="E7" t="n">
-        <v>116453769</v>
+        <v>115191839</v>
       </c>
       <c r="F7" t="n">
-        <v>19849.87273239328</v>
+        <v>20700.70819205028</v>
       </c>
       <c r="G7" t="n">
-        <v>41460.09388837672</v>
+        <v>39517.45709314835</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>19750844</v>
+        <v>16441877</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74906769</v>
+        <v>73162130</v>
       </c>
       <c r="E8" t="n">
-        <v>156174597</v>
+        <v>152537165</v>
       </c>
       <c r="F8" t="n">
-        <v>29938.66677578245</v>
+        <v>41298.75164162608</v>
       </c>
       <c r="G8" t="n">
-        <v>56679.56903168294</v>
+        <v>54457.81960823538</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>15284471</v>
+        <v>16568664</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138446520</v>
+        <v>137566951</v>
       </c>
       <c r="E9" t="n">
-        <v>138462599</v>
+        <v>137588166</v>
       </c>
       <c r="F9" t="n">
-        <v>10507.55155598569</v>
+        <v>7096.569894804989</v>
       </c>
       <c r="G9" t="n">
-        <v>11678.25096510894</v>
+        <v>13416.21314809969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I9" t="n">
-        <v>4173946</v>
+        <v>4352909</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>561788297</v>
+        <v>578805235</v>
       </c>
       <c r="E10" t="n">
-        <v>561788297</v>
+        <v>578805235</v>
       </c>
       <c r="F10" t="n">
-        <v>317578.9954909823</v>
+        <v>223829.7468274222</v>
       </c>
       <c r="G10" t="n">
-        <v>431776.9099812109</v>
+        <v>461548.0144989451</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>346280388</v>
+        <v>437955816</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73662413</v>
+        <v>73190519</v>
       </c>
       <c r="E11" t="n">
-        <v>84518236</v>
+        <v>83976798</v>
       </c>
       <c r="F11" t="n">
-        <v>4370.905784730688</v>
+        <v>3268.444956262094</v>
       </c>
       <c r="G11" t="n">
-        <v>1096.835486648994</v>
+        <v>9340.694220876934</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.66</v>
       </c>
       <c r="I11" t="n">
-        <v>2403234</v>
+        <v>1958426</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>217670196</v>
+        <v>226775628</v>
       </c>
       <c r="E12" t="n">
-        <v>939585402</v>
+        <v>978889501</v>
       </c>
       <c r="F12" t="n">
-        <v>417992.3842507118</v>
+        <v>391940.5840395926</v>
       </c>
       <c r="G12" t="n">
-        <v>406536.8993425023</v>
+        <v>413790.6725301518</v>
       </c>
       <c r="H12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>101136153</v>
+        <v>130121861</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103145263</v>
+        <v>102573334</v>
       </c>
       <c r="E13" t="n">
-        <v>103145263</v>
+        <v>102573334</v>
       </c>
       <c r="F13" t="n">
-        <v>3152.492225178138</v>
+        <v>2590.535953601332</v>
       </c>
       <c r="G13" t="n">
-        <v>6085.77669026055</v>
+        <v>6167.330577360244</v>
       </c>
       <c r="H13" t="n">
-        <v>1.11</v>
+        <v>0.62</v>
       </c>
       <c r="I13" t="n">
-        <v>8300587</v>
+        <v>8920607</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11684378</v>
+        <v>12239075</v>
       </c>
       <c r="E14" t="n">
-        <v>29210946</v>
+        <v>30597687</v>
       </c>
       <c r="F14" t="n">
-        <v>6549.150330163616</v>
+        <v>7424.259481697205</v>
       </c>
       <c r="G14" t="n">
-        <v>14470.65819414999</v>
+        <v>8858.754536635895</v>
       </c>
       <c r="H14" t="n">
         <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2678360</v>
+        <v>3095017</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11181316</v>
+        <v>11130326</v>
       </c>
       <c r="E15" t="n">
-        <v>16441914</v>
+        <v>16366935</v>
       </c>
       <c r="F15" t="n">
-        <v>2109.384565747796</v>
+        <v>2292.184966173525</v>
       </c>
       <c r="G15" t="n">
-        <v>4901.618367674253</v>
+        <v>5388.715518055914</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>1136679</v>
+        <v>1020318</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27018765</v>
+        <v>26622491</v>
       </c>
       <c r="E16" t="n">
-        <v>84127765</v>
+        <v>82893895</v>
       </c>
       <c r="F16" t="n">
-        <v>10269.55075002925</v>
+        <v>7211.607460272756</v>
       </c>
       <c r="G16" t="n">
-        <v>15097.57070061863</v>
+        <v>16580.1571047092</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>10619734</v>
+        <v>11320946</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>287042984</v>
+        <v>294317402</v>
       </c>
       <c r="E17" t="n">
-        <v>2582416669</v>
+        <v>2647861845</v>
       </c>
       <c r="F17" t="n">
-        <v>5628.220122196311</v>
+        <v>6532.459057515033</v>
       </c>
       <c r="G17" t="n">
-        <v>6946.936471974115</v>
+        <v>6499.270714103471</v>
       </c>
       <c r="H17" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>40746960</v>
+        <v>47759958</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16360762</v>
+        <v>15925172</v>
       </c>
       <c r="E18" t="n">
-        <v>100280488</v>
+        <v>97610615</v>
       </c>
       <c r="F18" t="n">
-        <v>38901.19636148379</v>
+        <v>34190.68270901719</v>
       </c>
       <c r="G18" t="n">
-        <v>41965.53303519238</v>
+        <v>41716.32405729469</v>
       </c>
       <c r="H18" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>13752598</v>
+        <v>14172231</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42116304</v>
+        <v>42283168</v>
       </c>
       <c r="E19" t="n">
-        <v>181432431</v>
+        <v>182151266</v>
       </c>
       <c r="F19" t="n">
-        <v>34289.03387931923</v>
+        <v>34330.24648502991</v>
       </c>
       <c r="G19" t="n">
-        <v>103920.6237023139</v>
+        <v>95064.09300972341</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>11979094</v>
+        <v>13520040</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>276019374</v>
+        <v>283417699</v>
       </c>
       <c r="E20" t="n">
-        <v>276019374</v>
+        <v>283417699</v>
       </c>
       <c r="F20" t="n">
-        <v>45351.90295110332</v>
+        <v>49885.42020781013</v>
       </c>
       <c r="G20" t="n">
-        <v>101260.0123511942</v>
+        <v>100782.1448879849</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>97669240</v>
+        <v>110530529</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33000061</v>
+        <v>33249254</v>
       </c>
       <c r="E21" t="n">
-        <v>147754810</v>
+        <v>148870549</v>
       </c>
       <c r="F21" t="n">
-        <v>33663.20286484031</v>
+        <v>38768.24030477272</v>
       </c>
       <c r="G21" t="n">
-        <v>60755.53617765261</v>
+        <v>78595.19577647414</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>25834059</v>
+        <v>27183594</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41677214</v>
+        <v>42611877</v>
       </c>
       <c r="E22" t="n">
-        <v>270265638</v>
+        <v>276326678</v>
       </c>
       <c r="F22" t="n">
-        <v>34659.51001242668</v>
+        <v>8377.461589797609</v>
       </c>
       <c r="G22" t="n">
-        <v>84643.93115300119</v>
+        <v>6104.580417337202</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>35413711</v>
+        <v>44023853</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>121402024</v>
+        <v>121907530</v>
       </c>
       <c r="E23" t="n">
-        <v>2010516947</v>
+        <v>2018888547</v>
       </c>
       <c r="F23" t="n">
-        <v>383858.9403526886</v>
+        <v>360516.4943803</v>
       </c>
       <c r="G23" t="n">
-        <v>310705.4635496252</v>
+        <v>308929.5460052337</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>20401714</v>
+        <v>20935721</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4907703</v>
+        <v>4932093</v>
       </c>
       <c r="E24" t="n">
-        <v>25248640</v>
+        <v>25374119</v>
       </c>
       <c r="F24" t="n">
-        <v>1419.415550171477</v>
+        <v>1597.093596758096</v>
       </c>
       <c r="G24" t="n">
-        <v>1251.746971714299</v>
+        <v>5759.968787268945</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>907773</v>
+        <v>913411</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17938976</v>
+        <v>16967392</v>
       </c>
       <c r="E25" t="n">
-        <v>17939228</v>
+        <v>16967392</v>
       </c>
       <c r="F25" t="n">
-        <v>11561.26157280747</v>
+        <v>15338.01600003631</v>
       </c>
       <c r="G25" t="n">
-        <v>17756.51344284255</v>
+        <v>6042.575227174567</v>
       </c>
       <c r="H25" t="n">
-        <v>0.54</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>3139335</v>
+        <v>4488006</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>246104579</v>
+        <v>338253654</v>
       </c>
       <c r="E27" t="n">
-        <v>455349595</v>
+        <v>625846398</v>
       </c>
       <c r="F27" t="n">
-        <v>70997.90306590359</v>
+        <v>54811.37689499391</v>
       </c>
       <c r="G27" t="n">
-        <v>47241.77799113717</v>
+        <v>56009.46126311516</v>
       </c>
       <c r="H27" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="I27" t="n">
-        <v>34184616</v>
+        <v>120298469</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33869487</v>
+        <v>33777758</v>
       </c>
       <c r="E28" t="n">
-        <v>33869487</v>
+        <v>33777758</v>
       </c>
       <c r="F28" t="n">
-        <v>29248.65553701748</v>
+        <v>31535.76573760901</v>
       </c>
       <c r="G28" t="n">
-        <v>34381.38766832009</v>
+        <v>41020.15315566785</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>15138351</v>
+        <v>14688756</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>547467644</v>
+        <v>562164568</v>
       </c>
       <c r="E29" t="n">
-        <v>2120261410</v>
+        <v>2177180432</v>
       </c>
       <c r="F29" t="n">
-        <v>50923.47445128753</v>
+        <v>60616.79581488304</v>
       </c>
       <c r="G29" t="n">
-        <v>144702.6251548415</v>
+        <v>129583.0455681293</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>38705187</v>
+        <v>51439472</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>126982974</v>
+        <v>126059223</v>
       </c>
       <c r="E30" t="n">
-        <v>487127128</v>
+        <v>483583471</v>
       </c>
       <c r="F30" t="n">
-        <v>150319.131110166</v>
+        <v>147135.4828295933</v>
       </c>
       <c r="G30" t="n">
-        <v>186095.3588296758</v>
+        <v>184200.4439009944</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>30195092</v>
+        <v>36698242</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28754319</v>
+        <v>27991997</v>
       </c>
       <c r="F31" t="n">
-        <v>22468.6777186179</v>
+        <v>21298.74370607072</v>
       </c>
       <c r="G31" t="n">
-        <v>11930.7374800857</v>
+        <v>32291.83642465739</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>10085013</v>
+        <v>11349071</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115402834</v>
+        <v>115974436</v>
       </c>
       <c r="E32" t="n">
-        <v>420646147</v>
+        <v>422714142</v>
       </c>
       <c r="F32" t="n">
-        <v>52071.52103324917</v>
+        <v>38402.93770301379</v>
       </c>
       <c r="G32" t="n">
-        <v>9780.153822397591</v>
+        <v>9301.072644265032</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>912637</v>
+        <v>957957</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>395498732</v>
+        <v>408925023</v>
       </c>
       <c r="E33" t="n">
-        <v>1373216509</v>
+        <v>1419116328</v>
       </c>
       <c r="F33" t="n">
-        <v>210415.7350824959</v>
+        <v>150044.9133311058</v>
       </c>
       <c r="G33" t="n">
-        <v>261460.8687009494</v>
+        <v>209565.067271602</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>40221293</v>
+        <v>51900351</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>90672039</v>
+        <v>88092275</v>
       </c>
       <c r="E34" t="n">
-        <v>135267296</v>
+        <v>131418726</v>
       </c>
       <c r="F34" t="n">
-        <v>8256.974617998962</v>
+        <v>10154.39953969312</v>
       </c>
       <c r="G34" t="n">
-        <v>16189.98597065033</v>
+        <v>49059.68782048785</v>
       </c>
       <c r="H34" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I34" t="n">
-        <v>7925727</v>
+        <v>8245802</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1853943</v>
+        <v>1933999</v>
       </c>
       <c r="E35" t="n">
-        <v>7415774</v>
+        <v>7735997</v>
       </c>
       <c r="F35" t="n">
-        <v>4683.707566113815</v>
+        <v>8810.824303426907</v>
       </c>
       <c r="G35" t="n">
-        <v>104802.0366034735</v>
+        <v>27193.69105407544</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6809910</v>
+        <v>6672603</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>195542300</v>
+        <v>206617881</v>
       </c>
       <c r="E36" t="n">
-        <v>601218985</v>
+        <v>635272230</v>
       </c>
       <c r="F36" t="n">
-        <v>216973.8037108333</v>
+        <v>210914.9240842413</v>
       </c>
       <c r="G36" t="n">
-        <v>228824.214189468</v>
+        <v>238373.8353575937</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>15821325</v>
+        <v>26324474</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>108201682</v>
+        <v>106315666</v>
       </c>
       <c r="E37" t="n">
-        <v>282673891</v>
+        <v>277746724</v>
       </c>
       <c r="F37" t="n">
-        <v>37149.07052024394</v>
+        <v>41883.87731783654</v>
       </c>
       <c r="G37" t="n">
-        <v>39189.48020362152</v>
+        <v>37461.51184829047</v>
       </c>
       <c r="H37" t="n">
         <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>11874910</v>
+        <v>13144765</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>361616690</v>
+        <v>364796419</v>
       </c>
       <c r="E38" t="n">
-        <v>2066381087</v>
+        <v>2084550967</v>
       </c>
       <c r="F38" t="n">
-        <v>35564.23166466287</v>
+        <v>22834.12633953371</v>
       </c>
       <c r="G38" t="n">
-        <v>89207.8013625045</v>
+        <v>81474.73076882698</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>42814831</v>
+        <v>52816593</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>239934742</v>
+        <v>250383872</v>
       </c>
       <c r="E2" t="n">
-        <v>1504597042</v>
+        <v>1570122067</v>
       </c>
       <c r="F2" t="n">
-        <v>160233.2127064065</v>
+        <v>181811.4200591079</v>
       </c>
       <c r="G2" t="n">
-        <v>183129.9532216499</v>
+        <v>208028.8394832188</v>
       </c>
       <c r="H2" t="n">
         <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>52433653</v>
+        <v>105946892</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138967474</v>
+        <v>138629846</v>
       </c>
       <c r="E3" t="n">
-        <v>153997677</v>
+        <v>153623533</v>
       </c>
       <c r="F3" t="n">
-        <v>69886.69301719261</v>
+        <v>45103.24629684661</v>
       </c>
       <c r="G3" t="n">
-        <v>177101.8963167938</v>
+        <v>196360.5622194054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>37047877</v>
+        <v>43385839</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>508889792</v>
+        <v>522016113</v>
       </c>
       <c r="E4" t="n">
-        <v>636545495</v>
+        <v>652964572</v>
       </c>
       <c r="F4" t="n">
-        <v>89226.83730547069</v>
+        <v>85558.06865917471</v>
       </c>
       <c r="G4" t="n">
-        <v>150390.3970344858</v>
+        <v>160018.9315587376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>89627228</v>
+        <v>96579431</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129644393</v>
+        <v>131124803</v>
       </c>
       <c r="E5" t="n">
-        <v>129644393</v>
+        <v>131124803</v>
       </c>
       <c r="F5" t="n">
-        <v>55232.47130229186</v>
+        <v>50572.49185051173</v>
       </c>
       <c r="G5" t="n">
-        <v>115309.7978655473</v>
+        <v>84102.76585030348</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>80420274</v>
+        <v>76527636</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>210883796</v>
+        <v>215730396</v>
       </c>
       <c r="E6" t="n">
-        <v>210883796</v>
+        <v>215730396</v>
       </c>
       <c r="F6" t="n">
-        <v>59163.37920957672</v>
+        <v>57619.76061821581</v>
       </c>
       <c r="G6" t="n">
-        <v>90457.8109825235</v>
+        <v>97257.1333286365</v>
       </c>
       <c r="H6" t="n">
         <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>38449521</v>
+        <v>43843546</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92383856</v>
+        <v>93821764</v>
       </c>
       <c r="E7" t="n">
-        <v>115191839</v>
+        <v>116984742</v>
       </c>
       <c r="F7" t="n">
-        <v>20700.70819205028</v>
+        <v>21196.85469904196</v>
       </c>
       <c r="G7" t="n">
-        <v>39517.45709314835</v>
+        <v>42512.17311722512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>16441877</v>
+        <v>15904326</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73162130</v>
+        <v>73604563</v>
       </c>
       <c r="E8" t="n">
-        <v>152537165</v>
+        <v>153459602</v>
       </c>
       <c r="F8" t="n">
-        <v>41298.75164162608</v>
+        <v>38545.24918397723</v>
       </c>
       <c r="G8" t="n">
-        <v>54457.81960823538</v>
+        <v>62054.12143190335</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>16568664</v>
+        <v>16433641</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>137566951</v>
+        <v>138345316</v>
       </c>
       <c r="E9" t="n">
-        <v>137588166</v>
+        <v>138368043</v>
       </c>
       <c r="F9" t="n">
-        <v>7096.569894804989</v>
+        <v>8333.151704102818</v>
       </c>
       <c r="G9" t="n">
-        <v>13416.21314809969</v>
+        <v>17134.65186426658</v>
       </c>
       <c r="H9" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>4352909</v>
+        <v>3952481</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>578805235</v>
+        <v>598137741</v>
       </c>
       <c r="E10" t="n">
-        <v>578805235</v>
+        <v>598137741</v>
       </c>
       <c r="F10" t="n">
-        <v>223829.7468274222</v>
+        <v>251284.5366222484</v>
       </c>
       <c r="G10" t="n">
-        <v>461548.0144989451</v>
+        <v>461576.1137982506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>437955816</v>
+        <v>458890389</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73190519</v>
+        <v>73265130</v>
       </c>
       <c r="E11" t="n">
-        <v>83976798</v>
+        <v>84062404</v>
       </c>
       <c r="F11" t="n">
-        <v>3268.444956262094</v>
+        <v>4239.107364726707</v>
       </c>
       <c r="G11" t="n">
-        <v>9340.694220876934</v>
+        <v>3086.461912523993</v>
       </c>
       <c r="H11" t="n">
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>1958426</v>
+        <v>1814723</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>226775628</v>
+        <v>225061828</v>
       </c>
       <c r="E12" t="n">
-        <v>978889501</v>
+        <v>971491791</v>
       </c>
       <c r="F12" t="n">
-        <v>391940.5840395926</v>
+        <v>415643.116675347</v>
       </c>
       <c r="G12" t="n">
-        <v>413790.6725301518</v>
+        <v>396540.9169500844</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>130121861</v>
+        <v>142074915</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>102573334</v>
+        <v>104859031</v>
       </c>
       <c r="E13" t="n">
-        <v>102573334</v>
+        <v>104859031</v>
       </c>
       <c r="F13" t="n">
-        <v>2590.535953601332</v>
+        <v>4164.681940287373</v>
       </c>
       <c r="G13" t="n">
-        <v>6167.330577360244</v>
+        <v>2189.39965904704</v>
       </c>
       <c r="H13" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>8920607</v>
+        <v>9738350</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12239075</v>
+        <v>13524896</v>
       </c>
       <c r="E14" t="n">
-        <v>30597687</v>
+        <v>33812240</v>
       </c>
       <c r="F14" t="n">
-        <v>7424.259481697205</v>
+        <v>9749.156903531697</v>
       </c>
       <c r="G14" t="n">
-        <v>8858.754536635895</v>
+        <v>7160.557377686588</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I14" t="n">
-        <v>3095017</v>
+        <v>3430659</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11130326</v>
+        <v>11179864</v>
       </c>
       <c r="E15" t="n">
-        <v>16366935</v>
+        <v>16439779</v>
       </c>
       <c r="F15" t="n">
-        <v>2292.184966173525</v>
+        <v>5432.575716938206</v>
       </c>
       <c r="G15" t="n">
-        <v>5388.715518055914</v>
+        <v>3178.90886033791</v>
       </c>
       <c r="H15" t="n">
         <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>1020318</v>
+        <v>921506</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26622491</v>
+        <v>26478726</v>
       </c>
       <c r="E16" t="n">
-        <v>82893895</v>
+        <v>82446258</v>
       </c>
       <c r="F16" t="n">
-        <v>7211.607460272756</v>
+        <v>12803.28992082514</v>
       </c>
       <c r="G16" t="n">
-        <v>16580.1571047092</v>
+        <v>14702.11534771743</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>11320946</v>
+        <v>11621721</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>294317402</v>
+        <v>299074670</v>
       </c>
       <c r="E17" t="n">
-        <v>2647861845</v>
+        <v>2690661184</v>
       </c>
       <c r="F17" t="n">
-        <v>6532.459057515033</v>
+        <v>6505.924127619091</v>
       </c>
       <c r="G17" t="n">
-        <v>6499.270714103471</v>
+        <v>7672.832562290595</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>47759958</v>
+        <v>50390265</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15925172</v>
+        <v>17447565</v>
       </c>
       <c r="E18" t="n">
-        <v>97610615</v>
+        <v>106941863</v>
       </c>
       <c r="F18" t="n">
-        <v>34190.68270901719</v>
+        <v>38015.23482916074</v>
       </c>
       <c r="G18" t="n">
-        <v>41716.32405729469</v>
+        <v>41195.65227287849</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>14172231</v>
+        <v>16421944</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42283168</v>
+        <v>42227614</v>
       </c>
       <c r="E19" t="n">
-        <v>182151266</v>
+        <v>181911945</v>
       </c>
       <c r="F19" t="n">
-        <v>34330.24648502991</v>
+        <v>37912.28609482465</v>
       </c>
       <c r="G19" t="n">
-        <v>95064.09300972341</v>
+        <v>89345.85931025681</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>13520040</v>
+        <v>12756217</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>283417699</v>
+        <v>276299829</v>
       </c>
       <c r="E20" t="n">
-        <v>283417699</v>
+        <v>276299829</v>
       </c>
       <c r="F20" t="n">
-        <v>49885.42020781013</v>
+        <v>41048.81890534332</v>
       </c>
       <c r="G20" t="n">
-        <v>100782.1448879849</v>
+        <v>90494.49946893647</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>110530529</v>
+        <v>129272275</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33249254</v>
+        <v>32235548</v>
       </c>
       <c r="E21" t="n">
-        <v>148870549</v>
+        <v>144331772</v>
       </c>
       <c r="F21" t="n">
-        <v>38768.24030477272</v>
+        <v>52033.37435534364</v>
       </c>
       <c r="G21" t="n">
-        <v>78595.19577647414</v>
+        <v>83136.40287239342</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>27183594</v>
+        <v>27653738</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42611877</v>
+        <v>43149001</v>
       </c>
       <c r="E22" t="n">
-        <v>276326678</v>
+        <v>279809789</v>
       </c>
       <c r="F22" t="n">
-        <v>8377.461589797609</v>
+        <v>36841.66129125666</v>
       </c>
       <c r="G22" t="n">
-        <v>6104.580417337202</v>
+        <v>86753.13713946295</v>
       </c>
       <c r="H22" t="n">
         <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>44023853</v>
+        <v>42475748</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>121907530</v>
+        <v>122200197</v>
       </c>
       <c r="E23" t="n">
-        <v>2018888547</v>
+        <v>2023735341</v>
       </c>
       <c r="F23" t="n">
-        <v>360516.4943803</v>
+        <v>347943.723123296</v>
       </c>
       <c r="G23" t="n">
-        <v>308929.5460052337</v>
+        <v>322917.5275742695</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>20935721</v>
+        <v>18949638</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4932093</v>
+        <v>4937325</v>
       </c>
       <c r="E24" t="n">
-        <v>25374119</v>
+        <v>25401039</v>
       </c>
       <c r="F24" t="n">
-        <v>1597.093596758096</v>
+        <v>1918.642432933897</v>
       </c>
       <c r="G24" t="n">
-        <v>5759.968787268945</v>
+        <v>1835.612184604282</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>913411</v>
+        <v>926115</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16967392</v>
+        <v>17440871</v>
       </c>
       <c r="E25" t="n">
-        <v>16967392</v>
+        <v>17440871</v>
       </c>
       <c r="F25" t="n">
-        <v>15338.01600003631</v>
+        <v>11147.34673225655</v>
       </c>
       <c r="G25" t="n">
-        <v>6042.575227174567</v>
+        <v>25386.331141125</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>4488006</v>
+        <v>4675552</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>338253654</v>
+        <v>335356844</v>
       </c>
       <c r="E27" t="n">
-        <v>625846398</v>
+        <v>620486639</v>
       </c>
       <c r="F27" t="n">
-        <v>54811.37689499391</v>
+        <v>9824.907755814109</v>
       </c>
       <c r="G27" t="n">
-        <v>56009.46126311516</v>
+        <v>60615.44369096998</v>
       </c>
       <c r="H27" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>120298469</v>
+        <v>205554887</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33777758</v>
+        <v>34256590</v>
       </c>
       <c r="E28" t="n">
-        <v>33777758</v>
+        <v>34256590</v>
       </c>
       <c r="F28" t="n">
-        <v>31535.76573760901</v>
+        <v>36545.02714256619</v>
       </c>
       <c r="G28" t="n">
-        <v>41020.15315566785</v>
+        <v>44639.1579407677</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>14688756</v>
+        <v>14435287</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>562164568</v>
+        <v>566535071</v>
       </c>
       <c r="E29" t="n">
-        <v>2177180432</v>
+        <v>2194106743</v>
       </c>
       <c r="F29" t="n">
-        <v>60616.79581488304</v>
+        <v>64269.73599083361</v>
       </c>
       <c r="G29" t="n">
-        <v>129583.0455681293</v>
+        <v>117062.5248942412</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>51439472</v>
+        <v>50848900</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>126059223</v>
+        <v>124165259</v>
       </c>
       <c r="E30" t="n">
-        <v>483583471</v>
+        <v>476317919</v>
       </c>
       <c r="F30" t="n">
-        <v>147135.4828295933</v>
+        <v>146246.0168711639</v>
       </c>
       <c r="G30" t="n">
-        <v>184200.4439009944</v>
+        <v>185151.0622216905</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>36698242</v>
+        <v>33218721</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27991997</v>
+        <v>28054732</v>
       </c>
       <c r="F31" t="n">
-        <v>21298.74370607072</v>
+        <v>17349.43282076291</v>
       </c>
       <c r="G31" t="n">
-        <v>32291.83642465739</v>
+        <v>24273.35106734134</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>11349071</v>
+        <v>11288451</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115974436</v>
+        <v>115448048</v>
       </c>
       <c r="E32" t="n">
-        <v>422714142</v>
+        <v>420786985</v>
       </c>
       <c r="F32" t="n">
-        <v>38402.93770301379</v>
+        <v>38849.96747248583</v>
       </c>
       <c r="G32" t="n">
-        <v>9301.072644265032</v>
+        <v>11218.12897061461</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>957957</v>
+        <v>805113</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>408925023</v>
+        <v>413179180</v>
       </c>
       <c r="E33" t="n">
-        <v>1419116328</v>
+        <v>1433879778</v>
       </c>
       <c r="F33" t="n">
-        <v>150044.9133311058</v>
+        <v>208804.3139283344</v>
       </c>
       <c r="G33" t="n">
-        <v>209565.067271602</v>
+        <v>245065.7256328324</v>
       </c>
       <c r="H33" t="n">
         <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>51900351</v>
+        <v>55458944</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>88092275</v>
+        <v>91070995</v>
       </c>
       <c r="E34" t="n">
-        <v>131418726</v>
+        <v>135862471</v>
       </c>
       <c r="F34" t="n">
-        <v>10154.39953969312</v>
+        <v>47599.9482539578</v>
       </c>
       <c r="G34" t="n">
-        <v>49059.68782048785</v>
+        <v>49333.74970920008</v>
       </c>
       <c r="H34" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I34" t="n">
-        <v>8245802</v>
+        <v>8142341</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1933999</v>
+        <v>1960295</v>
       </c>
       <c r="E35" t="n">
-        <v>7735997</v>
+        <v>7841181</v>
       </c>
       <c r="F35" t="n">
-        <v>8810.824303426907</v>
+        <v>7826.889456532504</v>
       </c>
       <c r="G35" t="n">
-        <v>27193.69105407544</v>
+        <v>29085.44058790404</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6672603</v>
+        <v>6627055</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>206617881</v>
+        <v>209333036</v>
       </c>
       <c r="E36" t="n">
-        <v>635272230</v>
+        <v>643620310</v>
       </c>
       <c r="F36" t="n">
-        <v>210914.9240842413</v>
+        <v>221309.3713167094</v>
       </c>
       <c r="G36" t="n">
-        <v>238373.8353575937</v>
+        <v>237256.9297509572</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>26324474</v>
+        <v>33341685</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>106315666</v>
+        <v>110124210</v>
       </c>
       <c r="E37" t="n">
-        <v>277746724</v>
+        <v>287696440</v>
       </c>
       <c r="F37" t="n">
-        <v>41883.87731783654</v>
+        <v>45454.32120736011</v>
       </c>
       <c r="G37" t="n">
-        <v>37461.51184829047</v>
+        <v>43531.20327138969</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>13144765</v>
+        <v>10741638</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>364796419</v>
+        <v>367631682</v>
       </c>
       <c r="E38" t="n">
-        <v>2084550967</v>
+        <v>2100752471</v>
       </c>
       <c r="F38" t="n">
-        <v>22834.12633953371</v>
+        <v>28484.19281577958</v>
       </c>
       <c r="G38" t="n">
-        <v>81474.73076882698</v>
+        <v>78657.15672765177</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>52816593</v>
+        <v>51185575</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>250383872</v>
+        <v>238891403</v>
       </c>
       <c r="E2" t="n">
-        <v>1570122067</v>
+        <v>1498054411</v>
       </c>
       <c r="F2" t="n">
-        <v>181811.4200591079</v>
+        <v>145759.523699495</v>
       </c>
       <c r="G2" t="n">
-        <v>208028.8394832188</v>
+        <v>202583.0308113704</v>
       </c>
       <c r="H2" t="n">
         <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>105946892</v>
+        <v>113799384</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138629846</v>
+        <v>137577799</v>
       </c>
       <c r="E3" t="n">
-        <v>153623533</v>
+        <v>152457700</v>
       </c>
       <c r="F3" t="n">
-        <v>45103.24629684661</v>
+        <v>72535.92737563969</v>
       </c>
       <c r="G3" t="n">
-        <v>196360.5622194054</v>
+        <v>187230.2780001268</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>43385839</v>
+        <v>50323391</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>522016113</v>
+        <v>516934064</v>
       </c>
       <c r="E4" t="n">
-        <v>652964572</v>
+        <v>646607684</v>
       </c>
       <c r="F4" t="n">
-        <v>85558.06865917471</v>
+        <v>136780.3823460348</v>
       </c>
       <c r="G4" t="n">
-        <v>160018.9315587376</v>
+        <v>128711.6076837012</v>
       </c>
       <c r="H4" t="n">
         <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>96579431</v>
+        <v>92395773</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>131124803</v>
+        <v>128798582</v>
       </c>
       <c r="E5" t="n">
-        <v>131124803</v>
+        <v>128798582</v>
       </c>
       <c r="F5" t="n">
-        <v>50572.49185051173</v>
+        <v>65626.90167552498</v>
       </c>
       <c r="G5" t="n">
-        <v>84102.76585030348</v>
+        <v>88342.06316487728</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>76527636</v>
+        <v>75171394</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>215730396</v>
+        <v>210118573</v>
       </c>
       <c r="E6" t="n">
-        <v>215730396</v>
+        <v>210118573</v>
       </c>
       <c r="F6" t="n">
-        <v>57619.76061821581</v>
+        <v>70109.48956407815</v>
       </c>
       <c r="G6" t="n">
-        <v>97257.1333286365</v>
+        <v>80421.89526163475</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>43843546</v>
+        <v>36391440</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>93821764</v>
+        <v>93661725</v>
       </c>
       <c r="E7" t="n">
-        <v>116984742</v>
+        <v>116785191</v>
       </c>
       <c r="F7" t="n">
-        <v>21196.85469904196</v>
+        <v>13491.40371885778</v>
       </c>
       <c r="G7" t="n">
-        <v>42512.17311722512</v>
+        <v>37189.25031485946</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>15904326</v>
+        <v>14524840</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73604563</v>
+        <v>70506924</v>
       </c>
       <c r="E8" t="n">
-        <v>153459602</v>
+        <v>147001273</v>
       </c>
       <c r="F8" t="n">
-        <v>38545.24918397723</v>
+        <v>44608.07024868371</v>
       </c>
       <c r="G8" t="n">
-        <v>62054.12143190335</v>
+        <v>62438.29203996818</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>16433641</v>
+        <v>16941409</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138345316</v>
+        <v>138219991</v>
       </c>
       <c r="E9" t="n">
-        <v>138368043</v>
+        <v>138220551</v>
       </c>
       <c r="F9" t="n">
-        <v>8333.151704102818</v>
+        <v>12329.75613918944</v>
       </c>
       <c r="G9" t="n">
-        <v>17134.65186426658</v>
+        <v>11078.95277005701</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>3952481</v>
+        <v>3278860</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>598137741</v>
+        <v>586277539</v>
       </c>
       <c r="E10" t="n">
-        <v>598137741</v>
+        <v>586277539</v>
       </c>
       <c r="F10" t="n">
-        <v>251284.5366222484</v>
+        <v>364272.3842517387</v>
       </c>
       <c r="G10" t="n">
-        <v>461576.1137982506</v>
+        <v>448449.5802580645</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>458890389</v>
+        <v>411236147</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73265130</v>
+        <v>72893186</v>
       </c>
       <c r="E11" t="n">
-        <v>84062404</v>
+        <v>83635646</v>
       </c>
       <c r="F11" t="n">
-        <v>4239.107364726707</v>
+        <v>2684.938488634799</v>
       </c>
       <c r="G11" t="n">
-        <v>3086.461912523993</v>
+        <v>5679.699496662784</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1814723</v>
+        <v>1834280</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>225061828</v>
+        <v>223252945</v>
       </c>
       <c r="E12" t="n">
-        <v>971491791</v>
+        <v>963683649</v>
       </c>
       <c r="F12" t="n">
-        <v>415643.116675347</v>
+        <v>308547.7704918451</v>
       </c>
       <c r="G12" t="n">
-        <v>396540.9169500844</v>
+        <v>381624.411396872</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>142074915</v>
+        <v>123500225</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>104859031</v>
+        <v>103696547</v>
       </c>
       <c r="E13" t="n">
-        <v>104859031</v>
+        <v>103696547</v>
       </c>
       <c r="F13" t="n">
-        <v>4164.681940287373</v>
+        <v>1856.669385088596</v>
       </c>
       <c r="G13" t="n">
-        <v>2189.39965904704</v>
+        <v>5435.495936985087</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>9738350</v>
+        <v>9467479</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13524896</v>
+        <v>11709298</v>
       </c>
       <c r="E14" t="n">
-        <v>33812240</v>
+        <v>29273245</v>
       </c>
       <c r="F14" t="n">
-        <v>9749.156903531697</v>
+        <v>6930.944073746244</v>
       </c>
       <c r="G14" t="n">
-        <v>7160.557377686588</v>
+        <v>13031.37296319727</v>
       </c>
       <c r="H14" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>3430659</v>
+        <v>4394452</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11179864</v>
+        <v>11256555</v>
       </c>
       <c r="E15" t="n">
-        <v>16439779</v>
+        <v>16552553</v>
       </c>
       <c r="F15" t="n">
-        <v>5432.575716938206</v>
+        <v>4279.601966093253</v>
       </c>
       <c r="G15" t="n">
-        <v>3178.90886033791</v>
+        <v>3824.602686526218</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>921506</v>
+        <v>656176</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26478726</v>
+        <v>26938367</v>
       </c>
       <c r="E16" t="n">
-        <v>82446258</v>
+        <v>83877431</v>
       </c>
       <c r="F16" t="n">
-        <v>12803.28992082514</v>
+        <v>8135.495975820117</v>
       </c>
       <c r="G16" t="n">
-        <v>14702.11534771743</v>
+        <v>13924.54819939184</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>11621721</v>
+        <v>11849478</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>299074670</v>
+        <v>290308867</v>
       </c>
       <c r="E17" t="n">
-        <v>2690661184</v>
+        <v>2611798585</v>
       </c>
       <c r="F17" t="n">
-        <v>6505.924127619091</v>
+        <v>6544.576570954249</v>
       </c>
       <c r="G17" t="n">
-        <v>7672.832562290595</v>
+        <v>6522.183869225034</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>50390265</v>
+        <v>44570576</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17447565</v>
+        <v>16228530</v>
       </c>
       <c r="E18" t="n">
-        <v>106941863</v>
+        <v>99469998</v>
       </c>
       <c r="F18" t="n">
-        <v>38015.23482916074</v>
+        <v>36234.72269079991</v>
       </c>
       <c r="G18" t="n">
-        <v>41195.65227287849</v>
+        <v>34144.10199773847</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>16421944</v>
+        <v>17101037</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42227614</v>
+        <v>41086813</v>
       </c>
       <c r="E19" t="n">
-        <v>181911945</v>
+        <v>176997497</v>
       </c>
       <c r="F19" t="n">
-        <v>37912.28609482465</v>
+        <v>31454.73205969583</v>
       </c>
       <c r="G19" t="n">
-        <v>89345.85931025681</v>
+        <v>90373.21421194928</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>12756217</v>
+        <v>12804388</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>276299829</v>
+        <v>273239465</v>
       </c>
       <c r="E20" t="n">
-        <v>276299829</v>
+        <v>273239465</v>
       </c>
       <c r="F20" t="n">
-        <v>41048.81890534332</v>
+        <v>50139.77338653211</v>
       </c>
       <c r="G20" t="n">
-        <v>90494.49946893647</v>
+        <v>97990.30139154133</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>129272275</v>
+        <v>84880532</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32235548</v>
+        <v>29857261</v>
       </c>
       <c r="E21" t="n">
-        <v>144331772</v>
+        <v>133683204</v>
       </c>
       <c r="F21" t="n">
-        <v>52033.37435534364</v>
+        <v>46540.71704989336</v>
       </c>
       <c r="G21" t="n">
-        <v>83136.40287239342</v>
+        <v>48347.79881816935</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>27653738</v>
+        <v>20431649</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43149001</v>
+        <v>42580222</v>
       </c>
       <c r="E22" t="n">
-        <v>279809789</v>
+        <v>276121407</v>
       </c>
       <c r="F22" t="n">
-        <v>36841.66129125666</v>
+        <v>27106.60710667369</v>
       </c>
       <c r="G22" t="n">
-        <v>86753.13713946295</v>
+        <v>90227.45574879597</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>42475748</v>
+        <v>39676995</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122200197</v>
+        <v>122066897</v>
       </c>
       <c r="E23" t="n">
-        <v>2023735341</v>
+        <v>2021527785</v>
       </c>
       <c r="F23" t="n">
-        <v>347943.723123296</v>
+        <v>364952.5015012604</v>
       </c>
       <c r="G23" t="n">
-        <v>322917.5275742695</v>
+        <v>320208.9631482525</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>18949638</v>
+        <v>12775961</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4937325</v>
+        <v>6133887</v>
       </c>
       <c r="E24" t="n">
-        <v>25401039</v>
+        <v>31556987</v>
       </c>
       <c r="F24" t="n">
-        <v>1918.642432933897</v>
+        <v>287.2345814496288</v>
       </c>
       <c r="G24" t="n">
-        <v>1835.612184604282</v>
+        <v>200.9561229580256</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>926115</v>
+        <v>1258247</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17440871</v>
+        <v>16387726</v>
       </c>
       <c r="E25" t="n">
-        <v>17440871</v>
+        <v>16387726</v>
       </c>
       <c r="F25" t="n">
-        <v>11147.34673225655</v>
+        <v>2623.331769120183</v>
       </c>
       <c r="G25" t="n">
-        <v>25386.331141125</v>
+        <v>12668.72697930844</v>
       </c>
       <c r="H25" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I25" t="n">
-        <v>4675552</v>
+        <v>4653609</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>335356844</v>
+        <v>304204787</v>
       </c>
       <c r="E27" t="n">
-        <v>620486639</v>
+        <v>562848229</v>
       </c>
       <c r="F27" t="n">
-        <v>9824.907755814109</v>
+        <v>19154.02083580197</v>
       </c>
       <c r="G27" t="n">
-        <v>60615.44369096998</v>
+        <v>60004.28614062408</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>205554887</v>
+        <v>202813716</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34256590</v>
+        <v>33897923</v>
       </c>
       <c r="E28" t="n">
-        <v>34256590</v>
+        <v>33897923</v>
       </c>
       <c r="F28" t="n">
-        <v>36545.02714256619</v>
+        <v>30648.34924709037</v>
       </c>
       <c r="G28" t="n">
-        <v>44639.1579407677</v>
+        <v>32611.27659827074</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I28" t="n">
-        <v>14435287</v>
+        <v>14574894</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>566535071</v>
+        <v>559796823</v>
       </c>
       <c r="E29" t="n">
-        <v>2194106743</v>
+        <v>2168010504</v>
       </c>
       <c r="F29" t="n">
-        <v>64269.73599083361</v>
+        <v>156069.9448012939</v>
       </c>
       <c r="G29" t="n">
-        <v>117062.5248942412</v>
+        <v>196873.2344212946</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>50848900</v>
+        <v>43816942</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>124165259</v>
+        <v>130470034</v>
       </c>
       <c r="E30" t="n">
-        <v>476317919</v>
+        <v>500504049</v>
       </c>
       <c r="F30" t="n">
-        <v>146246.0168711639</v>
+        <v>146276.7608566365</v>
       </c>
       <c r="G30" t="n">
-        <v>185151.0622216905</v>
+        <v>183444.9731610885</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>33218721</v>
+        <v>32654887</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28054732</v>
+        <v>26551931</v>
       </c>
       <c r="F31" t="n">
-        <v>17349.43282076291</v>
+        <v>17820.09171733082</v>
       </c>
       <c r="G31" t="n">
-        <v>24273.35106734134</v>
+        <v>21008.73931299864</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>11288451</v>
+        <v>7091717</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115448048</v>
+        <v>115330780</v>
       </c>
       <c r="E32" t="n">
-        <v>420786985</v>
+        <v>420344179</v>
       </c>
       <c r="F32" t="n">
-        <v>38849.96747248583</v>
+        <v>25836.36073426736</v>
       </c>
       <c r="G32" t="n">
-        <v>11218.12897061461</v>
+        <v>12164.55140103278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>805113</v>
+        <v>306990</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>413179180</v>
+        <v>403149292</v>
       </c>
       <c r="E33" t="n">
-        <v>1433879778</v>
+        <v>1399072472</v>
       </c>
       <c r="F33" t="n">
-        <v>208804.3139283344</v>
+        <v>180487.1840495684</v>
       </c>
       <c r="G33" t="n">
-        <v>245065.7256328324</v>
+        <v>131395.2534748929</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>55458944</v>
+        <v>50584676</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>91070995</v>
+        <v>88223203</v>
       </c>
       <c r="E34" t="n">
-        <v>135862471</v>
+        <v>131614049</v>
       </c>
       <c r="F34" t="n">
-        <v>47599.9482539578</v>
+        <v>45915.13683703922</v>
       </c>
       <c r="G34" t="n">
-        <v>49333.74970920008</v>
+        <v>52635.32686923235</v>
       </c>
       <c r="H34" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>8142341</v>
+        <v>7997779</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1960295</v>
+        <v>1938456</v>
       </c>
       <c r="E35" t="n">
-        <v>7841181</v>
+        <v>7753826</v>
       </c>
       <c r="F35" t="n">
-        <v>7826.889456532504</v>
+        <v>9525.5426413246</v>
       </c>
       <c r="G35" t="n">
-        <v>29085.44058790404</v>
+        <v>90634.98034219614</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6627055</v>
+        <v>6849162</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>209333036</v>
+        <v>201511525</v>
       </c>
       <c r="E36" t="n">
-        <v>643620310</v>
+        <v>619572106</v>
       </c>
       <c r="F36" t="n">
-        <v>221309.3713167094</v>
+        <v>206279.2668481127</v>
       </c>
       <c r="G36" t="n">
-        <v>237256.9297509572</v>
+        <v>216789.9911509872</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>33341685</v>
+        <v>25462550</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>110124210</v>
+        <v>110008123</v>
       </c>
       <c r="E37" t="n">
-        <v>287696440</v>
+        <v>287393167</v>
       </c>
       <c r="F37" t="n">
-        <v>45454.32120736011</v>
+        <v>38969.46014199287</v>
       </c>
       <c r="G37" t="n">
-        <v>43531.20327138969</v>
+        <v>35715.83230022631</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>10741638</v>
+        <v>8330758</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>367631682</v>
+        <v>361799196</v>
       </c>
       <c r="E38" t="n">
-        <v>2100752471</v>
+        <v>2067423977</v>
       </c>
       <c r="F38" t="n">
-        <v>28484.19281577958</v>
+        <v>34136.88981363211</v>
       </c>
       <c r="G38" t="n">
-        <v>78657.15672765177</v>
+        <v>83212.12301251752</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>51185575</v>
+        <v>44865034</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>238891403</v>
+        <v>224828677</v>
       </c>
       <c r="E2" t="n">
-        <v>1498054411</v>
+        <v>1409869028</v>
       </c>
       <c r="F2" t="n">
-        <v>145759.523699495</v>
+        <v>170384.0085165378</v>
       </c>
       <c r="G2" t="n">
-        <v>202583.0308113704</v>
+        <v>178697.0868770545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>113799384</v>
+        <v>89824966</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>137577799</v>
+        <v>128478257</v>
       </c>
       <c r="E3" t="n">
-        <v>152457700</v>
+        <v>142373986</v>
       </c>
       <c r="F3" t="n">
-        <v>72535.92737563969</v>
+        <v>45531.98394574039</v>
       </c>
       <c r="G3" t="n">
-        <v>187230.2780001268</v>
+        <v>158570.6279847772</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>50323391</v>
+        <v>52749080</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>516934064</v>
+        <v>490360012</v>
       </c>
       <c r="E4" t="n">
-        <v>646607684</v>
+        <v>613367495</v>
       </c>
       <c r="F4" t="n">
-        <v>136780.3823460348</v>
+        <v>77915.35311563026</v>
       </c>
       <c r="G4" t="n">
-        <v>128711.6076837012</v>
+        <v>149932.0790908456</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>92395773</v>
+        <v>86190027</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128798582</v>
+        <v>122759517</v>
       </c>
       <c r="E5" t="n">
-        <v>128798582</v>
+        <v>122759517</v>
       </c>
       <c r="F5" t="n">
-        <v>65626.90167552498</v>
+        <v>43656.91286719833</v>
       </c>
       <c r="G5" t="n">
-        <v>88342.06316487728</v>
+        <v>109095.5538260447</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>75171394</v>
+        <v>74899771</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>210118573</v>
+        <v>211145313</v>
       </c>
       <c r="E6" t="n">
-        <v>210118573</v>
+        <v>211145313</v>
       </c>
       <c r="F6" t="n">
-        <v>70109.48956407815</v>
+        <v>26751.6678125168</v>
       </c>
       <c r="G6" t="n">
-        <v>80421.89526163475</v>
+        <v>69487.52873403578</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>36391440</v>
+        <v>62902835</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>93661725</v>
+        <v>88811191</v>
       </c>
       <c r="E7" t="n">
-        <v>116785191</v>
+        <v>110737145</v>
       </c>
       <c r="F7" t="n">
-        <v>13491.40371885778</v>
+        <v>16681.27457633445</v>
       </c>
       <c r="G7" t="n">
-        <v>37189.25031485946</v>
+        <v>32442.11910830671</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>14524840</v>
+        <v>13346995</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70506924</v>
+        <v>67163045</v>
       </c>
       <c r="E8" t="n">
-        <v>147001273</v>
+        <v>140029554</v>
       </c>
       <c r="F8" t="n">
-        <v>44608.07024868371</v>
+        <v>27544.82913739128</v>
       </c>
       <c r="G8" t="n">
-        <v>62438.29203996818</v>
+        <v>49539.79599622195</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
-        <v>16941409</v>
+        <v>16208977</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138219991</v>
+        <v>128535922</v>
       </c>
       <c r="E9" t="n">
-        <v>138220551</v>
+        <v>128542050</v>
       </c>
       <c r="F9" t="n">
-        <v>12329.75613918944</v>
+        <v>6211.419175024621</v>
       </c>
       <c r="G9" t="n">
-        <v>11078.95277005701</v>
+        <v>15121.26836784687</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3278860</v>
+        <v>3054310</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>586277539</v>
+        <v>576243880</v>
       </c>
       <c r="E10" t="n">
-        <v>586277539</v>
+        <v>576243880</v>
       </c>
       <c r="F10" t="n">
-        <v>364272.3842517387</v>
+        <v>202189.2792602598</v>
       </c>
       <c r="G10" t="n">
-        <v>448449.5802580645</v>
+        <v>469593.5406802212</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>411236147</v>
+        <v>346865990</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72893186</v>
+        <v>71496967</v>
       </c>
       <c r="E11" t="n">
-        <v>83635646</v>
+        <v>82033663</v>
       </c>
       <c r="F11" t="n">
-        <v>2684.938488634799</v>
+        <v>7501.987800676216</v>
       </c>
       <c r="G11" t="n">
-        <v>5679.699496662784</v>
+        <v>19402.3843589845</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.75</v>
       </c>
       <c r="I11" t="n">
-        <v>1834280</v>
+        <v>2023951</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>223252945</v>
+        <v>212617735</v>
       </c>
       <c r="E12" t="n">
-        <v>963683649</v>
+        <v>917776176</v>
       </c>
       <c r="F12" t="n">
-        <v>308547.7704918451</v>
+        <v>308518.729027243</v>
       </c>
       <c r="G12" t="n">
-        <v>381624.411396872</v>
+        <v>380577.5533026981</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I12" t="n">
-        <v>123500225</v>
+        <v>117658073</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103696547</v>
+        <v>98690540</v>
       </c>
       <c r="E13" t="n">
-        <v>103696547</v>
+        <v>98690540</v>
       </c>
       <c r="F13" t="n">
-        <v>1856.669385088596</v>
+        <v>2996.532308894794</v>
       </c>
       <c r="G13" t="n">
-        <v>5435.495936985087</v>
+        <v>1746.767455277964</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="I13" t="n">
-        <v>9467479</v>
+        <v>9435005</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11709298</v>
+        <v>11929805</v>
       </c>
       <c r="E14" t="n">
-        <v>29273245</v>
+        <v>29824513</v>
       </c>
       <c r="F14" t="n">
-        <v>6930.944073746244</v>
+        <v>4892.062311363727</v>
       </c>
       <c r="G14" t="n">
-        <v>13031.37296319727</v>
+        <v>8609.77060944661</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>4394452</v>
+        <v>4763147</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11256555</v>
+        <v>10964256</v>
       </c>
       <c r="E15" t="n">
-        <v>16552553</v>
+        <v>16122732</v>
       </c>
       <c r="F15" t="n">
-        <v>4279.601966093253</v>
+        <v>4239.419055977099</v>
       </c>
       <c r="G15" t="n">
-        <v>3824.602686526218</v>
+        <v>2290.096311057011</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>656176</v>
+        <v>638518</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26938367</v>
+        <v>24932060</v>
       </c>
       <c r="E16" t="n">
-        <v>83877431</v>
+        <v>77630436</v>
       </c>
       <c r="F16" t="n">
-        <v>8135.495975820117</v>
+        <v>5252.721522533965</v>
       </c>
       <c r="G16" t="n">
-        <v>13924.54819939184</v>
+        <v>9827.581333787492</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>11849478</v>
+        <v>12071655</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>290308867</v>
+        <v>282312653</v>
       </c>
       <c r="E17" t="n">
-        <v>2611798585</v>
+        <v>2539859686</v>
       </c>
       <c r="F17" t="n">
-        <v>6544.576570954249</v>
+        <v>6519.572449450074</v>
       </c>
       <c r="G17" t="n">
-        <v>6522.183869225034</v>
+        <v>7573.976192007609</v>
       </c>
       <c r="H17" t="n">
         <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>44570576</v>
+        <v>45371666</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16228530</v>
+        <v>16410918</v>
       </c>
       <c r="E18" t="n">
-        <v>99469998</v>
+        <v>100587911</v>
       </c>
       <c r="F18" t="n">
-        <v>36234.72269079991</v>
+        <v>33934.37485534939</v>
       </c>
       <c r="G18" t="n">
-        <v>34144.10199773847</v>
+        <v>33521.77065302557</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>17101037</v>
+        <v>18603294</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41086813</v>
+        <v>40086751</v>
       </c>
       <c r="E19" t="n">
-        <v>176997497</v>
+        <v>172689341</v>
       </c>
       <c r="F19" t="n">
-        <v>31454.73205969583</v>
+        <v>38593.67438952276</v>
       </c>
       <c r="G19" t="n">
-        <v>90373.21421194928</v>
+        <v>62613.18355691718</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>12804388</v>
+        <v>11662438</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>273239465</v>
+        <v>262795233</v>
       </c>
       <c r="E20" t="n">
-        <v>273239465</v>
+        <v>262795233</v>
       </c>
       <c r="F20" t="n">
-        <v>50139.77338653211</v>
+        <v>45034.63397007179</v>
       </c>
       <c r="G20" t="n">
-        <v>97990.30139154133</v>
+        <v>105463.5672957853</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>84880532</v>
+        <v>85442687</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29857261</v>
+        <v>29363990</v>
       </c>
       <c r="E21" t="n">
-        <v>133683204</v>
+        <v>131474627</v>
       </c>
       <c r="F21" t="n">
-        <v>46540.71704989336</v>
+        <v>58292.10084269798</v>
       </c>
       <c r="G21" t="n">
-        <v>48347.79881816935</v>
+        <v>65575.86787342629</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>20431649</v>
+        <v>17151596</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42580222</v>
+        <v>40211378</v>
       </c>
       <c r="E22" t="n">
-        <v>276121407</v>
+        <v>260760086</v>
       </c>
       <c r="F22" t="n">
-        <v>27106.60710667369</v>
+        <v>36955.38211048142</v>
       </c>
       <c r="G22" t="n">
-        <v>90227.45574879597</v>
+        <v>90589.88288725131</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>39676995</v>
+        <v>29479619</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122066897</v>
+        <v>122604628</v>
       </c>
       <c r="E23" t="n">
-        <v>2021527785</v>
+        <v>2030433056</v>
       </c>
       <c r="F23" t="n">
-        <v>364952.5015012604</v>
+        <v>351895.4980049306</v>
       </c>
       <c r="G23" t="n">
-        <v>320208.9631482525</v>
+        <v>323575.5442629518</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="n">
-        <v>12775961</v>
+        <v>7136002</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6133887</v>
+        <v>5402805</v>
       </c>
       <c r="E24" t="n">
-        <v>31556987</v>
+        <v>27795790</v>
       </c>
       <c r="F24" t="n">
-        <v>287.2345814496288</v>
+        <v>341.0720019781296</v>
       </c>
       <c r="G24" t="n">
-        <v>200.9561229580256</v>
+        <v>1378.82046845241</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>1258247</v>
+        <v>1469785</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16387726</v>
+        <v>13886826</v>
       </c>
       <c r="E25" t="n">
-        <v>16387726</v>
+        <v>13886826</v>
       </c>
       <c r="F25" t="n">
-        <v>2623.331769120183</v>
+        <v>18704.32019044466</v>
       </c>
       <c r="G25" t="n">
-        <v>12668.72697930844</v>
+        <v>7188.113173457878</v>
       </c>
       <c r="H25" t="n">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="I25" t="n">
-        <v>4653609</v>
+        <v>3793455</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>304204787</v>
+        <v>297618876</v>
       </c>
       <c r="E27" t="n">
-        <v>562848229</v>
+        <v>537571123</v>
       </c>
       <c r="F27" t="n">
-        <v>19154.02083580197</v>
+        <v>96677.45091640668</v>
       </c>
       <c r="G27" t="n">
-        <v>60004.28614062408</v>
+        <v>68651.49620346545</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>202813716</v>
+        <v>162171085</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33897923</v>
+        <v>31717161</v>
       </c>
       <c r="E28" t="n">
-        <v>33897923</v>
+        <v>31717161</v>
       </c>
       <c r="F28" t="n">
-        <v>30648.34924709037</v>
+        <v>26140.94595341889</v>
       </c>
       <c r="G28" t="n">
-        <v>32611.27659827074</v>
+        <v>35805.10666158107</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="I28" t="n">
-        <v>14574894</v>
+        <v>15629219</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>559796823</v>
+        <v>529679458</v>
       </c>
       <c r="E29" t="n">
-        <v>2168010504</v>
+        <v>2051370391</v>
       </c>
       <c r="F29" t="n">
-        <v>156069.9448012939</v>
+        <v>140591.3052032925</v>
       </c>
       <c r="G29" t="n">
-        <v>196873.2344212946</v>
+        <v>200417.1427457324</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>43816942</v>
+        <v>34475419</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>130470034</v>
+        <v>122156871</v>
       </c>
       <c r="E30" t="n">
-        <v>500504049</v>
+        <v>468613419</v>
       </c>
       <c r="F30" t="n">
-        <v>146276.7608566365</v>
+        <v>144951.2145179091</v>
       </c>
       <c r="G30" t="n">
-        <v>183444.9731610885</v>
+        <v>185094.3123584271</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>32654887</v>
+        <v>27404964</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26551931</v>
+        <v>27666170</v>
       </c>
       <c r="F31" t="n">
-        <v>17820.09171733082</v>
+        <v>19693.77356199399</v>
       </c>
       <c r="G31" t="n">
-        <v>21008.73931299864</v>
+        <v>30147.0511638657</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>7091717</v>
+        <v>7175360</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115330780</v>
+        <v>115675399</v>
       </c>
       <c r="E32" t="n">
-        <v>420344179</v>
+        <v>421581696</v>
       </c>
       <c r="F32" t="n">
-        <v>25836.36073426736</v>
+        <v>16302.29777158285</v>
       </c>
       <c r="G32" t="n">
-        <v>12164.55140103278</v>
+        <v>10932.94481405072</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>306990</v>
+        <v>244475</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>403149292</v>
+        <v>396454413</v>
       </c>
       <c r="E33" t="n">
-        <v>1399072472</v>
+        <v>1375143648</v>
       </c>
       <c r="F33" t="n">
-        <v>180487.1840495684</v>
+        <v>193418.7829772115</v>
       </c>
       <c r="G33" t="n">
-        <v>131395.2534748929</v>
+        <v>227001.990038378</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>50584676</v>
+        <v>52353183</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>88223203</v>
+        <v>83717527</v>
       </c>
       <c r="E34" t="n">
-        <v>131614049</v>
+        <v>124892345</v>
       </c>
       <c r="F34" t="n">
-        <v>45915.13683703922</v>
+        <v>40674.370110839</v>
       </c>
       <c r="G34" t="n">
-        <v>52635.32686923235</v>
+        <v>49385.78532828567</v>
       </c>
       <c r="H34" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>7997779</v>
+        <v>7265367</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1938456</v>
+        <v>1749890</v>
       </c>
       <c r="E35" t="n">
-        <v>7753826</v>
+        <v>6999559</v>
       </c>
       <c r="F35" t="n">
-        <v>9525.5426413246</v>
+        <v>12704.07503703254</v>
       </c>
       <c r="G35" t="n">
-        <v>90634.98034219614</v>
+        <v>114033.8608313753</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>6849162</v>
+        <v>6562282</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>201511525</v>
+        <v>199032471</v>
       </c>
       <c r="E36" t="n">
-        <v>619572106</v>
+        <v>611949948</v>
       </c>
       <c r="F36" t="n">
-        <v>206279.2668481127</v>
+        <v>147580.1323901979</v>
       </c>
       <c r="G36" t="n">
-        <v>216789.9911509872</v>
+        <v>240338.4216868962</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>25462550</v>
+        <v>32947739</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>110008123</v>
+        <v>104576034</v>
       </c>
       <c r="E37" t="n">
-        <v>287393167</v>
+        <v>273201986</v>
       </c>
       <c r="F37" t="n">
-        <v>38969.46014199287</v>
+        <v>44921.0120863432</v>
       </c>
       <c r="G37" t="n">
-        <v>35715.83230022631</v>
+        <v>38887.67479327684</v>
       </c>
       <c r="H37" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>8330758</v>
+        <v>6588134</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>361799196</v>
+        <v>343287691</v>
       </c>
       <c r="E38" t="n">
-        <v>2067423977</v>
+        <v>1961643947</v>
       </c>
       <c r="F38" t="n">
-        <v>34136.88981363211</v>
+        <v>20720.52386071242</v>
       </c>
       <c r="G38" t="n">
-        <v>83212.12301251752</v>
+        <v>86121.09055606207</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>44865034</v>
+        <v>40809963</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>224828677</v>
+        <v>229557615</v>
       </c>
       <c r="E2" t="n">
-        <v>1409869028</v>
+        <v>1439523536</v>
       </c>
       <c r="F2" t="n">
-        <v>170384.0085165378</v>
+        <v>183924.8482511055</v>
       </c>
       <c r="G2" t="n">
-        <v>178697.0868770545</v>
+        <v>195873.8605222533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>89824966</v>
+        <v>44198234</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>128478257</v>
+        <v>124376836</v>
       </c>
       <c r="E3" t="n">
-        <v>142373986</v>
+        <v>137828970</v>
       </c>
       <c r="F3" t="n">
-        <v>45531.98394574039</v>
+        <v>61478.20606797967</v>
       </c>
       <c r="G3" t="n">
-        <v>158570.6279847772</v>
+        <v>163402.9537390043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>52749080</v>
+        <v>44961933</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>490360012</v>
+        <v>472947443</v>
       </c>
       <c r="E4" t="n">
-        <v>613367495</v>
+        <v>591586959</v>
       </c>
       <c r="F4" t="n">
-        <v>77915.35311563026</v>
+        <v>83807.6036844172</v>
       </c>
       <c r="G4" t="n">
-        <v>149932.0790908456</v>
+        <v>127637.5389600354</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>86190027</v>
+        <v>90601343</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>122759517</v>
+        <v>119197520</v>
       </c>
       <c r="E5" t="n">
-        <v>122759517</v>
+        <v>119197520</v>
       </c>
       <c r="F5" t="n">
-        <v>43656.91286719833</v>
+        <v>57281.46557057834</v>
       </c>
       <c r="G5" t="n">
-        <v>109095.5538260447</v>
+        <v>96085.17388816984</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>74899771</v>
+        <v>78879299</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211145313</v>
+        <v>201669973</v>
       </c>
       <c r="E6" t="n">
-        <v>211145313</v>
+        <v>201669973</v>
       </c>
       <c r="F6" t="n">
-        <v>26751.6678125168</v>
+        <v>32154.12182283312</v>
       </c>
       <c r="G6" t="n">
-        <v>69487.52873403578</v>
+        <v>70746.10435457375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>62902835</v>
+        <v>65421973</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>88811191</v>
+        <v>86294189</v>
       </c>
       <c r="E7" t="n">
-        <v>110737145</v>
+        <v>107598738</v>
       </c>
       <c r="F7" t="n">
-        <v>16681.27457633445</v>
+        <v>17792.09849669514</v>
       </c>
       <c r="G7" t="n">
-        <v>32442.11910830671</v>
+        <v>35697.85395897897</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>13346995</v>
+        <v>12108218</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67163045</v>
+        <v>65690473</v>
       </c>
       <c r="E8" t="n">
-        <v>140029554</v>
+        <v>136959359</v>
       </c>
       <c r="F8" t="n">
-        <v>27544.82913739128</v>
+        <v>14960.46336868131</v>
       </c>
       <c r="G8" t="n">
-        <v>49539.79599622195</v>
+        <v>49234.03740950899</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>16208977</v>
+        <v>16866105</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>128535922</v>
+        <v>125318738</v>
       </c>
       <c r="E9" t="n">
-        <v>128542050</v>
+        <v>125327846</v>
       </c>
       <c r="F9" t="n">
-        <v>6211.419175024621</v>
+        <v>16211.74208781812</v>
       </c>
       <c r="G9" t="n">
-        <v>15121.26836784687</v>
+        <v>12643.48431255126</v>
       </c>
       <c r="H9" t="n">
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3054310</v>
+        <v>3608576</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>576243880</v>
+        <v>565501256</v>
       </c>
       <c r="E10" t="n">
-        <v>576243880</v>
+        <v>565501256</v>
       </c>
       <c r="F10" t="n">
-        <v>202189.2792602598</v>
+        <v>161916.1998169353</v>
       </c>
       <c r="G10" t="n">
-        <v>469593.5406802212</v>
+        <v>448027.9175865917</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>346865990</v>
+        <v>381032799</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71496967</v>
+        <v>72006289</v>
       </c>
       <c r="E11" t="n">
-        <v>82033663</v>
+        <v>82618044</v>
       </c>
       <c r="F11" t="n">
-        <v>7501.987800676216</v>
+        <v>7330.628785604447</v>
       </c>
       <c r="G11" t="n">
-        <v>19402.3843589845</v>
+        <v>3560.000801503931</v>
       </c>
       <c r="H11" t="n">
-        <v>0.75</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2023951</v>
+        <v>1936259</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>212617735</v>
+        <v>202136569</v>
       </c>
       <c r="E12" t="n">
-        <v>917776176</v>
+        <v>872533647</v>
       </c>
       <c r="F12" t="n">
-        <v>308518.729027243</v>
+        <v>294808.6108481577</v>
       </c>
       <c r="G12" t="n">
-        <v>380577.5533026981</v>
+        <v>370579.6105943095</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>117658073</v>
+        <v>122187641</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98690540</v>
+        <v>97840454</v>
       </c>
       <c r="E13" t="n">
-        <v>98690540</v>
+        <v>97840454</v>
       </c>
       <c r="F13" t="n">
-        <v>2996.532308894794</v>
+        <v>1710.993337173848</v>
       </c>
       <c r="G13" t="n">
-        <v>1746.767455277964</v>
+        <v>3746.043746560571</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="I13" t="n">
-        <v>9435005</v>
+        <v>12393636</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11929805</v>
+        <v>11523070</v>
       </c>
       <c r="E14" t="n">
-        <v>29824513</v>
+        <v>28807676</v>
       </c>
       <c r="F14" t="n">
-        <v>4892.062311363727</v>
+        <v>4718.251683776613</v>
       </c>
       <c r="G14" t="n">
-        <v>8609.77060944661</v>
+        <v>10598.47768811241</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>4763147</v>
+        <v>5237903</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10964256</v>
+        <v>10865058</v>
       </c>
       <c r="E15" t="n">
-        <v>16122732</v>
+        <v>15976863</v>
       </c>
       <c r="F15" t="n">
-        <v>4239.419055977099</v>
+        <v>4209.714383708331</v>
       </c>
       <c r="G15" t="n">
-        <v>2290.096311057011</v>
+        <v>5687.088027089595</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>638518</v>
+        <v>708011</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24932060</v>
+        <v>24334980</v>
       </c>
       <c r="E16" t="n">
-        <v>77630436</v>
+        <v>75771319</v>
       </c>
       <c r="F16" t="n">
-        <v>5252.721522533965</v>
+        <v>8758.762103731793</v>
       </c>
       <c r="G16" t="n">
-        <v>9827.581333787492</v>
+        <v>10757.21547131174</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I16" t="n">
-        <v>12071655</v>
+        <v>12158246</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>282312653</v>
+        <v>268549325</v>
       </c>
       <c r="E17" t="n">
-        <v>2539859686</v>
+        <v>2416036249</v>
       </c>
       <c r="F17" t="n">
-        <v>6519.572449450074</v>
+        <v>6104.945567133533</v>
       </c>
       <c r="G17" t="n">
-        <v>7573.976192007609</v>
+        <v>6783.451667183647</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="I17" t="n">
-        <v>45371666</v>
+        <v>50608162</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16410918</v>
+        <v>15206968</v>
       </c>
       <c r="E18" t="n">
-        <v>100587911</v>
+        <v>93208510</v>
       </c>
       <c r="F18" t="n">
-        <v>33934.37485534939</v>
+        <v>39138.75549252103</v>
       </c>
       <c r="G18" t="n">
-        <v>33521.77065302557</v>
+        <v>41596.15569829616</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>18603294</v>
+        <v>18502368</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40086751</v>
+        <v>38273831</v>
       </c>
       <c r="E19" t="n">
-        <v>172689341</v>
+        <v>164879479</v>
       </c>
       <c r="F19" t="n">
-        <v>38593.67438952276</v>
+        <v>37320.27893219637</v>
       </c>
       <c r="G19" t="n">
-        <v>62613.18355691718</v>
+        <v>93689.80756708213</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>11662438</v>
+        <v>13512241</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>262795233</v>
+        <v>269474727</v>
       </c>
       <c r="E20" t="n">
-        <v>262795233</v>
+        <v>269474727</v>
       </c>
       <c r="F20" t="n">
-        <v>45034.63397007179</v>
+        <v>54633.57015047128</v>
       </c>
       <c r="G20" t="n">
-        <v>105463.5672957853</v>
+        <v>98355.69491338005</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>85442687</v>
+        <v>75401622</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29363990</v>
+        <v>31424190</v>
       </c>
       <c r="E21" t="n">
-        <v>131474627</v>
+        <v>140698988</v>
       </c>
       <c r="F21" t="n">
-        <v>58292.10084269798</v>
+        <v>46756.336004419</v>
       </c>
       <c r="G21" t="n">
-        <v>65575.86787342629</v>
+        <v>79145.8105812869</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>17151596</v>
+        <v>21079321</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40211378</v>
+        <v>39100609</v>
       </c>
       <c r="E22" t="n">
-        <v>260760086</v>
+        <v>253557046</v>
       </c>
       <c r="F22" t="n">
-        <v>36955.38211048142</v>
+        <v>34843.82548274432</v>
       </c>
       <c r="G22" t="n">
-        <v>90589.88288725131</v>
+        <v>84569.2824193743</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>29479619</v>
+        <v>32119285</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122604628</v>
+        <v>121752092</v>
       </c>
       <c r="E23" t="n">
-        <v>2030433056</v>
+        <v>2016314362</v>
       </c>
       <c r="F23" t="n">
-        <v>351895.4980049306</v>
+        <v>363713.695749722</v>
       </c>
       <c r="G23" t="n">
-        <v>323575.5442629518</v>
+        <v>322479.857047098</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>7136002</v>
+        <v>10830105</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5402805</v>
+        <v>5308342</v>
       </c>
       <c r="E24" t="n">
-        <v>27795790</v>
+        <v>27309804</v>
       </c>
       <c r="F24" t="n">
-        <v>341.0720019781296</v>
+        <v>13276.27042378661</v>
       </c>
       <c r="G24" t="n">
-        <v>1378.82046845241</v>
+        <v>839.5596302834075</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>1469785</v>
+        <v>1513666</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13886826</v>
+        <v>14195120</v>
       </c>
       <c r="E25" t="n">
-        <v>13886826</v>
+        <v>14196689</v>
       </c>
       <c r="F25" t="n">
-        <v>18704.32019044466</v>
+        <v>15962.18094055929</v>
       </c>
       <c r="G25" t="n">
-        <v>7188.113173457878</v>
+        <v>9286.386923420801</v>
       </c>
       <c r="H25" t="n">
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="I25" t="n">
-        <v>3793455</v>
+        <v>4207912</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>297618876</v>
+        <v>282152166</v>
       </c>
       <c r="E27" t="n">
-        <v>537571123</v>
+        <v>509634532</v>
       </c>
       <c r="F27" t="n">
-        <v>96677.45091640668</v>
+        <v>64047.69542635892</v>
       </c>
       <c r="G27" t="n">
-        <v>68651.49620346545</v>
+        <v>64968.2480050641</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>162171085</v>
+        <v>76559181</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31717161</v>
+        <v>31373615</v>
       </c>
       <c r="E28" t="n">
-        <v>31717161</v>
+        <v>31373615</v>
       </c>
       <c r="F28" t="n">
-        <v>26140.94595341889</v>
+        <v>30028.05293994543</v>
       </c>
       <c r="G28" t="n">
-        <v>35805.10666158107</v>
+        <v>40274.53987808457</v>
       </c>
       <c r="H28" t="n">
         <v>0.16</v>
       </c>
       <c r="I28" t="n">
-        <v>15629219</v>
+        <v>18603028</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>529679458</v>
+        <v>517882449</v>
       </c>
       <c r="E29" t="n">
-        <v>2051370391</v>
+        <v>2005682319</v>
       </c>
       <c r="F29" t="n">
-        <v>140591.3052032925</v>
+        <v>159422.4825417859</v>
       </c>
       <c r="G29" t="n">
-        <v>200417.1427457324</v>
+        <v>198442.7809089337</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>34475419</v>
+        <v>44090697</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122156871</v>
+        <v>118882464</v>
       </c>
       <c r="E30" t="n">
-        <v>468613419</v>
+        <v>456052266</v>
       </c>
       <c r="F30" t="n">
-        <v>144951.2145179091</v>
+        <v>135239.7448725478</v>
       </c>
       <c r="G30" t="n">
-        <v>185094.3123584271</v>
+        <v>184219.9027527717</v>
       </c>
       <c r="H30" t="n">
         <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>27404964</v>
+        <v>30716568</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27666170</v>
+        <v>25811300</v>
       </c>
       <c r="F31" t="n">
-        <v>19693.77356199399</v>
+        <v>16704.37869227649</v>
       </c>
       <c r="G31" t="n">
-        <v>30147.0511638657</v>
+        <v>38965.36120303586</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I31" t="n">
-        <v>7175360</v>
+        <v>8086714</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115675399</v>
+        <v>114896359</v>
       </c>
       <c r="E32" t="n">
-        <v>421581696</v>
+        <v>418701916</v>
       </c>
       <c r="F32" t="n">
-        <v>16302.29777158285</v>
+        <v>30382.42520212609</v>
       </c>
       <c r="G32" t="n">
-        <v>10932.94481405072</v>
+        <v>3041.886672323167</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>244475</v>
+        <v>304505</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>396454413</v>
+        <v>384003810</v>
       </c>
       <c r="E33" t="n">
-        <v>1375143648</v>
+        <v>1331957430</v>
       </c>
       <c r="F33" t="n">
-        <v>193418.7829772115</v>
+        <v>214293.2354429055</v>
       </c>
       <c r="G33" t="n">
-        <v>227001.990038378</v>
+        <v>250756.5760249324</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I33" t="n">
-        <v>52353183</v>
+        <v>57258291</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>83717527</v>
+        <v>78265221</v>
       </c>
       <c r="E34" t="n">
-        <v>124892345</v>
+        <v>116758430</v>
       </c>
       <c r="F34" t="n">
-        <v>40674.370110839</v>
+        <v>50391.30514447947</v>
       </c>
       <c r="G34" t="n">
-        <v>49385.78532828567</v>
+        <v>58428.27580967476</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>7265367</v>
+        <v>7692724</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1749890</v>
+        <v>1718045</v>
       </c>
       <c r="E35" t="n">
-        <v>6999559</v>
+        <v>6872178</v>
       </c>
       <c r="F35" t="n">
-        <v>12704.07503703254</v>
+        <v>15006.27555241449</v>
       </c>
       <c r="G35" t="n">
-        <v>114033.8608313753</v>
+        <v>109443.7749328118</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I35" t="n">
-        <v>6562282</v>
+        <v>6356347</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>199032471</v>
+        <v>188890411</v>
       </c>
       <c r="E36" t="n">
-        <v>611949948</v>
+        <v>580766931</v>
       </c>
       <c r="F36" t="n">
-        <v>147580.1323901979</v>
+        <v>166870.495379132</v>
       </c>
       <c r="G36" t="n">
-        <v>240338.4216868962</v>
+        <v>213361.4950297485</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>32947739</v>
+        <v>31534140</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>104576034</v>
+        <v>99555199</v>
       </c>
       <c r="E37" t="n">
-        <v>273201986</v>
+        <v>260085192</v>
       </c>
       <c r="F37" t="n">
-        <v>44921.0120863432</v>
+        <v>42486.43698909706</v>
       </c>
       <c r="G37" t="n">
-        <v>38887.67479327684</v>
+        <v>38850.58423759363</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>6588134</v>
+        <v>8462015</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>343287691</v>
+        <v>333269897</v>
       </c>
       <c r="E38" t="n">
-        <v>1961643947</v>
+        <v>1904399412</v>
       </c>
       <c r="F38" t="n">
-        <v>20720.52386071242</v>
+        <v>50753.88063019081</v>
       </c>
       <c r="G38" t="n">
-        <v>86121.09055606207</v>
+        <v>77762.42759449492</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>40809963</v>
+        <v>45364960</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>229557615</v>
+        <v>245213434</v>
       </c>
       <c r="E2" t="n">
-        <v>1439523536</v>
+        <v>1537698976</v>
       </c>
       <c r="F2" t="n">
-        <v>183924.8482511055</v>
+        <v>183252.6241282696</v>
       </c>
       <c r="G2" t="n">
-        <v>195873.8605222533</v>
+        <v>220490.9248461326</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>44198234</v>
+        <v>54152747</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>124376836</v>
+        <v>145749318</v>
       </c>
       <c r="E3" t="n">
-        <v>137828970</v>
+        <v>161513021</v>
       </c>
       <c r="F3" t="n">
-        <v>61478.20606797967</v>
+        <v>70573.68760148027</v>
       </c>
       <c r="G3" t="n">
-        <v>163402.9537390043</v>
+        <v>185973.8812820719</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>44961933</v>
+        <v>62878236</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>472947443</v>
+        <v>510347160</v>
       </c>
       <c r="E4" t="n">
-        <v>591586959</v>
+        <v>638368446</v>
       </c>
       <c r="F4" t="n">
-        <v>83807.6036844172</v>
+        <v>127380.3138192844</v>
       </c>
       <c r="G4" t="n">
-        <v>127637.5389600354</v>
+        <v>160917.0941327238</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>90601343</v>
+        <v>98990616</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>119197520</v>
+        <v>129229256</v>
       </c>
       <c r="E5" t="n">
-        <v>119197520</v>
+        <v>129229256</v>
       </c>
       <c r="F5" t="n">
-        <v>57281.46557057834</v>
+        <v>64927.18091013761</v>
       </c>
       <c r="G5" t="n">
-        <v>96085.17388816984</v>
+        <v>96061.21301424826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>78879299</v>
+        <v>97565115</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>201669973</v>
+        <v>222098242</v>
       </c>
       <c r="E6" t="n">
-        <v>201669973</v>
+        <v>222098242</v>
       </c>
       <c r="F6" t="n">
-        <v>32154.12182283312</v>
+        <v>31553.38842980565</v>
       </c>
       <c r="G6" t="n">
-        <v>70746.10435457375</v>
+        <v>93935.09328385453</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>65421973</v>
+        <v>76175164</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>86294189</v>
+        <v>91082348</v>
       </c>
       <c r="E7" t="n">
-        <v>107598738</v>
+        <v>113569011</v>
       </c>
       <c r="F7" t="n">
-        <v>17792.09849669514</v>
+        <v>20448.66325133658</v>
       </c>
       <c r="G7" t="n">
-        <v>35697.85395897897</v>
+        <v>43457.05120585009</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>12108218</v>
+        <v>15082535</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65690473</v>
+        <v>72581111</v>
       </c>
       <c r="E8" t="n">
-        <v>136959359</v>
+        <v>151325788</v>
       </c>
       <c r="F8" t="n">
-        <v>14960.46336868131</v>
+        <v>17730.68576082118</v>
       </c>
       <c r="G8" t="n">
-        <v>49234.03740950899</v>
+        <v>52677.75658773127</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I8" t="n">
-        <v>16866105</v>
+        <v>19026185</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>125318738</v>
+        <v>134227990</v>
       </c>
       <c r="E9" t="n">
-        <v>125327846</v>
+        <v>134242288</v>
       </c>
       <c r="F9" t="n">
-        <v>16211.74208781812</v>
+        <v>8322.165578953302</v>
       </c>
       <c r="G9" t="n">
-        <v>12643.48431255126</v>
+        <v>15178.52563922698</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>3608576</v>
+        <v>4288053</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>565501256</v>
+        <v>618018292</v>
       </c>
       <c r="E10" t="n">
-        <v>565501256</v>
+        <v>618018292</v>
       </c>
       <c r="F10" t="n">
-        <v>161916.1998169353</v>
+        <v>363272.7504998542</v>
       </c>
       <c r="G10" t="n">
-        <v>448027.9175865917</v>
+        <v>500702.3677277598</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>381032799</v>
+        <v>475558474</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72006289</v>
+        <v>72859014</v>
       </c>
       <c r="E11" t="n">
-        <v>82618044</v>
+        <v>83596438</v>
       </c>
       <c r="F11" t="n">
-        <v>7330.628785604447</v>
+        <v>6210.650844777019</v>
       </c>
       <c r="G11" t="n">
-        <v>3560.000801503931</v>
+        <v>3298.243810002291</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
-        <v>1936259</v>
+        <v>2298018</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>202136569</v>
+        <v>218188275</v>
       </c>
       <c r="E12" t="n">
-        <v>872533647</v>
+        <v>941475811</v>
       </c>
       <c r="F12" t="n">
-        <v>294808.6108481577</v>
+        <v>416579.1432514763</v>
       </c>
       <c r="G12" t="n">
-        <v>370579.6105943095</v>
+        <v>384049.9665862139</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>122187641</v>
+        <v>135360653</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>97840454</v>
+        <v>103608094</v>
       </c>
       <c r="E13" t="n">
-        <v>97840454</v>
+        <v>103608094</v>
       </c>
       <c r="F13" t="n">
-        <v>1710.993337173848</v>
+        <v>1596.057052422387</v>
       </c>
       <c r="G13" t="n">
-        <v>3746.043746560571</v>
+        <v>4275.197817124834</v>
       </c>
       <c r="H13" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>12393636</v>
+        <v>10963233</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11523070</v>
+        <v>12439516</v>
       </c>
       <c r="E14" t="n">
-        <v>28807676</v>
+        <v>31098790</v>
       </c>
       <c r="F14" t="n">
-        <v>4718.251683776613</v>
+        <v>5791.668137460808</v>
       </c>
       <c r="G14" t="n">
-        <v>10598.47768811241</v>
+        <v>10608.26819793357</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>5237903</v>
+        <v>4558477</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10865058</v>
+        <v>11026976</v>
       </c>
       <c r="E15" t="n">
-        <v>15976863</v>
+        <v>16214960</v>
       </c>
       <c r="F15" t="n">
-        <v>4209.714383708331</v>
+        <v>2191.039727584025</v>
       </c>
       <c r="G15" t="n">
-        <v>5687.088027089595</v>
+        <v>5391.00731823287</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>708011</v>
+        <v>784603</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24334980</v>
+        <v>25622028</v>
       </c>
       <c r="E16" t="n">
-        <v>75771319</v>
+        <v>79778774</v>
       </c>
       <c r="F16" t="n">
-        <v>8758.762103731793</v>
+        <v>12716.09425281697</v>
       </c>
       <c r="G16" t="n">
-        <v>10757.21547131174</v>
+        <v>13637.1812693983</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>12158246</v>
+        <v>12202042</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268549325</v>
+        <v>295724142</v>
       </c>
       <c r="E17" t="n">
-        <v>2416036249</v>
+        <v>2660517755</v>
       </c>
       <c r="F17" t="n">
-        <v>6104.945567133533</v>
+        <v>6513.414878181424</v>
       </c>
       <c r="G17" t="n">
-        <v>6783.451667183647</v>
+        <v>7269.039698006011</v>
       </c>
       <c r="H17" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>50608162</v>
+        <v>61043996</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15206968</v>
+        <v>15772517</v>
       </c>
       <c r="E18" t="n">
-        <v>93208510</v>
+        <v>96674940</v>
       </c>
       <c r="F18" t="n">
-        <v>39138.75549252103</v>
+        <v>34631.03244429952</v>
       </c>
       <c r="G18" t="n">
-        <v>41596.15569829616</v>
+        <v>38309.88377517343</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>18502368</v>
+        <v>18315841</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38273831</v>
+        <v>41264795</v>
       </c>
       <c r="E19" t="n">
-        <v>164879479</v>
+        <v>177764226</v>
       </c>
       <c r="F19" t="n">
-        <v>37320.27893219637</v>
+        <v>33513.89057373583</v>
       </c>
       <c r="G19" t="n">
-        <v>93689.80756708213</v>
+        <v>87864.59744394364</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>13512241</v>
+        <v>16001342</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>269474727</v>
+        <v>287206225</v>
       </c>
       <c r="E20" t="n">
-        <v>269474727</v>
+        <v>287206225</v>
       </c>
       <c r="F20" t="n">
-        <v>54633.57015047128</v>
+        <v>57714.94765979642</v>
       </c>
       <c r="G20" t="n">
-        <v>98355.69491338005</v>
+        <v>102822.2333224636</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>75401622</v>
+        <v>88408801</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31424190</v>
+        <v>32882274</v>
       </c>
       <c r="E21" t="n">
-        <v>140698988</v>
+        <v>147227428</v>
       </c>
       <c r="F21" t="n">
-        <v>46756.336004419</v>
+        <v>53574.50552876062</v>
       </c>
       <c r="G21" t="n">
-        <v>79145.8105812869</v>
+        <v>73128.96629441186</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>21079321</v>
+        <v>24262768</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39100609</v>
+        <v>42878922</v>
       </c>
       <c r="E22" t="n">
-        <v>253557046</v>
+        <v>278058399</v>
       </c>
       <c r="F22" t="n">
-        <v>34843.82548274432</v>
+        <v>6415.135535392256</v>
       </c>
       <c r="G22" t="n">
-        <v>84569.2824193743</v>
+        <v>7344.934396979092</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>32119285</v>
+        <v>33737609</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>121752092</v>
+        <v>123275809</v>
       </c>
       <c r="E23" t="n">
-        <v>2016314362</v>
+        <v>2041548366</v>
       </c>
       <c r="F23" t="n">
-        <v>363713.695749722</v>
+        <v>367116.2330417023</v>
       </c>
       <c r="G23" t="n">
-        <v>322479.857047098</v>
+        <v>334100.2602668601</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>10830105</v>
+        <v>12514939</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5308342</v>
+        <v>5820316</v>
       </c>
       <c r="E24" t="n">
-        <v>27309804</v>
+        <v>29943757</v>
       </c>
       <c r="F24" t="n">
-        <v>13276.27042378661</v>
+        <v>1059.524621882481</v>
       </c>
       <c r="G24" t="n">
-        <v>839.5596302834075</v>
+        <v>2295.608708106803</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1513666</v>
+        <v>1384661</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14195120</v>
+        <v>15885051</v>
       </c>
       <c r="E25" t="n">
-        <v>14196689</v>
+        <v>15885560</v>
       </c>
       <c r="F25" t="n">
-        <v>15962.18094055929</v>
+        <v>2793.709165151674</v>
       </c>
       <c r="G25" t="n">
-        <v>9286.386923420801</v>
+        <v>22696.43122810059</v>
       </c>
       <c r="H25" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>4207912</v>
+        <v>4593875</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>282152166</v>
+        <v>298789093</v>
       </c>
       <c r="E27" t="n">
-        <v>509634532</v>
+        <v>539684814</v>
       </c>
       <c r="F27" t="n">
-        <v>64047.69542635892</v>
+        <v>89933.90341152227</v>
       </c>
       <c r="G27" t="n">
-        <v>64968.2480050641</v>
+        <v>94231.25652758987</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>76559181</v>
+        <v>36104215</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31373615</v>
+        <v>34930005</v>
       </c>
       <c r="E28" t="n">
-        <v>31373615</v>
+        <v>34930005</v>
       </c>
       <c r="F28" t="n">
-        <v>30028.05293994543</v>
+        <v>36816.10750644778</v>
       </c>
       <c r="G28" t="n">
-        <v>40274.53987808457</v>
+        <v>41669.02203953387</v>
       </c>
       <c r="H28" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>18603028</v>
+        <v>23157559</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>517882449</v>
+        <v>560281677</v>
       </c>
       <c r="E29" t="n">
-        <v>2005682319</v>
+        <v>2169888271</v>
       </c>
       <c r="F29" t="n">
-        <v>159422.4825417859</v>
+        <v>64845.73309968449</v>
       </c>
       <c r="G29" t="n">
-        <v>198442.7809089337</v>
+        <v>215124.9302547873</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>44090697</v>
+        <v>51821514</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>118882464</v>
+        <v>125349291</v>
       </c>
       <c r="E30" t="n">
-        <v>456052266</v>
+        <v>480860057</v>
       </c>
       <c r="F30" t="n">
-        <v>135239.7448725478</v>
+        <v>135989.3984180684</v>
       </c>
       <c r="G30" t="n">
-        <v>184219.9027527717</v>
+        <v>189024.6997477425</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>30716568</v>
+        <v>30915920</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25811300</v>
+        <v>28830031</v>
       </c>
       <c r="F31" t="n">
-        <v>16704.37869227649</v>
+        <v>22277.15022187031</v>
       </c>
       <c r="G31" t="n">
-        <v>38965.36120303586</v>
+        <v>187184.7225816288</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>8086714</v>
+        <v>9307337</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>114896359</v>
+        <v>115911597</v>
       </c>
       <c r="E32" t="n">
-        <v>418701916</v>
+        <v>422390606</v>
       </c>
       <c r="F32" t="n">
-        <v>30382.42520212609</v>
+        <v>10884.74532757178</v>
       </c>
       <c r="G32" t="n">
-        <v>3041.886672323167</v>
+        <v>9236.200922364835</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>304505</v>
+        <v>275816</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>384003810</v>
+        <v>409997887</v>
       </c>
       <c r="E33" t="n">
-        <v>1331957430</v>
+        <v>1422120607</v>
       </c>
       <c r="F33" t="n">
-        <v>214293.2354429055</v>
+        <v>161172.2668328602</v>
       </c>
       <c r="G33" t="n">
-        <v>250756.5760249324</v>
+        <v>254671.8075145651</v>
       </c>
       <c r="H33" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>57258291</v>
+        <v>65622942</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>78265221</v>
+        <v>88643247</v>
       </c>
       <c r="E34" t="n">
-        <v>116758430</v>
+        <v>132240683</v>
       </c>
       <c r="F34" t="n">
-        <v>50391.30514447947</v>
+        <v>41438.42548128091</v>
       </c>
       <c r="G34" t="n">
-        <v>58428.27580967476</v>
+        <v>49831.37278961117</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>7692724</v>
+        <v>8450271</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1718045</v>
+        <v>1856044</v>
       </c>
       <c r="E35" t="n">
-        <v>6872178</v>
+        <v>7424174</v>
       </c>
       <c r="F35" t="n">
-        <v>15006.27555241449</v>
+        <v>15378.69410101537</v>
       </c>
       <c r="G35" t="n">
-        <v>109443.7749328118</v>
+        <v>58192.62568062245</v>
       </c>
       <c r="H35" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6356347</v>
+        <v>6387336</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>188890411</v>
+        <v>202549223</v>
       </c>
       <c r="E36" t="n">
-        <v>580766931</v>
+        <v>622762637</v>
       </c>
       <c r="F36" t="n">
-        <v>166870.495379132</v>
+        <v>178250.8857726715</v>
       </c>
       <c r="G36" t="n">
-        <v>213361.4950297485</v>
+        <v>225241.1129730329</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>31534140</v>
+        <v>34523399</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>99555199</v>
+        <v>115860946</v>
       </c>
       <c r="E37" t="n">
-        <v>260085192</v>
+        <v>302683503</v>
       </c>
       <c r="F37" t="n">
-        <v>42486.43698909706</v>
+        <v>39012.68761086633</v>
       </c>
       <c r="G37" t="n">
-        <v>38850.58423759363</v>
+        <v>39142.79341016943</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>8462015</v>
+        <v>10422635</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>333269897</v>
+        <v>355456582</v>
       </c>
       <c r="E38" t="n">
-        <v>1904399412</v>
+        <v>2031180468</v>
       </c>
       <c r="F38" t="n">
-        <v>50753.88063019081</v>
+        <v>45190.05864896141</v>
       </c>
       <c r="G38" t="n">
-        <v>77762.42759449492</v>
+        <v>88525.92799972216</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>45364960</v>
+        <v>52368373</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245213434</v>
+        <v>270166265</v>
       </c>
       <c r="E2" t="n">
-        <v>1537698976</v>
+        <v>1694174673</v>
       </c>
       <c r="F2" t="n">
-        <v>183252.6241282696</v>
+        <v>121350.2487300129</v>
       </c>
       <c r="G2" t="n">
-        <v>220490.9248461326</v>
+        <v>158341.3833141039</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>54152747</v>
+        <v>122292265</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>145749318</v>
+        <v>139275477</v>
       </c>
       <c r="E3" t="n">
-        <v>161513021</v>
+        <v>154338993</v>
       </c>
       <c r="F3" t="n">
-        <v>70573.68760148027</v>
+        <v>85480.72653905847</v>
       </c>
       <c r="G3" t="n">
-        <v>185973.8812820719</v>
+        <v>208736.7894005912</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>62878236</v>
+        <v>65481504</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>510347160</v>
+        <v>510827911</v>
       </c>
       <c r="E4" t="n">
-        <v>638368446</v>
+        <v>638969794</v>
       </c>
       <c r="F4" t="n">
-        <v>127380.3138192844</v>
+        <v>133069.8923275097</v>
       </c>
       <c r="G4" t="n">
-        <v>160917.0941327238</v>
+        <v>139369.4314530212</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>98990616</v>
+        <v>85975115</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129229256</v>
+        <v>132708636</v>
       </c>
       <c r="E5" t="n">
-        <v>129229256</v>
+        <v>132708636</v>
       </c>
       <c r="F5" t="n">
-        <v>64927.18091013761</v>
+        <v>56555.13048891412</v>
       </c>
       <c r="G5" t="n">
-        <v>96061.21301424826</v>
+        <v>98622.70907069057</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>97565115</v>
+        <v>93256696</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>222098242</v>
+        <v>221665867</v>
       </c>
       <c r="E6" t="n">
-        <v>222098242</v>
+        <v>221665867</v>
       </c>
       <c r="F6" t="n">
-        <v>31553.38842980565</v>
+        <v>65885.70202764806</v>
       </c>
       <c r="G6" t="n">
-        <v>93935.09328385453</v>
+        <v>94899.29323234077</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>76175164</v>
+        <v>47065299</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>91082348</v>
+        <v>91194215</v>
       </c>
       <c r="E7" t="n">
-        <v>113569011</v>
+        <v>113708497</v>
       </c>
       <c r="F7" t="n">
-        <v>20448.66325133658</v>
+        <v>18342.31735452145</v>
       </c>
       <c r="G7" t="n">
-        <v>43457.05120585009</v>
+        <v>42454.68345867525</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>15082535</v>
+        <v>11862378</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72581111</v>
+        <v>71893445</v>
       </c>
       <c r="E8" t="n">
-        <v>151325788</v>
+        <v>149892059</v>
       </c>
       <c r="F8" t="n">
-        <v>17730.68576082118</v>
+        <v>13126.71228230772</v>
       </c>
       <c r="G8" t="n">
-        <v>52677.75658773127</v>
+        <v>43047.34067759645</v>
       </c>
       <c r="H8" t="n">
         <v>0.15</v>
       </c>
       <c r="I8" t="n">
-        <v>19026185</v>
+        <v>18020825</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>134227990</v>
+        <v>133483055</v>
       </c>
       <c r="E9" t="n">
-        <v>134242288</v>
+        <v>133502989</v>
       </c>
       <c r="F9" t="n">
-        <v>8322.165578953302</v>
+        <v>8796.784693274449</v>
       </c>
       <c r="G9" t="n">
-        <v>15178.52563922698</v>
+        <v>13866.7457039596</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>4288053</v>
+        <v>4127978</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>618018292</v>
+        <v>649018489</v>
       </c>
       <c r="E10" t="n">
-        <v>618018292</v>
+        <v>649018489</v>
       </c>
       <c r="F10" t="n">
-        <v>363272.7504998542</v>
+        <v>367729.9926676129</v>
       </c>
       <c r="G10" t="n">
-        <v>500702.3677277598</v>
+        <v>517333.5383549809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>475558474</v>
+        <v>500454057</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72859014</v>
+        <v>74653965</v>
       </c>
       <c r="E11" t="n">
-        <v>83596438</v>
+        <v>85655915</v>
       </c>
       <c r="F11" t="n">
-        <v>6210.650844777019</v>
+        <v>14032.82249541705</v>
       </c>
       <c r="G11" t="n">
-        <v>3298.243810002291</v>
+        <v>12693.33554662891</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>2298018</v>
+        <v>2312090</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>218188275</v>
+        <v>219059869</v>
       </c>
       <c r="E12" t="n">
-        <v>941475811</v>
+        <v>945584002</v>
       </c>
       <c r="F12" t="n">
-        <v>416579.1432514763</v>
+        <v>384936.1052790487</v>
       </c>
       <c r="G12" t="n">
-        <v>384049.9665862139</v>
+        <v>356300.2098335755</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>135360653</v>
+        <v>100876473</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103608094</v>
+        <v>103617561</v>
       </c>
       <c r="E13" t="n">
-        <v>103608094</v>
+        <v>103617561</v>
       </c>
       <c r="F13" t="n">
-        <v>1596.057052422387</v>
+        <v>5903.115147800967</v>
       </c>
       <c r="G13" t="n">
-        <v>4275.197817124834</v>
+        <v>4341.119582496569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>10963233</v>
+        <v>9854388</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12439516</v>
+        <v>11927736</v>
       </c>
       <c r="E14" t="n">
-        <v>31098790</v>
+        <v>29819341</v>
       </c>
       <c r="F14" t="n">
-        <v>5791.668137460808</v>
+        <v>6997.965615260444</v>
       </c>
       <c r="G14" t="n">
-        <v>10608.26819793357</v>
+        <v>14109.92745648207</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>4558477</v>
+        <v>3532422</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11026976</v>
+        <v>10952382</v>
       </c>
       <c r="E15" t="n">
-        <v>16214960</v>
+        <v>16105271</v>
       </c>
       <c r="F15" t="n">
-        <v>2191.039727584025</v>
+        <v>2532.75197931674</v>
       </c>
       <c r="G15" t="n">
-        <v>5391.00731823287</v>
+        <v>5551.427846251884</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>784603</v>
+        <v>658052</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25622028</v>
+        <v>25816386</v>
       </c>
       <c r="E16" t="n">
-        <v>79778774</v>
+        <v>80383944</v>
       </c>
       <c r="F16" t="n">
-        <v>12716.09425281697</v>
+        <v>16489.70790417814</v>
       </c>
       <c r="G16" t="n">
-        <v>13637.1812693983</v>
+        <v>15776.40148301824</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>12202042</v>
+        <v>11424577</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>295724142</v>
+        <v>294178341</v>
       </c>
       <c r="E17" t="n">
-        <v>2660517755</v>
+        <v>2646610771</v>
       </c>
       <c r="F17" t="n">
-        <v>6513.414878181424</v>
+        <v>6331.039763080516</v>
       </c>
       <c r="G17" t="n">
-        <v>7269.039698006011</v>
+        <v>6065.98861061013</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>61043996</v>
+        <v>49701977</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15772517</v>
+        <v>15538136</v>
       </c>
       <c r="E18" t="n">
-        <v>96674940</v>
+        <v>95238345</v>
       </c>
       <c r="F18" t="n">
-        <v>34631.03244429952</v>
+        <v>28919.41120784706</v>
       </c>
       <c r="G18" t="n">
-        <v>38309.88377517343</v>
+        <v>48230.9299522779</v>
       </c>
       <c r="H18" t="n">
         <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>18315841</v>
+        <v>15588490</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41264795</v>
+        <v>41219504</v>
       </c>
       <c r="E19" t="n">
-        <v>177764226</v>
+        <v>177569116</v>
       </c>
       <c r="F19" t="n">
-        <v>33513.89057373583</v>
+        <v>30592.97261611966</v>
       </c>
       <c r="G19" t="n">
-        <v>87864.59744394364</v>
+        <v>73635.04955393702</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>16001342</v>
+        <v>16340052</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>287206225</v>
+        <v>294750329</v>
       </c>
       <c r="E20" t="n">
-        <v>287206225</v>
+        <v>294750329</v>
       </c>
       <c r="F20" t="n">
-        <v>57714.94765979642</v>
+        <v>83317.45492829989</v>
       </c>
       <c r="G20" t="n">
-        <v>102822.2333224636</v>
+        <v>116220.0744501288</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>88408801</v>
+        <v>81193105</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32882274</v>
+        <v>31874787</v>
       </c>
       <c r="E21" t="n">
-        <v>147227428</v>
+        <v>142716497</v>
       </c>
       <c r="F21" t="n">
-        <v>53574.50552876062</v>
+        <v>63501.94313651803</v>
       </c>
       <c r="G21" t="n">
-        <v>73128.96629441186</v>
+        <v>82540.17240283117</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>24262768</v>
+        <v>21887539</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42878922</v>
+        <v>42545752</v>
       </c>
       <c r="E22" t="n">
-        <v>278058399</v>
+        <v>275897880</v>
       </c>
       <c r="F22" t="n">
-        <v>6415.135535392256</v>
+        <v>12163.02276544767</v>
       </c>
       <c r="G22" t="n">
-        <v>7344.934396979092</v>
+        <v>3743.050983852019</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>33737609</v>
+        <v>27652689</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123275809</v>
+        <v>122474444</v>
       </c>
       <c r="E23" t="n">
-        <v>2041548366</v>
+        <v>2028277108</v>
       </c>
       <c r="F23" t="n">
-        <v>367116.2330417023</v>
+        <v>375583.5503735537</v>
       </c>
       <c r="G23" t="n">
-        <v>334100.2602668601</v>
+        <v>328363.7152330039</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>12514939</v>
+        <v>14704167</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5820316</v>
+        <v>5731079</v>
       </c>
       <c r="E24" t="n">
-        <v>29943757</v>
+        <v>29484659</v>
       </c>
       <c r="F24" t="n">
-        <v>1059.524621882481</v>
+        <v>1154.770824497867</v>
       </c>
       <c r="G24" t="n">
-        <v>2295.608708106803</v>
+        <v>1933.819405427257</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="I24" t="n">
-        <v>1384661</v>
+        <v>1080161</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15885051</v>
+        <v>16619735</v>
       </c>
       <c r="E25" t="n">
-        <v>15885560</v>
+        <v>16619735</v>
       </c>
       <c r="F25" t="n">
-        <v>2793.709165151674</v>
+        <v>16789.89753381261</v>
       </c>
       <c r="G25" t="n">
-        <v>22696.43122810059</v>
+        <v>9719.347406421779</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>4593875</v>
+        <v>3133876</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>298789093</v>
+        <v>290217889</v>
       </c>
       <c r="E27" t="n">
-        <v>539684814</v>
+        <v>524203164</v>
       </c>
       <c r="F27" t="n">
-        <v>89933.90341152227</v>
+        <v>89424.86437768261</v>
       </c>
       <c r="G27" t="n">
-        <v>94231.25652758987</v>
+        <v>94691.41407577974</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>36104215</v>
+        <v>28948225</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34930005</v>
+        <v>35807390</v>
       </c>
       <c r="E28" t="n">
-        <v>34930005</v>
+        <v>35807390</v>
       </c>
       <c r="F28" t="n">
-        <v>36816.10750644778</v>
+        <v>28704.62312753209</v>
       </c>
       <c r="G28" t="n">
-        <v>41669.02203953387</v>
+        <v>39214.48982298515</v>
       </c>
       <c r="H28" t="n">
         <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>23157559</v>
+        <v>21221263</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>560281677</v>
+        <v>585003987</v>
       </c>
       <c r="E29" t="n">
-        <v>2169888271</v>
+        <v>2132322709</v>
       </c>
       <c r="F29" t="n">
-        <v>64845.73309968449</v>
+        <v>158237.6641491496</v>
       </c>
       <c r="G29" t="n">
-        <v>215124.9302547873</v>
+        <v>206670.4510591188</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>51821514</v>
+        <v>48189898</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125349291</v>
+        <v>130316164</v>
       </c>
       <c r="E30" t="n">
-        <v>480860057</v>
+        <v>499913781</v>
       </c>
       <c r="F30" t="n">
-        <v>135989.3984180684</v>
+        <v>188411.0730599917</v>
       </c>
       <c r="G30" t="n">
-        <v>189024.6997477425</v>
+        <v>193692.0891141654</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>30915920</v>
+        <v>29962882</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28830031</v>
+        <v>28680947</v>
       </c>
       <c r="F31" t="n">
-        <v>22277.15022187031</v>
+        <v>15802.55110672351</v>
       </c>
       <c r="G31" t="n">
-        <v>187184.7225816288</v>
+        <v>60842.47574528091</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="I31" t="n">
-        <v>9307337</v>
+        <v>7475079</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115911597</v>
+        <v>117178015</v>
       </c>
       <c r="E32" t="n">
-        <v>422390606</v>
+        <v>426985178</v>
       </c>
       <c r="F32" t="n">
-        <v>10884.74532757178</v>
+        <v>9980.872894753642</v>
       </c>
       <c r="G32" t="n">
-        <v>9236.200922364835</v>
+        <v>15374.16942745663</v>
       </c>
       <c r="H32" t="n">
         <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>275816</v>
+        <v>201513</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>409997887</v>
+        <v>404131599</v>
       </c>
       <c r="E33" t="n">
-        <v>1422120607</v>
+        <v>1401064831</v>
       </c>
       <c r="F33" t="n">
-        <v>161172.2668328602</v>
+        <v>215903.3522081588</v>
       </c>
       <c r="G33" t="n">
-        <v>254671.8075145651</v>
+        <v>263206.0559610871</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>65622942</v>
+        <v>49174767</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>88643247</v>
+        <v>88286358</v>
       </c>
       <c r="E34" t="n">
-        <v>132240683</v>
+        <v>131708265</v>
       </c>
       <c r="F34" t="n">
-        <v>41438.42548128091</v>
+        <v>45945.39017417149</v>
       </c>
       <c r="G34" t="n">
-        <v>49831.37278961117</v>
+        <v>48531.26556489629</v>
       </c>
       <c r="H34" t="n">
         <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>8450271</v>
+        <v>8799060</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1856044</v>
+        <v>1911051</v>
       </c>
       <c r="E35" t="n">
-        <v>7424174</v>
+        <v>7644202</v>
       </c>
       <c r="F35" t="n">
-        <v>15378.69410101537</v>
+        <v>15692.86309433254</v>
       </c>
       <c r="G35" t="n">
-        <v>58192.62568062245</v>
+        <v>65074.61815235754</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6387336</v>
+        <v>6638793</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>202549223</v>
+        <v>218830850</v>
       </c>
       <c r="E36" t="n">
-        <v>622762637</v>
+        <v>628097319</v>
       </c>
       <c r="F36" t="n">
-        <v>178250.8857726715</v>
+        <v>107051.5465712067</v>
       </c>
       <c r="G36" t="n">
-        <v>225241.1129730329</v>
+        <v>231708.6839814127</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>34523399</v>
+        <v>21184932</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>115860946</v>
+        <v>122418017</v>
       </c>
       <c r="E37" t="n">
-        <v>302683503</v>
+        <v>319813668</v>
       </c>
       <c r="F37" t="n">
-        <v>39012.68761086633</v>
+        <v>40235.85583165275</v>
       </c>
       <c r="G37" t="n">
-        <v>39142.79341016943</v>
+        <v>40904.64472751507</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I37" t="n">
-        <v>10422635</v>
+        <v>10014482</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>355456582</v>
+        <v>354735311</v>
       </c>
       <c r="E38" t="n">
-        <v>2031180468</v>
+        <v>2027058922</v>
       </c>
       <c r="F38" t="n">
-        <v>45190.05864896141</v>
+        <v>42780.65195596332</v>
       </c>
       <c r="G38" t="n">
-        <v>88525.92799972216</v>
+        <v>82188.16845000222</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>52368373</v>
+        <v>43782403</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>270166265</v>
+        <v>274520900</v>
       </c>
       <c r="E2" t="n">
-        <v>1694174673</v>
+        <v>1721481977</v>
       </c>
       <c r="F2" t="n">
-        <v>121350.2487300129</v>
+        <v>184153.6929372122</v>
       </c>
       <c r="G2" t="n">
-        <v>158341.3833141039</v>
+        <v>210595.1556963834</v>
       </c>
       <c r="H2" t="n">
         <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>122292265</v>
+        <v>126568735</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139275477</v>
+        <v>139641812</v>
       </c>
       <c r="E3" t="n">
-        <v>154338993</v>
+        <v>154744950</v>
       </c>
       <c r="F3" t="n">
-        <v>85480.72653905847</v>
+        <v>87257.2860107348</v>
       </c>
       <c r="G3" t="n">
-        <v>208736.7894005912</v>
+        <v>191224.423793262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>65481504</v>
+        <v>59753457</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>510827911</v>
+        <v>503819417</v>
       </c>
       <c r="E4" t="n">
-        <v>638969794</v>
+        <v>630203210</v>
       </c>
       <c r="F4" t="n">
-        <v>133069.8923275097</v>
+        <v>125277.4845382268</v>
       </c>
       <c r="G4" t="n">
-        <v>139369.4314530212</v>
+        <v>144534.2613262748</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>85975115</v>
+        <v>69898932</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>132708636</v>
+        <v>129060192</v>
       </c>
       <c r="E5" t="n">
-        <v>132708636</v>
+        <v>129060192</v>
       </c>
       <c r="F5" t="n">
-        <v>56555.13048891412</v>
+        <v>69088.71152168442</v>
       </c>
       <c r="G5" t="n">
-        <v>98622.70907069057</v>
+        <v>86080.63680589592</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I5" t="n">
-        <v>93256696</v>
+        <v>75772006</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221665867</v>
+        <v>217899356</v>
       </c>
       <c r="E6" t="n">
-        <v>221665867</v>
+        <v>217899356</v>
       </c>
       <c r="F6" t="n">
-        <v>65885.70202764806</v>
+        <v>64549.34120844855</v>
       </c>
       <c r="G6" t="n">
-        <v>94899.29323234077</v>
+        <v>90546.83271785613</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>47065299</v>
+        <v>39934292</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>91194215</v>
+        <v>92154555</v>
       </c>
       <c r="E7" t="n">
-        <v>113708497</v>
+        <v>114905927</v>
       </c>
       <c r="F7" t="n">
-        <v>18342.31735452145</v>
+        <v>15134.27144635956</v>
       </c>
       <c r="G7" t="n">
-        <v>42454.68345867525</v>
+        <v>38742.42579417685</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11862378</v>
+        <v>11562847</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71893445</v>
+        <v>71175503</v>
       </c>
       <c r="E8" t="n">
-        <v>149892059</v>
+        <v>148395207</v>
       </c>
       <c r="F8" t="n">
-        <v>13126.71228230772</v>
+        <v>12607.07619849535</v>
       </c>
       <c r="G8" t="n">
-        <v>43047.34067759645</v>
+        <v>39825.88340375152</v>
       </c>
       <c r="H8" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>18020825</v>
+        <v>15941733</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>133483055</v>
+        <v>134757038</v>
       </c>
       <c r="E9" t="n">
-        <v>133502989</v>
+        <v>134777163</v>
       </c>
       <c r="F9" t="n">
-        <v>8796.784693274449</v>
+        <v>8625.853928554496</v>
       </c>
       <c r="G9" t="n">
-        <v>13866.7457039596</v>
+        <v>15208.99194477801</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>4127978</v>
+        <v>3786427</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>649018489</v>
+        <v>639718968</v>
       </c>
       <c r="E10" t="n">
-        <v>649018489</v>
+        <v>639718968</v>
       </c>
       <c r="F10" t="n">
-        <v>367729.9926676129</v>
+        <v>414309.0158174789</v>
       </c>
       <c r="G10" t="n">
-        <v>517333.5383549809</v>
+        <v>533892.4153830811</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>500454057</v>
+        <v>456748726</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74653965</v>
+        <v>73467708</v>
       </c>
       <c r="E11" t="n">
-        <v>85655915</v>
+        <v>84294837</v>
       </c>
       <c r="F11" t="n">
-        <v>14032.82249541705</v>
+        <v>2558.174183661787</v>
       </c>
       <c r="G11" t="n">
-        <v>12693.33554662891</v>
+        <v>14924.71995429534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="I11" t="n">
-        <v>2312090</v>
+        <v>2227052</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>219059869</v>
+        <v>216676068</v>
       </c>
       <c r="E12" t="n">
-        <v>945584002</v>
+        <v>935294197</v>
       </c>
       <c r="F12" t="n">
-        <v>384936.1052790487</v>
+        <v>318311.7853227126</v>
       </c>
       <c r="G12" t="n">
-        <v>356300.2098335755</v>
+        <v>354379.8316427496</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>100876473</v>
+        <v>77790932</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103617561</v>
+        <v>103868615</v>
       </c>
       <c r="E13" t="n">
-        <v>103617561</v>
+        <v>103868615</v>
       </c>
       <c r="F13" t="n">
-        <v>5903.115147800967</v>
+        <v>5735.705535328075</v>
       </c>
       <c r="G13" t="n">
-        <v>4341.119582496569</v>
+        <v>4279.710893883128</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.38</v>
       </c>
       <c r="I13" t="n">
-        <v>9854388</v>
+        <v>7613545</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11927736</v>
+        <v>12114300</v>
       </c>
       <c r="E14" t="n">
-        <v>29819341</v>
+        <v>30285750</v>
       </c>
       <c r="F14" t="n">
-        <v>6997.965615260444</v>
+        <v>8362.412889775407</v>
       </c>
       <c r="G14" t="n">
-        <v>14109.92745648207</v>
+        <v>14033.97577016352</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>3532422</v>
+        <v>2918622</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10952382</v>
+        <v>11073360</v>
       </c>
       <c r="E15" t="n">
-        <v>16105271</v>
+        <v>16283168</v>
       </c>
       <c r="F15" t="n">
-        <v>2532.75197931674</v>
+        <v>2734.103577820274</v>
       </c>
       <c r="G15" t="n">
-        <v>5551.427846251884</v>
+        <v>5496.951974903511</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>658052</v>
+        <v>517408</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25816386</v>
+        <v>28182814</v>
       </c>
       <c r="E16" t="n">
-        <v>80383944</v>
+        <v>87752241</v>
       </c>
       <c r="F16" t="n">
-        <v>16489.70790417814</v>
+        <v>5796.61721813648</v>
       </c>
       <c r="G16" t="n">
-        <v>15776.40148301824</v>
+        <v>9117.017884051362</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>11424577</v>
+        <v>11550862</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>294178341</v>
+        <v>289288471</v>
       </c>
       <c r="E17" t="n">
-        <v>2646610771</v>
+        <v>2602618465</v>
       </c>
       <c r="F17" t="n">
-        <v>6331.039763080516</v>
+        <v>933334.5905153194</v>
       </c>
       <c r="G17" t="n">
-        <v>6065.98861061013</v>
+        <v>1074945.605725548</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>49701977</v>
+        <v>42131580</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15538136</v>
+        <v>15499107</v>
       </c>
       <c r="E18" t="n">
-        <v>95238345</v>
+        <v>94999122</v>
       </c>
       <c r="F18" t="n">
-        <v>28919.41120784706</v>
+        <v>26217.0636060533</v>
       </c>
       <c r="G18" t="n">
-        <v>48230.9299522779</v>
+        <v>46179.54032883721</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>15588490</v>
+        <v>13654907</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41219504</v>
+        <v>41022864</v>
       </c>
       <c r="E19" t="n">
-        <v>177569116</v>
+        <v>176722010</v>
       </c>
       <c r="F19" t="n">
-        <v>30592.97261611966</v>
+        <v>27217.5644604634</v>
       </c>
       <c r="G19" t="n">
-        <v>73635.04955393702</v>
+        <v>106973.5354254526</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>16340052</v>
+        <v>13847725</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>294750329</v>
+        <v>298946683</v>
       </c>
       <c r="E20" t="n">
-        <v>294750329</v>
+        <v>298946683</v>
       </c>
       <c r="F20" t="n">
-        <v>83317.45492829989</v>
+        <v>76495.96430535948</v>
       </c>
       <c r="G20" t="n">
-        <v>116220.0744501288</v>
+        <v>117567.7785847525</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>81193105</v>
+        <v>62482913</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31874787</v>
+        <v>31197831</v>
       </c>
       <c r="E21" t="n">
-        <v>142716497</v>
+        <v>139685489</v>
       </c>
       <c r="F21" t="n">
-        <v>63501.94313651803</v>
+        <v>52822.96127481585</v>
       </c>
       <c r="G21" t="n">
-        <v>82540.17240283117</v>
+        <v>63008.00107593381</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>21887539</v>
+        <v>15859507</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42545752</v>
+        <v>42164624</v>
       </c>
       <c r="E22" t="n">
-        <v>275897880</v>
+        <v>273426365</v>
       </c>
       <c r="F22" t="n">
-        <v>12163.02276544767</v>
+        <v>54069.1954145593</v>
       </c>
       <c r="G22" t="n">
-        <v>3743.050983852019</v>
+        <v>86552.40396514301</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>27652689</v>
+        <v>22035751</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122474444</v>
+        <v>123144660</v>
       </c>
       <c r="E23" t="n">
-        <v>2028277108</v>
+        <v>2039376423</v>
       </c>
       <c r="F23" t="n">
-        <v>375583.5503735537</v>
+        <v>365180.787670206</v>
       </c>
       <c r="G23" t="n">
-        <v>328363.7152330039</v>
+        <v>330115.4610106284</v>
       </c>
       <c r="H23" t="n">
         <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>14704167</v>
+        <v>12272406</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5731079</v>
+        <v>5719372</v>
       </c>
       <c r="E24" t="n">
-        <v>29484659</v>
+        <v>29424433</v>
       </c>
       <c r="F24" t="n">
-        <v>1154.770824497867</v>
+        <v>160.8971212234662</v>
       </c>
       <c r="G24" t="n">
-        <v>1933.819405427257</v>
+        <v>2542.25108911893</v>
       </c>
       <c r="H24" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>1080161</v>
+        <v>653446</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16619735</v>
+        <v>16502876</v>
       </c>
       <c r="E25" t="n">
-        <v>16619735</v>
+        <v>16502876</v>
       </c>
       <c r="F25" t="n">
-        <v>16789.89753381261</v>
+        <v>2172.950017984896</v>
       </c>
       <c r="G25" t="n">
-        <v>9719.347406421779</v>
+        <v>17875.41426043805</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="I25" t="n">
-        <v>3133876</v>
+        <v>2434219</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>290217889</v>
+        <v>287838911</v>
       </c>
       <c r="E27" t="n">
-        <v>524203164</v>
+        <v>519906158</v>
       </c>
       <c r="F27" t="n">
-        <v>89424.86437768261</v>
+        <v>92475.29826864874</v>
       </c>
       <c r="G27" t="n">
-        <v>94691.41407577974</v>
+        <v>89931.72799975329</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>28948225</v>
+        <v>20755820</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35807390</v>
+        <v>35190472</v>
       </c>
       <c r="E28" t="n">
-        <v>35807390</v>
+        <v>35190472</v>
       </c>
       <c r="F28" t="n">
-        <v>28704.62312753209</v>
+        <v>27285.31595853219</v>
       </c>
       <c r="G28" t="n">
-        <v>39214.48982298515</v>
+        <v>37519.35338137867</v>
       </c>
       <c r="H28" t="n">
         <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>21221263</v>
+        <v>17767963</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>585003987</v>
+        <v>582234301</v>
       </c>
       <c r="E29" t="n">
-        <v>2132322709</v>
+        <v>2122227286</v>
       </c>
       <c r="F29" t="n">
-        <v>158237.6641491496</v>
+        <v>149184.3268722615</v>
       </c>
       <c r="G29" t="n">
-        <v>206670.4510591188</v>
+        <v>199000.272585193</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>48189898</v>
+        <v>38003070</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>130316164</v>
+        <v>132237610</v>
       </c>
       <c r="E30" t="n">
-        <v>499913781</v>
+        <v>507284758</v>
       </c>
       <c r="F30" t="n">
-        <v>188411.0730599917</v>
+        <v>146708.1630981768</v>
       </c>
       <c r="G30" t="n">
-        <v>193692.0891141654</v>
+        <v>195072.3419409014</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>29962882</v>
+        <v>24925869</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28680947</v>
+        <v>27924835</v>
       </c>
       <c r="F31" t="n">
-        <v>15802.55110672351</v>
+        <v>17949.38573435922</v>
       </c>
       <c r="G31" t="n">
-        <v>60842.47574528091</v>
+        <v>18896.9567290859</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>7475079</v>
+        <v>6122173</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>117178015</v>
+        <v>117221338</v>
       </c>
       <c r="E32" t="n">
-        <v>426985178</v>
+        <v>427134578</v>
       </c>
       <c r="F32" t="n">
-        <v>9980.872894753642</v>
+        <v>10180.73072094227</v>
       </c>
       <c r="G32" t="n">
-        <v>15374.16942745663</v>
+        <v>11403.11404701351</v>
       </c>
       <c r="H32" t="n">
         <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>201513</v>
+        <v>126875</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>404131599</v>
+        <v>403079259</v>
       </c>
       <c r="E33" t="n">
-        <v>1401064831</v>
+        <v>1397416525</v>
       </c>
       <c r="F33" t="n">
-        <v>215903.3522081588</v>
+        <v>213596.3769882189</v>
       </c>
       <c r="G33" t="n">
-        <v>263206.0559610871</v>
+        <v>257154.7551213838</v>
       </c>
       <c r="H33" t="n">
         <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>49174767</v>
+        <v>40037355</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>88286358</v>
+        <v>87614266</v>
       </c>
       <c r="E34" t="n">
-        <v>131708265</v>
+        <v>128694792</v>
       </c>
       <c r="F34" t="n">
-        <v>45945.39017417149</v>
+        <v>48851.51986254523</v>
       </c>
       <c r="G34" t="n">
-        <v>48531.26556489629</v>
+        <v>50971.04831468063</v>
       </c>
       <c r="H34" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I34" t="n">
-        <v>8799060</v>
+        <v>8262034</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1911051</v>
+        <v>1962695</v>
       </c>
       <c r="E35" t="n">
-        <v>7644202</v>
+        <v>7850781</v>
       </c>
       <c r="F35" t="n">
-        <v>15692.86309433254</v>
+        <v>15989.93793761829</v>
       </c>
       <c r="G35" t="n">
-        <v>65074.61815235754</v>
+        <v>68922.20147668713</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>6638793</v>
+        <v>6549192</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>218830850</v>
+        <v>219702594</v>
       </c>
       <c r="E36" t="n">
-        <v>628097319</v>
+        <v>630599434</v>
       </c>
       <c r="F36" t="n">
-        <v>107051.5465712067</v>
+        <v>209029.7595669192</v>
       </c>
       <c r="G36" t="n">
-        <v>231708.6839814127</v>
+        <v>227650.8091643885</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>21184932</v>
+        <v>17133548</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>122418017</v>
+        <v>121070522</v>
       </c>
       <c r="E37" t="n">
-        <v>319813668</v>
+        <v>316293376</v>
       </c>
       <c r="F37" t="n">
-        <v>40235.85583165275</v>
+        <v>17937.506767984</v>
       </c>
       <c r="G37" t="n">
-        <v>40904.64472751507</v>
+        <v>48011.73435060287</v>
       </c>
       <c r="H37" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>10014482</v>
+        <v>7660495</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>354735311</v>
+        <v>349932993</v>
       </c>
       <c r="E38" t="n">
-        <v>2027058922</v>
+        <v>1999617101</v>
       </c>
       <c r="F38" t="n">
-        <v>42780.65195596332</v>
+        <v>42004.36747530429</v>
       </c>
       <c r="G38" t="n">
-        <v>82188.16845000222</v>
+        <v>90609.44716854116</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>43782403</v>
+        <v>38043635</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>274520900</v>
+        <v>261302479</v>
       </c>
       <c r="E2" t="n">
-        <v>1721481977</v>
+        <v>1638591119</v>
       </c>
       <c r="F2" t="n">
-        <v>184153.6929372122</v>
+        <v>199278.5055996497</v>
       </c>
       <c r="G2" t="n">
-        <v>210595.1556963834</v>
+        <v>229244.366154191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>126568735</v>
+        <v>54125630</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139641812</v>
+        <v>133397352</v>
       </c>
       <c r="E3" t="n">
-        <v>154744950</v>
+        <v>147825112</v>
       </c>
       <c r="F3" t="n">
-        <v>87257.2860107348</v>
+        <v>90891.07972410519</v>
       </c>
       <c r="G3" t="n">
-        <v>191224.423793262</v>
+        <v>209382.6799523296</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>59753457</v>
+        <v>48059180</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>503819417</v>
+        <v>483281181</v>
       </c>
       <c r="E4" t="n">
-        <v>630203210</v>
+        <v>604512929</v>
       </c>
       <c r="F4" t="n">
-        <v>125277.4845382268</v>
+        <v>127552.2816361619</v>
       </c>
       <c r="G4" t="n">
-        <v>144534.2613262748</v>
+        <v>141824.891274738</v>
       </c>
       <c r="H4" t="n">
         <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>69898932</v>
+        <v>57736206</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129060192</v>
+        <v>122441009</v>
       </c>
       <c r="E5" t="n">
-        <v>129060192</v>
+        <v>122441009</v>
       </c>
       <c r="F5" t="n">
-        <v>69088.71152168442</v>
+        <v>53118.43440956272</v>
       </c>
       <c r="G5" t="n">
-        <v>86080.63680589592</v>
+        <v>109239.195953319</v>
       </c>
       <c r="H5" t="n">
         <v>0.11</v>
       </c>
       <c r="I5" t="n">
-        <v>75772006</v>
+        <v>66409862</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>217899356</v>
+        <v>209718466</v>
       </c>
       <c r="E6" t="n">
-        <v>217899356</v>
+        <v>209718466</v>
       </c>
       <c r="F6" t="n">
-        <v>64549.34120844855</v>
+        <v>91259.70544939686</v>
       </c>
       <c r="G6" t="n">
-        <v>90546.83271785613</v>
+        <v>107426.8040019815</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>39934292</v>
+        <v>24165437</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92154555</v>
+        <v>89541666</v>
       </c>
       <c r="E7" t="n">
-        <v>114905927</v>
+        <v>111647961</v>
       </c>
       <c r="F7" t="n">
-        <v>15134.27144635956</v>
+        <v>17638.45422414452</v>
       </c>
       <c r="G7" t="n">
-        <v>38742.42579417685</v>
+        <v>40620.02205014517</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11562847</v>
+        <v>10542993</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71175503</v>
+        <v>67682428</v>
       </c>
       <c r="E8" t="n">
-        <v>148395207</v>
+        <v>141112427</v>
       </c>
       <c r="F8" t="n">
-        <v>12607.07619849535</v>
+        <v>17857.49940271573</v>
       </c>
       <c r="G8" t="n">
-        <v>39825.88340375152</v>
+        <v>51931.6068352679</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>15941733</v>
+        <v>15788771</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>134757038</v>
+        <v>128610443</v>
       </c>
       <c r="E9" t="n">
-        <v>134777163</v>
+        <v>128637122</v>
       </c>
       <c r="F9" t="n">
-        <v>8625.853928554496</v>
+        <v>8727.682192978687</v>
       </c>
       <c r="G9" t="n">
-        <v>15208.99194477801</v>
+        <v>13613.46033604063</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>3786427</v>
+        <v>2980924</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>639718968</v>
+        <v>598064534</v>
       </c>
       <c r="E10" t="n">
-        <v>639718968</v>
+        <v>598064534</v>
       </c>
       <c r="F10" t="n">
-        <v>414309.0158174789</v>
+        <v>386682.9952778745</v>
       </c>
       <c r="G10" t="n">
-        <v>533892.4153830811</v>
+        <v>502917.2102170526</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>456748726</v>
+        <v>372672484</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73467708</v>
+        <v>78011726</v>
       </c>
       <c r="E11" t="n">
-        <v>84294837</v>
+        <v>89508519</v>
       </c>
       <c r="F11" t="n">
-        <v>2558.174183661787</v>
+        <v>6192.980876821284</v>
       </c>
       <c r="G11" t="n">
-        <v>14924.71995429534</v>
+        <v>11856.57844714661</v>
       </c>
       <c r="H11" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="I11" t="n">
-        <v>2227052</v>
+        <v>3484542</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>216676068</v>
+        <v>209040735</v>
       </c>
       <c r="E12" t="n">
-        <v>935294197</v>
+        <v>902335861</v>
       </c>
       <c r="F12" t="n">
-        <v>318311.7853227126</v>
+        <v>393723.6744037338</v>
       </c>
       <c r="G12" t="n">
-        <v>354379.8316427496</v>
+        <v>394387.270434853</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>77790932</v>
+        <v>57027849</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103868615</v>
+        <v>104568300</v>
       </c>
       <c r="E13" t="n">
-        <v>103868615</v>
+        <v>104568300</v>
       </c>
       <c r="F13" t="n">
-        <v>5735.705535328075</v>
+        <v>1979.0303589563</v>
       </c>
       <c r="G13" t="n">
-        <v>4279.710893883128</v>
+        <v>4085.831704993417</v>
       </c>
       <c r="H13" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I13" t="n">
-        <v>7613545</v>
+        <v>6107291</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12114300</v>
+        <v>11451558</v>
       </c>
       <c r="E14" t="n">
-        <v>30285750</v>
+        <v>28628894</v>
       </c>
       <c r="F14" t="n">
-        <v>8362.412889775407</v>
+        <v>6875.852245060847</v>
       </c>
       <c r="G14" t="n">
-        <v>14033.97577016352</v>
+        <v>11383.17008724372</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>2918622</v>
+        <v>2199766</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11073360</v>
+        <v>10978153</v>
       </c>
       <c r="E15" t="n">
-        <v>16283168</v>
+        <v>16143167</v>
       </c>
       <c r="F15" t="n">
-        <v>2734.103577820274</v>
+        <v>2814.435693580681</v>
       </c>
       <c r="G15" t="n">
-        <v>5496.951974903511</v>
+        <v>4521.339190456541</v>
       </c>
       <c r="H15" t="n">
         <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>517408</v>
+        <v>502157</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28182814</v>
+        <v>30258362</v>
       </c>
       <c r="E16" t="n">
-        <v>87752241</v>
+        <v>94214830</v>
       </c>
       <c r="F16" t="n">
-        <v>5796.61721813648</v>
+        <v>14026.07046764329</v>
       </c>
       <c r="G16" t="n">
-        <v>9117.017884051362</v>
+        <v>16980.34120880128</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>11550862</v>
+        <v>15579063</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>289288471</v>
+        <v>281060092</v>
       </c>
       <c r="E17" t="n">
-        <v>2602618465</v>
+        <v>2528590870</v>
       </c>
       <c r="F17" t="n">
-        <v>933334.5905153194</v>
+        <v>934737.4444163297</v>
       </c>
       <c r="G17" t="n">
-        <v>1074945.605725548</v>
+        <v>1072320.824965645</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>42131580</v>
+        <v>31921940</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15499107</v>
+        <v>15409753</v>
       </c>
       <c r="E18" t="n">
-        <v>94999122</v>
+        <v>94451446</v>
       </c>
       <c r="F18" t="n">
-        <v>26217.0636060533</v>
+        <v>32284.83919667601</v>
       </c>
       <c r="G18" t="n">
-        <v>46179.54032883721</v>
+        <v>42666.34309755921</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>13654907</v>
+        <v>12196490</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41022864</v>
+        <v>41083395</v>
       </c>
       <c r="E19" t="n">
-        <v>176722010</v>
+        <v>176982775</v>
       </c>
       <c r="F19" t="n">
-        <v>27217.5644604634</v>
+        <v>41319.22254269289</v>
       </c>
       <c r="G19" t="n">
-        <v>106973.5354254526</v>
+        <v>80203.7639073718</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>13847725</v>
+        <v>12472730</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>298946683</v>
+        <v>274591496</v>
       </c>
       <c r="E20" t="n">
-        <v>298946683</v>
+        <v>274591496</v>
       </c>
       <c r="F20" t="n">
-        <v>76495.96430535948</v>
+        <v>88351.575674679</v>
       </c>
       <c r="G20" t="n">
-        <v>117567.7785847525</v>
+        <v>103873.1716932295</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>62482913</v>
+        <v>68267128</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31197831</v>
+        <v>30132333</v>
       </c>
       <c r="E21" t="n">
-        <v>139685489</v>
+        <v>134914815</v>
       </c>
       <c r="F21" t="n">
-        <v>52822.96127481585</v>
+        <v>37733.80466839803</v>
       </c>
       <c r="G21" t="n">
-        <v>63008.00107593381</v>
+        <v>52319.09596515979</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>15859507</v>
+        <v>10324952</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42164624</v>
+        <v>40682572</v>
       </c>
       <c r="E22" t="n">
-        <v>273426365</v>
+        <v>263815654</v>
       </c>
       <c r="F22" t="n">
-        <v>54069.1954145593</v>
+        <v>47949.30921781888</v>
       </c>
       <c r="G22" t="n">
-        <v>86552.40396514301</v>
+        <v>86290.41664482951</v>
       </c>
       <c r="H22" t="n">
         <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>22035751</v>
+        <v>16746317</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123144660</v>
+        <v>122864568</v>
       </c>
       <c r="E23" t="n">
-        <v>2039376423</v>
+        <v>2034737868</v>
       </c>
       <c r="F23" t="n">
-        <v>365180.787670206</v>
+        <v>363504.4439851706</v>
       </c>
       <c r="G23" t="n">
-        <v>330115.4610106284</v>
+        <v>325773.1005623322</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>12272406</v>
+        <v>10821318</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5719372</v>
+        <v>5477959</v>
       </c>
       <c r="E24" t="n">
-        <v>29424433</v>
+        <v>28182434</v>
       </c>
       <c r="F24" t="n">
-        <v>160.8971212234662</v>
+        <v>1294.26610497925</v>
       </c>
       <c r="G24" t="n">
-        <v>2542.25108911893</v>
+        <v>536.6961255570487</v>
       </c>
       <c r="H24" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>653446</v>
+        <v>866677</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16502876</v>
+        <v>16374244</v>
       </c>
       <c r="E25" t="n">
-        <v>16502876</v>
+        <v>16374331</v>
       </c>
       <c r="F25" t="n">
-        <v>2172.950017984896</v>
+        <v>2828.293776103878</v>
       </c>
       <c r="G25" t="n">
-        <v>17875.41426043805</v>
+        <v>14505.64388048514</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>2434219</v>
+        <v>1985407</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>287838911</v>
+        <v>273307424</v>
       </c>
       <c r="E27" t="n">
-        <v>519906158</v>
+        <v>493658805</v>
       </c>
       <c r="F27" t="n">
-        <v>92475.29826864874</v>
+        <v>84815.35039760853</v>
       </c>
       <c r="G27" t="n">
-        <v>89931.72799975329</v>
+        <v>86320.13460823685</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>20755820</v>
+        <v>16107935</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35190472</v>
+        <v>34225257</v>
       </c>
       <c r="E28" t="n">
-        <v>35190472</v>
+        <v>34225257</v>
       </c>
       <c r="F28" t="n">
-        <v>27285.31595853219</v>
+        <v>28189.45473384966</v>
       </c>
       <c r="G28" t="n">
-        <v>37519.35338137867</v>
+        <v>36767.86860802856</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>17767963</v>
+        <v>13065391</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>582234301</v>
+        <v>555504336</v>
       </c>
       <c r="E29" t="n">
-        <v>2122227286</v>
+        <v>2024797331</v>
       </c>
       <c r="F29" t="n">
-        <v>149184.3268722615</v>
+        <v>164451.5655703818</v>
       </c>
       <c r="G29" t="n">
-        <v>199000.272585193</v>
+        <v>197279.4295719732</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>38003070</v>
+        <v>31339709</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>132237610</v>
+        <v>129431296</v>
       </c>
       <c r="E30" t="n">
-        <v>507284758</v>
+        <v>496519285</v>
       </c>
       <c r="F30" t="n">
-        <v>146708.1630981768</v>
+        <v>145030.5302209571</v>
       </c>
       <c r="G30" t="n">
-        <v>195072.3419409014</v>
+        <v>195438.6644905157</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>24925869</v>
+        <v>22592675</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27924835</v>
+        <v>27869879</v>
       </c>
       <c r="F31" t="n">
-        <v>17949.38573435922</v>
+        <v>13442.27787078029</v>
       </c>
       <c r="G31" t="n">
-        <v>18896.9567290859</v>
+        <v>12628.39582489084</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>6122173</v>
+        <v>3894483</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>117221338</v>
+        <v>116281673</v>
       </c>
       <c r="E32" t="n">
-        <v>427134578</v>
+        <v>423700958</v>
       </c>
       <c r="F32" t="n">
-        <v>10180.73072094227</v>
+        <v>10003.07745824015</v>
       </c>
       <c r="G32" t="n">
-        <v>11403.11404701351</v>
+        <v>9779.35694669915</v>
       </c>
       <c r="H32" t="n">
         <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>126875</v>
+        <v>109430</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>403079259</v>
+        <v>389965534</v>
       </c>
       <c r="E33" t="n">
-        <v>1397416525</v>
+        <v>1351953169</v>
       </c>
       <c r="F33" t="n">
-        <v>213596.3769882189</v>
+        <v>190720.974379422</v>
       </c>
       <c r="G33" t="n">
-        <v>257154.7551213838</v>
+        <v>249854.9218991039</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>40037355</v>
+        <v>28154606</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87614266</v>
+        <v>85321152</v>
       </c>
       <c r="E34" t="n">
-        <v>128694792</v>
+        <v>125326485</v>
       </c>
       <c r="F34" t="n">
-        <v>48851.51986254523</v>
+        <v>45969.34433399638</v>
       </c>
       <c r="G34" t="n">
-        <v>50971.04831468063</v>
+        <v>50717.4213104915</v>
       </c>
       <c r="H34" t="n">
         <v>0.15</v>
       </c>
       <c r="I34" t="n">
-        <v>8262034</v>
+        <v>7348271</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1962695</v>
+        <v>5407680</v>
       </c>
       <c r="E35" t="n">
-        <v>7850781</v>
+        <v>21630719</v>
       </c>
       <c r="F35" t="n">
-        <v>15989.93793761829</v>
+        <v>4085.039961161609</v>
       </c>
       <c r="G35" t="n">
-        <v>68922.20147668713</v>
+        <v>2645.411258363542</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>6549192</v>
+        <v>33371898</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>219702594</v>
+        <v>210713267</v>
       </c>
       <c r="E36" t="n">
-        <v>630599434</v>
+        <v>604797895</v>
       </c>
       <c r="F36" t="n">
-        <v>209029.7595669192</v>
+        <v>199138.6385718199</v>
       </c>
       <c r="G36" t="n">
-        <v>227650.8091643885</v>
+        <v>156931.3944401816</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>17133548</v>
+        <v>13612047</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>121070522</v>
+        <v>114075251</v>
       </c>
       <c r="E37" t="n">
-        <v>316293376</v>
+        <v>298018424</v>
       </c>
       <c r="F37" t="n">
-        <v>17937.506767984</v>
+        <v>41069.46939986948</v>
       </c>
       <c r="G37" t="n">
-        <v>48011.73435060287</v>
+        <v>43616.22610781533</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>7660495</v>
+        <v>5100566</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>349932993</v>
+        <v>341727377</v>
       </c>
       <c r="E38" t="n">
-        <v>1999617101</v>
+        <v>1952727866</v>
       </c>
       <c r="F38" t="n">
-        <v>42004.36747530429</v>
+        <v>37598.7198283799</v>
       </c>
       <c r="G38" t="n">
-        <v>90609.44716854116</v>
+        <v>79064.85798031082</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>38043635</v>
+        <v>31077008</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>261302479</v>
+        <v>261540551</v>
       </c>
       <c r="E2" t="n">
-        <v>1638591119</v>
+        <v>1640084035</v>
       </c>
       <c r="F2" t="n">
-        <v>199278.5055996497</v>
+        <v>186492.7272287331</v>
       </c>
       <c r="G2" t="n">
-        <v>229244.366154191</v>
+        <v>229684.0318919547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>54125630</v>
+        <v>24337405</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>133397352</v>
+        <v>134793094</v>
       </c>
       <c r="E3" t="n">
-        <v>147825112</v>
+        <v>149371812</v>
       </c>
       <c r="F3" t="n">
-        <v>90891.07972410519</v>
+        <v>71791.31040073324</v>
       </c>
       <c r="G3" t="n">
-        <v>209382.6799523296</v>
+        <v>185126.3963357402</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>48059180</v>
+        <v>34641044</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>483281181</v>
+        <v>502661794</v>
       </c>
       <c r="E4" t="n">
-        <v>604512929</v>
+        <v>628755195</v>
       </c>
       <c r="F4" t="n">
-        <v>127552.2816361619</v>
+        <v>103950.8499594953</v>
       </c>
       <c r="G4" t="n">
-        <v>141824.891274738</v>
+        <v>163451.3360613901</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>57736206</v>
+        <v>56148803</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>122441009</v>
+        <v>127199630</v>
       </c>
       <c r="E5" t="n">
-        <v>122441009</v>
+        <v>127199630</v>
       </c>
       <c r="F5" t="n">
-        <v>53118.43440956272</v>
+        <v>43535.95622486481</v>
       </c>
       <c r="G5" t="n">
-        <v>109239.195953319</v>
+        <v>108624.0964925167</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>66409862</v>
+        <v>56496121</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>209718466</v>
+        <v>211634587</v>
       </c>
       <c r="E6" t="n">
-        <v>209718466</v>
+        <v>211634587</v>
       </c>
       <c r="F6" t="n">
-        <v>91259.70544939686</v>
+        <v>79806.27520915958</v>
       </c>
       <c r="G6" t="n">
-        <v>107426.8040019815</v>
+        <v>115666.2704903262</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>24165437</v>
+        <v>16654290</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89541666</v>
+        <v>91304129</v>
       </c>
       <c r="E7" t="n">
-        <v>111647961</v>
+        <v>113845545</v>
       </c>
       <c r="F7" t="n">
-        <v>17638.45422414452</v>
+        <v>28053.46037590256</v>
       </c>
       <c r="G7" t="n">
-        <v>40620.02205014517</v>
+        <v>37627.83469835515</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>10542993</v>
+        <v>8804111</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67682428</v>
+        <v>68887914</v>
       </c>
       <c r="E8" t="n">
-        <v>141112427</v>
+        <v>143625767</v>
       </c>
       <c r="F8" t="n">
-        <v>17857.49940271573</v>
+        <v>15873.97947869098</v>
       </c>
       <c r="G8" t="n">
-        <v>51931.6068352679</v>
+        <v>45005.08682204692</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>15788771</v>
+        <v>12123799</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>128610443</v>
+        <v>130861572</v>
       </c>
       <c r="E9" t="n">
-        <v>128637122</v>
+        <v>130894483</v>
       </c>
       <c r="F9" t="n">
-        <v>8727.682192978687</v>
+        <v>5207.106690475463</v>
       </c>
       <c r="G9" t="n">
-        <v>13613.46033604063</v>
+        <v>17743.5385092557</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>2980924</v>
+        <v>2517849</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>598064534</v>
+        <v>613009048</v>
       </c>
       <c r="E10" t="n">
-        <v>598064534</v>
+        <v>613009048</v>
       </c>
       <c r="F10" t="n">
-        <v>386682.9952778745</v>
+        <v>365964.9901630054</v>
       </c>
       <c r="G10" t="n">
-        <v>502917.2102170526</v>
+        <v>453967.5165456741</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>372672484</v>
+        <v>299421621</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78011726</v>
+        <v>76866959</v>
       </c>
       <c r="E11" t="n">
-        <v>89508519</v>
+        <v>88195044</v>
       </c>
       <c r="F11" t="n">
-        <v>6192.980876821284</v>
+        <v>2441.737842752318</v>
       </c>
       <c r="G11" t="n">
-        <v>11856.57844714661</v>
+        <v>8698.872604651842</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>3484542</v>
+        <v>3465468</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>209040735</v>
+        <v>213248206</v>
       </c>
       <c r="E12" t="n">
-        <v>902335861</v>
+        <v>920497639</v>
       </c>
       <c r="F12" t="n">
-        <v>393723.6744037338</v>
+        <v>375785.6195866375</v>
       </c>
       <c r="G12" t="n">
-        <v>394387.270434853</v>
+        <v>354767.5092384383</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>57027849</v>
+        <v>52806689</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>104568300</v>
+        <v>106011141</v>
       </c>
       <c r="E13" t="n">
-        <v>104568300</v>
+        <v>106011141</v>
       </c>
       <c r="F13" t="n">
-        <v>1979.0303589563</v>
+        <v>5837.816313229937</v>
       </c>
       <c r="G13" t="n">
-        <v>4085.831704993417</v>
+        <v>2397.247279184388</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>6107291</v>
+        <v>5821235</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11451558</v>
+        <v>11301757</v>
       </c>
       <c r="E14" t="n">
-        <v>28628894</v>
+        <v>28254393</v>
       </c>
       <c r="F14" t="n">
-        <v>6875.852245060847</v>
+        <v>7612.570742403463</v>
       </c>
       <c r="G14" t="n">
-        <v>11383.17008724372</v>
+        <v>13587.23592879978</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I14" t="n">
-        <v>2199766</v>
+        <v>1811912</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10978153</v>
+        <v>11017627</v>
       </c>
       <c r="E15" t="n">
-        <v>16143167</v>
+        <v>16201213</v>
       </c>
       <c r="F15" t="n">
-        <v>2814.435693580681</v>
+        <v>2849.029423156009</v>
       </c>
       <c r="G15" t="n">
-        <v>4521.339190456541</v>
+        <v>4070.053483491858</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>502157</v>
+        <v>403929</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30258362</v>
+        <v>28792357</v>
       </c>
       <c r="E16" t="n">
-        <v>94214830</v>
+        <v>89650162</v>
       </c>
       <c r="F16" t="n">
-        <v>14026.07046764329</v>
+        <v>10273.06770111737</v>
       </c>
       <c r="G16" t="n">
-        <v>16980.34120880128</v>
+        <v>27744.31569627664</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>15579063</v>
+        <v>16382004</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>281060092</v>
+        <v>283645460</v>
       </c>
       <c r="E17" t="n">
-        <v>2528590870</v>
+        <v>2551850437</v>
       </c>
       <c r="F17" t="n">
-        <v>934737.4444163297</v>
+        <v>948173.0632933152</v>
       </c>
       <c r="G17" t="n">
-        <v>1072320.824965645</v>
+        <v>1083675.281818457</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>31921940</v>
+        <v>26841092</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15409753</v>
+        <v>15314053</v>
       </c>
       <c r="E18" t="n">
-        <v>94451446</v>
+        <v>93864864</v>
       </c>
       <c r="F18" t="n">
-        <v>32284.83919667601</v>
+        <v>28332.64116897291</v>
       </c>
       <c r="G18" t="n">
-        <v>42666.34309755921</v>
+        <v>44861.44651006746</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>12196490</v>
+        <v>10525261</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41083395</v>
+        <v>41714931</v>
       </c>
       <c r="E19" t="n">
-        <v>176982775</v>
+        <v>179703360</v>
       </c>
       <c r="F19" t="n">
-        <v>41319.22254269289</v>
+        <v>31831.62053072889</v>
       </c>
       <c r="G19" t="n">
-        <v>80203.7639073718</v>
+        <v>91457.97427602024</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>12472730</v>
+        <v>11092593</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>274591496</v>
+        <v>279247132</v>
       </c>
       <c r="E20" t="n">
-        <v>274591496</v>
+        <v>279247132</v>
       </c>
       <c r="F20" t="n">
-        <v>88351.575674679</v>
+        <v>81887.11410063153</v>
       </c>
       <c r="G20" t="n">
-        <v>103873.1716932295</v>
+        <v>107405.3767776413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>68267128</v>
+        <v>58404304</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30132333</v>
+        <v>30141963</v>
       </c>
       <c r="E21" t="n">
-        <v>134914815</v>
+        <v>134957933</v>
       </c>
       <c r="F21" t="n">
-        <v>37733.80466839803</v>
+        <v>54647.73735576023</v>
       </c>
       <c r="G21" t="n">
-        <v>52319.09596515979</v>
+        <v>58164.55100848702</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>10324952</v>
+        <v>8185943</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40682572</v>
+        <v>41518450</v>
       </c>
       <c r="E22" t="n">
-        <v>263815654</v>
+        <v>269236100</v>
       </c>
       <c r="F22" t="n">
-        <v>47949.30921781888</v>
+        <v>58849.45958229271</v>
       </c>
       <c r="G22" t="n">
-        <v>86290.41664482951</v>
+        <v>85740.84548210782</v>
       </c>
       <c r="H22" t="n">
         <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>16746317</v>
+        <v>14223519</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122864568</v>
+        <v>123558332</v>
       </c>
       <c r="E23" t="n">
-        <v>2034737868</v>
+        <v>2046227168</v>
       </c>
       <c r="F23" t="n">
-        <v>363504.4439851706</v>
+        <v>360469.9255458399</v>
       </c>
       <c r="G23" t="n">
-        <v>325773.1005623322</v>
+        <v>336190.4833545715</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>10821318</v>
+        <v>7728383</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5477959</v>
+        <v>5634825</v>
       </c>
       <c r="E24" t="n">
-        <v>28182434</v>
+        <v>28989462</v>
       </c>
       <c r="F24" t="n">
-        <v>1294.26610497925</v>
+        <v>2298.048492854457</v>
       </c>
       <c r="G24" t="n">
-        <v>536.6961255570487</v>
+        <v>5110.505670266945</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I24" t="n">
-        <v>866677</v>
+        <v>835107</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16374244</v>
+        <v>17764812</v>
       </c>
       <c r="E25" t="n">
-        <v>16374331</v>
+        <v>17764812</v>
       </c>
       <c r="F25" t="n">
-        <v>2828.293776103878</v>
+        <v>16310.30328096081</v>
       </c>
       <c r="G25" t="n">
-        <v>14505.64388048514</v>
+        <v>13243.46275243637</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>1985407</v>
+        <v>4415313</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>273307424</v>
+        <v>272897024</v>
       </c>
       <c r="E27" t="n">
-        <v>493658805</v>
+        <v>492917525</v>
       </c>
       <c r="F27" t="n">
-        <v>84815.35039760853</v>
+        <v>85880.22443309196</v>
       </c>
       <c r="G27" t="n">
-        <v>86320.13460823685</v>
+        <v>84600.07264172974</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>16107935</v>
+        <v>15763815</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34225257</v>
+        <v>34963370</v>
       </c>
       <c r="E28" t="n">
-        <v>34225257</v>
+        <v>34963370</v>
       </c>
       <c r="F28" t="n">
-        <v>28189.45473384966</v>
+        <v>29780.04817524237</v>
       </c>
       <c r="G28" t="n">
-        <v>36767.86860802856</v>
+        <v>36313.58706381862</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>13065391</v>
+        <v>8974859</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>555504336</v>
+        <v>566724024</v>
       </c>
       <c r="E29" t="n">
-        <v>2024797331</v>
+        <v>2065692770</v>
       </c>
       <c r="F29" t="n">
-        <v>164451.5655703818</v>
+        <v>144628.9268112284</v>
       </c>
       <c r="G29" t="n">
-        <v>197279.4295719732</v>
+        <v>192444.8755976193</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>31339709</v>
+        <v>24576300</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>129431296</v>
+        <v>131483641</v>
       </c>
       <c r="E30" t="n">
-        <v>496519285</v>
+        <v>504392410</v>
       </c>
       <c r="F30" t="n">
-        <v>145030.5302209571</v>
+        <v>149758.3845659245</v>
       </c>
       <c r="G30" t="n">
-        <v>195438.6644905157</v>
+        <v>192059.1944995958</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>22592675</v>
+        <v>22752232</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27869879</v>
+        <v>28144721</v>
       </c>
       <c r="F31" t="n">
-        <v>13442.27787078029</v>
+        <v>10561.95760310384</v>
       </c>
       <c r="G31" t="n">
-        <v>12628.39582489084</v>
+        <v>39767.67971939877</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3894483</v>
+        <v>3508320</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>116281673</v>
+        <v>117063397</v>
       </c>
       <c r="E32" t="n">
-        <v>423700958</v>
+        <v>426526158</v>
       </c>
       <c r="F32" t="n">
-        <v>10003.07745824015</v>
+        <v>13225.70072383459</v>
       </c>
       <c r="G32" t="n">
-        <v>9779.35694669915</v>
+        <v>2311.810698843909</v>
       </c>
       <c r="H32" t="n">
         <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>109430</v>
+        <v>96641</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>389965534</v>
+        <v>387582455</v>
       </c>
       <c r="E33" t="n">
-        <v>1351953169</v>
+        <v>1343013116</v>
       </c>
       <c r="F33" t="n">
-        <v>190720.974379422</v>
+        <v>206628.8555058711</v>
       </c>
       <c r="G33" t="n">
-        <v>249854.9218991039</v>
+        <v>253006.3600961822</v>
       </c>
       <c r="H33" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>28154606</v>
+        <v>23922567</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>85321152</v>
+        <v>87067083</v>
       </c>
       <c r="E34" t="n">
-        <v>125326485</v>
+        <v>127891047</v>
       </c>
       <c r="F34" t="n">
-        <v>45969.34433399638</v>
+        <v>41518.43848529243</v>
       </c>
       <c r="G34" t="n">
-        <v>50717.4213104915</v>
+        <v>53687.94818961821</v>
       </c>
       <c r="H34" t="n">
         <v>0.15</v>
       </c>
       <c r="I34" t="n">
-        <v>7348271</v>
+        <v>6542229</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5407680</v>
+        <v>3776879</v>
       </c>
       <c r="E35" t="n">
-        <v>21630719</v>
+        <v>15107516</v>
       </c>
       <c r="F35" t="n">
-        <v>4085.039961161609</v>
+        <v>9170.604217763332</v>
       </c>
       <c r="G35" t="n">
-        <v>2645.411258363542</v>
+        <v>5703.580072324768</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>33371898</v>
+        <v>44365677</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210713267</v>
+        <v>211902832</v>
       </c>
       <c r="E36" t="n">
-        <v>604797895</v>
+        <v>608212234</v>
       </c>
       <c r="F36" t="n">
-        <v>199138.6385718199</v>
+        <v>189886.2176918731</v>
       </c>
       <c r="G36" t="n">
-        <v>156931.3944401816</v>
+        <v>220077.902526034</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>13612047</v>
+        <v>10755221</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>114075251</v>
+        <v>121592139</v>
       </c>
       <c r="E37" t="n">
-        <v>298018424</v>
+        <v>317656085</v>
       </c>
       <c r="F37" t="n">
-        <v>41069.46939986948</v>
+        <v>41712.75940392953</v>
       </c>
       <c r="G37" t="n">
-        <v>43616.22610781533</v>
+        <v>38341.62353536734</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>5100566</v>
+        <v>4079051</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>341727377</v>
+        <v>345519770</v>
       </c>
       <c r="E38" t="n">
-        <v>1952727866</v>
+        <v>1974398683</v>
       </c>
       <c r="F38" t="n">
-        <v>37598.7198283799</v>
+        <v>31310.43392894131</v>
       </c>
       <c r="G38" t="n">
-        <v>79064.85798031082</v>
+        <v>78851.97831823172</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>31077008</v>
+        <v>28194526</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>261540551</v>
+        <v>261414301</v>
       </c>
       <c r="E2" t="n">
-        <v>1640084035</v>
+        <v>1639292334</v>
       </c>
       <c r="F2" t="n">
-        <v>186492.7272287331</v>
+        <v>197145.7395610058</v>
       </c>
       <c r="G2" t="n">
-        <v>229684.0318919547</v>
+        <v>193571.5263474313</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>24337405</v>
+        <v>18778418</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>134793094</v>
+        <v>135449015</v>
       </c>
       <c r="E3" t="n">
-        <v>149371812</v>
+        <v>150098675</v>
       </c>
       <c r="F3" t="n">
-        <v>71791.31040073324</v>
+        <v>76611.92106725018</v>
       </c>
       <c r="G3" t="n">
-        <v>185126.3963357402</v>
+        <v>176985.0749367117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>34641044</v>
+        <v>31944808</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>502661794</v>
+        <v>495577662</v>
       </c>
       <c r="E4" t="n">
-        <v>628755195</v>
+        <v>619893999</v>
       </c>
       <c r="F4" t="n">
-        <v>103950.8499594953</v>
+        <v>117720.011806618</v>
       </c>
       <c r="G4" t="n">
-        <v>163451.3360613901</v>
+        <v>141988.8981635928</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>56148803</v>
+        <v>54056767</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>127199630</v>
+        <v>127222935</v>
       </c>
       <c r="E5" t="n">
-        <v>127199630</v>
+        <v>127222935</v>
       </c>
       <c r="F5" t="n">
-        <v>43535.95622486481</v>
+        <v>63475.54538225562</v>
       </c>
       <c r="G5" t="n">
-        <v>108624.0964925167</v>
+        <v>94793.55841110686</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>56496121</v>
+        <v>56043597</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211634587</v>
+        <v>211703834</v>
       </c>
       <c r="E6" t="n">
-        <v>211634587</v>
+        <v>211703834</v>
       </c>
       <c r="F6" t="n">
-        <v>79806.27520915958</v>
+        <v>73228.1221307497</v>
       </c>
       <c r="G6" t="n">
-        <v>115666.2704903262</v>
+        <v>112226.0988972491</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>16654290</v>
+        <v>11987056</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>91304129</v>
+        <v>90807995</v>
       </c>
       <c r="E7" t="n">
-        <v>113845545</v>
+        <v>113226925</v>
       </c>
       <c r="F7" t="n">
-        <v>28053.46037590256</v>
+        <v>27287.24624864142</v>
       </c>
       <c r="G7" t="n">
-        <v>37627.83469835515</v>
+        <v>39310.45219527085</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>8804111</v>
+        <v>8591520</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68887914</v>
+        <v>69185076</v>
       </c>
       <c r="E8" t="n">
-        <v>143625767</v>
+        <v>144245326</v>
       </c>
       <c r="F8" t="n">
-        <v>15873.97947869098</v>
+        <v>10801.72428180689</v>
       </c>
       <c r="G8" t="n">
-        <v>45005.08682204692</v>
+        <v>47356.49740081728</v>
       </c>
       <c r="H8" t="n">
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>12123799</v>
+        <v>11891327</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>130861572</v>
+        <v>130638271</v>
       </c>
       <c r="E9" t="n">
-        <v>130894483</v>
+        <v>130674460</v>
       </c>
       <c r="F9" t="n">
-        <v>5207.106690475463</v>
+        <v>7860.285092987641</v>
       </c>
       <c r="G9" t="n">
-        <v>17743.5385092557</v>
+        <v>13556.14068468575</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>2517849</v>
+        <v>2394473</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>613009048</v>
+        <v>631099795</v>
       </c>
       <c r="E10" t="n">
-        <v>613009048</v>
+        <v>631099795</v>
       </c>
       <c r="F10" t="n">
-        <v>365964.9901630054</v>
+        <v>367218.2301774786</v>
       </c>
       <c r="G10" t="n">
-        <v>453967.5165456741</v>
+        <v>463807.9854648984</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>299421621</v>
+        <v>277492768</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76866959</v>
+        <v>77292851</v>
       </c>
       <c r="E11" t="n">
-        <v>88195044</v>
+        <v>88683701</v>
       </c>
       <c r="F11" t="n">
-        <v>2441.737842752318</v>
+        <v>1852.639977963245</v>
       </c>
       <c r="G11" t="n">
-        <v>8698.872604651842</v>
+        <v>18460.28298943708</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>3465468</v>
+        <v>3503137</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>213248206</v>
+        <v>211486755</v>
       </c>
       <c r="E12" t="n">
-        <v>920497639</v>
+        <v>912894239</v>
       </c>
       <c r="F12" t="n">
-        <v>375785.6195866375</v>
+        <v>449946.78161662</v>
       </c>
       <c r="G12" t="n">
-        <v>354767.5092384383</v>
+        <v>384646.0716501411</v>
       </c>
       <c r="H12" t="n">
         <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>52806689</v>
+        <v>50409201</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>106011141</v>
+        <v>106135981</v>
       </c>
       <c r="E13" t="n">
-        <v>106011141</v>
+        <v>106135981</v>
       </c>
       <c r="F13" t="n">
-        <v>5837.816313229937</v>
+        <v>2049.385939612304</v>
       </c>
       <c r="G13" t="n">
-        <v>2397.247279184388</v>
+        <v>4317.981711915408</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>5821235</v>
+        <v>5888285</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11301757</v>
+        <v>11351090</v>
       </c>
       <c r="E14" t="n">
-        <v>28254393</v>
+        <v>28377726</v>
       </c>
       <c r="F14" t="n">
-        <v>7612.570742403463</v>
+        <v>5080.894871152354</v>
       </c>
       <c r="G14" t="n">
-        <v>13587.23592879978</v>
+        <v>13086.0851853502</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>1811912</v>
+        <v>1852542</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11017627</v>
+        <v>11033729</v>
       </c>
       <c r="E15" t="n">
-        <v>16201213</v>
+        <v>16224891</v>
       </c>
       <c r="F15" t="n">
-        <v>2849.029423156009</v>
+        <v>2592.166841841126</v>
       </c>
       <c r="G15" t="n">
-        <v>4070.053483491858</v>
+        <v>4598.700040640125</v>
       </c>
       <c r="H15" t="n">
         <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>403929</v>
+        <v>394507</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28792357</v>
+        <v>28661117</v>
       </c>
       <c r="E16" t="n">
-        <v>89650162</v>
+        <v>89241521</v>
       </c>
       <c r="F16" t="n">
-        <v>10273.06770111737</v>
+        <v>8060.461572660123</v>
       </c>
       <c r="G16" t="n">
-        <v>27744.31569627664</v>
+        <v>18244.44483582468</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>16382004</v>
+        <v>15985129</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>283645460</v>
+        <v>280510473</v>
       </c>
       <c r="E17" t="n">
-        <v>2551850437</v>
+        <v>2523646154</v>
       </c>
       <c r="F17" t="n">
-        <v>948173.0632933152</v>
+        <v>947431.498092262</v>
       </c>
       <c r="G17" t="n">
-        <v>1083675.281818457</v>
+        <v>1060797.338898545</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>26841092</v>
+        <v>21980701</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15314053</v>
+        <v>15294882</v>
       </c>
       <c r="E18" t="n">
-        <v>93864864</v>
+        <v>93747363</v>
       </c>
       <c r="F18" t="n">
-        <v>28332.64116897291</v>
+        <v>29906.90445672045</v>
       </c>
       <c r="G18" t="n">
-        <v>44861.44651006746</v>
+        <v>43330.9368744815</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>10525261</v>
+        <v>10096413</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41714931</v>
+        <v>42125354</v>
       </c>
       <c r="E19" t="n">
-        <v>179703360</v>
+        <v>181471420</v>
       </c>
       <c r="F19" t="n">
-        <v>31831.62053072889</v>
+        <v>34083.1387851724</v>
       </c>
       <c r="G19" t="n">
-        <v>91457.97427602024</v>
+        <v>96001.25809167525</v>
       </c>
       <c r="H19" t="n">
         <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>11092593</v>
+        <v>10888605</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>279247132</v>
+        <v>285993216</v>
       </c>
       <c r="E20" t="n">
-        <v>279247132</v>
+        <v>285993216</v>
       </c>
       <c r="F20" t="n">
-        <v>81887.11410063153</v>
+        <v>107101.5356153865</v>
       </c>
       <c r="G20" t="n">
-        <v>107405.3767776413</v>
+        <v>94182.20954216772</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>58404304</v>
+        <v>72463758</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30141963</v>
+        <v>30482077</v>
       </c>
       <c r="E21" t="n">
-        <v>134957933</v>
+        <v>136480765</v>
       </c>
       <c r="F21" t="n">
-        <v>54647.73735576023</v>
+        <v>143044.3525801504</v>
       </c>
       <c r="G21" t="n">
-        <v>58164.55100848702</v>
+        <v>71433.20979778092</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8185943</v>
+        <v>8047973</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41518450</v>
+        <v>41218790</v>
       </c>
       <c r="E22" t="n">
-        <v>269236100</v>
+        <v>267292880</v>
       </c>
       <c r="F22" t="n">
-        <v>58849.45958229271</v>
+        <v>57881.40797716117</v>
       </c>
       <c r="G22" t="n">
-        <v>85740.84548210782</v>
+        <v>85007.37567437132</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>14223519</v>
+        <v>13531852</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123558332</v>
+        <v>123613743</v>
       </c>
       <c r="E23" t="n">
-        <v>2046227168</v>
+        <v>2047144825</v>
       </c>
       <c r="F23" t="n">
-        <v>360469.9255458399</v>
+        <v>361723.718029517</v>
       </c>
       <c r="G23" t="n">
-        <v>336190.4833545715</v>
+        <v>409385.4654837706</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>7728383</v>
+        <v>6915774</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5634825</v>
+        <v>5624454</v>
       </c>
       <c r="E24" t="n">
-        <v>28989462</v>
+        <v>28936106</v>
       </c>
       <c r="F24" t="n">
-        <v>2298.048492854457</v>
+        <v>2572.459746690388</v>
       </c>
       <c r="G24" t="n">
-        <v>5110.505670266945</v>
+        <v>3688.333596208071</v>
       </c>
       <c r="H24" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I24" t="n">
-        <v>835107</v>
+        <v>784338</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17764812</v>
+        <v>17229089</v>
       </c>
       <c r="E25" t="n">
-        <v>17764812</v>
+        <v>17229182</v>
       </c>
       <c r="F25" t="n">
-        <v>16310.30328096081</v>
+        <v>11713.48930251717</v>
       </c>
       <c r="G25" t="n">
-        <v>13243.46275243637</v>
+        <v>11016.28588895118</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I25" t="n">
-        <v>4415313</v>
+        <v>4424084</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>272897024</v>
+        <v>271351743</v>
       </c>
       <c r="E27" t="n">
-        <v>492917525</v>
+        <v>490126376</v>
       </c>
       <c r="F27" t="n">
-        <v>85880.22443309196</v>
+        <v>82149.2222276963</v>
       </c>
       <c r="G27" t="n">
-        <v>84600.07264172974</v>
+        <v>89899.2384651739</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>15763815</v>
+        <v>14219610</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34963370</v>
+        <v>34750010</v>
       </c>
       <c r="E28" t="n">
-        <v>34963370</v>
+        <v>34750010</v>
       </c>
       <c r="F28" t="n">
-        <v>29780.04817524237</v>
+        <v>35639.4142540491</v>
       </c>
       <c r="G28" t="n">
-        <v>36313.58706381862</v>
+        <v>36232.93623030862</v>
       </c>
       <c r="H28" t="n">
         <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>8974859</v>
+        <v>8567638</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>566724024</v>
+        <v>563427990</v>
       </c>
       <c r="E29" t="n">
-        <v>2065692770</v>
+        <v>2053678822</v>
       </c>
       <c r="F29" t="n">
-        <v>144628.9268112284</v>
+        <v>149018.3836231082</v>
       </c>
       <c r="G29" t="n">
-        <v>192444.8755976193</v>
+        <v>195703.2654349799</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>24576300</v>
+        <v>22194464</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>131483641</v>
+        <v>134466391</v>
       </c>
       <c r="E30" t="n">
-        <v>504392410</v>
+        <v>515834720</v>
       </c>
       <c r="F30" t="n">
-        <v>149758.3845659245</v>
+        <v>141044.0514195488</v>
       </c>
       <c r="G30" t="n">
-        <v>192059.1944995958</v>
+        <v>189810.7487137169</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>22752232</v>
+        <v>24342287</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28144721</v>
+        <v>29011977</v>
       </c>
       <c r="F31" t="n">
-        <v>10561.95760310384</v>
+        <v>8148.543134459188</v>
       </c>
       <c r="G31" t="n">
-        <v>39767.67971939877</v>
+        <v>14796.43212884991</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3508320</v>
+        <v>3024140</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>117063397</v>
+        <v>115678709</v>
       </c>
       <c r="E32" t="n">
-        <v>426526158</v>
+        <v>421473941</v>
       </c>
       <c r="F32" t="n">
-        <v>13225.70072383459</v>
+        <v>11061.76292370673</v>
       </c>
       <c r="G32" t="n">
-        <v>2311.810698843909</v>
+        <v>2131.912468905173</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>96641</v>
+        <v>94955</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>387582455</v>
+        <v>386328253</v>
       </c>
       <c r="E33" t="n">
-        <v>1343013116</v>
+        <v>1338667177</v>
       </c>
       <c r="F33" t="n">
-        <v>206628.8555058711</v>
+        <v>200984.2416216127</v>
       </c>
       <c r="G33" t="n">
-        <v>253006.3600961822</v>
+        <v>254655.3400597545</v>
       </c>
       <c r="H33" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>23922567</v>
+        <v>22200468</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87067083</v>
+        <v>86028634</v>
       </c>
       <c r="E34" t="n">
-        <v>127891047</v>
+        <v>126365691</v>
       </c>
       <c r="F34" t="n">
-        <v>41518.43848529243</v>
+        <v>44586.19682978816</v>
       </c>
       <c r="G34" t="n">
-        <v>53687.94818961821</v>
+        <v>52117.74999993227</v>
       </c>
       <c r="H34" t="n">
         <v>0.15</v>
       </c>
       <c r="I34" t="n">
-        <v>6542229</v>
+        <v>5876763</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3776879</v>
+        <v>4024966</v>
       </c>
       <c r="E35" t="n">
-        <v>15107516</v>
+        <v>16099864</v>
       </c>
       <c r="F35" t="n">
-        <v>9170.604217763332</v>
+        <v>12061.797735395</v>
       </c>
       <c r="G35" t="n">
-        <v>5703.580072324768</v>
+        <v>5849.73016633036</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>44365677</v>
+        <v>49304534</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211902832</v>
+        <v>211412043</v>
       </c>
       <c r="E36" t="n">
-        <v>608212234</v>
+        <v>606803551</v>
       </c>
       <c r="F36" t="n">
-        <v>189886.2176918731</v>
+        <v>172830.9440272423</v>
       </c>
       <c r="G36" t="n">
-        <v>220077.902526034</v>
+        <v>239937.2089995315</v>
       </c>
       <c r="H36" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>10755221</v>
+        <v>9676448</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>121592139</v>
+        <v>129524611</v>
       </c>
       <c r="E37" t="n">
-        <v>317656085</v>
+        <v>338379447</v>
       </c>
       <c r="F37" t="n">
-        <v>41712.75940392953</v>
+        <v>42031.92660384287</v>
       </c>
       <c r="G37" t="n">
-        <v>38341.62353536734</v>
+        <v>32461.1412880704</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="I37" t="n">
-        <v>4079051</v>
+        <v>4607937</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>345519770</v>
+        <v>345418915</v>
       </c>
       <c r="E38" t="n">
-        <v>1974398683</v>
+        <v>1973822370</v>
       </c>
       <c r="F38" t="n">
-        <v>31310.43392894131</v>
+        <v>37623.51459688936</v>
       </c>
       <c r="G38" t="n">
-        <v>78851.97831823172</v>
+        <v>84662.14027482692</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>28194526</v>
+        <v>26218127</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>261414301</v>
+        <v>267744884</v>
       </c>
       <c r="E2" t="n">
-        <v>1639292334</v>
+        <v>1678990531</v>
       </c>
       <c r="F2" t="n">
-        <v>197145.7395610058</v>
+        <v>95939.8581107886</v>
       </c>
       <c r="G2" t="n">
-        <v>193571.5263474313</v>
+        <v>126902.3965924202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I2" t="n">
-        <v>18778418</v>
+        <v>27469129</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>135449015</v>
+        <v>145556355</v>
       </c>
       <c r="E3" t="n">
-        <v>150098675</v>
+        <v>161299187</v>
       </c>
       <c r="F3" t="n">
-        <v>76611.92106725018</v>
+        <v>65829.82401901817</v>
       </c>
       <c r="G3" t="n">
-        <v>176985.0749367117</v>
+        <v>148289.0703344175</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>31944808</v>
+        <v>38202294</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>495577662</v>
+        <v>535170445</v>
       </c>
       <c r="E4" t="n">
-        <v>619893999</v>
+        <v>669418685</v>
       </c>
       <c r="F4" t="n">
-        <v>117720.011806618</v>
+        <v>115522.3524405446</v>
       </c>
       <c r="G4" t="n">
-        <v>141988.8981635928</v>
+        <v>130012.5504900289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>54056767</v>
+        <v>67640912</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>127222935</v>
+        <v>137560201</v>
       </c>
       <c r="E5" t="n">
-        <v>127222935</v>
+        <v>137560201</v>
       </c>
       <c r="F5" t="n">
-        <v>63475.54538225562</v>
+        <v>69096.19774861367</v>
       </c>
       <c r="G5" t="n">
-        <v>94793.55841110686</v>
+        <v>73679.64996796822</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>56043597</v>
+        <v>75205510</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211703834</v>
+        <v>244738209</v>
       </c>
       <c r="E6" t="n">
-        <v>211703834</v>
+        <v>244738209</v>
       </c>
       <c r="F6" t="n">
-        <v>73228.1221307497</v>
+        <v>72810.49772862341</v>
       </c>
       <c r="G6" t="n">
-        <v>112226.0988972491</v>
+        <v>98798.53659651258</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>11987056</v>
+        <v>31178214</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>90807995</v>
+        <v>95423800</v>
       </c>
       <c r="E7" t="n">
-        <v>113226925</v>
+        <v>118982292</v>
       </c>
       <c r="F7" t="n">
-        <v>27287.24624864142</v>
+        <v>15303.50834661226</v>
       </c>
       <c r="G7" t="n">
-        <v>39310.45219527085</v>
+        <v>31992.46643222579</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>8591520</v>
+        <v>11819509</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69185076</v>
+        <v>76361980</v>
       </c>
       <c r="E8" t="n">
-        <v>144245326</v>
+        <v>159208595</v>
       </c>
       <c r="F8" t="n">
-        <v>10801.72428180689</v>
+        <v>27068.72187904348</v>
       </c>
       <c r="G8" t="n">
-        <v>47356.49740081728</v>
+        <v>43204.29377478011</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
-        <v>11891327</v>
+        <v>15530454</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>130638271</v>
+        <v>142936088</v>
       </c>
       <c r="E9" t="n">
-        <v>130674460</v>
+        <v>142980618</v>
       </c>
       <c r="F9" t="n">
-        <v>7860.285092987641</v>
+        <v>8506.621264900345</v>
       </c>
       <c r="G9" t="n">
-        <v>13556.14068468575</v>
+        <v>12010.18054789457</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2394473</v>
+        <v>3309225</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>631099795</v>
+        <v>730539351</v>
       </c>
       <c r="E10" t="n">
-        <v>631099795</v>
+        <v>730539351</v>
       </c>
       <c r="F10" t="n">
-        <v>367218.2301774786</v>
+        <v>245294.8569931309</v>
       </c>
       <c r="G10" t="n">
-        <v>463807.9854648984</v>
+        <v>382977.3398587246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="n">
-        <v>277492768</v>
+        <v>521677522</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77292851</v>
+        <v>82774431</v>
       </c>
       <c r="E11" t="n">
-        <v>88683701</v>
+        <v>94973116</v>
       </c>
       <c r="F11" t="n">
-        <v>1852.639977963245</v>
+        <v>2913.535232865792</v>
       </c>
       <c r="G11" t="n">
-        <v>18460.28298943708</v>
+        <v>13563.71756633105</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.58</v>
       </c>
       <c r="I11" t="n">
-        <v>3503137</v>
+        <v>2575154</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>211486755</v>
+        <v>230641941</v>
       </c>
       <c r="E12" t="n">
-        <v>912894239</v>
+        <v>995578656</v>
       </c>
       <c r="F12" t="n">
-        <v>449946.78161662</v>
+        <v>331048.7625359211</v>
       </c>
       <c r="G12" t="n">
-        <v>384646.0716501411</v>
+        <v>314854.4801668166</v>
       </c>
       <c r="H12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>50409201</v>
+        <v>77524077</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>106135981</v>
+        <v>109747273</v>
       </c>
       <c r="E13" t="n">
-        <v>106135981</v>
+        <v>109747273</v>
       </c>
       <c r="F13" t="n">
-        <v>2049.385939612304</v>
+        <v>1638.928352906647</v>
       </c>
       <c r="G13" t="n">
-        <v>4317.981711915408</v>
+        <v>2631.739536453505</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5888285</v>
+        <v>8072190</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11351090</v>
+        <v>12257928</v>
       </c>
       <c r="E14" t="n">
-        <v>28377726</v>
+        <v>30644820</v>
       </c>
       <c r="F14" t="n">
-        <v>5080.894871152354</v>
+        <v>1895.845008550978</v>
       </c>
       <c r="G14" t="n">
-        <v>13086.0851853502</v>
+        <v>5558.361909762149</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>1852542</v>
+        <v>2479382</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11033729</v>
+        <v>10890884</v>
       </c>
       <c r="E15" t="n">
-        <v>16224891</v>
+        <v>16014840</v>
       </c>
       <c r="F15" t="n">
-        <v>2592.166841841126</v>
+        <v>2941.623440405079</v>
       </c>
       <c r="G15" t="n">
-        <v>4598.700040640125</v>
+        <v>4839.766528861123</v>
       </c>
       <c r="H15" t="n">
         <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>394507</v>
+        <v>1427389</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28661117</v>
+        <v>28661327</v>
       </c>
       <c r="E16" t="n">
-        <v>89241521</v>
+        <v>89242176</v>
       </c>
       <c r="F16" t="n">
-        <v>8060.461572660123</v>
+        <v>14780.34277335269</v>
       </c>
       <c r="G16" t="n">
-        <v>18244.44483582468</v>
+        <v>11432.82289689287</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>15985129</v>
+        <v>12125716</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>280510473</v>
+        <v>300282496</v>
       </c>
       <c r="E17" t="n">
-        <v>2523646154</v>
+        <v>2701527532</v>
       </c>
       <c r="F17" t="n">
-        <v>947431.498092262</v>
+        <v>4392.295681816268</v>
       </c>
       <c r="G17" t="n">
-        <v>1060797.338898545</v>
+        <v>3787.267354344357</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.72</v>
       </c>
       <c r="I17" t="n">
-        <v>21980701</v>
+        <v>31488035</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15294882</v>
+        <v>16176368</v>
       </c>
       <c r="E18" t="n">
-        <v>93747363</v>
+        <v>99150281</v>
       </c>
       <c r="F18" t="n">
-        <v>29906.90445672045</v>
+        <v>12344.69183105996</v>
       </c>
       <c r="G18" t="n">
-        <v>43330.9368744815</v>
+        <v>17365.582625813</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="I18" t="n">
-        <v>10096413</v>
+        <v>10795087</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42125354</v>
+        <v>45865993</v>
       </c>
       <c r="E19" t="n">
-        <v>181471420</v>
+        <v>197585683</v>
       </c>
       <c r="F19" t="n">
-        <v>34083.1387851724</v>
+        <v>23721.94435241377</v>
       </c>
       <c r="G19" t="n">
-        <v>96001.25809167525</v>
+        <v>64945.81054883916</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I19" t="n">
-        <v>10888605</v>
+        <v>14025505</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>285993216</v>
+        <v>314664925</v>
       </c>
       <c r="E20" t="n">
-        <v>285993216</v>
+        <v>314664925</v>
       </c>
       <c r="F20" t="n">
-        <v>107101.5356153865</v>
+        <v>72809.79601206776</v>
       </c>
       <c r="G20" t="n">
-        <v>94182.20954216772</v>
+        <v>98185.42629091578</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I20" t="n">
-        <v>72463758</v>
+        <v>87419688</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30482077</v>
+        <v>33890698</v>
       </c>
       <c r="E21" t="n">
-        <v>136480765</v>
+        <v>151742559</v>
       </c>
       <c r="F21" t="n">
-        <v>143044.3525801504</v>
+        <v>47215.12740458156</v>
       </c>
       <c r="G21" t="n">
-        <v>71433.20979778092</v>
+        <v>73096.8412051668</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8047973</v>
+        <v>12223853</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41218790</v>
+        <v>44131837</v>
       </c>
       <c r="E22" t="n">
-        <v>267292880</v>
+        <v>286183216</v>
       </c>
       <c r="F22" t="n">
-        <v>57881.40797716117</v>
+        <v>74730.89090233107</v>
       </c>
       <c r="G22" t="n">
-        <v>85007.37567437132</v>
+        <v>90408.17680681679</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>13531852</v>
+        <v>19053474</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123613743</v>
+        <v>125419391</v>
       </c>
       <c r="E23" t="n">
-        <v>2047144825</v>
+        <v>2077047831</v>
       </c>
       <c r="F23" t="n">
-        <v>361723.718029517</v>
+        <v>339741.30450259</v>
       </c>
       <c r="G23" t="n">
-        <v>409385.4654837706</v>
+        <v>344828.918038474</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>6915774</v>
+        <v>7321152</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5624454</v>
+        <v>6043435</v>
       </c>
       <c r="E24" t="n">
-        <v>28936106</v>
+        <v>31091635</v>
       </c>
       <c r="F24" t="n">
-        <v>2572.459746690388</v>
+        <v>88.66889108543572</v>
       </c>
       <c r="G24" t="n">
-        <v>3688.333596208071</v>
+        <v>1674.55954122207</v>
       </c>
       <c r="H24" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>784338</v>
+        <v>847128</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17229089</v>
+        <v>19706428</v>
       </c>
       <c r="E25" t="n">
-        <v>17229182</v>
+        <v>19706156</v>
       </c>
       <c r="F25" t="n">
-        <v>11713.48930251717</v>
+        <v>13879.92932786541</v>
       </c>
       <c r="G25" t="n">
-        <v>11016.28588895118</v>
+        <v>4215.413640485585</v>
       </c>
       <c r="H25" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4424084</v>
+        <v>5141271</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>271351743</v>
+        <v>285216668</v>
       </c>
       <c r="E27" t="n">
-        <v>490126376</v>
+        <v>515169758</v>
       </c>
       <c r="F27" t="n">
-        <v>82149.2222276963</v>
+        <v>48764.47210068788</v>
       </c>
       <c r="G27" t="n">
-        <v>89899.2384651739</v>
+        <v>13596.70959305536</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="I27" t="n">
-        <v>14219610</v>
+        <v>20341184</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34750010</v>
+        <v>41243875</v>
       </c>
       <c r="E28" t="n">
-        <v>34750010</v>
+        <v>41243875</v>
       </c>
       <c r="F28" t="n">
-        <v>35639.4142540491</v>
+        <v>23396.9867302305</v>
       </c>
       <c r="G28" t="n">
-        <v>36232.93623030862</v>
+        <v>39139.63228078422</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>8567638</v>
+        <v>16455834</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>563427990</v>
+        <v>594093109</v>
       </c>
       <c r="E29" t="n">
-        <v>2053678822</v>
+        <v>2165452298</v>
       </c>
       <c r="F29" t="n">
-        <v>149018.3836231082</v>
+        <v>155274.6904640935</v>
       </c>
       <c r="G29" t="n">
-        <v>195703.2654349799</v>
+        <v>176176.3298783081</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>22194464</v>
+        <v>33015500</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>134466391</v>
+        <v>141159995</v>
       </c>
       <c r="E30" t="n">
-        <v>515834720</v>
+        <v>541512461</v>
       </c>
       <c r="F30" t="n">
-        <v>141044.0514195488</v>
+        <v>139560.9945702225</v>
       </c>
       <c r="G30" t="n">
-        <v>189810.7487137169</v>
+        <v>179800.8579437138</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>24342287</v>
+        <v>30430879</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>29011977</v>
+        <v>29888001</v>
       </c>
       <c r="F31" t="n">
-        <v>8148.543134459188</v>
+        <v>12611.71801128476</v>
       </c>
       <c r="G31" t="n">
-        <v>14796.43212884991</v>
+        <v>11764.48981730798</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I31" t="n">
-        <v>3024140</v>
+        <v>4201055</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115678709</v>
+        <v>117968809</v>
       </c>
       <c r="E32" t="n">
-        <v>421473941</v>
+        <v>429805827</v>
       </c>
       <c r="F32" t="n">
-        <v>11061.76292370673</v>
+        <v>9246.826089542375</v>
       </c>
       <c r="G32" t="n">
-        <v>2131.912468905173</v>
+        <v>788.4627118387324</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I32" t="n">
-        <v>94955</v>
+        <v>115411</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>386328253</v>
+        <v>419087420</v>
       </c>
       <c r="E33" t="n">
-        <v>1338667177</v>
+        <v>1452181064</v>
       </c>
       <c r="F33" t="n">
-        <v>200984.2416216127</v>
+        <v>168914.0279645677</v>
       </c>
       <c r="G33" t="n">
-        <v>254655.3400597545</v>
+        <v>201767.169376918</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>22200468</v>
+        <v>38073322</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>86028634</v>
+        <v>96785993</v>
       </c>
       <c r="E34" t="n">
-        <v>126365691</v>
+        <v>142166955</v>
       </c>
       <c r="F34" t="n">
-        <v>44586.19682978816</v>
+        <v>45577.72143781279</v>
       </c>
       <c r="G34" t="n">
-        <v>52117.74999993227</v>
+        <v>34690.1533895339</v>
       </c>
       <c r="H34" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5876763</v>
+        <v>6357215</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4024966</v>
+        <v>3783927</v>
       </c>
       <c r="E35" t="n">
-        <v>16099864</v>
+        <v>15135708</v>
       </c>
       <c r="F35" t="n">
-        <v>12061.797735395</v>
+        <v>6933.82893458837</v>
       </c>
       <c r="G35" t="n">
-        <v>5849.73016633036</v>
+        <v>5329.748162692685</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="I35" t="n">
-        <v>49304534</v>
+        <v>31440748</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211412043</v>
+        <v>223359861</v>
       </c>
       <c r="E36" t="n">
-        <v>606803551</v>
+        <v>641096670</v>
       </c>
       <c r="F36" t="n">
-        <v>172830.9440272423</v>
+        <v>137121.027858582</v>
       </c>
       <c r="G36" t="n">
-        <v>239937.2089995315</v>
+        <v>185598.8724111138</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>9676448</v>
+        <v>15307008</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>129524611</v>
+        <v>156690691</v>
       </c>
       <c r="E37" t="n">
-        <v>338379447</v>
+        <v>409350076</v>
       </c>
       <c r="F37" t="n">
-        <v>42031.92660384287</v>
+        <v>24526.95799780786</v>
       </c>
       <c r="G37" t="n">
-        <v>32461.1412880704</v>
+        <v>45761.35419833002</v>
       </c>
       <c r="H37" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="I37" t="n">
-        <v>4607937</v>
+        <v>10034110</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>345418915</v>
+        <v>367590685</v>
       </c>
       <c r="E38" t="n">
-        <v>1973822370</v>
+        <v>2100518201</v>
       </c>
       <c r="F38" t="n">
-        <v>37623.51459688936</v>
+        <v>46529.34809608176</v>
       </c>
       <c r="G38" t="n">
-        <v>84662.14027482692</v>
+        <v>65648.67211970595</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>26218127</v>
+        <v>36551053</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>267744884</v>
+        <v>268802775</v>
       </c>
       <c r="E2" t="n">
-        <v>1678990531</v>
+        <v>1685624417</v>
       </c>
       <c r="F2" t="n">
-        <v>95939.8581107886</v>
+        <v>198455.648745553</v>
       </c>
       <c r="G2" t="n">
-        <v>126902.3965924202</v>
+        <v>227245.8821993617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>27469129</v>
+        <v>29739575</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>145556355</v>
+        <v>144910799</v>
       </c>
       <c r="E3" t="n">
-        <v>161299187</v>
+        <v>160583810</v>
       </c>
       <c r="F3" t="n">
-        <v>65829.82401901817</v>
+        <v>59428.21126607015</v>
       </c>
       <c r="G3" t="n">
-        <v>148289.0703344175</v>
+        <v>185329.4967813768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>38202294</v>
+        <v>49372639</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>535170445</v>
+        <v>531049059</v>
       </c>
       <c r="E4" t="n">
-        <v>669418685</v>
+        <v>664263444</v>
       </c>
       <c r="F4" t="n">
-        <v>115522.3524405446</v>
+        <v>112498.2388513504</v>
       </c>
       <c r="G4" t="n">
-        <v>130012.5504900289</v>
+        <v>154995.1896329374</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>67640912</v>
+        <v>96004140</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137560201</v>
+        <v>140760961</v>
       </c>
       <c r="E5" t="n">
-        <v>137560201</v>
+        <v>140760961</v>
       </c>
       <c r="F5" t="n">
-        <v>69096.19774861367</v>
+        <v>67980.72884108979</v>
       </c>
       <c r="G5" t="n">
-        <v>73679.64996796822</v>
+        <v>99396.51907559372</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>75205510</v>
+        <v>101526001</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>244738209</v>
+        <v>234301187</v>
       </c>
       <c r="E6" t="n">
-        <v>244738209</v>
+        <v>234301187</v>
       </c>
       <c r="F6" t="n">
-        <v>72810.49772862341</v>
+        <v>84662.50459707514</v>
       </c>
       <c r="G6" t="n">
-        <v>98798.53659651258</v>
+        <v>115163.3038538434</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>31178214</v>
+        <v>49973390</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>95423800</v>
+        <v>93768632</v>
       </c>
       <c r="E7" t="n">
-        <v>118982292</v>
+        <v>116918493</v>
       </c>
       <c r="F7" t="n">
-        <v>15303.50834661226</v>
+        <v>27691.00359600774</v>
       </c>
       <c r="G7" t="n">
-        <v>31992.46643222579</v>
+        <v>44611.83739344039</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>11819509</v>
+        <v>14770930</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76361980</v>
+        <v>88050716</v>
       </c>
       <c r="E8" t="n">
-        <v>159208595</v>
+        <v>183578672</v>
       </c>
       <c r="F8" t="n">
-        <v>27068.72187904348</v>
+        <v>49874.90970021725</v>
       </c>
       <c r="G8" t="n">
-        <v>43204.29377478011</v>
+        <v>67920.65505100744</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>15530454</v>
+        <v>50952534</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142936088</v>
+        <v>155055093</v>
       </c>
       <c r="E9" t="n">
-        <v>142980618</v>
+        <v>155110072</v>
       </c>
       <c r="F9" t="n">
-        <v>8506.621264900345</v>
+        <v>10338.2243902725</v>
       </c>
       <c r="G9" t="n">
-        <v>12010.18054789457</v>
+        <v>13859.16096938667</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>3309225</v>
+        <v>15206325</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>730539351</v>
+        <v>751066247</v>
       </c>
       <c r="E10" t="n">
-        <v>730539351</v>
+        <v>751066247</v>
       </c>
       <c r="F10" t="n">
-        <v>245294.8569931309</v>
+        <v>257482.9772717497</v>
       </c>
       <c r="G10" t="n">
-        <v>382977.3398587246</v>
+        <v>570662.4668178199</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>521677522</v>
+        <v>820312347</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82774431</v>
+        <v>80818756</v>
       </c>
       <c r="E11" t="n">
-        <v>94973116</v>
+        <v>92729228</v>
       </c>
       <c r="F11" t="n">
-        <v>2913.535232865792</v>
+        <v>7002.089834600658</v>
       </c>
       <c r="G11" t="n">
-        <v>13563.71756633105</v>
+        <v>9112.586558505374</v>
       </c>
       <c r="H11" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="I11" t="n">
-        <v>2575154</v>
+        <v>2536365</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>230641941</v>
+        <v>231931055</v>
       </c>
       <c r="E12" t="n">
-        <v>995578656</v>
+        <v>1001143190</v>
       </c>
       <c r="F12" t="n">
-        <v>331048.7625359211</v>
+        <v>395362.3649765138</v>
       </c>
       <c r="G12" t="n">
-        <v>314854.4801668166</v>
+        <v>375583.9587491287</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>77524077</v>
+        <v>133747219</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109747273</v>
+        <v>110634923</v>
       </c>
       <c r="E13" t="n">
-        <v>109747273</v>
+        <v>110634923</v>
       </c>
       <c r="F13" t="n">
-        <v>1638.928352906647</v>
+        <v>2789.013632422634</v>
       </c>
       <c r="G13" t="n">
-        <v>2631.739536453505</v>
+        <v>9323.841317111172</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I13" t="n">
-        <v>8072190</v>
+        <v>8916471</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12257928</v>
+        <v>12527019</v>
       </c>
       <c r="E14" t="n">
-        <v>30644820</v>
+        <v>31317547</v>
       </c>
       <c r="F14" t="n">
-        <v>1895.845008550978</v>
+        <v>3948.131918996612</v>
       </c>
       <c r="G14" t="n">
-        <v>5558.361909762149</v>
+        <v>15606.27087766815</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>2479382</v>
+        <v>4480999</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10890884</v>
+        <v>10743109</v>
       </c>
       <c r="E15" t="n">
-        <v>16014840</v>
+        <v>15797540</v>
       </c>
       <c r="F15" t="n">
-        <v>2941.623440405079</v>
+        <v>2822.821535703513</v>
       </c>
       <c r="G15" t="n">
-        <v>4839.766528861123</v>
+        <v>5587.766265332905</v>
       </c>
       <c r="H15" t="n">
         <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>1427389</v>
+        <v>2069727</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28661327</v>
+        <v>29365976</v>
       </c>
       <c r="E16" t="n">
-        <v>89242176</v>
+        <v>91436228</v>
       </c>
       <c r="F16" t="n">
-        <v>14780.34277335269</v>
+        <v>13411.05004457126</v>
       </c>
       <c r="G16" t="n">
-        <v>11432.82289689287</v>
+        <v>10825.67153272742</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>12125716</v>
+        <v>14593173</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>300282496</v>
+        <v>302662869</v>
       </c>
       <c r="E17" t="n">
-        <v>2701527532</v>
+        <v>2722942845</v>
       </c>
       <c r="F17" t="n">
-        <v>4392.295681816268</v>
+        <v>6652.365877906082</v>
       </c>
       <c r="G17" t="n">
-        <v>3787.267354344357</v>
+        <v>11635.44319188323</v>
       </c>
       <c r="H17" t="n">
-        <v>0.72</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>31488035</v>
+        <v>50169384</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16176368</v>
+        <v>16357569</v>
       </c>
       <c r="E18" t="n">
-        <v>99150281</v>
+        <v>100260919</v>
       </c>
       <c r="F18" t="n">
-        <v>12344.69183105996</v>
+        <v>32554.86408537201</v>
       </c>
       <c r="G18" t="n">
-        <v>17365.582625813</v>
+        <v>40578.19017975713</v>
       </c>
       <c r="H18" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>10795087</v>
+        <v>14259820</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45865993</v>
+        <v>47652910</v>
       </c>
       <c r="E19" t="n">
-        <v>197585683</v>
+        <v>205283526</v>
       </c>
       <c r="F19" t="n">
-        <v>23721.94435241377</v>
+        <v>33480.57547477105</v>
       </c>
       <c r="G19" t="n">
-        <v>64945.81054883916</v>
+        <v>102166.8683773731</v>
       </c>
       <c r="H19" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>14025505</v>
+        <v>23218434</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>314664925</v>
+        <v>319329002</v>
       </c>
       <c r="E20" t="n">
-        <v>314664925</v>
+        <v>319329002</v>
       </c>
       <c r="F20" t="n">
-        <v>72809.79601206776</v>
+        <v>61713.06327737249</v>
       </c>
       <c r="G20" t="n">
-        <v>98185.42629091578</v>
+        <v>109285.9059320244</v>
       </c>
       <c r="H20" t="n">
         <v>0.06</v>
       </c>
       <c r="I20" t="n">
-        <v>87419688</v>
+        <v>111774677</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33890698</v>
+        <v>33860835</v>
       </c>
       <c r="E21" t="n">
-        <v>151742559</v>
+        <v>151608850</v>
       </c>
       <c r="F21" t="n">
-        <v>47215.12740458156</v>
+        <v>57098.15256730049</v>
       </c>
       <c r="G21" t="n">
-        <v>73096.8412051668</v>
+        <v>83981.41211925638</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>12223853</v>
+        <v>19858917</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>44131837</v>
+        <v>43221206</v>
       </c>
       <c r="E22" t="n">
-        <v>286183216</v>
+        <v>280278019</v>
       </c>
       <c r="F22" t="n">
-        <v>74730.89090233107</v>
+        <v>82395.27364634864</v>
       </c>
       <c r="G22" t="n">
-        <v>90408.17680681679</v>
+        <v>89621.36284724165</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>19053474</v>
+        <v>30791904</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125419391</v>
+        <v>125921033</v>
       </c>
       <c r="E23" t="n">
-        <v>2077047831</v>
+        <v>2085355440</v>
       </c>
       <c r="F23" t="n">
-        <v>339741.30450259</v>
+        <v>347413.3920577746</v>
       </c>
       <c r="G23" t="n">
-        <v>344828.918038474</v>
+        <v>325474.9216789514</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>7321152</v>
+        <v>15806050</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6043435</v>
+        <v>5948787</v>
       </c>
       <c r="E24" t="n">
-        <v>31091635</v>
+        <v>30604703</v>
       </c>
       <c r="F24" t="n">
-        <v>88.66889108543572</v>
+        <v>1907.086456492814</v>
       </c>
       <c r="G24" t="n">
-        <v>1674.55954122207</v>
+        <v>479.8951389334878</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I24" t="n">
-        <v>847128</v>
+        <v>899560</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19706428</v>
+        <v>21117797</v>
       </c>
       <c r="E25" t="n">
-        <v>19706156</v>
+        <v>21117797</v>
       </c>
       <c r="F25" t="n">
-        <v>13879.92932786541</v>
+        <v>1926.089662613852</v>
       </c>
       <c r="G25" t="n">
-        <v>4215.413640485585</v>
+        <v>9352.574328947392</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>5141271</v>
+        <v>4482712</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>285216668</v>
+        <v>284905538</v>
       </c>
       <c r="E27" t="n">
-        <v>515169758</v>
+        <v>514607784</v>
       </c>
       <c r="F27" t="n">
-        <v>48764.47210068788</v>
+        <v>99352.35413721119</v>
       </c>
       <c r="G27" t="n">
-        <v>13596.70959305536</v>
+        <v>106343.4466183115</v>
       </c>
       <c r="H27" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>20341184</v>
+        <v>26349085</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41243875</v>
+        <v>40766380</v>
       </c>
       <c r="E28" t="n">
-        <v>41243875</v>
+        <v>40766380</v>
       </c>
       <c r="F28" t="n">
-        <v>23396.9867302305</v>
+        <v>37942.22550439923</v>
       </c>
       <c r="G28" t="n">
-        <v>39139.63228078422</v>
+        <v>45260.02834450076</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>16455834</v>
+        <v>22850052</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>594093109</v>
+        <v>609077089</v>
       </c>
       <c r="E29" t="n">
-        <v>2165452298</v>
+        <v>2220068474</v>
       </c>
       <c r="F29" t="n">
-        <v>155274.6904640935</v>
+        <v>160622.3906675369</v>
       </c>
       <c r="G29" t="n">
-        <v>176176.3298783081</v>
+        <v>204832.1263585601</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>33015500</v>
+        <v>56930724</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>141159995</v>
+        <v>130265234</v>
       </c>
       <c r="E30" t="n">
-        <v>541512461</v>
+        <v>499718405</v>
       </c>
       <c r="F30" t="n">
-        <v>139560.9945702225</v>
+        <v>151778.5091957737</v>
       </c>
       <c r="G30" t="n">
-        <v>179800.8579437138</v>
+        <v>186827.1018208614</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>30430879</v>
+        <v>33038660</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>29888001</v>
+        <v>29714955</v>
       </c>
       <c r="F31" t="n">
-        <v>12611.71801128476</v>
+        <v>11365.06623573504</v>
       </c>
       <c r="G31" t="n">
-        <v>11764.48981730798</v>
+        <v>13154.42342212798</v>
       </c>
       <c r="H31" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>4201055</v>
+        <v>6025644</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>117968809</v>
+        <v>121602453</v>
       </c>
       <c r="E32" t="n">
-        <v>429805827</v>
+        <v>443026632</v>
       </c>
       <c r="F32" t="n">
-        <v>9246.826089542375</v>
+        <v>10140.72211280084</v>
       </c>
       <c r="G32" t="n">
-        <v>788.4627118387324</v>
+        <v>9795.392975709969</v>
       </c>
       <c r="H32" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
       <c r="I32" t="n">
-        <v>115411</v>
+        <v>282206</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>419087420</v>
+        <v>405945068</v>
       </c>
       <c r="E33" t="n">
-        <v>1452181064</v>
+        <v>1405931780</v>
       </c>
       <c r="F33" t="n">
-        <v>168914.0279645677</v>
+        <v>218146.5751938952</v>
       </c>
       <c r="G33" t="n">
-        <v>201767.169376918</v>
+        <v>265754.4393704277</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>38073322</v>
+        <v>51277144</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>96785993</v>
+        <v>104296352</v>
       </c>
       <c r="E34" t="n">
-        <v>142166955</v>
+        <v>153198766</v>
       </c>
       <c r="F34" t="n">
-        <v>45577.72143781279</v>
+        <v>51981.13653544542</v>
       </c>
       <c r="G34" t="n">
-        <v>34690.1533895339</v>
+        <v>55938.08241345578</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>6357215</v>
+        <v>9869283</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3783927</v>
+        <v>3662689</v>
       </c>
       <c r="E35" t="n">
-        <v>15135708</v>
+        <v>14650755</v>
       </c>
       <c r="F35" t="n">
-        <v>6933.82893458837</v>
+        <v>21623.5209876203</v>
       </c>
       <c r="G35" t="n">
-        <v>5329.748162692685</v>
+        <v>108925.8623428262</v>
       </c>
       <c r="H35" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>31440748</v>
+        <v>19971983</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>223359861</v>
+        <v>223755881</v>
       </c>
       <c r="E36" t="n">
-        <v>641096670</v>
+        <v>642233345</v>
       </c>
       <c r="F36" t="n">
-        <v>137121.027858582</v>
+        <v>200077.0177485599</v>
       </c>
       <c r="G36" t="n">
-        <v>185598.8724111138</v>
+        <v>241213.5066352912</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>15307008</v>
+        <v>22913360</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>156690691</v>
+        <v>141563360</v>
       </c>
       <c r="E37" t="n">
-        <v>409350076</v>
+        <v>369830343</v>
       </c>
       <c r="F37" t="n">
-        <v>24526.95799780786</v>
+        <v>45011.24207842154</v>
       </c>
       <c r="G37" t="n">
-        <v>45761.35419833002</v>
+        <v>49581.59682587846</v>
       </c>
       <c r="H37" t="n">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>10034110</v>
+        <v>19890755</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>367590685</v>
+        <v>369708964</v>
       </c>
       <c r="E38" t="n">
-        <v>2100518201</v>
+        <v>2112622654</v>
       </c>
       <c r="F38" t="n">
-        <v>46529.34809608176</v>
+        <v>65179.06942304321</v>
       </c>
       <c r="G38" t="n">
-        <v>65648.67211970595</v>
+        <v>83784.68370343985</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>36551053</v>
+        <v>58056334</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>268802775</v>
+        <v>252067565</v>
       </c>
       <c r="E2" t="n">
-        <v>1685624417</v>
+        <v>1580680272</v>
       </c>
       <c r="F2" t="n">
-        <v>198455.648745553</v>
+        <v>188649.7346816685</v>
       </c>
       <c r="G2" t="n">
-        <v>227245.8821993617</v>
+        <v>220146.3051452435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>29739575</v>
+        <v>32527590</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>144910799</v>
+        <v>141781171</v>
       </c>
       <c r="E3" t="n">
-        <v>160583810</v>
+        <v>157115694</v>
       </c>
       <c r="F3" t="n">
-        <v>59428.21126607015</v>
+        <v>46355.91994249065</v>
       </c>
       <c r="G3" t="n">
-        <v>185329.4967813768</v>
+        <v>192483.0322024143</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>49372639</v>
+        <v>53659007</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>531049059</v>
+        <v>507288605</v>
       </c>
       <c r="E4" t="n">
-        <v>664263444</v>
+        <v>634542649</v>
       </c>
       <c r="F4" t="n">
-        <v>112498.2388513504</v>
+        <v>95316.1894727154</v>
       </c>
       <c r="G4" t="n">
-        <v>154995.1896329374</v>
+        <v>168132.227780747</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>96004140</v>
+        <v>106819707</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140760961</v>
+        <v>138461836</v>
       </c>
       <c r="E5" t="n">
-        <v>140760961</v>
+        <v>138461836</v>
       </c>
       <c r="F5" t="n">
-        <v>67980.72884108979</v>
+        <v>54482.33676339882</v>
       </c>
       <c r="G5" t="n">
-        <v>99396.51907559372</v>
+        <v>109411.819199675</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>101526001</v>
+        <v>108147543</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>234301187</v>
+        <v>221435690</v>
       </c>
       <c r="E6" t="n">
-        <v>234301187</v>
+        <v>221435690</v>
       </c>
       <c r="F6" t="n">
-        <v>84662.50459707514</v>
+        <v>37449.4372841495</v>
       </c>
       <c r="G6" t="n">
-        <v>115163.3038538434</v>
+        <v>119680.1563431008</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>49973390</v>
+        <v>39719686</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>93768632</v>
+        <v>92438059</v>
       </c>
       <c r="E7" t="n">
-        <v>116918493</v>
+        <v>115259424</v>
       </c>
       <c r="F7" t="n">
-        <v>27691.00359600774</v>
+        <v>25214.60738586339</v>
       </c>
       <c r="G7" t="n">
-        <v>44611.83739344039</v>
+        <v>45366.7737928673</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>14770930</v>
+        <v>16647657</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>88050716</v>
+        <v>88198293</v>
       </c>
       <c r="E8" t="n">
-        <v>183578672</v>
+        <v>183886358</v>
       </c>
       <c r="F8" t="n">
-        <v>49874.90970021725</v>
+        <v>54041.43049885242</v>
       </c>
       <c r="G8" t="n">
-        <v>67920.65505100744</v>
+        <v>58917.53001340778</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>50952534</v>
+        <v>61424289</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>155055093</v>
+        <v>150603706</v>
       </c>
       <c r="E9" t="n">
-        <v>155110072</v>
+        <v>150657107</v>
       </c>
       <c r="F9" t="n">
-        <v>10338.2243902725</v>
+        <v>7918.870337886645</v>
       </c>
       <c r="G9" t="n">
-        <v>13859.16096938667</v>
+        <v>10269.76983826196</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>15206325</v>
+        <v>16425888</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>751066247</v>
+        <v>770886945</v>
       </c>
       <c r="E10" t="n">
-        <v>751066247</v>
+        <v>770886945</v>
       </c>
       <c r="F10" t="n">
-        <v>257482.9772717497</v>
+        <v>244578.0285871514</v>
       </c>
       <c r="G10" t="n">
-        <v>570662.4668178199</v>
+        <v>526249.806681754</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>820312347</v>
+        <v>976790136</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80818756</v>
+        <v>79832417</v>
       </c>
       <c r="E11" t="n">
-        <v>92729228</v>
+        <v>91597530</v>
       </c>
       <c r="F11" t="n">
-        <v>7002.089834600658</v>
+        <v>11860.17744444648</v>
       </c>
       <c r="G11" t="n">
-        <v>9112.586558505374</v>
+        <v>5529.451762463797</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17</v>
+        <v>1.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2536365</v>
+        <v>2379722</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>231931055</v>
+        <v>230381601</v>
       </c>
       <c r="E12" t="n">
-        <v>1001143190</v>
+        <v>994454886</v>
       </c>
       <c r="F12" t="n">
-        <v>395362.3649765138</v>
+        <v>302046.3872882962</v>
       </c>
       <c r="G12" t="n">
-        <v>375583.9587491287</v>
+        <v>366035.9256077795</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>133747219</v>
+        <v>147916306</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110634923</v>
+        <v>107740516</v>
       </c>
       <c r="E13" t="n">
-        <v>110634923</v>
+        <v>107740516</v>
       </c>
       <c r="F13" t="n">
-        <v>2789.013632422634</v>
+        <v>1833.297428154484</v>
       </c>
       <c r="G13" t="n">
-        <v>9323.841317111172</v>
+        <v>3589.509165509731</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>8916471</v>
+        <v>8880559</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12527019</v>
+        <v>12013563</v>
       </c>
       <c r="E14" t="n">
-        <v>31317547</v>
+        <v>30033906</v>
       </c>
       <c r="F14" t="n">
-        <v>3948.131918996612</v>
+        <v>3249.587418260131</v>
       </c>
       <c r="G14" t="n">
-        <v>15606.27087766815</v>
+        <v>12530.79327624135</v>
       </c>
       <c r="H14" t="n">
         <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>4480999</v>
+        <v>4368534</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10743109</v>
+        <v>10661416</v>
       </c>
       <c r="E15" t="n">
-        <v>15797540</v>
+        <v>15677411</v>
       </c>
       <c r="F15" t="n">
-        <v>2822.821535703513</v>
+        <v>5458.740595838077</v>
       </c>
       <c r="G15" t="n">
-        <v>5587.766265332905</v>
+        <v>8063.526879358321</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2069727</v>
+        <v>3178771</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29365976</v>
+        <v>28481964</v>
       </c>
       <c r="E16" t="n">
-        <v>91436228</v>
+        <v>88683698</v>
       </c>
       <c r="F16" t="n">
-        <v>13411.05004457126</v>
+        <v>12330.69769359851</v>
       </c>
       <c r="G16" t="n">
-        <v>10825.67153272742</v>
+        <v>15922.30324583843</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>14593173</v>
+        <v>15169706</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>302662869</v>
+        <v>291722373</v>
       </c>
       <c r="E17" t="n">
-        <v>2722942845</v>
+        <v>2624515360</v>
       </c>
       <c r="F17" t="n">
-        <v>6652.365877906082</v>
+        <v>6534.595206252355</v>
       </c>
       <c r="G17" t="n">
-        <v>11635.44319188323</v>
+        <v>7023.64573502457</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>50169384</v>
+        <v>54904242</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16357569</v>
+        <v>15864989</v>
       </c>
       <c r="E18" t="n">
-        <v>100260919</v>
+        <v>97241736</v>
       </c>
       <c r="F18" t="n">
-        <v>32554.86408537201</v>
+        <v>29473.11915223734</v>
       </c>
       <c r="G18" t="n">
-        <v>40578.19017975713</v>
+        <v>37259.41247323031</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>14259820</v>
+        <v>14862430</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47652910</v>
+        <v>46625991</v>
       </c>
       <c r="E19" t="n">
-        <v>205283526</v>
+        <v>200859670</v>
       </c>
       <c r="F19" t="n">
-        <v>33480.57547477105</v>
+        <v>30929.5888482429</v>
       </c>
       <c r="G19" t="n">
-        <v>102166.8683773731</v>
+        <v>81214.19974956442</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>23218434</v>
+        <v>25281365</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>319329002</v>
+        <v>303663775</v>
       </c>
       <c r="E20" t="n">
-        <v>319329002</v>
+        <v>303663775</v>
       </c>
       <c r="F20" t="n">
-        <v>61713.06327737249</v>
+        <v>55809.00475529228</v>
       </c>
       <c r="G20" t="n">
-        <v>109285.9059320244</v>
+        <v>97661.29329606285</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>111774677</v>
+        <v>114156649</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33860835</v>
+        <v>42147141</v>
       </c>
       <c r="E21" t="n">
-        <v>151608850</v>
+        <v>159801791</v>
       </c>
       <c r="F21" t="n">
-        <v>57098.15256730049</v>
+        <v>43937.09275027183</v>
       </c>
       <c r="G21" t="n">
-        <v>83981.41211925638</v>
+        <v>79072.98071349111</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I21" t="n">
-        <v>19858917</v>
+        <v>24060529</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43221206</v>
+        <v>42115936</v>
       </c>
       <c r="E22" t="n">
-        <v>280278019</v>
+        <v>273110637</v>
       </c>
       <c r="F22" t="n">
-        <v>82395.27364634864</v>
+        <v>82728.52663634857</v>
       </c>
       <c r="G22" t="n">
-        <v>89621.36284724165</v>
+        <v>85060.54719965813</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>30791904</v>
+        <v>33909892</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125921033</v>
+        <v>125688055</v>
       </c>
       <c r="E23" t="n">
-        <v>2085355440</v>
+        <v>2081497130</v>
       </c>
       <c r="F23" t="n">
-        <v>347413.3920577746</v>
+        <v>383191.9802953907</v>
       </c>
       <c r="G23" t="n">
-        <v>325474.9216789514</v>
+        <v>323003.6429807599</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>15806050</v>
+        <v>17439435</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5948787</v>
+        <v>5782903</v>
       </c>
       <c r="E24" t="n">
-        <v>30604703</v>
+        <v>29751281</v>
       </c>
       <c r="F24" t="n">
-        <v>1907.086456492814</v>
+        <v>1290.893755540167</v>
       </c>
       <c r="G24" t="n">
-        <v>479.8951389334878</v>
+        <v>547.7467302139725</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>899560</v>
+        <v>923220</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21117797</v>
+        <v>20485170</v>
       </c>
       <c r="E25" t="n">
-        <v>21117797</v>
+        <v>20485170</v>
       </c>
       <c r="F25" t="n">
-        <v>1926.089662613852</v>
+        <v>4907.28484626706</v>
       </c>
       <c r="G25" t="n">
-        <v>9352.574328947392</v>
+        <v>19809.77175127533</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I25" t="n">
-        <v>4482712</v>
+        <v>4624887</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>284905538</v>
+        <v>277610872</v>
       </c>
       <c r="E27" t="n">
-        <v>514607784</v>
+        <v>501431865</v>
       </c>
       <c r="F27" t="n">
-        <v>99352.35413721119</v>
+        <v>99928.98283504916</v>
       </c>
       <c r="G27" t="n">
-        <v>106343.4466183115</v>
+        <v>100043.4767752379</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>26349085</v>
+        <v>29428460</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40766380</v>
+        <v>38525483</v>
       </c>
       <c r="E28" t="n">
-        <v>40766380</v>
+        <v>38525483</v>
       </c>
       <c r="F28" t="n">
-        <v>37942.22550439923</v>
+        <v>28037.17969073403</v>
       </c>
       <c r="G28" t="n">
-        <v>45260.02834450076</v>
+        <v>53407.16927050045</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>22850052</v>
+        <v>19620297</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>609077089</v>
+        <v>591391900</v>
       </c>
       <c r="E29" t="n">
-        <v>2220068474</v>
+        <v>2155606469</v>
       </c>
       <c r="F29" t="n">
-        <v>160622.3906675369</v>
+        <v>157629.2967986198</v>
       </c>
       <c r="G29" t="n">
-        <v>204832.1263585601</v>
+        <v>195944.7213269257</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>56930724</v>
+        <v>62902887</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>130265234</v>
+        <v>123932981</v>
       </c>
       <c r="E30" t="n">
-        <v>499718405</v>
+        <v>475426864</v>
       </c>
       <c r="F30" t="n">
-        <v>151778.5091957737</v>
+        <v>147684.957473804</v>
       </c>
       <c r="G30" t="n">
-        <v>186827.1018208614</v>
+        <v>189950.1148152656</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>33038660</v>
+        <v>32042882</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>29714955</v>
+        <v>28959331</v>
       </c>
       <c r="F31" t="n">
-        <v>11365.06623573504</v>
+        <v>25777.41270787542</v>
       </c>
       <c r="G31" t="n">
-        <v>13154.42342212798</v>
+        <v>14971.57129570677</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>6025644</v>
+        <v>6265197</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>121602453</v>
+        <v>121141534</v>
       </c>
       <c r="E32" t="n">
-        <v>443026632</v>
+        <v>441331000</v>
       </c>
       <c r="F32" t="n">
-        <v>10140.72211280084</v>
+        <v>11683.77098694221</v>
       </c>
       <c r="G32" t="n">
-        <v>9795.392975709969</v>
+        <v>2807.311931311538</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>282206</v>
+        <v>339269</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>405945068</v>
+        <v>394198860</v>
       </c>
       <c r="E33" t="n">
-        <v>1405931780</v>
+        <v>1365250494</v>
       </c>
       <c r="F33" t="n">
-        <v>218146.5751938952</v>
+        <v>220262.233369067</v>
       </c>
       <c r="G33" t="n">
-        <v>265754.4393704277</v>
+        <v>268105.1323017953</v>
       </c>
       <c r="H33" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>51277144</v>
+        <v>54747591</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>104296352</v>
+        <v>101002728</v>
       </c>
       <c r="E34" t="n">
-        <v>153198766</v>
+        <v>148360830</v>
       </c>
       <c r="F34" t="n">
-        <v>51981.13653544542</v>
+        <v>60569.10551149668</v>
       </c>
       <c r="G34" t="n">
-        <v>55938.08241345578</v>
+        <v>57023.45338845423</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>9869283</v>
+        <v>10889969</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3662689</v>
+        <v>3313162</v>
       </c>
       <c r="E35" t="n">
-        <v>14650755</v>
+        <v>13252650</v>
       </c>
       <c r="F35" t="n">
-        <v>21623.5209876203</v>
+        <v>27082.61020362202</v>
       </c>
       <c r="G35" t="n">
-        <v>108925.8623428262</v>
+        <v>70013.13987495781</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I35" t="n">
-        <v>19971983</v>
+        <v>16642418</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>223755881</v>
+        <v>216218589</v>
       </c>
       <c r="E36" t="n">
-        <v>642233345</v>
+        <v>620599499</v>
       </c>
       <c r="F36" t="n">
-        <v>200077.0177485599</v>
+        <v>194691.8456693295</v>
       </c>
       <c r="G36" t="n">
-        <v>241213.5066352912</v>
+        <v>235915.0888539608</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>22913360</v>
+        <v>24263277</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>141563360</v>
+        <v>135051427</v>
       </c>
       <c r="E37" t="n">
-        <v>369830343</v>
+        <v>352818099</v>
       </c>
       <c r="F37" t="n">
-        <v>45011.24207842154</v>
+        <v>41846.99141858095</v>
       </c>
       <c r="G37" t="n">
-        <v>49581.59682587846</v>
+        <v>42854.40192865873</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>19890755</v>
+        <v>21608500</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>369708964</v>
+        <v>359323605</v>
       </c>
       <c r="E38" t="n">
-        <v>2112622654</v>
+        <v>2053277746</v>
       </c>
       <c r="F38" t="n">
-        <v>65179.06942304321</v>
+        <v>57453.33322066857</v>
       </c>
       <c r="G38" t="n">
-        <v>83784.68370343985</v>
+        <v>92508.02441893873</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>58056334</v>
+        <v>62179372</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252067565</v>
+        <v>243898597</v>
       </c>
       <c r="E2" t="n">
-        <v>1580680272</v>
+        <v>1529453822</v>
       </c>
       <c r="F2" t="n">
-        <v>188649.7346816685</v>
+        <v>174817.4153508069</v>
       </c>
       <c r="G2" t="n">
-        <v>220146.3051452435</v>
+        <v>215376.4796930464</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>32527590</v>
+        <v>33508568</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141781171</v>
+        <v>136472801</v>
       </c>
       <c r="E3" t="n">
-        <v>157115694</v>
+        <v>151233190</v>
       </c>
       <c r="F3" t="n">
-        <v>46355.91994249065</v>
+        <v>41727.09665233181</v>
       </c>
       <c r="G3" t="n">
-        <v>192483.0322024143</v>
+        <v>186721.2760379885</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>53659007</v>
+        <v>49454292</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>507288605</v>
+        <v>489713268</v>
       </c>
       <c r="E4" t="n">
-        <v>634542649</v>
+        <v>612558514</v>
       </c>
       <c r="F4" t="n">
-        <v>95316.1894727154</v>
+        <v>111454.0355743458</v>
       </c>
       <c r="G4" t="n">
-        <v>168132.227780747</v>
+        <v>158194.1650252547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>106819707</v>
+        <v>109254625</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138461836</v>
+        <v>130723550</v>
       </c>
       <c r="E5" t="n">
-        <v>138461836</v>
+        <v>130723550</v>
       </c>
       <c r="F5" t="n">
-        <v>54482.33676339882</v>
+        <v>46767.93277690884</v>
       </c>
       <c r="G5" t="n">
-        <v>109411.819199675</v>
+        <v>107627.193726986</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I5" t="n">
-        <v>108147543</v>
+        <v>94602465</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221435690</v>
+        <v>216591095</v>
       </c>
       <c r="E6" t="n">
-        <v>221435690</v>
+        <v>216591095</v>
       </c>
       <c r="F6" t="n">
-        <v>37449.4372841495</v>
+        <v>54070.30244545198</v>
       </c>
       <c r="G6" t="n">
-        <v>119680.1563431008</v>
+        <v>111620.1642120822</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>39719686</v>
+        <v>31939898</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92438059</v>
+        <v>91185255</v>
       </c>
       <c r="E7" t="n">
-        <v>115259424</v>
+        <v>113697324</v>
       </c>
       <c r="F7" t="n">
-        <v>25214.60738586339</v>
+        <v>24409.75692723224</v>
       </c>
       <c r="G7" t="n">
-        <v>45366.7737928673</v>
+        <v>42691.64513772356</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>16647657</v>
+        <v>16228528</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>88198293</v>
+        <v>87514936</v>
       </c>
       <c r="E8" t="n">
-        <v>183886358</v>
+        <v>182461612</v>
       </c>
       <c r="F8" t="n">
-        <v>54041.43049885242</v>
+        <v>55402.65433443646</v>
       </c>
       <c r="G8" t="n">
-        <v>58917.53001340778</v>
+        <v>58711.58217580885</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>61424289</v>
+        <v>77084783</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>150603706</v>
+        <v>150933384</v>
       </c>
       <c r="E9" t="n">
-        <v>150657107</v>
+        <v>150995844</v>
       </c>
       <c r="F9" t="n">
-        <v>7918.870337886645</v>
+        <v>7626.893648623339</v>
       </c>
       <c r="G9" t="n">
-        <v>10269.76983826196</v>
+        <v>17026.28768933358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>16425888</v>
+        <v>17598961</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>770886945</v>
+        <v>720200785</v>
       </c>
       <c r="E10" t="n">
-        <v>770886945</v>
+        <v>720200785</v>
       </c>
       <c r="F10" t="n">
-        <v>244578.0285871514</v>
+        <v>432007.3626400736</v>
       </c>
       <c r="G10" t="n">
-        <v>526249.806681754</v>
+        <v>522473.7208980133</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>976790136</v>
+        <v>834219394</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79832417</v>
+        <v>82213690</v>
       </c>
       <c r="E11" t="n">
-        <v>91597530</v>
+        <v>94329737</v>
       </c>
       <c r="F11" t="n">
-        <v>11860.17744444648</v>
+        <v>3562.516987803074</v>
       </c>
       <c r="G11" t="n">
-        <v>5529.451762463797</v>
+        <v>5523.734452745796</v>
       </c>
       <c r="H11" t="n">
-        <v>1.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>2379722</v>
+        <v>2513275</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>230381601</v>
+        <v>218568048</v>
       </c>
       <c r="E12" t="n">
-        <v>994454886</v>
+        <v>943461033</v>
       </c>
       <c r="F12" t="n">
-        <v>302046.3872882962</v>
+        <v>381483.5321307778</v>
       </c>
       <c r="G12" t="n">
-        <v>366035.9256077795</v>
+        <v>401269.97302026</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I12" t="n">
-        <v>147916306</v>
+        <v>126075715</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107740516</v>
+        <v>107092581</v>
       </c>
       <c r="E13" t="n">
-        <v>107740516</v>
+        <v>107092581</v>
       </c>
       <c r="F13" t="n">
-        <v>1833.297428154484</v>
+        <v>2308.597023289233</v>
       </c>
       <c r="G13" t="n">
-        <v>3589.509165509731</v>
+        <v>7382.137835762071</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>8880559</v>
+        <v>9337484</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12013563</v>
+        <v>11688978</v>
       </c>
       <c r="E14" t="n">
-        <v>30033906</v>
+        <v>29222444</v>
       </c>
       <c r="F14" t="n">
-        <v>3249.587418260131</v>
+        <v>3965.050784417358</v>
       </c>
       <c r="G14" t="n">
-        <v>12530.79327624135</v>
+        <v>13125.8099119783</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>4368534</v>
+        <v>4032864</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10661416</v>
+        <v>10588028</v>
       </c>
       <c r="E15" t="n">
-        <v>15677411</v>
+        <v>15569496</v>
       </c>
       <c r="F15" t="n">
-        <v>5458.740595838077</v>
+        <v>3355.289461870734</v>
       </c>
       <c r="G15" t="n">
-        <v>8063.526879358321</v>
+        <v>5126.37090258603</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>3178771</v>
+        <v>1411603</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28481964</v>
+        <v>28285666</v>
       </c>
       <c r="E16" t="n">
-        <v>88683698</v>
+        <v>88072490</v>
       </c>
       <c r="F16" t="n">
-        <v>12330.69769359851</v>
+        <v>9365.654476710619</v>
       </c>
       <c r="G16" t="n">
-        <v>15922.30324583843</v>
+        <v>16895.85409652987</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I16" t="n">
-        <v>15169706</v>
+        <v>15361339</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>291722373</v>
+        <v>284058406</v>
       </c>
       <c r="E17" t="n">
-        <v>2624515360</v>
+        <v>2555565556</v>
       </c>
       <c r="F17" t="n">
-        <v>6534.595206252355</v>
+        <v>6296.81066501404</v>
       </c>
       <c r="G17" t="n">
-        <v>7023.64573502457</v>
+        <v>6747.262515556762</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I17" t="n">
-        <v>54904242</v>
+        <v>55355003</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15864989</v>
+        <v>15374650</v>
       </c>
       <c r="E18" t="n">
-        <v>97241736</v>
+        <v>94236288</v>
       </c>
       <c r="F18" t="n">
-        <v>29473.11915223734</v>
+        <v>31064.5170674193</v>
       </c>
       <c r="G18" t="n">
-        <v>37259.41247323031</v>
+        <v>38753.05714891075</v>
       </c>
       <c r="H18" t="n">
         <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>14862430</v>
+        <v>15065404</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46625991</v>
+        <v>47101967</v>
       </c>
       <c r="E19" t="n">
-        <v>200859670</v>
+        <v>202910122</v>
       </c>
       <c r="F19" t="n">
-        <v>30929.5888482429</v>
+        <v>34392.68898555588</v>
       </c>
       <c r="G19" t="n">
-        <v>81214.19974956442</v>
+        <v>85100.51856472623</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>25281365</v>
+        <v>24375843</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>303663775</v>
+        <v>299281032</v>
       </c>
       <c r="E20" t="n">
-        <v>303663775</v>
+        <v>299281032</v>
       </c>
       <c r="F20" t="n">
-        <v>55809.00475529228</v>
+        <v>56126.94238917343</v>
       </c>
       <c r="G20" t="n">
-        <v>97661.29329606285</v>
+        <v>111198.5127451365</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>114156649</v>
+        <v>90519790</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>42147141</v>
+        <v>40335397</v>
       </c>
       <c r="E21" t="n">
-        <v>159801791</v>
+        <v>152932525</v>
       </c>
       <c r="F21" t="n">
-        <v>43937.09275027183</v>
+        <v>64553.67009862101</v>
       </c>
       <c r="G21" t="n">
-        <v>79072.98071349111</v>
+        <v>72447.72312152639</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>24060529</v>
+        <v>27719426</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42115936</v>
+        <v>41010456</v>
       </c>
       <c r="E22" t="n">
-        <v>273110637</v>
+        <v>265941894</v>
       </c>
       <c r="F22" t="n">
-        <v>82728.52663634857</v>
+        <v>46752.72218137108</v>
       </c>
       <c r="G22" t="n">
-        <v>85060.54719965813</v>
+        <v>84775.91139830544</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>33909892</v>
+        <v>33874041</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125688055</v>
+        <v>125370197</v>
       </c>
       <c r="E23" t="n">
-        <v>2081497130</v>
+        <v>2076233138</v>
       </c>
       <c r="F23" t="n">
-        <v>383191.9802953907</v>
+        <v>346968.0766894721</v>
       </c>
       <c r="G23" t="n">
-        <v>323003.6429807599</v>
+        <v>319046.9193647039</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>17439435</v>
+        <v>16550987</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5782903</v>
+        <v>5671314</v>
       </c>
       <c r="E24" t="n">
-        <v>29751281</v>
+        <v>29177185</v>
       </c>
       <c r="F24" t="n">
-        <v>1290.893755540167</v>
+        <v>10983.88042624698</v>
       </c>
       <c r="G24" t="n">
-        <v>547.7467302139725</v>
+        <v>1924.543380519931</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="I24" t="n">
-        <v>923220</v>
+        <v>898645</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20485170</v>
+        <v>19188501</v>
       </c>
       <c r="E25" t="n">
-        <v>20485170</v>
+        <v>19188631</v>
       </c>
       <c r="F25" t="n">
-        <v>4907.28484626706</v>
+        <v>3375.667801237664</v>
       </c>
       <c r="G25" t="n">
-        <v>19809.77175127533</v>
+        <v>17966.65307981209</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>4624887</v>
+        <v>4050970</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>277610872</v>
+        <v>277333304</v>
       </c>
       <c r="E27" t="n">
-        <v>501431865</v>
+        <v>500930510</v>
       </c>
       <c r="F27" t="n">
-        <v>99928.98283504916</v>
+        <v>92719.99472066855</v>
       </c>
       <c r="G27" t="n">
-        <v>100043.4767752379</v>
+        <v>105325.9354533693</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>29428460</v>
+        <v>27911672</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38525483</v>
+        <v>38129597</v>
       </c>
       <c r="E28" t="n">
-        <v>38525483</v>
+        <v>38129597</v>
       </c>
       <c r="F28" t="n">
-        <v>28037.17969073403</v>
+        <v>31807.56633681091</v>
       </c>
       <c r="G28" t="n">
-        <v>53407.16927050045</v>
+        <v>50465.76176607571</v>
       </c>
       <c r="H28" t="n">
         <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>19620297</v>
+        <v>16365957</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>591391900</v>
+        <v>585425946</v>
       </c>
       <c r="E29" t="n">
-        <v>2155606469</v>
+        <v>2133860737</v>
       </c>
       <c r="F29" t="n">
-        <v>157629.2967986198</v>
+        <v>156968.9529937794</v>
       </c>
       <c r="G29" t="n">
-        <v>195944.7213269257</v>
+        <v>213457.468529734</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>62902887</v>
+        <v>52104951</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>123932981</v>
+        <v>119227388</v>
       </c>
       <c r="E30" t="n">
-        <v>475426864</v>
+        <v>457375452</v>
       </c>
       <c r="F30" t="n">
-        <v>147684.957473804</v>
+        <v>149047.8182333944</v>
       </c>
       <c r="G30" t="n">
-        <v>189950.1148152656</v>
+        <v>183202.6543471094</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>32042882</v>
+        <v>29316142</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28959331</v>
+        <v>29208933</v>
       </c>
       <c r="F31" t="n">
-        <v>25777.41270787542</v>
+        <v>29371.09802499189</v>
       </c>
       <c r="G31" t="n">
-        <v>14971.57129570677</v>
+        <v>7828.946632909127</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I31" t="n">
-        <v>6265197</v>
+        <v>5984263</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>121141534</v>
+        <v>121653853</v>
       </c>
       <c r="E32" t="n">
-        <v>441331000</v>
+        <v>443165307</v>
       </c>
       <c r="F32" t="n">
-        <v>11683.77098694221</v>
+        <v>10471.90297264888</v>
       </c>
       <c r="G32" t="n">
-        <v>2807.311931311538</v>
+        <v>3080.624964211976</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>339269</v>
+        <v>321409</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>394198860</v>
+        <v>371676834</v>
       </c>
       <c r="E33" t="n">
-        <v>1365250494</v>
+        <v>1287248728</v>
       </c>
       <c r="F33" t="n">
-        <v>220262.233369067</v>
+        <v>215755.7491955335</v>
       </c>
       <c r="G33" t="n">
-        <v>268105.1323017953</v>
+        <v>262325.2952171199</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I33" t="n">
-        <v>54747591</v>
+        <v>49479353</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>101002728</v>
+        <v>102001285</v>
       </c>
       <c r="E34" t="n">
-        <v>148360830</v>
+        <v>149827589</v>
       </c>
       <c r="F34" t="n">
-        <v>60569.10551149668</v>
+        <v>55918.82093861445</v>
       </c>
       <c r="G34" t="n">
-        <v>57023.45338845423</v>
+        <v>57483.88539372205</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>10889969</v>
+        <v>10397257</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3313162</v>
+        <v>3098309</v>
       </c>
       <c r="E35" t="n">
-        <v>13252650</v>
+        <v>12393236</v>
       </c>
       <c r="F35" t="n">
-        <v>27082.61020362202</v>
+        <v>25403.6955344764</v>
       </c>
       <c r="G35" t="n">
-        <v>70013.13987495781</v>
+        <v>125509.9255819726</v>
       </c>
       <c r="H35" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I35" t="n">
-        <v>16642418</v>
+        <v>8921702</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216218589</v>
+        <v>210030589</v>
       </c>
       <c r="E36" t="n">
-        <v>620599499</v>
+        <v>602838445</v>
       </c>
       <c r="F36" t="n">
-        <v>194691.8456693295</v>
+        <v>171432.7485913275</v>
       </c>
       <c r="G36" t="n">
-        <v>235915.0888539608</v>
+        <v>228558.422448924</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>24263277</v>
+        <v>23299564</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>135051427</v>
+        <v>137540584</v>
       </c>
       <c r="E37" t="n">
-        <v>352818099</v>
+        <v>359320951</v>
       </c>
       <c r="F37" t="n">
-        <v>41846.99141858095</v>
+        <v>41891.36901925896</v>
       </c>
       <c r="G37" t="n">
-        <v>42854.40192865873</v>
+        <v>42484.90509965287</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>21608500</v>
+        <v>22382671</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>359323605</v>
+        <v>347381821</v>
       </c>
       <c r="E38" t="n">
-        <v>2053277746</v>
+        <v>1985038977</v>
       </c>
       <c r="F38" t="n">
-        <v>57453.33322066857</v>
+        <v>62008.50307733037</v>
       </c>
       <c r="G38" t="n">
-        <v>92508.02441893873</v>
+        <v>93846.55560179714</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>62179372</v>
+        <v>48801149</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>243898597</v>
+        <v>216226323</v>
       </c>
       <c r="E2" t="n">
-        <v>1529453822</v>
+        <v>1355924876</v>
       </c>
       <c r="F2" t="n">
-        <v>174817.4153508069</v>
+        <v>139278.2083334558</v>
       </c>
       <c r="G2" t="n">
-        <v>215376.4796930464</v>
+        <v>194139.7583375002</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>33508568</v>
+        <v>39620808</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>136472801</v>
+        <v>116116557</v>
       </c>
       <c r="E3" t="n">
-        <v>151233190</v>
+        <v>128675290</v>
       </c>
       <c r="F3" t="n">
-        <v>41727.09665233181</v>
+        <v>40116.53551747205</v>
       </c>
       <c r="G3" t="n">
-        <v>186721.2760379885</v>
+        <v>179482.3865621963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>49454292</v>
+        <v>50565479</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>489713268</v>
+        <v>436536656</v>
       </c>
       <c r="E4" t="n">
-        <v>612558514</v>
+        <v>546042476</v>
       </c>
       <c r="F4" t="n">
-        <v>111454.0355743458</v>
+        <v>92020.73302595288</v>
       </c>
       <c r="G4" t="n">
-        <v>158194.1650252547</v>
+        <v>142126.409684992</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>109254625</v>
+        <v>153927628</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>130723550</v>
+        <v>114426377</v>
       </c>
       <c r="E5" t="n">
-        <v>130723550</v>
+        <v>114426377</v>
       </c>
       <c r="F5" t="n">
-        <v>46767.93277690884</v>
+        <v>62459.81228894752</v>
       </c>
       <c r="G5" t="n">
-        <v>107627.193726986</v>
+        <v>97772.3069013788</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>94602465</v>
+        <v>103252755</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>216591095</v>
+        <v>185192770</v>
       </c>
       <c r="E6" t="n">
-        <v>216591095</v>
+        <v>185192770</v>
       </c>
       <c r="F6" t="n">
-        <v>54070.30244545198</v>
+        <v>37993.17654258276</v>
       </c>
       <c r="G6" t="n">
-        <v>111620.1642120822</v>
+        <v>88784.28623066163</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>31939898</v>
+        <v>34161745</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>91185255</v>
+        <v>82024587</v>
       </c>
       <c r="E7" t="n">
-        <v>113697324</v>
+        <v>102275044</v>
       </c>
       <c r="F7" t="n">
-        <v>24409.75692723224</v>
+        <v>11141.23997741001</v>
       </c>
       <c r="G7" t="n">
-        <v>42691.64513772356</v>
+        <v>47481.06370975197</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>16228528</v>
+        <v>16146718</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87514936</v>
+        <v>75093867</v>
       </c>
       <c r="E8" t="n">
-        <v>182461612</v>
+        <v>156564681</v>
       </c>
       <c r="F8" t="n">
-        <v>55402.65433443646</v>
+        <v>52995.82591888055</v>
       </c>
       <c r="G8" t="n">
-        <v>58711.58217580885</v>
+        <v>60798.98731134173</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>77084783</v>
+        <v>57007648</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>150933384</v>
+        <v>135655911</v>
       </c>
       <c r="E9" t="n">
-        <v>150995844</v>
+        <v>135717804</v>
       </c>
       <c r="F9" t="n">
-        <v>7626.893648623339</v>
+        <v>9517.599409717684</v>
       </c>
       <c r="G9" t="n">
-        <v>17026.28768933358</v>
+        <v>13588.19727269496</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>17598961</v>
+        <v>8234314</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>720200785</v>
+        <v>594034814</v>
       </c>
       <c r="E10" t="n">
-        <v>720200785</v>
+        <v>594034814</v>
       </c>
       <c r="F10" t="n">
-        <v>432007.3626400736</v>
+        <v>162940.9017923382</v>
       </c>
       <c r="G10" t="n">
-        <v>522473.7208980133</v>
+        <v>481426.0041292822</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>834219394</v>
+        <v>750242454</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82213690</v>
+        <v>73858933</v>
       </c>
       <c r="E11" t="n">
-        <v>94329737</v>
+        <v>84743718</v>
       </c>
       <c r="F11" t="n">
-        <v>3562.516987803074</v>
+        <v>4255.289475954606</v>
       </c>
       <c r="G11" t="n">
-        <v>5523.734452745796</v>
+        <v>6944.372765265893</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2513275</v>
+        <v>2392591</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>218568048</v>
+        <v>181335676</v>
       </c>
       <c r="E12" t="n">
-        <v>943461033</v>
+        <v>782745446</v>
       </c>
       <c r="F12" t="n">
-        <v>381483.5321307778</v>
+        <v>331713.7392059686</v>
       </c>
       <c r="G12" t="n">
-        <v>401269.97302026</v>
+        <v>368575.2904731176</v>
       </c>
       <c r="H12" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I12" t="n">
-        <v>126075715</v>
+        <v>153101636</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107092581</v>
+        <v>98585709</v>
       </c>
       <c r="E13" t="n">
-        <v>107092581</v>
+        <v>98585709</v>
       </c>
       <c r="F13" t="n">
-        <v>2308.597023289233</v>
+        <v>2028.317973416068</v>
       </c>
       <c r="G13" t="n">
-        <v>7382.137835762071</v>
+        <v>7213.334069738164</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>9337484</v>
+        <v>9552914</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11688978</v>
+        <v>9761164</v>
       </c>
       <c r="E14" t="n">
-        <v>29222444</v>
+        <v>24402909</v>
       </c>
       <c r="F14" t="n">
-        <v>3965.050784417358</v>
+        <v>8592.212311196636</v>
       </c>
       <c r="G14" t="n">
-        <v>13125.8099119783</v>
+        <v>12893.62522958115</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>4032864</v>
+        <v>3283214</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10588028</v>
+        <v>10042805</v>
       </c>
       <c r="E15" t="n">
-        <v>15569496</v>
+        <v>14767755</v>
       </c>
       <c r="F15" t="n">
-        <v>3355.289461870734</v>
+        <v>3184.12984842992</v>
       </c>
       <c r="G15" t="n">
-        <v>5126.37090258603</v>
+        <v>2557.4213604555</v>
       </c>
       <c r="H15" t="n">
         <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>1411603</v>
+        <v>620746</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28285666</v>
+        <v>25852968</v>
       </c>
       <c r="E16" t="n">
-        <v>88072490</v>
+        <v>80497846</v>
       </c>
       <c r="F16" t="n">
-        <v>9365.654476710619</v>
+        <v>9080.301894666331</v>
       </c>
       <c r="G16" t="n">
-        <v>16895.85409652987</v>
+        <v>14254.90173315178</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>15361339</v>
+        <v>13048988</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>284058406</v>
+        <v>249536952</v>
       </c>
       <c r="E17" t="n">
-        <v>2555565556</v>
+        <v>2244989151</v>
       </c>
       <c r="F17" t="n">
-        <v>6296.81066501404</v>
+        <v>914048.0727731386</v>
       </c>
       <c r="G17" t="n">
-        <v>6747.262515556762</v>
+        <v>1001479.988654136</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>55355003</v>
+        <v>61571886</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15374650</v>
+        <v>14103801</v>
       </c>
       <c r="E18" t="n">
-        <v>94236288</v>
+        <v>86446833</v>
       </c>
       <c r="F18" t="n">
-        <v>31064.5170674193</v>
+        <v>23792.89440958336</v>
       </c>
       <c r="G18" t="n">
-        <v>38753.05714891075</v>
+        <v>33645.10170326674</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>15065404</v>
+        <v>14903619</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47101967</v>
+        <v>42802868</v>
       </c>
       <c r="E19" t="n">
-        <v>202910122</v>
+        <v>184390076</v>
       </c>
       <c r="F19" t="n">
-        <v>34392.68898555588</v>
+        <v>38746.06083675534</v>
       </c>
       <c r="G19" t="n">
-        <v>85100.51856472623</v>
+        <v>65649.74968527535</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>24375843</v>
+        <v>22313384</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>299281032</v>
+        <v>257522743</v>
       </c>
       <c r="E20" t="n">
-        <v>299281032</v>
+        <v>257522743</v>
       </c>
       <c r="F20" t="n">
-        <v>56126.94238917343</v>
+        <v>54434.18636190219</v>
       </c>
       <c r="G20" t="n">
-        <v>111198.5127451365</v>
+        <v>110466.2347827958</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>90519790</v>
+        <v>97118969</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40335397</v>
+        <v>35497044</v>
       </c>
       <c r="E21" t="n">
-        <v>152932525</v>
+        <v>134584797</v>
       </c>
       <c r="F21" t="n">
-        <v>64553.67009862101</v>
+        <v>39279.20030597291</v>
       </c>
       <c r="G21" t="n">
-        <v>72447.72312152639</v>
+        <v>82799.72018268314</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>27719426</v>
+        <v>30675393</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41010456</v>
+        <v>34645364</v>
       </c>
       <c r="E22" t="n">
-        <v>265941894</v>
+        <v>224665967</v>
       </c>
       <c r="F22" t="n">
-        <v>46752.72218137108</v>
+        <v>29391.84151832776</v>
       </c>
       <c r="G22" t="n">
-        <v>84775.91139830544</v>
+        <v>75703.38896722712</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>33874041</v>
+        <v>43180339</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125370197</v>
+        <v>123727800</v>
       </c>
       <c r="E23" t="n">
-        <v>2076233138</v>
+        <v>2049033705</v>
       </c>
       <c r="F23" t="n">
-        <v>346968.0766894721</v>
+        <v>356529.3899249358</v>
       </c>
       <c r="G23" t="n">
-        <v>319046.9193647039</v>
+        <v>327396.2306402755</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>16550987</v>
+        <v>18254622</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5671314</v>
+        <v>4964283</v>
       </c>
       <c r="E24" t="n">
-        <v>29177185</v>
+        <v>25539728</v>
       </c>
       <c r="F24" t="n">
-        <v>10983.88042624698</v>
+        <v>529.1648176117155</v>
       </c>
       <c r="G24" t="n">
-        <v>1924.543380519931</v>
+        <v>1245.043939027991</v>
       </c>
       <c r="H24" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>898645</v>
+        <v>745786</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19188501</v>
+        <v>16436601</v>
       </c>
       <c r="E25" t="n">
-        <v>19188631</v>
+        <v>16436601</v>
       </c>
       <c r="F25" t="n">
-        <v>3375.667801237664</v>
+        <v>4716.478780245043</v>
       </c>
       <c r="G25" t="n">
-        <v>17966.65307981209</v>
+        <v>9719.815780727899</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>4050970</v>
+        <v>3975225</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>277333304</v>
+        <v>249561903</v>
       </c>
       <c r="E27" t="n">
-        <v>500930510</v>
+        <v>450768696</v>
       </c>
       <c r="F27" t="n">
-        <v>92719.99472066855</v>
+        <v>68848.7448808667</v>
       </c>
       <c r="G27" t="n">
-        <v>105325.9354533693</v>
+        <v>79112.66977033595</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>27911672</v>
+        <v>24670908</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38129597</v>
+        <v>32594501</v>
       </c>
       <c r="E28" t="n">
-        <v>38129597</v>
+        <v>32594501</v>
       </c>
       <c r="F28" t="n">
-        <v>31807.56633681091</v>
+        <v>35018.2448561409</v>
       </c>
       <c r="G28" t="n">
-        <v>50465.76176607571</v>
+        <v>41470.95996425994</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>16365957</v>
+        <v>23853758</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>585425946</v>
+        <v>508357504</v>
       </c>
       <c r="E29" t="n">
-        <v>2133860737</v>
+        <v>1852948485</v>
       </c>
       <c r="F29" t="n">
-        <v>156968.9529937794</v>
+        <v>44384.13833699584</v>
       </c>
       <c r="G29" t="n">
-        <v>213457.468529734</v>
+        <v>211092.1038692193</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>52104951</v>
+        <v>64340960</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>119227388</v>
+        <v>105190927</v>
       </c>
       <c r="E30" t="n">
-        <v>457375452</v>
+        <v>403529329</v>
       </c>
       <c r="F30" t="n">
-        <v>149047.8182333944</v>
+        <v>142642.9431799468</v>
       </c>
       <c r="G30" t="n">
-        <v>183202.6543471094</v>
+        <v>179673.6597076293</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>29316142</v>
+        <v>29691833</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>29208933</v>
+        <v>26894815</v>
       </c>
       <c r="F31" t="n">
-        <v>29371.09802499189</v>
+        <v>5202.819963746909</v>
       </c>
       <c r="G31" t="n">
-        <v>7828.946632909127</v>
+        <v>14665.24791473823</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>5984263</v>
+        <v>5756867</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>121653853</v>
+        <v>119338083</v>
       </c>
       <c r="E32" t="n">
-        <v>443165307</v>
+        <v>434714634</v>
       </c>
       <c r="F32" t="n">
-        <v>10471.90297264888</v>
+        <v>10067.95220453039</v>
       </c>
       <c r="G32" t="n">
-        <v>3080.624964211976</v>
+        <v>1312.509085242546</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>321409</v>
+        <v>246462</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>371676834</v>
+        <v>317420223</v>
       </c>
       <c r="E33" t="n">
-        <v>1287248728</v>
+        <v>1098784473</v>
       </c>
       <c r="F33" t="n">
-        <v>215755.7491955335</v>
+        <v>166877.6689775996</v>
       </c>
       <c r="G33" t="n">
-        <v>262325.2952171199</v>
+        <v>230530.6651422981</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I33" t="n">
-        <v>49479353</v>
+        <v>73650124</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102001285</v>
+        <v>86128617</v>
       </c>
       <c r="E34" t="n">
-        <v>149827589</v>
+        <v>126512554</v>
       </c>
       <c r="F34" t="n">
-        <v>55918.82093861445</v>
+        <v>52696.1447592089</v>
       </c>
       <c r="G34" t="n">
-        <v>57483.88539372205</v>
+        <v>56735.34144928589</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I34" t="n">
-        <v>10397257</v>
+        <v>9801688</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3098309</v>
+        <v>3019896</v>
       </c>
       <c r="E35" t="n">
-        <v>12393236</v>
+        <v>12079586</v>
       </c>
       <c r="F35" t="n">
-        <v>25403.6955344764</v>
+        <v>9346.26994507561</v>
       </c>
       <c r="G35" t="n">
-        <v>125509.9255819726</v>
+        <v>83364.18569822103</v>
       </c>
       <c r="H35" t="n">
         <v>0.08</v>
       </c>
       <c r="I35" t="n">
-        <v>8921702</v>
+        <v>8753901</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210030589</v>
+        <v>178752158</v>
       </c>
       <c r="E36" t="n">
-        <v>602838445</v>
+        <v>513061805</v>
       </c>
       <c r="F36" t="n">
-        <v>171432.7485913275</v>
+        <v>126265.8967837529</v>
       </c>
       <c r="G36" t="n">
-        <v>228558.422448924</v>
+        <v>186257.9543230529</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>23299564</v>
+        <v>26000434</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>137540584</v>
+        <v>107785089</v>
       </c>
       <c r="E37" t="n">
-        <v>359320951</v>
+        <v>281585548</v>
       </c>
       <c r="F37" t="n">
-        <v>41891.36901925896</v>
+        <v>42544.15657053299</v>
       </c>
       <c r="G37" t="n">
-        <v>42484.90509965287</v>
+        <v>41582.91132695408</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>22382671</v>
+        <v>20548120</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>347381821</v>
+        <v>309590110</v>
       </c>
       <c r="E38" t="n">
-        <v>1985038977</v>
+        <v>1769086345</v>
       </c>
       <c r="F38" t="n">
-        <v>62008.50307733037</v>
+        <v>48599.68296944831</v>
       </c>
       <c r="G38" t="n">
-        <v>93846.55560179714</v>
+        <v>98527.18393076796</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>48801149</v>
+        <v>57036705</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>216226323</v>
+        <v>216738618</v>
       </c>
       <c r="E2" t="n">
-        <v>1355924876</v>
+        <v>1359137410</v>
       </c>
       <c r="F2" t="n">
-        <v>139278.2083334558</v>
+        <v>173154.2712362792</v>
       </c>
       <c r="G2" t="n">
-        <v>194139.7583375002</v>
+        <v>209598.549533766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>39620808</v>
+        <v>43383619</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>116116557</v>
+        <v>117898687</v>
       </c>
       <c r="E3" t="n">
-        <v>128675290</v>
+        <v>130650169</v>
       </c>
       <c r="F3" t="n">
-        <v>40116.53551747205</v>
+        <v>65905.70163410934</v>
       </c>
       <c r="G3" t="n">
-        <v>179482.3865621963</v>
+        <v>177658.6383289305</v>
       </c>
       <c r="H3" t="n">
         <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>50565479</v>
+        <v>61633599</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>436536656</v>
+        <v>448094841</v>
       </c>
       <c r="E4" t="n">
-        <v>546042476</v>
+        <v>560500048</v>
       </c>
       <c r="F4" t="n">
-        <v>92020.73302595288</v>
+        <v>94199.20029664029</v>
       </c>
       <c r="G4" t="n">
-        <v>142126.409684992</v>
+        <v>155173.0932376152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>153927628</v>
+        <v>171331703</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>114426377</v>
+        <v>115695750</v>
       </c>
       <c r="E5" t="n">
-        <v>114426377</v>
+        <v>115695750</v>
       </c>
       <c r="F5" t="n">
-        <v>62459.81228894752</v>
+        <v>56438.08138722538</v>
       </c>
       <c r="G5" t="n">
-        <v>97772.3069013788</v>
+        <v>94854.11194872166</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>103252755</v>
+        <v>100730879</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>185192770</v>
+        <v>185885385</v>
       </c>
       <c r="E6" t="n">
-        <v>185192770</v>
+        <v>185885385</v>
       </c>
       <c r="F6" t="n">
-        <v>37993.17654258276</v>
+        <v>38300.76843172104</v>
       </c>
       <c r="G6" t="n">
-        <v>88784.28623066163</v>
+        <v>85346.16118643164</v>
       </c>
       <c r="H6" t="n">
         <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>34161745</v>
+        <v>33189782</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82024587</v>
+        <v>84018548</v>
       </c>
       <c r="E7" t="n">
-        <v>102275044</v>
+        <v>104761281</v>
       </c>
       <c r="F7" t="n">
-        <v>11141.23997741001</v>
+        <v>12761.2751480764</v>
       </c>
       <c r="G7" t="n">
-        <v>47481.06370975197</v>
+        <v>46033.07845501762</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>16146718</v>
+        <v>15767381</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75093867</v>
+        <v>71154199</v>
       </c>
       <c r="E8" t="n">
-        <v>156564681</v>
+        <v>148350791</v>
       </c>
       <c r="F8" t="n">
-        <v>52995.82591888055</v>
+        <v>49468.15421325526</v>
       </c>
       <c r="G8" t="n">
-        <v>60798.98731134173</v>
+        <v>52000.88822105757</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>57007648</v>
+        <v>52518179</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135655911</v>
+        <v>141801266</v>
       </c>
       <c r="E9" t="n">
-        <v>135717804</v>
+        <v>141869587</v>
       </c>
       <c r="F9" t="n">
-        <v>9517.599409717684</v>
+        <v>7457.858987929388</v>
       </c>
       <c r="G9" t="n">
-        <v>13588.19727269496</v>
+        <v>14381.06636266097</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I9" t="n">
-        <v>8234314</v>
+        <v>7582821</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>594034814</v>
+        <v>597763092</v>
       </c>
       <c r="E10" t="n">
-        <v>594034814</v>
+        <v>597763092</v>
       </c>
       <c r="F10" t="n">
-        <v>162940.9017923382</v>
+        <v>258657.2379923987</v>
       </c>
       <c r="G10" t="n">
-        <v>481426.0041292822</v>
+        <v>517905.9146807307</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>750242454</v>
+        <v>675994087</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73858933</v>
+        <v>73911852</v>
       </c>
       <c r="E11" t="n">
-        <v>84743718</v>
+        <v>84804435</v>
       </c>
       <c r="F11" t="n">
-        <v>4255.289475954606</v>
+        <v>3386.187760014948</v>
       </c>
       <c r="G11" t="n">
-        <v>6944.372765265893</v>
+        <v>6821.646954297645</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="I11" t="n">
-        <v>2392591</v>
+        <v>2398764</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>181335676</v>
+        <v>189720701</v>
       </c>
       <c r="E12" t="n">
-        <v>782745446</v>
+        <v>818939868</v>
       </c>
       <c r="F12" t="n">
-        <v>331713.7392059686</v>
+        <v>370876.8354030633</v>
       </c>
       <c r="G12" t="n">
-        <v>368575.2904731176</v>
+        <v>363757.2454178997</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>153101636</v>
+        <v>154134374</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98585709</v>
+        <v>98532836</v>
       </c>
       <c r="E13" t="n">
-        <v>98585709</v>
+        <v>98532836</v>
       </c>
       <c r="F13" t="n">
-        <v>2028.317973416068</v>
+        <v>1823.559098284436</v>
       </c>
       <c r="G13" t="n">
-        <v>7213.334069738164</v>
+        <v>5741.75120439731</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="I13" t="n">
-        <v>9552914</v>
+        <v>9686227</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9761164</v>
+        <v>10201508</v>
       </c>
       <c r="E14" t="n">
-        <v>24402909</v>
+        <v>25503771</v>
       </c>
       <c r="F14" t="n">
-        <v>8592.212311196636</v>
+        <v>10324.3349529482</v>
       </c>
       <c r="G14" t="n">
-        <v>12893.62522958115</v>
+        <v>11080.68865738898</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3283214</v>
+        <v>3408337</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10042805</v>
+        <v>10159247</v>
       </c>
       <c r="E15" t="n">
-        <v>14767755</v>
+        <v>14938981</v>
       </c>
       <c r="F15" t="n">
-        <v>3184.12984842992</v>
+        <v>3049.188805214305</v>
       </c>
       <c r="G15" t="n">
-        <v>2557.4213604555</v>
+        <v>3618.163173828708</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>620746</v>
+        <v>1079072</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25852968</v>
+        <v>26043072</v>
       </c>
       <c r="E16" t="n">
-        <v>80497846</v>
+        <v>81089769</v>
       </c>
       <c r="F16" t="n">
-        <v>9080.301894666331</v>
+        <v>5815.359660702011</v>
       </c>
       <c r="G16" t="n">
-        <v>14254.90173315178</v>
+        <v>13387.1433913881</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>13048988</v>
+        <v>12557521</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249536952</v>
+        <v>249567909</v>
       </c>
       <c r="E17" t="n">
-        <v>2244989151</v>
+        <v>2245267663</v>
       </c>
       <c r="F17" t="n">
-        <v>914048.0727731386</v>
+        <v>908219.9327683152</v>
       </c>
       <c r="G17" t="n">
-        <v>1001479.988654136</v>
+        <v>995443.5628436557</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>61571886</v>
+        <v>64828906</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14103801</v>
+        <v>14354761</v>
       </c>
       <c r="E18" t="n">
-        <v>86446833</v>
+        <v>87985053</v>
       </c>
       <c r="F18" t="n">
-        <v>23792.89440958336</v>
+        <v>36821.40935183644</v>
       </c>
       <c r="G18" t="n">
-        <v>33645.10170326674</v>
+        <v>38536.73237572499</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>14903619</v>
+        <v>14597550</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42802868</v>
+        <v>40367733</v>
       </c>
       <c r="E19" t="n">
-        <v>184390076</v>
+        <v>173899778</v>
       </c>
       <c r="F19" t="n">
-        <v>38746.06083675534</v>
+        <v>32262.18907210787</v>
       </c>
       <c r="G19" t="n">
-        <v>65649.74968527535</v>
+        <v>93915.49431022923</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>22313384</v>
+        <v>20675793</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257522743</v>
+        <v>282022978</v>
       </c>
       <c r="E20" t="n">
-        <v>257522743</v>
+        <v>282022978</v>
       </c>
       <c r="F20" t="n">
-        <v>54434.18636190219</v>
+        <v>59103.83150454929</v>
       </c>
       <c r="G20" t="n">
-        <v>110466.2347827958</v>
+        <v>108234.9112377412</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>97118969</v>
+        <v>96582203</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35497044</v>
+        <v>35512019</v>
       </c>
       <c r="E21" t="n">
-        <v>134584797</v>
+        <v>126498723</v>
       </c>
       <c r="F21" t="n">
-        <v>39279.20030597291</v>
+        <v>31494.36527777397</v>
       </c>
       <c r="G21" t="n">
-        <v>82799.72018268314</v>
+        <v>76654.57218185416</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>30675393</v>
+        <v>29480645</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34645364</v>
+        <v>35218523</v>
       </c>
       <c r="E22" t="n">
-        <v>224665967</v>
+        <v>228382749</v>
       </c>
       <c r="F22" t="n">
-        <v>29391.84151832776</v>
+        <v>13030.0637604943</v>
       </c>
       <c r="G22" t="n">
-        <v>75703.38896722712</v>
+        <v>75896.0543611545</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>43180339</v>
+        <v>45425828</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123727800</v>
+        <v>125543119</v>
       </c>
       <c r="E23" t="n">
-        <v>2049033705</v>
+        <v>2079096881</v>
       </c>
       <c r="F23" t="n">
-        <v>356529.3899249358</v>
+        <v>334593.7705594021</v>
       </c>
       <c r="G23" t="n">
-        <v>327396.2306402755</v>
+        <v>320948.3577542588</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>18254622</v>
+        <v>17631879</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4964283</v>
+        <v>5135193</v>
       </c>
       <c r="E24" t="n">
-        <v>25539728</v>
+        <v>26419006</v>
       </c>
       <c r="F24" t="n">
-        <v>529.1648176117155</v>
+        <v>1948.046366576838</v>
       </c>
       <c r="G24" t="n">
-        <v>1245.043939027991</v>
+        <v>907.7600221343248</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="I24" t="n">
-        <v>745786</v>
+        <v>850572</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16436601</v>
+        <v>15787302</v>
       </c>
       <c r="E25" t="n">
-        <v>16436601</v>
+        <v>15788014</v>
       </c>
       <c r="F25" t="n">
-        <v>4716.478780245043</v>
+        <v>2231.781522436191</v>
       </c>
       <c r="G25" t="n">
-        <v>9719.815780727899</v>
+        <v>12791.3765125279</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3975225</v>
+        <v>4069404</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>249561903</v>
+        <v>255159421</v>
       </c>
       <c r="E27" t="n">
-        <v>450768696</v>
+        <v>460879157</v>
       </c>
       <c r="F27" t="n">
-        <v>68848.7448808667</v>
+        <v>69452.58509747163</v>
       </c>
       <c r="G27" t="n">
-        <v>79112.66977033595</v>
+        <v>83355.54634553585</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>24670908</v>
+        <v>22611059</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32594501</v>
+        <v>32899509</v>
       </c>
       <c r="E28" t="n">
-        <v>32594501</v>
+        <v>32899509</v>
       </c>
       <c r="F28" t="n">
-        <v>35018.2448561409</v>
+        <v>32118.6333801384</v>
       </c>
       <c r="G28" t="n">
-        <v>41470.95996425994</v>
+        <v>49361.68365604075</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>23853758</v>
+        <v>19021156</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>508357504</v>
+        <v>512548522</v>
       </c>
       <c r="E29" t="n">
-        <v>1852948485</v>
+        <v>1868224626</v>
       </c>
       <c r="F29" t="n">
-        <v>44384.13833699584</v>
+        <v>162493.3368123707</v>
       </c>
       <c r="G29" t="n">
-        <v>211092.1038692193</v>
+        <v>118553.2545625987</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>64340960</v>
+        <v>65811322</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>105190927</v>
+        <v>109732536</v>
       </c>
       <c r="E30" t="n">
-        <v>403529329</v>
+        <v>420951672</v>
       </c>
       <c r="F30" t="n">
-        <v>142642.9431799468</v>
+        <v>135595.171642941</v>
       </c>
       <c r="G30" t="n">
-        <v>179673.6597076293</v>
+        <v>190348.1100054795</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>29691833</v>
+        <v>29441262</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26894815</v>
+        <v>27542685</v>
       </c>
       <c r="F31" t="n">
-        <v>5202.819963746909</v>
+        <v>11324.9025857427</v>
       </c>
       <c r="G31" t="n">
-        <v>14665.24791473823</v>
+        <v>7179.835194498999</v>
       </c>
       <c r="H31" t="n">
         <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>5756867</v>
+        <v>5820568</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119338083</v>
+        <v>118969030</v>
       </c>
       <c r="E32" t="n">
-        <v>434714634</v>
+        <v>433359841</v>
       </c>
       <c r="F32" t="n">
-        <v>10067.95220453039</v>
+        <v>9637.001421836494</v>
       </c>
       <c r="G32" t="n">
-        <v>1312.509085242546</v>
+        <v>1510.997935333944</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>246462</v>
+        <v>223361</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>317420223</v>
+        <v>314266518</v>
       </c>
       <c r="E33" t="n">
-        <v>1098784473</v>
+        <v>1087867584</v>
       </c>
       <c r="F33" t="n">
-        <v>166877.6689775996</v>
+        <v>207912.3477233322</v>
       </c>
       <c r="G33" t="n">
-        <v>230530.6651422981</v>
+        <v>245758.2483750219</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>73650124</v>
+        <v>74827796</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>86128617</v>
+        <v>87760246</v>
       </c>
       <c r="E34" t="n">
-        <v>126512554</v>
+        <v>128909220</v>
       </c>
       <c r="F34" t="n">
-        <v>52696.1447592089</v>
+        <v>50333.39067595633</v>
       </c>
       <c r="G34" t="n">
-        <v>56735.34144928589</v>
+        <v>61321.63503077811</v>
       </c>
       <c r="H34" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>9801688</v>
+        <v>9107275</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3019896</v>
+        <v>2959714</v>
       </c>
       <c r="E35" t="n">
-        <v>12079586</v>
+        <v>11838854</v>
       </c>
       <c r="F35" t="n">
-        <v>9346.26994507561</v>
+        <v>9172.497334299693</v>
       </c>
       <c r="G35" t="n">
-        <v>83364.18569822103</v>
+        <v>100619.4449278019</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I35" t="n">
-        <v>8753901</v>
+        <v>8480279</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>178752158</v>
+        <v>177729703</v>
       </c>
       <c r="E36" t="n">
-        <v>513061805</v>
+        <v>510127113</v>
       </c>
       <c r="F36" t="n">
-        <v>126265.8967837529</v>
+        <v>158314.2215514002</v>
       </c>
       <c r="G36" t="n">
-        <v>186257.9543230529</v>
+        <v>210801.1977065797</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>26000434</v>
+        <v>26546777</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>107785089</v>
+        <v>111669295</v>
       </c>
       <c r="E37" t="n">
-        <v>281585548</v>
+        <v>291732929</v>
       </c>
       <c r="F37" t="n">
-        <v>42544.15657053299</v>
+        <v>42997.35544754071</v>
       </c>
       <c r="G37" t="n">
-        <v>41582.91132695408</v>
+        <v>44754.71982089116</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>20548120</v>
+        <v>20059925</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>309590110</v>
+        <v>306665918</v>
       </c>
       <c r="E38" t="n">
-        <v>1769086345</v>
+        <v>1752376674</v>
       </c>
       <c r="F38" t="n">
-        <v>48599.68296944831</v>
+        <v>54007.1433679988</v>
       </c>
       <c r="G38" t="n">
-        <v>98527.18393076796</v>
+        <v>88267.91122978881</v>
       </c>
       <c r="H38" t="n">
         <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>57036705</v>
+        <v>57100762</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>216738618</v>
+        <v>225025496</v>
       </c>
       <c r="E2" t="n">
-        <v>1359137410</v>
+        <v>1411103255</v>
       </c>
       <c r="F2" t="n">
-        <v>173154.2712362792</v>
+        <v>117107.9330964303</v>
       </c>
       <c r="G2" t="n">
-        <v>209598.549533766</v>
+        <v>169863.0270149987</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I2" t="n">
-        <v>43383619</v>
+        <v>41073004</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117898687</v>
+        <v>110345423</v>
       </c>
       <c r="E3" t="n">
-        <v>130650169</v>
+        <v>122176230</v>
       </c>
       <c r="F3" t="n">
-        <v>65905.70163410934</v>
+        <v>36706.13352296531</v>
       </c>
       <c r="G3" t="n">
-        <v>177658.6383289305</v>
+        <v>150350.7932163623</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I3" t="n">
-        <v>61633599</v>
+        <v>61043859</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>448094841</v>
+        <v>411934771</v>
       </c>
       <c r="E4" t="n">
-        <v>560500048</v>
+        <v>515269174</v>
       </c>
       <c r="F4" t="n">
-        <v>94199.20029664029</v>
+        <v>105767.0203154506</v>
       </c>
       <c r="G4" t="n">
-        <v>155173.0932376152</v>
+        <v>132908.2492023406</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>171331703</v>
+        <v>181976700</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115695750</v>
+        <v>106795291</v>
       </c>
       <c r="E5" t="n">
-        <v>115695750</v>
+        <v>106795291</v>
       </c>
       <c r="F5" t="n">
-        <v>56438.08138722538</v>
+        <v>53944.42572603647</v>
       </c>
       <c r="G5" t="n">
-        <v>94854.11194872166</v>
+        <v>107733.1921912495</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>100730879</v>
+        <v>107518606</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>185885385</v>
+        <v>177277362</v>
       </c>
       <c r="E6" t="n">
-        <v>185885385</v>
+        <v>177277362</v>
       </c>
       <c r="F6" t="n">
-        <v>38300.76843172104</v>
+        <v>52689.43069837135</v>
       </c>
       <c r="G6" t="n">
-        <v>85346.16118643164</v>
+        <v>123289.6789033422</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>33189782</v>
+        <v>38141696</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84018548</v>
+        <v>80345329</v>
       </c>
       <c r="E7" t="n">
-        <v>104761281</v>
+        <v>100181207</v>
       </c>
       <c r="F7" t="n">
-        <v>12761.2751480764</v>
+        <v>16343.11639857545</v>
       </c>
       <c r="G7" t="n">
-        <v>46033.07845501762</v>
+        <v>31485.00152689703</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
-        <v>15767381</v>
+        <v>18327869</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71154199</v>
+        <v>67119922</v>
       </c>
       <c r="E8" t="n">
-        <v>148350791</v>
+        <v>139939646</v>
       </c>
       <c r="F8" t="n">
-        <v>49468.15421325526</v>
+        <v>47701.48146368787</v>
       </c>
       <c r="G8" t="n">
-        <v>52000.88822105757</v>
+        <v>52488.5422580151</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>52518179</v>
+        <v>46915798</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>141801266</v>
+        <v>138433670</v>
       </c>
       <c r="E9" t="n">
-        <v>141869587</v>
+        <v>138505167</v>
       </c>
       <c r="F9" t="n">
-        <v>7457.858987929388</v>
+        <v>4374.36206569971</v>
       </c>
       <c r="G9" t="n">
-        <v>14381.06636266097</v>
+        <v>15986.0376519022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>7582821</v>
+        <v>5928161</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>597763092</v>
+        <v>545850802</v>
       </c>
       <c r="E10" t="n">
-        <v>597763092</v>
+        <v>545850802</v>
       </c>
       <c r="F10" t="n">
-        <v>258657.2379923987</v>
+        <v>334750.6827138929</v>
       </c>
       <c r="G10" t="n">
-        <v>517905.9146807307</v>
+        <v>399576.735823057</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>675994087</v>
+        <v>695627664</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73911852</v>
+        <v>72425801</v>
       </c>
       <c r="E11" t="n">
-        <v>84804435</v>
+        <v>83099381</v>
       </c>
       <c r="F11" t="n">
-        <v>3386.187760014948</v>
+        <v>3201.431297490751</v>
       </c>
       <c r="G11" t="n">
-        <v>6821.646954297645</v>
+        <v>14631.52533656978</v>
       </c>
       <c r="H11" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2398764</v>
+        <v>2156655</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>189720701</v>
+        <v>178105711</v>
       </c>
       <c r="E12" t="n">
-        <v>818939868</v>
+        <v>768803122</v>
       </c>
       <c r="F12" t="n">
-        <v>370876.8354030633</v>
+        <v>249104.85059924</v>
       </c>
       <c r="G12" t="n">
-        <v>363757.2454178997</v>
+        <v>291731.6962993636</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I12" t="n">
-        <v>154134374</v>
+        <v>184702463</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98532836</v>
+        <v>95625393</v>
       </c>
       <c r="E13" t="n">
-        <v>98532836</v>
+        <v>95625393</v>
       </c>
       <c r="F13" t="n">
-        <v>1823.559098284436</v>
+        <v>1738.209695126189</v>
       </c>
       <c r="G13" t="n">
-        <v>5741.75120439731</v>
+        <v>2368.701888872078</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="I13" t="n">
-        <v>9686227</v>
+        <v>11858170</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10201508</v>
+        <v>9307279</v>
       </c>
       <c r="E14" t="n">
-        <v>25503771</v>
+        <v>23268199</v>
       </c>
       <c r="F14" t="n">
-        <v>10324.3349529482</v>
+        <v>10508.08883899181</v>
       </c>
       <c r="G14" t="n">
-        <v>11080.68865738898</v>
+        <v>7316.533058356838</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>3408337</v>
+        <v>3540612</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10159247</v>
+        <v>10081552</v>
       </c>
       <c r="E15" t="n">
-        <v>14938981</v>
+        <v>14824732</v>
       </c>
       <c r="F15" t="n">
-        <v>3049.188805214305</v>
+        <v>2978.451392294651</v>
       </c>
       <c r="G15" t="n">
-        <v>3618.163173828708</v>
+        <v>3105.655034040549</v>
       </c>
       <c r="H15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>1079072</v>
+        <v>1153279</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26043072</v>
+        <v>26447830</v>
       </c>
       <c r="E16" t="n">
-        <v>81089769</v>
+        <v>82350056</v>
       </c>
       <c r="F16" t="n">
-        <v>5815.359660702011</v>
+        <v>11443.20434680252</v>
       </c>
       <c r="G16" t="n">
-        <v>13387.1433913881</v>
+        <v>18400.76935473909</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I16" t="n">
-        <v>12557521</v>
+        <v>12247685</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249567909</v>
+        <v>232881352</v>
       </c>
       <c r="E17" t="n">
-        <v>2245267663</v>
+        <v>2095145052</v>
       </c>
       <c r="F17" t="n">
-        <v>908219.9327683152</v>
+        <v>780560.7623830592</v>
       </c>
       <c r="G17" t="n">
-        <v>995443.5628436557</v>
+        <v>960317.4357106254</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>64828906</v>
+        <v>72090649</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14354761</v>
+        <v>14192277</v>
       </c>
       <c r="E18" t="n">
-        <v>87985053</v>
+        <v>86989131</v>
       </c>
       <c r="F18" t="n">
-        <v>36821.40935183644</v>
+        <v>29779.02901119634</v>
       </c>
       <c r="G18" t="n">
-        <v>38536.73237572499</v>
+        <v>36790.62216461306</v>
       </c>
       <c r="H18" t="n">
         <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>14597550</v>
+        <v>14433812</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40367733</v>
+        <v>39573203</v>
       </c>
       <c r="E19" t="n">
-        <v>173899778</v>
+        <v>170477033</v>
       </c>
       <c r="F19" t="n">
-        <v>32262.18907210787</v>
+        <v>39242.81821522686</v>
       </c>
       <c r="G19" t="n">
-        <v>93915.49431022923</v>
+        <v>70468.43598502701</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>20675793</v>
+        <v>20614855</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>282022978</v>
+        <v>272701581</v>
       </c>
       <c r="E20" t="n">
-        <v>282022978</v>
+        <v>272701581</v>
       </c>
       <c r="F20" t="n">
-        <v>59103.83150454929</v>
+        <v>54866.30999990191</v>
       </c>
       <c r="G20" t="n">
-        <v>108234.9112377412</v>
+        <v>83601.42088157524</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I20" t="n">
-        <v>96582203</v>
+        <v>107391043</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35512019</v>
+        <v>34716988</v>
       </c>
       <c r="E21" t="n">
-        <v>126498723</v>
+        <v>123666711</v>
       </c>
       <c r="F21" t="n">
-        <v>31494.36527777397</v>
+        <v>27764.40105888548</v>
       </c>
       <c r="G21" t="n">
-        <v>76654.57218185416</v>
+        <v>52117.94377252976</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>29480645</v>
+        <v>26226664</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35218523</v>
+        <v>32711027</v>
       </c>
       <c r="E22" t="n">
-        <v>228382749</v>
+        <v>212122307</v>
       </c>
       <c r="F22" t="n">
-        <v>13030.0637604943</v>
+        <v>6669.928357663541</v>
       </c>
       <c r="G22" t="n">
-        <v>75896.0543611545</v>
+        <v>74251.80017853063</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>45425828</v>
+        <v>47167787</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125543119</v>
+        <v>124793861</v>
       </c>
       <c r="E23" t="n">
-        <v>2079096881</v>
+        <v>2066688539</v>
       </c>
       <c r="F23" t="n">
-        <v>334593.7705594021</v>
+        <v>360776.1317039829</v>
       </c>
       <c r="G23" t="n">
-        <v>320948.3577542588</v>
+        <v>310492.3148236278</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>17631879</v>
+        <v>23502268</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5135193</v>
+        <v>4904849</v>
       </c>
       <c r="E24" t="n">
-        <v>26419006</v>
+        <v>25233958</v>
       </c>
       <c r="F24" t="n">
-        <v>1948.046366576838</v>
+        <v>2256.721400126292</v>
       </c>
       <c r="G24" t="n">
-        <v>907.7600221343248</v>
+        <v>2957.139801287708</v>
       </c>
       <c r="H24" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>850572</v>
+        <v>822333</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15787302</v>
+        <v>13872871</v>
       </c>
       <c r="E25" t="n">
-        <v>15788014</v>
+        <v>13873041</v>
       </c>
       <c r="F25" t="n">
-        <v>2231.781522436191</v>
+        <v>14559.1252128098</v>
       </c>
       <c r="G25" t="n">
-        <v>12791.3765125279</v>
+        <v>12341.04683065501</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="I25" t="n">
-        <v>4069404</v>
+        <v>4739157</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>255159421</v>
+        <v>252899940</v>
       </c>
       <c r="E27" t="n">
-        <v>460879157</v>
+        <v>456797990</v>
       </c>
       <c r="F27" t="n">
-        <v>69452.58509747163</v>
+        <v>99490.1759025662</v>
       </c>
       <c r="G27" t="n">
-        <v>83355.54634553585</v>
+        <v>104826.8465134709</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>22611059</v>
+        <v>20859180</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32899509</v>
+        <v>32040647</v>
       </c>
       <c r="E28" t="n">
-        <v>32899509</v>
+        <v>32040647</v>
       </c>
       <c r="F28" t="n">
-        <v>32118.6333801384</v>
+        <v>30112.90318627323</v>
       </c>
       <c r="G28" t="n">
-        <v>49361.68365604075</v>
+        <v>42044.67041766876</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>19021156</v>
+        <v>23774359</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>512548522</v>
+        <v>461889715</v>
       </c>
       <c r="E29" t="n">
-        <v>1868224626</v>
+        <v>1683574729</v>
       </c>
       <c r="F29" t="n">
-        <v>162493.3368123707</v>
+        <v>140206.6826440114</v>
       </c>
       <c r="G29" t="n">
-        <v>118553.2545625987</v>
+        <v>175044.29159669</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>65811322</v>
+        <v>89571389</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>109732536</v>
+        <v>105734140</v>
       </c>
       <c r="E30" t="n">
-        <v>420951672</v>
+        <v>405613179</v>
       </c>
       <c r="F30" t="n">
-        <v>135595.171642941</v>
+        <v>136466.2828292024</v>
       </c>
       <c r="G30" t="n">
-        <v>190348.1100054795</v>
+        <v>174388.4282143895</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>29441262</v>
+        <v>30014575</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27542685</v>
+        <v>26203406</v>
       </c>
       <c r="F31" t="n">
-        <v>11324.9025857427</v>
+        <v>9273.976602630913</v>
       </c>
       <c r="G31" t="n">
-        <v>7179.835194498999</v>
+        <v>7805.984512000997</v>
       </c>
       <c r="H31" t="n">
         <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>5820568</v>
+        <v>5537826</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>118969030</v>
+        <v>118271962</v>
       </c>
       <c r="E32" t="n">
-        <v>433359841</v>
+        <v>430809718</v>
       </c>
       <c r="F32" t="n">
-        <v>9637.001421836494</v>
+        <v>9328.799709208535</v>
       </c>
       <c r="G32" t="n">
-        <v>1510.997935333944</v>
+        <v>10628.49653709191</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I32" t="n">
-        <v>223361</v>
+        <v>237983</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>314266518</v>
+        <v>296530762</v>
       </c>
       <c r="E33" t="n">
-        <v>1087867584</v>
+        <v>1026473344</v>
       </c>
       <c r="F33" t="n">
-        <v>207912.3477233322</v>
+        <v>91561.94886683428</v>
       </c>
       <c r="G33" t="n">
-        <v>245758.2483750219</v>
+        <v>119553.3000954523</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I33" t="n">
-        <v>74827796</v>
+        <v>83667020</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87760246</v>
+        <v>83953779</v>
       </c>
       <c r="E34" t="n">
-        <v>128909220</v>
+        <v>123317979</v>
       </c>
       <c r="F34" t="n">
-        <v>50333.39067595633</v>
+        <v>52483.25406336645</v>
       </c>
       <c r="G34" t="n">
-        <v>61321.63503077811</v>
+        <v>56219.31994907967</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I34" t="n">
-        <v>9107275</v>
+        <v>8178870</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2959714</v>
+        <v>2754577</v>
       </c>
       <c r="E35" t="n">
-        <v>11838854</v>
+        <v>11018308</v>
       </c>
       <c r="F35" t="n">
-        <v>9172.497334299693</v>
+        <v>20354.57293969626</v>
       </c>
       <c r="G35" t="n">
-        <v>100619.4449278019</v>
+        <v>92342.64827013291</v>
       </c>
       <c r="H35" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>8480279</v>
+        <v>8025764</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>177729703</v>
+        <v>168979361</v>
       </c>
       <c r="E36" t="n">
-        <v>510127113</v>
+        <v>485011522</v>
       </c>
       <c r="F36" t="n">
-        <v>158314.2215514002</v>
+        <v>192217.3662924654</v>
       </c>
       <c r="G36" t="n">
-        <v>210801.1977065797</v>
+        <v>225789.6867780437</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>26546777</v>
+        <v>31240996</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>111669295</v>
+        <v>107353085</v>
       </c>
       <c r="E37" t="n">
-        <v>291732929</v>
+        <v>280456946</v>
       </c>
       <c r="F37" t="n">
-        <v>42997.35544754071</v>
+        <v>43159.33607982365</v>
       </c>
       <c r="G37" t="n">
-        <v>44754.71982089116</v>
+        <v>40709.39488274784</v>
       </c>
       <c r="H37" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>20059925</v>
+        <v>19656372</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>306665918</v>
+        <v>283716380</v>
       </c>
       <c r="E38" t="n">
-        <v>1752376674</v>
+        <v>1621236458</v>
       </c>
       <c r="F38" t="n">
-        <v>54007.1433679988</v>
+        <v>66621.12562265705</v>
       </c>
       <c r="G38" t="n">
-        <v>88267.91122978881</v>
+        <v>99501.62947900801</v>
       </c>
       <c r="H38" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I38" t="n">
-        <v>57100762</v>
+        <v>68494547</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>225025496</v>
+        <v>241415741</v>
       </c>
       <c r="E2" t="n">
-        <v>1411103255</v>
+        <v>1513884176</v>
       </c>
       <c r="F2" t="n">
-        <v>117107.9330964303</v>
+        <v>184371.5274458939</v>
       </c>
       <c r="G2" t="n">
-        <v>169863.0270149987</v>
+        <v>216936.7836681801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>41073004</v>
+        <v>28501977</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>110345423</v>
+        <v>119480544</v>
       </c>
       <c r="E3" t="n">
-        <v>122176230</v>
+        <v>132290784</v>
       </c>
       <c r="F3" t="n">
-        <v>36706.13352296531</v>
+        <v>49481.03154347931</v>
       </c>
       <c r="G3" t="n">
-        <v>150350.7932163623</v>
+        <v>179849.1115470876</v>
       </c>
       <c r="H3" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>61043859</v>
+        <v>56703271</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>411934771</v>
+        <v>445128568</v>
       </c>
       <c r="E4" t="n">
-        <v>515269174</v>
+        <v>556789681</v>
       </c>
       <c r="F4" t="n">
-        <v>105767.0203154506</v>
+        <v>101075.1251728135</v>
       </c>
       <c r="G4" t="n">
-        <v>132908.2492023406</v>
+        <v>148035.236874022</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>181976700</v>
+        <v>135277583</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>106795291</v>
+        <v>114662619</v>
       </c>
       <c r="E5" t="n">
-        <v>106795291</v>
+        <v>114662619</v>
       </c>
       <c r="F5" t="n">
-        <v>53944.42572603647</v>
+        <v>59811.79837621751</v>
       </c>
       <c r="G5" t="n">
-        <v>107733.1921912495</v>
+        <v>99390.95865296455</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>107518606</v>
+        <v>83333204</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>177277362</v>
+        <v>188557384</v>
       </c>
       <c r="E6" t="n">
-        <v>177277362</v>
+        <v>188557384</v>
       </c>
       <c r="F6" t="n">
-        <v>52689.43069837135</v>
+        <v>66768.69281557434</v>
       </c>
       <c r="G6" t="n">
-        <v>123289.6789033422</v>
+        <v>116555.0262749704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>38141696</v>
+        <v>25843590</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80345329</v>
+        <v>83897165</v>
       </c>
       <c r="E7" t="n">
-        <v>100181207</v>
+        <v>104609930</v>
       </c>
       <c r="F7" t="n">
-        <v>16343.11639857545</v>
+        <v>18344.75421197416</v>
       </c>
       <c r="G7" t="n">
-        <v>31485.00152689703</v>
+        <v>35493.75903581575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>18327869</v>
+        <v>12973522</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67119922</v>
+        <v>71427956</v>
       </c>
       <c r="E8" t="n">
-        <v>139939646</v>
+        <v>148921552</v>
       </c>
       <c r="F8" t="n">
-        <v>47701.48146368787</v>
+        <v>46215.55377725056</v>
       </c>
       <c r="G8" t="n">
-        <v>52488.5422580151</v>
+        <v>49628.21404199026</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>46915798</v>
+        <v>40808154</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138433670</v>
+        <v>144326709</v>
       </c>
       <c r="E9" t="n">
-        <v>138505167</v>
+        <v>144406683</v>
       </c>
       <c r="F9" t="n">
-        <v>4374.36206569971</v>
+        <v>7072.946431512674</v>
       </c>
       <c r="G9" t="n">
-        <v>15986.0376519022</v>
+        <v>13635.36871677408</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>5928161</v>
+        <v>4688301</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>545850802</v>
+        <v>572299713</v>
       </c>
       <c r="E10" t="n">
-        <v>545850802</v>
+        <v>572299713</v>
       </c>
       <c r="F10" t="n">
-        <v>334750.6827138929</v>
+        <v>213701.0210732619</v>
       </c>
       <c r="G10" t="n">
-        <v>399576.735823057</v>
+        <v>538362.5839509418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>695627664</v>
+        <v>623686977</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72425801</v>
+        <v>73792281</v>
       </c>
       <c r="E11" t="n">
-        <v>83099381</v>
+        <v>84667244</v>
       </c>
       <c r="F11" t="n">
-        <v>3201.431297490751</v>
+        <v>2382.721818517967</v>
       </c>
       <c r="G11" t="n">
-        <v>14631.52533656978</v>
+        <v>10640.32104335449</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2156655</v>
+        <v>2118312</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>178105711</v>
+        <v>194730928</v>
       </c>
       <c r="E12" t="n">
-        <v>768803122</v>
+        <v>840566789</v>
       </c>
       <c r="F12" t="n">
-        <v>249104.85059924</v>
+        <v>346038.0915830325</v>
       </c>
       <c r="G12" t="n">
-        <v>291731.6962993636</v>
+        <v>340277.4030798145</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>184702463</v>
+        <v>122425833</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>95625393</v>
+        <v>98630931</v>
       </c>
       <c r="E13" t="n">
-        <v>95625393</v>
+        <v>98630931</v>
       </c>
       <c r="F13" t="n">
-        <v>1738.209695126189</v>
+        <v>2321.976361415308</v>
       </c>
       <c r="G13" t="n">
-        <v>2368.701888872078</v>
+        <v>5037.311844029046</v>
       </c>
       <c r="H13" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="I13" t="n">
-        <v>11858170</v>
+        <v>8342362</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9307279</v>
+        <v>10178630</v>
       </c>
       <c r="E14" t="n">
-        <v>23268199</v>
+        <v>25446575</v>
       </c>
       <c r="F14" t="n">
-        <v>10508.08883899181</v>
+        <v>5392.094746592902</v>
       </c>
       <c r="G14" t="n">
-        <v>7316.533058356838</v>
+        <v>6975.823015965865</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3540612</v>
+        <v>3746161</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10081552</v>
+        <v>10226940</v>
       </c>
       <c r="E15" t="n">
-        <v>14824732</v>
+        <v>15038522</v>
       </c>
       <c r="F15" t="n">
-        <v>2978.451392294651</v>
+        <v>2756.035584868293</v>
       </c>
       <c r="G15" t="n">
-        <v>3105.655034040549</v>
+        <v>18921.26701008023</v>
       </c>
       <c r="H15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>1153279</v>
+        <v>1072757</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26447830</v>
+        <v>27610946</v>
       </c>
       <c r="E16" t="n">
-        <v>82350056</v>
+        <v>85971628</v>
       </c>
       <c r="F16" t="n">
-        <v>11443.20434680252</v>
+        <v>8619.015185088982</v>
       </c>
       <c r="G16" t="n">
-        <v>18400.76935473909</v>
+        <v>25025.73561895505</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>12247685</v>
+        <v>11781421</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>232881352</v>
+        <v>244181684</v>
       </c>
       <c r="E17" t="n">
-        <v>2095145052</v>
+        <v>2196809838</v>
       </c>
       <c r="F17" t="n">
-        <v>780560.7623830592</v>
+        <v>912626.8278119147</v>
       </c>
       <c r="G17" t="n">
-        <v>960317.4357106254</v>
+        <v>982764.3008783164</v>
       </c>
       <c r="H17" t="n">
         <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>72090649</v>
+        <v>60494866</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14192277</v>
+        <v>14714334</v>
       </c>
       <c r="E18" t="n">
-        <v>86989131</v>
+        <v>90188991</v>
       </c>
       <c r="F18" t="n">
-        <v>29779.02901119634</v>
+        <v>32864.33403623069</v>
       </c>
       <c r="G18" t="n">
-        <v>36790.62216461306</v>
+        <v>30514.92836491878</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>14433812</v>
+        <v>12663877</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39573203</v>
+        <v>41270386</v>
       </c>
       <c r="E19" t="n">
-        <v>170477033</v>
+        <v>177788312</v>
       </c>
       <c r="F19" t="n">
-        <v>39242.81821522686</v>
+        <v>29167.01245523369</v>
       </c>
       <c r="G19" t="n">
-        <v>70468.43598502701</v>
+        <v>78435.24649461445</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>20614855</v>
+        <v>16858890</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>272701581</v>
+        <v>282551975</v>
       </c>
       <c r="E20" t="n">
-        <v>272701581</v>
+        <v>282551975</v>
       </c>
       <c r="F20" t="n">
-        <v>54866.30999990191</v>
+        <v>58653.82104049162</v>
       </c>
       <c r="G20" t="n">
-        <v>83601.42088157524</v>
+        <v>110063.9338527698</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>107391043</v>
+        <v>80791658</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34716988</v>
+        <v>37683414</v>
       </c>
       <c r="E21" t="n">
-        <v>123666711</v>
+        <v>134233532</v>
       </c>
       <c r="F21" t="n">
-        <v>27764.40105888548</v>
+        <v>48523.86063380109</v>
       </c>
       <c r="G21" t="n">
-        <v>52117.94377252976</v>
+        <v>79056.84685072665</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>26226664</v>
+        <v>19740160</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32711027</v>
+        <v>35480707</v>
       </c>
       <c r="E22" t="n">
-        <v>212122307</v>
+        <v>230082940</v>
       </c>
       <c r="F22" t="n">
-        <v>6669.928357663541</v>
+        <v>10725.37402340843</v>
       </c>
       <c r="G22" t="n">
-        <v>74251.80017853063</v>
+        <v>78729.65663135349</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>47167787</v>
+        <v>32731188</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124793861</v>
+        <v>124492683</v>
       </c>
       <c r="E23" t="n">
-        <v>2066688539</v>
+        <v>2061700790</v>
       </c>
       <c r="F23" t="n">
-        <v>360776.1317039829</v>
+        <v>341614.749016811</v>
       </c>
       <c r="G23" t="n">
-        <v>310492.3148236278</v>
+        <v>339222.5750570894</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>23502268</v>
+        <v>19788139</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4904849</v>
+        <v>5310721</v>
       </c>
       <c r="E24" t="n">
-        <v>25233958</v>
+        <v>27322047</v>
       </c>
       <c r="F24" t="n">
-        <v>2256.721400126292</v>
+        <v>1030.515869056874</v>
       </c>
       <c r="G24" t="n">
-        <v>2957.139801287708</v>
+        <v>2059.661885322309</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>822333</v>
+        <v>854941</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13872871</v>
+        <v>15989092</v>
       </c>
       <c r="E25" t="n">
-        <v>13873041</v>
+        <v>15989092</v>
       </c>
       <c r="F25" t="n">
-        <v>14559.1252128098</v>
+        <v>3859.027298348884</v>
       </c>
       <c r="G25" t="n">
-        <v>12341.04683065501</v>
+        <v>14924.07390690629</v>
       </c>
       <c r="H25" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="I25" t="n">
-        <v>4739157</v>
+        <v>4429029</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>252899940</v>
+        <v>260417974</v>
       </c>
       <c r="E27" t="n">
-        <v>456797990</v>
+        <v>470377366</v>
       </c>
       <c r="F27" t="n">
-        <v>99490.1759025662</v>
+        <v>101584.0625625171</v>
       </c>
       <c r="G27" t="n">
-        <v>104826.8465134709</v>
+        <v>107624.4967840912</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>20859180</v>
+        <v>17202054</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32040647</v>
+        <v>34278267</v>
       </c>
       <c r="E28" t="n">
-        <v>32040647</v>
+        <v>34278267</v>
       </c>
       <c r="F28" t="n">
-        <v>30112.90318627323</v>
+        <v>28094.18641948769</v>
       </c>
       <c r="G28" t="n">
-        <v>42044.67041766876</v>
+        <v>46201.43993858281</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>23774359</v>
+        <v>13183228</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>461889715</v>
+        <v>492307063</v>
       </c>
       <c r="E29" t="n">
-        <v>1683574729</v>
+        <v>1794445088</v>
       </c>
       <c r="F29" t="n">
-        <v>140206.6826440114</v>
+        <v>154712.0993354158</v>
       </c>
       <c r="G29" t="n">
-        <v>175044.29159669</v>
+        <v>187532.505198858</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>89571389</v>
+        <v>73922754</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>105734140</v>
+        <v>112634178</v>
       </c>
       <c r="E30" t="n">
-        <v>405613179</v>
+        <v>432082837</v>
       </c>
       <c r="F30" t="n">
-        <v>136466.2828292024</v>
+        <v>144951.8433945714</v>
       </c>
       <c r="G30" t="n">
-        <v>174388.4282143895</v>
+        <v>183708.3114722365</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>30014575</v>
+        <v>30663006</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26203406</v>
+        <v>28670809</v>
       </c>
       <c r="F31" t="n">
-        <v>9273.976602630913</v>
+        <v>3786.62515329052</v>
       </c>
       <c r="G31" t="n">
-        <v>7805.984512000997</v>
+        <v>11888.66114391121</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I31" t="n">
-        <v>5537826</v>
+        <v>4713347</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>118271962</v>
+        <v>119692219</v>
       </c>
       <c r="E32" t="n">
-        <v>430809718</v>
+        <v>435967936</v>
       </c>
       <c r="F32" t="n">
-        <v>9328.799709208535</v>
+        <v>8916.339420273951</v>
       </c>
       <c r="G32" t="n">
-        <v>10628.49653709191</v>
+        <v>11058.22389079381</v>
       </c>
       <c r="H32" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>237983</v>
+        <v>194838</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>296530762</v>
+        <v>315381977</v>
       </c>
       <c r="E33" t="n">
-        <v>1026473344</v>
+        <v>1091178617</v>
       </c>
       <c r="F33" t="n">
-        <v>91561.94886683428</v>
+        <v>133717.8067399281</v>
       </c>
       <c r="G33" t="n">
-        <v>119553.3000954523</v>
+        <v>227151.5517253248</v>
       </c>
       <c r="H33" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I33" t="n">
-        <v>83667020</v>
+        <v>50234928</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>83953779</v>
+        <v>90003294</v>
       </c>
       <c r="E34" t="n">
-        <v>123317979</v>
+        <v>132203987</v>
       </c>
       <c r="F34" t="n">
-        <v>52483.25406336645</v>
+        <v>51020.09598203908</v>
       </c>
       <c r="G34" t="n">
-        <v>56219.31994907967</v>
+        <v>50574.38897534618</v>
       </c>
       <c r="H34" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>8178870</v>
+        <v>7392334</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2754577</v>
+        <v>2899905</v>
       </c>
       <c r="E35" t="n">
-        <v>11018308</v>
+        <v>11599621</v>
       </c>
       <c r="F35" t="n">
-        <v>20354.57293969626</v>
+        <v>28856.18794664846</v>
       </c>
       <c r="G35" t="n">
-        <v>92342.64827013291</v>
+        <v>110182.3452556724</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>8025764</v>
+        <v>5865746</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>168979361</v>
+        <v>183529644</v>
       </c>
       <c r="E36" t="n">
-        <v>485011522</v>
+        <v>526774343</v>
       </c>
       <c r="F36" t="n">
-        <v>192217.3662924654</v>
+        <v>52917.13027399904</v>
       </c>
       <c r="G36" t="n">
-        <v>225789.6867780437</v>
+        <v>235042.5430088282</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>31240996</v>
+        <v>31898830</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>107353085</v>
+        <v>116388536</v>
       </c>
       <c r="E37" t="n">
-        <v>280456946</v>
+        <v>304061808</v>
       </c>
       <c r="F37" t="n">
-        <v>43159.33607982365</v>
+        <v>44207.02608351196</v>
       </c>
       <c r="G37" t="n">
-        <v>40709.39488274784</v>
+        <v>41396.77494690351</v>
       </c>
       <c r="H37" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>19656372</v>
+        <v>15820425</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>283716380</v>
+        <v>302507333</v>
       </c>
       <c r="E38" t="n">
-        <v>1621236458</v>
+        <v>1728613332</v>
       </c>
       <c r="F38" t="n">
-        <v>66621.12562265705</v>
+        <v>52321.48935178331</v>
       </c>
       <c r="G38" t="n">
-        <v>99501.62947900801</v>
+        <v>87908.04461507489</v>
       </c>
       <c r="H38" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>68494547</v>
+        <v>54648280</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>241415741</v>
+        <v>239435458</v>
       </c>
       <c r="E2" t="n">
-        <v>1513884176</v>
+        <v>1501466101</v>
       </c>
       <c r="F2" t="n">
-        <v>184371.5274458939</v>
+        <v>186460.0320965229</v>
       </c>
       <c r="G2" t="n">
-        <v>216936.7836681801</v>
+        <v>215078.7607008617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>28501977</v>
+        <v>27309613</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>119480544</v>
+        <v>121784820</v>
       </c>
       <c r="E3" t="n">
-        <v>132290784</v>
+        <v>134842115</v>
       </c>
       <c r="F3" t="n">
-        <v>49481.03154347931</v>
+        <v>50649.26873757904</v>
       </c>
       <c r="G3" t="n">
-        <v>179849.1115470876</v>
+        <v>175846.3357355256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>56703271</v>
+        <v>44865525</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>445128568</v>
+        <v>446334693</v>
       </c>
       <c r="E4" t="n">
-        <v>556789681</v>
+        <v>558298363</v>
       </c>
       <c r="F4" t="n">
-        <v>101075.1251728135</v>
+        <v>64735.27682086744</v>
       </c>
       <c r="G4" t="n">
-        <v>148035.236874022</v>
+        <v>139055.2891218682</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>135277583</v>
+        <v>119305172</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>114662619</v>
+        <v>116047271</v>
       </c>
       <c r="E5" t="n">
-        <v>114662619</v>
+        <v>116047271</v>
       </c>
       <c r="F5" t="n">
-        <v>59811.79837621751</v>
+        <v>52222.7916467118</v>
       </c>
       <c r="G5" t="n">
-        <v>99390.95865296455</v>
+        <v>118141.7356906572</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>83333204</v>
+        <v>82001392</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>188557384</v>
+        <v>191024393</v>
       </c>
       <c r="E6" t="n">
-        <v>188557384</v>
+        <v>191024393</v>
       </c>
       <c r="F6" t="n">
-        <v>66768.69281557434</v>
+        <v>60034.28251475947</v>
       </c>
       <c r="G6" t="n">
-        <v>116555.0262749704</v>
+        <v>127384.8542777667</v>
       </c>
       <c r="H6" t="n">
         <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>25843590</v>
+        <v>23516630</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83897165</v>
+        <v>84416450</v>
       </c>
       <c r="E7" t="n">
-        <v>104609930</v>
+        <v>105257418</v>
       </c>
       <c r="F7" t="n">
-        <v>18344.75421197416</v>
+        <v>18822.76743312147</v>
       </c>
       <c r="G7" t="n">
-        <v>35493.75903581575</v>
+        <v>41543.711267026</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>12973522</v>
+        <v>11889546</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71427956</v>
+        <v>72364763</v>
       </c>
       <c r="E8" t="n">
-        <v>148921552</v>
+        <v>150874718</v>
       </c>
       <c r="F8" t="n">
-        <v>46215.55377725056</v>
+        <v>48912.93003985129</v>
       </c>
       <c r="G8" t="n">
-        <v>49628.21404199026</v>
+        <v>50608.31213431351</v>
       </c>
       <c r="H8" t="n">
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>40808154</v>
+        <v>36972946</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144326709</v>
+        <v>145304441</v>
       </c>
       <c r="E9" t="n">
-        <v>144406683</v>
+        <v>145386236</v>
       </c>
       <c r="F9" t="n">
-        <v>7072.946431512674</v>
+        <v>7696.566799008534</v>
       </c>
       <c r="G9" t="n">
-        <v>13635.36871677408</v>
+        <v>17973.0055383266</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I9" t="n">
-        <v>4688301</v>
+        <v>4981599</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>572299713</v>
+        <v>580730329</v>
       </c>
       <c r="E10" t="n">
-        <v>572299713</v>
+        <v>580730329</v>
       </c>
       <c r="F10" t="n">
-        <v>213701.0210732619</v>
+        <v>192998.0890473815</v>
       </c>
       <c r="G10" t="n">
-        <v>538362.5839509418</v>
+        <v>467633.1032879546</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>623686977</v>
+        <v>619237179</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73792281</v>
+        <v>73117003</v>
       </c>
       <c r="E11" t="n">
-        <v>84667244</v>
+        <v>83892447</v>
       </c>
       <c r="F11" t="n">
-        <v>2382.721818517967</v>
+        <v>7240.145982767586</v>
       </c>
       <c r="G11" t="n">
-        <v>10640.32104335449</v>
+        <v>12665.83930153986</v>
       </c>
       <c r="H11" t="n">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2118312</v>
+        <v>2230998</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>194730928</v>
+        <v>199872886</v>
       </c>
       <c r="E12" t="n">
-        <v>840566789</v>
+        <v>862762333</v>
       </c>
       <c r="F12" t="n">
-        <v>346038.0915830325</v>
+        <v>384180.2919789981</v>
       </c>
       <c r="G12" t="n">
-        <v>340277.4030798145</v>
+        <v>338243.5905001433</v>
       </c>
       <c r="H12" t="n">
         <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>122425833</v>
+        <v>119569183</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98630931</v>
+        <v>99253566</v>
       </c>
       <c r="E13" t="n">
-        <v>98630931</v>
+        <v>99253566</v>
       </c>
       <c r="F13" t="n">
-        <v>2321.976361415308</v>
+        <v>6066.011243737231</v>
       </c>
       <c r="G13" t="n">
-        <v>5037.311844029046</v>
+        <v>5339.260627319431</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>8342362</v>
+        <v>8078172</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10178630</v>
+        <v>10262619</v>
       </c>
       <c r="E14" t="n">
-        <v>25446575</v>
+        <v>25656547</v>
       </c>
       <c r="F14" t="n">
-        <v>5392.094746592902</v>
+        <v>16655.78506277062</v>
       </c>
       <c r="G14" t="n">
-        <v>6975.823015965865</v>
+        <v>12139.39836899159</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>3746161</v>
+        <v>3362272</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10226940</v>
+        <v>10214425</v>
       </c>
       <c r="E15" t="n">
-        <v>15038522</v>
+        <v>15020120</v>
       </c>
       <c r="F15" t="n">
-        <v>2756.035584868293</v>
+        <v>3019.46118953265</v>
       </c>
       <c r="G15" t="n">
-        <v>18921.26701008023</v>
+        <v>3541.082886786143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1072757</v>
+        <v>716804</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27610946</v>
+        <v>27816237</v>
       </c>
       <c r="E16" t="n">
-        <v>85971628</v>
+        <v>86610836</v>
       </c>
       <c r="F16" t="n">
-        <v>8619.015185088982</v>
+        <v>9245.909933364124</v>
       </c>
       <c r="G16" t="n">
-        <v>25025.73561895505</v>
+        <v>19802.48390409997</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>11781421</v>
+        <v>11780348</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>244181684</v>
+        <v>249396249</v>
       </c>
       <c r="E17" t="n">
-        <v>2196809838</v>
+        <v>2243723300</v>
       </c>
       <c r="F17" t="n">
-        <v>912626.8278119147</v>
+        <v>6534.391284727982</v>
       </c>
       <c r="G17" t="n">
-        <v>982764.3008783164</v>
+        <v>6755.948388074735</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>60494866</v>
+        <v>56290937</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14714334</v>
+        <v>14707700</v>
       </c>
       <c r="E18" t="n">
-        <v>90188991</v>
+        <v>90148333</v>
       </c>
       <c r="F18" t="n">
-        <v>32864.33403623069</v>
+        <v>36807.70910769013</v>
       </c>
       <c r="G18" t="n">
-        <v>30514.92836491878</v>
+        <v>29813.8595259993</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>12663877</v>
+        <v>12579807</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41270386</v>
+        <v>41687786</v>
       </c>
       <c r="E19" t="n">
-        <v>177788312</v>
+        <v>179586423</v>
       </c>
       <c r="F19" t="n">
-        <v>29167.01245523369</v>
+        <v>30830.23989128719</v>
       </c>
       <c r="G19" t="n">
-        <v>78435.24649461445</v>
+        <v>68274.53273478161</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>16858890</v>
+        <v>15696709</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>282551975</v>
+        <v>267332799</v>
       </c>
       <c r="E20" t="n">
-        <v>282551975</v>
+        <v>267332799</v>
       </c>
       <c r="F20" t="n">
-        <v>58653.82104049162</v>
+        <v>59294.60140625176</v>
       </c>
       <c r="G20" t="n">
-        <v>110063.9338527698</v>
+        <v>106773.5901950753</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>80791658</v>
+        <v>91260162</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37683414</v>
+        <v>37062209</v>
       </c>
       <c r="E21" t="n">
-        <v>134233532</v>
+        <v>132020711</v>
       </c>
       <c r="F21" t="n">
-        <v>48523.86063380109</v>
+        <v>45842.5151517925</v>
       </c>
       <c r="G21" t="n">
-        <v>79056.84685072665</v>
+        <v>77881.2985691557</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>19740160</v>
+        <v>17042729</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35480707</v>
+        <v>36047303</v>
       </c>
       <c r="E22" t="n">
-        <v>230082940</v>
+        <v>233757169</v>
       </c>
       <c r="F22" t="n">
-        <v>10725.37402340843</v>
+        <v>7724.031355493174</v>
       </c>
       <c r="G22" t="n">
-        <v>78729.65663135349</v>
+        <v>6151.869365351235</v>
       </c>
       <c r="H22" t="n">
         <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>32731188</v>
+        <v>30827939</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124492683</v>
+        <v>124646682</v>
       </c>
       <c r="E23" t="n">
-        <v>2061700790</v>
+        <v>2064251149</v>
       </c>
       <c r="F23" t="n">
-        <v>341614.749016811</v>
+        <v>339704.9252712266</v>
       </c>
       <c r="G23" t="n">
-        <v>339222.5750570894</v>
+        <v>312694.6521184111</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>19788139</v>
+        <v>18334925</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5310721</v>
+        <v>5236374</v>
       </c>
       <c r="E24" t="n">
-        <v>27322047</v>
+        <v>26939553</v>
       </c>
       <c r="F24" t="n">
-        <v>1030.515869056874</v>
+        <v>1809.079281751526</v>
       </c>
       <c r="G24" t="n">
-        <v>2059.661885322309</v>
+        <v>1473.514465597764</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I24" t="n">
-        <v>854941</v>
+        <v>851532</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15989092</v>
+        <v>15988127</v>
       </c>
       <c r="E25" t="n">
-        <v>15989092</v>
+        <v>15988127</v>
       </c>
       <c r="F25" t="n">
-        <v>3859.027298348884</v>
+        <v>13665.63091533458</v>
       </c>
       <c r="G25" t="n">
-        <v>14924.07390690629</v>
+        <v>15192.02517672186</v>
       </c>
       <c r="H25" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>4429029</v>
+        <v>4038017</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>260417974</v>
+        <v>262783371</v>
       </c>
       <c r="E27" t="n">
-        <v>470377366</v>
+        <v>474649840</v>
       </c>
       <c r="F27" t="n">
-        <v>101584.0625625171</v>
+        <v>100565.8214692854</v>
       </c>
       <c r="G27" t="n">
-        <v>107624.4967840912</v>
+        <v>104605.4628270832</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>17202054</v>
+        <v>16263961</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34278267</v>
+        <v>34009294</v>
       </c>
       <c r="E28" t="n">
-        <v>34278267</v>
+        <v>34009294</v>
       </c>
       <c r="F28" t="n">
-        <v>28094.18641948769</v>
+        <v>23019.93625636965</v>
       </c>
       <c r="G28" t="n">
-        <v>46201.43993858281</v>
+        <v>52192.77740331014</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>13183228</v>
+        <v>16079945</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>492307063</v>
+        <v>497999594</v>
       </c>
       <c r="E29" t="n">
-        <v>1794445088</v>
+        <v>1815194199</v>
       </c>
       <c r="F29" t="n">
-        <v>154712.0993354158</v>
+        <v>158750.0984869519</v>
       </c>
       <c r="G29" t="n">
-        <v>187532.505198858</v>
+        <v>196417.7903121308</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>73922754</v>
+        <v>70244705</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>112634178</v>
+        <v>115334713</v>
       </c>
       <c r="E30" t="n">
-        <v>432082837</v>
+        <v>442442524</v>
       </c>
       <c r="F30" t="n">
-        <v>144951.8433945714</v>
+        <v>139223.9849919227</v>
       </c>
       <c r="G30" t="n">
-        <v>183708.3114722365</v>
+        <v>187771.4880863318</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>30663006</v>
+        <v>32578667</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28670809</v>
+        <v>28127755</v>
       </c>
       <c r="F31" t="n">
-        <v>3786.62515329052</v>
+        <v>8682.742982608543</v>
       </c>
       <c r="G31" t="n">
-        <v>11888.66114391121</v>
+        <v>9968.986192085211</v>
       </c>
       <c r="H31" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I31" t="n">
-        <v>4713347</v>
+        <v>4376697</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119692219</v>
+        <v>119884706</v>
       </c>
       <c r="E32" t="n">
-        <v>435967936</v>
+        <v>436658124</v>
       </c>
       <c r="F32" t="n">
-        <v>8916.339420273951</v>
+        <v>8954.250233428831</v>
       </c>
       <c r="G32" t="n">
-        <v>11058.22389079381</v>
+        <v>11034.98646799194</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>194838</v>
+        <v>175836</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>315381977</v>
+        <v>316757246</v>
       </c>
       <c r="E33" t="n">
-        <v>1091178617</v>
+        <v>1095936863</v>
       </c>
       <c r="F33" t="n">
-        <v>133717.8067399281</v>
+        <v>122482.9938291242</v>
       </c>
       <c r="G33" t="n">
-        <v>227151.5517253248</v>
+        <v>226131.3340876696</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>50234928</v>
+        <v>46681104</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>90003294</v>
+        <v>88682392</v>
       </c>
       <c r="E34" t="n">
-        <v>132203987</v>
+        <v>130263741</v>
       </c>
       <c r="F34" t="n">
-        <v>51020.09598203908</v>
+        <v>51853.27892905461</v>
       </c>
       <c r="G34" t="n">
-        <v>50574.38897534618</v>
+        <v>60545.86591055144</v>
       </c>
       <c r="H34" t="n">
         <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>7392334</v>
+        <v>7020189</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2899905</v>
+        <v>3967224</v>
       </c>
       <c r="E35" t="n">
-        <v>11599621</v>
+        <v>15868894</v>
       </c>
       <c r="F35" t="n">
-        <v>28856.18794664846</v>
+        <v>5330.9371510255</v>
       </c>
       <c r="G35" t="n">
-        <v>110182.3452556724</v>
+        <v>1068.665872996246</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>5865746</v>
+        <v>7628666</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>183529644</v>
+        <v>187131246</v>
       </c>
       <c r="E36" t="n">
-        <v>526774343</v>
+        <v>537111809</v>
       </c>
       <c r="F36" t="n">
-        <v>52917.13027399904</v>
+        <v>98254.85473233587</v>
       </c>
       <c r="G36" t="n">
-        <v>235042.5430088282</v>
+        <v>237843.7619698557</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>31898830</v>
+        <v>33540859</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>116388536</v>
+        <v>114713132</v>
       </c>
       <c r="E37" t="n">
-        <v>304061808</v>
+        <v>299684862</v>
       </c>
       <c r="F37" t="n">
-        <v>44207.02608351196</v>
+        <v>48205.01831547646</v>
       </c>
       <c r="G37" t="n">
-        <v>41396.77494690351</v>
+        <v>43239.45958790329</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>15820425</v>
+        <v>14704156</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>302507333</v>
+        <v>310163231</v>
       </c>
       <c r="E38" t="n">
-        <v>1728613332</v>
+        <v>1772361318</v>
       </c>
       <c r="F38" t="n">
-        <v>52321.48935178331</v>
+        <v>44904.13203550265</v>
       </c>
       <c r="G38" t="n">
-        <v>87908.04461507489</v>
+        <v>91840.57924264547</v>
       </c>
       <c r="H38" t="n">
         <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>54648280</v>
+        <v>55241510</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>239435458</v>
+        <v>241315077</v>
       </c>
       <c r="E2" t="n">
-        <v>1501466101</v>
+        <v>1513252928</v>
       </c>
       <c r="F2" t="n">
-        <v>186460.0320965229</v>
+        <v>112244.0335993222</v>
       </c>
       <c r="G2" t="n">
-        <v>215078.7607008617</v>
+        <v>153501.7560884706</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>27309613</v>
+        <v>22545910</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>121784820</v>
+        <v>119763039</v>
       </c>
       <c r="E3" t="n">
-        <v>134842115</v>
+        <v>132603566</v>
       </c>
       <c r="F3" t="n">
-        <v>50649.26873757904</v>
+        <v>57465.92813674625</v>
       </c>
       <c r="G3" t="n">
-        <v>175846.3357355256</v>
+        <v>186499.8488128243</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>44865525</v>
+        <v>40962329</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>446334693</v>
+        <v>441892224</v>
       </c>
       <c r="E4" t="n">
-        <v>558298363</v>
+        <v>552741496</v>
       </c>
       <c r="F4" t="n">
-        <v>64735.27682086744</v>
+        <v>130562.8339284656</v>
       </c>
       <c r="G4" t="n">
-        <v>139055.2891218682</v>
+        <v>141678.6772526703</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>119305172</v>
+        <v>91326512</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>116047271</v>
+        <v>112387971</v>
       </c>
       <c r="E5" t="n">
-        <v>116047271</v>
+        <v>112387971</v>
       </c>
       <c r="F5" t="n">
-        <v>52222.7916467118</v>
+        <v>79935.04772505014</v>
       </c>
       <c r="G5" t="n">
-        <v>118141.7356906572</v>
+        <v>89272.37204341237</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>82001392</v>
+        <v>66728511</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>191024393</v>
+        <v>186973613</v>
       </c>
       <c r="E6" t="n">
-        <v>191024393</v>
+        <v>186973613</v>
       </c>
       <c r="F6" t="n">
-        <v>60034.28251475947</v>
+        <v>68415.09005264823</v>
       </c>
       <c r="G6" t="n">
-        <v>127384.8542777667</v>
+        <v>119371.5160072959</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>23516630</v>
+        <v>19075160</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84416450</v>
+        <v>84467945</v>
       </c>
       <c r="E7" t="n">
-        <v>105257418</v>
+        <v>105321626</v>
       </c>
       <c r="F7" t="n">
-        <v>18822.76743312147</v>
+        <v>13860.76519625992</v>
       </c>
       <c r="G7" t="n">
-        <v>41543.711267026</v>
+        <v>39218.84554953366</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11889546</v>
+        <v>9407854</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72364763</v>
+        <v>70082892</v>
       </c>
       <c r="E8" t="n">
-        <v>150874718</v>
+        <v>146117201</v>
       </c>
       <c r="F8" t="n">
-        <v>48912.93003985129</v>
+        <v>50496.11979370753</v>
       </c>
       <c r="G8" t="n">
-        <v>50608.31213431351</v>
+        <v>52206.73781594811</v>
       </c>
       <c r="H8" t="n">
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>36972946</v>
+        <v>27743068</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145304441</v>
+        <v>145411949</v>
       </c>
       <c r="E9" t="n">
-        <v>145386236</v>
+        <v>145501770</v>
       </c>
       <c r="F9" t="n">
-        <v>7696.566799008534</v>
+        <v>8778.909968001259</v>
       </c>
       <c r="G9" t="n">
-        <v>17973.0055383266</v>
+        <v>15306.03636081501</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4981599</v>
+        <v>5372200</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>580730329</v>
+        <v>564967239</v>
       </c>
       <c r="E10" t="n">
-        <v>580730329</v>
+        <v>564967239</v>
       </c>
       <c r="F10" t="n">
-        <v>192998.0890473815</v>
+        <v>308574.9799569368</v>
       </c>
       <c r="G10" t="n">
-        <v>467633.1032879546</v>
+        <v>479519.1717792023</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>619237179</v>
+        <v>522643167</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73117003</v>
+        <v>75232559</v>
       </c>
       <c r="E11" t="n">
-        <v>83892447</v>
+        <v>86319779</v>
       </c>
       <c r="F11" t="n">
-        <v>7240.145982767586</v>
+        <v>2147.409744456429</v>
       </c>
       <c r="G11" t="n">
-        <v>12665.83930153986</v>
+        <v>8037.572403655061</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2230998</v>
+        <v>2286164</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>199872886</v>
+        <v>193997026</v>
       </c>
       <c r="E12" t="n">
-        <v>862762333</v>
+        <v>837398858</v>
       </c>
       <c r="F12" t="n">
-        <v>384180.2919789981</v>
+        <v>381861.5835437886</v>
       </c>
       <c r="G12" t="n">
-        <v>338243.5905001433</v>
+        <v>274046.7183334554</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>119569183</v>
+        <v>79099620</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>99253566</v>
+        <v>98667529</v>
       </c>
       <c r="E13" t="n">
-        <v>99253566</v>
+        <v>98667529</v>
       </c>
       <c r="F13" t="n">
-        <v>6066.011243737231</v>
+        <v>1490.219367836938</v>
       </c>
       <c r="G13" t="n">
-        <v>5339.260627319431</v>
+        <v>2568.654192951995</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>8078172</v>
+        <v>8154985</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10262619</v>
+        <v>10104859</v>
       </c>
       <c r="E14" t="n">
-        <v>25656547</v>
+        <v>25262146</v>
       </c>
       <c r="F14" t="n">
-        <v>16655.78506277062</v>
+        <v>11277.5144065348</v>
       </c>
       <c r="G14" t="n">
-        <v>12139.39836899159</v>
+        <v>12506.85418054407</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3362272</v>
+        <v>3210169</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10214425</v>
+        <v>10367355</v>
       </c>
       <c r="E15" t="n">
-        <v>15020120</v>
+        <v>15245000</v>
       </c>
       <c r="F15" t="n">
-        <v>3019.46118953265</v>
+        <v>2925.719993609655</v>
       </c>
       <c r="G15" t="n">
-        <v>3541.082886786143</v>
+        <v>4878.550892120637</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>716804</v>
+        <v>725021</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27816237</v>
+        <v>26885528</v>
       </c>
       <c r="E16" t="n">
-        <v>86610836</v>
+        <v>83712908</v>
       </c>
       <c r="F16" t="n">
-        <v>9245.909933364124</v>
+        <v>16385.64130632117</v>
       </c>
       <c r="G16" t="n">
-        <v>19802.48390409997</v>
+        <v>14555.65613832553</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>11780348</v>
+        <v>11947737</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249396249</v>
+        <v>244084649</v>
       </c>
       <c r="E17" t="n">
-        <v>2243723300</v>
+        <v>2195936855</v>
       </c>
       <c r="F17" t="n">
-        <v>6534.391284727982</v>
+        <v>6538.812331483109</v>
       </c>
       <c r="G17" t="n">
-        <v>6755.948388074735</v>
+        <v>6513.601767316251</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I17" t="n">
-        <v>56290937</v>
+        <v>37650168</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14707700</v>
+        <v>14561183</v>
       </c>
       <c r="E18" t="n">
-        <v>90148333</v>
+        <v>89250281</v>
       </c>
       <c r="F18" t="n">
-        <v>36807.70910769013</v>
+        <v>34938.78084472128</v>
       </c>
       <c r="G18" t="n">
-        <v>29813.8595259993</v>
+        <v>33113.39778775559</v>
       </c>
       <c r="H18" t="n">
         <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>12579807</v>
+        <v>12397188</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41687786</v>
+        <v>40641539</v>
       </c>
       <c r="E19" t="n">
-        <v>179586423</v>
+        <v>175079306</v>
       </c>
       <c r="F19" t="n">
-        <v>30830.23989128719</v>
+        <v>33292.5846846721</v>
       </c>
       <c r="G19" t="n">
-        <v>68274.53273478161</v>
+        <v>62479.15545425847</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>15696709</v>
+        <v>14358505</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>267332799</v>
+        <v>262404787</v>
       </c>
       <c r="E20" t="n">
-        <v>267332799</v>
+        <v>262404787</v>
       </c>
       <c r="F20" t="n">
-        <v>59294.60140625176</v>
+        <v>60615.21461498946</v>
       </c>
       <c r="G20" t="n">
-        <v>106773.5901950753</v>
+        <v>101692.8300555898</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>91260162</v>
+        <v>91955410</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37062209</v>
+        <v>35709360</v>
       </c>
       <c r="E21" t="n">
-        <v>132020711</v>
+        <v>127201676</v>
       </c>
       <c r="F21" t="n">
-        <v>45842.5151517925</v>
+        <v>61934.71298355112</v>
       </c>
       <c r="G21" t="n">
-        <v>77881.2985691557</v>
+        <v>75826.18428732116</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>17042729</v>
+        <v>13991854</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36047303</v>
+        <v>35892136</v>
       </c>
       <c r="E22" t="n">
-        <v>233757169</v>
+        <v>232750950</v>
       </c>
       <c r="F22" t="n">
-        <v>7724.031355493174</v>
+        <v>24417.84020348449</v>
       </c>
       <c r="G22" t="n">
-        <v>6151.869365351235</v>
+        <v>79937.03169635606</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>30827939</v>
+        <v>25883845</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124646682</v>
+        <v>125742780</v>
       </c>
       <c r="E23" t="n">
-        <v>2064251149</v>
+        <v>2082403421</v>
       </c>
       <c r="F23" t="n">
-        <v>339704.9252712266</v>
+        <v>343177.8564570848</v>
       </c>
       <c r="G23" t="n">
-        <v>312694.6521184111</v>
+        <v>340001.7906188301</v>
       </c>
       <c r="H23" t="n">
         <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>18334925</v>
+        <v>12532967</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5236374</v>
+        <v>5152484</v>
       </c>
       <c r="E24" t="n">
-        <v>26939553</v>
+        <v>26507966</v>
       </c>
       <c r="F24" t="n">
-        <v>1809.079281751526</v>
+        <v>1013.48506189401</v>
       </c>
       <c r="G24" t="n">
-        <v>1473.514465597764</v>
+        <v>131.5923349973357</v>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>851532</v>
+        <v>849328</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15988127</v>
+        <v>16099212</v>
       </c>
       <c r="E25" t="n">
-        <v>15988127</v>
+        <v>16099212</v>
       </c>
       <c r="F25" t="n">
-        <v>13665.63091533458</v>
+        <v>2336.596976167762</v>
       </c>
       <c r="G25" t="n">
-        <v>15192.02517672186</v>
+        <v>12035.85677527855</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="I25" t="n">
-        <v>4038017</v>
+        <v>3230423</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>262783371</v>
+        <v>262404134</v>
       </c>
       <c r="E27" t="n">
-        <v>474649840</v>
+        <v>473964847</v>
       </c>
       <c r="F27" t="n">
-        <v>100565.8214692854</v>
+        <v>109666.345192542</v>
       </c>
       <c r="G27" t="n">
-        <v>104605.4628270832</v>
+        <v>111231.828705978</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>16263961</v>
+        <v>15168662</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34009294</v>
+        <v>33271976</v>
       </c>
       <c r="E28" t="n">
-        <v>34009294</v>
+        <v>33271976</v>
       </c>
       <c r="F28" t="n">
-        <v>23019.93625636965</v>
+        <v>22577.0573388013</v>
       </c>
       <c r="G28" t="n">
-        <v>52192.77740331014</v>
+        <v>45221.48588636361</v>
       </c>
       <c r="H28" t="n">
         <v>0.15</v>
       </c>
       <c r="I28" t="n">
-        <v>16079945</v>
+        <v>12205910</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>497999594</v>
+        <v>494870431</v>
       </c>
       <c r="E29" t="n">
-        <v>1815194199</v>
+        <v>1803788489</v>
       </c>
       <c r="F29" t="n">
-        <v>158750.0984869519</v>
+        <v>142670.3811267252</v>
       </c>
       <c r="G29" t="n">
-        <v>196417.7903121308</v>
+        <v>204257.3436933316</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>70244705</v>
+        <v>48613423</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>115334713</v>
+        <v>110892571</v>
       </c>
       <c r="E30" t="n">
-        <v>442442524</v>
+        <v>425401751</v>
       </c>
       <c r="F30" t="n">
-        <v>139223.9849919227</v>
+        <v>141481.8720091134</v>
       </c>
       <c r="G30" t="n">
-        <v>187771.4880863318</v>
+        <v>191968.0826672006</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>32578667</v>
+        <v>31006399</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28127755</v>
+        <v>27839977</v>
       </c>
       <c r="F31" t="n">
-        <v>8682.742982608543</v>
+        <v>3304.606585749302</v>
       </c>
       <c r="G31" t="n">
-        <v>9968.986192085211</v>
+        <v>29416.1468806224</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4376697</v>
+        <v>4365383</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119884706</v>
+        <v>119930808</v>
       </c>
       <c r="E32" t="n">
-        <v>436658124</v>
+        <v>436815648</v>
       </c>
       <c r="F32" t="n">
-        <v>8954.250233428831</v>
+        <v>64949.75818181846</v>
       </c>
       <c r="G32" t="n">
-        <v>11034.98646799194</v>
+        <v>23862.01807522424</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>175836</v>
+        <v>166755</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>316757246</v>
+        <v>315003969</v>
       </c>
       <c r="E33" t="n">
-        <v>1095936863</v>
+        <v>1089870762</v>
       </c>
       <c r="F33" t="n">
-        <v>122482.9938291242</v>
+        <v>186091.4104771587</v>
       </c>
       <c r="G33" t="n">
-        <v>226131.3340876696</v>
+        <v>230437.6382241077</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I33" t="n">
-        <v>46681104</v>
+        <v>34044154</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>88682392</v>
+        <v>87724183</v>
       </c>
       <c r="E34" t="n">
-        <v>130263741</v>
+        <v>128856248</v>
       </c>
       <c r="F34" t="n">
-        <v>51853.27892905461</v>
+        <v>49753.36271955368</v>
       </c>
       <c r="G34" t="n">
-        <v>60545.86591055144</v>
+        <v>61927.16484427054</v>
       </c>
       <c r="H34" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>7020189</v>
+        <v>7738572</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3967224</v>
+        <v>3413808</v>
       </c>
       <c r="E35" t="n">
-        <v>15868894</v>
+        <v>13655231</v>
       </c>
       <c r="F35" t="n">
-        <v>5330.9371510255</v>
+        <v>32665.25822957003</v>
       </c>
       <c r="G35" t="n">
-        <v>1068.665872996246</v>
+        <v>17610.0544595277</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>7628666</v>
+        <v>10382454</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>187131246</v>
+        <v>185302468</v>
       </c>
       <c r="E36" t="n">
-        <v>537111809</v>
+        <v>531862774</v>
       </c>
       <c r="F36" t="n">
-        <v>98254.85473233587</v>
+        <v>187741.4895813688</v>
       </c>
       <c r="G36" t="n">
-        <v>237843.7619698557</v>
+        <v>226585.7781059882</v>
       </c>
       <c r="H36" t="n">
         <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>33540859</v>
+        <v>31424257</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>114713132</v>
+        <v>114281915</v>
       </c>
       <c r="E37" t="n">
-        <v>299684862</v>
+        <v>298558320</v>
       </c>
       <c r="F37" t="n">
-        <v>48205.01831547646</v>
+        <v>43044.10570330978</v>
       </c>
       <c r="G37" t="n">
-        <v>43239.45958790329</v>
+        <v>41709.85492656173</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I37" t="n">
-        <v>14704156</v>
+        <v>12583582</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>310163231</v>
+        <v>308739475</v>
       </c>
       <c r="E38" t="n">
-        <v>1772361318</v>
+        <v>1764225570</v>
       </c>
       <c r="F38" t="n">
-        <v>44904.13203550265</v>
+        <v>39191.05983176071</v>
       </c>
       <c r="G38" t="n">
-        <v>91840.57924264547</v>
+        <v>76881.60956958238</v>
       </c>
       <c r="H38" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>55241510</v>
+        <v>40227924</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>241315077</v>
+        <v>243110920</v>
       </c>
       <c r="E2" t="n">
-        <v>1513252928</v>
+        <v>1524514408</v>
       </c>
       <c r="F2" t="n">
-        <v>112244.0335993222</v>
+        <v>184460.0069182334</v>
       </c>
       <c r="G2" t="n">
-        <v>153501.7560884706</v>
+        <v>224256.3434340871</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>22545910</v>
+        <v>17377501</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>119763039</v>
+        <v>123184361</v>
       </c>
       <c r="E3" t="n">
-        <v>132603566</v>
+        <v>136391709</v>
       </c>
       <c r="F3" t="n">
-        <v>57465.92813674625</v>
+        <v>40884.85963567573</v>
       </c>
       <c r="G3" t="n">
-        <v>186499.8488128243</v>
+        <v>170894.012630077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>40962329</v>
+        <v>28146820</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>441892224</v>
+        <v>462196098</v>
       </c>
       <c r="E4" t="n">
-        <v>552741496</v>
+        <v>578138624</v>
       </c>
       <c r="F4" t="n">
-        <v>130562.8339284656</v>
+        <v>94665.73162758682</v>
       </c>
       <c r="G4" t="n">
-        <v>141678.6772526703</v>
+        <v>124370.2310677629</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>91326512</v>
+        <v>77241865</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>112387971</v>
+        <v>115744327</v>
       </c>
       <c r="E5" t="n">
-        <v>112387971</v>
+        <v>115744327</v>
       </c>
       <c r="F5" t="n">
-        <v>79935.04772505014</v>
+        <v>63166.955459067</v>
       </c>
       <c r="G5" t="n">
-        <v>89272.37204341237</v>
+        <v>106845.5774516727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>66728511</v>
+        <v>61386076</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>186973613</v>
+        <v>195509866</v>
       </c>
       <c r="E6" t="n">
-        <v>186973613</v>
+        <v>195509866</v>
       </c>
       <c r="F6" t="n">
-        <v>68415.09005264823</v>
+        <v>77971.42288050499</v>
       </c>
       <c r="G6" t="n">
-        <v>119371.5160072959</v>
+        <v>104229.2350125507</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>19075160</v>
+        <v>16039255</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84467945</v>
+        <v>86466499</v>
       </c>
       <c r="E7" t="n">
-        <v>105321626</v>
+        <v>107813588</v>
       </c>
       <c r="F7" t="n">
-        <v>13860.76519625992</v>
+        <v>17298.87950304031</v>
       </c>
       <c r="G7" t="n">
-        <v>39218.84554953366</v>
+        <v>40037.26746085318</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>9407854</v>
+        <v>8242773</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70082892</v>
+        <v>72970470</v>
       </c>
       <c r="E8" t="n">
-        <v>146117201</v>
+        <v>152137570</v>
       </c>
       <c r="F8" t="n">
-        <v>50496.11979370753</v>
+        <v>47313.42833945865</v>
       </c>
       <c r="G8" t="n">
-        <v>52206.73781594811</v>
+        <v>64365.40212761123</v>
       </c>
       <c r="H8" t="n">
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>27743068</v>
+        <v>24381882</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145411949</v>
+        <v>147940351</v>
       </c>
       <c r="E9" t="n">
-        <v>145501770</v>
+        <v>147945863</v>
       </c>
       <c r="F9" t="n">
-        <v>8778.909968001259</v>
+        <v>10198.21535482254</v>
       </c>
       <c r="G9" t="n">
-        <v>15306.03636081501</v>
+        <v>16756.91381781441</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>5372200</v>
+        <v>5654015</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>564967239</v>
+        <v>577053097</v>
       </c>
       <c r="E10" t="n">
-        <v>564967239</v>
+        <v>577053097</v>
       </c>
       <c r="F10" t="n">
-        <v>308574.9799569368</v>
+        <v>234714.0647243221</v>
       </c>
       <c r="G10" t="n">
-        <v>479519.1717792023</v>
+        <v>425822.1974996354</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>522643167</v>
+        <v>453589566</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75232559</v>
+        <v>76309196</v>
       </c>
       <c r="E11" t="n">
-        <v>86319779</v>
+        <v>87555083</v>
       </c>
       <c r="F11" t="n">
-        <v>2147.409744456429</v>
+        <v>5333.424873282127</v>
       </c>
       <c r="G11" t="n">
-        <v>8037.572403655061</v>
+        <v>2064.468025892748</v>
       </c>
       <c r="H11" t="n">
-        <v>0.65</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>2286164</v>
+        <v>2383953</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>193997026</v>
+        <v>200278304</v>
       </c>
       <c r="E12" t="n">
-        <v>837398858</v>
+        <v>864512344</v>
       </c>
       <c r="F12" t="n">
-        <v>381861.5835437886</v>
+        <v>388494.482223336</v>
       </c>
       <c r="G12" t="n">
-        <v>274046.7183334554</v>
+        <v>279294.7589800214</v>
       </c>
       <c r="H12" t="n">
         <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>79099620</v>
+        <v>78298712</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98667529</v>
+        <v>100680496</v>
       </c>
       <c r="E13" t="n">
-        <v>98667529</v>
+        <v>100680496</v>
       </c>
       <c r="F13" t="n">
-        <v>1490.219367836938</v>
+        <v>5622.959601321408</v>
       </c>
       <c r="G13" t="n">
-        <v>2568.654192951995</v>
+        <v>5103.700977715428</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I13" t="n">
-        <v>8154985</v>
+        <v>8890486</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10104859</v>
+        <v>10562525</v>
       </c>
       <c r="E14" t="n">
-        <v>25262146</v>
+        <v>26406311</v>
       </c>
       <c r="F14" t="n">
-        <v>11277.5144065348</v>
+        <v>12233.28047737477</v>
       </c>
       <c r="G14" t="n">
-        <v>12506.85418054407</v>
+        <v>16717.54456741748</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3210169</v>
+        <v>2097094</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10367355</v>
+        <v>10421134</v>
       </c>
       <c r="E15" t="n">
-        <v>15245000</v>
+        <v>15324081</v>
       </c>
       <c r="F15" t="n">
-        <v>2925.719993609655</v>
+        <v>4021.804902468005</v>
       </c>
       <c r="G15" t="n">
-        <v>4878.550892120637</v>
+        <v>3390.241209593468</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>725021</v>
+        <v>496725</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26885528</v>
+        <v>27225917</v>
       </c>
       <c r="E16" t="n">
-        <v>83712908</v>
+        <v>84772770</v>
       </c>
       <c r="F16" t="n">
-        <v>16385.64130632117</v>
+        <v>14370.2542419906</v>
       </c>
       <c r="G16" t="n">
-        <v>14555.65613832553</v>
+        <v>14169.67215218981</v>
       </c>
       <c r="H16" t="n">
         <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>11947737</v>
+        <v>11477943</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>244084649</v>
+        <v>252181486</v>
       </c>
       <c r="E17" t="n">
-        <v>2195936855</v>
+        <v>2268781024</v>
       </c>
       <c r="F17" t="n">
-        <v>6538.812331483109</v>
+        <v>6786.281810757706</v>
       </c>
       <c r="G17" t="n">
-        <v>6513.601767316251</v>
+        <v>7630.937565861364</v>
       </c>
       <c r="H17" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I17" t="n">
-        <v>37650168</v>
+        <v>31327879</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14561183</v>
+        <v>14818316</v>
       </c>
       <c r="E18" t="n">
-        <v>89250281</v>
+        <v>90826331</v>
       </c>
       <c r="F18" t="n">
-        <v>34938.78084472128</v>
+        <v>30440.56674574793</v>
       </c>
       <c r="G18" t="n">
-        <v>33113.39778775559</v>
+        <v>34899.576812916</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>12397188</v>
+        <v>11549260</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40641539</v>
+        <v>40659623</v>
       </c>
       <c r="E19" t="n">
-        <v>175079306</v>
+        <v>175157211</v>
       </c>
       <c r="F19" t="n">
-        <v>33292.5846846721</v>
+        <v>44623.98428596866</v>
       </c>
       <c r="G19" t="n">
-        <v>62479.15545425847</v>
+        <v>83112.54728684336</v>
       </c>
       <c r="H19" t="n">
         <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>14358505</v>
+        <v>13103491</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>262404787</v>
+        <v>266832284</v>
       </c>
       <c r="E20" t="n">
-        <v>262404787</v>
+        <v>266832284</v>
       </c>
       <c r="F20" t="n">
-        <v>60615.21461498946</v>
+        <v>56478.96563261204</v>
       </c>
       <c r="G20" t="n">
-        <v>101692.8300555898</v>
+        <v>95439.64252590452</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>91955410</v>
+        <v>92449805</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35709360</v>
+        <v>36916418</v>
       </c>
       <c r="E21" t="n">
-        <v>127201676</v>
+        <v>131501383</v>
       </c>
       <c r="F21" t="n">
-        <v>61934.71298355112</v>
+        <v>55294.47659786448</v>
       </c>
       <c r="G21" t="n">
-        <v>75826.18428732116</v>
+        <v>78225.7329834429</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>13991854</v>
+        <v>11892213</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35892136</v>
+        <v>36880295</v>
       </c>
       <c r="E22" t="n">
-        <v>232750950</v>
+        <v>239158896</v>
       </c>
       <c r="F22" t="n">
-        <v>24417.84020348449</v>
+        <v>28665.14636548554</v>
       </c>
       <c r="G22" t="n">
-        <v>79937.03169635606</v>
+        <v>80132.76477523563</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>25883845</v>
+        <v>22201702</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125742780</v>
+        <v>124282803</v>
       </c>
       <c r="E23" t="n">
-        <v>2082403421</v>
+        <v>2058225004</v>
       </c>
       <c r="F23" t="n">
-        <v>343177.8564570848</v>
+        <v>351079.951209709</v>
       </c>
       <c r="G23" t="n">
-        <v>340001.7906188301</v>
+        <v>326777.9300818567</v>
       </c>
       <c r="H23" t="n">
         <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>12532967</v>
+        <v>7731445</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5152484</v>
+        <v>5285728</v>
       </c>
       <c r="E24" t="n">
-        <v>26507966</v>
+        <v>27193462</v>
       </c>
       <c r="F24" t="n">
-        <v>1013.48506189401</v>
+        <v>5797.481107408817</v>
       </c>
       <c r="G24" t="n">
-        <v>131.5923349973357</v>
+        <v>2003.827796474211</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>849328</v>
+        <v>768499</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16099212</v>
+        <v>17225820</v>
       </c>
       <c r="E25" t="n">
-        <v>16099212</v>
+        <v>17225820</v>
       </c>
       <c r="F25" t="n">
-        <v>2336.596976167762</v>
+        <v>4396.873367531698</v>
       </c>
       <c r="G25" t="n">
-        <v>12035.85677527855</v>
+        <v>17135.66933301283</v>
       </c>
       <c r="H25" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3230423</v>
+        <v>2798100</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>262404134</v>
+        <v>265569386</v>
       </c>
       <c r="E27" t="n">
-        <v>473964847</v>
+        <v>479682051</v>
       </c>
       <c r="F27" t="n">
-        <v>109666.345192542</v>
+        <v>103027.7345230485</v>
       </c>
       <c r="G27" t="n">
-        <v>111231.828705978</v>
+        <v>103714.1521205022</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>15168662</v>
+        <v>13560032</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33271976</v>
+        <v>34642897</v>
       </c>
       <c r="E28" t="n">
-        <v>33271976</v>
+        <v>34642897</v>
       </c>
       <c r="F28" t="n">
-        <v>22577.0573388013</v>
+        <v>25157.96385498736</v>
       </c>
       <c r="G28" t="n">
-        <v>45221.48588636361</v>
+        <v>45586.14350581037</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I28" t="n">
-        <v>12205910</v>
+        <v>15194553</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>494870431</v>
+        <v>509779607</v>
       </c>
       <c r="E29" t="n">
-        <v>1803788489</v>
+        <v>1858132007</v>
       </c>
       <c r="F29" t="n">
-        <v>142670.3811267252</v>
+        <v>164266.5569057848</v>
       </c>
       <c r="G29" t="n">
-        <v>204257.3436933316</v>
+        <v>90491.81314861288</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>48613423</v>
+        <v>39696414</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>110892571</v>
+        <v>112780306</v>
       </c>
       <c r="E30" t="n">
-        <v>425401751</v>
+        <v>432643405</v>
       </c>
       <c r="F30" t="n">
-        <v>141481.8720091134</v>
+        <v>146265.3658143413</v>
       </c>
       <c r="G30" t="n">
-        <v>191968.0826672006</v>
+        <v>182823.4161379676</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>31006399</v>
+        <v>26289410</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27839977</v>
+        <v>27881017</v>
       </c>
       <c r="F31" t="n">
-        <v>3304.606585749302</v>
+        <v>8376.887338756234</v>
       </c>
       <c r="G31" t="n">
-        <v>29416.1468806224</v>
+        <v>11640.68093479141</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4365383</v>
+        <v>3985048</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119930808</v>
+        <v>119783533</v>
       </c>
       <c r="E32" t="n">
-        <v>436815648</v>
+        <v>436253201</v>
       </c>
       <c r="F32" t="n">
-        <v>64949.75818181846</v>
+        <v>24841.01824753617</v>
       </c>
       <c r="G32" t="n">
-        <v>23862.01807522424</v>
+        <v>45603.12917705178</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>166755</v>
+        <v>165844</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>315003969</v>
+        <v>321556919</v>
       </c>
       <c r="E33" t="n">
-        <v>1089870762</v>
+        <v>1111982619</v>
       </c>
       <c r="F33" t="n">
-        <v>186091.4104771587</v>
+        <v>183353.6971911491</v>
       </c>
       <c r="G33" t="n">
-        <v>230437.6382241077</v>
+        <v>231532.254792141</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>34044154</v>
+        <v>31073710</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87724183</v>
+        <v>94362246</v>
       </c>
       <c r="E34" t="n">
-        <v>128856248</v>
+        <v>138606762</v>
       </c>
       <c r="F34" t="n">
-        <v>49753.36271955368</v>
+        <v>12554.62736919677</v>
       </c>
       <c r="G34" t="n">
-        <v>61927.16484427054</v>
+        <v>16019.0281728443</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I34" t="n">
-        <v>7738572</v>
+        <v>6293839</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3413808</v>
+        <v>3439569</v>
       </c>
       <c r="E35" t="n">
-        <v>13655231</v>
+        <v>13758278</v>
       </c>
       <c r="F35" t="n">
-        <v>32665.25822957003</v>
+        <v>36553.83868290784</v>
       </c>
       <c r="G35" t="n">
-        <v>17610.0544595277</v>
+        <v>43660.34371840583</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>10382454</v>
+        <v>10780573</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>185302468</v>
+        <v>190636291</v>
       </c>
       <c r="E36" t="n">
-        <v>531862774</v>
+        <v>547172134</v>
       </c>
       <c r="F36" t="n">
-        <v>187741.4895813688</v>
+        <v>206894.3327339497</v>
       </c>
       <c r="G36" t="n">
-        <v>226585.7781059882</v>
+        <v>226609.6587733701</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I36" t="n">
-        <v>31424257</v>
+        <v>18149691</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>114281915</v>
+        <v>122716981</v>
       </c>
       <c r="E37" t="n">
-        <v>298558320</v>
+        <v>320594695</v>
       </c>
       <c r="F37" t="n">
-        <v>43044.10570330978</v>
+        <v>47019.45338008427</v>
       </c>
       <c r="G37" t="n">
-        <v>41709.85492656173</v>
+        <v>46096.39230336054</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>12583582</v>
+        <v>9921695</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>308739475</v>
+        <v>320877541</v>
       </c>
       <c r="E38" t="n">
-        <v>1764225570</v>
+        <v>1833585946</v>
       </c>
       <c r="F38" t="n">
-        <v>39191.05983176071</v>
+        <v>43900.22774722979</v>
       </c>
       <c r="G38" t="n">
-        <v>76881.60956958238</v>
+        <v>82344.33853562521</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I38" t="n">
-        <v>40227924</v>
+        <v>37367914</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>243110920</v>
+        <v>240221092</v>
       </c>
       <c r="E2" t="n">
-        <v>1524514408</v>
+        <v>1506392701</v>
       </c>
       <c r="F2" t="n">
-        <v>184460.0069182334</v>
+        <v>196385.7410668756</v>
       </c>
       <c r="G2" t="n">
-        <v>224256.3434340871</v>
+        <v>212575.9273248443</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>17377501</v>
+        <v>17998577</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>123184361</v>
+        <v>123162292</v>
       </c>
       <c r="E3" t="n">
-        <v>136391709</v>
+        <v>136367275</v>
       </c>
       <c r="F3" t="n">
-        <v>40884.85963567573</v>
+        <v>37578.4289931894</v>
       </c>
       <c r="G3" t="n">
-        <v>170894.012630077</v>
+        <v>175767.0476723793</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>28146820</v>
+        <v>28445838</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>462196098</v>
+        <v>463226633</v>
       </c>
       <c r="E4" t="n">
-        <v>578138624</v>
+        <v>579427670</v>
       </c>
       <c r="F4" t="n">
-        <v>94665.73162758682</v>
+        <v>95938.92975520283</v>
       </c>
       <c r="G4" t="n">
-        <v>124370.2310677629</v>
+        <v>149537.5611192654</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>77241865</v>
+        <v>74038835</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115744327</v>
+        <v>115292981</v>
       </c>
       <c r="E5" t="n">
-        <v>115744327</v>
+        <v>115292981</v>
       </c>
       <c r="F5" t="n">
-        <v>63166.955459067</v>
+        <v>71051.9233526335</v>
       </c>
       <c r="G5" t="n">
-        <v>106845.5774516727</v>
+        <v>100824.7099949046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>61386076</v>
+        <v>60436637</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>195509866</v>
+        <v>195503947</v>
       </c>
       <c r="E6" t="n">
-        <v>195509866</v>
+        <v>195503947</v>
       </c>
       <c r="F6" t="n">
-        <v>77971.42288050499</v>
+        <v>70093.51343881678</v>
       </c>
       <c r="G6" t="n">
-        <v>104229.2350125507</v>
+        <v>123369.5616266837</v>
       </c>
       <c r="H6" t="n">
         <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>16039255</v>
+        <v>16361082</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>86466499</v>
+        <v>86482067</v>
       </c>
       <c r="E7" t="n">
-        <v>107813588</v>
+        <v>107833000</v>
       </c>
       <c r="F7" t="n">
-        <v>17298.87950304031</v>
+        <v>17013.02330873317</v>
       </c>
       <c r="G7" t="n">
-        <v>40037.26746085318</v>
+        <v>38607.3777332036</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>8242773</v>
+        <v>8304598</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72970470</v>
+        <v>70555593</v>
       </c>
       <c r="E8" t="n">
-        <v>152137570</v>
+        <v>147102744</v>
       </c>
       <c r="F8" t="n">
-        <v>47313.42833945865</v>
+        <v>47076.42684293103</v>
       </c>
       <c r="G8" t="n">
-        <v>64365.40212761123</v>
+        <v>53032.80901340159</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>24381882</v>
+        <v>23994263</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>147940351</v>
+        <v>145911166</v>
       </c>
       <c r="E9" t="n">
-        <v>147945863</v>
+        <v>145920293</v>
       </c>
       <c r="F9" t="n">
-        <v>10198.21535482254</v>
+        <v>8157.409804904434</v>
       </c>
       <c r="G9" t="n">
-        <v>16756.91381781441</v>
+        <v>16370.01209255267</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I9" t="n">
-        <v>5654015</v>
+        <v>5766643</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>577053097</v>
+        <v>590085247</v>
       </c>
       <c r="E10" t="n">
-        <v>577053097</v>
+        <v>590085247</v>
       </c>
       <c r="F10" t="n">
-        <v>234714.0647243221</v>
+        <v>242882.9328784324</v>
       </c>
       <c r="G10" t="n">
-        <v>425822.1974996354</v>
+        <v>449567.8925281429</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>453589566</v>
+        <v>436724666</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76309196</v>
+        <v>76563705</v>
       </c>
       <c r="E11" t="n">
-        <v>87555083</v>
+        <v>87847099</v>
       </c>
       <c r="F11" t="n">
-        <v>5333.424873282127</v>
+        <v>5959.027160227214</v>
       </c>
       <c r="G11" t="n">
-        <v>2064.468025892748</v>
+        <v>3125.637977397992</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2383953</v>
+        <v>2536619</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>200278304</v>
+        <v>202630687</v>
       </c>
       <c r="E12" t="n">
-        <v>864512344</v>
+        <v>874666533</v>
       </c>
       <c r="F12" t="n">
-        <v>388494.482223336</v>
+        <v>377589.7905281702</v>
       </c>
       <c r="G12" t="n">
-        <v>279294.7589800214</v>
+        <v>287341.8321029354</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>78298712</v>
+        <v>73737627</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100680496</v>
+        <v>100525833</v>
       </c>
       <c r="E13" t="n">
-        <v>100680496</v>
+        <v>100525833</v>
       </c>
       <c r="F13" t="n">
-        <v>5622.959601321408</v>
+        <v>5867.694395754307</v>
       </c>
       <c r="G13" t="n">
-        <v>5103.700977715428</v>
+        <v>4132.859730061813</v>
       </c>
       <c r="H13" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="I13" t="n">
-        <v>8890486</v>
+        <v>8952249</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10562525</v>
+        <v>10655942</v>
       </c>
       <c r="E14" t="n">
-        <v>26406311</v>
+        <v>26639854</v>
       </c>
       <c r="F14" t="n">
-        <v>12233.28047737477</v>
+        <v>12815.20949124639</v>
       </c>
       <c r="G14" t="n">
-        <v>16717.54456741748</v>
+        <v>15786.50917440177</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>2097094</v>
+        <v>2125780</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10421134</v>
+        <v>10494468</v>
       </c>
       <c r="E15" t="n">
-        <v>15324081</v>
+        <v>15431918</v>
       </c>
       <c r="F15" t="n">
-        <v>4021.804902468005</v>
+        <v>4604.04819716627</v>
       </c>
       <c r="G15" t="n">
-        <v>3390.241209593468</v>
+        <v>3351.136688260004</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>496725</v>
+        <v>482648</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27225917</v>
+        <v>28477369</v>
       </c>
       <c r="E16" t="n">
-        <v>84772770</v>
+        <v>88669389</v>
       </c>
       <c r="F16" t="n">
-        <v>14370.2542419906</v>
+        <v>7771.290848169813</v>
       </c>
       <c r="G16" t="n">
-        <v>14169.67215218981</v>
+        <v>13392.64310727028</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>11477943</v>
+        <v>11406206</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252181486</v>
+        <v>253560906</v>
       </c>
       <c r="E17" t="n">
-        <v>2268781024</v>
+        <v>2281191142</v>
       </c>
       <c r="F17" t="n">
-        <v>6786.281810757706</v>
+        <v>944795.6372763722</v>
       </c>
       <c r="G17" t="n">
-        <v>7630.937565861364</v>
+        <v>1028773.80337556</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>31327879</v>
+        <v>33238696</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14818316</v>
+        <v>14614766</v>
       </c>
       <c r="E18" t="n">
-        <v>90826331</v>
+        <v>89578707</v>
       </c>
       <c r="F18" t="n">
-        <v>30440.56674574793</v>
+        <v>32490.70753485303</v>
       </c>
       <c r="G18" t="n">
-        <v>34899.576812916</v>
+        <v>34108.38010935203</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>11549260</v>
+        <v>11550954</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40659623</v>
+        <v>40835208</v>
       </c>
       <c r="E19" t="n">
-        <v>175157211</v>
+        <v>175913611</v>
       </c>
       <c r="F19" t="n">
-        <v>44623.98428596866</v>
+        <v>37902.98155200639</v>
       </c>
       <c r="G19" t="n">
-        <v>83112.54728684336</v>
+        <v>66642.11083624518</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>13103491</v>
+        <v>12652872</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>266832284</v>
+        <v>269859407</v>
       </c>
       <c r="E20" t="n">
-        <v>266832284</v>
+        <v>269859407</v>
       </c>
       <c r="F20" t="n">
-        <v>56478.96563261204</v>
+        <v>48676.08854953929</v>
       </c>
       <c r="G20" t="n">
-        <v>95439.64252590452</v>
+        <v>105803.3821394112</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>92449805</v>
+        <v>90504105</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36916418</v>
+        <v>39176811</v>
       </c>
       <c r="E21" t="n">
-        <v>131501383</v>
+        <v>139553218</v>
       </c>
       <c r="F21" t="n">
-        <v>55294.47659786448</v>
+        <v>55339.71852474473</v>
       </c>
       <c r="G21" t="n">
-        <v>78225.7329834429</v>
+        <v>78447.93491656709</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>11892213</v>
+        <v>13705826</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36880295</v>
+        <v>37151844</v>
       </c>
       <c r="E22" t="n">
-        <v>239158896</v>
+        <v>240919819</v>
       </c>
       <c r="F22" t="n">
-        <v>28665.14636548554</v>
+        <v>22547.75129207884</v>
       </c>
       <c r="G22" t="n">
-        <v>80132.76477523563</v>
+        <v>84625.06774421605</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>22201702</v>
+        <v>21576731</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124282803</v>
+        <v>123960603</v>
       </c>
       <c r="E23" t="n">
-        <v>2058225004</v>
+        <v>2052889115</v>
       </c>
       <c r="F23" t="n">
-        <v>351079.951209709</v>
+        <v>361115.9997411985</v>
       </c>
       <c r="G23" t="n">
-        <v>326777.9300818567</v>
+        <v>336130.710295685</v>
       </c>
       <c r="H23" t="n">
         <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>7731445</v>
+        <v>8027821</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5285728</v>
+        <v>5768293</v>
       </c>
       <c r="E24" t="n">
-        <v>27193462</v>
+        <v>27136046</v>
       </c>
       <c r="F24" t="n">
-        <v>5797.481107408817</v>
+        <v>202.010884461724</v>
       </c>
       <c r="G24" t="n">
-        <v>2003.827796474211</v>
+        <v>1493.290881625376</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>768499</v>
+        <v>772907</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17225820</v>
+        <v>17376919</v>
       </c>
       <c r="E25" t="n">
-        <v>17225820</v>
+        <v>17402765</v>
       </c>
       <c r="F25" t="n">
-        <v>4396.873367531698</v>
+        <v>3610.995086898803</v>
       </c>
       <c r="G25" t="n">
-        <v>17135.66933301283</v>
+        <v>19203.36595374237</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I25" t="n">
-        <v>2798100</v>
+        <v>3063710</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>265569386</v>
+        <v>267407963</v>
       </c>
       <c r="E27" t="n">
-        <v>479682051</v>
+        <v>483002962</v>
       </c>
       <c r="F27" t="n">
-        <v>103027.7345230485</v>
+        <v>100426.0032722489</v>
       </c>
       <c r="G27" t="n">
-        <v>103714.1521205022</v>
+        <v>98957.02842589331</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>13560032</v>
+        <v>13181557</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34642897</v>
+        <v>34699021</v>
       </c>
       <c r="E28" t="n">
-        <v>34642897</v>
+        <v>34699021</v>
       </c>
       <c r="F28" t="n">
-        <v>25157.96385498736</v>
+        <v>27027.00907880914</v>
       </c>
       <c r="G28" t="n">
-        <v>45586.14350581037</v>
+        <v>48985.48592129036</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>15194553</v>
+        <v>14614371</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>509779607</v>
+        <v>526900520</v>
       </c>
       <c r="E29" t="n">
-        <v>1858132007</v>
+        <v>1920537245</v>
       </c>
       <c r="F29" t="n">
-        <v>164266.5569057848</v>
+        <v>147981.8055327086</v>
       </c>
       <c r="G29" t="n">
-        <v>90491.81314861288</v>
+        <v>188077.9267286068</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>39696414</v>
+        <v>41401587</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>112780306</v>
+        <v>108734461</v>
       </c>
       <c r="E30" t="n">
-        <v>432643405</v>
+        <v>417122895</v>
       </c>
       <c r="F30" t="n">
-        <v>146265.3658143413</v>
+        <v>17336.13980538094</v>
       </c>
       <c r="G30" t="n">
-        <v>182823.4161379676</v>
+        <v>52376.11317498656</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>26289410</v>
+        <v>25819625</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27881017</v>
+        <v>27955424</v>
       </c>
       <c r="F31" t="n">
-        <v>8376.887338756234</v>
+        <v>13987.8766462337</v>
       </c>
       <c r="G31" t="n">
-        <v>11640.68093479141</v>
+        <v>10281.26177255775</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>3985048</v>
+        <v>4195158</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119783533</v>
+        <v>119720028</v>
       </c>
       <c r="E32" t="n">
-        <v>436253201</v>
+        <v>436013673</v>
       </c>
       <c r="F32" t="n">
-        <v>24841.01824753617</v>
+        <v>28305.067892433</v>
       </c>
       <c r="G32" t="n">
-        <v>45603.12917705178</v>
+        <v>45976.57431303822</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>165844</v>
+        <v>203269</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>321556919</v>
+        <v>320074775</v>
       </c>
       <c r="E33" t="n">
-        <v>1111982619</v>
+        <v>1106857187</v>
       </c>
       <c r="F33" t="n">
-        <v>183353.6971911491</v>
+        <v>206056.9626072832</v>
       </c>
       <c r="G33" t="n">
-        <v>231532.254792141</v>
+        <v>233092.1335794501</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I33" t="n">
-        <v>31073710</v>
+        <v>32024899</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>94362246</v>
+        <v>92363962</v>
       </c>
       <c r="E34" t="n">
-        <v>138606762</v>
+        <v>135671523</v>
       </c>
       <c r="F34" t="n">
-        <v>12554.62736919677</v>
+        <v>7032.366956505154</v>
       </c>
       <c r="G34" t="n">
-        <v>16019.0281728443</v>
+        <v>18710.0579929075</v>
       </c>
       <c r="H34" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I34" t="n">
-        <v>6293839</v>
+        <v>6255757</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3439569</v>
+        <v>3581208</v>
       </c>
       <c r="E35" t="n">
-        <v>13758278</v>
+        <v>14324831</v>
       </c>
       <c r="F35" t="n">
-        <v>36553.83868290784</v>
+        <v>20202.27504456321</v>
       </c>
       <c r="G35" t="n">
-        <v>43660.34371840583</v>
+        <v>64307.32951345533</v>
       </c>
       <c r="H35" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="I35" t="n">
-        <v>10780573</v>
+        <v>9573148</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>190636291</v>
+        <v>190055669</v>
       </c>
       <c r="E36" t="n">
-        <v>547172134</v>
+        <v>545505609</v>
       </c>
       <c r="F36" t="n">
-        <v>206894.3327339497</v>
+        <v>196627.8755843133</v>
       </c>
       <c r="G36" t="n">
-        <v>226609.6587733701</v>
+        <v>218105.5792810151</v>
       </c>
       <c r="H36" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>18149691</v>
+        <v>17883769</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>122716981</v>
+        <v>121349632</v>
       </c>
       <c r="E37" t="n">
-        <v>320594695</v>
+        <v>317022532</v>
       </c>
       <c r="F37" t="n">
-        <v>47019.45338008427</v>
+        <v>37137.68339554147</v>
       </c>
       <c r="G37" t="n">
-        <v>46096.39230336054</v>
+        <v>39139.50088370304</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>9921695</v>
+        <v>9634987</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>320877541</v>
+        <v>321736869</v>
       </c>
       <c r="E38" t="n">
-        <v>1833585946</v>
+        <v>1838496394</v>
       </c>
       <c r="F38" t="n">
-        <v>43900.22774722979</v>
+        <v>38723.31716074705</v>
       </c>
       <c r="G38" t="n">
-        <v>82344.33853562521</v>
+        <v>79456.77758307944</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>37367914</v>
+        <v>37167083</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>240221092</v>
+        <v>231317877</v>
       </c>
       <c r="E2" t="n">
-        <v>1506392701</v>
+        <v>1450561894</v>
       </c>
       <c r="F2" t="n">
-        <v>196385.7410668756</v>
+        <v>174651.2694640676</v>
       </c>
       <c r="G2" t="n">
-        <v>212575.9273248443</v>
+        <v>215757.5418140912</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>17998577</v>
+        <v>17144991</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>123162292</v>
+        <v>121841201</v>
       </c>
       <c r="E3" t="n">
-        <v>136367275</v>
+        <v>134904541</v>
       </c>
       <c r="F3" t="n">
-        <v>37578.4289931894</v>
+        <v>43055.45356186233</v>
       </c>
       <c r="G3" t="n">
-        <v>175767.0476723793</v>
+        <v>170852.3146671909</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>28445838</v>
+        <v>25243962</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>463226633</v>
+        <v>469203973</v>
       </c>
       <c r="E4" t="n">
-        <v>579427670</v>
+        <v>586904434</v>
       </c>
       <c r="F4" t="n">
-        <v>95938.92975520283</v>
+        <v>139800.5412582501</v>
       </c>
       <c r="G4" t="n">
-        <v>149537.5611192654</v>
+        <v>148530.7159510987</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>74038835</v>
+        <v>67393643</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115292981</v>
+        <v>114989476</v>
       </c>
       <c r="E5" t="n">
-        <v>115292981</v>
+        <v>114989476</v>
       </c>
       <c r="F5" t="n">
-        <v>71051.9233526335</v>
+        <v>67149.57730172407</v>
       </c>
       <c r="G5" t="n">
-        <v>100824.7099949046</v>
+        <v>106302.4797050683</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>60436637</v>
+        <v>52789812</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>195503947</v>
+        <v>192563495</v>
       </c>
       <c r="E6" t="n">
-        <v>195503947</v>
+        <v>192563495</v>
       </c>
       <c r="F6" t="n">
-        <v>70093.51343881678</v>
+        <v>79785.03434231192</v>
       </c>
       <c r="G6" t="n">
-        <v>123369.5616266837</v>
+        <v>106734.1891504149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>16361082</v>
+        <v>15927552</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>86482067</v>
+        <v>85145359</v>
       </c>
       <c r="E7" t="n">
-        <v>107833000</v>
+        <v>106166282</v>
       </c>
       <c r="F7" t="n">
-        <v>17013.02330873317</v>
+        <v>19411.9445251182</v>
       </c>
       <c r="G7" t="n">
-        <v>38607.3777332036</v>
+        <v>36538.55065606171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>8304598</v>
+        <v>8529879</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70555593</v>
+        <v>69196614</v>
       </c>
       <c r="E8" t="n">
-        <v>147102744</v>
+        <v>144269383</v>
       </c>
       <c r="F8" t="n">
-        <v>47076.42684293103</v>
+        <v>45645.39756744054</v>
       </c>
       <c r="G8" t="n">
-        <v>53032.80901340159</v>
+        <v>51541.100461056</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>23994263</v>
+        <v>18615607</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145911166</v>
+        <v>149628248</v>
       </c>
       <c r="E9" t="n">
-        <v>145920293</v>
+        <v>149642677</v>
       </c>
       <c r="F9" t="n">
-        <v>8157.409804904434</v>
+        <v>8731.55925837804</v>
       </c>
       <c r="G9" t="n">
-        <v>16370.01209255267</v>
+        <v>15006.74668929272</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>5766643</v>
+        <v>5570496</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>590085247</v>
+        <v>584063379</v>
       </c>
       <c r="E10" t="n">
-        <v>590085247</v>
+        <v>584063379</v>
       </c>
       <c r="F10" t="n">
-        <v>242882.9328784324</v>
+        <v>371286.5248386918</v>
       </c>
       <c r="G10" t="n">
-        <v>449567.8925281429</v>
+        <v>469542.2726905918</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>436724666</v>
+        <v>355170954</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76563705</v>
+        <v>73583695</v>
       </c>
       <c r="E11" t="n">
-        <v>87847099</v>
+        <v>84427917</v>
       </c>
       <c r="F11" t="n">
-        <v>5959.027160227214</v>
+        <v>3080.08198648994</v>
       </c>
       <c r="G11" t="n">
-        <v>3125.637977397992</v>
+        <v>7657.567595774729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>2536619</v>
+        <v>2340452</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>202630687</v>
+        <v>198714422</v>
       </c>
       <c r="E12" t="n">
-        <v>874666533</v>
+        <v>857761761</v>
       </c>
       <c r="F12" t="n">
-        <v>377589.7905281702</v>
+        <v>396033.1708639373</v>
       </c>
       <c r="G12" t="n">
-        <v>287341.8321029354</v>
+        <v>353501.2834244238</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>73737627</v>
+        <v>71950867</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100525833</v>
+        <v>100029228</v>
       </c>
       <c r="E13" t="n">
-        <v>100525833</v>
+        <v>100029228</v>
       </c>
       <c r="F13" t="n">
-        <v>5867.694395754307</v>
+        <v>5833.742586856573</v>
       </c>
       <c r="G13" t="n">
-        <v>4132.859730061813</v>
+        <v>3855.407714833469</v>
       </c>
       <c r="H13" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="I13" t="n">
-        <v>8952249</v>
+        <v>7346363</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10655942</v>
+        <v>11185512</v>
       </c>
       <c r="E14" t="n">
-        <v>26639854</v>
+        <v>27963780</v>
       </c>
       <c r="F14" t="n">
-        <v>12815.20949124639</v>
+        <v>8884.006722783568</v>
       </c>
       <c r="G14" t="n">
-        <v>15786.50917440177</v>
+        <v>21732.30626003298</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>2125780</v>
+        <v>2126682</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10494468</v>
+        <v>10517360</v>
       </c>
       <c r="E15" t="n">
-        <v>15431918</v>
+        <v>15465579</v>
       </c>
       <c r="F15" t="n">
-        <v>4604.04819716627</v>
+        <v>5101.778712678682</v>
       </c>
       <c r="G15" t="n">
-        <v>3351.136688260004</v>
+        <v>2825.111166119227</v>
       </c>
       <c r="H15" t="n">
         <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>482648</v>
+        <v>343762</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28477369</v>
+        <v>28631507</v>
       </c>
       <c r="E16" t="n">
-        <v>88669389</v>
+        <v>89149325</v>
       </c>
       <c r="F16" t="n">
-        <v>7771.290848169813</v>
+        <v>6737.867744319915</v>
       </c>
       <c r="G16" t="n">
-        <v>13392.64310727028</v>
+        <v>18178.40044180659</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>11406206</v>
+        <v>11811305</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253560906</v>
+        <v>248392831</v>
       </c>
       <c r="E17" t="n">
-        <v>2281191142</v>
+        <v>2234695927</v>
       </c>
       <c r="F17" t="n">
-        <v>944795.6372763722</v>
+        <v>47980.54951194867</v>
       </c>
       <c r="G17" t="n">
-        <v>1028773.80337556</v>
+        <v>94571.63406884445</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>33238696</v>
+        <v>32168725</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14614766</v>
+        <v>14405838</v>
       </c>
       <c r="E18" t="n">
-        <v>89578707</v>
+        <v>88298117</v>
       </c>
       <c r="F18" t="n">
-        <v>32490.70753485303</v>
+        <v>35613.77004735362</v>
       </c>
       <c r="G18" t="n">
-        <v>34108.38010935203</v>
+        <v>38511.84026026272</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11550954</v>
+        <v>10764215</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40835208</v>
+        <v>41629121</v>
       </c>
       <c r="E19" t="n">
-        <v>175913611</v>
+        <v>179333702</v>
       </c>
       <c r="F19" t="n">
-        <v>37902.98155200639</v>
+        <v>37047.33850628685</v>
       </c>
       <c r="G19" t="n">
-        <v>66642.11083624518</v>
+        <v>66920.65628762332</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>12652872</v>
+        <v>12637175</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>269859407</v>
+        <v>276005868</v>
       </c>
       <c r="E20" t="n">
-        <v>269859407</v>
+        <v>276005868</v>
       </c>
       <c r="F20" t="n">
-        <v>48676.08854953929</v>
+        <v>54006.95965160822</v>
       </c>
       <c r="G20" t="n">
-        <v>105803.3821394112</v>
+        <v>105697.7945866929</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>90504105</v>
+        <v>85894412</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39176811</v>
+        <v>37276584</v>
       </c>
       <c r="E21" t="n">
-        <v>139553218</v>
+        <v>132784347</v>
       </c>
       <c r="F21" t="n">
-        <v>55339.71852474473</v>
+        <v>60189.73782968709</v>
       </c>
       <c r="G21" t="n">
-        <v>78447.93491656709</v>
+        <v>81211.38338774514</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>13705826</v>
+        <v>12869765</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37151844</v>
+        <v>36970136</v>
       </c>
       <c r="E22" t="n">
-        <v>240919819</v>
+        <v>239741490</v>
       </c>
       <c r="F22" t="n">
-        <v>22547.75129207884</v>
+        <v>11897.24752872295</v>
       </c>
       <c r="G22" t="n">
-        <v>84625.06774421605</v>
+        <v>4630.276614934992</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>21576731</v>
+        <v>18226787</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123960603</v>
+        <v>123331562</v>
       </c>
       <c r="E23" t="n">
-        <v>2052889115</v>
+        <v>2042471682</v>
       </c>
       <c r="F23" t="n">
-        <v>361115.9997411985</v>
+        <v>368792.272122964</v>
       </c>
       <c r="G23" t="n">
-        <v>336130.710295685</v>
+        <v>330468.3487966167</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>8027821</v>
+        <v>6561771</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5768293</v>
+        <v>5713960</v>
       </c>
       <c r="E24" t="n">
-        <v>27136046</v>
+        <v>26880449</v>
       </c>
       <c r="F24" t="n">
-        <v>202.010884461724</v>
+        <v>1548.480804616873</v>
       </c>
       <c r="G24" t="n">
-        <v>1493.290881625376</v>
+        <v>2328.073597999935</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>772907</v>
+        <v>830292</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17376919</v>
+        <v>16451795</v>
       </c>
       <c r="E25" t="n">
-        <v>17402765</v>
+        <v>16451722</v>
       </c>
       <c r="F25" t="n">
-        <v>3610.995086898803</v>
+        <v>5501.730882256152</v>
       </c>
       <c r="G25" t="n">
-        <v>19203.36595374237</v>
+        <v>15207.66388190741</v>
       </c>
       <c r="H25" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I25" t="n">
-        <v>3063710</v>
+        <v>2446340</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>267407963</v>
+        <v>266628633</v>
       </c>
       <c r="E27" t="n">
-        <v>483002962</v>
+        <v>481595306</v>
       </c>
       <c r="F27" t="n">
-        <v>100426.0032722489</v>
+        <v>104794.5346950249</v>
       </c>
       <c r="G27" t="n">
-        <v>98957.02842589331</v>
+        <v>104261.9147293471</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>13181557</v>
+        <v>11620056</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34699021</v>
+        <v>34064664</v>
       </c>
       <c r="E28" t="n">
-        <v>34699021</v>
+        <v>34064664</v>
       </c>
       <c r="F28" t="n">
-        <v>27027.00907880914</v>
+        <v>32600.64586272367</v>
       </c>
       <c r="G28" t="n">
-        <v>48985.48592129036</v>
+        <v>38703.49716417015</v>
       </c>
       <c r="H28" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>14614371</v>
+        <v>12131682</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>526900520</v>
+        <v>526712673</v>
       </c>
       <c r="E29" t="n">
-        <v>1920537245</v>
+        <v>1919852546</v>
       </c>
       <c r="F29" t="n">
-        <v>147981.8055327086</v>
+        <v>146308.9693010013</v>
       </c>
       <c r="G29" t="n">
-        <v>188077.9267286068</v>
+        <v>189835.5007875269</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>41401587</v>
+        <v>36038200</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>108734461</v>
+        <v>109883097</v>
       </c>
       <c r="E30" t="n">
-        <v>417122895</v>
+        <v>421529245</v>
       </c>
       <c r="F30" t="n">
-        <v>17336.13980538094</v>
+        <v>148598.7132744683</v>
       </c>
       <c r="G30" t="n">
-        <v>52376.11317498656</v>
+        <v>181662.8420235229</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>25819625</v>
+        <v>29584829</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27955424</v>
+        <v>28172985</v>
       </c>
       <c r="F31" t="n">
-        <v>13987.8766462337</v>
+        <v>6406.193290618525</v>
       </c>
       <c r="G31" t="n">
-        <v>10281.26177255775</v>
+        <v>13385.23926782978</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>4195158</v>
+        <v>3765633</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119720028</v>
+        <v>119218743</v>
       </c>
       <c r="E32" t="n">
-        <v>436013673</v>
+        <v>434174614</v>
       </c>
       <c r="F32" t="n">
-        <v>28305.067892433</v>
+        <v>28491.82697393766</v>
       </c>
       <c r="G32" t="n">
-        <v>45976.57431303822</v>
+        <v>56253.46142758986</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>203269</v>
+        <v>164204</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>320074775</v>
+        <v>314751485</v>
       </c>
       <c r="E33" t="n">
-        <v>1106857187</v>
+        <v>1088448607</v>
       </c>
       <c r="F33" t="n">
-        <v>206056.9626072832</v>
+        <v>191025.1558784632</v>
       </c>
       <c r="G33" t="n">
-        <v>233092.1335794501</v>
+        <v>228922.8529370844</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>32024899</v>
+        <v>27041212</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>92363962</v>
+        <v>90750657</v>
       </c>
       <c r="E34" t="n">
-        <v>135671523</v>
+        <v>133301772</v>
       </c>
       <c r="F34" t="n">
-        <v>7032.366956505154</v>
+        <v>13263.90637707957</v>
       </c>
       <c r="G34" t="n">
-        <v>18710.0579929075</v>
+        <v>20215.69936092805</v>
       </c>
       <c r="H34" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I34" t="n">
-        <v>6255757</v>
+        <v>5649973</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3581208</v>
+        <v>3226723</v>
       </c>
       <c r="E35" t="n">
-        <v>14324831</v>
+        <v>12906894</v>
       </c>
       <c r="F35" t="n">
-        <v>20202.27504456321</v>
+        <v>47547.12670387855</v>
       </c>
       <c r="G35" t="n">
-        <v>64307.32951345533</v>
+        <v>52909.17361735525</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="I35" t="n">
-        <v>9573148</v>
+        <v>7261784</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>190055669</v>
+        <v>186884638</v>
       </c>
       <c r="E36" t="n">
-        <v>545505609</v>
+        <v>536403985</v>
       </c>
       <c r="F36" t="n">
-        <v>196627.8755843133</v>
+        <v>197530.2290493183</v>
       </c>
       <c r="G36" t="n">
-        <v>218105.5792810151</v>
+        <v>235561.7561206286</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>17883769</v>
+        <v>13340787</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>121349632</v>
+        <v>121599220</v>
       </c>
       <c r="E37" t="n">
-        <v>317022532</v>
+        <v>317674575</v>
       </c>
       <c r="F37" t="n">
-        <v>37137.68339554147</v>
+        <v>39043.18150751464</v>
       </c>
       <c r="G37" t="n">
-        <v>39139.50088370304</v>
+        <v>39620.40391616063</v>
       </c>
       <c r="H37" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>9634987</v>
+        <v>8338029</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>321736869</v>
+        <v>317471491</v>
       </c>
       <c r="E38" t="n">
-        <v>1838496394</v>
+        <v>1814122807</v>
       </c>
       <c r="F38" t="n">
-        <v>38723.31716074705</v>
+        <v>45376.11747199667</v>
       </c>
       <c r="G38" t="n">
-        <v>79456.77758307944</v>
+        <v>75336.68427316171</v>
       </c>
       <c r="H38" t="n">
         <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>37167083</v>
+        <v>32959122</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>231317877</v>
+        <v>221346918</v>
       </c>
       <c r="E2" t="n">
-        <v>1450561894</v>
+        <v>1388035408</v>
       </c>
       <c r="F2" t="n">
-        <v>174651.2694640676</v>
+        <v>176951.623671494</v>
       </c>
       <c r="G2" t="n">
-        <v>215757.5418140912</v>
+        <v>220241.4585092482</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>17144991</v>
+        <v>19896298</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>121841201</v>
+        <v>118491290</v>
       </c>
       <c r="E3" t="n">
-        <v>134904541</v>
+        <v>131195466</v>
       </c>
       <c r="F3" t="n">
-        <v>43055.45356186233</v>
+        <v>78590.21475221304</v>
       </c>
       <c r="G3" t="n">
-        <v>170852.3146671909</v>
+        <v>172689.0670149696</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>25243962</v>
+        <v>38848021</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>469203973</v>
+        <v>447984323</v>
       </c>
       <c r="E4" t="n">
-        <v>586904434</v>
+        <v>560361806</v>
       </c>
       <c r="F4" t="n">
-        <v>139800.5412582501</v>
+        <v>95084.1263845002</v>
       </c>
       <c r="G4" t="n">
-        <v>148530.7159510987</v>
+        <v>159725.8848735357</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>67393643</v>
+        <v>72906997</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>114989476</v>
+        <v>109430417</v>
       </c>
       <c r="E5" t="n">
-        <v>114989476</v>
+        <v>109430417</v>
       </c>
       <c r="F5" t="n">
-        <v>67149.57730172407</v>
+        <v>45476.78208553873</v>
       </c>
       <c r="G5" t="n">
-        <v>106302.4797050683</v>
+        <v>110607.7518633161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>52789812</v>
+        <v>65953050</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>192563495</v>
+        <v>186386885</v>
       </c>
       <c r="E6" t="n">
-        <v>192563495</v>
+        <v>186386885</v>
       </c>
       <c r="F6" t="n">
-        <v>79785.03434231192</v>
+        <v>74010.59300181025</v>
       </c>
       <c r="G6" t="n">
-        <v>106734.1891504149</v>
+        <v>117612.7657255965</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>15927552</v>
+        <v>19989127</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85145359</v>
+        <v>83228434</v>
       </c>
       <c r="E7" t="n">
-        <v>106166282</v>
+        <v>103776101</v>
       </c>
       <c r="F7" t="n">
-        <v>19411.9445251182</v>
+        <v>16042.85570556544</v>
       </c>
       <c r="G7" t="n">
-        <v>36538.55065606171</v>
+        <v>38243.29816097926</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>8529879</v>
+        <v>9444485</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69196614</v>
+        <v>66683065</v>
       </c>
       <c r="E8" t="n">
-        <v>144269383</v>
+        <v>139028835</v>
       </c>
       <c r="F8" t="n">
-        <v>45645.39756744054</v>
+        <v>42939.01217818656</v>
       </c>
       <c r="G8" t="n">
-        <v>51541.100461056</v>
+        <v>114853.2162102951</v>
       </c>
       <c r="H8" t="n">
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>18615607</v>
+        <v>16432977</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>149628248</v>
+        <v>162278763</v>
       </c>
       <c r="E9" t="n">
-        <v>149642677</v>
+        <v>162300687</v>
       </c>
       <c r="F9" t="n">
-        <v>8731.55925837804</v>
+        <v>9402.706502663439</v>
       </c>
       <c r="G9" t="n">
-        <v>15006.74668929272</v>
+        <v>16831.86163863005</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5570496</v>
+        <v>10940450</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>584063379</v>
+        <v>562405684</v>
       </c>
       <c r="E10" t="n">
-        <v>584063379</v>
+        <v>562405684</v>
       </c>
       <c r="F10" t="n">
-        <v>371286.5248386918</v>
+        <v>220241.310244488</v>
       </c>
       <c r="G10" t="n">
-        <v>469542.2726905918</v>
+        <v>443092.0972524178</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>355170954</v>
+        <v>401870672</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73583695</v>
+        <v>71077774</v>
       </c>
       <c r="E11" t="n">
-        <v>84427917</v>
+        <v>81552692</v>
       </c>
       <c r="F11" t="n">
-        <v>3080.08198648994</v>
+        <v>2511.124127640703</v>
       </c>
       <c r="G11" t="n">
-        <v>7657.567595774729</v>
+        <v>1972.839048918654</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="I11" t="n">
-        <v>2340452</v>
+        <v>2383549</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>198714422</v>
+        <v>190859723</v>
       </c>
       <c r="E12" t="n">
-        <v>857761761</v>
+        <v>823856517</v>
       </c>
       <c r="F12" t="n">
-        <v>396033.1708639373</v>
+        <v>379792.6774926707</v>
       </c>
       <c r="G12" t="n">
-        <v>353501.2834244238</v>
+        <v>329119.1432963298</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>71950867</v>
+        <v>81298468</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100029228</v>
+        <v>98547707</v>
       </c>
       <c r="E13" t="n">
-        <v>100029228</v>
+        <v>98547707</v>
       </c>
       <c r="F13" t="n">
-        <v>5833.742586856573</v>
+        <v>5306.706647471111</v>
       </c>
       <c r="G13" t="n">
-        <v>3855.407714833469</v>
+        <v>3455.821626693566</v>
       </c>
       <c r="H13" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>7346363</v>
+        <v>6857486</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11185512</v>
+        <v>10877827</v>
       </c>
       <c r="E14" t="n">
-        <v>27963780</v>
+        <v>27194568</v>
       </c>
       <c r="F14" t="n">
-        <v>8884.006722783568</v>
+        <v>9683.764879239203</v>
       </c>
       <c r="G14" t="n">
-        <v>21732.30626003298</v>
+        <v>14860.69934614683</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I14" t="n">
-        <v>2126682</v>
+        <v>2459902</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10517360</v>
+        <v>10385796</v>
       </c>
       <c r="E15" t="n">
-        <v>15465579</v>
+        <v>15272118</v>
       </c>
       <c r="F15" t="n">
-        <v>5101.778712678682</v>
+        <v>3909.246549006745</v>
       </c>
       <c r="G15" t="n">
-        <v>2825.111166119227</v>
+        <v>2898.8670733146</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>343762</v>
+        <v>435322</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28631507</v>
+        <v>28232991</v>
       </c>
       <c r="E16" t="n">
-        <v>89149325</v>
+        <v>87908477</v>
       </c>
       <c r="F16" t="n">
-        <v>6737.867744319915</v>
+        <v>7345.192584101255</v>
       </c>
       <c r="G16" t="n">
-        <v>18178.40044180659</v>
+        <v>18792.03497713877</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>11811305</v>
+        <v>11928137</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>248392831</v>
+        <v>235533865</v>
       </c>
       <c r="E17" t="n">
-        <v>2234695927</v>
+        <v>2119008699</v>
       </c>
       <c r="F17" t="n">
-        <v>47980.54951194867</v>
+        <v>6587.914239442495</v>
       </c>
       <c r="G17" t="n">
-        <v>94571.63406884445</v>
+        <v>7301.695793665221</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>32168725</v>
+        <v>39932017</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14405838</v>
+        <v>13549679</v>
       </c>
       <c r="E18" t="n">
-        <v>88298117</v>
+        <v>83050437</v>
       </c>
       <c r="F18" t="n">
-        <v>35613.77004735362</v>
+        <v>30681.09598123519</v>
       </c>
       <c r="G18" t="n">
-        <v>38511.84026026272</v>
+        <v>29990.9323851642</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>10764215</v>
+        <v>12133829</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41629121</v>
+        <v>40119367</v>
       </c>
       <c r="E19" t="n">
-        <v>179333702</v>
+        <v>172829845</v>
       </c>
       <c r="F19" t="n">
-        <v>37047.33850628685</v>
+        <v>36062.47672819687</v>
       </c>
       <c r="G19" t="n">
-        <v>66920.65628762332</v>
+        <v>86529.16976189856</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>12637175</v>
+        <v>13703543</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>276005868</v>
+        <v>253586136</v>
       </c>
       <c r="E20" t="n">
-        <v>276005868</v>
+        <v>0.00247505</v>
       </c>
       <c r="F20" t="n">
-        <v>54006.95965160822</v>
+        <v>57516.2571848002</v>
       </c>
       <c r="G20" t="n">
-        <v>105697.7945866929</v>
+        <v>100122.882339352</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>85894412</v>
+        <v>86930472</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37276584</v>
+        <v>35900591</v>
       </c>
       <c r="E21" t="n">
-        <v>132784347</v>
+        <v>127882871</v>
       </c>
       <c r="F21" t="n">
-        <v>60189.73782968709</v>
+        <v>53427.14225497405</v>
       </c>
       <c r="G21" t="n">
-        <v>81211.38338774514</v>
+        <v>77507.35372059027</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>12869765</v>
+        <v>14013143</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36970136</v>
+        <v>35922652</v>
       </c>
       <c r="E22" t="n">
-        <v>239741490</v>
+        <v>232948837</v>
       </c>
       <c r="F22" t="n">
-        <v>11897.24752872295</v>
+        <v>34122.55369772894</v>
       </c>
       <c r="G22" t="n">
-        <v>4630.276614934992</v>
+        <v>79229.61239076231</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>18226787</v>
+        <v>20162604</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123331562</v>
+        <v>123278956</v>
       </c>
       <c r="E23" t="n">
-        <v>2042471682</v>
+        <v>2041600476</v>
       </c>
       <c r="F23" t="n">
-        <v>368792.272122964</v>
+        <v>331686.3958162924</v>
       </c>
       <c r="G23" t="n">
-        <v>330468.3487966167</v>
+        <v>307090.7478953181</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>6561771</v>
+        <v>9391082</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5713960</v>
+        <v>5452878</v>
       </c>
       <c r="E24" t="n">
-        <v>26880449</v>
+        <v>25652225</v>
       </c>
       <c r="F24" t="n">
-        <v>1548.480804616873</v>
+        <v>732.3256079121243</v>
       </c>
       <c r="G24" t="n">
-        <v>2328.073597999935</v>
+        <v>639.0963676995264</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I24" t="n">
-        <v>830292</v>
+        <v>797125</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16451795</v>
+        <v>14928218</v>
       </c>
       <c r="E25" t="n">
-        <v>16451722</v>
+        <v>14928218</v>
       </c>
       <c r="F25" t="n">
-        <v>5501.730882256152</v>
+        <v>15582.4323073621</v>
       </c>
       <c r="G25" t="n">
-        <v>15207.66388190741</v>
+        <v>6283.997628526314</v>
       </c>
       <c r="H25" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2446340</v>
+        <v>3190856</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>266628633</v>
+        <v>257655002</v>
       </c>
       <c r="E27" t="n">
-        <v>481595306</v>
+        <v>465386774</v>
       </c>
       <c r="F27" t="n">
-        <v>104794.5346950249</v>
+        <v>98195.22475068088</v>
       </c>
       <c r="G27" t="n">
-        <v>104261.9147293471</v>
+        <v>98989.59629922122</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>11620056</v>
+        <v>12953362</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34064664</v>
+        <v>32479357</v>
       </c>
       <c r="E28" t="n">
-        <v>34064664</v>
+        <v>32479357</v>
       </c>
       <c r="F28" t="n">
-        <v>32600.64586272367</v>
+        <v>30161.72462065005</v>
       </c>
       <c r="G28" t="n">
-        <v>38703.49716417015</v>
+        <v>40634.5107798223</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I28" t="n">
-        <v>12131682</v>
+        <v>7685467</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>526712673</v>
+        <v>508804796</v>
       </c>
       <c r="E29" t="n">
-        <v>1919852546</v>
+        <v>1854578849</v>
       </c>
       <c r="F29" t="n">
-        <v>146308.9693010013</v>
+        <v>143609.0502669569</v>
       </c>
       <c r="G29" t="n">
-        <v>189835.5007875269</v>
+        <v>206037.2534919964</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>36038200</v>
+        <v>47007962</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>109883097</v>
+        <v>108815830</v>
       </c>
       <c r="E30" t="n">
-        <v>421529245</v>
+        <v>417435037</v>
       </c>
       <c r="F30" t="n">
-        <v>148598.7132744683</v>
+        <v>146276.4187956095</v>
       </c>
       <c r="G30" t="n">
-        <v>181662.8420235229</v>
+        <v>192339.9930891396</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>29584829</v>
+        <v>30830597</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28172985</v>
+        <v>26859079</v>
       </c>
       <c r="F31" t="n">
-        <v>6406.193290618525</v>
+        <v>6924.699267726889</v>
       </c>
       <c r="G31" t="n">
-        <v>13385.23926782978</v>
+        <v>12455.40484097906</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>3765633</v>
+        <v>4960080</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119218743</v>
+        <v>119668999</v>
       </c>
       <c r="E32" t="n">
-        <v>434174614</v>
+        <v>435799289</v>
       </c>
       <c r="F32" t="n">
-        <v>28491.82697393766</v>
+        <v>64974.93973203221</v>
       </c>
       <c r="G32" t="n">
-        <v>56253.46142758986</v>
+        <v>64640.21399973571</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>164204</v>
+        <v>182836</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>314751485</v>
+        <v>299702058</v>
       </c>
       <c r="E33" t="n">
-        <v>1088448607</v>
+        <v>1035884038</v>
       </c>
       <c r="F33" t="n">
-        <v>191025.1558784632</v>
+        <v>137308.4306557788</v>
       </c>
       <c r="G33" t="n">
-        <v>228922.8529370844</v>
+        <v>181233.7105444606</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>27041212</v>
+        <v>37423346</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>90750657</v>
+        <v>87078060</v>
       </c>
       <c r="E34" t="n">
-        <v>133301772</v>
+        <v>127907172</v>
       </c>
       <c r="F34" t="n">
-        <v>13263.90637707957</v>
+        <v>9956.327347472401</v>
       </c>
       <c r="G34" t="n">
-        <v>20215.69936092805</v>
+        <v>24625.13748641065</v>
       </c>
       <c r="H34" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>5649973</v>
+        <v>7293639</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3226723</v>
+        <v>3095118</v>
       </c>
       <c r="E35" t="n">
-        <v>12906894</v>
+        <v>12380470</v>
       </c>
       <c r="F35" t="n">
-        <v>47547.12670387855</v>
+        <v>39163.57388149371</v>
       </c>
       <c r="G35" t="n">
-        <v>52909.17361735525</v>
+        <v>60366.60736647393</v>
       </c>
       <c r="H35" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I35" t="n">
-        <v>7261784</v>
+        <v>7469718</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>186884638</v>
+        <v>177780025</v>
       </c>
       <c r="E36" t="n">
-        <v>536403985</v>
+        <v>510271550</v>
       </c>
       <c r="F36" t="n">
-        <v>197530.2290493183</v>
+        <v>113952.1619317191</v>
       </c>
       <c r="G36" t="n">
-        <v>235561.7561206286</v>
+        <v>225283.9097993823</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>13340787</v>
+        <v>17609191</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>121599220</v>
+        <v>117539097</v>
       </c>
       <c r="E37" t="n">
-        <v>317674575</v>
+        <v>307067615</v>
       </c>
       <c r="F37" t="n">
-        <v>39043.18150751464</v>
+        <v>42794.22654465243</v>
       </c>
       <c r="G37" t="n">
-        <v>39620.40391616063</v>
+        <v>44573.01903265812</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>8338029</v>
+        <v>8585307</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>317471491</v>
+        <v>305598837</v>
       </c>
       <c r="E38" t="n">
-        <v>1814122807</v>
+        <v>1746279070</v>
       </c>
       <c r="F38" t="n">
-        <v>45376.11747199667</v>
+        <v>44317.76133839608</v>
       </c>
       <c r="G38" t="n">
-        <v>75336.68427316171</v>
+        <v>87525.44538131247</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>32959122</v>
+        <v>41643439</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221346918</v>
+        <v>219867098</v>
       </c>
       <c r="E2" t="n">
-        <v>1388035408</v>
+        <v>1378755667</v>
       </c>
       <c r="F2" t="n">
-        <v>176951.623671494</v>
+        <v>176635.9947667196</v>
       </c>
       <c r="G2" t="n">
-        <v>220241.4585092482</v>
+        <v>206733.2925809832</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>19896298</v>
+        <v>18520302</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>118491290</v>
+        <v>117783833</v>
       </c>
       <c r="E3" t="n">
-        <v>131195466</v>
+        <v>130412158</v>
       </c>
       <c r="F3" t="n">
-        <v>78590.21475221304</v>
+        <v>78204.4380385027</v>
       </c>
       <c r="G3" t="n">
-        <v>172689.0670149696</v>
+        <v>182464.7131570959</v>
       </c>
       <c r="H3" t="n">
         <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>38848021</v>
+        <v>39848824</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>447984323</v>
+        <v>447450286</v>
       </c>
       <c r="E4" t="n">
-        <v>560361806</v>
+        <v>559693805</v>
       </c>
       <c r="F4" t="n">
-        <v>95084.1263845002</v>
+        <v>96842.63284296477</v>
       </c>
       <c r="G4" t="n">
-        <v>159725.8848735357</v>
+        <v>137420.8784926519</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>72906997</v>
+        <v>74431525</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>109430417</v>
+        <v>108738876</v>
       </c>
       <c r="E5" t="n">
-        <v>109430417</v>
+        <v>108738876</v>
       </c>
       <c r="F5" t="n">
-        <v>45476.78208553873</v>
+        <v>51580.23577459538</v>
       </c>
       <c r="G5" t="n">
-        <v>110607.7518633161</v>
+        <v>112678.4681280479</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>65953050</v>
+        <v>64110389</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>186386885</v>
+        <v>188268303</v>
       </c>
       <c r="E6" t="n">
-        <v>186386885</v>
+        <v>188268303</v>
       </c>
       <c r="F6" t="n">
-        <v>74010.59300181025</v>
+        <v>79801.51799318407</v>
       </c>
       <c r="G6" t="n">
-        <v>117612.7657255965</v>
+        <v>96298.12380673058</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>19989127</v>
+        <v>20186391</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83228434</v>
+        <v>83546078</v>
       </c>
       <c r="E7" t="n">
-        <v>103776101</v>
+        <v>104172166</v>
       </c>
       <c r="F7" t="n">
-        <v>16042.85570556544</v>
+        <v>14524.71243802938</v>
       </c>
       <c r="G7" t="n">
-        <v>38243.29816097926</v>
+        <v>40073.79495182849</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9444485</v>
+        <v>9472332</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66683065</v>
+        <v>66531093</v>
       </c>
       <c r="E8" t="n">
-        <v>139028835</v>
+        <v>138711985</v>
       </c>
       <c r="F8" t="n">
-        <v>42939.01217818656</v>
+        <v>42632.72676403418</v>
       </c>
       <c r="G8" t="n">
-        <v>114853.2162102951</v>
+        <v>55203.56405055152</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>16432977</v>
+        <v>14377927</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>162278763</v>
+        <v>160493075</v>
       </c>
       <c r="E9" t="n">
-        <v>162300687</v>
+        <v>160515818</v>
       </c>
       <c r="F9" t="n">
-        <v>9402.706502663439</v>
+        <v>7186.913032963855</v>
       </c>
       <c r="G9" t="n">
-        <v>16831.86163863005</v>
+        <v>17172.82297525189</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>10940450</v>
+        <v>12418033</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>562405684</v>
+        <v>545275527</v>
       </c>
       <c r="E10" t="n">
-        <v>562405684</v>
+        <v>545275527</v>
       </c>
       <c r="F10" t="n">
-        <v>220241.310244488</v>
+        <v>244789.041143241</v>
       </c>
       <c r="G10" t="n">
-        <v>443092.0972524178</v>
+        <v>390718.1465856585</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>401870672</v>
+        <v>372730139</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71077774</v>
+        <v>71407431</v>
       </c>
       <c r="E11" t="n">
-        <v>81552692</v>
+        <v>81930931</v>
       </c>
       <c r="F11" t="n">
-        <v>2511.124127640703</v>
+        <v>2614.307750830699</v>
       </c>
       <c r="G11" t="n">
-        <v>1972.839048918654</v>
+        <v>7854.091239630015</v>
       </c>
       <c r="H11" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="I11" t="n">
-        <v>2383549</v>
+        <v>2266101</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>190859723</v>
+        <v>188242742</v>
       </c>
       <c r="E12" t="n">
-        <v>823856517</v>
+        <v>812560176</v>
       </c>
       <c r="F12" t="n">
-        <v>379792.6774926707</v>
+        <v>350524.857298605</v>
       </c>
       <c r="G12" t="n">
-        <v>329119.1432963298</v>
+        <v>330674.4832514673</v>
       </c>
       <c r="H12" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>81298468</v>
+        <v>81166191</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98547707</v>
+        <v>98424993</v>
       </c>
       <c r="E13" t="n">
-        <v>98547707</v>
+        <v>98424993</v>
       </c>
       <c r="F13" t="n">
-        <v>5306.706647471111</v>
+        <v>5281.294276631696</v>
       </c>
       <c r="G13" t="n">
-        <v>3455.821626693566</v>
+        <v>3837.363792057318</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>6857486</v>
+        <v>6585661</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10877827</v>
+        <v>10659637</v>
       </c>
       <c r="E14" t="n">
-        <v>27194568</v>
+        <v>26649094</v>
       </c>
       <c r="F14" t="n">
-        <v>9683.764879239203</v>
+        <v>7846.280488630456</v>
       </c>
       <c r="G14" t="n">
-        <v>14860.69934614683</v>
+        <v>16753.36437760301</v>
       </c>
       <c r="H14" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>2459902</v>
+        <v>2300027</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10385796</v>
+        <v>10450332</v>
       </c>
       <c r="E15" t="n">
-        <v>15272118</v>
+        <v>15367016</v>
       </c>
       <c r="F15" t="n">
-        <v>3909.246549006745</v>
+        <v>4264.19002882075</v>
       </c>
       <c r="G15" t="n">
-        <v>2898.8670733146</v>
+        <v>3960.51242505678</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>435322</v>
+        <v>391302</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28232991</v>
+        <v>28328429</v>
       </c>
       <c r="E16" t="n">
-        <v>87908477</v>
+        <v>88205638</v>
       </c>
       <c r="F16" t="n">
-        <v>7345.192584101255</v>
+        <v>13197.83724253153</v>
       </c>
       <c r="G16" t="n">
-        <v>18792.03497713877</v>
+        <v>17021.59800500647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I16" t="n">
-        <v>11928137</v>
+        <v>11277350</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>235533865</v>
+        <v>232343327</v>
       </c>
       <c r="E17" t="n">
-        <v>2119008699</v>
+        <v>2090304638</v>
       </c>
       <c r="F17" t="n">
-        <v>6587.914239442495</v>
+        <v>6582.857913442258</v>
       </c>
       <c r="G17" t="n">
-        <v>7301.695793665221</v>
+        <v>7062.395672396779</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>39932017</v>
+        <v>39329511</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13549679</v>
+        <v>13558549</v>
       </c>
       <c r="E18" t="n">
-        <v>83050437</v>
+        <v>83104805</v>
       </c>
       <c r="F18" t="n">
-        <v>30681.09598123519</v>
+        <v>29572.88277416655</v>
       </c>
       <c r="G18" t="n">
-        <v>29990.9323851642</v>
+        <v>33592.53747183426</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>12133829</v>
+        <v>12022630</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40119367</v>
+        <v>39320845</v>
       </c>
       <c r="E19" t="n">
-        <v>172829845</v>
+        <v>169389899</v>
       </c>
       <c r="F19" t="n">
-        <v>36062.47672819687</v>
+        <v>29606.24863469983</v>
       </c>
       <c r="G19" t="n">
-        <v>86529.16976189856</v>
+        <v>94815.18825714292</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>13703543</v>
+        <v>12331763</v>
       </c>
     </row>
     <row r="20">
@@ -1133,16 +1133,16 @@
         <v>0.00247505</v>
       </c>
       <c r="F20" t="n">
-        <v>57516.2571848002</v>
+        <v>52608.3652302469</v>
       </c>
       <c r="G20" t="n">
-        <v>100122.882339352</v>
+        <v>92794.43465177377</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>86930472</v>
+        <v>95968475</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35900591</v>
+        <v>37583654</v>
       </c>
       <c r="E21" t="n">
-        <v>127882871</v>
+        <v>133878171</v>
       </c>
       <c r="F21" t="n">
-        <v>53427.14225497405</v>
+        <v>51102.04181967835</v>
       </c>
       <c r="G21" t="n">
-        <v>77507.35372059027</v>
+        <v>73494.3083402138</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>14013143</v>
+        <v>12914965</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35922652</v>
+        <v>35549417</v>
       </c>
       <c r="E22" t="n">
-        <v>232948837</v>
+        <v>230528506</v>
       </c>
       <c r="F22" t="n">
-        <v>34122.55369772894</v>
+        <v>32397.5576181586</v>
       </c>
       <c r="G22" t="n">
-        <v>79229.61239076231</v>
+        <v>78282.19108390062</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>20162604</v>
+        <v>18718473</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123278956</v>
+        <v>123584050</v>
       </c>
       <c r="E23" t="n">
-        <v>2041600476</v>
+        <v>2046653094</v>
       </c>
       <c r="F23" t="n">
-        <v>331686.3958162924</v>
+        <v>329949.6999712298</v>
       </c>
       <c r="G23" t="n">
-        <v>307090.7478953181</v>
+        <v>325044.7472997966</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>9391082</v>
+        <v>9369435</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5452878</v>
+        <v>5439936</v>
       </c>
       <c r="E24" t="n">
-        <v>25652225</v>
+        <v>25591343</v>
       </c>
       <c r="F24" t="n">
-        <v>732.3256079121243</v>
+        <v>1175.308620580253</v>
       </c>
       <c r="G24" t="n">
-        <v>639.0963676995264</v>
+        <v>3759.184760060623</v>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>797125</v>
+        <v>786104</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14928218</v>
+        <v>15175385</v>
       </c>
       <c r="E25" t="n">
-        <v>14928218</v>
+        <v>15175385</v>
       </c>
       <c r="F25" t="n">
-        <v>15582.4323073621</v>
+        <v>16911.34676869747</v>
       </c>
       <c r="G25" t="n">
-        <v>6283.997628526314</v>
+        <v>9148.800647244665</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>3190856</v>
+        <v>3006101</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>257655002</v>
+        <v>260508290</v>
       </c>
       <c r="E27" t="n">
-        <v>465386774</v>
+        <v>470540497</v>
       </c>
       <c r="F27" t="n">
-        <v>98195.22475068088</v>
+        <v>101158.6213282864</v>
       </c>
       <c r="G27" t="n">
-        <v>98989.59629922122</v>
+        <v>105648.6712759549</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>12953362</v>
+        <v>12961935</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32479357</v>
+        <v>32858200</v>
       </c>
       <c r="E28" t="n">
-        <v>32479357</v>
+        <v>32858200</v>
       </c>
       <c r="F28" t="n">
-        <v>30161.72462065005</v>
+        <v>33131.00759152859</v>
       </c>
       <c r="G28" t="n">
-        <v>40634.5107798223</v>
+        <v>41360.74202434744</v>
       </c>
       <c r="H28" t="n">
         <v>0.09</v>
       </c>
       <c r="I28" t="n">
-        <v>7685467</v>
+        <v>7132975</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>508804796</v>
+        <v>504306397</v>
       </c>
       <c r="E29" t="n">
-        <v>1854578849</v>
+        <v>1838182315</v>
       </c>
       <c r="F29" t="n">
-        <v>143609.0502669569</v>
+        <v>145196.6593384307</v>
       </c>
       <c r="G29" t="n">
-        <v>206037.2534919964</v>
+        <v>186760.1853754555</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>47007962</v>
+        <v>44086537</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>108815830</v>
+        <v>109013155</v>
       </c>
       <c r="E30" t="n">
-        <v>417435037</v>
+        <v>418192010</v>
       </c>
       <c r="F30" t="n">
-        <v>146276.4187956095</v>
+        <v>144321.7923115335</v>
       </c>
       <c r="G30" t="n">
-        <v>192339.9930891396</v>
+        <v>187107.5085403293</v>
       </c>
       <c r="H30" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>30830597</v>
+        <v>27937514</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26859079</v>
+        <v>27067054</v>
       </c>
       <c r="F31" t="n">
-        <v>6924.699267726889</v>
+        <v>10978.05329001837</v>
       </c>
       <c r="G31" t="n">
-        <v>12455.40484097906</v>
+        <v>27416.47952230571</v>
       </c>
       <c r="H31" t="n">
         <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>4960080</v>
+        <v>5085964</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119668999</v>
+        <v>120460992</v>
       </c>
       <c r="E32" t="n">
-        <v>435799289</v>
+        <v>438671514</v>
       </c>
       <c r="F32" t="n">
-        <v>64974.93973203221</v>
+        <v>64721.46712813238</v>
       </c>
       <c r="G32" t="n">
-        <v>64640.21399973571</v>
+        <v>24376.63108124925</v>
       </c>
       <c r="H32" t="n">
         <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>182836</v>
+        <v>151709</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>299702058</v>
+        <v>295476945</v>
       </c>
       <c r="E33" t="n">
-        <v>1035884038</v>
+        <v>1021280442</v>
       </c>
       <c r="F33" t="n">
-        <v>137308.4306557788</v>
+        <v>196920.4994303946</v>
       </c>
       <c r="G33" t="n">
-        <v>181233.7105444606</v>
+        <v>233099.1773672295</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>37423346</v>
+        <v>36347635</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87078060</v>
+        <v>87085178</v>
       </c>
       <c r="E34" t="n">
-        <v>127907172</v>
+        <v>127917626</v>
       </c>
       <c r="F34" t="n">
-        <v>9956.327347472401</v>
+        <v>12641.33456822146</v>
       </c>
       <c r="G34" t="n">
-        <v>24625.13748641065</v>
+        <v>24489.05864703832</v>
       </c>
       <c r="H34" t="n">
         <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>7293639</v>
+        <v>7973793</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3095118</v>
+        <v>3081900</v>
       </c>
       <c r="E35" t="n">
-        <v>12380470</v>
+        <v>12327599</v>
       </c>
       <c r="F35" t="n">
-        <v>39163.57388149371</v>
+        <v>37432.99743775751</v>
       </c>
       <c r="G35" t="n">
-        <v>60366.60736647393</v>
+        <v>24109.90950645497</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I35" t="n">
-        <v>7469718</v>
+        <v>6451645</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>177780025</v>
+        <v>177412902</v>
       </c>
       <c r="E36" t="n">
-        <v>510271550</v>
+        <v>509217817</v>
       </c>
       <c r="F36" t="n">
-        <v>113952.1619317191</v>
+        <v>186362.9490627348</v>
       </c>
       <c r="G36" t="n">
-        <v>225283.9097993823</v>
+        <v>222059.293586037</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>17609191</v>
+        <v>17197151</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>117539097</v>
+        <v>116698456</v>
       </c>
       <c r="E37" t="n">
-        <v>307067615</v>
+        <v>304871465</v>
       </c>
       <c r="F37" t="n">
-        <v>42794.22654465243</v>
+        <v>41567.14197940865</v>
       </c>
       <c r="G37" t="n">
-        <v>44573.01903265812</v>
+        <v>45533.5345839018</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>8585307</v>
+        <v>8066475</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>305598837</v>
+        <v>306096950</v>
       </c>
       <c r="E38" t="n">
-        <v>1746279070</v>
+        <v>1749125429</v>
       </c>
       <c r="F38" t="n">
-        <v>44317.76133839608</v>
+        <v>59057.32994417509</v>
       </c>
       <c r="G38" t="n">
-        <v>87525.44538131247</v>
+        <v>88921.45084989106</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I38" t="n">
-        <v>41643439</v>
+        <v>39415741</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>219867098</v>
+        <v>219422569</v>
       </c>
       <c r="E2" t="n">
-        <v>1378755667</v>
+        <v>1375968086</v>
       </c>
       <c r="F2" t="n">
-        <v>176635.9947667196</v>
+        <v>159264.2508056685</v>
       </c>
       <c r="G2" t="n">
-        <v>206733.2925809832</v>
+        <v>204380.0360768631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>18520302</v>
+        <v>16734945</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117783833</v>
+        <v>119215239</v>
       </c>
       <c r="E3" t="n">
-        <v>130412158</v>
+        <v>131997033</v>
       </c>
       <c r="F3" t="n">
-        <v>78204.4380385027</v>
+        <v>71982.23574463119</v>
       </c>
       <c r="G3" t="n">
-        <v>182464.7131570959</v>
+        <v>180907.0899652688</v>
       </c>
       <c r="H3" t="n">
         <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>39848824</v>
+        <v>31949752</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Gaming Marketplace, Coinbase 50 Index</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Blockchains, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Coinbase 50 Index</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>447450286</v>
+        <v>451070033</v>
       </c>
       <c r="E4" t="n">
-        <v>559693805</v>
+        <v>564221570</v>
       </c>
       <c r="F4" t="n">
-        <v>96842.63284296477</v>
+        <v>129807.3829960757</v>
       </c>
       <c r="G4" t="n">
-        <v>137420.8784926519</v>
+        <v>133851.5070026772</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>74431525</v>
+        <v>82079894</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>108738876</v>
+        <v>110233979</v>
       </c>
       <c r="E5" t="n">
-        <v>108738876</v>
+        <v>110233979</v>
       </c>
       <c r="F5" t="n">
-        <v>51580.23577459538</v>
+        <v>70621.93006417666</v>
       </c>
       <c r="G5" t="n">
-        <v>112678.4681280479</v>
+        <v>91754.55122085319</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>64110389</v>
+        <v>63263070</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>188268303</v>
+        <v>188660962</v>
       </c>
       <c r="E6" t="n">
-        <v>188268303</v>
+        <v>188660962</v>
       </c>
       <c r="F6" t="n">
-        <v>79801.51799318407</v>
+        <v>80996.83683620962</v>
       </c>
       <c r="G6" t="n">
-        <v>96298.12380673058</v>
+        <v>96328.09710295626</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>20186391</v>
+        <v>21917684</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83546078</v>
+        <v>84709483</v>
       </c>
       <c r="E7" t="n">
-        <v>104172166</v>
+        <v>105622796</v>
       </c>
       <c r="F7" t="n">
-        <v>14524.71243802938</v>
+        <v>10271.14699580408</v>
       </c>
       <c r="G7" t="n">
-        <v>40073.79495182849</v>
+        <v>46005.21553388979</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>9472332</v>
+        <v>8951264</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66531093</v>
+        <v>66820070</v>
       </c>
       <c r="E8" t="n">
-        <v>138711985</v>
+        <v>139314479</v>
       </c>
       <c r="F8" t="n">
-        <v>42632.72676403418</v>
+        <v>51112.27981601744</v>
       </c>
       <c r="G8" t="n">
-        <v>55203.56405055152</v>
+        <v>50927.29607573632</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>14377927</v>
+        <v>15248075</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>160493075</v>
+        <v>154848031</v>
       </c>
       <c r="E9" t="n">
-        <v>160515818</v>
+        <v>154878845</v>
       </c>
       <c r="F9" t="n">
-        <v>7186.913032963855</v>
+        <v>8729.340332747104</v>
       </c>
       <c r="G9" t="n">
-        <v>17172.82297525189</v>
+        <v>19053.7252518289</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>12418033</v>
+        <v>14543412</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>545275527</v>
+        <v>540984343</v>
       </c>
       <c r="E10" t="n">
-        <v>545275527</v>
+        <v>540984343</v>
       </c>
       <c r="F10" t="n">
-        <v>244789.041143241</v>
+        <v>386405.3852928743</v>
       </c>
       <c r="G10" t="n">
-        <v>390718.1465856585</v>
+        <v>414146.7030535977</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>372730139</v>
+        <v>365897629</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Energi Ecosystem, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Energi Ecosystem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71407431</v>
+        <v>70508249</v>
       </c>
       <c r="E11" t="n">
-        <v>81930931</v>
+        <v>80899235</v>
       </c>
       <c r="F11" t="n">
-        <v>2614.307750830699</v>
+        <v>5623.573559820942</v>
       </c>
       <c r="G11" t="n">
-        <v>7854.091239630015</v>
+        <v>3806.76084829003</v>
       </c>
       <c r="H11" t="n">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="I11" t="n">
-        <v>2266101</v>
+        <v>2153640</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>188242742</v>
+        <v>191815294</v>
       </c>
       <c r="E12" t="n">
-        <v>812560176</v>
+        <v>827981294</v>
       </c>
       <c r="F12" t="n">
-        <v>350524.857298605</v>
+        <v>375473.4567871749</v>
       </c>
       <c r="G12" t="n">
-        <v>330674.4832514673</v>
+        <v>317813.9353619448</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I12" t="n">
-        <v>81166191</v>
+        <v>83741242</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98424993</v>
+        <v>98767145</v>
       </c>
       <c r="E13" t="n">
-        <v>98424993</v>
+        <v>98767145</v>
       </c>
       <c r="F13" t="n">
-        <v>5281.294276631696</v>
+        <v>6319.644544080933</v>
       </c>
       <c r="G13" t="n">
-        <v>3837.363792057318</v>
+        <v>2705.234929359785</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I13" t="n">
-        <v>6585661</v>
+        <v>6931296</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10659637</v>
+        <v>10690172</v>
       </c>
       <c r="E14" t="n">
-        <v>26649094</v>
+        <v>26725430</v>
       </c>
       <c r="F14" t="n">
-        <v>7846.280488630456</v>
+        <v>8954.105061975624</v>
       </c>
       <c r="G14" t="n">
-        <v>16753.36437760301</v>
+        <v>12264.49303343083</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I14" t="n">
-        <v>2300027</v>
+        <v>2271337</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10450332</v>
+        <v>10446774</v>
       </c>
       <c r="E15" t="n">
-        <v>15367016</v>
+        <v>15361785</v>
       </c>
       <c r="F15" t="n">
-        <v>4264.19002882075</v>
+        <v>4189.052368484521</v>
       </c>
       <c r="G15" t="n">
-        <v>3960.51242505678</v>
+        <v>2934.330378234476</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>391302</v>
+        <v>354856</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28328429</v>
+        <v>28255226</v>
       </c>
       <c r="E16" t="n">
-        <v>88205638</v>
+        <v>87977707</v>
       </c>
       <c r="F16" t="n">
-        <v>13197.83724253153</v>
+        <v>12491.43143792657</v>
       </c>
       <c r="G16" t="n">
-        <v>17021.59800500647</v>
+        <v>9946.875393807741</v>
       </c>
       <c r="H16" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>11277350</v>
+        <v>9516179</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>232343327</v>
+        <v>234891054</v>
       </c>
       <c r="E17" t="n">
-        <v>2090304638</v>
+        <v>2113225577</v>
       </c>
       <c r="F17" t="n">
-        <v>6582.857913442258</v>
+        <v>6313.833475977658</v>
       </c>
       <c r="G17" t="n">
-        <v>7062.395672396779</v>
+        <v>6554.83451398256</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I17" t="n">
-        <v>39329511</v>
+        <v>41255943</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13558549</v>
+        <v>13438750</v>
       </c>
       <c r="E18" t="n">
-        <v>83104805</v>
+        <v>82370517</v>
       </c>
       <c r="F18" t="n">
-        <v>29572.88277416655</v>
+        <v>34366.40019991623</v>
       </c>
       <c r="G18" t="n">
-        <v>33592.53747183426</v>
+        <v>33708.27150892061</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>12022630</v>
+        <v>12266977</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39320845</v>
+        <v>40054451</v>
       </c>
       <c r="E19" t="n">
-        <v>169389899</v>
+        <v>172550194</v>
       </c>
       <c r="F19" t="n">
-        <v>29606.24863469983</v>
+        <v>27352.91104001943</v>
       </c>
       <c r="G19" t="n">
-        <v>94815.18825714292</v>
+        <v>79452.87845204365</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>12331763</v>
+        <v>10460912</v>
       </c>
     </row>
     <row r="20">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Binance Launchpool, Meme, Play To Earn, TON Ecosystem, TON Meme, Tap to Earn, Gaming Marketplace</t>
+          <t>Gaming (GameFi), Binance Launchpool, Meme, Play To Earn, TON Ecosystem, TON Meme, Tap to Earn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253586136</v>
+        <v>251213842</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00247505</v>
+        <v>251213842</v>
       </c>
       <c r="F20" t="n">
-        <v>52608.3652302469</v>
+        <v>55408.82413058092</v>
       </c>
       <c r="G20" t="n">
-        <v>92794.43465177377</v>
+        <v>110101.3034882228</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>95968475</v>
+        <v>110255737</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37583654</v>
+        <v>35462718</v>
       </c>
       <c r="E21" t="n">
-        <v>133878171</v>
+        <v>129722230</v>
       </c>
       <c r="F21" t="n">
-        <v>51102.04181967835</v>
+        <v>57485.2739257329</v>
       </c>
       <c r="G21" t="n">
-        <v>73494.3083402138</v>
+        <v>76777.29139656811</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>12914965</v>
+        <v>13069900</v>
       </c>
     </row>
     <row r="22">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35549417</v>
+        <v>36073045</v>
       </c>
       <c r="E22" t="n">
-        <v>230528506</v>
+        <v>233924094</v>
       </c>
       <c r="F22" t="n">
-        <v>32397.5576181586</v>
+        <v>30166.32682748774</v>
       </c>
       <c r="G22" t="n">
-        <v>78282.19108390062</v>
+        <v>82705.47074634969</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>18718473</v>
+        <v>18566878</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123584050</v>
+        <v>123390875</v>
       </c>
       <c r="E23" t="n">
-        <v>2046653094</v>
+        <v>2043453948</v>
       </c>
       <c r="F23" t="n">
-        <v>329949.6999712298</v>
+        <v>364262.0210772533</v>
       </c>
       <c r="G23" t="n">
-        <v>325044.7472997966</v>
+        <v>311952.366579892</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>9369435</v>
+        <v>10018274</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5439936</v>
+        <v>5874849</v>
       </c>
       <c r="E24" t="n">
-        <v>25591343</v>
+        <v>27637322</v>
       </c>
       <c r="F24" t="n">
-        <v>1175.308620580253</v>
+        <v>8331.590860266184</v>
       </c>
       <c r="G24" t="n">
-        <v>3759.184760060623</v>
+        <v>57272.86409472912</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>786104</v>
+        <v>1004715</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15175385</v>
+        <v>14300168</v>
       </c>
       <c r="E25" t="n">
-        <v>15175385</v>
+        <v>14300277</v>
       </c>
       <c r="F25" t="n">
-        <v>16911.34676869747</v>
+        <v>16097.07272355565</v>
       </c>
       <c r="G25" t="n">
-        <v>9148.800647244665</v>
+        <v>5776.049864403291</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>3006101</v>
+        <v>3407231</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>260508290</v>
+        <v>259743027</v>
       </c>
       <c r="E27" t="n">
-        <v>470540497</v>
+        <v>469158248</v>
       </c>
       <c r="F27" t="n">
-        <v>101158.6213282864</v>
+        <v>81490.41778372994</v>
       </c>
       <c r="G27" t="n">
-        <v>105648.6712759549</v>
+        <v>83855.90381905806</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>12961935</v>
+        <v>13558129</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32858200</v>
+        <v>32982339</v>
       </c>
       <c r="E28" t="n">
-        <v>32858200</v>
+        <v>32982339</v>
       </c>
       <c r="F28" t="n">
-        <v>33131.00759152859</v>
+        <v>26287.20374623952</v>
       </c>
       <c r="G28" t="n">
-        <v>41360.74202434744</v>
+        <v>34931.25774237995</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>7132975</v>
+        <v>10010010</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>504306397</v>
+        <v>512301245</v>
       </c>
       <c r="E29" t="n">
-        <v>1838182315</v>
+        <v>1867323307</v>
       </c>
       <c r="F29" t="n">
-        <v>145196.6593384307</v>
+        <v>129370.104008647</v>
       </c>
       <c r="G29" t="n">
-        <v>186760.1853754555</v>
+        <v>87046.55026188912</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>44086537</v>
+        <v>43596848</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>109013155</v>
+        <v>112643289</v>
       </c>
       <c r="E30" t="n">
-        <v>418192010</v>
+        <v>432117787</v>
       </c>
       <c r="F30" t="n">
-        <v>144321.7923115335</v>
+        <v>136685.9401164068</v>
       </c>
       <c r="G30" t="n">
-        <v>187107.5085403293</v>
+        <v>180975.7190831298</v>
       </c>
       <c r="H30" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>27937514</v>
+        <v>23556366</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27067054</v>
+        <v>28519695</v>
       </c>
       <c r="F31" t="n">
-        <v>10978.05329001837</v>
+        <v>8902.951479784075</v>
       </c>
       <c r="G31" t="n">
-        <v>27416.47952230571</v>
+        <v>9843.614480651097</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>5085964</v>
+        <v>5460628</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>120460992</v>
+        <v>119029563</v>
       </c>
       <c r="E32" t="n">
-        <v>438671514</v>
+        <v>433449532</v>
       </c>
       <c r="F32" t="n">
-        <v>64721.46712813238</v>
+        <v>69057.38213059375</v>
       </c>
       <c r="G32" t="n">
-        <v>24376.63108124925</v>
+        <v>56350.68015909765</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>151709</v>
+        <v>409335</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>295476945</v>
+        <v>298881993</v>
       </c>
       <c r="E33" t="n">
-        <v>1021280442</v>
+        <v>1033049582</v>
       </c>
       <c r="F33" t="n">
-        <v>196920.4994303946</v>
+        <v>128999.1582379839</v>
       </c>
       <c r="G33" t="n">
-        <v>233099.1773672295</v>
+        <v>241267.0652868525</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>36347635</v>
+        <v>38962504</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87085178</v>
+        <v>87357322</v>
       </c>
       <c r="E34" t="n">
-        <v>127917626</v>
+        <v>128317374</v>
       </c>
       <c r="F34" t="n">
-        <v>12641.33456822146</v>
+        <v>10633.22955910058</v>
       </c>
       <c r="G34" t="n">
-        <v>24489.05864703832</v>
+        <v>16448.48148525822</v>
       </c>
       <c r="H34" t="n">
         <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>7973793</v>
+        <v>7026555</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3081900</v>
+        <v>2962648</v>
       </c>
       <c r="E35" t="n">
-        <v>12327599</v>
+        <v>11850590</v>
       </c>
       <c r="F35" t="n">
-        <v>37432.99743775751</v>
+        <v>42702.68633212159</v>
       </c>
       <c r="G35" t="n">
-        <v>24109.90950645497</v>
+        <v>34009.58936783829</v>
       </c>
       <c r="H35" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6451645</v>
+        <v>5414677</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>177412902</v>
+        <v>179967385</v>
       </c>
       <c r="E36" t="n">
-        <v>509217817</v>
+        <v>516549799</v>
       </c>
       <c r="F36" t="n">
-        <v>186362.9490627348</v>
+        <v>182757.7691488388</v>
       </c>
       <c r="G36" t="n">
-        <v>222059.293586037</v>
+        <v>205886.5221191121</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>17197151</v>
+        <v>18336745</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>116698456</v>
+        <v>115292101</v>
       </c>
       <c r="E37" t="n">
-        <v>304871465</v>
+        <v>301197401</v>
       </c>
       <c r="F37" t="n">
-        <v>41567.14197940865</v>
+        <v>41829.78046178092</v>
       </c>
       <c r="G37" t="n">
-        <v>45533.5345839018</v>
+        <v>45252.76781999704</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="n">
-        <v>8066475</v>
+        <v>6754144</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>306096950</v>
+        <v>309061533</v>
       </c>
       <c r="E38" t="n">
-        <v>1749125429</v>
+        <v>1766065901</v>
       </c>
       <c r="F38" t="n">
-        <v>59057.32994417509</v>
+        <v>56059.68218835732</v>
       </c>
       <c r="G38" t="n">
-        <v>88921.45084989106</v>
+        <v>78010.28474829481</v>
       </c>
       <c r="H38" t="n">
         <v>0.02</v>
       </c>
       <c r="I38" t="n">
-        <v>39415741</v>
+        <v>42722988</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>219422569</v>
+        <v>257437211</v>
       </c>
       <c r="E2" t="n">
-        <v>1375968086</v>
+        <v>1614352567</v>
       </c>
       <c r="F2" t="n">
-        <v>159264.2508056685</v>
+        <v>12391.20627020084</v>
       </c>
       <c r="G2" t="n">
-        <v>204380.0360768631</v>
+        <v>15967.77240155607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>16734945</v>
+        <v>68732179</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>119215239</v>
+        <v>117459653</v>
       </c>
       <c r="E3" t="n">
-        <v>131997033</v>
+        <v>130053221</v>
       </c>
       <c r="F3" t="n">
-        <v>71982.23574463119</v>
+        <v>46281.25269651449</v>
       </c>
       <c r="G3" t="n">
-        <v>180907.0899652688</v>
+        <v>171006.2100659753</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>31949752</v>
+        <v>34622655</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>451070033</v>
+        <v>439840319</v>
       </c>
       <c r="E4" t="n">
-        <v>564221570</v>
+        <v>550174867</v>
       </c>
       <c r="F4" t="n">
-        <v>129807.3829960757</v>
+        <v>109468.3547983585</v>
       </c>
       <c r="G4" t="n">
-        <v>133851.5070026772</v>
+        <v>148866.0320408327</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>82079894</v>
+        <v>79438036</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>110233979</v>
+        <v>107342267</v>
       </c>
       <c r="E5" t="n">
-        <v>110233979</v>
+        <v>107342267</v>
       </c>
       <c r="F5" t="n">
-        <v>70621.93006417666</v>
+        <v>69128.62069586017</v>
       </c>
       <c r="G5" t="n">
-        <v>91754.55122085319</v>
+        <v>112158.3844836854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>63263070</v>
+        <v>57662625</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>188660962</v>
+        <v>186151702</v>
       </c>
       <c r="E6" t="n">
-        <v>188660962</v>
+        <v>186151702</v>
       </c>
       <c r="F6" t="n">
-        <v>80996.83683620962</v>
+        <v>73670.38651506486</v>
       </c>
       <c r="G6" t="n">
-        <v>96328.09710295626</v>
+        <v>105070.8349080406</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>21917684</v>
+        <v>20021027</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84709483</v>
+        <v>85159928</v>
       </c>
       <c r="E7" t="n">
-        <v>105622796</v>
+        <v>106184447</v>
       </c>
       <c r="F7" t="n">
-        <v>10271.14699580408</v>
+        <v>10125.45805028991</v>
       </c>
       <c r="G7" t="n">
-        <v>46005.21553388979</v>
+        <v>46588.38993332486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>8951264</v>
+        <v>8552609</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66820070</v>
+        <v>65037044</v>
       </c>
       <c r="E8" t="n">
-        <v>139314479</v>
+        <v>135597013</v>
       </c>
       <c r="F8" t="n">
-        <v>51112.27981601744</v>
+        <v>51561.42288945171</v>
       </c>
       <c r="G8" t="n">
-        <v>50927.29607573632</v>
+        <v>57422.38172365379</v>
       </c>
       <c r="H8" t="n">
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>15248075</v>
+        <v>13371752</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>154848031</v>
+        <v>171509317</v>
       </c>
       <c r="E9" t="n">
-        <v>154878845</v>
+        <v>171549802</v>
       </c>
       <c r="F9" t="n">
-        <v>8729.340332747104</v>
+        <v>8997.404187163575</v>
       </c>
       <c r="G9" t="n">
-        <v>19053.7252518289</v>
+        <v>20129.29402978645</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I9" t="n">
-        <v>14543412</v>
+        <v>13189368</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>540984343</v>
+        <v>524093391</v>
       </c>
       <c r="E10" t="n">
-        <v>540984343</v>
+        <v>524093391</v>
       </c>
       <c r="F10" t="n">
-        <v>386405.3852928743</v>
+        <v>335896.9234715128</v>
       </c>
       <c r="G10" t="n">
-        <v>414146.7030535977</v>
+        <v>402053.8289146367</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>365897629</v>
+        <v>360496598</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70508249</v>
+        <v>71321634</v>
       </c>
       <c r="E11" t="n">
-        <v>80899235</v>
+        <v>81832490</v>
       </c>
       <c r="F11" t="n">
-        <v>5623.573559820942</v>
+        <v>2383.122606695395</v>
       </c>
       <c r="G11" t="n">
-        <v>3806.76084829003</v>
+        <v>3066.080956972526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2153640</v>
+        <v>2116136</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>191815294</v>
+        <v>186387165</v>
       </c>
       <c r="E12" t="n">
-        <v>827981294</v>
+        <v>804550477</v>
       </c>
       <c r="F12" t="n">
-        <v>375473.4567871749</v>
+        <v>350113.9250647796</v>
       </c>
       <c r="G12" t="n">
-        <v>317813.9353619448</v>
+        <v>331921.538169665</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>83741242</v>
+        <v>71642934</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98767145</v>
+        <v>96914630</v>
       </c>
       <c r="E13" t="n">
-        <v>98767145</v>
+        <v>96914630</v>
       </c>
       <c r="F13" t="n">
-        <v>6319.644544080933</v>
+        <v>5359.220037267145</v>
       </c>
       <c r="G13" t="n">
-        <v>2705.234929359785</v>
+        <v>4707.094918650112</v>
       </c>
       <c r="H13" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="I13" t="n">
-        <v>6931296</v>
+        <v>6645114</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10690172</v>
+        <v>10352145</v>
       </c>
       <c r="E14" t="n">
-        <v>26725430</v>
+        <v>25880361</v>
       </c>
       <c r="F14" t="n">
-        <v>8954.105061975624</v>
+        <v>8313.569018616845</v>
       </c>
       <c r="G14" t="n">
-        <v>12264.49303343083</v>
+        <v>19381.07014652771</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>2271337</v>
+        <v>1958832</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10446774</v>
+        <v>10456295</v>
       </c>
       <c r="E15" t="n">
-        <v>15361785</v>
+        <v>15375785</v>
       </c>
       <c r="F15" t="n">
-        <v>4189.052368484521</v>
+        <v>3392.194439277777</v>
       </c>
       <c r="G15" t="n">
-        <v>2934.330378234476</v>
+        <v>2766.700170830753</v>
       </c>
       <c r="H15" t="n">
         <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>354856</v>
+        <v>340447</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28255226</v>
+        <v>26927807</v>
       </c>
       <c r="E16" t="n">
-        <v>87977707</v>
+        <v>83844552</v>
       </c>
       <c r="F16" t="n">
-        <v>12491.43143792657</v>
+        <v>9552.688781621566</v>
       </c>
       <c r="G16" t="n">
-        <v>9946.875393807741</v>
+        <v>22035.28179200505</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>9516179</v>
+        <v>8770183</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>234891054</v>
+        <v>232259591</v>
       </c>
       <c r="E17" t="n">
-        <v>2113225577</v>
+        <v>2089551297</v>
       </c>
       <c r="F17" t="n">
-        <v>6313.833475977658</v>
+        <v>929722.1914683853</v>
       </c>
       <c r="G17" t="n">
-        <v>6554.83451398256</v>
+        <v>975832.5063342905</v>
       </c>
       <c r="H17" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>41255943</v>
+        <v>36533888</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13438750</v>
+        <v>13991316</v>
       </c>
       <c r="E18" t="n">
-        <v>82370517</v>
+        <v>85757376</v>
       </c>
       <c r="F18" t="n">
-        <v>34366.40019991623</v>
+        <v>32818.56390470671</v>
       </c>
       <c r="G18" t="n">
-        <v>33708.27150892061</v>
+        <v>37973.42445785177</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>12266977</v>
+        <v>11688270</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40054451</v>
+        <v>40614652</v>
       </c>
       <c r="E19" t="n">
-        <v>172550194</v>
+        <v>174963479</v>
       </c>
       <c r="F19" t="n">
-        <v>27352.91104001943</v>
+        <v>33037.13946101457</v>
       </c>
       <c r="G19" t="n">
-        <v>79452.87845204365</v>
+        <v>86417.37060009989</v>
       </c>
       <c r="H19" t="n">
         <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>10460912</v>
+        <v>7475596</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251213842</v>
+        <v>240187059</v>
       </c>
       <c r="E20" t="n">
-        <v>251213842</v>
+        <v>240187059</v>
       </c>
       <c r="F20" t="n">
-        <v>55408.82413058092</v>
+        <v>69871.695044705</v>
       </c>
       <c r="G20" t="n">
-        <v>110101.3034882228</v>
+        <v>120431.740515018</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>110255737</v>
+        <v>110228918</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35462718</v>
+        <v>34436381</v>
       </c>
       <c r="E21" t="n">
-        <v>129722230</v>
+        <v>125967903</v>
       </c>
       <c r="F21" t="n">
-        <v>57485.2739257329</v>
+        <v>56728.30078864515</v>
       </c>
       <c r="G21" t="n">
-        <v>76777.29139656811</v>
+        <v>79700.57143832554</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>13069900</v>
+        <v>11386895</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36073045</v>
+        <v>35286210</v>
       </c>
       <c r="E22" t="n">
-        <v>233924094</v>
+        <v>228821679</v>
       </c>
       <c r="F22" t="n">
-        <v>30166.32682748774</v>
+        <v>32309.57228390629</v>
       </c>
       <c r="G22" t="n">
-        <v>82705.47074634969</v>
+        <v>82956.48956144831</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>18566878</v>
+        <v>13496416</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123390875</v>
+        <v>123664561</v>
       </c>
       <c r="E23" t="n">
-        <v>2043453948</v>
+        <v>2047986407</v>
       </c>
       <c r="F23" t="n">
-        <v>364262.0210772533</v>
+        <v>360261.8242994904</v>
       </c>
       <c r="G23" t="n">
-        <v>311952.366579892</v>
+        <v>326929.7734755488</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>10018274</v>
+        <v>9601630</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5874849</v>
+        <v>5621106</v>
       </c>
       <c r="E24" t="n">
-        <v>27637322</v>
+        <v>26443631</v>
       </c>
       <c r="F24" t="n">
-        <v>8331.590860266184</v>
+        <v>1581.709466608842</v>
       </c>
       <c r="G24" t="n">
-        <v>57272.86409472912</v>
+        <v>1547.45455656287</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>1004715</v>
+        <v>1054767</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14300168</v>
+        <v>13677482</v>
       </c>
       <c r="E25" t="n">
-        <v>14300277</v>
+        <v>13677482</v>
       </c>
       <c r="F25" t="n">
-        <v>16097.07272355565</v>
+        <v>3501.343945976948</v>
       </c>
       <c r="G25" t="n">
-        <v>5776.049864403291</v>
+        <v>13353.47162801662</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>3407231</v>
+        <v>3087092</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>259743027</v>
+        <v>253255649</v>
       </c>
       <c r="E27" t="n">
-        <v>469158248</v>
+        <v>457440487</v>
       </c>
       <c r="F27" t="n">
-        <v>81490.41778372994</v>
+        <v>99150.50410260215</v>
       </c>
       <c r="G27" t="n">
-        <v>83855.90381905806</v>
+        <v>100115.3579621066</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>13558129</v>
+        <v>12712706</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32982339</v>
+        <v>32249643</v>
       </c>
       <c r="E28" t="n">
-        <v>32982339</v>
+        <v>32249643</v>
       </c>
       <c r="F28" t="n">
-        <v>26287.20374623952</v>
+        <v>26879.41598292445</v>
       </c>
       <c r="G28" t="n">
-        <v>34931.25774237995</v>
+        <v>45122.92894556589</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>10010010</v>
+        <v>7062246</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>512301245</v>
+        <v>501975447</v>
       </c>
       <c r="E29" t="n">
-        <v>1867323307</v>
+        <v>1829686068</v>
       </c>
       <c r="F29" t="n">
-        <v>129370.104008647</v>
+        <v>143170.4160787067</v>
       </c>
       <c r="G29" t="n">
-        <v>87046.55026188912</v>
+        <v>205549.7379175844</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>43596848</v>
+        <v>34237127</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>112643289</v>
+        <v>110615976</v>
       </c>
       <c r="E30" t="n">
-        <v>432117787</v>
+        <v>424340687</v>
       </c>
       <c r="F30" t="n">
-        <v>136685.9401164068</v>
+        <v>144544.2543066866</v>
       </c>
       <c r="G30" t="n">
-        <v>180975.7190831298</v>
+        <v>188208.0230280226</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>23556366</v>
+        <v>22566252</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28519695</v>
+        <v>27195263</v>
       </c>
       <c r="F31" t="n">
-        <v>8902.951479784075</v>
+        <v>7069.687316520095</v>
       </c>
       <c r="G31" t="n">
-        <v>9843.614480651097</v>
+        <v>17582.96240286534</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>5460628</v>
+        <v>4304298</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119029563</v>
+        <v>118705421</v>
       </c>
       <c r="E32" t="n">
-        <v>433449532</v>
+        <v>432247445</v>
       </c>
       <c r="F32" t="n">
-        <v>69057.38213059375</v>
+        <v>70010.64640145224</v>
       </c>
       <c r="G32" t="n">
-        <v>56350.68015909765</v>
+        <v>57945.40247303229</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>409335</v>
+        <v>409740</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>298881993</v>
+        <v>287418689</v>
       </c>
       <c r="E33" t="n">
-        <v>1033049582</v>
+        <v>992928106</v>
       </c>
       <c r="F33" t="n">
-        <v>128999.1582379839</v>
+        <v>195582.7231511746</v>
       </c>
       <c r="G33" t="n">
-        <v>241267.0652868525</v>
+        <v>238165.691409701</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>38962504</v>
+        <v>29665991</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>87357322</v>
+        <v>84989263</v>
       </c>
       <c r="E34" t="n">
-        <v>128317374</v>
+        <v>124838980</v>
       </c>
       <c r="F34" t="n">
-        <v>10633.22955910058</v>
+        <v>13481.90349337564</v>
       </c>
       <c r="G34" t="n">
-        <v>16448.48148525822</v>
+        <v>26310.77803452499</v>
       </c>
       <c r="H34" t="n">
         <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>7026555</v>
+        <v>5112126</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2962648</v>
+        <v>2900488</v>
       </c>
       <c r="E35" t="n">
-        <v>11850590</v>
+        <v>11601954</v>
       </c>
       <c r="F35" t="n">
-        <v>42702.68633212159</v>
+        <v>37218.64573410085</v>
       </c>
       <c r="G35" t="n">
-        <v>34009.58936783829</v>
+        <v>68663.00886388532</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I35" t="n">
-        <v>5414677</v>
+        <v>3650267</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>179967385</v>
+        <v>174420286</v>
       </c>
       <c r="E36" t="n">
-        <v>516549799</v>
+        <v>500628287</v>
       </c>
       <c r="F36" t="n">
-        <v>182757.7691488388</v>
+        <v>189524.4191006956</v>
       </c>
       <c r="G36" t="n">
-        <v>205886.5221191121</v>
+        <v>218230.6977687205</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>18336745</v>
+        <v>13593939</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>115292101</v>
+        <v>110183872</v>
       </c>
       <c r="E37" t="n">
-        <v>301197401</v>
+        <v>287852295</v>
       </c>
       <c r="F37" t="n">
-        <v>41829.78046178092</v>
+        <v>40029.08344393485</v>
       </c>
       <c r="G37" t="n">
-        <v>45252.76781999704</v>
+        <v>37217.89427825206</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>6754144</v>
+        <v>5593403</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>309061533</v>
+        <v>298152312</v>
       </c>
       <c r="E38" t="n">
-        <v>1766065901</v>
+        <v>1703727496</v>
       </c>
       <c r="F38" t="n">
-        <v>56059.68218835732</v>
+        <v>52598.18088985301</v>
       </c>
       <c r="G38" t="n">
-        <v>78010.28474829481</v>
+        <v>72245.80432295422</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>42722988</v>
+        <v>34763201</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>257437211</v>
+        <v>248339076</v>
       </c>
       <c r="E2" t="n">
-        <v>1614352567</v>
+        <v>1557299436</v>
       </c>
       <c r="F2" t="n">
-        <v>12391.20627020084</v>
+        <v>205495.990537306</v>
       </c>
       <c r="G2" t="n">
-        <v>15967.77240155607</v>
+        <v>194961.9633649449</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I2" t="n">
-        <v>68732179</v>
+        <v>65610887</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117459653</v>
+        <v>114106380</v>
       </c>
       <c r="E3" t="n">
-        <v>130053221</v>
+        <v>126340422</v>
       </c>
       <c r="F3" t="n">
-        <v>46281.25269651449</v>
+        <v>43565.60636974843</v>
       </c>
       <c r="G3" t="n">
-        <v>171006.2100659753</v>
+        <v>163072.9363136814</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>34622655</v>
+        <v>25848196</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>439840319</v>
+        <v>434356921</v>
       </c>
       <c r="E4" t="n">
-        <v>550174867</v>
+        <v>543315952</v>
       </c>
       <c r="F4" t="n">
-        <v>109468.3547983585</v>
+        <v>123962.0319173221</v>
       </c>
       <c r="G4" t="n">
-        <v>148866.0320408327</v>
+        <v>134610.471505593</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>79438036</v>
+        <v>69499615</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>107342267</v>
+        <v>106242848</v>
       </c>
       <c r="E5" t="n">
-        <v>107342267</v>
+        <v>106242848</v>
       </c>
       <c r="F5" t="n">
-        <v>69128.62069586017</v>
+        <v>63702.62884288977</v>
       </c>
       <c r="G5" t="n">
-        <v>112158.3844836854</v>
+        <v>104935.0123219251</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>57662625</v>
+        <v>54439355</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>186151702</v>
+        <v>185240212</v>
       </c>
       <c r="E6" t="n">
-        <v>186151702</v>
+        <v>185240212</v>
       </c>
       <c r="F6" t="n">
-        <v>73670.38651506486</v>
+        <v>60938.39047692053</v>
       </c>
       <c r="G6" t="n">
-        <v>105070.8349080406</v>
+        <v>110023.4485322761</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>20021027</v>
+        <v>18912350</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85159928</v>
+        <v>84130108</v>
       </c>
       <c r="E7" t="n">
-        <v>106184447</v>
+        <v>104900383</v>
       </c>
       <c r="F7" t="n">
-        <v>10125.45805028991</v>
+        <v>9923.891410021046</v>
       </c>
       <c r="G7" t="n">
-        <v>46588.38993332486</v>
+        <v>43513.41160878188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>8552609</v>
+        <v>8343223</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65037044</v>
+        <v>64485588</v>
       </c>
       <c r="E8" t="n">
-        <v>135597013</v>
+        <v>134447271</v>
       </c>
       <c r="F8" t="n">
-        <v>51561.42288945171</v>
+        <v>61777.78943968361</v>
       </c>
       <c r="G8" t="n">
-        <v>57422.38172365379</v>
+        <v>46920.27454523241</v>
       </c>
       <c r="H8" t="n">
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>13371752</v>
+        <v>12619535</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>171509317</v>
+        <v>168060137</v>
       </c>
       <c r="E9" t="n">
-        <v>171549802</v>
+        <v>168104859</v>
       </c>
       <c r="F9" t="n">
-        <v>8997.404187163575</v>
+        <v>6443.540604892155</v>
       </c>
       <c r="G9" t="n">
-        <v>20129.29402978645</v>
+        <v>17294.33088356623</v>
       </c>
       <c r="H9" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I9" t="n">
-        <v>13189368</v>
+        <v>11955852</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>524093391</v>
+        <v>520923387</v>
       </c>
       <c r="E10" t="n">
-        <v>524093391</v>
+        <v>520923387</v>
       </c>
       <c r="F10" t="n">
-        <v>335896.9234715128</v>
+        <v>357598.8685884183</v>
       </c>
       <c r="G10" t="n">
-        <v>402053.8289146367</v>
+        <v>421145.8256509554</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>360496598</v>
+        <v>343162145</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71321634</v>
+        <v>70686725</v>
       </c>
       <c r="E11" t="n">
-        <v>81832490</v>
+        <v>81104013</v>
       </c>
       <c r="F11" t="n">
-        <v>2383.122606695395</v>
+        <v>4066.873195033739</v>
       </c>
       <c r="G11" t="n">
-        <v>3066.080956972526</v>
+        <v>7358.186537790841</v>
       </c>
       <c r="H11" t="n">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2116136</v>
+        <v>1953978</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>186387165</v>
+        <v>183033354</v>
       </c>
       <c r="E12" t="n">
-        <v>804550477</v>
+        <v>790073566</v>
       </c>
       <c r="F12" t="n">
-        <v>350113.9250647796</v>
+        <v>344254.8163530205</v>
       </c>
       <c r="G12" t="n">
-        <v>331921.538169665</v>
+        <v>335536.3628169182</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I12" t="n">
-        <v>71642934</v>
+        <v>69063655</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96914630</v>
+        <v>96441566</v>
       </c>
       <c r="E13" t="n">
-        <v>96914630</v>
+        <v>96441566</v>
       </c>
       <c r="F13" t="n">
-        <v>5359.220037267145</v>
+        <v>5215.791500798558</v>
       </c>
       <c r="G13" t="n">
-        <v>4707.094918650112</v>
+        <v>4488.734426263605</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I13" t="n">
-        <v>6645114</v>
+        <v>6452100</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10352145</v>
+        <v>10388755</v>
       </c>
       <c r="E14" t="n">
-        <v>25880361</v>
+        <v>25971887</v>
       </c>
       <c r="F14" t="n">
-        <v>8313.569018616845</v>
+        <v>6992.886377887494</v>
       </c>
       <c r="G14" t="n">
-        <v>19381.07014652771</v>
+        <v>19152.07208754271</v>
       </c>
       <c r="H14" t="n">
         <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>1958832</v>
+        <v>2020695</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10456295</v>
+        <v>10440942</v>
       </c>
       <c r="E15" t="n">
-        <v>15375785</v>
+        <v>15353209</v>
       </c>
       <c r="F15" t="n">
-        <v>3392.194439277777</v>
+        <v>3309.257245858329</v>
       </c>
       <c r="G15" t="n">
-        <v>2766.700170830753</v>
+        <v>2849.915902494592</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>340447</v>
+        <v>333615</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26927807</v>
+        <v>26666081</v>
       </c>
       <c r="E16" t="n">
-        <v>83844552</v>
+        <v>83029620</v>
       </c>
       <c r="F16" t="n">
-        <v>9552.688781621566</v>
+        <v>10860.07631348363</v>
       </c>
       <c r="G16" t="n">
-        <v>22035.28179200505</v>
+        <v>19507.52388589178</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>8770183</v>
+        <v>8517244</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>232259591</v>
+        <v>230014776</v>
       </c>
       <c r="E17" t="n">
-        <v>2089551297</v>
+        <v>2069355549</v>
       </c>
       <c r="F17" t="n">
-        <v>929722.1914683853</v>
+        <v>914737.8229965728</v>
       </c>
       <c r="G17" t="n">
-        <v>975832.5063342905</v>
+        <v>977783.276323623</v>
       </c>
       <c r="H17" t="n">
         <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>36533888</v>
+        <v>33880366</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13991316</v>
+        <v>13753251</v>
       </c>
       <c r="E18" t="n">
-        <v>85757376</v>
+        <v>84298195</v>
       </c>
       <c r="F18" t="n">
-        <v>32818.56390470671</v>
+        <v>27022.57927211687</v>
       </c>
       <c r="G18" t="n">
-        <v>37973.42445785177</v>
+        <v>37008.96912384529</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11688270</v>
+        <v>11145415</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40614652</v>
+        <v>38979792</v>
       </c>
       <c r="E19" t="n">
-        <v>174963479</v>
+        <v>167920680</v>
       </c>
       <c r="F19" t="n">
-        <v>33037.13946101457</v>
+        <v>35409.19348488364</v>
       </c>
       <c r="G19" t="n">
-        <v>86417.37060009989</v>
+        <v>69173.03355922607</v>
       </c>
       <c r="H19" t="n">
         <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>7475596</v>
+        <v>6865550</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>240187059</v>
+        <v>238442193</v>
       </c>
       <c r="E20" t="n">
-        <v>240187059</v>
+        <v>238442193</v>
       </c>
       <c r="F20" t="n">
-        <v>69871.695044705</v>
+        <v>72374.3130576734</v>
       </c>
       <c r="G20" t="n">
-        <v>120431.740515018</v>
+        <v>106795.0318320225</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>110228918</v>
+        <v>94449376</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34436381</v>
+        <v>35382807</v>
       </c>
       <c r="E21" t="n">
-        <v>125967903</v>
+        <v>129429918</v>
       </c>
       <c r="F21" t="n">
-        <v>56728.30078864515</v>
+        <v>51967.12936808021</v>
       </c>
       <c r="G21" t="n">
-        <v>79700.57143832554</v>
+        <v>72774.92676501199</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>11386895</v>
+        <v>10642300</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35286210</v>
+        <v>34674795</v>
       </c>
       <c r="E22" t="n">
-        <v>228821679</v>
+        <v>224856819</v>
       </c>
       <c r="F22" t="n">
-        <v>32309.57228390629</v>
+        <v>26783.85380564649</v>
       </c>
       <c r="G22" t="n">
-        <v>82956.48956144831</v>
+        <v>77805.97386954559</v>
       </c>
       <c r="H22" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>13496416</v>
+        <v>12435813</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123664561</v>
+        <v>123680929</v>
       </c>
       <c r="E23" t="n">
-        <v>2047986407</v>
+        <v>2048257485</v>
       </c>
       <c r="F23" t="n">
-        <v>360261.8242994904</v>
+        <v>364122.3457392963</v>
       </c>
       <c r="G23" t="n">
-        <v>326929.7734755488</v>
+        <v>323392.5026562982</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>9601630</v>
+        <v>9713967</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5621106</v>
+        <v>5647733</v>
       </c>
       <c r="E24" t="n">
-        <v>26443631</v>
+        <v>26568894</v>
       </c>
       <c r="F24" t="n">
-        <v>1581.709466608842</v>
+        <v>484.4940891532406</v>
       </c>
       <c r="G24" t="n">
-        <v>1547.45455656287</v>
+        <v>1866.680440310496</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>1054767</v>
+        <v>1050288</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13677482</v>
+        <v>13732602</v>
       </c>
       <c r="E25" t="n">
-        <v>13677482</v>
+        <v>13732602</v>
       </c>
       <c r="F25" t="n">
-        <v>3501.343945976948</v>
+        <v>8412.231891561229</v>
       </c>
       <c r="G25" t="n">
-        <v>13353.47162801662</v>
+        <v>14939.00747051697</v>
       </c>
       <c r="H25" t="n">
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>3087092</v>
+        <v>2822848</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>253255649</v>
+        <v>251862999</v>
       </c>
       <c r="E27" t="n">
-        <v>457440487</v>
+        <v>454925027</v>
       </c>
       <c r="F27" t="n">
-        <v>99150.50410260215</v>
+        <v>103887.6905627793</v>
       </c>
       <c r="G27" t="n">
-        <v>100115.3579621066</v>
+        <v>102315.2121855864</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>12712706</v>
+        <v>12185933</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32249643</v>
+        <v>31819485</v>
       </c>
       <c r="E28" t="n">
-        <v>32249643</v>
+        <v>31819485</v>
       </c>
       <c r="F28" t="n">
-        <v>26879.41598292445</v>
+        <v>30719.30700245348</v>
       </c>
       <c r="G28" t="n">
-        <v>45122.92894556589</v>
+        <v>38535.2700552586</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>7062246</v>
+        <v>6902895</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>501975447</v>
+        <v>487947272</v>
       </c>
       <c r="E29" t="n">
-        <v>1829686068</v>
+        <v>1778553775</v>
       </c>
       <c r="F29" t="n">
-        <v>143170.4160787067</v>
+        <v>151108.4662655855</v>
       </c>
       <c r="G29" t="n">
-        <v>205549.7379175844</v>
+        <v>200214.8946722653</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>34237127</v>
+        <v>33397178</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>110615976</v>
+        <v>112874267</v>
       </c>
       <c r="E30" t="n">
-        <v>424340687</v>
+        <v>433003857</v>
       </c>
       <c r="F30" t="n">
-        <v>144544.2543066866</v>
+        <v>143356.9678520556</v>
       </c>
       <c r="G30" t="n">
-        <v>188208.0230280226</v>
+        <v>186975.5876907365</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>22566252</v>
+        <v>22732640</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27195263</v>
+        <v>26581662</v>
       </c>
       <c r="F31" t="n">
-        <v>7069.687316520095</v>
+        <v>9207.386612240314</v>
       </c>
       <c r="G31" t="n">
-        <v>17582.96240286534</v>
+        <v>14497.77019484531</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>4304298</v>
+        <v>3745032</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>118705421</v>
+        <v>118825544</v>
       </c>
       <c r="E32" t="n">
-        <v>432247445</v>
+        <v>432672314</v>
       </c>
       <c r="F32" t="n">
-        <v>70010.64640145224</v>
+        <v>70342.54836197849</v>
       </c>
       <c r="G32" t="n">
-        <v>57945.40247303229</v>
+        <v>16867.24220313416</v>
       </c>
       <c r="H32" t="n">
         <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>409740</v>
+        <v>388712</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>287418689</v>
+        <v>291380778</v>
       </c>
       <c r="E33" t="n">
-        <v>992928106</v>
+        <v>1006615696</v>
       </c>
       <c r="F33" t="n">
-        <v>195582.7231511746</v>
+        <v>120699.234439036</v>
       </c>
       <c r="G33" t="n">
-        <v>238165.691409701</v>
+        <v>169802.9819109272</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>29665991</v>
+        <v>30598518</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>84989263</v>
+        <v>84334809</v>
       </c>
       <c r="E34" t="n">
-        <v>124838980</v>
+        <v>123877665</v>
       </c>
       <c r="F34" t="n">
-        <v>13481.90349337564</v>
+        <v>7474.766741088951</v>
       </c>
       <c r="G34" t="n">
-        <v>26310.77803452499</v>
+        <v>23435.44629917416</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I34" t="n">
-        <v>5112126</v>
+        <v>4312619</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2900488</v>
+        <v>2954860</v>
       </c>
       <c r="E35" t="n">
-        <v>11601954</v>
+        <v>11819439</v>
       </c>
       <c r="F35" t="n">
-        <v>37218.64573410085</v>
+        <v>33549.14470098445</v>
       </c>
       <c r="G35" t="n">
-        <v>68663.00886388532</v>
+        <v>50131.19484555942</v>
       </c>
       <c r="H35" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="I35" t="n">
-        <v>3650267</v>
+        <v>3316326</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>174420286</v>
+        <v>173735326</v>
       </c>
       <c r="E36" t="n">
-        <v>500628287</v>
+        <v>498662287</v>
       </c>
       <c r="F36" t="n">
-        <v>189524.4191006956</v>
+        <v>192329.457966557</v>
       </c>
       <c r="G36" t="n">
-        <v>218230.6977687205</v>
+        <v>223943.9806161291</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>13593939</v>
+        <v>12156405</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>110183872</v>
+        <v>111015310</v>
       </c>
       <c r="E37" t="n">
-        <v>287852295</v>
+        <v>290024405</v>
       </c>
       <c r="F37" t="n">
-        <v>40029.08344393485</v>
+        <v>40472.27248731393</v>
       </c>
       <c r="G37" t="n">
-        <v>37217.89427825206</v>
+        <v>39214.54714588707</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>5593403</v>
+        <v>5551102</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>298152312</v>
+        <v>295690528</v>
       </c>
       <c r="E38" t="n">
-        <v>1703727496</v>
+        <v>1689660158</v>
       </c>
       <c r="F38" t="n">
-        <v>52598.18088985301</v>
+        <v>57307.44199333101</v>
       </c>
       <c r="G38" t="n">
-        <v>72245.80432295422</v>
+        <v>70595.86318756704</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>34763201</v>
+        <v>34465600</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>248339076</v>
+        <v>249159819</v>
       </c>
       <c r="E2" t="n">
-        <v>1557299436</v>
+        <v>1562446204</v>
       </c>
       <c r="F2" t="n">
-        <v>205495.990537306</v>
+        <v>179543.9867856564</v>
       </c>
       <c r="G2" t="n">
-        <v>194961.9633649449</v>
+        <v>210785.6973739594</v>
       </c>
       <c r="H2" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>65610887</v>
+        <v>75062606</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>114106380</v>
+        <v>111615819</v>
       </c>
       <c r="E3" t="n">
-        <v>126340422</v>
+        <v>123582833</v>
       </c>
       <c r="F3" t="n">
-        <v>43565.60636974843</v>
+        <v>35975.87054207681</v>
       </c>
       <c r="G3" t="n">
-        <v>163072.9363136814</v>
+        <v>138463.5326823495</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I3" t="n">
-        <v>25848196</v>
+        <v>22241703</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>434356921</v>
+        <v>424966241</v>
       </c>
       <c r="E4" t="n">
-        <v>543315952</v>
+        <v>531569606</v>
       </c>
       <c r="F4" t="n">
-        <v>123962.0319173221</v>
+        <v>116564.3938117997</v>
       </c>
       <c r="G4" t="n">
-        <v>134610.471505593</v>
+        <v>127686.1435364527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>69499615</v>
+        <v>49376729</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>106242848</v>
+        <v>98822780</v>
       </c>
       <c r="E5" t="n">
-        <v>106242848</v>
+        <v>98822780</v>
       </c>
       <c r="F5" t="n">
-        <v>63702.62884288977</v>
+        <v>79728.04480380494</v>
       </c>
       <c r="G5" t="n">
-        <v>104935.0123219251</v>
+        <v>87074.94981522365</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>54439355</v>
+        <v>60081727</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>185240212</v>
+        <v>180298458</v>
       </c>
       <c r="E6" t="n">
-        <v>185240212</v>
+        <v>180298458</v>
       </c>
       <c r="F6" t="n">
-        <v>60938.39047692053</v>
+        <v>74337.59141884743</v>
       </c>
       <c r="G6" t="n">
-        <v>110023.4485322761</v>
+        <v>97848.64408367618</v>
       </c>
       <c r="H6" t="n">
         <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>18912350</v>
+        <v>17786089</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84130108</v>
+        <v>82853195</v>
       </c>
       <c r="E7" t="n">
-        <v>104900383</v>
+        <v>103308222</v>
       </c>
       <c r="F7" t="n">
-        <v>9923.891410021046</v>
+        <v>17281.28231689567</v>
       </c>
       <c r="G7" t="n">
-        <v>43513.41160878188</v>
+        <v>35458.31755290928</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>8343223</v>
+        <v>8276204</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64485588</v>
+        <v>61936193</v>
       </c>
       <c r="E8" t="n">
-        <v>134447271</v>
+        <v>129131989</v>
       </c>
       <c r="F8" t="n">
-        <v>61777.78943968361</v>
+        <v>53120.38514882723</v>
       </c>
       <c r="G8" t="n">
-        <v>46920.27454523241</v>
+        <v>44949.68428328271</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>12619535</v>
+        <v>11489232</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>168060137</v>
+        <v>171730265</v>
       </c>
       <c r="E9" t="n">
-        <v>168104859</v>
+        <v>171781745</v>
       </c>
       <c r="F9" t="n">
-        <v>6443.540604892155</v>
+        <v>9557.401932739665</v>
       </c>
       <c r="G9" t="n">
-        <v>17294.33088356623</v>
+        <v>16847.32692549475</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>11955852</v>
+        <v>13593912</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>520923387</v>
+        <v>513496033</v>
       </c>
       <c r="E10" t="n">
-        <v>520923387</v>
+        <v>513496033</v>
       </c>
       <c r="F10" t="n">
-        <v>357598.8685884183</v>
+        <v>336411.0122270675</v>
       </c>
       <c r="G10" t="n">
-        <v>421145.8256509554</v>
+        <v>445279.6448413805</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>343162145</v>
+        <v>327669839</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70686725</v>
+        <v>71021979</v>
       </c>
       <c r="E11" t="n">
-        <v>81104013</v>
+        <v>81488675</v>
       </c>
       <c r="F11" t="n">
-        <v>4066.873195033739</v>
+        <v>3807.859699142581</v>
       </c>
       <c r="G11" t="n">
-        <v>7358.186537790841</v>
+        <v>6405.257892332567</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1953978</v>
+        <v>2076595</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>183033354</v>
+        <v>180449035</v>
       </c>
       <c r="E12" t="n">
-        <v>790073566</v>
+        <v>778918211</v>
       </c>
       <c r="F12" t="n">
-        <v>344254.8163530205</v>
+        <v>375767.9428149496</v>
       </c>
       <c r="G12" t="n">
-        <v>335536.3628169182</v>
+        <v>321161.4871437803</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>69063655</v>
+        <v>63135278</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96441566</v>
+        <v>96477773</v>
       </c>
       <c r="E13" t="n">
-        <v>96441566</v>
+        <v>96477773</v>
       </c>
       <c r="F13" t="n">
-        <v>5215.791500798558</v>
+        <v>5193.06909481395</v>
       </c>
       <c r="G13" t="n">
-        <v>4488.734426263605</v>
+        <v>3222.905547274255</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>6452100</v>
+        <v>5611368</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10388755</v>
+        <v>10665203</v>
       </c>
       <c r="E14" t="n">
-        <v>25971887</v>
+        <v>26663007</v>
       </c>
       <c r="F14" t="n">
-        <v>6992.886377887494</v>
+        <v>6548.246339249102</v>
       </c>
       <c r="G14" t="n">
-        <v>19152.07208754271</v>
+        <v>13227.47705220716</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2020695</v>
+        <v>1938357</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10440942</v>
+        <v>10398439</v>
       </c>
       <c r="E15" t="n">
-        <v>15353209</v>
+        <v>15290709</v>
       </c>
       <c r="F15" t="n">
-        <v>3309.257245858329</v>
+        <v>3411.711445298477</v>
       </c>
       <c r="G15" t="n">
-        <v>2849.915902494592</v>
+        <v>2800.968230524159</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>333615</v>
+        <v>414244</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26666081</v>
+        <v>26771468</v>
       </c>
       <c r="E16" t="n">
-        <v>83029620</v>
+        <v>83357762</v>
       </c>
       <c r="F16" t="n">
-        <v>10860.07631348363</v>
+        <v>9479.051132328354</v>
       </c>
       <c r="G16" t="n">
-        <v>19507.52388589178</v>
+        <v>17751.21771577341</v>
       </c>
       <c r="H16" t="n">
         <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>8517244</v>
+        <v>8523850</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>230014776</v>
+        <v>228160116</v>
       </c>
       <c r="E17" t="n">
-        <v>2069355549</v>
+        <v>2052669884</v>
       </c>
       <c r="F17" t="n">
-        <v>914737.8229965728</v>
+        <v>901143.5640689357</v>
       </c>
       <c r="G17" t="n">
-        <v>977783.276323623</v>
+        <v>959555.7891808371</v>
       </c>
       <c r="H17" t="n">
         <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>33880366</v>
+        <v>28783892</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13753251</v>
+        <v>13399155</v>
       </c>
       <c r="E18" t="n">
-        <v>84298195</v>
+        <v>82127830</v>
       </c>
       <c r="F18" t="n">
-        <v>27022.57927211687</v>
+        <v>34194.11941819335</v>
       </c>
       <c r="G18" t="n">
-        <v>37008.96912384529</v>
+        <v>28955.57151191686</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11145415</v>
+        <v>9819180</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38979792</v>
+        <v>38903152</v>
       </c>
       <c r="E19" t="n">
-        <v>167920680</v>
+        <v>167590526</v>
       </c>
       <c r="F19" t="n">
-        <v>35409.19348488364</v>
+        <v>28665.61791631065</v>
       </c>
       <c r="G19" t="n">
-        <v>69173.03355922607</v>
+        <v>60392.55436434184</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>6865550</v>
+        <v>5958981</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>238442193</v>
+        <v>233717905</v>
       </c>
       <c r="E20" t="n">
-        <v>238442193</v>
+        <v>233717905</v>
       </c>
       <c r="F20" t="n">
-        <v>72374.3130576734</v>
+        <v>73086.3183650166</v>
       </c>
       <c r="G20" t="n">
-        <v>106795.0318320225</v>
+        <v>104953.8264690331</v>
       </c>
       <c r="H20" t="n">
         <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>94449376</v>
+        <v>93439040</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35382807</v>
+        <v>33053835</v>
       </c>
       <c r="E21" t="n">
-        <v>129429918</v>
+        <v>120910565</v>
       </c>
       <c r="F21" t="n">
-        <v>51967.12936808021</v>
+        <v>58220.62606267517</v>
       </c>
       <c r="G21" t="n">
-        <v>72774.92676501199</v>
+        <v>78239.05130088759</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>10642300</v>
+        <v>8616891</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34674795</v>
+        <v>33877841</v>
       </c>
       <c r="E22" t="n">
-        <v>224856819</v>
+        <v>219688782</v>
       </c>
       <c r="F22" t="n">
-        <v>26783.85380564649</v>
+        <v>31297.4018677482</v>
       </c>
       <c r="G22" t="n">
-        <v>77805.97386954559</v>
+        <v>77075.58708740828</v>
       </c>
       <c r="H22" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>12435813</v>
+        <v>10431282</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123680929</v>
+        <v>125934202</v>
       </c>
       <c r="E23" t="n">
-        <v>2048257485</v>
+        <v>2085573528</v>
       </c>
       <c r="F23" t="n">
-        <v>364122.3457392963</v>
+        <v>346371.3111612854</v>
       </c>
       <c r="G23" t="n">
-        <v>323392.5026562982</v>
+        <v>325418.2146161302</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>9713967</v>
+        <v>10873390</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5647733</v>
+        <v>5617520</v>
       </c>
       <c r="E24" t="n">
-        <v>26568894</v>
+        <v>26426761</v>
       </c>
       <c r="F24" t="n">
-        <v>484.4940891532406</v>
+        <v>1751.729424654766</v>
       </c>
       <c r="G24" t="n">
-        <v>1866.680440310496</v>
+        <v>1524.094215104525</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>1050288</v>
+        <v>894908</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13732602</v>
+        <v>13348071</v>
       </c>
       <c r="E25" t="n">
-        <v>13732602</v>
+        <v>13348071</v>
       </c>
       <c r="F25" t="n">
-        <v>8412.231891561229</v>
+        <v>4169.388193335539</v>
       </c>
       <c r="G25" t="n">
-        <v>14939.00747051697</v>
+        <v>25300.52052191041</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2822848</v>
+        <v>2453995</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>251862999</v>
+        <v>249042433</v>
       </c>
       <c r="E27" t="n">
-        <v>454925027</v>
+        <v>449830407</v>
       </c>
       <c r="F27" t="n">
-        <v>103887.6905627793</v>
+        <v>99501.27455797244</v>
       </c>
       <c r="G27" t="n">
-        <v>102315.2121855864</v>
+        <v>101682.2244201173</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>12185933</v>
+        <v>10684802</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31819485</v>
+        <v>30938029</v>
       </c>
       <c r="E28" t="n">
-        <v>31819485</v>
+        <v>30938029</v>
       </c>
       <c r="F28" t="n">
-        <v>30719.30700245348</v>
+        <v>33059.99336963808</v>
       </c>
       <c r="G28" t="n">
-        <v>38535.2700552586</v>
+        <v>38362.44259567522</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I28" t="n">
-        <v>6902895</v>
+        <v>6163450</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>487947272</v>
+        <v>479597104</v>
       </c>
       <c r="E29" t="n">
-        <v>1778553775</v>
+        <v>1748117654</v>
       </c>
       <c r="F29" t="n">
-        <v>151108.4662655855</v>
+        <v>148609.1141617908</v>
       </c>
       <c r="G29" t="n">
-        <v>200214.8946722653</v>
+        <v>197322.6033027201</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>33397178</v>
+        <v>26696834</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>112874267</v>
+        <v>114568052</v>
       </c>
       <c r="E30" t="n">
-        <v>433003857</v>
+        <v>439501486</v>
       </c>
       <c r="F30" t="n">
-        <v>143356.9678520556</v>
+        <v>145261.7405730267</v>
       </c>
       <c r="G30" t="n">
-        <v>186975.5876907365</v>
+        <v>183252.4152076275</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>22732640</v>
+        <v>20008301</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26581662</v>
+        <v>26961633</v>
       </c>
       <c r="F31" t="n">
-        <v>9207.386612240314</v>
+        <v>8454.641569744153</v>
       </c>
       <c r="G31" t="n">
-        <v>14497.77019484531</v>
+        <v>15225.6367149991</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>3745032</v>
+        <v>3791142</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>118825544</v>
+        <v>119628858</v>
       </c>
       <c r="E32" t="n">
-        <v>432672314</v>
+        <v>435585702</v>
       </c>
       <c r="F32" t="n">
-        <v>70342.54836197849</v>
+        <v>67145.20781783968</v>
       </c>
       <c r="G32" t="n">
-        <v>16867.24220313416</v>
+        <v>17108.8042672066</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>388712</v>
+        <v>128871</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>291380778</v>
+        <v>284450133</v>
       </c>
       <c r="E33" t="n">
-        <v>1006615696</v>
+        <v>982672814</v>
       </c>
       <c r="F33" t="n">
-        <v>120699.234439036</v>
+        <v>121899.888822547</v>
       </c>
       <c r="G33" t="n">
-        <v>169802.9819109272</v>
+        <v>161016.5782039168</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>30598518</v>
+        <v>26429748</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>84334809</v>
+        <v>82392731</v>
       </c>
       <c r="E34" t="n">
-        <v>123877665</v>
+        <v>121024987</v>
       </c>
       <c r="F34" t="n">
-        <v>7474.766741088951</v>
+        <v>9937.829044156459</v>
       </c>
       <c r="G34" t="n">
-        <v>23435.44629917416</v>
+        <v>19781.99186637998</v>
       </c>
       <c r="H34" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>4312619</v>
+        <v>4168011</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2954860</v>
+        <v>2928922</v>
       </c>
       <c r="E35" t="n">
-        <v>11819439</v>
+        <v>11715687</v>
       </c>
       <c r="F35" t="n">
-        <v>33549.14470098445</v>
+        <v>40737.06049903843</v>
       </c>
       <c r="G35" t="n">
-        <v>50131.19484555942</v>
+        <v>76725.63271602853</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>3316326</v>
+        <v>2725444</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>173735326</v>
+        <v>170482411</v>
       </c>
       <c r="E36" t="n">
-        <v>498662287</v>
+        <v>489325637</v>
       </c>
       <c r="F36" t="n">
-        <v>192329.457966557</v>
+        <v>185757.0205601124</v>
       </c>
       <c r="G36" t="n">
-        <v>223943.9806161291</v>
+        <v>229137.7880984572</v>
       </c>
       <c r="H36" t="n">
         <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>12156405</v>
+        <v>9647128</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>111015310</v>
+        <v>106549097</v>
       </c>
       <c r="E37" t="n">
-        <v>290024405</v>
+        <v>278356548</v>
       </c>
       <c r="F37" t="n">
-        <v>40472.27248731393</v>
+        <v>36855.63340939748</v>
       </c>
       <c r="G37" t="n">
-        <v>39214.54714588707</v>
+        <v>43341.48296780079</v>
       </c>
       <c r="H37" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>5551102</v>
+        <v>5402507</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>295690528</v>
+        <v>295072927</v>
       </c>
       <c r="E38" t="n">
-        <v>1689660158</v>
+        <v>1686131011</v>
       </c>
       <c r="F38" t="n">
-        <v>57307.44199333101</v>
+        <v>58030.40077651665</v>
       </c>
       <c r="G38" t="n">
-        <v>70595.86318756704</v>
+        <v>76949.39533135989</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>34465600</v>
+        <v>28220107</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249159819</v>
+        <v>239772008</v>
       </c>
       <c r="E2" t="n">
-        <v>1562446204</v>
+        <v>1503576563</v>
       </c>
       <c r="F2" t="n">
-        <v>179543.9867856564</v>
+        <v>164267.4573497447</v>
       </c>
       <c r="G2" t="n">
-        <v>210785.6973739594</v>
+        <v>221517.478768805</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>75062606</v>
+        <v>45166292</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>111615819</v>
+        <v>112491851</v>
       </c>
       <c r="E3" t="n">
-        <v>123582833</v>
+        <v>124552790</v>
       </c>
       <c r="F3" t="n">
-        <v>35975.87054207681</v>
+        <v>31792.66910834259</v>
       </c>
       <c r="G3" t="n">
-        <v>138463.5326823495</v>
+        <v>156842.4734894072</v>
       </c>
       <c r="H3" t="n">
         <v>0.16</v>
       </c>
       <c r="I3" t="n">
-        <v>22241703</v>
+        <v>15420173</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>424966241</v>
+        <v>426895561</v>
       </c>
       <c r="E4" t="n">
-        <v>531569606</v>
+        <v>533982898</v>
       </c>
       <c r="F4" t="n">
-        <v>116564.3938117997</v>
+        <v>104994.1105881696</v>
       </c>
       <c r="G4" t="n">
-        <v>127686.1435364527</v>
+        <v>128680.0692444488</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>49376729</v>
+        <v>29541313</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>98822780</v>
+        <v>98838785</v>
       </c>
       <c r="E5" t="n">
-        <v>98822780</v>
+        <v>98838785</v>
       </c>
       <c r="F5" t="n">
-        <v>79728.04480380494</v>
+        <v>88213.80489821969</v>
       </c>
       <c r="G5" t="n">
-        <v>87074.94981522365</v>
+        <v>98606.38256107298</v>
       </c>
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>60081727</v>
+        <v>56922357</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>180298458</v>
+        <v>180963367</v>
       </c>
       <c r="E6" t="n">
-        <v>180298458</v>
+        <v>180963367</v>
       </c>
       <c r="F6" t="n">
-        <v>74337.59141884743</v>
+        <v>73752.44743842902</v>
       </c>
       <c r="G6" t="n">
-        <v>97848.64408367618</v>
+        <v>90756.83672341015</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>17786089</v>
+        <v>10744582</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82853195</v>
+        <v>84380463</v>
       </c>
       <c r="E7" t="n">
-        <v>103308222</v>
+        <v>105212546</v>
       </c>
       <c r="F7" t="n">
-        <v>17281.28231689567</v>
+        <v>16767.8662308049</v>
       </c>
       <c r="G7" t="n">
-        <v>35458.31755290928</v>
+        <v>36965.25686320743</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>8276204</v>
+        <v>7132486</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61936193</v>
+        <v>62128668</v>
       </c>
       <c r="E8" t="n">
-        <v>129131989</v>
+        <v>129533282</v>
       </c>
       <c r="F8" t="n">
-        <v>53120.38514882723</v>
+        <v>63203.49605348798</v>
       </c>
       <c r="G8" t="n">
-        <v>44949.68428328271</v>
+        <v>48743.83979675304</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>11489232</v>
+        <v>9602373</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>171730265</v>
+        <v>198173037</v>
       </c>
       <c r="E9" t="n">
-        <v>171781745</v>
+        <v>198240097</v>
       </c>
       <c r="F9" t="n">
-        <v>9557.401932739665</v>
+        <v>63302.54818490335</v>
       </c>
       <c r="G9" t="n">
-        <v>16847.32692549475</v>
+        <v>20107.57881339795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>13593912</v>
+        <v>37882620</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>513496033</v>
+        <v>516525146</v>
       </c>
       <c r="E10" t="n">
-        <v>513496033</v>
+        <v>516525146</v>
       </c>
       <c r="F10" t="n">
-        <v>336411.0122270675</v>
+        <v>318765.762647638</v>
       </c>
       <c r="G10" t="n">
-        <v>445279.6448413805</v>
+        <v>454727.9562494628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>327669839</v>
+        <v>244641002</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71021979</v>
+        <v>70388147</v>
       </c>
       <c r="E11" t="n">
-        <v>81488675</v>
+        <v>80761432</v>
       </c>
       <c r="F11" t="n">
-        <v>3807.859699142581</v>
+        <v>3053.70080504955</v>
       </c>
       <c r="G11" t="n">
-        <v>6405.257892332567</v>
+        <v>3435.569654885564</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>2076595</v>
+        <v>2125060</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>180449035</v>
+        <v>182452902</v>
       </c>
       <c r="E12" t="n">
-        <v>778918211</v>
+        <v>787568014</v>
       </c>
       <c r="F12" t="n">
-        <v>375767.9428149496</v>
+        <v>371142.1992842539</v>
       </c>
       <c r="G12" t="n">
-        <v>321161.4871437803</v>
+        <v>327726.9470709049</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I12" t="n">
-        <v>63135278</v>
+        <v>53007352</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96477773</v>
+        <v>95949111</v>
       </c>
       <c r="E13" t="n">
-        <v>96477773</v>
+        <v>95949111</v>
       </c>
       <c r="F13" t="n">
-        <v>5193.06909481395</v>
+        <v>4957.287755084142</v>
       </c>
       <c r="G13" t="n">
-        <v>3222.905547274255</v>
+        <v>4163.236726295381</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>5611368</v>
+        <v>4572650</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10665203</v>
+        <v>9994625</v>
       </c>
       <c r="E14" t="n">
-        <v>26663007</v>
+        <v>24986561</v>
       </c>
       <c r="F14" t="n">
-        <v>6548.246339249102</v>
+        <v>6694.375010653103</v>
       </c>
       <c r="G14" t="n">
-        <v>13227.47705220716</v>
+        <v>14072.25838485011</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>1938357</v>
+        <v>1559495</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10398439</v>
+        <v>10443220</v>
       </c>
       <c r="E15" t="n">
-        <v>15290709</v>
+        <v>15356558</v>
       </c>
       <c r="F15" t="n">
-        <v>3411.711445298477</v>
+        <v>3653.2181548006</v>
       </c>
       <c r="G15" t="n">
-        <v>2800.968230524159</v>
+        <v>5398.153260091755</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>414244</v>
+        <v>689326</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26771468</v>
+        <v>26580910</v>
       </c>
       <c r="E16" t="n">
-        <v>83357762</v>
+        <v>82764424</v>
       </c>
       <c r="F16" t="n">
-        <v>9479.051132328354</v>
+        <v>11364.21050572149</v>
       </c>
       <c r="G16" t="n">
-        <v>17751.21771577341</v>
+        <v>18925.83101521715</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>8523850</v>
+        <v>8176585</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>228160116</v>
+        <v>228614522</v>
       </c>
       <c r="E17" t="n">
-        <v>2052669884</v>
+        <v>2056757999</v>
       </c>
       <c r="F17" t="n">
-        <v>901143.5640689357</v>
+        <v>894044.1557547186</v>
       </c>
       <c r="G17" t="n">
-        <v>959555.7891808371</v>
+        <v>948087.5286908051</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>28783892</v>
+        <v>21182576</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13399155</v>
+        <v>13975235</v>
       </c>
       <c r="E18" t="n">
-        <v>82127830</v>
+        <v>85658809</v>
       </c>
       <c r="F18" t="n">
-        <v>34194.11941819335</v>
+        <v>24002.27765806543</v>
       </c>
       <c r="G18" t="n">
-        <v>28955.57151191686</v>
+        <v>45769.81364029047</v>
       </c>
       <c r="H18" t="n">
         <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>9819180</v>
+        <v>8076121</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38903152</v>
+        <v>38708459</v>
       </c>
       <c r="E19" t="n">
-        <v>167590526</v>
+        <v>166751809</v>
       </c>
       <c r="F19" t="n">
-        <v>28665.61791631065</v>
+        <v>32958.77872042659</v>
       </c>
       <c r="G19" t="n">
-        <v>60392.55436434184</v>
+        <v>78548.26441181105</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>5958981</v>
+        <v>4724363</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>233717905</v>
+        <v>234919686</v>
       </c>
       <c r="E20" t="n">
-        <v>233717905</v>
+        <v>234919686</v>
       </c>
       <c r="F20" t="n">
-        <v>73086.3183650166</v>
+        <v>78676.00780960832</v>
       </c>
       <c r="G20" t="n">
-        <v>104953.8264690331</v>
+        <v>110839.9821198364</v>
       </c>
       <c r="H20" t="n">
         <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>93439040</v>
+        <v>77603021</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33053835</v>
+        <v>33711474</v>
       </c>
       <c r="E21" t="n">
-        <v>120910565</v>
+        <v>123316201</v>
       </c>
       <c r="F21" t="n">
-        <v>58220.62606267517</v>
+        <v>53701.39197812134</v>
       </c>
       <c r="G21" t="n">
-        <v>78239.05130088759</v>
+        <v>69956.75691539771</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>8616891</v>
+        <v>7417158</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33877841</v>
+        <v>34296470</v>
       </c>
       <c r="E22" t="n">
-        <v>219688782</v>
+        <v>222403480</v>
       </c>
       <c r="F22" t="n">
-        <v>31297.4018677482</v>
+        <v>32653.39108076438</v>
       </c>
       <c r="G22" t="n">
-        <v>77075.58708740828</v>
+        <v>80997.03251326153</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>10431282</v>
+        <v>8520965</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125934202</v>
+        <v>124094790</v>
       </c>
       <c r="E23" t="n">
-        <v>2085573528</v>
+        <v>2055111364</v>
       </c>
       <c r="F23" t="n">
-        <v>346371.3111612854</v>
+        <v>342290.8146434809</v>
       </c>
       <c r="G23" t="n">
-        <v>325418.2146161302</v>
+        <v>328542.4358761268</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="n">
-        <v>10873390</v>
+        <v>10503994</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5617520</v>
+        <v>5559712</v>
       </c>
       <c r="E24" t="n">
-        <v>26426761</v>
+        <v>26154810</v>
       </c>
       <c r="F24" t="n">
-        <v>1751.729424654766</v>
+        <v>762.1396198098661</v>
       </c>
       <c r="G24" t="n">
-        <v>1524.094215104525</v>
+        <v>2215.389262326067</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>894908</v>
+        <v>800464</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13348071</v>
+        <v>13712521</v>
       </c>
       <c r="E25" t="n">
-        <v>13348071</v>
+        <v>13712521</v>
       </c>
       <c r="F25" t="n">
-        <v>4169.388193335539</v>
+        <v>2157.807002777681</v>
       </c>
       <c r="G25" t="n">
-        <v>25300.52052191041</v>
+        <v>15022.39559970143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I25" t="n">
-        <v>2453995</v>
+        <v>1648952</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>249042433</v>
+        <v>252049200</v>
       </c>
       <c r="E27" t="n">
-        <v>449830407</v>
+        <v>455261350</v>
       </c>
       <c r="F27" t="n">
-        <v>99501.27455797244</v>
+        <v>100007.8524855181</v>
       </c>
       <c r="G27" t="n">
-        <v>101682.2244201173</v>
+        <v>101979.8466125235</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>10684802</v>
+        <v>9001294</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30938029</v>
+        <v>31068310</v>
       </c>
       <c r="E28" t="n">
-        <v>30938029</v>
+        <v>31068310</v>
       </c>
       <c r="F28" t="n">
-        <v>33059.99336963808</v>
+        <v>32030.47387373586</v>
       </c>
       <c r="G28" t="n">
-        <v>38362.44259567522</v>
+        <v>37228.36791032693</v>
       </c>
       <c r="H28" t="n">
         <v>0.03</v>
       </c>
       <c r="I28" t="n">
-        <v>6163450</v>
+        <v>2824429</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>479597104</v>
+        <v>480755791</v>
       </c>
       <c r="E29" t="n">
-        <v>1748117654</v>
+        <v>1752341032</v>
       </c>
       <c r="F29" t="n">
-        <v>148609.1141617908</v>
+        <v>146867.1507897286</v>
       </c>
       <c r="G29" t="n">
-        <v>197322.6033027201</v>
+        <v>188316.7145309712</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>26696834</v>
+        <v>18266257</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>114568052</v>
+        <v>113815175</v>
       </c>
       <c r="E30" t="n">
-        <v>439501486</v>
+        <v>436613330</v>
       </c>
       <c r="F30" t="n">
-        <v>145261.7405730267</v>
+        <v>141010.5523808479</v>
       </c>
       <c r="G30" t="n">
-        <v>183252.4152076275</v>
+        <v>184245.3432553365</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>20008301</v>
+        <v>20081442</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26961633</v>
+        <v>26412431</v>
       </c>
       <c r="F31" t="n">
-        <v>8454.641569744153</v>
+        <v>13031.42316405608</v>
       </c>
       <c r="G31" t="n">
-        <v>15225.6367149991</v>
+        <v>21462.24174022384</v>
       </c>
       <c r="H31" t="n">
         <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>3791142</v>
+        <v>2950804</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>119628858</v>
+        <v>121094402</v>
       </c>
       <c r="E32" t="n">
-        <v>435585702</v>
+        <v>440907579</v>
       </c>
       <c r="F32" t="n">
-        <v>67145.20781783968</v>
+        <v>27207.86241899783</v>
       </c>
       <c r="G32" t="n">
-        <v>17108.8042672066</v>
+        <v>66211.96146360449</v>
       </c>
       <c r="H32" t="n">
         <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>128871</v>
+        <v>148408</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>284450133</v>
+        <v>285915605</v>
       </c>
       <c r="E33" t="n">
-        <v>982672814</v>
+        <v>987238662</v>
       </c>
       <c r="F33" t="n">
-        <v>121899.888822547</v>
+        <v>128113.1478050444</v>
       </c>
       <c r="G33" t="n">
-        <v>161016.5782039168</v>
+        <v>154368.9508291503</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>26429748</v>
+        <v>20301560</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>82392731</v>
+        <v>81145743</v>
       </c>
       <c r="E34" t="n">
-        <v>121024987</v>
+        <v>119193313</v>
       </c>
       <c r="F34" t="n">
-        <v>9937.829044156459</v>
+        <v>11474.80107882346</v>
       </c>
       <c r="G34" t="n">
-        <v>19781.99186637998</v>
+        <v>43576.66437938145</v>
       </c>
       <c r="H34" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>4168011</v>
+        <v>3446884</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2928922</v>
+        <v>2895102</v>
       </c>
       <c r="E35" t="n">
-        <v>11715687</v>
+        <v>11580409</v>
       </c>
       <c r="F35" t="n">
-        <v>40737.06049903843</v>
+        <v>37113.51479315849</v>
       </c>
       <c r="G35" t="n">
-        <v>76725.63271602853</v>
+        <v>78557.93830399166</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I35" t="n">
-        <v>2725444</v>
+        <v>2139932</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>170482411</v>
+        <v>172421421</v>
       </c>
       <c r="E36" t="n">
-        <v>489325637</v>
+        <v>494891064</v>
       </c>
       <c r="F36" t="n">
-        <v>185757.0205601124</v>
+        <v>187055.8601780531</v>
       </c>
       <c r="G36" t="n">
-        <v>229137.7880984572</v>
+        <v>227985.5304520797</v>
       </c>
       <c r="H36" t="n">
         <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>9647128</v>
+        <v>5957653</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>106549097</v>
+        <v>105300179</v>
       </c>
       <c r="E37" t="n">
-        <v>278356548</v>
+        <v>275093784</v>
       </c>
       <c r="F37" t="n">
-        <v>36855.63340939748</v>
+        <v>45690.08935172137</v>
       </c>
       <c r="G37" t="n">
-        <v>43341.48296780079</v>
+        <v>38272.85788679608</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>5402507</v>
+        <v>4929851</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>295072927</v>
+        <v>293087669</v>
       </c>
       <c r="E38" t="n">
-        <v>1686131011</v>
+        <v>1674786680</v>
       </c>
       <c r="F38" t="n">
-        <v>58030.40077651665</v>
+        <v>47515.49285670301</v>
       </c>
       <c r="G38" t="n">
-        <v>76949.39533135989</v>
+        <v>78644.59867352137</v>
       </c>
       <c r="H38" t="n">
         <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>28220107</v>
+        <v>22577314</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>239772008</v>
+        <v>236948383</v>
       </c>
       <c r="E2" t="n">
-        <v>1503576563</v>
+        <v>1485870003</v>
       </c>
       <c r="F2" t="n">
-        <v>164267.4573497447</v>
+        <v>174899.214266321</v>
       </c>
       <c r="G2" t="n">
-        <v>221517.478768805</v>
+        <v>222545.0744233077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>45166292</v>
+        <v>27375453</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>112491851</v>
+        <v>111710402</v>
       </c>
       <c r="E3" t="n">
-        <v>124552790</v>
+        <v>123687558</v>
       </c>
       <c r="F3" t="n">
-        <v>31792.66910834259</v>
+        <v>36881.0206310802</v>
       </c>
       <c r="G3" t="n">
-        <v>156842.4734894072</v>
+        <v>151956.3849261613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>15420173</v>
+        <v>13013040</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>426895561</v>
+        <v>423368567</v>
       </c>
       <c r="E4" t="n">
-        <v>533982898</v>
+        <v>529571154</v>
       </c>
       <c r="F4" t="n">
-        <v>104994.1105881696</v>
+        <v>113794.5285739394</v>
       </c>
       <c r="G4" t="n">
-        <v>128680.0692444488</v>
+        <v>131099.3937304099</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>29541313</v>
+        <v>28594414</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>98838785</v>
+        <v>96712061</v>
       </c>
       <c r="E5" t="n">
-        <v>98838785</v>
+        <v>96712061</v>
       </c>
       <c r="F5" t="n">
-        <v>88213.80489821969</v>
+        <v>89850.47250581923</v>
       </c>
       <c r="G5" t="n">
-        <v>98606.38256107298</v>
+        <v>88184.94207785011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>56922357</v>
+        <v>57241580</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>180963367</v>
+        <v>179935721</v>
       </c>
       <c r="E6" t="n">
-        <v>180963367</v>
+        <v>179935721</v>
       </c>
       <c r="F6" t="n">
-        <v>73752.44743842902</v>
+        <v>68793.08469019101</v>
       </c>
       <c r="G6" t="n">
-        <v>90756.83672341015</v>
+        <v>96093.34814194773</v>
       </c>
       <c r="H6" t="n">
         <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>10744582</v>
+        <v>10189738</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84380463</v>
+        <v>83116575</v>
       </c>
       <c r="E7" t="n">
-        <v>105212546</v>
+        <v>103636626</v>
       </c>
       <c r="F7" t="n">
-        <v>16767.8662308049</v>
+        <v>11588.22285281076</v>
       </c>
       <c r="G7" t="n">
-        <v>36965.25686320743</v>
+        <v>37381.01316156749</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>7132486</v>
+        <v>6696090</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62128668</v>
+        <v>61227265</v>
       </c>
       <c r="E8" t="n">
-        <v>129533282</v>
+        <v>127653929</v>
       </c>
       <c r="F8" t="n">
-        <v>63203.49605348798</v>
+        <v>58017.76614638555</v>
       </c>
       <c r="G8" t="n">
-        <v>48743.83979675304</v>
+        <v>58902.22216098085</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>9602373</v>
+        <v>10607310</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>198173037</v>
+        <v>191372550</v>
       </c>
       <c r="E9" t="n">
-        <v>198240097</v>
+        <v>191439022</v>
       </c>
       <c r="F9" t="n">
-        <v>63302.54818490335</v>
+        <v>9537.349607054512</v>
       </c>
       <c r="G9" t="n">
-        <v>20107.57881339795</v>
+        <v>22402.53691903012</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>37882620</v>
+        <v>39808694</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>516525146</v>
+        <v>513936194</v>
       </c>
       <c r="E10" t="n">
-        <v>516525146</v>
+        <v>513936194</v>
       </c>
       <c r="F10" t="n">
-        <v>318765.762647638</v>
+        <v>334387.778391996</v>
       </c>
       <c r="G10" t="n">
-        <v>454727.9562494628</v>
+        <v>423429.1041800714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>244641002</v>
+        <v>261434155</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70388147</v>
+        <v>69437111</v>
       </c>
       <c r="E11" t="n">
-        <v>80761432</v>
+        <v>79670240</v>
       </c>
       <c r="F11" t="n">
-        <v>3053.70080504955</v>
+        <v>6076.77317383052</v>
       </c>
       <c r="G11" t="n">
-        <v>3435.569654885564</v>
+        <v>7381.140717209605</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="I11" t="n">
-        <v>2125060</v>
+        <v>2123837</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>182452902</v>
+        <v>179602589</v>
       </c>
       <c r="E12" t="n">
-        <v>787568014</v>
+        <v>775264480</v>
       </c>
       <c r="F12" t="n">
-        <v>371142.1992842539</v>
+        <v>383438.4178930233</v>
       </c>
       <c r="G12" t="n">
-        <v>327726.9470709049</v>
+        <v>330398.7361093668</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>53007352</v>
+        <v>47761402</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>95949111</v>
+        <v>95707870</v>
       </c>
       <c r="E13" t="n">
-        <v>95949111</v>
+        <v>95707870</v>
       </c>
       <c r="F13" t="n">
-        <v>4957.287755084142</v>
+        <v>5068.641180553742</v>
       </c>
       <c r="G13" t="n">
-        <v>4163.236726295381</v>
+        <v>4065.587910150377</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>4572650</v>
+        <v>4567468</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9994625</v>
+        <v>9919600</v>
       </c>
       <c r="E14" t="n">
-        <v>24986561</v>
+        <v>24798999</v>
       </c>
       <c r="F14" t="n">
-        <v>6694.375010653103</v>
+        <v>7958.037303873163</v>
       </c>
       <c r="G14" t="n">
-        <v>14072.25838485011</v>
+        <v>16811.35175509696</v>
       </c>
       <c r="H14" t="n">
         <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>1559495</v>
+        <v>1429671</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10443220</v>
+        <v>10514935</v>
       </c>
       <c r="E15" t="n">
-        <v>15356558</v>
+        <v>15462014</v>
       </c>
       <c r="F15" t="n">
-        <v>3653.2181548006</v>
+        <v>4578.806835567745</v>
       </c>
       <c r="G15" t="n">
-        <v>5398.153260091755</v>
+        <v>5618.336621752271</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>689326</v>
+        <v>734889</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26580910</v>
+        <v>26415138</v>
       </c>
       <c r="E16" t="n">
-        <v>82764424</v>
+        <v>82248265</v>
       </c>
       <c r="F16" t="n">
-        <v>11364.21050572149</v>
+        <v>8457.895008470581</v>
       </c>
       <c r="G16" t="n">
-        <v>18925.83101521715</v>
+        <v>10564.66358992471</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>8176585</v>
+        <v>8588979</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>228614522</v>
+        <v>226991601</v>
       </c>
       <c r="E17" t="n">
-        <v>2056757999</v>
+        <v>2042157191</v>
       </c>
       <c r="F17" t="n">
-        <v>894044.1557547186</v>
+        <v>911969.9892340553</v>
       </c>
       <c r="G17" t="n">
-        <v>948087.5286908051</v>
+        <v>967063.5672406527</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>21182576</v>
+        <v>19765918</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13975235</v>
+        <v>13769766</v>
       </c>
       <c r="E18" t="n">
-        <v>85658809</v>
+        <v>84399424</v>
       </c>
       <c r="F18" t="n">
-        <v>24002.27765806543</v>
+        <v>30481.57756207611</v>
       </c>
       <c r="G18" t="n">
-        <v>45769.81364029047</v>
+        <v>43326.89975016574</v>
       </c>
       <c r="H18" t="n">
         <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>8076121</v>
+        <v>8173082</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38708459</v>
+        <v>38757157</v>
       </c>
       <c r="E19" t="n">
-        <v>166751809</v>
+        <v>166961595</v>
       </c>
       <c r="F19" t="n">
-        <v>32958.77872042659</v>
+        <v>34777.79590643706</v>
       </c>
       <c r="G19" t="n">
-        <v>78548.26441181105</v>
+        <v>64336.74833089896</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>4724363</v>
+        <v>4524817</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>234919686</v>
+        <v>212577728</v>
       </c>
       <c r="E20" t="n">
-        <v>234919686</v>
+        <v>212577728</v>
       </c>
       <c r="F20" t="n">
-        <v>78676.00780960832</v>
+        <v>83553.44241629605</v>
       </c>
       <c r="G20" t="n">
-        <v>110839.9821198364</v>
+        <v>377203.9415042057</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>77603021</v>
+        <v>132615686</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33711474</v>
+        <v>33057375</v>
       </c>
       <c r="E21" t="n">
-        <v>123316201</v>
+        <v>120923512</v>
       </c>
       <c r="F21" t="n">
-        <v>53701.39197812134</v>
+        <v>52585.85225479549</v>
       </c>
       <c r="G21" t="n">
-        <v>69956.75691539771</v>
+        <v>70944.40114897261</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>7417158</v>
+        <v>6926548</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34296470</v>
+        <v>33944692</v>
       </c>
       <c r="E22" t="n">
-        <v>222403480</v>
+        <v>220122291</v>
       </c>
       <c r="F22" t="n">
-        <v>32653.39108076438</v>
+        <v>31181.0777835584</v>
       </c>
       <c r="G22" t="n">
-        <v>80997.03251326153</v>
+        <v>74260.40602555426</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>8520965</v>
+        <v>8545750</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124094790</v>
+        <v>124007491</v>
       </c>
       <c r="E23" t="n">
-        <v>2055111364</v>
+        <v>2053665615</v>
       </c>
       <c r="F23" t="n">
-        <v>342290.8146434809</v>
+        <v>346702.5651595789</v>
       </c>
       <c r="G23" t="n">
-        <v>328542.4358761268</v>
+        <v>319991.7928476011</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>10503994</v>
+        <v>10152271</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5559712</v>
+        <v>5377424</v>
       </c>
       <c r="E24" t="n">
-        <v>26154810</v>
+        <v>25297262</v>
       </c>
       <c r="F24" t="n">
-        <v>762.1396198098661</v>
+        <v>1023.404684570527</v>
       </c>
       <c r="G24" t="n">
-        <v>2215.389262326067</v>
+        <v>1290.117580035844</v>
       </c>
       <c r="H24" t="n">
         <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>800464</v>
+        <v>793154</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13712521</v>
+        <v>13434557</v>
       </c>
       <c r="E25" t="n">
-        <v>13712521</v>
+        <v>13434557</v>
       </c>
       <c r="F25" t="n">
-        <v>2157.807002777681</v>
+        <v>2678.202056534794</v>
       </c>
       <c r="G25" t="n">
-        <v>15022.39559970143</v>
+        <v>17936.68591186043</v>
       </c>
       <c r="H25" t="n">
         <v>0.24</v>
       </c>
       <c r="I25" t="n">
-        <v>1648952</v>
+        <v>1508390</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>252049200</v>
+        <v>251066109</v>
       </c>
       <c r="E27" t="n">
-        <v>455261350</v>
+        <v>453485652</v>
       </c>
       <c r="F27" t="n">
-        <v>100007.8524855181</v>
+        <v>101590.68074569</v>
       </c>
       <c r="G27" t="n">
-        <v>101979.8466125235</v>
+        <v>101589.4295981979</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>9001294</v>
+        <v>9010618</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31068310</v>
+        <v>31544041</v>
       </c>
       <c r="E28" t="n">
-        <v>31068310</v>
+        <v>31544041</v>
       </c>
       <c r="F28" t="n">
-        <v>32030.47387373586</v>
+        <v>29892.88760822788</v>
       </c>
       <c r="G28" t="n">
-        <v>37228.36791032693</v>
+        <v>36618.42172943404</v>
       </c>
       <c r="H28" t="n">
         <v>0.03</v>
       </c>
       <c r="I28" t="n">
-        <v>2824429</v>
+        <v>2671440</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>480755791</v>
+        <v>472257337</v>
       </c>
       <c r="E29" t="n">
-        <v>1752341032</v>
+        <v>1721364413</v>
       </c>
       <c r="F29" t="n">
-        <v>146867.1507897286</v>
+        <v>149992.6658930139</v>
       </c>
       <c r="G29" t="n">
-        <v>188316.7145309712</v>
+        <v>181226.6747228734</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
-        <v>18266257</v>
+        <v>17373896</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>113815175</v>
+        <v>113639867</v>
       </c>
       <c r="E30" t="n">
-        <v>436613330</v>
+        <v>435940820</v>
       </c>
       <c r="F30" t="n">
-        <v>141010.5523808479</v>
+        <v>147451.7201285874</v>
       </c>
       <c r="G30" t="n">
-        <v>184245.3432553365</v>
+        <v>188867.475969495</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>20081442</v>
+        <v>20319369</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26412431</v>
+        <v>25756832</v>
       </c>
       <c r="F31" t="n">
-        <v>13031.42316405608</v>
+        <v>9180.660990834165</v>
       </c>
       <c r="G31" t="n">
-        <v>21462.24174022384</v>
+        <v>16066.29272537073</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I31" t="n">
-        <v>2950804</v>
+        <v>2945234</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>121094402</v>
+        <v>121442395</v>
       </c>
       <c r="E32" t="n">
-        <v>440907579</v>
+        <v>442164924</v>
       </c>
       <c r="F32" t="n">
-        <v>27207.86241899783</v>
+        <v>66643.09961972614</v>
       </c>
       <c r="G32" t="n">
-        <v>66211.96146360449</v>
+        <v>24847.46569905077</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>148408</v>
+        <v>161510</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>285915605</v>
+        <v>290660050</v>
       </c>
       <c r="E33" t="n">
-        <v>987238662</v>
+        <v>1003620766</v>
       </c>
       <c r="F33" t="n">
-        <v>128113.1478050444</v>
+        <v>84068.73569232938</v>
       </c>
       <c r="G33" t="n">
-        <v>154368.9508291503</v>
+        <v>162351.8593802543</v>
       </c>
       <c r="H33" t="n">
         <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>20301560</v>
+        <v>18928209</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>81145743</v>
+        <v>80512304</v>
       </c>
       <c r="E34" t="n">
-        <v>119193313</v>
+        <v>118262867</v>
       </c>
       <c r="F34" t="n">
-        <v>11474.80107882346</v>
+        <v>11095.19521450943</v>
       </c>
       <c r="G34" t="n">
-        <v>43576.66437938145</v>
+        <v>106630.7170281723</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>3446884</v>
+        <v>3616574</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2895102</v>
+        <v>2825750</v>
       </c>
       <c r="E35" t="n">
-        <v>11580409</v>
+        <v>11303001</v>
       </c>
       <c r="F35" t="n">
-        <v>37113.51479315849</v>
+        <v>48723.24559628805</v>
       </c>
       <c r="G35" t="n">
-        <v>78557.93830399166</v>
+        <v>11185.73042926312</v>
       </c>
       <c r="H35" t="n">
         <v>0.24</v>
       </c>
       <c r="I35" t="n">
-        <v>2139932</v>
+        <v>2095487</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>172421421</v>
+        <v>171919849</v>
       </c>
       <c r="E36" t="n">
-        <v>494891064</v>
+        <v>493451432</v>
       </c>
       <c r="F36" t="n">
-        <v>187055.8601780531</v>
+        <v>199791.34822244</v>
       </c>
       <c r="G36" t="n">
-        <v>227985.5304520797</v>
+        <v>215797.9307471301</v>
       </c>
       <c r="H36" t="n">
         <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>5957653</v>
+        <v>5699234</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>105300179</v>
+        <v>107601541</v>
       </c>
       <c r="E37" t="n">
-        <v>275093784</v>
+        <v>281106028</v>
       </c>
       <c r="F37" t="n">
-        <v>45690.08935172137</v>
+        <v>40809.36219826002</v>
       </c>
       <c r="G37" t="n">
-        <v>38272.85788679608</v>
+        <v>38383.11972469543</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>4929851</v>
+        <v>4877732</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>293087669</v>
+        <v>290945274</v>
       </c>
       <c r="E38" t="n">
-        <v>1674786680</v>
+        <v>1662544425</v>
       </c>
       <c r="F38" t="n">
-        <v>47515.49285670301</v>
+        <v>42452.73616438526</v>
       </c>
       <c r="G38" t="n">
-        <v>78644.59867352137</v>
+        <v>74265.07316708133</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>22577314</v>
+        <v>23628567</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>236948383</v>
+        <v>223208309</v>
       </c>
       <c r="E2" t="n">
-        <v>1485870003</v>
+        <v>1399707934</v>
       </c>
       <c r="F2" t="n">
-        <v>174899.214266321</v>
+        <v>153225.1603451241</v>
       </c>
       <c r="G2" t="n">
-        <v>222545.0744233077</v>
+        <v>206164.37773422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>27375453</v>
+        <v>19266134</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>111710402</v>
+        <v>105540020</v>
       </c>
       <c r="E3" t="n">
-        <v>123687558</v>
+        <v>116855611</v>
       </c>
       <c r="F3" t="n">
-        <v>36881.0206310802</v>
+        <v>36495.36979424193</v>
       </c>
       <c r="G3" t="n">
-        <v>151956.3849261613</v>
+        <v>159252.5405043708</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>13013040</v>
+        <v>14590663</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>423368567</v>
+        <v>398748660</v>
       </c>
       <c r="E4" t="n">
-        <v>529571154</v>
+        <v>498775308</v>
       </c>
       <c r="F4" t="n">
-        <v>113794.5285739394</v>
+        <v>116128.4017835578</v>
       </c>
       <c r="G4" t="n">
-        <v>131099.3937304099</v>
+        <v>120379.8030967578</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>28594414</v>
+        <v>33843684</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>96712061</v>
+        <v>89061424</v>
       </c>
       <c r="E5" t="n">
-        <v>96712061</v>
+        <v>89061424</v>
       </c>
       <c r="F5" t="n">
-        <v>89850.47250581923</v>
+        <v>76804.40679065546</v>
       </c>
       <c r="G5" t="n">
-        <v>88184.94207785011</v>
+        <v>88385.3931640611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>57241580</v>
+        <v>59721734</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>179935721</v>
+        <v>167559549</v>
       </c>
       <c r="E6" t="n">
-        <v>179935721</v>
+        <v>167559549</v>
       </c>
       <c r="F6" t="n">
-        <v>68793.08469019101</v>
+        <v>68198.19546441591</v>
       </c>
       <c r="G6" t="n">
-        <v>96093.34814194773</v>
+        <v>74419.48040231522</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>10189738</v>
+        <v>14485256</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83116575</v>
+        <v>79205462</v>
       </c>
       <c r="E7" t="n">
-        <v>103636626</v>
+        <v>98759926</v>
       </c>
       <c r="F7" t="n">
-        <v>11588.22285281076</v>
+        <v>12221.15156478629</v>
       </c>
       <c r="G7" t="n">
-        <v>37381.01316156749</v>
+        <v>42538.36360750375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>6696090</v>
+        <v>7284970</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61227265</v>
+        <v>55738659</v>
       </c>
       <c r="E8" t="n">
-        <v>127653929</v>
+        <v>116210628</v>
       </c>
       <c r="F8" t="n">
-        <v>58017.76614638555</v>
+        <v>48321.70886961917</v>
       </c>
       <c r="G8" t="n">
-        <v>58902.22216098085</v>
+        <v>71773.11991970365</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>10607310</v>
+        <v>11020102</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>191372550</v>
+        <v>177190851</v>
       </c>
       <c r="E9" t="n">
-        <v>191439022</v>
+        <v>177262053</v>
       </c>
       <c r="F9" t="n">
-        <v>9537.349607054512</v>
+        <v>20073.80316389148</v>
       </c>
       <c r="G9" t="n">
-        <v>22402.53691903012</v>
+        <v>25162.94386799856</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>39808694</v>
+        <v>39166525</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>513936194</v>
+        <v>464659447</v>
       </c>
       <c r="E10" t="n">
-        <v>513936194</v>
+        <v>464659447</v>
       </c>
       <c r="F10" t="n">
-        <v>334387.778391996</v>
+        <v>285001.3810527061</v>
       </c>
       <c r="G10" t="n">
-        <v>423429.1041800714</v>
+        <v>361382.3860501337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>261434155</v>
+        <v>254030970</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69437111</v>
+        <v>67355319</v>
       </c>
       <c r="E11" t="n">
-        <v>79670240</v>
+        <v>77281649</v>
       </c>
       <c r="F11" t="n">
-        <v>6076.77317383052</v>
+        <v>3779.300055733819</v>
       </c>
       <c r="G11" t="n">
-        <v>7381.140717209605</v>
+        <v>2378.540615127352</v>
       </c>
       <c r="H11" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2123837</v>
+        <v>2164411</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>179602589</v>
+        <v>163611836</v>
       </c>
       <c r="E12" t="n">
-        <v>775264480</v>
+        <v>706239511</v>
       </c>
       <c r="F12" t="n">
-        <v>383438.4178930233</v>
+        <v>382058.6064279857</v>
       </c>
       <c r="G12" t="n">
-        <v>330398.7361093668</v>
+        <v>333159.1122189521</v>
       </c>
       <c r="H12" t="n">
         <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>47761402</v>
+        <v>41813084</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>95707870</v>
+        <v>92837689</v>
       </c>
       <c r="E13" t="n">
-        <v>95707870</v>
+        <v>92837689</v>
       </c>
       <c r="F13" t="n">
-        <v>5068.641180553742</v>
+        <v>5435.498519769617</v>
       </c>
       <c r="G13" t="n">
-        <v>4065.587910150377</v>
+        <v>2796.933410384142</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I13" t="n">
-        <v>4567468</v>
+        <v>4863021</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9919600</v>
+        <v>9205402</v>
       </c>
       <c r="E14" t="n">
-        <v>24798999</v>
+        <v>23013504</v>
       </c>
       <c r="F14" t="n">
-        <v>7958.037303873163</v>
+        <v>6877.701354669981</v>
       </c>
       <c r="G14" t="n">
-        <v>16811.35175509696</v>
+        <v>17323.0491317029</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I14" t="n">
-        <v>1429671</v>
+        <v>1682719</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10514935</v>
+        <v>10413513</v>
       </c>
       <c r="E15" t="n">
-        <v>15462014</v>
+        <v>15312875</v>
       </c>
       <c r="F15" t="n">
-        <v>4578.806835567745</v>
+        <v>4262.423657872791</v>
       </c>
       <c r="G15" t="n">
-        <v>5618.336621752271</v>
+        <v>5297.665509540992</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>734889</v>
+        <v>449750</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26415138</v>
+        <v>26144734</v>
       </c>
       <c r="E16" t="n">
-        <v>82248265</v>
+        <v>81406313</v>
       </c>
       <c r="F16" t="n">
-        <v>8457.895008470581</v>
+        <v>6141.368653858411</v>
       </c>
       <c r="G16" t="n">
-        <v>10564.66358992471</v>
+        <v>17337.51471350565</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>8588979</v>
+        <v>9835474</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>226991601</v>
+        <v>206069677</v>
       </c>
       <c r="E17" t="n">
-        <v>2042157191</v>
+        <v>1853930592</v>
       </c>
       <c r="F17" t="n">
-        <v>911969.9892340553</v>
+        <v>796787.4452038868</v>
       </c>
       <c r="G17" t="n">
-        <v>967063.5672406527</v>
+        <v>914957.982910388</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>19765918</v>
+        <v>30611176</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13769766</v>
+        <v>13614845</v>
       </c>
       <c r="E18" t="n">
-        <v>84399424</v>
+        <v>83449864</v>
       </c>
       <c r="F18" t="n">
-        <v>30481.57756207611</v>
+        <v>24784.56449884925</v>
       </c>
       <c r="G18" t="n">
-        <v>43326.89975016574</v>
+        <v>32624.12633513335</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>8173082</v>
+        <v>9272244</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38757157</v>
+        <v>38751766</v>
       </c>
       <c r="E19" t="n">
-        <v>166961595</v>
+        <v>166938370</v>
       </c>
       <c r="F19" t="n">
-        <v>34777.79590643706</v>
+        <v>35485.57538675282</v>
       </c>
       <c r="G19" t="n">
-        <v>64336.74833089896</v>
+        <v>100667.6971717378</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>4524817</v>
+        <v>5117897</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>212577728</v>
+        <v>203511074</v>
       </c>
       <c r="E20" t="n">
-        <v>212577728</v>
+        <v>203511074</v>
       </c>
       <c r="F20" t="n">
-        <v>83553.44241629605</v>
+        <v>81367.88824398804</v>
       </c>
       <c r="G20" t="n">
-        <v>377203.9415042057</v>
+        <v>109457.1709428155</v>
       </c>
       <c r="H20" t="n">
         <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>132615686</v>
+        <v>99590086</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33057375</v>
+        <v>29344952</v>
       </c>
       <c r="E21" t="n">
-        <v>120923512</v>
+        <v>107343511</v>
       </c>
       <c r="F21" t="n">
-        <v>52585.85225479549</v>
+        <v>49417.52546822629</v>
       </c>
       <c r="G21" t="n">
-        <v>70944.40114897261</v>
+        <v>42534.56649670113</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I21" t="n">
-        <v>6926548</v>
+        <v>7438386</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33944692</v>
+        <v>31189139</v>
       </c>
       <c r="E22" t="n">
-        <v>220122291</v>
+        <v>202253269</v>
       </c>
       <c r="F22" t="n">
-        <v>31181.0777835584</v>
+        <v>27356.10860097372</v>
       </c>
       <c r="G22" t="n">
-        <v>74260.40602555426</v>
+        <v>74732.83884978076</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>8545750</v>
+        <v>9611804</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124007491</v>
+        <v>123491356</v>
       </c>
       <c r="E23" t="n">
-        <v>2053665615</v>
+        <v>2045117990</v>
       </c>
       <c r="F23" t="n">
-        <v>346702.5651595789</v>
+        <v>335452.0111842295</v>
       </c>
       <c r="G23" t="n">
-        <v>319991.7928476011</v>
+        <v>338054.9476859455</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>10152271</v>
+        <v>8569228</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5377424</v>
+        <v>5223281</v>
       </c>
       <c r="E24" t="n">
-        <v>25297262</v>
+        <v>24572121</v>
       </c>
       <c r="F24" t="n">
-        <v>1023.404684570527</v>
+        <v>1057.418634787381</v>
       </c>
       <c r="G24" t="n">
-        <v>1290.117580035844</v>
+        <v>44.79439231325622</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>793154</v>
+        <v>806905</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13434557</v>
+        <v>11751235</v>
       </c>
       <c r="E25" t="n">
-        <v>13434557</v>
+        <v>11751235</v>
       </c>
       <c r="F25" t="n">
-        <v>2678.202056534794</v>
+        <v>10698.84426297085</v>
       </c>
       <c r="G25" t="n">
-        <v>17936.68591186043</v>
+        <v>11407.82841178684</v>
       </c>
       <c r="H25" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="I25" t="n">
-        <v>1508390</v>
+        <v>2251507</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>251066109</v>
+        <v>234379495</v>
       </c>
       <c r="E27" t="n">
-        <v>453485652</v>
+        <v>423345623</v>
       </c>
       <c r="F27" t="n">
-        <v>101590.68074569</v>
+        <v>61232.84755693204</v>
       </c>
       <c r="G27" t="n">
-        <v>101589.4295981979</v>
+        <v>78373.16215881285</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>9010618</v>
+        <v>9749969</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31544041</v>
+        <v>29043387</v>
       </c>
       <c r="E28" t="n">
-        <v>31544041</v>
+        <v>29043387</v>
       </c>
       <c r="F28" t="n">
-        <v>29892.88760822788</v>
+        <v>29633.36851074411</v>
       </c>
       <c r="G28" t="n">
-        <v>36618.42172943404</v>
+        <v>34132.72272242756</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>2671440</v>
+        <v>2744159</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>472257337</v>
+        <v>443894260</v>
       </c>
       <c r="E29" t="n">
-        <v>1721364413</v>
+        <v>1617981813</v>
       </c>
       <c r="F29" t="n">
-        <v>149992.6658930139</v>
+        <v>156303.7655091471</v>
       </c>
       <c r="G29" t="n">
-        <v>181226.6747228734</v>
+        <v>104253.2659591208</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>17373896</v>
+        <v>22504969</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>113639867</v>
+        <v>110286676</v>
       </c>
       <c r="E30" t="n">
-        <v>435940820</v>
+        <v>423077441</v>
       </c>
       <c r="F30" t="n">
-        <v>147451.7201285874</v>
+        <v>144366.1862639139</v>
       </c>
       <c r="G30" t="n">
-        <v>188867.475969495</v>
+        <v>177575.9556170543</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>20319369</v>
+        <v>19628354</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25756832</v>
+        <v>24581942</v>
       </c>
       <c r="F31" t="n">
-        <v>9180.660990834165</v>
+        <v>4732.707439539794</v>
       </c>
       <c r="G31" t="n">
-        <v>16066.29272537073</v>
+        <v>75134.6817364575</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>2945234</v>
+        <v>2563831</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>121442395</v>
+        <v>121008042</v>
       </c>
       <c r="E32" t="n">
-        <v>442164924</v>
+        <v>440572056</v>
       </c>
       <c r="F32" t="n">
-        <v>66643.09961972614</v>
+        <v>66149.26907360286</v>
       </c>
       <c r="G32" t="n">
-        <v>24847.46569905077</v>
+        <v>63856.79976530917</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>161510</v>
+        <v>183962</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>290660050</v>
+        <v>267370539</v>
       </c>
       <c r="E33" t="n">
-        <v>1003620766</v>
+        <v>923204359</v>
       </c>
       <c r="F33" t="n">
-        <v>84068.73569232938</v>
+        <v>115306.7028203006</v>
       </c>
       <c r="G33" t="n">
-        <v>162351.8593802543</v>
+        <v>112771.1950105487</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I33" t="n">
-        <v>18928209</v>
+        <v>23450606</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80512304</v>
+        <v>79630951</v>
       </c>
       <c r="E34" t="n">
-        <v>118262867</v>
+        <v>116968266</v>
       </c>
       <c r="F34" t="n">
-        <v>11095.19521450943</v>
+        <v>12587.36628340493</v>
       </c>
       <c r="G34" t="n">
-        <v>106630.7170281723</v>
+        <v>22483.30454595088</v>
       </c>
       <c r="H34" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I34" t="n">
-        <v>3616574</v>
+        <v>4357660</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2825750</v>
+        <v>2601602</v>
       </c>
       <c r="E35" t="n">
-        <v>11303001</v>
+        <v>10406410</v>
       </c>
       <c r="F35" t="n">
-        <v>48723.24559628805</v>
+        <v>39735.45284723556</v>
       </c>
       <c r="G35" t="n">
-        <v>11185.73042926312</v>
+        <v>5331.610024320464</v>
       </c>
       <c r="H35" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I35" t="n">
-        <v>2095487</v>
+        <v>2455438</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>171919849</v>
+        <v>160476786</v>
       </c>
       <c r="E36" t="n">
-        <v>493451432</v>
+        <v>460607080</v>
       </c>
       <c r="F36" t="n">
-        <v>199791.34822244</v>
+        <v>139823.8151580424</v>
       </c>
       <c r="G36" t="n">
-        <v>215797.9307471301</v>
+        <v>177186.5352899331</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>5699234</v>
+        <v>7670663</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>107601541</v>
+        <v>95477942</v>
       </c>
       <c r="E37" t="n">
-        <v>281106028</v>
+        <v>249433462</v>
       </c>
       <c r="F37" t="n">
-        <v>40809.36219826002</v>
+        <v>42102.51642023239</v>
       </c>
       <c r="G37" t="n">
-        <v>38383.11972469543</v>
+        <v>39466.53014350759</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I37" t="n">
-        <v>4877732</v>
+        <v>5575042</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>290945274</v>
+        <v>268066790</v>
       </c>
       <c r="E38" t="n">
-        <v>1662544425</v>
+        <v>1531810230</v>
       </c>
       <c r="F38" t="n">
-        <v>42452.73616438526</v>
+        <v>50926.57768558657</v>
       </c>
       <c r="G38" t="n">
-        <v>74265.07316708133</v>
+        <v>68056.33537831313</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>23628567</v>
+        <v>30656515</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>223208309</v>
+        <v>217797680</v>
       </c>
       <c r="E2" t="n">
-        <v>1399707934</v>
+        <v>1365778636</v>
       </c>
       <c r="F2" t="n">
-        <v>153225.1603451241</v>
+        <v>183407.5859984838</v>
       </c>
       <c r="G2" t="n">
-        <v>206164.37773422</v>
+        <v>217189.5532725734</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>19266134</v>
+        <v>21191246</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105540020</v>
+        <v>101762697</v>
       </c>
       <c r="E3" t="n">
-        <v>116855611</v>
+        <v>112673298</v>
       </c>
       <c r="F3" t="n">
-        <v>36495.36979424193</v>
+        <v>72463.47575321893</v>
       </c>
       <c r="G3" t="n">
-        <v>159252.5405043708</v>
+        <v>168476.6604541019</v>
       </c>
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>14590663</v>
+        <v>25523775</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>398748660</v>
+        <v>390734460</v>
       </c>
       <c r="E4" t="n">
-        <v>498775308</v>
+        <v>488750736</v>
       </c>
       <c r="F4" t="n">
-        <v>116128.4017835578</v>
+        <v>104095.6182396265</v>
       </c>
       <c r="G4" t="n">
-        <v>120379.8030967578</v>
+        <v>124268.8612322819</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>33843684</v>
+        <v>59439213</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>89061424</v>
+        <v>90800269</v>
       </c>
       <c r="E5" t="n">
-        <v>89061424</v>
+        <v>90800269</v>
       </c>
       <c r="F5" t="n">
-        <v>76804.40679065546</v>
+        <v>70541.42150658919</v>
       </c>
       <c r="G5" t="n">
-        <v>88385.3931640611</v>
+        <v>93168.90813918898</v>
       </c>
       <c r="H5" t="n">
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>59721734</v>
+        <v>74008938</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>167559549</v>
+        <v>164998041</v>
       </c>
       <c r="E6" t="n">
-        <v>167559549</v>
+        <v>164998041</v>
       </c>
       <c r="F6" t="n">
-        <v>68198.19546441591</v>
+        <v>59742.10429955762</v>
       </c>
       <c r="G6" t="n">
-        <v>74419.48040231522</v>
+        <v>108778.4964902636</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>14485256</v>
+        <v>16437452</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79205462</v>
+        <v>78069061</v>
       </c>
       <c r="E7" t="n">
-        <v>98759926</v>
+        <v>97342967</v>
       </c>
       <c r="F7" t="n">
-        <v>12221.15156478629</v>
+        <v>9844.250291258439</v>
       </c>
       <c r="G7" t="n">
-        <v>42538.36360750375</v>
+        <v>43102.84857993705</v>
       </c>
       <c r="H7" t="n">
         <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>7284970</v>
+        <v>8698667</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55738659</v>
+        <v>54720050</v>
       </c>
       <c r="E8" t="n">
-        <v>116210628</v>
+        <v>114086909</v>
       </c>
       <c r="F8" t="n">
-        <v>48321.70886961917</v>
+        <v>50339.9162130781</v>
       </c>
       <c r="G8" t="n">
-        <v>71773.11991970365</v>
+        <v>59147.24405383322</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I8" t="n">
-        <v>11020102</v>
+        <v>13216702</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>177190851</v>
+        <v>175361574</v>
       </c>
       <c r="E9" t="n">
-        <v>177262053</v>
+        <v>175438692</v>
       </c>
       <c r="F9" t="n">
-        <v>20073.80316389148</v>
+        <v>14148.83293014319</v>
       </c>
       <c r="G9" t="n">
-        <v>25162.94386799856</v>
+        <v>22951.63503900673</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>39166525</v>
+        <v>17412682</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>464659447</v>
+        <v>453803246</v>
       </c>
       <c r="E10" t="n">
-        <v>464659447</v>
+        <v>453803246</v>
       </c>
       <c r="F10" t="n">
-        <v>285001.3810527061</v>
+        <v>248838.7411231145</v>
       </c>
       <c r="G10" t="n">
-        <v>361382.3860501337</v>
+        <v>474349.6891882764</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>254030970</v>
+        <v>363207573</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67355319</v>
+        <v>66097976</v>
       </c>
       <c r="E11" t="n">
-        <v>77281649</v>
+        <v>75839008</v>
       </c>
       <c r="F11" t="n">
-        <v>3779.300055733819</v>
+        <v>1998.007712882603</v>
       </c>
       <c r="G11" t="n">
-        <v>2378.540615127352</v>
+        <v>2684.178642618303</v>
       </c>
       <c r="H11" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2164411</v>
+        <v>2187479</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>163611836</v>
+        <v>157902610</v>
       </c>
       <c r="E12" t="n">
-        <v>706239511</v>
+        <v>681595324</v>
       </c>
       <c r="F12" t="n">
-        <v>382058.6064279857</v>
+        <v>391964.0902498809</v>
       </c>
       <c r="G12" t="n">
-        <v>333159.1122189521</v>
+        <v>359444.1682813574</v>
       </c>
       <c r="H12" t="n">
         <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>41813084</v>
+        <v>63060324</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>92837689</v>
+        <v>89329436</v>
       </c>
       <c r="E13" t="n">
-        <v>92837689</v>
+        <v>89329436</v>
       </c>
       <c r="F13" t="n">
-        <v>5435.498519769617</v>
+        <v>4342.46504422255</v>
       </c>
       <c r="G13" t="n">
-        <v>2796.933410384142</v>
+        <v>3540.02944729434</v>
       </c>
       <c r="H13" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>4863021</v>
+        <v>6020996</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9205402</v>
+        <v>8586223</v>
       </c>
       <c r="E14" t="n">
-        <v>23013504</v>
+        <v>21465558</v>
       </c>
       <c r="F14" t="n">
-        <v>6877.701354669981</v>
+        <v>5079.140390854039</v>
       </c>
       <c r="G14" t="n">
-        <v>17323.0491317029</v>
+        <v>16561.86077932789</v>
       </c>
       <c r="H14" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>1682719</v>
+        <v>2472217</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10413513</v>
+        <v>9973076</v>
       </c>
       <c r="E15" t="n">
-        <v>15312875</v>
+        <v>14665220</v>
       </c>
       <c r="F15" t="n">
-        <v>4262.423657872791</v>
+        <v>2747.557723562335</v>
       </c>
       <c r="G15" t="n">
-        <v>5297.665509540992</v>
+        <v>5811.619455022479</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>449750</v>
+        <v>970651</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26144734</v>
+        <v>26044267</v>
       </c>
       <c r="E16" t="n">
-        <v>81406313</v>
+        <v>81093492</v>
       </c>
       <c r="F16" t="n">
-        <v>6141.368653858411</v>
+        <v>5531.085680920497</v>
       </c>
       <c r="G16" t="n">
-        <v>17337.51471350565</v>
+        <v>12497.10326986487</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>9835474</v>
+        <v>10361799</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>206069677</v>
+        <v>198712461</v>
       </c>
       <c r="E17" t="n">
-        <v>1853930592</v>
+        <v>1787740517</v>
       </c>
       <c r="F17" t="n">
-        <v>796787.4452038868</v>
+        <v>6577.705610500368</v>
       </c>
       <c r="G17" t="n">
-        <v>914957.982910388</v>
+        <v>8057.317871331751</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>30611176</v>
+        <v>50320285</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13614845</v>
+        <v>13449783</v>
       </c>
       <c r="E18" t="n">
-        <v>83449864</v>
+        <v>82438141</v>
       </c>
       <c r="F18" t="n">
-        <v>24784.56449884925</v>
+        <v>30891.42710778635</v>
       </c>
       <c r="G18" t="n">
-        <v>32624.12633513335</v>
+        <v>37501.78194073171</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>9272244</v>
+        <v>10637839</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38751766</v>
+        <v>41114641</v>
       </c>
       <c r="E19" t="n">
-        <v>166938370</v>
+        <v>177117377</v>
       </c>
       <c r="F19" t="n">
-        <v>35485.57538675282</v>
+        <v>35099.80974161629</v>
       </c>
       <c r="G19" t="n">
-        <v>100667.6971717378</v>
+        <v>100419.2047236993</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>5117897</v>
+        <v>7488578</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>203511074</v>
+        <v>204691787</v>
       </c>
       <c r="E20" t="n">
-        <v>203511074</v>
+        <v>204691787</v>
       </c>
       <c r="F20" t="n">
-        <v>81367.88824398804</v>
+        <v>57755.8809379841</v>
       </c>
       <c r="G20" t="n">
-        <v>109457.1709428155</v>
+        <v>109330.1381696807</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>99590086</v>
+        <v>117141495</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29344952</v>
+        <v>27980274</v>
       </c>
       <c r="E21" t="n">
-        <v>107343511</v>
+        <v>102351535</v>
       </c>
       <c r="F21" t="n">
-        <v>49417.52546822629</v>
+        <v>59102.6903663822</v>
       </c>
       <c r="G21" t="n">
-        <v>42534.56649670113</v>
+        <v>55565.93656147594</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>7438386</v>
+        <v>11659071</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31189139</v>
+        <v>30504244</v>
       </c>
       <c r="E22" t="n">
-        <v>202253269</v>
+        <v>197811905</v>
       </c>
       <c r="F22" t="n">
-        <v>27356.10860097372</v>
+        <v>26024.46933765436</v>
       </c>
       <c r="G22" t="n">
-        <v>74732.83884978076</v>
+        <v>70660.4273482056</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>9611804</v>
+        <v>12538855</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123491356</v>
+        <v>124059383</v>
       </c>
       <c r="E23" t="n">
-        <v>2045117990</v>
+        <v>2054524996</v>
       </c>
       <c r="F23" t="n">
-        <v>335452.0111842295</v>
+        <v>350597.87488847</v>
       </c>
       <c r="G23" t="n">
-        <v>338054.9476859455</v>
+        <v>324008.8499016111</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>8569228</v>
+        <v>9222083</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5223281</v>
+        <v>4646541</v>
       </c>
       <c r="E24" t="n">
-        <v>24572121</v>
+        <v>21858940</v>
       </c>
       <c r="F24" t="n">
-        <v>1057.418634787381</v>
+        <v>780.7207133227766</v>
       </c>
       <c r="G24" t="n">
-        <v>44.79439231325622</v>
+        <v>138.0734288409831</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>806905</v>
+        <v>1131106</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11751235</v>
+        <v>11138887</v>
       </c>
       <c r="E25" t="n">
-        <v>11751235</v>
+        <v>11138887</v>
       </c>
       <c r="F25" t="n">
-        <v>10698.84426297085</v>
+        <v>8711.365837287145</v>
       </c>
       <c r="G25" t="n">
-        <v>11407.82841178684</v>
+        <v>11223.42651624779</v>
       </c>
       <c r="H25" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I25" t="n">
-        <v>2251507</v>
+        <v>3171537</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>234379495</v>
+        <v>221824590</v>
       </c>
       <c r="E27" t="n">
-        <v>423345623</v>
+        <v>400668450</v>
       </c>
       <c r="F27" t="n">
-        <v>61232.84755693204</v>
+        <v>75303.53952276695</v>
       </c>
       <c r="G27" t="n">
-        <v>78373.16215881285</v>
+        <v>78058.51132322502</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>9749969</v>
+        <v>12022825</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29043387</v>
+        <v>28501807</v>
       </c>
       <c r="E28" t="n">
-        <v>29043387</v>
+        <v>28501807</v>
       </c>
       <c r="F28" t="n">
-        <v>29633.36851074411</v>
+        <v>35132.93059724924</v>
       </c>
       <c r="G28" t="n">
-        <v>34132.72272242756</v>
+        <v>36929.23480800309</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2744159</v>
+        <v>3792437</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>443894260</v>
+        <v>430329701</v>
       </c>
       <c r="E29" t="n">
-        <v>1617981813</v>
+        <v>1568539385</v>
       </c>
       <c r="F29" t="n">
-        <v>156303.7655091471</v>
+        <v>151586.6029888812</v>
       </c>
       <c r="G29" t="n">
-        <v>104253.2659591208</v>
+        <v>172758.7327459572</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>22504969</v>
+        <v>35748241</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>110286676</v>
+        <v>82746443</v>
       </c>
       <c r="E30" t="n">
-        <v>423077441</v>
+        <v>317428672</v>
       </c>
       <c r="F30" t="n">
-        <v>144366.1862639139</v>
+        <v>13232.52259601543</v>
       </c>
       <c r="G30" t="n">
-        <v>177575.9556170543</v>
+        <v>50842.12448461213</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="I30" t="n">
-        <v>19628354</v>
+        <v>45640512</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24581942</v>
+        <v>25559213</v>
       </c>
       <c r="F31" t="n">
-        <v>4732.707439539794</v>
+        <v>3503.273507090923</v>
       </c>
       <c r="G31" t="n">
-        <v>75134.6817364575</v>
+        <v>103635.9107071097</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>2563831</v>
+        <v>3646685</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>121008042</v>
+        <v>124754703</v>
       </c>
       <c r="E32" t="n">
-        <v>440572056</v>
+        <v>454196754</v>
       </c>
       <c r="F32" t="n">
-        <v>66149.26907360286</v>
+        <v>615.038318943244</v>
       </c>
       <c r="G32" t="n">
-        <v>63856.79976530917</v>
+        <v>25323.15501255911</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>183962</v>
+        <v>305253</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>267370539</v>
+        <v>260555616</v>
       </c>
       <c r="E33" t="n">
-        <v>923204359</v>
+        <v>899220788</v>
       </c>
       <c r="F33" t="n">
-        <v>115306.7028203006</v>
+        <v>117486.2503654876</v>
       </c>
       <c r="G33" t="n">
-        <v>112771.1950105487</v>
+        <v>158667.1245494948</v>
       </c>
       <c r="H33" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>23450606</v>
+        <v>37100395</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79630951</v>
+        <v>84263037</v>
       </c>
       <c r="E34" t="n">
-        <v>116968266</v>
+        <v>123772242</v>
       </c>
       <c r="F34" t="n">
-        <v>12587.36628340493</v>
+        <v>54750.89976533343</v>
       </c>
       <c r="G34" t="n">
-        <v>22483.30454595088</v>
+        <v>60691.22717113295</v>
       </c>
       <c r="H34" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="I34" t="n">
-        <v>4357660</v>
+        <v>5892340</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2601602</v>
+        <v>2510083</v>
       </c>
       <c r="E35" t="n">
-        <v>10406410</v>
+        <v>10040333</v>
       </c>
       <c r="F35" t="n">
-        <v>39735.45284723556</v>
+        <v>37737.30367088581</v>
       </c>
       <c r="G35" t="n">
-        <v>5331.610024320464</v>
+        <v>33534.63813869033</v>
       </c>
       <c r="H35" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I35" t="n">
-        <v>2455438</v>
+        <v>2944989</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>160476786</v>
+        <v>155638811</v>
       </c>
       <c r="E36" t="n">
-        <v>460607080</v>
+        <v>446720924</v>
       </c>
       <c r="F36" t="n">
-        <v>139823.8151580424</v>
+        <v>188296.0740776319</v>
       </c>
       <c r="G36" t="n">
-        <v>177186.5352899331</v>
+        <v>218225.0813079069</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>7670663</v>
+        <v>9515472</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>95477942</v>
+        <v>92326409</v>
       </c>
       <c r="E37" t="n">
-        <v>249433462</v>
+        <v>241200172</v>
       </c>
       <c r="F37" t="n">
-        <v>42102.51642023239</v>
+        <v>40238.59210474088</v>
       </c>
       <c r="G37" t="n">
-        <v>39466.53014350759</v>
+        <v>35944.99851806265</v>
       </c>
       <c r="H37" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>5575042</v>
+        <v>6268794</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>268066790</v>
+        <v>266010579</v>
       </c>
       <c r="E38" t="n">
-        <v>1531810230</v>
+        <v>1520060450</v>
       </c>
       <c r="F38" t="n">
-        <v>50926.57768558657</v>
+        <v>50392.61642081389</v>
       </c>
       <c r="G38" t="n">
-        <v>68056.33537831313</v>
+        <v>79666.90607616333</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I38" t="n">
-        <v>30656515</v>
+        <v>48897352</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>217797680</v>
+        <v>241721584</v>
       </c>
       <c r="E2" t="n">
-        <v>1365778636</v>
+        <v>1515802076</v>
       </c>
       <c r="F2" t="n">
-        <v>183407.5859984838</v>
+        <v>163237.0338363697</v>
       </c>
       <c r="G2" t="n">
-        <v>217189.5532725734</v>
+        <v>185051.082640209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>21191246</v>
+        <v>39385703</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>101762697</v>
+        <v>104619114</v>
       </c>
       <c r="E3" t="n">
-        <v>112673298</v>
+        <v>115835969</v>
       </c>
       <c r="F3" t="n">
-        <v>72463.47575321893</v>
+        <v>71539.62963863545</v>
       </c>
       <c r="G3" t="n">
-        <v>168476.6604541019</v>
+        <v>158327.0480565832</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I3" t="n">
-        <v>25523775</v>
+        <v>27484692</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>390734460</v>
+        <v>403732554</v>
       </c>
       <c r="E4" t="n">
-        <v>488750736</v>
+        <v>505009419</v>
       </c>
       <c r="F4" t="n">
-        <v>104095.6182396265</v>
+        <v>92843.12341380617</v>
       </c>
       <c r="G4" t="n">
-        <v>124268.8612322819</v>
+        <v>118531.9695383959</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>59439213</v>
+        <v>69188792</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90800269</v>
+        <v>92668990</v>
       </c>
       <c r="E5" t="n">
-        <v>90800269</v>
+        <v>92668990</v>
       </c>
       <c r="F5" t="n">
-        <v>70541.42150658919</v>
+        <v>63764.63845415878</v>
       </c>
       <c r="G5" t="n">
-        <v>93168.90813918898</v>
+        <v>100201.7206026239</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>74008938</v>
+        <v>74261507</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>164998041</v>
+        <v>166574574</v>
       </c>
       <c r="E6" t="n">
-        <v>164998041</v>
+        <v>166574574</v>
       </c>
       <c r="F6" t="n">
-        <v>59742.10429955762</v>
+        <v>60278.5797824854</v>
       </c>
       <c r="G6" t="n">
-        <v>108778.4964902636</v>
+        <v>88726.71059042838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>16437452</v>
+        <v>17466880</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78069061</v>
+        <v>77899547</v>
       </c>
       <c r="E7" t="n">
-        <v>97342967</v>
+        <v>97131604</v>
       </c>
       <c r="F7" t="n">
-        <v>9844.250291258439</v>
+        <v>8610.751585438142</v>
       </c>
       <c r="G7" t="n">
-        <v>43102.84857993705</v>
+        <v>40495.6500181289</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>8698667</v>
+        <v>8939628</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54720050</v>
+        <v>55540276</v>
       </c>
       <c r="E8" t="n">
-        <v>114086909</v>
+        <v>115797015</v>
       </c>
       <c r="F8" t="n">
-        <v>50339.9162130781</v>
+        <v>49675.15076583455</v>
       </c>
       <c r="G8" t="n">
-        <v>59147.24405383322</v>
+        <v>41243.70630843868</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>13216702</v>
+        <v>13475363</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>175361574</v>
+        <v>183893088</v>
       </c>
       <c r="E9" t="n">
-        <v>175438692</v>
+        <v>183978642</v>
       </c>
       <c r="F9" t="n">
-        <v>14148.83293014319</v>
+        <v>14522.67283716641</v>
       </c>
       <c r="G9" t="n">
-        <v>22951.63503900673</v>
+        <v>26936.03405407224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>17412682</v>
+        <v>15174741</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>453803246</v>
+        <v>463264662</v>
       </c>
       <c r="E10" t="n">
-        <v>453803246</v>
+        <v>463264662</v>
       </c>
       <c r="F10" t="n">
-        <v>248838.7411231145</v>
+        <v>229870.9015034345</v>
       </c>
       <c r="G10" t="n">
-        <v>474349.6891882764</v>
+        <v>429109.7256456817</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>363207573</v>
+        <v>343037222</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66097976</v>
+        <v>65887009</v>
       </c>
       <c r="E11" t="n">
-        <v>75839008</v>
+        <v>75596950</v>
       </c>
       <c r="F11" t="n">
-        <v>1998.007712882603</v>
+        <v>3681.698909277396</v>
       </c>
       <c r="G11" t="n">
-        <v>2684.178642618303</v>
+        <v>6603.827983775884</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2187479</v>
+        <v>2200123</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>157902610</v>
+        <v>161017606</v>
       </c>
       <c r="E12" t="n">
-        <v>681595324</v>
+        <v>695041375</v>
       </c>
       <c r="F12" t="n">
-        <v>391964.0902498809</v>
+        <v>371345.1132231731</v>
       </c>
       <c r="G12" t="n">
-        <v>359444.1682813574</v>
+        <v>364369.6939908353</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I12" t="n">
-        <v>63060324</v>
+        <v>74685749</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89329436</v>
+        <v>89394373</v>
       </c>
       <c r="E13" t="n">
-        <v>89329436</v>
+        <v>89394373</v>
       </c>
       <c r="F13" t="n">
-        <v>4342.46504422255</v>
+        <v>4449.469412615598</v>
       </c>
       <c r="G13" t="n">
-        <v>3540.02944729434</v>
+        <v>4041.580202209938</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I13" t="n">
-        <v>6020996</v>
+        <v>7164096</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8586223</v>
+        <v>8846725</v>
       </c>
       <c r="E14" t="n">
-        <v>21465558</v>
+        <v>22116813</v>
       </c>
       <c r="F14" t="n">
-        <v>5079.140390854039</v>
+        <v>2218.362723712143</v>
       </c>
       <c r="G14" t="n">
-        <v>16561.86077932789</v>
+        <v>7937.349368688951</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>2472217</v>
+        <v>4761860</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9973076</v>
+        <v>10045202</v>
       </c>
       <c r="E15" t="n">
-        <v>14665220</v>
+        <v>14771280</v>
       </c>
       <c r="F15" t="n">
-        <v>2747.557723562335</v>
+        <v>2851.426852207902</v>
       </c>
       <c r="G15" t="n">
-        <v>5811.619455022479</v>
+        <v>6190.343463778817</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>970651</v>
+        <v>982176</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26044267</v>
+        <v>25728284</v>
       </c>
       <c r="E16" t="n">
-        <v>81093492</v>
+        <v>80109621</v>
       </c>
       <c r="F16" t="n">
-        <v>5531.085680920497</v>
+        <v>6212.525564769766</v>
       </c>
       <c r="G16" t="n">
-        <v>12497.10326986487</v>
+        <v>12186.31846585428</v>
       </c>
       <c r="H16" t="n">
         <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>10361799</v>
+        <v>10443410</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>198712461</v>
+        <v>199382980</v>
       </c>
       <c r="E17" t="n">
-        <v>1787740517</v>
+        <v>1793772917</v>
       </c>
       <c r="F17" t="n">
-        <v>6577.705610500368</v>
+        <v>6587.091918649969</v>
       </c>
       <c r="G17" t="n">
-        <v>8057.317871331751</v>
+        <v>7060.759736839253</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>50320285</v>
+        <v>57761867</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13449783</v>
+        <v>13473963</v>
       </c>
       <c r="E18" t="n">
-        <v>82438141</v>
+        <v>82586347</v>
       </c>
       <c r="F18" t="n">
-        <v>30891.42710778635</v>
+        <v>28220.54619240193</v>
       </c>
       <c r="G18" t="n">
-        <v>37501.78194073171</v>
+        <v>35451.56509062307</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>10637839</v>
+        <v>10635889</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41114641</v>
+        <v>42008207</v>
       </c>
       <c r="E19" t="n">
-        <v>177117377</v>
+        <v>180966764</v>
       </c>
       <c r="F19" t="n">
-        <v>35099.80974161629</v>
+        <v>35600.96885746513</v>
       </c>
       <c r="G19" t="n">
-        <v>100419.2047236993</v>
+        <v>70364.72309326712</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>7488578</v>
+        <v>9947474</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>204691787</v>
+        <v>211602782</v>
       </c>
       <c r="E20" t="n">
-        <v>204691787</v>
+        <v>211602782</v>
       </c>
       <c r="F20" t="n">
-        <v>57755.8809379841</v>
+        <v>55050.79542393403</v>
       </c>
       <c r="G20" t="n">
-        <v>109330.1381696807</v>
+        <v>111977.0510099153</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>117141495</v>
+        <v>99129641</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27980274</v>
+        <v>27925281</v>
       </c>
       <c r="E21" t="n">
-        <v>102351535</v>
+        <v>102150369</v>
       </c>
       <c r="F21" t="n">
-        <v>59102.6903663822</v>
+        <v>56123.3917221946</v>
       </c>
       <c r="G21" t="n">
-        <v>55565.93656147594</v>
+        <v>49907.34419163932</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>11659071</v>
+        <v>13086740</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30504244</v>
+        <v>30476271</v>
       </c>
       <c r="E22" t="n">
-        <v>197811905</v>
+        <v>197630509</v>
       </c>
       <c r="F22" t="n">
-        <v>26024.46933765436</v>
+        <v>30556.06011230423</v>
       </c>
       <c r="G22" t="n">
-        <v>70660.4273482056</v>
+        <v>70298.21442391867</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>12538855</v>
+        <v>12817743</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124059383</v>
+        <v>123674570</v>
       </c>
       <c r="E23" t="n">
-        <v>2054524996</v>
+        <v>2048152165</v>
       </c>
       <c r="F23" t="n">
-        <v>350597.87488847</v>
+        <v>353862.2216200847</v>
       </c>
       <c r="G23" t="n">
-        <v>324008.8499016111</v>
+        <v>324639.6346431065</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>9222083</v>
+        <v>8803050</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4646541</v>
+        <v>4831650</v>
       </c>
       <c r="E24" t="n">
-        <v>21858940</v>
+        <v>22729756</v>
       </c>
       <c r="F24" t="n">
-        <v>780.7207133227766</v>
+        <v>77.66913024589768</v>
       </c>
       <c r="G24" t="n">
-        <v>138.0734288409831</v>
+        <v>1260.857216914477</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>1131106</v>
+        <v>847912</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11138887</v>
+        <v>11673239</v>
       </c>
       <c r="E25" t="n">
-        <v>11138887</v>
+        <v>11673239</v>
       </c>
       <c r="F25" t="n">
-        <v>8711.365837287145</v>
+        <v>1981.649111599461</v>
       </c>
       <c r="G25" t="n">
-        <v>11223.42651624779</v>
+        <v>10290.9614369494</v>
       </c>
       <c r="H25" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>3171537</v>
+        <v>3382058</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>221824590</v>
+        <v>224375153</v>
       </c>
       <c r="E27" t="n">
-        <v>400668450</v>
+        <v>405275379</v>
       </c>
       <c r="F27" t="n">
-        <v>75303.53952276695</v>
+        <v>100390.1814784447</v>
       </c>
       <c r="G27" t="n">
-        <v>78058.51132322502</v>
+        <v>103300.5056195026</v>
       </c>
       <c r="H27" t="n">
         <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>12022825</v>
+        <v>12934629</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28501807</v>
+        <v>28285601</v>
       </c>
       <c r="E28" t="n">
-        <v>28501807</v>
+        <v>28285601</v>
       </c>
       <c r="F28" t="n">
-        <v>35132.93059724924</v>
+        <v>27968.15130155206</v>
       </c>
       <c r="G28" t="n">
-        <v>36929.23480800309</v>
+        <v>31832.50195217329</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>3792437</v>
+        <v>3898021</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>430329701</v>
+        <v>436084743</v>
       </c>
       <c r="E29" t="n">
-        <v>1568539385</v>
+        <v>1589516349</v>
       </c>
       <c r="F29" t="n">
-        <v>151586.6029888812</v>
+        <v>146773.6036467715</v>
       </c>
       <c r="G29" t="n">
-        <v>172758.7327459572</v>
+        <v>179380.2932020288</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>35748241</v>
+        <v>38095245</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>82746443</v>
+        <v>79412841</v>
       </c>
       <c r="E30" t="n">
-        <v>317428672</v>
+        <v>304640438</v>
       </c>
       <c r="F30" t="n">
-        <v>13232.52259601543</v>
+        <v>12089.83633480331</v>
       </c>
       <c r="G30" t="n">
-        <v>50842.12448461213</v>
+        <v>59831.22373052702</v>
       </c>
       <c r="H30" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>45640512</v>
+        <v>69480417</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25559213</v>
+        <v>26106057</v>
       </c>
       <c r="F31" t="n">
-        <v>3503.273507090923</v>
+        <v>10802.797657234</v>
       </c>
       <c r="G31" t="n">
-        <v>103635.9107071097</v>
+        <v>9619.015190903372</v>
       </c>
       <c r="H31" t="n">
         <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>3646685</v>
+        <v>3852821</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>124754703</v>
+        <v>126093103</v>
       </c>
       <c r="E32" t="n">
-        <v>454196754</v>
+        <v>459051043</v>
       </c>
       <c r="F32" t="n">
-        <v>615.038318943244</v>
+        <v>58101.44934221763</v>
       </c>
       <c r="G32" t="n">
-        <v>25323.15501255911</v>
+        <v>56199.72799426912</v>
       </c>
       <c r="H32" t="n">
         <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>305253</v>
+        <v>375160</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>260555616</v>
+        <v>268877766</v>
       </c>
       <c r="E33" t="n">
-        <v>899220788</v>
+        <v>927941911</v>
       </c>
       <c r="F33" t="n">
-        <v>117486.2503654876</v>
+        <v>176764.7822398159</v>
       </c>
       <c r="G33" t="n">
-        <v>158667.1245494948</v>
+        <v>217280.5308278613</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>37100395</v>
+        <v>47558802</v>
       </c>
     </row>
     <row r="34">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Play To Earn, Guild and Scholarship, Ethereum Ecosystem, Animoca Brands Portfolio, DWF Labs Portfolio, Coinbase Ventures Portfolio, DeFiance Capital Portfolio, Pantera Capital Portfolio, Binance Labs Portfolio, MMO</t>
+          <t>Gaming (GameFi), Play To Earn, Guild and Scholarship, Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, DWF Labs Portfolio, Ronin Ecosystem, Coinbase Ventures Portfolio, DeFiance Capital Portfolio, Pantera Capital Portfolio, Binance Labs Portfolio, MMO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>84263037</v>
+        <v>84371585</v>
       </c>
       <c r="E34" t="n">
-        <v>123772242</v>
+        <v>123931685</v>
       </c>
       <c r="F34" t="n">
-        <v>54750.89976533343</v>
+        <v>52982.15575892453</v>
       </c>
       <c r="G34" t="n">
-        <v>60691.22717113295</v>
+        <v>58299.40363784549</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>5892340</v>
+        <v>6671496</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2510083</v>
+        <v>2557215</v>
       </c>
       <c r="E35" t="n">
-        <v>10040333</v>
+        <v>10228859</v>
       </c>
       <c r="F35" t="n">
-        <v>37737.30367088581</v>
+        <v>38480.08611726962</v>
       </c>
       <c r="G35" t="n">
-        <v>33534.63813869033</v>
+        <v>48978.89528541813</v>
       </c>
       <c r="H35" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I35" t="n">
-        <v>2944989</v>
+        <v>3517246</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>155638811</v>
+        <v>156431492</v>
       </c>
       <c r="E36" t="n">
-        <v>446720924</v>
+        <v>448996111</v>
       </c>
       <c r="F36" t="n">
-        <v>188296.0740776319</v>
+        <v>207831.8436517184</v>
       </c>
       <c r="G36" t="n">
-        <v>218225.0813079069</v>
+        <v>228256.0401836754</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>9515472</v>
+        <v>10159717</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>92326409</v>
+        <v>91382975</v>
       </c>
       <c r="E37" t="n">
-        <v>241200172</v>
+        <v>238735476</v>
       </c>
       <c r="F37" t="n">
-        <v>40238.59210474088</v>
+        <v>41931.35454742079</v>
       </c>
       <c r="G37" t="n">
-        <v>35944.99851806265</v>
+        <v>38307.55167237599</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>6268794</v>
+        <v>7335023</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>266010579</v>
+        <v>265506665</v>
       </c>
       <c r="E38" t="n">
-        <v>1520060450</v>
+        <v>1517180943</v>
       </c>
       <c r="F38" t="n">
-        <v>50392.61642081389</v>
+        <v>58625.57324873447</v>
       </c>
       <c r="G38" t="n">
-        <v>79666.90607616333</v>
+        <v>77498.60456430698</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I38" t="n">
-        <v>48897352</v>
+        <v>49541147</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>241721584</v>
+        <v>223165650</v>
       </c>
       <c r="E2" t="n">
-        <v>1515802076</v>
+        <v>1399440424</v>
       </c>
       <c r="F2" t="n">
-        <v>163237.0338363697</v>
+        <v>104480.7383805584</v>
       </c>
       <c r="G2" t="n">
-        <v>185051.082640209</v>
+        <v>153996.0252929571</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>39385703</v>
+        <v>56099617</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>104619114</v>
+        <v>102438363</v>
       </c>
       <c r="E3" t="n">
-        <v>115835969</v>
+        <v>113421406</v>
       </c>
       <c r="F3" t="n">
-        <v>71539.62963863545</v>
+        <v>69511.64380744411</v>
       </c>
       <c r="G3" t="n">
-        <v>158327.0480565832</v>
+        <v>175066.4952959609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>27484692</v>
+        <v>31890960</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>403732554</v>
+        <v>402258250</v>
       </c>
       <c r="E4" t="n">
-        <v>505009419</v>
+        <v>503165285</v>
       </c>
       <c r="F4" t="n">
-        <v>92843.12341380617</v>
+        <v>118875.0442315593</v>
       </c>
       <c r="G4" t="n">
-        <v>118531.9695383959</v>
+        <v>126447.1968080718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>69188792</v>
+        <v>81110859</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92668990</v>
+        <v>91674205</v>
       </c>
       <c r="E5" t="n">
-        <v>92668990</v>
+        <v>91674205</v>
       </c>
       <c r="F5" t="n">
-        <v>63764.63845415878</v>
+        <v>73170.05246433787</v>
       </c>
       <c r="G5" t="n">
-        <v>100201.7206026239</v>
+        <v>89427.0686483874</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>74261507</v>
+        <v>76250979</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>166574574</v>
+        <v>162493655</v>
       </c>
       <c r="E6" t="n">
-        <v>166574574</v>
+        <v>162493655</v>
       </c>
       <c r="F6" t="n">
-        <v>60278.5797824854</v>
+        <v>68097.02112900834</v>
       </c>
       <c r="G6" t="n">
-        <v>88726.71059042838</v>
+        <v>81354.3393098189</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>17466880</v>
+        <v>24738624</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77899547</v>
+        <v>76902336</v>
       </c>
       <c r="E7" t="n">
-        <v>97131604</v>
+        <v>95888199</v>
       </c>
       <c r="F7" t="n">
-        <v>8610.751585438142</v>
+        <v>7694.052928717342</v>
       </c>
       <c r="G7" t="n">
-        <v>40495.6500181289</v>
+        <v>35826.5671106283</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>8939628</v>
+        <v>10353135</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55540276</v>
+        <v>53579901</v>
       </c>
       <c r="E8" t="n">
-        <v>115797015</v>
+        <v>111709790</v>
       </c>
       <c r="F8" t="n">
-        <v>49675.15076583455</v>
+        <v>42533.27439407614</v>
       </c>
       <c r="G8" t="n">
-        <v>41243.70630843868</v>
+        <v>57033.64658476295</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>13475363</v>
+        <v>16987295</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>183893088</v>
+        <v>167308570</v>
       </c>
       <c r="E9" t="n">
-        <v>183978642</v>
+        <v>167392837</v>
       </c>
       <c r="F9" t="n">
-        <v>14522.67283716641</v>
+        <v>12817.44226742317</v>
       </c>
       <c r="G9" t="n">
-        <v>26936.03405407224</v>
+        <v>26759.03344613062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I9" t="n">
-        <v>15174741</v>
+        <v>12451192</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>463264662</v>
+        <v>458119691</v>
       </c>
       <c r="E10" t="n">
-        <v>463264662</v>
+        <v>458119691</v>
       </c>
       <c r="F10" t="n">
-        <v>229870.9015034345</v>
+        <v>403203.9831197896</v>
       </c>
       <c r="G10" t="n">
-        <v>429109.7256456817</v>
+        <v>459752.7708735112</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>343037222</v>
+        <v>414825543</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65887009</v>
+        <v>66140907</v>
       </c>
       <c r="E11" t="n">
-        <v>75596950</v>
+        <v>75888266</v>
       </c>
       <c r="F11" t="n">
-        <v>3681.698909277396</v>
+        <v>3082.14426865955</v>
       </c>
       <c r="G11" t="n">
-        <v>6603.827983775884</v>
+        <v>5363.111883976965</v>
       </c>
       <c r="H11" t="n">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="I11" t="n">
-        <v>2200123</v>
+        <v>2096505</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>161017606</v>
+        <v>158622842</v>
       </c>
       <c r="E12" t="n">
-        <v>695041375</v>
+        <v>684704245</v>
       </c>
       <c r="F12" t="n">
-        <v>371345.1132231731</v>
+        <v>283485.0126632721</v>
       </c>
       <c r="G12" t="n">
-        <v>364369.6939908353</v>
+        <v>321723.5089144075</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>74685749</v>
+        <v>83493958</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89394373</v>
+        <v>90042858</v>
       </c>
       <c r="E13" t="n">
-        <v>89394373</v>
+        <v>90042858</v>
       </c>
       <c r="F13" t="n">
-        <v>4449.469412615598</v>
+        <v>2478.888902739205</v>
       </c>
       <c r="G13" t="n">
-        <v>4041.580202209938</v>
+        <v>5416.725326293189</v>
       </c>
       <c r="H13" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>7164096</v>
+        <v>9307812</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8846725</v>
+        <v>8633593</v>
       </c>
       <c r="E14" t="n">
-        <v>22116813</v>
+        <v>21583982</v>
       </c>
       <c r="F14" t="n">
-        <v>2218.362723712143</v>
+        <v>5680.680754745778</v>
       </c>
       <c r="G14" t="n">
-        <v>7937.349368688951</v>
+        <v>12994.31805391095</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>4761860</v>
+        <v>5037972</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10045202</v>
+        <v>10072335</v>
       </c>
       <c r="E15" t="n">
-        <v>14771280</v>
+        <v>14811178</v>
       </c>
       <c r="F15" t="n">
-        <v>2851.426852207902</v>
+        <v>3771.717868694537</v>
       </c>
       <c r="G15" t="n">
-        <v>6190.343463778817</v>
+        <v>2622.340228132633</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>982176</v>
+        <v>1254771</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25728284</v>
+        <v>24874963</v>
       </c>
       <c r="E16" t="n">
-        <v>80109621</v>
+        <v>77452653</v>
       </c>
       <c r="F16" t="n">
-        <v>6212.525564769766</v>
+        <v>10129.6383106957</v>
       </c>
       <c r="G16" t="n">
-        <v>12186.31846585428</v>
+        <v>21831.73118431292</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>10443410</v>
+        <v>10161463</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199382980</v>
+        <v>191428263</v>
       </c>
       <c r="E17" t="n">
-        <v>1793772917</v>
+        <v>1722207351</v>
       </c>
       <c r="F17" t="n">
-        <v>6587.091918649969</v>
+        <v>49413.47574343708</v>
       </c>
       <c r="G17" t="n">
-        <v>7060.759736839253</v>
+        <v>75869.6382871216</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>57761867</v>
+        <v>60943228</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13473963</v>
+        <v>13596479</v>
       </c>
       <c r="E18" t="n">
-        <v>82586347</v>
+        <v>83337294</v>
       </c>
       <c r="F18" t="n">
-        <v>28220.54619240193</v>
+        <v>26576.66657149106</v>
       </c>
       <c r="G18" t="n">
-        <v>35451.56509062307</v>
+        <v>27666.66747630827</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>10635889</v>
+        <v>11085225</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42008207</v>
+        <v>41042983</v>
       </c>
       <c r="E19" t="n">
-        <v>180966764</v>
+        <v>176808685</v>
       </c>
       <c r="F19" t="n">
-        <v>35600.96885746513</v>
+        <v>30692.93123317216</v>
       </c>
       <c r="G19" t="n">
-        <v>70364.72309326712</v>
+        <v>78920.53249644728</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>9947474</v>
+        <v>15793025</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>211602782</v>
+        <v>215944443</v>
       </c>
       <c r="E20" t="n">
-        <v>211602782</v>
+        <v>215944443</v>
       </c>
       <c r="F20" t="n">
-        <v>55050.79542393403</v>
+        <v>53813.96816900282</v>
       </c>
       <c r="G20" t="n">
-        <v>111977.0510099153</v>
+        <v>119655.9811086292</v>
       </c>
       <c r="H20" t="n">
         <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>99129641</v>
+        <v>108485745</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27925281</v>
+        <v>26691695</v>
       </c>
       <c r="E21" t="n">
-        <v>102150369</v>
+        <v>97637928</v>
       </c>
       <c r="F21" t="n">
-        <v>56123.3917221946</v>
+        <v>47264.98614204791</v>
       </c>
       <c r="G21" t="n">
-        <v>49907.34419163932</v>
+        <v>43546.17382345183</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>13086740</v>
+        <v>16253770</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30476271</v>
+        <v>30097574</v>
       </c>
       <c r="E22" t="n">
-        <v>197630509</v>
+        <v>195174755</v>
       </c>
       <c r="F22" t="n">
-        <v>30556.06011230423</v>
+        <v>5995.931996077618</v>
       </c>
       <c r="G22" t="n">
-        <v>70298.21442391867</v>
+        <v>8679.501388674593</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>12817743</v>
+        <v>14826035</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123674570</v>
+        <v>122973321</v>
       </c>
       <c r="E23" t="n">
-        <v>2048152165</v>
+        <v>2036538911</v>
       </c>
       <c r="F23" t="n">
-        <v>353862.2216200847</v>
+        <v>352845.6060768895</v>
       </c>
       <c r="G23" t="n">
-        <v>324639.6346431065</v>
+        <v>327778.3726450928</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>8803050</v>
+        <v>8750859</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4831650</v>
+        <v>4551108</v>
       </c>
       <c r="E24" t="n">
-        <v>22729756</v>
+        <v>21409987</v>
       </c>
       <c r="F24" t="n">
-        <v>77.66913024589768</v>
+        <v>909.4493813224525</v>
       </c>
       <c r="G24" t="n">
-        <v>1260.857216914477</v>
+        <v>3860.151382795788</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I24" t="n">
-        <v>847912</v>
+        <v>1065968</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11673239</v>
+        <v>11301316</v>
       </c>
       <c r="E25" t="n">
-        <v>11673239</v>
+        <v>11301505</v>
       </c>
       <c r="F25" t="n">
-        <v>1981.649111599461</v>
+        <v>1422.951414419371</v>
       </c>
       <c r="G25" t="n">
-        <v>10290.9614369494</v>
+        <v>16010.42036917517</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="I25" t="n">
-        <v>3382058</v>
+        <v>3221628</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>224375153</v>
+        <v>222430448</v>
       </c>
       <c r="E27" t="n">
-        <v>405275379</v>
+        <v>401762775</v>
       </c>
       <c r="F27" t="n">
-        <v>100390.1814784447</v>
+        <v>83467.36435650509</v>
       </c>
       <c r="G27" t="n">
-        <v>103300.5056195026</v>
+        <v>85246.26201460659</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>12934629</v>
+        <v>17014313</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28285601</v>
+        <v>27378850</v>
       </c>
       <c r="E28" t="n">
-        <v>28285601</v>
+        <v>27378850</v>
       </c>
       <c r="F28" t="n">
-        <v>27968.15130155206</v>
+        <v>29155.42664699572</v>
       </c>
       <c r="G28" t="n">
-        <v>31832.50195217329</v>
+        <v>32597.76902685974</v>
       </c>
       <c r="H28" t="n">
         <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>3898021</v>
+        <v>4127509</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>436084743</v>
+        <v>427997517</v>
       </c>
       <c r="E29" t="n">
-        <v>1589516349</v>
+        <v>1560038643</v>
       </c>
       <c r="F29" t="n">
-        <v>146773.6036467715</v>
+        <v>141336.5008405345</v>
       </c>
       <c r="G29" t="n">
-        <v>179380.2932020288</v>
+        <v>182661.4893665312</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>38095245</v>
+        <v>46032492</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79412841</v>
+        <v>79635916</v>
       </c>
       <c r="E30" t="n">
-        <v>304640438</v>
+        <v>305496191</v>
       </c>
       <c r="F30" t="n">
-        <v>12089.83633480331</v>
+        <v>12121.75628136121</v>
       </c>
       <c r="G30" t="n">
-        <v>59831.22373052702</v>
+        <v>53988.92462808301</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>69480417</v>
+        <v>101191846</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26106057</v>
+        <v>23781306</v>
       </c>
       <c r="F31" t="n">
-        <v>10802.797657234</v>
+        <v>17179.09743182762</v>
       </c>
       <c r="G31" t="n">
-        <v>9619.015190903372</v>
+        <v>121202.0478869033</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>3852821</v>
+        <v>4675600</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>126093103</v>
+        <v>128473040</v>
       </c>
       <c r="E32" t="n">
-        <v>459051043</v>
+        <v>467701327</v>
       </c>
       <c r="F32" t="n">
-        <v>58101.44934221763</v>
+        <v>56189.66714288091</v>
       </c>
       <c r="G32" t="n">
-        <v>56199.72799426912</v>
+        <v>55881.07026421227</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>375160</v>
+        <v>528371</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>268877766</v>
+        <v>262249555</v>
       </c>
       <c r="E33" t="n">
-        <v>927941911</v>
+        <v>905066852</v>
       </c>
       <c r="F33" t="n">
-        <v>176764.7822398159</v>
+        <v>173036.1642533448</v>
       </c>
       <c r="G33" t="n">
-        <v>217280.5308278613</v>
+        <v>213618.6982702805</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>47558802</v>
+        <v>75194594</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>84371585</v>
+        <v>79377594</v>
       </c>
       <c r="E34" t="n">
-        <v>123931685</v>
+        <v>116530424</v>
       </c>
       <c r="F34" t="n">
-        <v>52982.15575892453</v>
+        <v>50503.51441713487</v>
       </c>
       <c r="G34" t="n">
-        <v>58299.40363784549</v>
+        <v>57849.81844064371</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>6671496</v>
+        <v>7174647</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2557215</v>
+        <v>2388369</v>
       </c>
       <c r="E35" t="n">
-        <v>10228859</v>
+        <v>9553476</v>
       </c>
       <c r="F35" t="n">
-        <v>38480.08611726962</v>
+        <v>32427.04432406594</v>
       </c>
       <c r="G35" t="n">
-        <v>48978.89528541813</v>
+        <v>3023.51135680429</v>
       </c>
       <c r="H35" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I35" t="n">
-        <v>3517246</v>
+        <v>4263187</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>156431492</v>
+        <v>155119889</v>
       </c>
       <c r="E36" t="n">
-        <v>448996111</v>
+        <v>445231494</v>
       </c>
       <c r="F36" t="n">
-        <v>207831.8436517184</v>
+        <v>196706.5821821973</v>
       </c>
       <c r="G36" t="n">
-        <v>228256.0401836754</v>
+        <v>213798.3758012352</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>10159717</v>
+        <v>13399281</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>91382975</v>
+        <v>84791793</v>
       </c>
       <c r="E37" t="n">
-        <v>238735476</v>
+        <v>221516195</v>
       </c>
       <c r="F37" t="n">
-        <v>41931.35454742079</v>
+        <v>46522.97641672922</v>
       </c>
       <c r="G37" t="n">
-        <v>38307.55167237599</v>
+        <v>43113.06615614137</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I37" t="n">
-        <v>7335023</v>
+        <v>8397316</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>265506665</v>
+        <v>256139598</v>
       </c>
       <c r="E38" t="n">
-        <v>1517180943</v>
+        <v>1463654848</v>
       </c>
       <c r="F38" t="n">
-        <v>58625.57324873447</v>
+        <v>46046.88715945249</v>
       </c>
       <c r="G38" t="n">
-        <v>77498.60456430698</v>
+        <v>71270.94189372408</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>49541147</v>
+        <v>50413114</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>223165650</v>
+        <v>233128237</v>
       </c>
       <c r="E2" t="n">
-        <v>1399440424</v>
+        <v>1461914408</v>
       </c>
       <c r="F2" t="n">
-        <v>104480.7383805584</v>
+        <v>73901.19185949689</v>
       </c>
       <c r="G2" t="n">
-        <v>153996.0252929571</v>
+        <v>123694.0214162867</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I2" t="n">
-        <v>56099617</v>
+        <v>115934374</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102438363</v>
+        <v>96247362</v>
       </c>
       <c r="E3" t="n">
-        <v>113421406</v>
+        <v>106566630</v>
       </c>
       <c r="F3" t="n">
-        <v>69511.64380744411</v>
+        <v>22732.10753212715</v>
       </c>
       <c r="G3" t="n">
-        <v>175066.4952959609</v>
+        <v>150334.3862119587</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>31890960</v>
+        <v>40399098</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>402258250</v>
+        <v>368463774</v>
       </c>
       <c r="E4" t="n">
-        <v>503165285</v>
+        <v>460893417</v>
       </c>
       <c r="F4" t="n">
-        <v>118875.0442315593</v>
+        <v>92336.47980425188</v>
       </c>
       <c r="G4" t="n">
-        <v>126447.1968080718</v>
+        <v>117435.2623940744</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>81110859</v>
+        <v>86073000</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91674205</v>
+        <v>87474278</v>
       </c>
       <c r="E5" t="n">
-        <v>91674205</v>
+        <v>87474278</v>
       </c>
       <c r="F5" t="n">
-        <v>73170.05246433787</v>
+        <v>63553.56236214165</v>
       </c>
       <c r="G5" t="n">
-        <v>89427.0686483874</v>
+        <v>91852.94513747618</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I5" t="n">
-        <v>76250979</v>
+        <v>85867199</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>162493655</v>
+        <v>155878700</v>
       </c>
       <c r="E6" t="n">
-        <v>162493655</v>
+        <v>155878700</v>
       </c>
       <c r="F6" t="n">
-        <v>68097.02112900834</v>
+        <v>60427.32261611203</v>
       </c>
       <c r="G6" t="n">
-        <v>81354.3393098189</v>
+        <v>87887.20266844095</v>
       </c>
       <c r="H6" t="n">
         <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>24738624</v>
+        <v>23159245</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76902336</v>
+        <v>71214727</v>
       </c>
       <c r="E7" t="n">
-        <v>95888199</v>
+        <v>88796416</v>
       </c>
       <c r="F7" t="n">
-        <v>7694.052928717342</v>
+        <v>17611.8686613258</v>
       </c>
       <c r="G7" t="n">
-        <v>35826.5671106283</v>
+        <v>40978.45346390596</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>10353135</v>
+        <v>16179620</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53579901</v>
+        <v>50386920</v>
       </c>
       <c r="E8" t="n">
-        <v>111709790</v>
+        <v>105052681</v>
       </c>
       <c r="F8" t="n">
-        <v>42533.27439407614</v>
+        <v>38502.34671463729</v>
       </c>
       <c r="G8" t="n">
-        <v>57033.64658476295</v>
+        <v>42917.80664891226</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I8" t="n">
-        <v>16987295</v>
+        <v>20095197</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>167308570</v>
+        <v>150300564</v>
       </c>
       <c r="E9" t="n">
-        <v>167392837</v>
+        <v>150381970</v>
       </c>
       <c r="F9" t="n">
-        <v>12817.44226742317</v>
+        <v>14164.83823571524</v>
       </c>
       <c r="G9" t="n">
-        <v>26759.03344613062</v>
+        <v>24031.69831008462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>12451192</v>
+        <v>10513277</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>458119691</v>
+        <v>433366073</v>
       </c>
       <c r="E10" t="n">
-        <v>458119691</v>
+        <v>433366073</v>
       </c>
       <c r="F10" t="n">
-        <v>403203.9831197896</v>
+        <v>230387.3771083956</v>
       </c>
       <c r="G10" t="n">
-        <v>459752.7708735112</v>
+        <v>481676.6678016309</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>414825543</v>
+        <v>447909292</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66140907</v>
+        <v>64817440</v>
       </c>
       <c r="E11" t="n">
-        <v>75888266</v>
+        <v>74369757</v>
       </c>
       <c r="F11" t="n">
-        <v>3082.14426865955</v>
+        <v>2867.068683506996</v>
       </c>
       <c r="G11" t="n">
-        <v>5363.111883976965</v>
+        <v>4116.146773916812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="I11" t="n">
-        <v>2096505</v>
+        <v>1817785</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>158622842</v>
+        <v>147500189</v>
       </c>
       <c r="E12" t="n">
-        <v>684704245</v>
+        <v>636692697</v>
       </c>
       <c r="F12" t="n">
-        <v>283485.0126632721</v>
+        <v>365775.3385005008</v>
       </c>
       <c r="G12" t="n">
-        <v>321723.5089144075</v>
+        <v>261080.8447928499</v>
       </c>
       <c r="H12" t="n">
         <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>83493958</v>
+        <v>97309604</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90042858</v>
+        <v>87346289</v>
       </c>
       <c r="E13" t="n">
-        <v>90042858</v>
+        <v>87346289</v>
       </c>
       <c r="F13" t="n">
-        <v>2478.888902739205</v>
+        <v>2428.669803969212</v>
       </c>
       <c r="G13" t="n">
-        <v>5416.725326293189</v>
+        <v>3202.264615169002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I13" t="n">
-        <v>9307812</v>
+        <v>8609844</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8633593</v>
+        <v>8235386</v>
       </c>
       <c r="E14" t="n">
-        <v>21583982</v>
+        <v>20588464</v>
       </c>
       <c r="F14" t="n">
-        <v>5680.680754745778</v>
+        <v>10473.70318209087</v>
       </c>
       <c r="G14" t="n">
-        <v>12994.31805391095</v>
+        <v>16362.52807066055</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>5037972</v>
+        <v>5104182</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10072335</v>
+        <v>9675429</v>
       </c>
       <c r="E15" t="n">
-        <v>14811178</v>
+        <v>14227537</v>
       </c>
       <c r="F15" t="n">
-        <v>3771.717868694537</v>
+        <v>3126.469984906525</v>
       </c>
       <c r="G15" t="n">
-        <v>2622.340228132633</v>
+        <v>8371.638023660271</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>1254771</v>
+        <v>833581</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24874963</v>
+        <v>24607068</v>
       </c>
       <c r="E16" t="n">
-        <v>77452653</v>
+        <v>76618514</v>
       </c>
       <c r="F16" t="n">
-        <v>10129.6383106957</v>
+        <v>6070.390695229364</v>
       </c>
       <c r="G16" t="n">
-        <v>21831.73118431292</v>
+        <v>13883.70495511525</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I16" t="n">
-        <v>10161463</v>
+        <v>11253697</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>191428263</v>
+        <v>178303513</v>
       </c>
       <c r="E17" t="n">
-        <v>1722207351</v>
+        <v>1604128963</v>
       </c>
       <c r="F17" t="n">
-        <v>49413.47574343708</v>
+        <v>788764.5508989304</v>
       </c>
       <c r="G17" t="n">
-        <v>75869.6382871216</v>
+        <v>872929.4361253205</v>
       </c>
       <c r="H17" t="n">
         <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>60943228</v>
+        <v>62334456</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13596479</v>
+        <v>13485407</v>
       </c>
       <c r="E18" t="n">
-        <v>83337294</v>
+        <v>82656494</v>
       </c>
       <c r="F18" t="n">
-        <v>26576.66657149106</v>
+        <v>29016.88867215942</v>
       </c>
       <c r="G18" t="n">
-        <v>27666.66747630827</v>
+        <v>37287.77525219687</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>11085225</v>
+        <v>12651905</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41042983</v>
+        <v>40813544</v>
       </c>
       <c r="E19" t="n">
-        <v>176808685</v>
+        <v>175820285</v>
       </c>
       <c r="F19" t="n">
-        <v>30692.93123317216</v>
+        <v>43310.56401712895</v>
       </c>
       <c r="G19" t="n">
-        <v>78920.53249644728</v>
+        <v>65451.42350964704</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>15793025</v>
+        <v>20712843</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>215944443</v>
+        <v>199528296</v>
       </c>
       <c r="E20" t="n">
-        <v>215944443</v>
+        <v>199528296</v>
       </c>
       <c r="F20" t="n">
-        <v>53813.96816900282</v>
+        <v>52558.65904824122</v>
       </c>
       <c r="G20" t="n">
-        <v>119655.9811086292</v>
+        <v>109399.1156407055</v>
       </c>
       <c r="H20" t="n">
         <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>108485745</v>
+        <v>129360196</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26691695</v>
+        <v>25202532</v>
       </c>
       <c r="E21" t="n">
-        <v>97637928</v>
+        <v>92190583</v>
       </c>
       <c r="F21" t="n">
-        <v>47264.98614204791</v>
+        <v>53139.99177852995</v>
       </c>
       <c r="G21" t="n">
-        <v>43546.17382345183</v>
+        <v>47005.52359989517</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>16253770</v>
+        <v>18478390</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30097574</v>
+        <v>27804969</v>
       </c>
       <c r="E22" t="n">
-        <v>195174755</v>
+        <v>180307824</v>
       </c>
       <c r="F22" t="n">
-        <v>5995.931996077618</v>
+        <v>25730.72092473711</v>
       </c>
       <c r="G22" t="n">
-        <v>8679.501388674593</v>
+        <v>65848.73953332112</v>
       </c>
       <c r="H22" t="n">
         <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>14826035</v>
+        <v>19644178</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122973321</v>
+        <v>123389225</v>
       </c>
       <c r="E23" t="n">
-        <v>2036538911</v>
+        <v>2043426622</v>
       </c>
       <c r="F23" t="n">
-        <v>352845.6060768895</v>
+        <v>348408.7680273553</v>
       </c>
       <c r="G23" t="n">
-        <v>327778.3726450928</v>
+        <v>328503.276410006</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="n">
-        <v>8750859</v>
+        <v>9281776</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4551108</v>
+        <v>4213177</v>
       </c>
       <c r="E24" t="n">
-        <v>21409987</v>
+        <v>19820244</v>
       </c>
       <c r="F24" t="n">
-        <v>909.4493813224525</v>
+        <v>1389.758922947948</v>
       </c>
       <c r="G24" t="n">
-        <v>3860.151382795788</v>
+        <v>1220.14092175885</v>
       </c>
       <c r="H24" t="n">
         <v>0.05</v>
       </c>
       <c r="I24" t="n">
-        <v>1065968</v>
+        <v>730699</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11301316</v>
+        <v>11002635</v>
       </c>
       <c r="E25" t="n">
-        <v>11301505</v>
+        <v>11002635</v>
       </c>
       <c r="F25" t="n">
-        <v>1422.951414419371</v>
+        <v>7350.792938013074</v>
       </c>
       <c r="G25" t="n">
-        <v>16010.42036917517</v>
+        <v>5038.1168777322</v>
       </c>
       <c r="H25" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="I25" t="n">
-        <v>3221628</v>
+        <v>3142644</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>222430448</v>
+        <v>210970270</v>
       </c>
       <c r="E27" t="n">
-        <v>401762775</v>
+        <v>381062943</v>
       </c>
       <c r="F27" t="n">
-        <v>83467.36435650509</v>
+        <v>46947.76959840709</v>
       </c>
       <c r="G27" t="n">
-        <v>85246.26201460659</v>
+        <v>49126.45427408173</v>
       </c>
       <c r="H27" t="n">
         <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>17014313</v>
+        <v>20799067</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27378850</v>
+        <v>26911300</v>
       </c>
       <c r="E28" t="n">
-        <v>27378850</v>
+        <v>26911300</v>
       </c>
       <c r="F28" t="n">
-        <v>29155.42664699572</v>
+        <v>26551.4502883493</v>
       </c>
       <c r="G28" t="n">
-        <v>32597.76902685974</v>
+        <v>34890.84958869161</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>4127509</v>
+        <v>4856957</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>427997517</v>
+        <v>397311363</v>
       </c>
       <c r="E29" t="n">
-        <v>1560038643</v>
+        <v>1448188494</v>
       </c>
       <c r="F29" t="n">
-        <v>141336.5008405345</v>
+        <v>145522.0764978082</v>
       </c>
       <c r="G29" t="n">
-        <v>182661.4893665312</v>
+        <v>88623.26469782516</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>46032492</v>
+        <v>63904256</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79635916</v>
+        <v>76059552</v>
       </c>
       <c r="E30" t="n">
-        <v>305496191</v>
+        <v>291776685</v>
       </c>
       <c r="F30" t="n">
-        <v>12121.75628136121</v>
+        <v>140662.4697485594</v>
       </c>
       <c r="G30" t="n">
-        <v>53988.92462808301</v>
+        <v>177432.0304993748</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>101191846</v>
+        <v>90072845</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23781306</v>
+        <v>20906005</v>
       </c>
       <c r="F31" t="n">
-        <v>17179.09743182762</v>
+        <v>14491.44353717792</v>
       </c>
       <c r="G31" t="n">
-        <v>121202.0478869033</v>
+        <v>14215.52730012082</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>4675600</v>
+        <v>6763008</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>128473040</v>
+        <v>128459125</v>
       </c>
       <c r="E32" t="n">
-        <v>467701327</v>
+        <v>466768519</v>
       </c>
       <c r="F32" t="n">
-        <v>56189.66714288091</v>
+        <v>23091.66151540639</v>
       </c>
       <c r="G32" t="n">
-        <v>55881.07026421227</v>
+        <v>42130.17553585635</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>528371</v>
+        <v>1074482</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>262249555</v>
+        <v>239730095</v>
       </c>
       <c r="E33" t="n">
-        <v>905066852</v>
+        <v>826932709</v>
       </c>
       <c r="F33" t="n">
-        <v>173036.1642533448</v>
+        <v>77817.50556817248</v>
       </c>
       <c r="G33" t="n">
-        <v>213618.6982702805</v>
+        <v>142877.2232420272</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>75194594</v>
+        <v>77458632</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79377594</v>
+        <v>72650223</v>
       </c>
       <c r="E34" t="n">
-        <v>116530424</v>
+        <v>106654294</v>
       </c>
       <c r="F34" t="n">
-        <v>50503.51441713487</v>
+        <v>20075.36248081877</v>
       </c>
       <c r="G34" t="n">
-        <v>57849.81844064371</v>
+        <v>17639.14938765791</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I34" t="n">
-        <v>7174647</v>
+        <v>8667305</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2388369</v>
+        <v>2198121</v>
       </c>
       <c r="E35" t="n">
-        <v>9553476</v>
+        <v>8792485</v>
       </c>
       <c r="F35" t="n">
-        <v>32427.04432406594</v>
+        <v>42646.95816216967</v>
       </c>
       <c r="G35" t="n">
-        <v>3023.51135680429</v>
+        <v>75500.66657023119</v>
       </c>
       <c r="H35" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="I35" t="n">
-        <v>4263187</v>
+        <v>5232064</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>155119889</v>
+        <v>144843302</v>
       </c>
       <c r="E36" t="n">
-        <v>445231494</v>
+        <v>415735210</v>
       </c>
       <c r="F36" t="n">
-        <v>196706.5821821973</v>
+        <v>209528.2591048476</v>
       </c>
       <c r="G36" t="n">
-        <v>213798.3758012352</v>
+        <v>216256.8955320229</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>13399281</v>
+        <v>14967673</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84791793</v>
+        <v>80267162</v>
       </c>
       <c r="E37" t="n">
-        <v>221516195</v>
+        <v>209695723</v>
       </c>
       <c r="F37" t="n">
-        <v>46522.97641672922</v>
+        <v>40508.01822926271</v>
       </c>
       <c r="G37" t="n">
-        <v>43113.06615614137</v>
+        <v>36958.07795245186</v>
       </c>
       <c r="H37" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>8397316</v>
+        <v>11670617</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>256139598</v>
+        <v>236262778</v>
       </c>
       <c r="E38" t="n">
-        <v>1463654848</v>
+        <v>1350073018</v>
       </c>
       <c r="F38" t="n">
-        <v>46046.88715945249</v>
+        <v>371211.9968533071</v>
       </c>
       <c r="G38" t="n">
-        <v>71270.94189372408</v>
+        <v>377479.1248308622</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>50413114</v>
+        <v>50276490</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>233128237</v>
+        <v>225666502</v>
       </c>
       <c r="E2" t="n">
-        <v>1461914408</v>
+        <v>1415122911</v>
       </c>
       <c r="F2" t="n">
-        <v>73901.19185949689</v>
+        <v>172327.6151003903</v>
       </c>
       <c r="G2" t="n">
-        <v>123694.0214162867</v>
+        <v>219826.075860906</v>
       </c>
       <c r="H2" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>115934374</v>
+        <v>69007577</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>96247362</v>
+        <v>98493406</v>
       </c>
       <c r="E3" t="n">
-        <v>106566630</v>
+        <v>109053487</v>
       </c>
       <c r="F3" t="n">
-        <v>22732.10753212715</v>
+        <v>31766.94352456492</v>
       </c>
       <c r="G3" t="n">
-        <v>150334.3862119587</v>
+        <v>161453.5848454508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>40399098</v>
+        <v>42151302</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>368463774</v>
+        <v>379147338</v>
       </c>
       <c r="E4" t="n">
-        <v>460893417</v>
+        <v>474256968</v>
       </c>
       <c r="F4" t="n">
-        <v>92336.47980425188</v>
+        <v>82555.02952061548</v>
       </c>
       <c r="G4" t="n">
-        <v>117435.2623940744</v>
+        <v>134248.8733568809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>86073000</v>
+        <v>87796326</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87474278</v>
+        <v>88086174</v>
       </c>
       <c r="E5" t="n">
-        <v>87474278</v>
+        <v>88086174</v>
       </c>
       <c r="F5" t="n">
-        <v>63553.56236214165</v>
+        <v>60080.41974118759</v>
       </c>
       <c r="G5" t="n">
-        <v>91852.94513747618</v>
+        <v>74515.81258739643</v>
       </c>
       <c r="H5" t="n">
         <v>0.16</v>
       </c>
       <c r="I5" t="n">
-        <v>85867199</v>
+        <v>84907557</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>155878700</v>
+        <v>158619314</v>
       </c>
       <c r="E6" t="n">
-        <v>155878700</v>
+        <v>158619314</v>
       </c>
       <c r="F6" t="n">
-        <v>60427.32261611203</v>
+        <v>69486.12542592148</v>
       </c>
       <c r="G6" t="n">
-        <v>87887.20266844095</v>
+        <v>98236.7911109233</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>23159245</v>
+        <v>24098832</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71214727</v>
+        <v>71669194</v>
       </c>
       <c r="E7" t="n">
-        <v>88796416</v>
+        <v>89363084</v>
       </c>
       <c r="F7" t="n">
-        <v>17611.8686613258</v>
+        <v>20218.03425053562</v>
       </c>
       <c r="G7" t="n">
-        <v>40978.45346390596</v>
+        <v>40350.46410613126</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>16179620</v>
+        <v>15370729</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50386920</v>
+        <v>51661829</v>
       </c>
       <c r="E8" t="n">
-        <v>105052681</v>
+        <v>107710765</v>
       </c>
       <c r="F8" t="n">
-        <v>38502.34671463729</v>
+        <v>40366.8482218858</v>
       </c>
       <c r="G8" t="n">
-        <v>42917.80664891226</v>
+        <v>44214.04275257907</v>
       </c>
       <c r="H8" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>20095197</v>
+        <v>20619405</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>150300564</v>
+        <v>149592643</v>
       </c>
       <c r="E9" t="n">
-        <v>150381970</v>
+        <v>149674960</v>
       </c>
       <c r="F9" t="n">
-        <v>14164.83823571524</v>
+        <v>16119.52321261113</v>
       </c>
       <c r="G9" t="n">
-        <v>24031.69831008462</v>
+        <v>22354.87388737527</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>10513277</v>
+        <v>10177969</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>433366073</v>
+        <v>447221816</v>
       </c>
       <c r="E10" t="n">
-        <v>433366073</v>
+        <v>447221816</v>
       </c>
       <c r="F10" t="n">
-        <v>230387.3771083956</v>
+        <v>225376.7618965233</v>
       </c>
       <c r="G10" t="n">
-        <v>481676.6678016309</v>
+        <v>453720.5847623934</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>447909292</v>
+        <v>456112999</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64817440</v>
+        <v>66203801</v>
       </c>
       <c r="E11" t="n">
-        <v>74369757</v>
+        <v>75960429</v>
       </c>
       <c r="F11" t="n">
-        <v>2867.068683506996</v>
+        <v>2320.148158997997</v>
       </c>
       <c r="G11" t="n">
-        <v>4116.146773916812</v>
+        <v>12608.10811894206</v>
       </c>
       <c r="H11" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="I11" t="n">
-        <v>1817785</v>
+        <v>1865656</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>147500189</v>
+        <v>150871673</v>
       </c>
       <c r="E12" t="n">
-        <v>636692697</v>
+        <v>651245895</v>
       </c>
       <c r="F12" t="n">
-        <v>365775.3385005008</v>
+        <v>327652.8413520603</v>
       </c>
       <c r="G12" t="n">
-        <v>261080.8447928499</v>
+        <v>374506.0155892637</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>97309604</v>
+        <v>101733701</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87346289</v>
+        <v>87914012</v>
       </c>
       <c r="E13" t="n">
-        <v>87346289</v>
+        <v>87914012</v>
       </c>
       <c r="F13" t="n">
-        <v>2428.669803969212</v>
+        <v>2481.345145598559</v>
       </c>
       <c r="G13" t="n">
-        <v>3202.264615169002</v>
+        <v>3474.255536099781</v>
       </c>
       <c r="H13" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>8609844</v>
+        <v>8794040</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8235386</v>
+        <v>8064357</v>
       </c>
       <c r="E14" t="n">
-        <v>20588464</v>
+        <v>20160892</v>
       </c>
       <c r="F14" t="n">
-        <v>10473.70318209087</v>
+        <v>7614.626318827433</v>
       </c>
       <c r="G14" t="n">
-        <v>16362.52807066055</v>
+        <v>13762.23472990521</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I14" t="n">
-        <v>5104182</v>
+        <v>3099292</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9675429</v>
+        <v>9967396</v>
       </c>
       <c r="E15" t="n">
-        <v>14227537</v>
+        <v>14656868</v>
       </c>
       <c r="F15" t="n">
-        <v>3126.469984906525</v>
+        <v>5468.623024168433</v>
       </c>
       <c r="G15" t="n">
-        <v>8371.638023660271</v>
+        <v>3086.353833878774</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>833581</v>
+        <v>854185</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24607068</v>
+        <v>25283889</v>
       </c>
       <c r="E16" t="n">
-        <v>76618514</v>
+        <v>78725919</v>
       </c>
       <c r="F16" t="n">
-        <v>6070.390695229364</v>
+        <v>8595.516441778118</v>
       </c>
       <c r="G16" t="n">
-        <v>13883.70495511525</v>
+        <v>15262.60485581735</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>11253697</v>
+        <v>11253626</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>178303513</v>
+        <v>182123658</v>
       </c>
       <c r="E17" t="n">
-        <v>1604128963</v>
+        <v>1638497356</v>
       </c>
       <c r="F17" t="n">
-        <v>788764.5508989304</v>
+        <v>783955.9741161966</v>
       </c>
       <c r="G17" t="n">
-        <v>872929.4361253205</v>
+        <v>870938.8755217153</v>
       </c>
       <c r="H17" t="n">
         <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>62334456</v>
+        <v>65661589</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13485407</v>
+        <v>13544322</v>
       </c>
       <c r="E18" t="n">
-        <v>82656494</v>
+        <v>83017600</v>
       </c>
       <c r="F18" t="n">
-        <v>29016.88867215942</v>
+        <v>20814.45588605581</v>
       </c>
       <c r="G18" t="n">
-        <v>37287.77525219687</v>
+        <v>44752.27341059112</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>12651905</v>
+        <v>12224088</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40813544</v>
+        <v>39619020</v>
       </c>
       <c r="E19" t="n">
-        <v>175820285</v>
+        <v>170674406</v>
       </c>
       <c r="F19" t="n">
-        <v>43310.56401712895</v>
+        <v>43540.40792702576</v>
       </c>
       <c r="G19" t="n">
-        <v>65451.42350964704</v>
+        <v>66939.33116241774</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>20712843</v>
+        <v>20410316</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>199528296</v>
+        <v>202720067</v>
       </c>
       <c r="E20" t="n">
-        <v>199528296</v>
+        <v>202720067</v>
       </c>
       <c r="F20" t="n">
-        <v>52558.65904824122</v>
+        <v>55640.63647512338</v>
       </c>
       <c r="G20" t="n">
-        <v>109399.1156407055</v>
+        <v>88063.76605793209</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>129360196</v>
+        <v>134416733</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25202532</v>
+        <v>25944738</v>
       </c>
       <c r="E21" t="n">
-        <v>92190583</v>
+        <v>94905568</v>
       </c>
       <c r="F21" t="n">
-        <v>53139.99177852995</v>
+        <v>59733.15720723834</v>
       </c>
       <c r="G21" t="n">
-        <v>47005.52359989517</v>
+        <v>42311.0914242299</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>18478390</v>
+        <v>19074922</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27804969</v>
+        <v>28326050</v>
       </c>
       <c r="E22" t="n">
-        <v>180307824</v>
+        <v>183686899</v>
       </c>
       <c r="F22" t="n">
-        <v>25730.72092473711</v>
+        <v>29535.95483714021</v>
       </c>
       <c r="G22" t="n">
-        <v>65848.73953332112</v>
+        <v>68262.18427522796</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>19644178</v>
+        <v>21145788</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123389225</v>
+        <v>123717799</v>
       </c>
       <c r="E23" t="n">
-        <v>2043426622</v>
+        <v>2048868074</v>
       </c>
       <c r="F23" t="n">
-        <v>348408.7680273553</v>
+        <v>347620.9717865292</v>
       </c>
       <c r="G23" t="n">
-        <v>328503.276410006</v>
+        <v>320085.3091225527</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>9281776</v>
+        <v>9818222</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4213177</v>
+        <v>4298780</v>
       </c>
       <c r="E24" t="n">
-        <v>19820244</v>
+        <v>20222950</v>
       </c>
       <c r="F24" t="n">
-        <v>1389.758922947948</v>
+        <v>1044.799568267519</v>
       </c>
       <c r="G24" t="n">
-        <v>1220.14092175885</v>
+        <v>1303.174745309474</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>730699</v>
+        <v>747314</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11002635</v>
+        <v>11467128</v>
       </c>
       <c r="E25" t="n">
-        <v>11002635</v>
+        <v>11467128</v>
       </c>
       <c r="F25" t="n">
-        <v>7350.792938013074</v>
+        <v>9487.478064816551</v>
       </c>
       <c r="G25" t="n">
-        <v>5038.1168777322</v>
+        <v>8101.029535592192</v>
       </c>
       <c r="H25" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>3142644</v>
+        <v>3366889</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>210970270</v>
+        <v>211544586</v>
       </c>
       <c r="E27" t="n">
-        <v>381062943</v>
+        <v>382100295</v>
       </c>
       <c r="F27" t="n">
-        <v>46947.76959840709</v>
+        <v>98844.05075833212</v>
       </c>
       <c r="G27" t="n">
-        <v>49126.45427408173</v>
+        <v>101779.976216838</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>20799067</v>
+        <v>21635367</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26911300</v>
+        <v>28222029</v>
       </c>
       <c r="E28" t="n">
-        <v>26911300</v>
+        <v>28222029</v>
       </c>
       <c r="F28" t="n">
-        <v>26551.4502883493</v>
+        <v>27397.21908767719</v>
       </c>
       <c r="G28" t="n">
-        <v>34890.84958869161</v>
+        <v>38433.31626636069</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I28" t="n">
-        <v>4856957</v>
+        <v>5376701</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>397311363</v>
+        <v>412870929</v>
       </c>
       <c r="E29" t="n">
-        <v>1448188494</v>
+        <v>1504902662</v>
       </c>
       <c r="F29" t="n">
-        <v>145522.0764978082</v>
+        <v>50238.77464637096</v>
       </c>
       <c r="G29" t="n">
-        <v>88623.26469782516</v>
+        <v>179152.3891084717</v>
       </c>
       <c r="H29" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>63904256</v>
+        <v>65482468</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76059552</v>
+        <v>74241948</v>
       </c>
       <c r="E30" t="n">
-        <v>291776685</v>
+        <v>284804062</v>
       </c>
       <c r="F30" t="n">
-        <v>140662.4697485594</v>
+        <v>132088.1068406094</v>
       </c>
       <c r="G30" t="n">
-        <v>177432.0304993748</v>
+        <v>178679.999919913</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I30" t="n">
-        <v>90072845</v>
+        <v>71785042</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20906005</v>
+        <v>20886107</v>
       </c>
       <c r="F31" t="n">
-        <v>14491.44353717792</v>
+        <v>21365.90512080918</v>
       </c>
       <c r="G31" t="n">
-        <v>14215.52730012082</v>
+        <v>21164.04814731246</v>
       </c>
       <c r="H31" t="n">
         <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>6763008</v>
+        <v>7282002</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>128459125</v>
+        <v>128609367</v>
       </c>
       <c r="E32" t="n">
-        <v>466768519</v>
+        <v>467302780</v>
       </c>
       <c r="F32" t="n">
-        <v>23091.66151540639</v>
+        <v>25878.35952067506</v>
       </c>
       <c r="G32" t="n">
-        <v>42130.17553585635</v>
+        <v>13669.63630866053</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>1074482</v>
+        <v>1149067</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>239730095</v>
+        <v>248492680</v>
       </c>
       <c r="E33" t="n">
-        <v>826932709</v>
+        <v>857158655</v>
       </c>
       <c r="F33" t="n">
-        <v>77817.50556817248</v>
+        <v>153988.7941330553</v>
       </c>
       <c r="G33" t="n">
-        <v>142877.2232420272</v>
+        <v>191552.99099131</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>77458632</v>
+        <v>61264553</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>72650223</v>
+        <v>72865788</v>
       </c>
       <c r="E34" t="n">
-        <v>106654294</v>
+        <v>106970755</v>
       </c>
       <c r="F34" t="n">
-        <v>20075.36248081877</v>
+        <v>57498.23922254676</v>
       </c>
       <c r="G34" t="n">
-        <v>17639.14938765791</v>
+        <v>49721.2072990438</v>
       </c>
       <c r="H34" t="n">
         <v>0.27</v>
       </c>
       <c r="I34" t="n">
-        <v>8667305</v>
+        <v>8540367</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2198121</v>
+        <v>2299521</v>
       </c>
       <c r="E35" t="n">
-        <v>8792485</v>
+        <v>9198083</v>
       </c>
       <c r="F35" t="n">
-        <v>42646.95816216967</v>
+        <v>39950.37872441713</v>
       </c>
       <c r="G35" t="n">
-        <v>75500.66657023119</v>
+        <v>56250.1419756691</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I35" t="n">
-        <v>5232064</v>
+        <v>5076759</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>144843302</v>
+        <v>146698160</v>
       </c>
       <c r="E36" t="n">
-        <v>415735210</v>
+        <v>421059101</v>
       </c>
       <c r="F36" t="n">
-        <v>209528.2591048476</v>
+        <v>199632.6171760781</v>
       </c>
       <c r="G36" t="n">
-        <v>216256.8955320229</v>
+        <v>222537.8183231541</v>
       </c>
       <c r="H36" t="n">
         <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>14967673</v>
+        <v>15443637</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>80267162</v>
+        <v>82239472</v>
       </c>
       <c r="E37" t="n">
-        <v>209695723</v>
+        <v>214848329</v>
       </c>
       <c r="F37" t="n">
-        <v>40508.01822926271</v>
+        <v>43716.61657467445</v>
       </c>
       <c r="G37" t="n">
-        <v>36958.07795245186</v>
+        <v>37091.55595108855</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>11670617</v>
+        <v>12176468</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>236262778</v>
+        <v>243523415</v>
       </c>
       <c r="E38" t="n">
-        <v>1350073018</v>
+        <v>1391562369</v>
       </c>
       <c r="F38" t="n">
-        <v>371211.9968533071</v>
+        <v>90212.97417320998</v>
       </c>
       <c r="G38" t="n">
-        <v>377479.1248308622</v>
+        <v>104109.3759649549</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>50276490</v>
+        <v>53679543</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>225666502</v>
+        <v>227464126</v>
       </c>
       <c r="E2" t="n">
-        <v>1415122911</v>
+        <v>1426395559</v>
       </c>
       <c r="F2" t="n">
-        <v>172327.6151003903</v>
+        <v>146414.2168128267</v>
       </c>
       <c r="G2" t="n">
-        <v>219826.075860906</v>
+        <v>230009.2741720453</v>
       </c>
       <c r="H2" t="n">
         <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>69007577</v>
+        <v>54524346</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>98493406</v>
+        <v>102532944</v>
       </c>
       <c r="E3" t="n">
-        <v>109053487</v>
+        <v>113526128</v>
       </c>
       <c r="F3" t="n">
-        <v>31766.94352456492</v>
+        <v>58030.4596838502</v>
       </c>
       <c r="G3" t="n">
-        <v>161453.5848454508</v>
+        <v>167937.8741704995</v>
       </c>
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>42151302</v>
+        <v>40924159</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>379147338</v>
+        <v>394899526</v>
       </c>
       <c r="E4" t="n">
-        <v>474256968</v>
+        <v>493960615</v>
       </c>
       <c r="F4" t="n">
-        <v>82555.02952061548</v>
+        <v>103829.0176383241</v>
       </c>
       <c r="G4" t="n">
-        <v>134248.8733568809</v>
+        <v>120536.6197714053</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>87796326</v>
+        <v>86250006</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>88086174</v>
+        <v>92964479</v>
       </c>
       <c r="E5" t="n">
-        <v>88086174</v>
+        <v>92964479</v>
       </c>
       <c r="F5" t="n">
-        <v>60080.41974118759</v>
+        <v>66852.39950584988</v>
       </c>
       <c r="G5" t="n">
-        <v>74515.81258739643</v>
+        <v>109575.527899264</v>
       </c>
       <c r="H5" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>84907557</v>
+        <v>90426636</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>158619314</v>
+        <v>161985930</v>
       </c>
       <c r="E6" t="n">
-        <v>158619314</v>
+        <v>161985930</v>
       </c>
       <c r="F6" t="n">
-        <v>69486.12542592148</v>
+        <v>62654.46123674248</v>
       </c>
       <c r="G6" t="n">
-        <v>98236.7911109233</v>
+        <v>104186.8184040463</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>24098832</v>
+        <v>23566349</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71669194</v>
+        <v>72762258</v>
       </c>
       <c r="E7" t="n">
-        <v>89363084</v>
+        <v>90726006</v>
       </c>
       <c r="F7" t="n">
-        <v>20218.03425053562</v>
+        <v>19421.73966318725</v>
       </c>
       <c r="G7" t="n">
-        <v>40350.46410613126</v>
+        <v>36870.44621056481</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>15370729</v>
+        <v>15882678</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51661829</v>
+        <v>54880684</v>
       </c>
       <c r="E8" t="n">
-        <v>107710765</v>
+        <v>114421818</v>
       </c>
       <c r="F8" t="n">
-        <v>40366.8482218858</v>
+        <v>34682.44670916526</v>
       </c>
       <c r="G8" t="n">
-        <v>44214.04275257907</v>
+        <v>46287.64703288295</v>
       </c>
       <c r="H8" t="n">
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>20619405</v>
+        <v>20903806</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>149592643</v>
+        <v>156999861</v>
       </c>
       <c r="E9" t="n">
-        <v>149674960</v>
+        <v>157000759</v>
       </c>
       <c r="F9" t="n">
-        <v>16119.52321261113</v>
+        <v>14857.0455309928</v>
       </c>
       <c r="G9" t="n">
-        <v>22354.87388737527</v>
+        <v>25441.62307738178</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>10177969</v>
+        <v>8045065</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>447221816</v>
+        <v>460326634</v>
       </c>
       <c r="E10" t="n">
-        <v>447221816</v>
+        <v>460326634</v>
       </c>
       <c r="F10" t="n">
-        <v>225376.7618965233</v>
+        <v>334388.8364702978</v>
       </c>
       <c r="G10" t="n">
-        <v>453720.5847623934</v>
+        <v>464797.2885289294</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>456112999</v>
+        <v>465973519</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66203801</v>
+        <v>68455723</v>
       </c>
       <c r="E11" t="n">
-        <v>75960429</v>
+        <v>78544222</v>
       </c>
       <c r="F11" t="n">
-        <v>2320.148158997997</v>
+        <v>7374.644506185443</v>
       </c>
       <c r="G11" t="n">
-        <v>12608.10811894206</v>
+        <v>6477.078447376276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="I11" t="n">
-        <v>1865656</v>
+        <v>1978533</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>150871673</v>
+        <v>155107350</v>
       </c>
       <c r="E12" t="n">
-        <v>651245895</v>
+        <v>669529430</v>
       </c>
       <c r="F12" t="n">
-        <v>327652.8413520603</v>
+        <v>371569.8072963806</v>
       </c>
       <c r="G12" t="n">
-        <v>374506.0155892637</v>
+        <v>371475.7995664643</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>101733701</v>
+        <v>108018316</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87914012</v>
+        <v>89283996</v>
       </c>
       <c r="E13" t="n">
-        <v>87914012</v>
+        <v>89283996</v>
       </c>
       <c r="F13" t="n">
-        <v>2481.345145598559</v>
+        <v>2200.818250881976</v>
       </c>
       <c r="G13" t="n">
-        <v>3474.255536099781</v>
+        <v>6754.267399899842</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="n">
-        <v>8794040</v>
+        <v>8326001</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8064357</v>
+        <v>8574011</v>
       </c>
       <c r="E14" t="n">
-        <v>20160892</v>
+        <v>21435027</v>
       </c>
       <c r="F14" t="n">
-        <v>7614.626318827433</v>
+        <v>5932.30255540808</v>
       </c>
       <c r="G14" t="n">
-        <v>13762.23472990521</v>
+        <v>14728.80447851507</v>
       </c>
       <c r="H14" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I14" t="n">
-        <v>3099292</v>
+        <v>2976581</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9967396</v>
+        <v>10014807</v>
       </c>
       <c r="E15" t="n">
-        <v>14656868</v>
+        <v>14726585</v>
       </c>
       <c r="F15" t="n">
-        <v>5468.623024168433</v>
+        <v>2413.632685144508</v>
       </c>
       <c r="G15" t="n">
-        <v>3086.353833878774</v>
+        <v>2838.776904100934</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>854185</v>
+        <v>638796</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25283889</v>
+        <v>25210868</v>
       </c>
       <c r="E16" t="n">
-        <v>78725919</v>
+        <v>78498555</v>
       </c>
       <c r="F16" t="n">
-        <v>8595.516441778118</v>
+        <v>8877.889813055363</v>
       </c>
       <c r="G16" t="n">
-        <v>15262.60485581735</v>
+        <v>15826.18577712425</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>11253626</v>
+        <v>11058252</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>182123658</v>
+        <v>187632462</v>
       </c>
       <c r="E17" t="n">
-        <v>1638497356</v>
+        <v>1688057974</v>
       </c>
       <c r="F17" t="n">
-        <v>783955.9741161966</v>
+        <v>829078.6245723813</v>
       </c>
       <c r="G17" t="n">
-        <v>870938.8755217153</v>
+        <v>907752.5164033304</v>
       </c>
       <c r="H17" t="n">
         <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>65661589</v>
+        <v>70747576</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13544322</v>
+        <v>13641910</v>
       </c>
       <c r="E18" t="n">
-        <v>83017600</v>
+        <v>83615755</v>
       </c>
       <c r="F18" t="n">
-        <v>20814.45588605581</v>
+        <v>26195.0310304222</v>
       </c>
       <c r="G18" t="n">
-        <v>44752.27341059112</v>
+        <v>35502.66598600891</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>12224088</v>
+        <v>12897929</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39619020</v>
+        <v>40962715</v>
       </c>
       <c r="E19" t="n">
-        <v>170674406</v>
+        <v>176462897</v>
       </c>
       <c r="F19" t="n">
-        <v>43540.40792702576</v>
+        <v>34357.64750917252</v>
       </c>
       <c r="G19" t="n">
-        <v>66939.33116241774</v>
+        <v>65199.78064331265</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>20410316</v>
+        <v>19341020</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>202720067</v>
+        <v>212750025</v>
       </c>
       <c r="E20" t="n">
-        <v>202720067</v>
+        <v>212750025</v>
       </c>
       <c r="F20" t="n">
-        <v>55640.63647512338</v>
+        <v>52848.8981415031</v>
       </c>
       <c r="G20" t="n">
-        <v>88063.76605793209</v>
+        <v>100659.332496116</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>134416733</v>
+        <v>137321010</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25944738</v>
+        <v>26098987</v>
       </c>
       <c r="E21" t="n">
-        <v>94905568</v>
+        <v>95469807</v>
       </c>
       <c r="F21" t="n">
-        <v>59733.15720723834</v>
+        <v>53793.15285795584</v>
       </c>
       <c r="G21" t="n">
-        <v>42311.0914242299</v>
+        <v>64237.42807520519</v>
       </c>
       <c r="H21" t="n">
         <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>19074922</v>
+        <v>17047292</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28326050</v>
+        <v>29114497</v>
       </c>
       <c r="E22" t="n">
-        <v>183686899</v>
+        <v>188799763</v>
       </c>
       <c r="F22" t="n">
-        <v>29535.95483714021</v>
+        <v>19977.03865727355</v>
       </c>
       <c r="G22" t="n">
-        <v>68262.18427522796</v>
+        <v>68116.71905731277</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21145788</v>
+        <v>21595645</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123717799</v>
+        <v>123241771</v>
       </c>
       <c r="E23" t="n">
-        <v>2048868074</v>
+        <v>2040984662</v>
       </c>
       <c r="F23" t="n">
-        <v>347620.9717865292</v>
+        <v>352437.4782650386</v>
       </c>
       <c r="G23" t="n">
-        <v>320085.3091225527</v>
+        <v>327143.167276893</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>9818222</v>
+        <v>9631386</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4298780</v>
+        <v>4518107</v>
       </c>
       <c r="E24" t="n">
-        <v>20222950</v>
+        <v>21254740</v>
       </c>
       <c r="F24" t="n">
-        <v>1044.799568267519</v>
+        <v>1094.151974118226</v>
       </c>
       <c r="G24" t="n">
-        <v>1303.174745309474</v>
+        <v>381.4129779578564</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I24" t="n">
-        <v>747314</v>
+        <v>764509</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11467128</v>
+        <v>12221185</v>
       </c>
       <c r="E25" t="n">
-        <v>11467128</v>
+        <v>12222198</v>
       </c>
       <c r="F25" t="n">
-        <v>9487.478064816551</v>
+        <v>4120.97237036296</v>
       </c>
       <c r="G25" t="n">
-        <v>8101.029535592192</v>
+        <v>7752.240574858065</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="I25" t="n">
-        <v>3366889</v>
+        <v>3520822</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>211544586</v>
+        <v>215547115</v>
       </c>
       <c r="E27" t="n">
-        <v>382100295</v>
+        <v>389329825</v>
       </c>
       <c r="F27" t="n">
-        <v>98844.05075833212</v>
+        <v>39315.99226441828</v>
       </c>
       <c r="G27" t="n">
-        <v>101779.976216838</v>
+        <v>73507.24859502063</v>
       </c>
       <c r="H27" t="n">
         <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>21635367</v>
+        <v>21060139</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28222029</v>
+        <v>28963279</v>
       </c>
       <c r="E28" t="n">
-        <v>28222029</v>
+        <v>28963279</v>
       </c>
       <c r="F28" t="n">
-        <v>27397.21908767719</v>
+        <v>26169.62518736309</v>
       </c>
       <c r="G28" t="n">
-        <v>38433.31626636069</v>
+        <v>38732.08762630549</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>5376701</v>
+        <v>5875617</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>412870929</v>
+        <v>423683334</v>
       </c>
       <c r="E29" t="n">
-        <v>1504902662</v>
+        <v>1544313567</v>
       </c>
       <c r="F29" t="n">
-        <v>50238.77464637096</v>
+        <v>63348.25457221059</v>
       </c>
       <c r="G29" t="n">
-        <v>179152.3891084717</v>
+        <v>96055.8255939386</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>65482468</v>
+        <v>66628118</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74241948</v>
+        <v>76562475</v>
       </c>
       <c r="E30" t="n">
-        <v>284804062</v>
+        <v>293705978</v>
       </c>
       <c r="F30" t="n">
-        <v>132088.1068406094</v>
+        <v>141335.9231222716</v>
       </c>
       <c r="G30" t="n">
-        <v>178679.999919913</v>
+        <v>179526.5463230204</v>
       </c>
       <c r="H30" t="n">
         <v>0.14</v>
       </c>
       <c r="I30" t="n">
-        <v>71785042</v>
+        <v>49232741</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20886107</v>
+        <v>21186269</v>
       </c>
       <c r="F31" t="n">
-        <v>21365.90512080918</v>
+        <v>12385.68476266452</v>
       </c>
       <c r="G31" t="n">
-        <v>21164.04814731246</v>
+        <v>12367.747686088</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>7282002</v>
+        <v>7096964</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>128609367</v>
+        <v>128150281</v>
       </c>
       <c r="E32" t="n">
-        <v>467302780</v>
+        <v>465624552</v>
       </c>
       <c r="F32" t="n">
-        <v>25878.35952067506</v>
+        <v>25705.11582219191</v>
       </c>
       <c r="G32" t="n">
-        <v>13669.63630866053</v>
+        <v>15360.07222763977</v>
       </c>
       <c r="H32" t="n">
         <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>1149067</v>
+        <v>1059751</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>248492680</v>
+        <v>257271702</v>
       </c>
       <c r="E33" t="n">
-        <v>857158655</v>
+        <v>887441295</v>
       </c>
       <c r="F33" t="n">
-        <v>153988.7941330553</v>
+        <v>87204.34192547413</v>
       </c>
       <c r="G33" t="n">
-        <v>191552.99099131</v>
+        <v>160303.2275860454</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>61264553</v>
+        <v>57554778</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>72865788</v>
+        <v>77403920</v>
       </c>
       <c r="E34" t="n">
-        <v>106970755</v>
+        <v>113632955</v>
       </c>
       <c r="F34" t="n">
-        <v>57498.23922254676</v>
+        <v>41905.83397925376</v>
       </c>
       <c r="G34" t="n">
-        <v>49721.2072990438</v>
+        <v>51736.83046991786</v>
       </c>
       <c r="H34" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I34" t="n">
-        <v>8540367</v>
+        <v>8645630</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2299521</v>
+        <v>2287861</v>
       </c>
       <c r="E35" t="n">
-        <v>9198083</v>
+        <v>9151446</v>
       </c>
       <c r="F35" t="n">
-        <v>39950.37872441713</v>
+        <v>12588.04364770364</v>
       </c>
       <c r="G35" t="n">
-        <v>56250.1419756691</v>
+        <v>55370.20329565275</v>
       </c>
       <c r="H35" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>5076759</v>
+        <v>5063424</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>146698160</v>
+        <v>150284086</v>
       </c>
       <c r="E36" t="n">
-        <v>421059101</v>
+        <v>431351573</v>
       </c>
       <c r="F36" t="n">
-        <v>199632.6171760781</v>
+        <v>203829.7694815402</v>
       </c>
       <c r="G36" t="n">
-        <v>222537.8183231541</v>
+        <v>225810.8347207442</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>15443637</v>
+        <v>19327247</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>82239472</v>
+        <v>83498479</v>
       </c>
       <c r="E37" t="n">
-        <v>214848329</v>
+        <v>218137449</v>
       </c>
       <c r="F37" t="n">
-        <v>43716.61657467445</v>
+        <v>51633.00201178588</v>
       </c>
       <c r="G37" t="n">
-        <v>37091.55595108855</v>
+        <v>44285.51090060999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>12176468</v>
+        <v>11782621</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>243523415</v>
+        <v>252242087</v>
       </c>
       <c r="E38" t="n">
-        <v>1391562369</v>
+        <v>1441383355</v>
       </c>
       <c r="F38" t="n">
-        <v>90212.97417320998</v>
+        <v>65414.99794588595</v>
       </c>
       <c r="G38" t="n">
-        <v>104109.3759649549</v>
+        <v>100042.4357231539</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I38" t="n">
-        <v>53679543</v>
+        <v>54426349</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>227464126</v>
+        <v>232099338</v>
       </c>
       <c r="E2" t="n">
-        <v>1426395559</v>
+        <v>1455462325</v>
       </c>
       <c r="F2" t="n">
-        <v>146414.2168128267</v>
+        <v>180196.2232276463</v>
       </c>
       <c r="G2" t="n">
-        <v>230009.2741720453</v>
+        <v>218989.1387675288</v>
       </c>
       <c r="H2" t="n">
         <v>0.09</v>
       </c>
       <c r="I2" t="n">
-        <v>54524346</v>
+        <v>30185249</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102532944</v>
+        <v>100929280</v>
       </c>
       <c r="E3" t="n">
-        <v>113526128</v>
+        <v>111750525</v>
       </c>
       <c r="F3" t="n">
-        <v>58030.4596838502</v>
+        <v>58786.07956157422</v>
       </c>
       <c r="G3" t="n">
-        <v>167937.8741704995</v>
+        <v>162984.2736870001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I3" t="n">
-        <v>40924159</v>
+        <v>26788787</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>394899526</v>
+        <v>394451760</v>
       </c>
       <c r="E4" t="n">
-        <v>493960615</v>
+        <v>493400525</v>
       </c>
       <c r="F4" t="n">
-        <v>103829.0176383241</v>
+        <v>89204.24624199065</v>
       </c>
       <c r="G4" t="n">
-        <v>120536.6197714053</v>
+        <v>133227.5822337943</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>86250006</v>
+        <v>61281218</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92964479</v>
+        <v>92005137</v>
       </c>
       <c r="E5" t="n">
-        <v>92964479</v>
+        <v>92005137</v>
       </c>
       <c r="F5" t="n">
-        <v>66852.39950584988</v>
+        <v>67368.91837081609</v>
       </c>
       <c r="G5" t="n">
-        <v>109575.527899264</v>
+        <v>94399.18026530431</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>90426636</v>
+        <v>65176176</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>161985930</v>
+        <v>161018357</v>
       </c>
       <c r="E6" t="n">
-        <v>161985930</v>
+        <v>161018357</v>
       </c>
       <c r="F6" t="n">
-        <v>62654.46123674248</v>
+        <v>71068.88454444738</v>
       </c>
       <c r="G6" t="n">
-        <v>104186.8184040463</v>
+        <v>91543.39105077315</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>23566349</v>
+        <v>16940621</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72762258</v>
+        <v>73134207</v>
       </c>
       <c r="E7" t="n">
-        <v>90726006</v>
+        <v>91189783</v>
       </c>
       <c r="F7" t="n">
-        <v>19421.73966318725</v>
+        <v>12701.54307788165</v>
       </c>
       <c r="G7" t="n">
-        <v>36870.44621056481</v>
+        <v>36019.1764154901</v>
       </c>
       <c r="H7" t="n">
         <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>15882678</v>
+        <v>11633913</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54880684</v>
+        <v>54564101</v>
       </c>
       <c r="E8" t="n">
-        <v>114421818</v>
+        <v>113761768</v>
       </c>
       <c r="F8" t="n">
-        <v>34682.44670916526</v>
+        <v>35561.94393051521</v>
       </c>
       <c r="G8" t="n">
-        <v>46287.64703288295</v>
+        <v>42865.09918855874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I8" t="n">
-        <v>20903806</v>
+        <v>17946002</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>156999861</v>
+        <v>147362364</v>
       </c>
       <c r="E9" t="n">
-        <v>157000759</v>
+        <v>147369604</v>
       </c>
       <c r="F9" t="n">
-        <v>14857.0455309928</v>
+        <v>10254.62375664745</v>
       </c>
       <c r="G9" t="n">
-        <v>25441.62307738178</v>
+        <v>26740.32164427538</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>8045065</v>
+        <v>6287872</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>460326634</v>
+        <v>442510921</v>
       </c>
       <c r="E10" t="n">
-        <v>460326634</v>
+        <v>442510921</v>
       </c>
       <c r="F10" t="n">
-        <v>334388.8364702978</v>
+        <v>223578.209295985</v>
       </c>
       <c r="G10" t="n">
-        <v>464797.2885289294</v>
+        <v>432064.9807554712</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>465973519</v>
+        <v>360717939</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68455723</v>
+        <v>69064554</v>
       </c>
       <c r="E11" t="n">
-        <v>78544222</v>
+        <v>79242778</v>
       </c>
       <c r="F11" t="n">
-        <v>7374.644506185443</v>
+        <v>3413.270737068315</v>
       </c>
       <c r="G11" t="n">
-        <v>6477.078447376276</v>
+        <v>2243.147483816144</v>
       </c>
       <c r="H11" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1978533</v>
+        <v>2334855</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>155107350</v>
+        <v>154664207</v>
       </c>
       <c r="E12" t="n">
-        <v>669529430</v>
+        <v>667616577</v>
       </c>
       <c r="F12" t="n">
-        <v>371569.8072963806</v>
+        <v>365466.5702350285</v>
       </c>
       <c r="G12" t="n">
-        <v>371475.7995664643</v>
+        <v>367405.5386259351</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>108018316</v>
+        <v>84526989</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89283996</v>
+        <v>89474689</v>
       </c>
       <c r="E13" t="n">
-        <v>89283996</v>
+        <v>89474689</v>
       </c>
       <c r="F13" t="n">
-        <v>2200.818250881976</v>
+        <v>1810.260356219636</v>
       </c>
       <c r="G13" t="n">
-        <v>6754.267399899842</v>
+        <v>6364.169569302006</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>8326001</v>
+        <v>6602798</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8574011</v>
+        <v>8130032</v>
       </c>
       <c r="E14" t="n">
-        <v>21435027</v>
+        <v>20325080</v>
       </c>
       <c r="F14" t="n">
-        <v>5932.30255540808</v>
+        <v>5922.116208412632</v>
       </c>
       <c r="G14" t="n">
-        <v>14728.80447851507</v>
+        <v>12839.29186939225</v>
       </c>
       <c r="H14" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2976581</v>
+        <v>2149946</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10014807</v>
+        <v>10044739</v>
       </c>
       <c r="E15" t="n">
-        <v>14726585</v>
+        <v>14770599</v>
       </c>
       <c r="F15" t="n">
-        <v>2413.632685144508</v>
+        <v>3712.782405515437</v>
       </c>
       <c r="G15" t="n">
-        <v>2838.776904100934</v>
+        <v>3770.834159373842</v>
       </c>
       <c r="H15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>638796</v>
+        <v>525684</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25210868</v>
+        <v>24821852</v>
       </c>
       <c r="E16" t="n">
-        <v>78498555</v>
+        <v>77287283</v>
       </c>
       <c r="F16" t="n">
-        <v>8877.889813055363</v>
+        <v>7733.941472191749</v>
       </c>
       <c r="G16" t="n">
-        <v>15826.18577712425</v>
+        <v>12612.19787221993</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>11058252</v>
+        <v>10357140</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>187632462</v>
+        <v>185449724</v>
       </c>
       <c r="E17" t="n">
-        <v>1688057974</v>
+        <v>1668420708</v>
       </c>
       <c r="F17" t="n">
-        <v>829078.6245723813</v>
+        <v>6578.36591365878</v>
       </c>
       <c r="G17" t="n">
-        <v>907752.5164033304</v>
+        <v>7318.256222955484</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>70747576</v>
+        <v>45729540</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13641910</v>
+        <v>13647170</v>
       </c>
       <c r="E18" t="n">
-        <v>83615755</v>
+        <v>83647990</v>
       </c>
       <c r="F18" t="n">
-        <v>26195.0310304222</v>
+        <v>14864.0178066436</v>
       </c>
       <c r="G18" t="n">
-        <v>35502.66598600891</v>
+        <v>47137.48680802806</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>12897929</v>
+        <v>11193938</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40962715</v>
+        <v>40711771</v>
       </c>
       <c r="E19" t="n">
-        <v>176462897</v>
+        <v>175381856</v>
       </c>
       <c r="F19" t="n">
-        <v>34357.64750917252</v>
+        <v>41223.69549380607</v>
       </c>
       <c r="G19" t="n">
-        <v>65199.78064331265</v>
+        <v>50899.48304427423</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>19341020</v>
+        <v>14028604</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>212750025</v>
+        <v>210661201</v>
       </c>
       <c r="E20" t="n">
-        <v>212750025</v>
+        <v>210661201</v>
       </c>
       <c r="F20" t="n">
-        <v>52848.8981415031</v>
+        <v>53803.0321342671</v>
       </c>
       <c r="G20" t="n">
-        <v>100659.332496116</v>
+        <v>104644.807280071</v>
       </c>
       <c r="H20" t="n">
         <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>137321010</v>
+        <v>101794003</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26098987</v>
+        <v>26100096</v>
       </c>
       <c r="E21" t="n">
-        <v>95469807</v>
+        <v>95473863</v>
       </c>
       <c r="F21" t="n">
-        <v>53793.15285795584</v>
+        <v>45578.91563580478</v>
       </c>
       <c r="G21" t="n">
-        <v>64237.42807520519</v>
+        <v>59429.74401770106</v>
       </c>
       <c r="H21" t="n">
         <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>17047292</v>
+        <v>11317398</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29114497</v>
+        <v>28981543</v>
       </c>
       <c r="E22" t="n">
-        <v>188799763</v>
+        <v>187937596</v>
       </c>
       <c r="F22" t="n">
-        <v>19977.03865727355</v>
+        <v>23277.27614143493</v>
       </c>
       <c r="G22" t="n">
-        <v>68116.71905731277</v>
+        <v>69305.32935676491</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>21595645</v>
+        <v>15980395</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123241771</v>
+        <v>122976189</v>
       </c>
       <c r="E23" t="n">
-        <v>2040984662</v>
+        <v>2036586409</v>
       </c>
       <c r="F23" t="n">
-        <v>352437.4782650386</v>
+        <v>366832.0134504064</v>
       </c>
       <c r="G23" t="n">
-        <v>327143.167276893</v>
+        <v>335199.7735638494</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>9631386</v>
+        <v>7299107</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4518107</v>
+        <v>4657844</v>
       </c>
       <c r="E24" t="n">
-        <v>21254740</v>
+        <v>21912111</v>
       </c>
       <c r="F24" t="n">
-        <v>1094.151974118226</v>
+        <v>573.458251467704</v>
       </c>
       <c r="G24" t="n">
-        <v>381.4129779578564</v>
+        <v>1017.636309363944</v>
       </c>
       <c r="H24" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>764509</v>
+        <v>798136</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12221185</v>
+        <v>12373452</v>
       </c>
       <c r="E25" t="n">
-        <v>12222198</v>
+        <v>12373452</v>
       </c>
       <c r="F25" t="n">
-        <v>4120.97237036296</v>
+        <v>15384.22608951444</v>
       </c>
       <c r="G25" t="n">
-        <v>7752.240574858065</v>
+        <v>7218.294116981981</v>
       </c>
       <c r="H25" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I25" t="n">
-        <v>3520822</v>
+        <v>3741156</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>215547115</v>
+        <v>216930998</v>
       </c>
       <c r="E27" t="n">
-        <v>389329825</v>
+        <v>391829449</v>
       </c>
       <c r="F27" t="n">
-        <v>39315.99226441828</v>
+        <v>110929.9245317724</v>
       </c>
       <c r="G27" t="n">
-        <v>73507.24859502063</v>
+        <v>98455.21969122191</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>21060139</v>
+        <v>15778809</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28963279</v>
+        <v>28704882</v>
       </c>
       <c r="E28" t="n">
-        <v>28963279</v>
+        <v>28704882</v>
       </c>
       <c r="F28" t="n">
-        <v>26169.62518736309</v>
+        <v>30456.93093855173</v>
       </c>
       <c r="G28" t="n">
-        <v>38732.08762630549</v>
+        <v>39314.76272438092</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>5875617</v>
+        <v>4729431</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>423683334</v>
+        <v>434636391</v>
       </c>
       <c r="E29" t="n">
-        <v>1544313567</v>
+        <v>1584237145</v>
       </c>
       <c r="F29" t="n">
-        <v>63348.25457221059</v>
+        <v>50356.92579020747</v>
       </c>
       <c r="G29" t="n">
-        <v>96055.8255939386</v>
+        <v>100244.2046059379</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>66628118</v>
+        <v>45201581</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76562475</v>
+        <v>72207713</v>
       </c>
       <c r="E30" t="n">
-        <v>293705978</v>
+        <v>277000409</v>
       </c>
       <c r="F30" t="n">
-        <v>141335.9231222716</v>
+        <v>154510.4124500107</v>
       </c>
       <c r="G30" t="n">
-        <v>179526.5463230204</v>
+        <v>176151.5672968026</v>
       </c>
       <c r="H30" t="n">
         <v>0.14</v>
       </c>
       <c r="I30" t="n">
-        <v>49232741</v>
+        <v>27093835</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21186269</v>
+        <v>20424831</v>
       </c>
       <c r="F31" t="n">
-        <v>12385.68476266452</v>
+        <v>16466.34351188791</v>
       </c>
       <c r="G31" t="n">
-        <v>12367.747686088</v>
+        <v>14741.97860057034</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I31" t="n">
-        <v>7096964</v>
+        <v>4511189</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>128150281</v>
+        <v>129853495</v>
       </c>
       <c r="E32" t="n">
-        <v>465624552</v>
+        <v>471783026</v>
       </c>
       <c r="F32" t="n">
-        <v>25705.11582219191</v>
+        <v>15924.15517779228</v>
       </c>
       <c r="G32" t="n">
-        <v>15360.07222763977</v>
+        <v>5149.484161634462</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>1059751</v>
+        <v>654973</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>257271702</v>
+        <v>248392396</v>
       </c>
       <c r="E33" t="n">
-        <v>887441295</v>
+        <v>856382401</v>
       </c>
       <c r="F33" t="n">
-        <v>87204.34192547413</v>
+        <v>120437.7475929957</v>
       </c>
       <c r="G33" t="n">
-        <v>160303.2275860454</v>
+        <v>204071.7307088682</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I33" t="n">
-        <v>57554778</v>
+        <v>43144205</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>77403920</v>
+        <v>75041422</v>
       </c>
       <c r="E34" t="n">
-        <v>113632955</v>
+        <v>110164686</v>
       </c>
       <c r="F34" t="n">
-        <v>41905.83397925376</v>
+        <v>44739.15411246119</v>
       </c>
       <c r="G34" t="n">
-        <v>51736.83046991786</v>
+        <v>52147.269035333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>8645630</v>
+        <v>6656848</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2287861</v>
+        <v>2376369</v>
       </c>
       <c r="E35" t="n">
-        <v>9151446</v>
+        <v>9505477</v>
       </c>
       <c r="F35" t="n">
-        <v>12588.04364770364</v>
+        <v>27746.69267412182</v>
       </c>
       <c r="G35" t="n">
-        <v>55370.20329565275</v>
+        <v>85114.90996785938</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>5063424</v>
+        <v>4089448</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>150284086</v>
+        <v>152482061</v>
       </c>
       <c r="E36" t="n">
-        <v>431351573</v>
+        <v>437660292</v>
       </c>
       <c r="F36" t="n">
-        <v>203829.7694815402</v>
+        <v>186814.6713878513</v>
       </c>
       <c r="G36" t="n">
-        <v>225810.8347207442</v>
+        <v>240177.2000779618</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>19327247</v>
+        <v>15223795</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>83498479</v>
+        <v>81507657</v>
       </c>
       <c r="E37" t="n">
-        <v>218137449</v>
+        <v>212936483</v>
       </c>
       <c r="F37" t="n">
-        <v>51633.00201178588</v>
+        <v>40521.09131849613</v>
       </c>
       <c r="G37" t="n">
-        <v>44285.51090060999</v>
+        <v>38029.28457670346</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>11782621</v>
+        <v>9325577</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>252242087</v>
+        <v>251962827</v>
       </c>
       <c r="E38" t="n">
-        <v>1441383355</v>
+        <v>1439787583</v>
       </c>
       <c r="F38" t="n">
-        <v>65414.99794588595</v>
+        <v>54593.7289632729</v>
       </c>
       <c r="G38" t="n">
-        <v>100042.4357231539</v>
+        <v>76329.50552546294</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>54426349</v>
+        <v>43926339</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>232099338</v>
+        <v>241097577</v>
       </c>
       <c r="E2" t="n">
-        <v>1455462325</v>
+        <v>1511889016</v>
       </c>
       <c r="F2" t="n">
-        <v>180196.2232276463</v>
+        <v>195469.2198212589</v>
       </c>
       <c r="G2" t="n">
-        <v>218989.1387675288</v>
+        <v>235495.6522499939</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>30185249</v>
+        <v>36819104</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100929280</v>
+        <v>103087912</v>
       </c>
       <c r="E3" t="n">
-        <v>111750525</v>
+        <v>114140597</v>
       </c>
       <c r="F3" t="n">
-        <v>58786.07956157422</v>
+        <v>49770.58454650143</v>
       </c>
       <c r="G3" t="n">
-        <v>162984.2736870001</v>
+        <v>160065.1836051808</v>
       </c>
       <c r="H3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I3" t="n">
-        <v>26788787</v>
+        <v>26237318</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>394451760</v>
+        <v>405367430</v>
       </c>
       <c r="E4" t="n">
-        <v>493400525</v>
+        <v>507054406</v>
       </c>
       <c r="F4" t="n">
-        <v>89204.24624199065</v>
+        <v>79814.15758306009</v>
       </c>
       <c r="G4" t="n">
-        <v>133227.5822337943</v>
+        <v>120950.1877510606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>61281218</v>
+        <v>60946195</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92005137</v>
+        <v>93408451</v>
       </c>
       <c r="E5" t="n">
-        <v>92005137</v>
+        <v>93408451</v>
       </c>
       <c r="F5" t="n">
-        <v>67368.91837081609</v>
+        <v>58552.32293106689</v>
       </c>
       <c r="G5" t="n">
-        <v>94399.18026530431</v>
+        <v>103651.3722977981</v>
       </c>
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>65176176</v>
+        <v>69124818</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>161018357</v>
+        <v>161861900</v>
       </c>
       <c r="E6" t="n">
-        <v>161018357</v>
+        <v>161861900</v>
       </c>
       <c r="F6" t="n">
-        <v>71068.88454444738</v>
+        <v>58412.17326141817</v>
       </c>
       <c r="G6" t="n">
-        <v>91543.39105077315</v>
+        <v>106929.8912427518</v>
       </c>
       <c r="H6" t="n">
         <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>16940621</v>
+        <v>19797379</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73134207</v>
+        <v>75168395</v>
       </c>
       <c r="E7" t="n">
-        <v>91189783</v>
+        <v>93726177</v>
       </c>
       <c r="F7" t="n">
-        <v>12701.54307788165</v>
+        <v>11772.2586511962</v>
       </c>
       <c r="G7" t="n">
-        <v>36019.1764154901</v>
+        <v>35760.37652745245</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11633913</v>
+        <v>12091917</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54564101</v>
+        <v>55481633</v>
       </c>
       <c r="E8" t="n">
-        <v>113761768</v>
+        <v>115674750</v>
       </c>
       <c r="F8" t="n">
-        <v>35561.94393051521</v>
+        <v>47814.63885804727</v>
       </c>
       <c r="G8" t="n">
-        <v>42865.09918855874</v>
+        <v>42914.31291493072</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>17946002</v>
+        <v>20027046</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>147362364</v>
+        <v>149071684</v>
       </c>
       <c r="E9" t="n">
-        <v>147369604</v>
+        <v>149082935</v>
       </c>
       <c r="F9" t="n">
-        <v>10254.62375664745</v>
+        <v>13096.00131861629</v>
       </c>
       <c r="G9" t="n">
-        <v>26740.32164427538</v>
+        <v>21612.0245612108</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I9" t="n">
-        <v>6287872</v>
+        <v>6364055</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>442510921</v>
+        <v>450181211</v>
       </c>
       <c r="E10" t="n">
-        <v>442510921</v>
+        <v>450181211</v>
       </c>
       <c r="F10" t="n">
-        <v>223578.209295985</v>
+        <v>197004.257163794</v>
       </c>
       <c r="G10" t="n">
-        <v>432064.9807554712</v>
+        <v>420849.9643936035</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>360717939</v>
+        <v>350672618</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69064554</v>
+        <v>69362112</v>
       </c>
       <c r="E11" t="n">
-        <v>79242778</v>
+        <v>79584188</v>
       </c>
       <c r="F11" t="n">
-        <v>3413.270737068315</v>
+        <v>2861.436642290611</v>
       </c>
       <c r="G11" t="n">
-        <v>2243.147483816144</v>
+        <v>5770.589442703098</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I11" t="n">
-        <v>2334855</v>
+        <v>2396550</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>154664207</v>
+        <v>157206282</v>
       </c>
       <c r="E12" t="n">
-        <v>667616577</v>
+        <v>678589584</v>
       </c>
       <c r="F12" t="n">
-        <v>365466.5702350285</v>
+        <v>278860.27837151</v>
       </c>
       <c r="G12" t="n">
-        <v>367405.5386259351</v>
+        <v>375701.1810189823</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>84526989</v>
+        <v>85119654</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89474689</v>
+        <v>90894649</v>
       </c>
       <c r="E13" t="n">
-        <v>89474689</v>
+        <v>90894649</v>
       </c>
       <c r="F13" t="n">
-        <v>1810.260356219636</v>
+        <v>2523.05380862345</v>
       </c>
       <c r="G13" t="n">
-        <v>6364.169569302006</v>
+        <v>6855.442353688852</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>6602798</v>
+        <v>6761234</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8130032</v>
+        <v>8340966</v>
       </c>
       <c r="E14" t="n">
-        <v>20325080</v>
+        <v>20852415</v>
       </c>
       <c r="F14" t="n">
-        <v>5922.116208412632</v>
+        <v>13169.11939672913</v>
       </c>
       <c r="G14" t="n">
-        <v>12839.29186939225</v>
+        <v>9992.723121710391</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>2149946</v>
+        <v>2219818</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10044739</v>
+        <v>10079581</v>
       </c>
       <c r="E15" t="n">
-        <v>14770599</v>
+        <v>14821833</v>
       </c>
       <c r="F15" t="n">
-        <v>3712.782405515437</v>
+        <v>2594.530682197686</v>
       </c>
       <c r="G15" t="n">
-        <v>3770.834159373842</v>
+        <v>4731.237694375506</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>525684</v>
+        <v>476351</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24821852</v>
+        <v>25506309</v>
       </c>
       <c r="E16" t="n">
-        <v>77287283</v>
+        <v>79418462</v>
       </c>
       <c r="F16" t="n">
-        <v>7733.941472191749</v>
+        <v>10826.57973600236</v>
       </c>
       <c r="G16" t="n">
-        <v>12612.19787221993</v>
+        <v>22259.88375171871</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>10357140</v>
+        <v>10584821</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>185449724</v>
+        <v>198451359</v>
       </c>
       <c r="E17" t="n">
-        <v>1668420708</v>
+        <v>1785391478</v>
       </c>
       <c r="F17" t="n">
-        <v>6578.36591365878</v>
+        <v>4782.864437307599</v>
       </c>
       <c r="G17" t="n">
-        <v>7318.256222955484</v>
+        <v>4806.081246759353</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>45729540</v>
+        <v>49594840</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13647170</v>
+        <v>13462886</v>
       </c>
       <c r="E18" t="n">
-        <v>83647990</v>
+        <v>82518455</v>
       </c>
       <c r="F18" t="n">
-        <v>14864.0178066436</v>
+        <v>24412.07569367304</v>
       </c>
       <c r="G18" t="n">
-        <v>47137.48680802806</v>
+        <v>42162.44654886406</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>11193938</v>
+        <v>11278665</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40711771</v>
+        <v>40170588</v>
       </c>
       <c r="E19" t="n">
-        <v>175381856</v>
+        <v>173050502</v>
       </c>
       <c r="F19" t="n">
-        <v>41223.69549380607</v>
+        <v>37857.23623341986</v>
       </c>
       <c r="G19" t="n">
-        <v>50899.48304427423</v>
+        <v>65500.12177871244</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>14028604</v>
+        <v>13802148</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>210661201</v>
+        <v>218319366</v>
       </c>
       <c r="E20" t="n">
-        <v>210661201</v>
+        <v>218319366</v>
       </c>
       <c r="F20" t="n">
-        <v>53803.0321342671</v>
+        <v>54783.71713333605</v>
       </c>
       <c r="G20" t="n">
-        <v>104644.807280071</v>
+        <v>108694.4056003837</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>101794003</v>
+        <v>70240543</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26100096</v>
+        <v>26476915</v>
       </c>
       <c r="E21" t="n">
-        <v>95473863</v>
+        <v>96852264</v>
       </c>
       <c r="F21" t="n">
-        <v>45578.91563580478</v>
+        <v>40314.52772375699</v>
       </c>
       <c r="G21" t="n">
-        <v>59429.74401770106</v>
+        <v>62122.07260431918</v>
       </c>
       <c r="H21" t="n">
         <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>11317398</v>
+        <v>10921287</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28981543</v>
+        <v>29892177</v>
       </c>
       <c r="E22" t="n">
-        <v>187937596</v>
+        <v>193842810</v>
       </c>
       <c r="F22" t="n">
-        <v>23277.27614143493</v>
+        <v>3038.995925721014</v>
       </c>
       <c r="G22" t="n">
-        <v>69305.32935676491</v>
+        <v>3752.104616339601</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>15980395</v>
+        <v>15863840</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122976189</v>
+        <v>123063715</v>
       </c>
       <c r="E23" t="n">
-        <v>2036586409</v>
+        <v>2038035911</v>
       </c>
       <c r="F23" t="n">
-        <v>366832.0134504064</v>
+        <v>351928.7624777817</v>
       </c>
       <c r="G23" t="n">
-        <v>335199.7735638494</v>
+        <v>320241.279421339</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>7299107</v>
+        <v>6738518</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4657844</v>
+        <v>4626696</v>
       </c>
       <c r="E24" t="n">
-        <v>21912111</v>
+        <v>21765580</v>
       </c>
       <c r="F24" t="n">
-        <v>573.458251467704</v>
+        <v>1134.715211913322</v>
       </c>
       <c r="G24" t="n">
-        <v>1017.636309363944</v>
+        <v>1377.654376438425</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>798136</v>
+        <v>799753</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12373452</v>
+        <v>12723244</v>
       </c>
       <c r="E25" t="n">
-        <v>12373452</v>
+        <v>12723413</v>
       </c>
       <c r="F25" t="n">
-        <v>15384.22608951444</v>
+        <v>19911.1962615672</v>
       </c>
       <c r="G25" t="n">
-        <v>7218.294116981981</v>
+        <v>13741.50432636664</v>
       </c>
       <c r="H25" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="I25" t="n">
-        <v>3741156</v>
+        <v>3709845</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>216930998</v>
+        <v>222454868</v>
       </c>
       <c r="E27" t="n">
-        <v>391829449</v>
+        <v>401806884</v>
       </c>
       <c r="F27" t="n">
-        <v>110929.9245317724</v>
+        <v>95207.19631051968</v>
       </c>
       <c r="G27" t="n">
-        <v>98455.21969122191</v>
+        <v>87880.44611728813</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>15778809</v>
+        <v>16118114</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28704882</v>
+        <v>28962866</v>
       </c>
       <c r="E28" t="n">
-        <v>28704882</v>
+        <v>28962866</v>
       </c>
       <c r="F28" t="n">
-        <v>30456.93093855173</v>
+        <v>28180.85292854586</v>
       </c>
       <c r="G28" t="n">
-        <v>39314.76272438092</v>
+        <v>40499.88418684607</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I28" t="n">
-        <v>4729431</v>
+        <v>4446346</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>434636391</v>
+        <v>456803018</v>
       </c>
       <c r="E29" t="n">
-        <v>1584237145</v>
+        <v>1665033865</v>
       </c>
       <c r="F29" t="n">
-        <v>50356.92579020747</v>
+        <v>57096.21479358656</v>
       </c>
       <c r="G29" t="n">
-        <v>100244.2046059379</v>
+        <v>91105.85385277589</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>45201581</v>
+        <v>49924139</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72207713</v>
+        <v>71664123</v>
       </c>
       <c r="E30" t="n">
-        <v>277000409</v>
+        <v>274915112</v>
       </c>
       <c r="F30" t="n">
-        <v>154510.4124500107</v>
+        <v>142889.3105556809</v>
       </c>
       <c r="G30" t="n">
-        <v>176151.5672968026</v>
+        <v>174988.452884916</v>
       </c>
       <c r="H30" t="n">
         <v>0.14</v>
       </c>
       <c r="I30" t="n">
-        <v>27093835</v>
+        <v>24824798</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20424831</v>
+        <v>21391929</v>
       </c>
       <c r="F31" t="n">
-        <v>16466.34351188791</v>
+        <v>10327.2360856725</v>
       </c>
       <c r="G31" t="n">
-        <v>14741.97860057034</v>
+        <v>11435.35903250631</v>
       </c>
       <c r="H31" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4511189</v>
+        <v>4250521</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>129853495</v>
+        <v>131850871</v>
       </c>
       <c r="E32" t="n">
-        <v>471783026</v>
+        <v>479031840</v>
       </c>
       <c r="F32" t="n">
-        <v>15924.15517779228</v>
+        <v>25035.37563481256</v>
       </c>
       <c r="G32" t="n">
-        <v>5149.484161634462</v>
+        <v>22111.40298209629</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>654973</v>
+        <v>555267</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>248392396</v>
+        <v>252096497</v>
       </c>
       <c r="E33" t="n">
-        <v>856382401</v>
+        <v>869153030</v>
       </c>
       <c r="F33" t="n">
-        <v>120437.7475929957</v>
+        <v>85299.85955775881</v>
       </c>
       <c r="G33" t="n">
-        <v>204071.7307088682</v>
+        <v>142678.2836917232</v>
       </c>
       <c r="H33" t="n">
         <v>0.23</v>
       </c>
       <c r="I33" t="n">
-        <v>43144205</v>
+        <v>46411109</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>75041422</v>
+        <v>80378116</v>
       </c>
       <c r="E34" t="n">
-        <v>110164686</v>
+        <v>117999230</v>
       </c>
       <c r="F34" t="n">
-        <v>44739.15411246119</v>
+        <v>44882.4422381165</v>
       </c>
       <c r="G34" t="n">
-        <v>52147.269035333</v>
+        <v>53142.51319648251</v>
       </c>
       <c r="H34" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>6656848</v>
+        <v>6253363</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2376369</v>
+        <v>2337556</v>
       </c>
       <c r="E35" t="n">
-        <v>9505477</v>
+        <v>9350226</v>
       </c>
       <c r="F35" t="n">
-        <v>27746.69267412182</v>
+        <v>19834.07528886383</v>
       </c>
       <c r="G35" t="n">
-        <v>85114.90996785938</v>
+        <v>47555.09040517529</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4089448</v>
+        <v>4112829</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>152482061</v>
+        <v>158841575</v>
       </c>
       <c r="E36" t="n">
-        <v>437660292</v>
+        <v>455913631</v>
       </c>
       <c r="F36" t="n">
-        <v>186814.6713878513</v>
+        <v>206092.0371602996</v>
       </c>
       <c r="G36" t="n">
-        <v>240177.2000779618</v>
+        <v>193393.6646879223</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>15223795</v>
+        <v>17308006</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>81507657</v>
+        <v>83689407</v>
       </c>
       <c r="E37" t="n">
-        <v>212936483</v>
+        <v>218636243</v>
       </c>
       <c r="F37" t="n">
-        <v>40521.09131849613</v>
+        <v>46359.0130317379</v>
       </c>
       <c r="G37" t="n">
-        <v>38029.28457670346</v>
+        <v>40974.66889777584</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>9325577</v>
+        <v>9039575</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>251962827</v>
+        <v>259649621</v>
       </c>
       <c r="E38" t="n">
-        <v>1439787583</v>
+        <v>1483712117</v>
       </c>
       <c r="F38" t="n">
-        <v>54593.7289632729</v>
+        <v>44124.24725516235</v>
       </c>
       <c r="G38" t="n">
-        <v>76329.50552546294</v>
+        <v>70840.5624513988</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I38" t="n">
-        <v>43926339</v>
+        <v>43842914</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>241097577</v>
+        <v>231069114</v>
       </c>
       <c r="E2" t="n">
-        <v>1511889016</v>
+        <v>1449001933</v>
       </c>
       <c r="F2" t="n">
-        <v>195469.2198212589</v>
+        <v>179868.2751138159</v>
       </c>
       <c r="G2" t="n">
-        <v>235495.6522499939</v>
+        <v>228183.242230224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>36819104</v>
+        <v>37908204</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103087912</v>
+        <v>103766780</v>
       </c>
       <c r="E3" t="n">
-        <v>114140597</v>
+        <v>114892251</v>
       </c>
       <c r="F3" t="n">
-        <v>49770.58454650143</v>
+        <v>66375.84588160479</v>
       </c>
       <c r="G3" t="n">
-        <v>160065.1836051808</v>
+        <v>168341.8349771637</v>
       </c>
       <c r="H3" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>26237318</v>
+        <v>25254398</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>405367430</v>
+        <v>412618901</v>
       </c>
       <c r="E4" t="n">
-        <v>507054406</v>
+        <v>516124919</v>
       </c>
       <c r="F4" t="n">
-        <v>79814.15758306009</v>
+        <v>117724.1038373162</v>
       </c>
       <c r="G4" t="n">
-        <v>120950.1877510606</v>
+        <v>126695.9036875537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>60946195</v>
+        <v>62075750</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>93408451</v>
+        <v>92852522</v>
       </c>
       <c r="E5" t="n">
-        <v>93408451</v>
+        <v>92852522</v>
       </c>
       <c r="F5" t="n">
-        <v>58552.32293106689</v>
+        <v>75188.44070753886</v>
       </c>
       <c r="G5" t="n">
-        <v>103651.3722977981</v>
+        <v>83428.50836602905</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>69124818</v>
+        <v>63848090</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>161861900</v>
+        <v>161512977</v>
       </c>
       <c r="E6" t="n">
-        <v>161861900</v>
+        <v>161512977</v>
       </c>
       <c r="F6" t="n">
-        <v>58412.17326141817</v>
+        <v>39433.21809889707</v>
       </c>
       <c r="G6" t="n">
-        <v>106929.8912427518</v>
+        <v>64983.21979901749</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>19797379</v>
+        <v>17091120</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75168395</v>
+        <v>74895798</v>
       </c>
       <c r="E7" t="n">
-        <v>93726177</v>
+        <v>93386281</v>
       </c>
       <c r="F7" t="n">
-        <v>11772.2586511962</v>
+        <v>10932.19312007453</v>
       </c>
       <c r="G7" t="n">
-        <v>35760.37652745245</v>
+        <v>42549.71721563628</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>12091917</v>
+        <v>12004929</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55481633</v>
+        <v>55867469</v>
       </c>
       <c r="E8" t="n">
-        <v>115674750</v>
+        <v>116479187</v>
       </c>
       <c r="F8" t="n">
-        <v>47814.63885804727</v>
+        <v>40476.58251713735</v>
       </c>
       <c r="G8" t="n">
-        <v>42914.31291493072</v>
+        <v>47266.36084167645</v>
       </c>
       <c r="H8" t="n">
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>20027046</v>
+        <v>17027686</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>149071684</v>
+        <v>146509140</v>
       </c>
       <c r="E9" t="n">
-        <v>149082935</v>
+        <v>146525236</v>
       </c>
       <c r="F9" t="n">
-        <v>13096.00131861629</v>
+        <v>14735.05119410079</v>
       </c>
       <c r="G9" t="n">
-        <v>21612.0245612108</v>
+        <v>21887.05067479224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>6364055</v>
+        <v>5883485</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>450181211</v>
+        <v>454301131</v>
       </c>
       <c r="E10" t="n">
-        <v>450181211</v>
+        <v>454301131</v>
       </c>
       <c r="F10" t="n">
-        <v>197004.257163794</v>
+        <v>330598.4886840262</v>
       </c>
       <c r="G10" t="n">
-        <v>420849.9643936035</v>
+        <v>388513.7697118311</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>350672618</v>
+        <v>325446496</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69362112</v>
+        <v>68603537</v>
       </c>
       <c r="E11" t="n">
-        <v>79584188</v>
+        <v>78713820</v>
       </c>
       <c r="F11" t="n">
-        <v>2861.436642290611</v>
+        <v>17947.95086834826</v>
       </c>
       <c r="G11" t="n">
-        <v>5770.589442703098</v>
+        <v>1271.762281123041</v>
       </c>
       <c r="H11" t="n">
         <v>0.12</v>
       </c>
       <c r="I11" t="n">
-        <v>2396550</v>
+        <v>2167974</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>157206282</v>
+        <v>155096076</v>
       </c>
       <c r="E12" t="n">
-        <v>678589584</v>
+        <v>669480763</v>
       </c>
       <c r="F12" t="n">
-        <v>278860.27837151</v>
+        <v>380017.1684366581</v>
       </c>
       <c r="G12" t="n">
-        <v>375701.1810189823</v>
+        <v>367235.8916516105</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>85119654</v>
+        <v>82802226</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90894649</v>
+        <v>89450991</v>
       </c>
       <c r="E13" t="n">
-        <v>90894649</v>
+        <v>89450991</v>
       </c>
       <c r="F13" t="n">
-        <v>2523.05380862345</v>
+        <v>2101.448266493422</v>
       </c>
       <c r="G13" t="n">
-        <v>6855.442353688852</v>
+        <v>6527.780020058824</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>6761234</v>
+        <v>6391261</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8340966</v>
+        <v>8306003</v>
       </c>
       <c r="E14" t="n">
-        <v>20852415</v>
+        <v>20765008</v>
       </c>
       <c r="F14" t="n">
-        <v>13169.11939672913</v>
+        <v>7163.476542814761</v>
       </c>
       <c r="G14" t="n">
-        <v>9992.723121710391</v>
+        <v>9743.055741086357</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>2219818</v>
+        <v>2189236</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10079581</v>
+        <v>10090233</v>
       </c>
       <c r="E15" t="n">
-        <v>14821833</v>
+        <v>14837497</v>
       </c>
       <c r="F15" t="n">
-        <v>2594.530682197686</v>
+        <v>3441.79212161855</v>
       </c>
       <c r="G15" t="n">
-        <v>4731.237694375506</v>
+        <v>3372.155731741484</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>476351</v>
+        <v>525612</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25506309</v>
+        <v>25513524</v>
       </c>
       <c r="E16" t="n">
-        <v>79418462</v>
+        <v>79440927</v>
       </c>
       <c r="F16" t="n">
-        <v>10826.57973600236</v>
+        <v>5147.413011649475</v>
       </c>
       <c r="G16" t="n">
-        <v>22259.88375171871</v>
+        <v>11669.28599064154</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>10584821</v>
+        <v>10295423</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>198451359</v>
+        <v>199127341</v>
       </c>
       <c r="E17" t="n">
-        <v>1785391478</v>
+        <v>1791473030</v>
       </c>
       <c r="F17" t="n">
-        <v>4782.864437307599</v>
+        <v>861101.058932108</v>
       </c>
       <c r="G17" t="n">
-        <v>4806.081246759353</v>
+        <v>912576.1706406135</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>49594840</v>
+        <v>53964479</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13462886</v>
+        <v>13490738</v>
       </c>
       <c r="E18" t="n">
-        <v>82518455</v>
+        <v>82689167</v>
       </c>
       <c r="F18" t="n">
-        <v>24412.07569367304</v>
+        <v>24856.99060282691</v>
       </c>
       <c r="G18" t="n">
-        <v>42162.44654886406</v>
+        <v>37455.32367040375</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11278665</v>
+        <v>10986299</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40170588</v>
+        <v>42051093</v>
       </c>
       <c r="E19" t="n">
-        <v>173050502</v>
+        <v>181151511</v>
       </c>
       <c r="F19" t="n">
-        <v>37857.23623341986</v>
+        <v>27735.72131853109</v>
       </c>
       <c r="G19" t="n">
-        <v>65500.12177871244</v>
+        <v>62241.09438241555</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>13802148</v>
+        <v>13060031</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>218319366</v>
+        <v>224499465</v>
       </c>
       <c r="E20" t="n">
-        <v>218319366</v>
+        <v>224499465</v>
       </c>
       <c r="F20" t="n">
-        <v>54783.71713333605</v>
+        <v>53787.99769484001</v>
       </c>
       <c r="G20" t="n">
-        <v>108694.4056003837</v>
+        <v>122969.2317380281</v>
       </c>
       <c r="H20" t="n">
         <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>70240543</v>
+        <v>94177874</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26476915</v>
+        <v>26846995</v>
       </c>
       <c r="E21" t="n">
-        <v>96852264</v>
+        <v>98206014</v>
       </c>
       <c r="F21" t="n">
-        <v>40314.52772375699</v>
+        <v>47640.90597203421</v>
       </c>
       <c r="G21" t="n">
-        <v>62122.07260431918</v>
+        <v>65147.579427505</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>10921287</v>
+        <v>9738141</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29892177</v>
+        <v>29656803</v>
       </c>
       <c r="E22" t="n">
-        <v>193842810</v>
+        <v>192316471</v>
       </c>
       <c r="F22" t="n">
-        <v>3038.995925721014</v>
+        <v>3562.434822763736</v>
       </c>
       <c r="G22" t="n">
-        <v>3752.104616339601</v>
+        <v>4278.651326920297</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>15863840</v>
+        <v>14680408</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123063715</v>
+        <v>122356910</v>
       </c>
       <c r="E23" t="n">
-        <v>2038035911</v>
+        <v>2026330644</v>
       </c>
       <c r="F23" t="n">
-        <v>351928.7624777817</v>
+        <v>343588.2355346703</v>
       </c>
       <c r="G23" t="n">
-        <v>320241.279421339</v>
+        <v>317968.7597035808</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6738518</v>
+        <v>6590119</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4626696</v>
+        <v>4657341</v>
       </c>
       <c r="E24" t="n">
-        <v>21765580</v>
+        <v>21909745</v>
       </c>
       <c r="F24" t="n">
-        <v>1134.715211913322</v>
+        <v>1940.074710234697</v>
       </c>
       <c r="G24" t="n">
-        <v>1377.654376438425</v>
+        <v>108.5651271483632</v>
       </c>
       <c r="H24" t="n">
         <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>799753</v>
+        <v>789331</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12723244</v>
+        <v>12432245</v>
       </c>
       <c r="E25" t="n">
-        <v>12723413</v>
+        <v>12432400</v>
       </c>
       <c r="F25" t="n">
-        <v>19911.1962615672</v>
+        <v>19661.4482582056</v>
       </c>
       <c r="G25" t="n">
-        <v>13741.50432636664</v>
+        <v>5479.278495381812</v>
       </c>
       <c r="H25" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="I25" t="n">
-        <v>3709845</v>
+        <v>3309485</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>222454868</v>
+        <v>223046051</v>
       </c>
       <c r="E27" t="n">
-        <v>401806884</v>
+        <v>402874702</v>
       </c>
       <c r="F27" t="n">
-        <v>95207.19631051968</v>
+        <v>100290.7707080532</v>
       </c>
       <c r="G27" t="n">
-        <v>87880.44611728813</v>
+        <v>104600.522788152</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>16118114</v>
+        <v>16054817</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28962866</v>
+        <v>28902520</v>
       </c>
       <c r="E28" t="n">
-        <v>28962866</v>
+        <v>28902520</v>
       </c>
       <c r="F28" t="n">
-        <v>28180.85292854586</v>
+        <v>28773.75892124063</v>
       </c>
       <c r="G28" t="n">
-        <v>40499.88418684607</v>
+        <v>35070.18068705514</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>4446346</v>
+        <v>4057234</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>456803018</v>
+        <v>454483379</v>
       </c>
       <c r="E29" t="n">
-        <v>1665033865</v>
+        <v>1656578848</v>
       </c>
       <c r="F29" t="n">
-        <v>57096.21479358656</v>
+        <v>41232.58382283539</v>
       </c>
       <c r="G29" t="n">
-        <v>91105.85385277589</v>
+        <v>83666.26367968055</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>49924139</v>
+        <v>51204695</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71664123</v>
+        <v>88366486</v>
       </c>
       <c r="E30" t="n">
-        <v>274915112</v>
+        <v>264090181</v>
       </c>
       <c r="F30" t="n">
-        <v>142889.3105556809</v>
+        <v>143815.559518221</v>
       </c>
       <c r="G30" t="n">
-        <v>174988.452884916</v>
+        <v>175698.7731978231</v>
       </c>
       <c r="H30" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>24824798</v>
+        <v>24111039</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21391929</v>
+        <v>21029752</v>
       </c>
       <c r="F31" t="n">
-        <v>10327.2360856725</v>
+        <v>11721.42434831092</v>
       </c>
       <c r="G31" t="n">
-        <v>11435.35903250631</v>
+        <v>9840.210635165058</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>4250521</v>
+        <v>3729637</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>131850871</v>
+        <v>130955100</v>
       </c>
       <c r="E32" t="n">
-        <v>479031840</v>
+        <v>474656202</v>
       </c>
       <c r="F32" t="n">
-        <v>25035.37563481256</v>
+        <v>14827.07129368588</v>
       </c>
       <c r="G32" t="n">
-        <v>22111.40298209629</v>
+        <v>16720.58488773061</v>
       </c>
       <c r="H32" t="n">
         <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>555267</v>
+        <v>774615</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>252096497</v>
+        <v>258623545</v>
       </c>
       <c r="E33" t="n">
-        <v>869153030</v>
+        <v>891656334</v>
       </c>
       <c r="F33" t="n">
-        <v>85299.85955775881</v>
+        <v>121796.5132150669</v>
       </c>
       <c r="G33" t="n">
-        <v>142678.2836917232</v>
+        <v>163630.7930279429</v>
       </c>
       <c r="H33" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>46411109</v>
+        <v>42888698</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80378116</v>
+        <v>82343542</v>
       </c>
       <c r="E34" t="n">
-        <v>117999230</v>
+        <v>120884576</v>
       </c>
       <c r="F34" t="n">
-        <v>44882.4422381165</v>
+        <v>45425.24924769679</v>
       </c>
       <c r="G34" t="n">
-        <v>53142.51319648251</v>
+        <v>54553.47703572163</v>
       </c>
       <c r="H34" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>6253363</v>
+        <v>5622362</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2337556</v>
+        <v>2302445</v>
       </c>
       <c r="E35" t="n">
-        <v>9350226</v>
+        <v>9209780</v>
       </c>
       <c r="F35" t="n">
-        <v>19834.07528886383</v>
+        <v>26164.95458367131</v>
       </c>
       <c r="G35" t="n">
-        <v>47555.09040517529</v>
+        <v>76062.26826142952</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4112829</v>
+        <v>3723252</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>158841575</v>
+        <v>156228250</v>
       </c>
       <c r="E36" t="n">
-        <v>455913631</v>
+        <v>448412758</v>
       </c>
       <c r="F36" t="n">
-        <v>206092.0371602996</v>
+        <v>178525.019792829</v>
       </c>
       <c r="G36" t="n">
-        <v>193393.6646879223</v>
+        <v>214782.6064577466</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>17308006</v>
+        <v>16231450</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>83689407</v>
+        <v>87475791</v>
       </c>
       <c r="E37" t="n">
-        <v>218636243</v>
+        <v>228528066</v>
       </c>
       <c r="F37" t="n">
-        <v>46359.0130317379</v>
+        <v>44024.58187974429</v>
       </c>
       <c r="G37" t="n">
-        <v>40974.66889777584</v>
+        <v>54797.16358827944</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>9039575</v>
+        <v>9223977</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>259649621</v>
+        <v>255793242</v>
       </c>
       <c r="E38" t="n">
-        <v>1483712117</v>
+        <v>1461675670</v>
       </c>
       <c r="F38" t="n">
-        <v>44124.24725516235</v>
+        <v>47586.06379789334</v>
       </c>
       <c r="G38" t="n">
-        <v>70840.5624513988</v>
+        <v>72153.26942894535</v>
       </c>
       <c r="H38" t="n">
         <v>0.06</v>
       </c>
       <c r="I38" t="n">
-        <v>43842914</v>
+        <v>43008613</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>231069114</v>
+        <v>255328733</v>
       </c>
       <c r="E2" t="n">
-        <v>1449001933</v>
+        <v>1601130596</v>
       </c>
       <c r="F2" t="n">
-        <v>179868.2751138159</v>
+        <v>177884.2683947433</v>
       </c>
       <c r="G2" t="n">
-        <v>228183.242230224</v>
+        <v>242499.6101673299</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>37908204</v>
+        <v>90952727</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103766780</v>
+        <v>103844766</v>
       </c>
       <c r="E3" t="n">
-        <v>114892251</v>
+        <v>114978599</v>
       </c>
       <c r="F3" t="n">
-        <v>66375.84588160479</v>
+        <v>61106.81150752</v>
       </c>
       <c r="G3" t="n">
-        <v>168341.8349771637</v>
+        <v>164589.7538383201</v>
       </c>
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>25254398</v>
+        <v>22623848</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>412618901</v>
+        <v>408527347</v>
       </c>
       <c r="E4" t="n">
-        <v>516124919</v>
+        <v>511006993</v>
       </c>
       <c r="F4" t="n">
-        <v>117724.1038373162</v>
+        <v>93943.22290582796</v>
       </c>
       <c r="G4" t="n">
-        <v>126695.9036875537</v>
+        <v>133031.2282751754</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>62075750</v>
+        <v>56399160</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92852522</v>
+        <v>93807978</v>
       </c>
       <c r="E5" t="n">
-        <v>92852522</v>
+        <v>93807978</v>
       </c>
       <c r="F5" t="n">
-        <v>75188.44070753886</v>
+        <v>65398.49096933702</v>
       </c>
       <c r="G5" t="n">
-        <v>83428.50836602905</v>
+        <v>91144.39553754649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>63848090</v>
+        <v>60346615</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>161512977</v>
+        <v>163770858</v>
       </c>
       <c r="E6" t="n">
-        <v>161512977</v>
+        <v>163770858</v>
       </c>
       <c r="F6" t="n">
-        <v>39433.21809889707</v>
+        <v>39906.30579556329</v>
       </c>
       <c r="G6" t="n">
-        <v>64983.21979901749</v>
+        <v>60133.36582005704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>17091120</v>
+        <v>18710842</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74895798</v>
+        <v>76797735</v>
       </c>
       <c r="E7" t="n">
-        <v>93386281</v>
+        <v>95757773</v>
       </c>
       <c r="F7" t="n">
-        <v>10932.19312007453</v>
+        <v>12327.34403287114</v>
       </c>
       <c r="G7" t="n">
-        <v>42549.71721563628</v>
+        <v>38840.9635959722</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>12004929</v>
+        <v>12841826</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55867469</v>
+        <v>56238392</v>
       </c>
       <c r="E8" t="n">
-        <v>116479187</v>
+        <v>117252531</v>
       </c>
       <c r="F8" t="n">
-        <v>40476.58251713735</v>
+        <v>40384.48691108764</v>
       </c>
       <c r="G8" t="n">
-        <v>47266.36084167645</v>
+        <v>47389.75891270947</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>17027686</v>
+        <v>14504840</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146509140</v>
+        <v>149540008</v>
       </c>
       <c r="E9" t="n">
-        <v>146525236</v>
+        <v>149562718</v>
       </c>
       <c r="F9" t="n">
-        <v>14735.05119410079</v>
+        <v>10505.69673578805</v>
       </c>
       <c r="G9" t="n">
-        <v>21887.05067479224</v>
+        <v>24038.7782633448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>5883485</v>
+        <v>5488914</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>454301131</v>
+        <v>482547996</v>
       </c>
       <c r="E10" t="n">
-        <v>454301131</v>
+        <v>482547996</v>
       </c>
       <c r="F10" t="n">
-        <v>330598.4886840262</v>
+        <v>181770.1330444657</v>
       </c>
       <c r="G10" t="n">
-        <v>388513.7697118311</v>
+        <v>426736.3438506771</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>325446496</v>
+        <v>347190898</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68603537</v>
+        <v>68642304</v>
       </c>
       <c r="E11" t="n">
-        <v>78713820</v>
+        <v>78758300</v>
       </c>
       <c r="F11" t="n">
-        <v>17947.95086834826</v>
+        <v>17292.17648828444</v>
       </c>
       <c r="G11" t="n">
-        <v>1271.762281123041</v>
+        <v>7009.69123745176</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2167974</v>
+        <v>1699493</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>155096076</v>
+        <v>155642361</v>
       </c>
       <c r="E12" t="n">
-        <v>669480763</v>
+        <v>671838835</v>
       </c>
       <c r="F12" t="n">
-        <v>380017.1684366581</v>
+        <v>296241.7919715892</v>
       </c>
       <c r="G12" t="n">
-        <v>367235.8916516105</v>
+        <v>365692.0037248034</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>82802226</v>
+        <v>75915158</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89450991</v>
+        <v>90003011</v>
       </c>
       <c r="E13" t="n">
-        <v>89450991</v>
+        <v>90003011</v>
       </c>
       <c r="F13" t="n">
-        <v>2101.448266493422</v>
+        <v>2224.335159385114</v>
       </c>
       <c r="G13" t="n">
-        <v>6527.780020058824</v>
+        <v>5661.793963884887</v>
       </c>
       <c r="H13" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>6391261</v>
+        <v>6545807</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8306003</v>
+        <v>8443872</v>
       </c>
       <c r="E14" t="n">
-        <v>20765008</v>
+        <v>21109680</v>
       </c>
       <c r="F14" t="n">
-        <v>7163.476542814761</v>
+        <v>4388.919228813149</v>
       </c>
       <c r="G14" t="n">
-        <v>9743.055741086357</v>
+        <v>12341.11622509725</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>2189236</v>
+        <v>2127973</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10090233</v>
+        <v>10267236</v>
       </c>
       <c r="E15" t="n">
-        <v>14837497</v>
+        <v>15097778</v>
       </c>
       <c r="F15" t="n">
-        <v>3441.79212161855</v>
+        <v>3688.973226440924</v>
       </c>
       <c r="G15" t="n">
-        <v>3372.155731741484</v>
+        <v>10589.08332277267</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>525612</v>
+        <v>501315</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25513524</v>
+        <v>25888918</v>
       </c>
       <c r="E16" t="n">
-        <v>79440927</v>
+        <v>80609783</v>
       </c>
       <c r="F16" t="n">
-        <v>5147.413011649475</v>
+        <v>7339.070617421023</v>
       </c>
       <c r="G16" t="n">
-        <v>11669.28599064154</v>
+        <v>11213.19384613403</v>
       </c>
       <c r="H16" t="n">
         <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>10295423</v>
+        <v>9979020</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199127341</v>
+        <v>199828768</v>
       </c>
       <c r="E17" t="n">
-        <v>1791473030</v>
+        <v>1797783511</v>
       </c>
       <c r="F17" t="n">
-        <v>861101.058932108</v>
+        <v>850652.2830905184</v>
       </c>
       <c r="G17" t="n">
-        <v>912576.1706406135</v>
+        <v>907798.6593932592</v>
       </c>
       <c r="H17" t="n">
         <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>53964479</v>
+        <v>59771103</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13490738</v>
+        <v>13440314</v>
       </c>
       <c r="E18" t="n">
-        <v>82689167</v>
+        <v>82380101</v>
       </c>
       <c r="F18" t="n">
-        <v>24856.99060282691</v>
+        <v>21167.53042250138</v>
       </c>
       <c r="G18" t="n">
-        <v>37455.32367040375</v>
+        <v>35229.53306377836</v>
       </c>
       <c r="H18" t="n">
         <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>10986299</v>
+        <v>11360325</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42051093</v>
+        <v>44768104</v>
       </c>
       <c r="E19" t="n">
-        <v>181151511</v>
+        <v>192856095</v>
       </c>
       <c r="F19" t="n">
-        <v>27735.72131853109</v>
+        <v>31649.65546322752</v>
       </c>
       <c r="G19" t="n">
-        <v>62241.09438241555</v>
+        <v>66362.62856647567</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>13060031</v>
+        <v>13012731</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>224499465</v>
+        <v>220648720</v>
       </c>
       <c r="E20" t="n">
-        <v>224499465</v>
+        <v>220648720</v>
       </c>
       <c r="F20" t="n">
-        <v>53787.99769484001</v>
+        <v>53758.7424141934</v>
       </c>
       <c r="G20" t="n">
-        <v>122969.2317380281</v>
+        <v>112592.7787866235</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>94177874</v>
+        <v>86045710</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26846995</v>
+        <v>27481713</v>
       </c>
       <c r="E21" t="n">
-        <v>98206014</v>
+        <v>100527803</v>
       </c>
       <c r="F21" t="n">
-        <v>47640.90597203421</v>
+        <v>44028.14610072055</v>
       </c>
       <c r="G21" t="n">
-        <v>65147.579427505</v>
+        <v>64363.16806548017</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>9738141</v>
+        <v>9297089</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29656803</v>
+        <v>29713084</v>
       </c>
       <c r="E22" t="n">
-        <v>192316471</v>
+        <v>192681443</v>
       </c>
       <c r="F22" t="n">
-        <v>3562.434822763736</v>
+        <v>6740.354644208909</v>
       </c>
       <c r="G22" t="n">
-        <v>4278.651326920297</v>
+        <v>3392.178843803264</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>14680408</v>
+        <v>13447881</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122356910</v>
+        <v>122576682</v>
       </c>
       <c r="E23" t="n">
-        <v>2026330644</v>
+        <v>2029970251</v>
       </c>
       <c r="F23" t="n">
-        <v>343588.2355346703</v>
+        <v>362742.4749379081</v>
       </c>
       <c r="G23" t="n">
-        <v>317968.7597035808</v>
+        <v>319370.2675974152</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6590119</v>
+        <v>6025465</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4657341</v>
+        <v>4601136</v>
       </c>
       <c r="E24" t="n">
-        <v>21909745</v>
+        <v>21645339</v>
       </c>
       <c r="F24" t="n">
-        <v>1940.074710234697</v>
+        <v>1130.078721889903</v>
       </c>
       <c r="G24" t="n">
-        <v>108.5651271483632</v>
+        <v>1381.68612864093</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I24" t="n">
-        <v>789331</v>
+        <v>760919</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12432245</v>
+        <v>12337607</v>
       </c>
       <c r="E25" t="n">
-        <v>12432400</v>
+        <v>12337607</v>
       </c>
       <c r="F25" t="n">
-        <v>19661.4482582056</v>
+        <v>14400.37570134665</v>
       </c>
       <c r="G25" t="n">
-        <v>5479.278495381812</v>
+        <v>6052.844699831932</v>
       </c>
       <c r="H25" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>3309485</v>
+        <v>2139076</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>223046051</v>
+        <v>227305778</v>
       </c>
       <c r="E27" t="n">
-        <v>402874702</v>
+        <v>410568791</v>
       </c>
       <c r="F27" t="n">
-        <v>100290.7707080532</v>
+        <v>106517.022297398</v>
       </c>
       <c r="G27" t="n">
-        <v>104600.522788152</v>
+        <v>105443.4495520029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>16054817</v>
+        <v>16295159</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28902520</v>
+        <v>29463126</v>
       </c>
       <c r="E28" t="n">
-        <v>28902520</v>
+        <v>29463126</v>
       </c>
       <c r="F28" t="n">
-        <v>28773.75892124063</v>
+        <v>30063.06786995327</v>
       </c>
       <c r="G28" t="n">
-        <v>35070.18068705514</v>
+        <v>36023.21581113319</v>
       </c>
       <c r="H28" t="n">
         <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>4057234</v>
+        <v>4115671</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>454483379</v>
+        <v>462809765</v>
       </c>
       <c r="E29" t="n">
-        <v>1656578848</v>
+        <v>1686928284</v>
       </c>
       <c r="F29" t="n">
-        <v>41232.58382283539</v>
+        <v>40968.91804600636</v>
       </c>
       <c r="G29" t="n">
-        <v>83666.26367968055</v>
+        <v>85998.14287071774</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>51204695</v>
+        <v>45755668</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>88366486</v>
+        <v>89403849</v>
       </c>
       <c r="E30" t="n">
-        <v>264090181</v>
+        <v>267190422</v>
       </c>
       <c r="F30" t="n">
-        <v>143815.559518221</v>
+        <v>145260.1907303843</v>
       </c>
       <c r="G30" t="n">
-        <v>175698.7731978231</v>
+        <v>175167.5278092109</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>24111039</v>
+        <v>25901312</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21029752</v>
+        <v>22034901</v>
       </c>
       <c r="F31" t="n">
-        <v>11721.42434831092</v>
+        <v>10149.46530160802</v>
       </c>
       <c r="G31" t="n">
-        <v>9840.210635165058</v>
+        <v>15863.82208056904</v>
       </c>
       <c r="H31" t="n">
         <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>3729637</v>
+        <v>3819931</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>130955100</v>
+        <v>144468895</v>
       </c>
       <c r="E32" t="n">
-        <v>474656202</v>
+        <v>523608677</v>
       </c>
       <c r="F32" t="n">
-        <v>14827.07129368588</v>
+        <v>1417.550719497979</v>
       </c>
       <c r="G32" t="n">
-        <v>16720.58488773061</v>
+        <v>15493.89769516506</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>774615</v>
+        <v>1025934</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>258623545</v>
+        <v>257252391</v>
       </c>
       <c r="E33" t="n">
-        <v>891656334</v>
+        <v>886483775</v>
       </c>
       <c r="F33" t="n">
-        <v>121796.5132150669</v>
+        <v>127016.0826211996</v>
       </c>
       <c r="G33" t="n">
-        <v>163630.7930279429</v>
+        <v>149852.4630974725</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>42888698</v>
+        <v>41517637</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>82343542</v>
+        <v>79498448</v>
       </c>
       <c r="E34" t="n">
-        <v>120884576</v>
+        <v>116707831</v>
       </c>
       <c r="F34" t="n">
-        <v>45425.24924769679</v>
+        <v>44530.94159471484</v>
       </c>
       <c r="G34" t="n">
-        <v>54553.47703572163</v>
+        <v>48239.34138704946</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>5622362</v>
+        <v>4671461</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2302445</v>
+        <v>2288297</v>
       </c>
       <c r="E35" t="n">
-        <v>9209780</v>
+        <v>9153187</v>
       </c>
       <c r="F35" t="n">
-        <v>26164.95458367131</v>
+        <v>32803.02157597792</v>
       </c>
       <c r="G35" t="n">
-        <v>76062.26826142952</v>
+        <v>70310.47579392682</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I35" t="n">
-        <v>3723252</v>
+        <v>3295280</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>156228250</v>
+        <v>154789551</v>
       </c>
       <c r="E36" t="n">
-        <v>448412758</v>
+        <v>444283344</v>
       </c>
       <c r="F36" t="n">
-        <v>178525.019792829</v>
+        <v>181997.9992162948</v>
       </c>
       <c r="G36" t="n">
-        <v>214782.6064577466</v>
+        <v>221170.4856844491</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>16231450</v>
+        <v>16619183</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87475791</v>
+        <v>89347388</v>
       </c>
       <c r="E37" t="n">
-        <v>228528066</v>
+        <v>233417561</v>
       </c>
       <c r="F37" t="n">
-        <v>44024.58187974429</v>
+        <v>43453.70176638226</v>
       </c>
       <c r="G37" t="n">
-        <v>54797.16358827944</v>
+        <v>37463.76662605756</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>9223977</v>
+        <v>9888653</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>255793242</v>
+        <v>255811914</v>
       </c>
       <c r="E38" t="n">
-        <v>1461675670</v>
+        <v>1461782363</v>
       </c>
       <c r="F38" t="n">
-        <v>47586.06379789334</v>
+        <v>45177.78064334508</v>
       </c>
       <c r="G38" t="n">
-        <v>72153.26942894535</v>
+        <v>76218.45019962438</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>43008613</v>
+        <v>35867201</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>255328733</v>
+        <v>266839563</v>
       </c>
       <c r="E2" t="n">
-        <v>1601130596</v>
+        <v>1673313394</v>
       </c>
       <c r="F2" t="n">
-        <v>177884.2683947433</v>
+        <v>191487.6608891831</v>
       </c>
       <c r="G2" t="n">
-        <v>242499.6101673299</v>
+        <v>225177.437985634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>90952727</v>
+        <v>71515100</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103844766</v>
+        <v>102790058</v>
       </c>
       <c r="E3" t="n">
-        <v>114978599</v>
+        <v>113810808</v>
       </c>
       <c r="F3" t="n">
-        <v>61106.81150752</v>
+        <v>62029.95304814488</v>
       </c>
       <c r="G3" t="n">
-        <v>164589.7538383201</v>
+        <v>151790.6935881074</v>
       </c>
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>22623848</v>
+        <v>21156127</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>408527347</v>
+        <v>403474331</v>
       </c>
       <c r="E4" t="n">
-        <v>511006993</v>
+        <v>504686421</v>
       </c>
       <c r="F4" t="n">
-        <v>93943.22290582796</v>
+        <v>92225.87054099102</v>
       </c>
       <c r="G4" t="n">
-        <v>133031.2282751754</v>
+        <v>122953.1013255903</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>56399160</v>
+        <v>57641735</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>93807978</v>
+        <v>94587007</v>
       </c>
       <c r="E5" t="n">
-        <v>93807978</v>
+        <v>94587007</v>
       </c>
       <c r="F5" t="n">
-        <v>65398.49096933702</v>
+        <v>74468.35573216842</v>
       </c>
       <c r="G5" t="n">
-        <v>91144.39553754649</v>
+        <v>106251.6229412318</v>
       </c>
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>60346615</v>
+        <v>57598962</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>163770858</v>
+        <v>163263656</v>
       </c>
       <c r="E6" t="n">
-        <v>163770858</v>
+        <v>163263656</v>
       </c>
       <c r="F6" t="n">
-        <v>39906.30579556329</v>
+        <v>33456.54332151828</v>
       </c>
       <c r="G6" t="n">
-        <v>60133.36582005704</v>
+        <v>67491.41411445806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>18710842</v>
+        <v>21149356</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76797735</v>
+        <v>76787879</v>
       </c>
       <c r="E7" t="n">
-        <v>95757773</v>
+        <v>95745484</v>
       </c>
       <c r="F7" t="n">
-        <v>12327.34403287114</v>
+        <v>11525.08921503833</v>
       </c>
       <c r="G7" t="n">
-        <v>38840.9635959722</v>
+        <v>37409.13096709501</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>12841826</v>
+        <v>11657978</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56238392</v>
+        <v>55589177</v>
       </c>
       <c r="E8" t="n">
-        <v>117252531</v>
+        <v>115898970</v>
       </c>
       <c r="F8" t="n">
-        <v>40384.48691108764</v>
+        <v>39745.95335202243</v>
       </c>
       <c r="G8" t="n">
-        <v>47389.75891270947</v>
+        <v>51103.16255617618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>14504840</v>
+        <v>12185158</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>149540008</v>
+        <v>146011503</v>
       </c>
       <c r="E9" t="n">
-        <v>149562718</v>
+        <v>146033676</v>
       </c>
       <c r="F9" t="n">
-        <v>10505.69673578805</v>
+        <v>10925.91167086568</v>
       </c>
       <c r="G9" t="n">
-        <v>24038.7782633448</v>
+        <v>25016.92304086652</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I9" t="n">
-        <v>5488914</v>
+        <v>4923467</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>482547996</v>
+        <v>477039452</v>
       </c>
       <c r="E10" t="n">
-        <v>482547996</v>
+        <v>477039452</v>
       </c>
       <c r="F10" t="n">
-        <v>181770.1330444657</v>
+        <v>124376.9117625312</v>
       </c>
       <c r="G10" t="n">
-        <v>426736.3438506771</v>
+        <v>333352.0947665783</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>347190898</v>
+        <v>411834767</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68642304</v>
+        <v>68646461</v>
       </c>
       <c r="E11" t="n">
-        <v>78758300</v>
+        <v>78763071</v>
       </c>
       <c r="F11" t="n">
-        <v>17292.17648828444</v>
+        <v>12388.70316358542</v>
       </c>
       <c r="G11" t="n">
-        <v>7009.69123745176</v>
+        <v>7514.910861183562</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="I11" t="n">
-        <v>1699493</v>
+        <v>1494631</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>155642361</v>
+        <v>153716888</v>
       </c>
       <c r="E12" t="n">
-        <v>671838835</v>
+        <v>663527425</v>
       </c>
       <c r="F12" t="n">
-        <v>296241.7919715892</v>
+        <v>373413.9830985896</v>
       </c>
       <c r="G12" t="n">
-        <v>365692.0037248034</v>
+        <v>369050.3091893154</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>75915158</v>
+        <v>70263044</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90003011</v>
+        <v>88756358</v>
       </c>
       <c r="E13" t="n">
-        <v>90003011</v>
+        <v>88756358</v>
       </c>
       <c r="F13" t="n">
-        <v>2224.335159385114</v>
+        <v>2411.699182157191</v>
       </c>
       <c r="G13" t="n">
-        <v>5661.793963884887</v>
+        <v>6010.813469335366</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>6545807</v>
+        <v>5658859</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8443872</v>
+        <v>8385007</v>
       </c>
       <c r="E14" t="n">
-        <v>21109680</v>
+        <v>20962518</v>
       </c>
       <c r="F14" t="n">
-        <v>4388.919228813149</v>
+        <v>8700.854889824264</v>
       </c>
       <c r="G14" t="n">
-        <v>12341.11622509725</v>
+        <v>10946.68245270762</v>
       </c>
       <c r="H14" t="n">
         <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>2127973</v>
+        <v>2094131</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10267236</v>
+        <v>10366046</v>
       </c>
       <c r="E15" t="n">
-        <v>15097778</v>
+        <v>15243076</v>
       </c>
       <c r="F15" t="n">
-        <v>3688.973226440924</v>
+        <v>3289.838424775533</v>
       </c>
       <c r="G15" t="n">
-        <v>10589.08332277267</v>
+        <v>3866.840438744857</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>501315</v>
+        <v>491782</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25888918</v>
+        <v>25398274</v>
       </c>
       <c r="E16" t="n">
-        <v>80609783</v>
+        <v>79082076</v>
       </c>
       <c r="F16" t="n">
-        <v>7339.070617421023</v>
+        <v>6886.630126217965</v>
       </c>
       <c r="G16" t="n">
-        <v>11213.19384613403</v>
+        <v>18270.97610097599</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>9979020</v>
+        <v>9423931</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199828768</v>
+        <v>195563725</v>
       </c>
       <c r="E17" t="n">
-        <v>1797783511</v>
+        <v>1759412533</v>
       </c>
       <c r="F17" t="n">
-        <v>850652.2830905184</v>
+        <v>6577.855791434978</v>
       </c>
       <c r="G17" t="n">
-        <v>907798.6593932592</v>
+        <v>9967.839472293421</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I17" t="n">
-        <v>59771103</v>
+        <v>45743532</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13440314</v>
+        <v>13637935</v>
       </c>
       <c r="E18" t="n">
-        <v>82380101</v>
+        <v>83591386</v>
       </c>
       <c r="F18" t="n">
-        <v>21167.53042250138</v>
+        <v>20865.89135187834</v>
       </c>
       <c r="G18" t="n">
-        <v>35229.53306377836</v>
+        <v>33756.85886169694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11360325</v>
+        <v>11682160</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44768104</v>
+        <v>44740785</v>
       </c>
       <c r="E19" t="n">
-        <v>192856095</v>
+        <v>192738410</v>
       </c>
       <c r="F19" t="n">
-        <v>31649.65546322752</v>
+        <v>64854.51197439595</v>
       </c>
       <c r="G19" t="n">
-        <v>66362.62856647567</v>
+        <v>77744.42430783364</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>13012731</v>
+        <v>14756803</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>220648720</v>
+        <v>216032458</v>
       </c>
       <c r="E20" t="n">
-        <v>220648720</v>
+        <v>216032458</v>
       </c>
       <c r="F20" t="n">
-        <v>53758.7424141934</v>
+        <v>56054.28182337603</v>
       </c>
       <c r="G20" t="n">
-        <v>112592.7787866235</v>
+        <v>111818.4479771947</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>86045710</v>
+        <v>88877385</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27481713</v>
+        <v>27121838</v>
       </c>
       <c r="E21" t="n">
-        <v>100527803</v>
+        <v>99211384</v>
       </c>
       <c r="F21" t="n">
-        <v>44028.14610072055</v>
+        <v>45148.86275366804</v>
       </c>
       <c r="G21" t="n">
-        <v>64363.16806548017</v>
+        <v>60505.27713318717</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>9297089</v>
+        <v>8452081</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29713084</v>
+        <v>29523574</v>
       </c>
       <c r="E22" t="n">
-        <v>192681443</v>
+        <v>191452521</v>
       </c>
       <c r="F22" t="n">
-        <v>6740.354644208909</v>
+        <v>2340.124904748983</v>
       </c>
       <c r="G22" t="n">
-        <v>3392.178843803264</v>
+        <v>5154.250871994901</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>13447881</v>
+        <v>13576129</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122576682</v>
+        <v>122795383</v>
       </c>
       <c r="E23" t="n">
-        <v>2029970251</v>
+        <v>2033592123</v>
       </c>
       <c r="F23" t="n">
-        <v>362742.4749379081</v>
+        <v>354221.3263250695</v>
       </c>
       <c r="G23" t="n">
-        <v>319370.2675974152</v>
+        <v>301154.6348095479</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6025465</v>
+        <v>6830434</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4601136</v>
+        <v>2077310</v>
       </c>
       <c r="E24" t="n">
-        <v>21645339</v>
+        <v>9772386</v>
       </c>
       <c r="F24" t="n">
-        <v>1130.078721889903</v>
+        <v>330.7376167383147</v>
       </c>
       <c r="G24" t="n">
-        <v>1381.68612864093</v>
+        <v>241.7149523304721</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I24" t="n">
-        <v>760919</v>
+        <v>1128994</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12337607</v>
+        <v>12062352</v>
       </c>
       <c r="E25" t="n">
-        <v>12337607</v>
+        <v>12062352</v>
       </c>
       <c r="F25" t="n">
-        <v>14400.37570134665</v>
+        <v>13181.93955569412</v>
       </c>
       <c r="G25" t="n">
-        <v>6052.844699831932</v>
+        <v>10430.14268722996</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2139076</v>
+        <v>1989416</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>227305778</v>
+        <v>222658600</v>
       </c>
       <c r="E27" t="n">
-        <v>410568791</v>
+        <v>402174874</v>
       </c>
       <c r="F27" t="n">
-        <v>106517.022297398</v>
+        <v>108264.4905288376</v>
       </c>
       <c r="G27" t="n">
-        <v>105443.4495520029</v>
+        <v>105862.5834651473</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>16295159</v>
+        <v>16262596</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29463126</v>
+        <v>29163699</v>
       </c>
       <c r="E28" t="n">
-        <v>29463126</v>
+        <v>29163699</v>
       </c>
       <c r="F28" t="n">
-        <v>30063.06786995327</v>
+        <v>32776.31254655472</v>
       </c>
       <c r="G28" t="n">
-        <v>36023.21581113319</v>
+        <v>39464.31224828891</v>
       </c>
       <c r="H28" t="n">
         <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>4115671</v>
+        <v>4200340</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>462809765</v>
+        <v>466925304</v>
       </c>
       <c r="E29" t="n">
-        <v>1686928284</v>
+        <v>1701929305</v>
       </c>
       <c r="F29" t="n">
-        <v>40968.91804600636</v>
+        <v>44433.55778157408</v>
       </c>
       <c r="G29" t="n">
-        <v>85998.14287071774</v>
+        <v>82237.31636871447</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
-        <v>45755668</v>
+        <v>41760771</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>89403849</v>
+        <v>85653949</v>
       </c>
       <c r="E30" t="n">
-        <v>267190422</v>
+        <v>255983550</v>
       </c>
       <c r="F30" t="n">
-        <v>145260.1907303843</v>
+        <v>133243.1734526787</v>
       </c>
       <c r="G30" t="n">
-        <v>175167.5278092109</v>
+        <v>172160.769144751</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>25901312</v>
+        <v>25951007</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22034901</v>
+        <v>21921876</v>
       </c>
       <c r="F31" t="n">
-        <v>10149.46530160802</v>
+        <v>12620.06297755817</v>
       </c>
       <c r="G31" t="n">
-        <v>15863.82208056904</v>
+        <v>11751.86666737028</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3819931</v>
+        <v>3852465</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>144468895</v>
+        <v>145856908</v>
       </c>
       <c r="E32" t="n">
-        <v>523608677</v>
+        <v>528628631</v>
       </c>
       <c r="F32" t="n">
-        <v>1417.550719497979</v>
+        <v>1032.861922261289</v>
       </c>
       <c r="G32" t="n">
-        <v>15493.89769516506</v>
+        <v>6082.498569472044</v>
       </c>
       <c r="H32" t="n">
         <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>1025934</v>
+        <v>1050370</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>257252391</v>
+        <v>254658122</v>
       </c>
       <c r="E33" t="n">
-        <v>886483775</v>
+        <v>877544006</v>
       </c>
       <c r="F33" t="n">
-        <v>127016.0826211996</v>
+        <v>139846.9269171831</v>
       </c>
       <c r="G33" t="n">
-        <v>149852.4630974725</v>
+        <v>178627.8826422417</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>41517637</v>
+        <v>38609895</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79498448</v>
+        <v>78668913</v>
       </c>
       <c r="E34" t="n">
-        <v>116707831</v>
+        <v>115490031</v>
       </c>
       <c r="F34" t="n">
-        <v>44530.94159471484</v>
+        <v>42042.75536006095</v>
       </c>
       <c r="G34" t="n">
-        <v>48239.34138704946</v>
+        <v>48589.64409176839</v>
       </c>
       <c r="H34" t="n">
         <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>4671461</v>
+        <v>7518879</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2288297</v>
+        <v>2199697</v>
       </c>
       <c r="E35" t="n">
-        <v>9153187</v>
+        <v>8798787</v>
       </c>
       <c r="F35" t="n">
-        <v>32803.02157597792</v>
+        <v>42503.6960798351</v>
       </c>
       <c r="G35" t="n">
-        <v>70310.47579392682</v>
+        <v>67298.69887851505</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3295280</v>
+        <v>3972201</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>154789551</v>
+        <v>154024105</v>
       </c>
       <c r="E36" t="n">
-        <v>444283344</v>
+        <v>442086328</v>
       </c>
       <c r="F36" t="n">
-        <v>181997.9992162948</v>
+        <v>194499.5347210795</v>
       </c>
       <c r="G36" t="n">
-        <v>221170.4856844491</v>
+        <v>209591.1127648911</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>16619183</v>
+        <v>13013263</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>89347388</v>
+        <v>87704050</v>
       </c>
       <c r="E37" t="n">
-        <v>233417561</v>
+        <v>229124387</v>
       </c>
       <c r="F37" t="n">
-        <v>43453.70176638226</v>
+        <v>41508.83828379319</v>
       </c>
       <c r="G37" t="n">
-        <v>37463.76662605756</v>
+        <v>36378.02837486727</v>
       </c>
       <c r="H37" t="n">
         <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>9888653</v>
+        <v>9604047</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>255811914</v>
+        <v>251552056</v>
       </c>
       <c r="E38" t="n">
-        <v>1461782363</v>
+        <v>1437440319</v>
       </c>
       <c r="F38" t="n">
-        <v>45177.78064334508</v>
+        <v>29870.18025379206</v>
       </c>
       <c r="G38" t="n">
-        <v>76218.45019962438</v>
+        <v>79801.53678270448</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>35867201</v>
+        <v>33548400</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>266839563</v>
+        <v>247077606</v>
       </c>
       <c r="E2" t="n">
-        <v>1673313394</v>
+        <v>1549388940</v>
       </c>
       <c r="F2" t="n">
-        <v>191487.6608891831</v>
+        <v>175399.449389429</v>
       </c>
       <c r="G2" t="n">
-        <v>225177.437985634</v>
+        <v>230782.7085502075</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>71515100</v>
+        <v>106661332</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102790058</v>
+        <v>100316126</v>
       </c>
       <c r="E3" t="n">
-        <v>113810808</v>
+        <v>111071631</v>
       </c>
       <c r="F3" t="n">
-        <v>62029.95304814488</v>
+        <v>73796.13959275202</v>
       </c>
       <c r="G3" t="n">
-        <v>151790.6935881074</v>
+        <v>164394.0098435815</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I3" t="n">
-        <v>21156127</v>
+        <v>20764515</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>403474331</v>
+        <v>393014860</v>
       </c>
       <c r="E4" t="n">
-        <v>504686421</v>
+        <v>491603177</v>
       </c>
       <c r="F4" t="n">
-        <v>92225.87054099102</v>
+        <v>123726.3330859993</v>
       </c>
       <c r="G4" t="n">
-        <v>122953.1013255903</v>
+        <v>118272.5239458943</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>57641735</v>
+        <v>54937632</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>94587007</v>
+        <v>92381444</v>
       </c>
       <c r="E5" t="n">
-        <v>94587007</v>
+        <v>92381444</v>
       </c>
       <c r="F5" t="n">
-        <v>74468.35573216842</v>
+        <v>66885.87599380361</v>
       </c>
       <c r="G5" t="n">
-        <v>106251.6229412318</v>
+        <v>88420.83921363937</v>
       </c>
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>57598962</v>
+        <v>52195038</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>163263656</v>
+        <v>159747159</v>
       </c>
       <c r="E6" t="n">
-        <v>163263656</v>
+        <v>159747159</v>
       </c>
       <c r="F6" t="n">
-        <v>33456.54332151828</v>
+        <v>60711.91335358637</v>
       </c>
       <c r="G6" t="n">
-        <v>67491.41411445806</v>
+        <v>75314.96178401378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>21149356</v>
+        <v>20093747</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76787879</v>
+        <v>75954681</v>
       </c>
       <c r="E7" t="n">
-        <v>95745484</v>
+        <v>94706583</v>
       </c>
       <c r="F7" t="n">
-        <v>11525.08921503833</v>
+        <v>10022.51390883956</v>
       </c>
       <c r="G7" t="n">
-        <v>37409.13096709501</v>
+        <v>38517.96687670586</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>11657978</v>
+        <v>11496904</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55589177</v>
+        <v>54110001</v>
       </c>
       <c r="E8" t="n">
-        <v>115898970</v>
+        <v>112815006</v>
       </c>
       <c r="F8" t="n">
-        <v>39745.95335202243</v>
+        <v>48792.50765548085</v>
       </c>
       <c r="G8" t="n">
-        <v>51103.16255617618</v>
+        <v>43554.80835013467</v>
       </c>
       <c r="H8" t="n">
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>12185158</v>
+        <v>11279509</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146011503</v>
+        <v>143096107</v>
       </c>
       <c r="E9" t="n">
-        <v>146033676</v>
+        <v>143096708</v>
       </c>
       <c r="F9" t="n">
-        <v>10925.91167086568</v>
+        <v>9998.28645072389</v>
       </c>
       <c r="G9" t="n">
-        <v>25016.92304086652</v>
+        <v>20041.50334517743</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4923467</v>
+        <v>4227234</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>477039452</v>
+        <v>460920939</v>
       </c>
       <c r="E10" t="n">
-        <v>477039452</v>
+        <v>460920939</v>
       </c>
       <c r="F10" t="n">
-        <v>124376.9117625312</v>
+        <v>282627.1035315091</v>
       </c>
       <c r="G10" t="n">
-        <v>333352.0947665783</v>
+        <v>392590.4482958624</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>411834767</v>
+        <v>441325553</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68646461</v>
+        <v>68631588</v>
       </c>
       <c r="E11" t="n">
-        <v>78763071</v>
+        <v>78746005</v>
       </c>
       <c r="F11" t="n">
-        <v>12388.70316358542</v>
+        <v>13207.82654098442</v>
       </c>
       <c r="G11" t="n">
-        <v>7514.910861183562</v>
+        <v>2184.867109906549</v>
       </c>
       <c r="H11" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1494631</v>
+        <v>1575339</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>153716888</v>
+        <v>151142543</v>
       </c>
       <c r="E12" t="n">
-        <v>663527425</v>
+        <v>652415120</v>
       </c>
       <c r="F12" t="n">
-        <v>373413.9830985896</v>
+        <v>326889.1583936839</v>
       </c>
       <c r="G12" t="n">
-        <v>369050.3091893154</v>
+        <v>366528.400090097</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>70263044</v>
+        <v>59778840</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>88756358</v>
+        <v>89315137</v>
       </c>
       <c r="E13" t="n">
-        <v>88756358</v>
+        <v>89315137</v>
       </c>
       <c r="F13" t="n">
-        <v>2411.699182157191</v>
+        <v>2250.057512241481</v>
       </c>
       <c r="G13" t="n">
-        <v>6010.813469335366</v>
+        <v>6382.759596851945</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>5658859</v>
+        <v>5034303</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8385007</v>
+        <v>8026906</v>
       </c>
       <c r="E14" t="n">
-        <v>20962518</v>
+        <v>20067265</v>
       </c>
       <c r="F14" t="n">
-        <v>8700.854889824264</v>
+        <v>13274.48137331624</v>
       </c>
       <c r="G14" t="n">
-        <v>10946.68245270762</v>
+        <v>11743.11550625034</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2094131</v>
+        <v>1788595</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10366046</v>
+        <v>10279900</v>
       </c>
       <c r="E15" t="n">
-        <v>15243076</v>
+        <v>15183589</v>
       </c>
       <c r="F15" t="n">
-        <v>3289.838424775533</v>
+        <v>3356.645116275953</v>
       </c>
       <c r="G15" t="n">
-        <v>3866.840438744857</v>
+        <v>9281.813645383629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>491782</v>
+        <v>399492</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25398274</v>
+        <v>25611184</v>
       </c>
       <c r="E16" t="n">
-        <v>79082076</v>
+        <v>79745008</v>
       </c>
       <c r="F16" t="n">
-        <v>6886.630126217965</v>
+        <v>6212.859360460165</v>
       </c>
       <c r="G16" t="n">
-        <v>18270.97610097599</v>
+        <v>12403.11342932756</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>9423931</v>
+        <v>8576596</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>195563725</v>
+        <v>187367616</v>
       </c>
       <c r="E17" t="n">
-        <v>1759412533</v>
+        <v>1685675253</v>
       </c>
       <c r="F17" t="n">
-        <v>6577.855791434978</v>
+        <v>6583.773873926313</v>
       </c>
       <c r="G17" t="n">
-        <v>9967.839472293421</v>
+        <v>7043.326966330624</v>
       </c>
       <c r="H17" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>45743532</v>
+        <v>31786147</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform, Action Games</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Shooting Games, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13637935</v>
+        <v>13339504</v>
       </c>
       <c r="E18" t="n">
-        <v>83591386</v>
+        <v>81762209</v>
       </c>
       <c r="F18" t="n">
-        <v>20865.89135187834</v>
+        <v>23412.33601417271</v>
       </c>
       <c r="G18" t="n">
-        <v>33756.85886169694</v>
+        <v>138253.369941369</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11682160</v>
+        <v>10896097</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44740785</v>
+        <v>44332827</v>
       </c>
       <c r="E19" t="n">
-        <v>192738410</v>
+        <v>190980973</v>
       </c>
       <c r="F19" t="n">
-        <v>64854.51197439595</v>
+        <v>54920.04860158121</v>
       </c>
       <c r="G19" t="n">
-        <v>77744.42430783364</v>
+        <v>63981.14003244059</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>14756803</v>
+        <v>15574986</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>216032458</v>
+        <v>208364691</v>
       </c>
       <c r="E20" t="n">
-        <v>216032458</v>
+        <v>208364691</v>
       </c>
       <c r="F20" t="n">
-        <v>56054.28182337603</v>
+        <v>65139.88268521462</v>
       </c>
       <c r="G20" t="n">
-        <v>111818.4479771947</v>
+        <v>110210.4033683023</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>88877385</v>
+        <v>74737041</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27121838</v>
+        <v>26200390</v>
       </c>
       <c r="E21" t="n">
-        <v>99211384</v>
+        <v>95840737</v>
       </c>
       <c r="F21" t="n">
-        <v>45148.86275366804</v>
+        <v>43604.87897265086</v>
       </c>
       <c r="G21" t="n">
-        <v>60505.27713318717</v>
+        <v>58285.83191631349</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I21" t="n">
-        <v>8452081</v>
+        <v>8114932</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29523574</v>
+        <v>29048862</v>
       </c>
       <c r="E22" t="n">
-        <v>191452521</v>
+        <v>188374137</v>
       </c>
       <c r="F22" t="n">
-        <v>2340.124904748983</v>
+        <v>5781.007603047488</v>
       </c>
       <c r="G22" t="n">
-        <v>5154.250871994901</v>
+        <v>4460.354401090713</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>13576129</v>
+        <v>14103401</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122795383</v>
+        <v>122378465</v>
       </c>
       <c r="E23" t="n">
-        <v>2033592123</v>
+        <v>2026687608</v>
       </c>
       <c r="F23" t="n">
-        <v>354221.3263250695</v>
+        <v>365786.4999964</v>
       </c>
       <c r="G23" t="n">
-        <v>301154.6348095479</v>
+        <v>312140.6635240224</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6830434</v>
+        <v>6446828</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2077310</v>
+        <v>1541043</v>
       </c>
       <c r="E24" t="n">
-        <v>9772386</v>
+        <v>7249602</v>
       </c>
       <c r="F24" t="n">
-        <v>330.7376167383147</v>
+        <v>270.864708341022</v>
       </c>
       <c r="G24" t="n">
-        <v>241.7149523304721</v>
+        <v>198.543501216056</v>
       </c>
       <c r="H24" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="I24" t="n">
-        <v>1128994</v>
+        <v>1711689</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12062352</v>
+        <v>11928500</v>
       </c>
       <c r="E25" t="n">
-        <v>12062352</v>
+        <v>11928500</v>
       </c>
       <c r="F25" t="n">
-        <v>13181.93955569412</v>
+        <v>16207.28986879148</v>
       </c>
       <c r="G25" t="n">
-        <v>10430.14268722996</v>
+        <v>5706.378622680329</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>1989416</v>
+        <v>1578552</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>222658600</v>
+        <v>217953030</v>
       </c>
       <c r="E27" t="n">
-        <v>402174874</v>
+        <v>393675484</v>
       </c>
       <c r="F27" t="n">
-        <v>108264.4905288376</v>
+        <v>65982.96577503577</v>
       </c>
       <c r="G27" t="n">
-        <v>105862.5834651473</v>
+        <v>100742.0258642104</v>
       </c>
       <c r="H27" t="n">
         <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>16262596</v>
+        <v>15421158</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29163699</v>
+        <v>28625411</v>
       </c>
       <c r="E28" t="n">
-        <v>29163699</v>
+        <v>28625411</v>
       </c>
       <c r="F28" t="n">
-        <v>32776.31254655472</v>
+        <v>31024.23940605795</v>
       </c>
       <c r="G28" t="n">
-        <v>39464.31224828891</v>
+        <v>35680.78932846543</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>4200340</v>
+        <v>4053488</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>466925304</v>
+        <v>456817069</v>
       </c>
       <c r="E29" t="n">
-        <v>1701929305</v>
+        <v>1665085081</v>
       </c>
       <c r="F29" t="n">
-        <v>44433.55778157408</v>
+        <v>68620.9630799248</v>
       </c>
       <c r="G29" t="n">
-        <v>82237.31636871447</v>
+        <v>93092.45715984463</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>41760771</v>
+        <v>36246162</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>85653949</v>
+        <v>83847674</v>
       </c>
       <c r="E30" t="n">
-        <v>255983550</v>
+        <v>250585357</v>
       </c>
       <c r="F30" t="n">
-        <v>133243.1734526787</v>
+        <v>145967.3642453213</v>
       </c>
       <c r="G30" t="n">
-        <v>172160.769144751</v>
+        <v>168579.9276022903</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>25951007</v>
+        <v>23299094</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21921876</v>
+        <v>21484717</v>
       </c>
       <c r="F31" t="n">
-        <v>12620.06297755817</v>
+        <v>5812.267893415237</v>
       </c>
       <c r="G31" t="n">
-        <v>11751.86666737028</v>
+        <v>11507.77097202389</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3852465</v>
+        <v>3269962</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>145856908</v>
+        <v>160633376</v>
       </c>
       <c r="E32" t="n">
-        <v>528628631</v>
+        <v>581443768</v>
       </c>
       <c r="F32" t="n">
-        <v>1032.861922261289</v>
+        <v>1224.520301851383</v>
       </c>
       <c r="G32" t="n">
-        <v>6082.498569472044</v>
+        <v>647.7184961873445</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>1050370</v>
+        <v>2054967</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>254658122</v>
+        <v>245752143</v>
       </c>
       <c r="E33" t="n">
-        <v>877544006</v>
+        <v>846854277</v>
       </c>
       <c r="F33" t="n">
-        <v>139846.9269171831</v>
+        <v>121604.5500449047</v>
       </c>
       <c r="G33" t="n">
-        <v>178627.8826422417</v>
+        <v>148929.8203787651</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>38609895</v>
+        <v>32067232</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>78668913</v>
+        <v>77532528</v>
       </c>
       <c r="E34" t="n">
-        <v>115490031</v>
+        <v>113821758</v>
       </c>
       <c r="F34" t="n">
-        <v>42042.75536006095</v>
+        <v>44086.89369572656</v>
       </c>
       <c r="G34" t="n">
-        <v>48589.64409176839</v>
+        <v>48815.02344119998</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="I34" t="n">
-        <v>7518879</v>
+        <v>10316992</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2199697</v>
+        <v>2183467</v>
       </c>
       <c r="E35" t="n">
-        <v>8798787</v>
+        <v>8733866</v>
       </c>
       <c r="F35" t="n">
-        <v>42503.6960798351</v>
+        <v>33323.08379806206</v>
       </c>
       <c r="G35" t="n">
-        <v>67298.69887851505</v>
+        <v>71548.07616557427</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I35" t="n">
-        <v>3972201</v>
+        <v>5464036</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>154024105</v>
+        <v>150589944</v>
       </c>
       <c r="E36" t="n">
-        <v>442086328</v>
+        <v>432229460</v>
       </c>
       <c r="F36" t="n">
-        <v>194499.5347210795</v>
+        <v>190126.6893499553</v>
       </c>
       <c r="G36" t="n">
-        <v>209591.1127648911</v>
+        <v>238828.5593697123</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>13013263</v>
+        <v>14497795</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87704050</v>
+        <v>85392179</v>
       </c>
       <c r="E37" t="n">
-        <v>229124387</v>
+        <v>223084688</v>
       </c>
       <c r="F37" t="n">
-        <v>41508.83828379319</v>
+        <v>41102.71642336966</v>
       </c>
       <c r="G37" t="n">
-        <v>36378.02837486727</v>
+        <v>37457.09383626605</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>9604047</v>
+        <v>8272548</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>251552056</v>
+        <v>245951383</v>
       </c>
       <c r="E38" t="n">
-        <v>1437440319</v>
+        <v>1405436473</v>
       </c>
       <c r="F38" t="n">
-        <v>29870.18025379206</v>
+        <v>17276.4978722983</v>
       </c>
       <c r="G38" t="n">
-        <v>79801.53678270448</v>
+        <v>67888.20859633574</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>33548400</v>
+        <v>31181184</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>247077606</v>
+        <v>240291499</v>
       </c>
       <c r="E2" t="n">
-        <v>1549388940</v>
+        <v>1506834212</v>
       </c>
       <c r="F2" t="n">
-        <v>175399.449389429</v>
+        <v>190080.2278819352</v>
       </c>
       <c r="G2" t="n">
-        <v>230782.7085502075</v>
+        <v>276948.2956300813</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>106661332</v>
+        <v>76903017</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100316126</v>
+        <v>103017188</v>
       </c>
       <c r="E3" t="n">
-        <v>111071631</v>
+        <v>114062291</v>
       </c>
       <c r="F3" t="n">
-        <v>73796.13959275202</v>
+        <v>74249.43126732661</v>
       </c>
       <c r="G3" t="n">
-        <v>164394.0098435815</v>
+        <v>153977.5191544606</v>
       </c>
       <c r="H3" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>20764515</v>
+        <v>22413490</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>393014860</v>
+        <v>409093434</v>
       </c>
       <c r="E4" t="n">
-        <v>491603177</v>
+        <v>511715084</v>
       </c>
       <c r="F4" t="n">
-        <v>123726.3330859993</v>
+        <v>66461.10791165382</v>
       </c>
       <c r="G4" t="n">
-        <v>118272.5239458943</v>
+        <v>128559.8682026745</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>54937632</v>
+        <v>58066373</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92381444</v>
+        <v>94150659</v>
       </c>
       <c r="E5" t="n">
-        <v>92381444</v>
+        <v>94150659</v>
       </c>
       <c r="F5" t="n">
-        <v>66885.87599380361</v>
+        <v>79202.99557577081</v>
       </c>
       <c r="G5" t="n">
-        <v>88420.83921363937</v>
+        <v>89933.51191029094</v>
       </c>
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>52195038</v>
+        <v>52089165</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>159747159</v>
+        <v>162612782</v>
       </c>
       <c r="E6" t="n">
-        <v>159747159</v>
+        <v>162612782</v>
       </c>
       <c r="F6" t="n">
-        <v>60711.91335358637</v>
+        <v>60326.7495118741</v>
       </c>
       <c r="G6" t="n">
-        <v>75314.96178401378</v>
+        <v>84668.27358002911</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>20093747</v>
+        <v>20474195</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75954681</v>
+        <v>77232012</v>
       </c>
       <c r="E7" t="n">
-        <v>94706583</v>
+        <v>96299266</v>
       </c>
       <c r="F7" t="n">
-        <v>10022.51390883956</v>
+        <v>9181.358723664263</v>
       </c>
       <c r="G7" t="n">
-        <v>38517.96687670586</v>
+        <v>32142.36693232165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>11496904</v>
+        <v>10334699</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54110001</v>
+        <v>55476266</v>
       </c>
       <c r="E8" t="n">
-        <v>112815006</v>
+        <v>115663559</v>
       </c>
       <c r="F8" t="n">
-        <v>48792.50765548085</v>
+        <v>39580.64538523746</v>
       </c>
       <c r="G8" t="n">
-        <v>43554.80835013467</v>
+        <v>43513.55029411642</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>11279509</v>
+        <v>10665011</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143096107</v>
+        <v>143228320</v>
       </c>
       <c r="E9" t="n">
-        <v>143096708</v>
+        <v>143234855</v>
       </c>
       <c r="F9" t="n">
-        <v>9998.28645072389</v>
+        <v>10614.91061247037</v>
       </c>
       <c r="G9" t="n">
-        <v>20041.50334517743</v>
+        <v>23242.43624261235</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I9" t="n">
-        <v>4227234</v>
+        <v>4198150</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>460920939</v>
+        <v>483026959</v>
       </c>
       <c r="E10" t="n">
-        <v>460920939</v>
+        <v>483026959</v>
       </c>
       <c r="F10" t="n">
-        <v>282627.1035315091</v>
+        <v>168626.3406630829</v>
       </c>
       <c r="G10" t="n">
-        <v>392590.4482958624</v>
+        <v>355471.3525048418</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>441325553</v>
+        <v>411394144</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68631588</v>
+        <v>69502422</v>
       </c>
       <c r="E11" t="n">
-        <v>78746005</v>
+        <v>79745176</v>
       </c>
       <c r="F11" t="n">
-        <v>13207.82654098442</v>
+        <v>5807.748816013907</v>
       </c>
       <c r="G11" t="n">
-        <v>2184.867109906549</v>
+        <v>6214.472232969203</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>1575339</v>
+        <v>2088878</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>151142543</v>
+        <v>155972099</v>
       </c>
       <c r="E12" t="n">
-        <v>652415120</v>
+        <v>673262164</v>
       </c>
       <c r="F12" t="n">
-        <v>326889.1583936839</v>
+        <v>344858.7365366108</v>
       </c>
       <c r="G12" t="n">
-        <v>366528.400090097</v>
+        <v>353281.50301829</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>59778840</v>
+        <v>61955124</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>89315137</v>
+        <v>90623901</v>
       </c>
       <c r="E13" t="n">
-        <v>89315137</v>
+        <v>90623901</v>
       </c>
       <c r="F13" t="n">
-        <v>2250.057512241481</v>
+        <v>1984.582789977453</v>
       </c>
       <c r="G13" t="n">
-        <v>6382.759596851945</v>
+        <v>3491.412325415943</v>
       </c>
       <c r="H13" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>5034303</v>
+        <v>5101057</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8026906</v>
+        <v>8120750</v>
       </c>
       <c r="E14" t="n">
-        <v>20067265</v>
+        <v>20301875</v>
       </c>
       <c r="F14" t="n">
-        <v>13274.48137331624</v>
+        <v>7106.816364489947</v>
       </c>
       <c r="G14" t="n">
-        <v>11743.11550625034</v>
+        <v>9129.4653969302</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1788595</v>
+        <v>1775724</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10279900</v>
+        <v>10327206</v>
       </c>
       <c r="E15" t="n">
-        <v>15183589</v>
+        <v>15253460</v>
       </c>
       <c r="F15" t="n">
-        <v>3356.645116275953</v>
+        <v>5660.247019130196</v>
       </c>
       <c r="G15" t="n">
-        <v>9281.813645383629</v>
+        <v>3559.790248216843</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>399492</v>
+        <v>383217</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25611184</v>
+        <v>25843380</v>
       </c>
       <c r="E16" t="n">
-        <v>79745008</v>
+        <v>80467993</v>
       </c>
       <c r="F16" t="n">
-        <v>6212.859360460165</v>
+        <v>6833.087401183207</v>
       </c>
       <c r="G16" t="n">
-        <v>12403.11342932756</v>
+        <v>13133.59656860066</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>8576596</v>
+        <v>8538557</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>187367616</v>
+        <v>190240995</v>
       </c>
       <c r="E17" t="n">
-        <v>1685675253</v>
+        <v>1711525958</v>
       </c>
       <c r="F17" t="n">
-        <v>6583.773873926313</v>
+        <v>6827.906056976341</v>
       </c>
       <c r="G17" t="n">
-        <v>7043.326966330624</v>
+        <v>7057.154058787197</v>
       </c>
       <c r="H17" t="n">
         <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>31786147</v>
+        <v>32252279</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13339504</v>
+        <v>13419166</v>
       </c>
       <c r="E18" t="n">
-        <v>81762209</v>
+        <v>82250481</v>
       </c>
       <c r="F18" t="n">
-        <v>23412.33601417271</v>
+        <v>25385.37423054883</v>
       </c>
       <c r="G18" t="n">
-        <v>138253.369941369</v>
+        <v>35635.13813528477</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>10896097</v>
+        <v>10059230</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44332827</v>
+        <v>46815793</v>
       </c>
       <c r="E19" t="n">
-        <v>190980973</v>
+        <v>201677319</v>
       </c>
       <c r="F19" t="n">
-        <v>54920.04860158121</v>
+        <v>63049.45880372512</v>
       </c>
       <c r="G19" t="n">
-        <v>63981.14003244059</v>
+        <v>67519.67728895952</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>15574986</v>
+        <v>17750256</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>208364691</v>
+        <v>210587948</v>
       </c>
       <c r="E20" t="n">
-        <v>208364691</v>
+        <v>210587948</v>
       </c>
       <c r="F20" t="n">
-        <v>65139.88268521462</v>
+        <v>50808.56458859333</v>
       </c>
       <c r="G20" t="n">
-        <v>110210.4033683023</v>
+        <v>107729.5352170695</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>74737041</v>
+        <v>75709082</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26200390</v>
+        <v>27144379</v>
       </c>
       <c r="E21" t="n">
-        <v>95840737</v>
+        <v>99293839</v>
       </c>
       <c r="F21" t="n">
-        <v>43604.87897265086</v>
+        <v>45342.24516681906</v>
       </c>
       <c r="G21" t="n">
-        <v>58285.83191631349</v>
+        <v>57898.33019572797</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8114932</v>
+        <v>9209183</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29048862</v>
+        <v>29399013</v>
       </c>
       <c r="E22" t="n">
-        <v>188374137</v>
+        <v>190644773</v>
       </c>
       <c r="F22" t="n">
-        <v>5781.007603047488</v>
+        <v>5612.722580171504</v>
       </c>
       <c r="G22" t="n">
-        <v>4460.354401090713</v>
+        <v>2977.344973318516</v>
       </c>
       <c r="H22" t="n">
         <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>14103401</v>
+        <v>15264816</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122378465</v>
+        <v>123151768</v>
       </c>
       <c r="E23" t="n">
-        <v>2026687608</v>
+        <v>2039494148</v>
       </c>
       <c r="F23" t="n">
-        <v>365786.4999964</v>
+        <v>346298.3100093307</v>
       </c>
       <c r="G23" t="n">
-        <v>312140.6635240224</v>
+        <v>316745.806415933</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6446828</v>
+        <v>6274107</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1541043</v>
+        <v>1420517</v>
       </c>
       <c r="E24" t="n">
-        <v>7249602</v>
+        <v>6682602</v>
       </c>
       <c r="F24" t="n">
-        <v>270.864708341022</v>
+        <v>245.5421129878264</v>
       </c>
       <c r="G24" t="n">
-        <v>198.543501216056</v>
+        <v>451.6699685132392</v>
       </c>
       <c r="H24" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>1711689</v>
+        <v>2355302</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11928500</v>
+        <v>11907073</v>
       </c>
       <c r="E25" t="n">
-        <v>11928500</v>
+        <v>11907073</v>
       </c>
       <c r="F25" t="n">
-        <v>16207.28986879148</v>
+        <v>15851.77561976518</v>
       </c>
       <c r="G25" t="n">
-        <v>5706.378622680329</v>
+        <v>10188.45167887576</v>
       </c>
       <c r="H25" t="n">
         <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>1578552</v>
+        <v>1547839</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>217953030</v>
+        <v>223941428</v>
       </c>
       <c r="E27" t="n">
-        <v>393675484</v>
+        <v>404491967</v>
       </c>
       <c r="F27" t="n">
-        <v>65982.96577503577</v>
+        <v>104977.6317798981</v>
       </c>
       <c r="G27" t="n">
-        <v>100742.0258642104</v>
+        <v>105881.6709976476</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>15421158</v>
+        <v>14928037</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28625411</v>
+        <v>29068292</v>
       </c>
       <c r="E28" t="n">
-        <v>28625411</v>
+        <v>29068292</v>
       </c>
       <c r="F28" t="n">
-        <v>31024.23940605795</v>
+        <v>25353.55593298519</v>
       </c>
       <c r="G28" t="n">
-        <v>35680.78932846543</v>
+        <v>37907.52921268273</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>4053488</v>
+        <v>4339573</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>456817069</v>
+        <v>469595050</v>
       </c>
       <c r="E29" t="n">
-        <v>1665085081</v>
+        <v>1711660454</v>
       </c>
       <c r="F29" t="n">
-        <v>68620.9630799248</v>
+        <v>55995.39610877151</v>
       </c>
       <c r="G29" t="n">
-        <v>93092.45715984463</v>
+        <v>91032.3590548174</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>36246162</v>
+        <v>37024918</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>83847674</v>
+        <v>84151085</v>
       </c>
       <c r="E30" t="n">
-        <v>250585357</v>
+        <v>251492124</v>
       </c>
       <c r="F30" t="n">
-        <v>145967.3642453213</v>
+        <v>141363.8019616952</v>
       </c>
       <c r="G30" t="n">
-        <v>168579.9276022903</v>
+        <v>173826.6545445817</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>23299094</v>
+        <v>17785323</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21484717</v>
+        <v>22604147</v>
       </c>
       <c r="F31" t="n">
-        <v>5812.267893415237</v>
+        <v>3368.945867791995</v>
       </c>
       <c r="G31" t="n">
-        <v>11507.77097202389</v>
+        <v>5751.57255598374</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>3269962</v>
+        <v>3332200</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>160633376</v>
+        <v>180678590</v>
       </c>
       <c r="E32" t="n">
-        <v>581443768</v>
+        <v>653975182</v>
       </c>
       <c r="F32" t="n">
-        <v>1224.520301851383</v>
+        <v>1183.931757880914</v>
       </c>
       <c r="G32" t="n">
-        <v>647.7184961873445</v>
+        <v>1169.714384719011</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2054967</v>
+        <v>2540162</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>245752143</v>
+        <v>247296137</v>
       </c>
       <c r="E33" t="n">
-        <v>846854277</v>
+        <v>851747264</v>
       </c>
       <c r="F33" t="n">
-        <v>121604.5500449047</v>
+        <v>144410.2195763091</v>
       </c>
       <c r="G33" t="n">
-        <v>148929.8203787651</v>
+        <v>178312.816035816</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>32067232</v>
+        <v>28969508</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>77532528</v>
+        <v>80040211</v>
       </c>
       <c r="E34" t="n">
-        <v>113821758</v>
+        <v>117502772</v>
       </c>
       <c r="F34" t="n">
-        <v>44086.89369572656</v>
+        <v>41690.47971376331</v>
       </c>
       <c r="G34" t="n">
-        <v>48815.02344119998</v>
+        <v>46255.11880074577</v>
       </c>
       <c r="H34" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>10316992</v>
+        <v>12459491</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2183467</v>
+        <v>2168339</v>
       </c>
       <c r="E35" t="n">
-        <v>8733866</v>
+        <v>8673357</v>
       </c>
       <c r="F35" t="n">
-        <v>33323.08379806206</v>
+        <v>32365.25235491074</v>
       </c>
       <c r="G35" t="n">
-        <v>71548.07616557427</v>
+        <v>63850.99782060691</v>
       </c>
       <c r="H35" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>5464036</v>
+        <v>7348982</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>150589944</v>
+        <v>152709169</v>
       </c>
       <c r="E36" t="n">
-        <v>432229460</v>
+        <v>438312144</v>
       </c>
       <c r="F36" t="n">
-        <v>190126.6893499553</v>
+        <v>182855.4233624184</v>
       </c>
       <c r="G36" t="n">
-        <v>238828.5593697123</v>
+        <v>211282.7025522691</v>
       </c>
       <c r="H36" t="n">
         <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>14497795</v>
+        <v>15227413</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>85392179</v>
+        <v>88074135</v>
       </c>
       <c r="E37" t="n">
-        <v>223084688</v>
+        <v>230091224</v>
       </c>
       <c r="F37" t="n">
-        <v>41102.71642336966</v>
+        <v>36742.61345347907</v>
       </c>
       <c r="G37" t="n">
-        <v>37457.09383626605</v>
+        <v>35174.80298340999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>8272548</v>
+        <v>7316267</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>245951383</v>
+        <v>249839329</v>
       </c>
       <c r="E38" t="n">
-        <v>1405436473</v>
+        <v>1427653311</v>
       </c>
       <c r="F38" t="n">
-        <v>17276.4978722983</v>
+        <v>22133.07982632519</v>
       </c>
       <c r="G38" t="n">
-        <v>67888.20859633574</v>
+        <v>69675.35827973095</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>31181184</v>
+        <v>36015462</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>240291499</v>
+        <v>286150794</v>
       </c>
       <c r="E2" t="n">
-        <v>1506834212</v>
+        <v>1521438463</v>
       </c>
       <c r="F2" t="n">
-        <v>190080.2278819352</v>
+        <v>196692.456968771</v>
       </c>
       <c r="G2" t="n">
-        <v>276948.2956300813</v>
+        <v>241453.2056576882</v>
       </c>
       <c r="H2" t="n">
         <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>76903017</v>
+        <v>58153316</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103017188</v>
+        <v>104611070</v>
       </c>
       <c r="E3" t="n">
-        <v>114062291</v>
+        <v>115827062</v>
       </c>
       <c r="F3" t="n">
-        <v>74249.43126732661</v>
+        <v>72630.2194756727</v>
       </c>
       <c r="G3" t="n">
-        <v>153977.5191544606</v>
+        <v>171328.1041902861</v>
       </c>
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>22413490</v>
+        <v>22719087</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>409093434</v>
+        <v>418979376</v>
       </c>
       <c r="E4" t="n">
-        <v>511715084</v>
+        <v>524080928</v>
       </c>
       <c r="F4" t="n">
-        <v>66461.10791165382</v>
+        <v>91215.84977264321</v>
       </c>
       <c r="G4" t="n">
-        <v>128559.8682026745</v>
+        <v>120888.9095810329</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>58066373</v>
+        <v>61017632</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>94150659</v>
+        <v>96442011</v>
       </c>
       <c r="E5" t="n">
-        <v>94150659</v>
+        <v>96442011</v>
       </c>
       <c r="F5" t="n">
-        <v>79202.99557577081</v>
+        <v>65411.72043719787</v>
       </c>
       <c r="G5" t="n">
-        <v>89933.51191029094</v>
+        <v>108010.5915942717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>52089165</v>
+        <v>50855913</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>162612782</v>
+        <v>166362677</v>
       </c>
       <c r="E6" t="n">
-        <v>162612782</v>
+        <v>166362677</v>
       </c>
       <c r="F6" t="n">
-        <v>60326.7495118741</v>
+        <v>60286.14821952871</v>
       </c>
       <c r="G6" t="n">
-        <v>84668.27358002911</v>
+        <v>93480.03029049837</v>
       </c>
       <c r="H6" t="n">
         <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>20474195</v>
+        <v>15534931</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77232012</v>
+        <v>78676635</v>
       </c>
       <c r="E7" t="n">
-        <v>96299266</v>
+        <v>98100541</v>
       </c>
       <c r="F7" t="n">
-        <v>9181.358723664263</v>
+        <v>9597.56149285213</v>
       </c>
       <c r="G7" t="n">
-        <v>32142.36693232165</v>
+        <v>38368.9426478141</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>10334699</v>
+        <v>9985369</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55476266</v>
+        <v>56462071</v>
       </c>
       <c r="E8" t="n">
-        <v>115663559</v>
+        <v>117718882</v>
       </c>
       <c r="F8" t="n">
-        <v>39580.64538523746</v>
+        <v>38774.84681018042</v>
       </c>
       <c r="G8" t="n">
-        <v>43513.55029411642</v>
+        <v>50665.54926713618</v>
       </c>
       <c r="H8" t="n">
         <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>10665011</v>
+        <v>11276479</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143228320</v>
+        <v>144794677</v>
       </c>
       <c r="E9" t="n">
-        <v>143234855</v>
+        <v>144804989</v>
       </c>
       <c r="F9" t="n">
-        <v>10614.91061247037</v>
+        <v>16229.34743561811</v>
       </c>
       <c r="G9" t="n">
-        <v>23242.43624261235</v>
+        <v>21443.23777829033</v>
       </c>
       <c r="H9" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>4198150</v>
+        <v>4193191</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>483026959</v>
+        <v>492819980</v>
       </c>
       <c r="E10" t="n">
-        <v>483026959</v>
+        <v>492819980</v>
       </c>
       <c r="F10" t="n">
-        <v>168626.3406630829</v>
+        <v>175826.7206910451</v>
       </c>
       <c r="G10" t="n">
-        <v>355471.3525048418</v>
+        <v>379202.3527224647</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>411394144</v>
+        <v>353121814</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69502422</v>
+        <v>70513585</v>
       </c>
       <c r="E11" t="n">
-        <v>79745176</v>
+        <v>80905357</v>
       </c>
       <c r="F11" t="n">
-        <v>5807.748816013907</v>
+        <v>3066.493195802634</v>
       </c>
       <c r="G11" t="n">
-        <v>6214.472232969203</v>
+        <v>7625.925278545314</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>2088878</v>
+        <v>2248788</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>155972099</v>
+        <v>159410719</v>
       </c>
       <c r="E12" t="n">
-        <v>673262164</v>
+        <v>688105158</v>
       </c>
       <c r="F12" t="n">
-        <v>344858.7365366108</v>
+        <v>363306.3345074077</v>
       </c>
       <c r="G12" t="n">
-        <v>353281.50301829</v>
+        <v>369572.7625443781</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>61955124</v>
+        <v>61225831</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90623901</v>
+        <v>91605751</v>
       </c>
       <c r="E13" t="n">
-        <v>90623901</v>
+        <v>91605751</v>
       </c>
       <c r="F13" t="n">
-        <v>1984.582789977453</v>
+        <v>2486.857240077921</v>
       </c>
       <c r="G13" t="n">
-        <v>3491.412325415943</v>
+        <v>2641.04614276882</v>
       </c>
       <c r="H13" t="n">
         <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>5101057</v>
+        <v>5114626</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8120750</v>
+        <v>8326881</v>
       </c>
       <c r="E14" t="n">
-        <v>20301875</v>
+        <v>20817203</v>
       </c>
       <c r="F14" t="n">
-        <v>7106.816364489947</v>
+        <v>10524.50506805337</v>
       </c>
       <c r="G14" t="n">
-        <v>9129.4653969302</v>
+        <v>8898.53818093528</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>1775724</v>
+        <v>1708936</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10327206</v>
+        <v>10384975</v>
       </c>
       <c r="E15" t="n">
-        <v>15253460</v>
+        <v>15338787</v>
       </c>
       <c r="F15" t="n">
-        <v>5660.247019130196</v>
+        <v>5709.246802666775</v>
       </c>
       <c r="G15" t="n">
-        <v>3559.790248216843</v>
+        <v>3331.852336528713</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>383217</v>
+        <v>374626</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25843380</v>
+        <v>26432054</v>
       </c>
       <c r="E16" t="n">
-        <v>80467993</v>
+        <v>82300936</v>
       </c>
       <c r="F16" t="n">
-        <v>6833.087401183207</v>
+        <v>14045.82235019711</v>
       </c>
       <c r="G16" t="n">
-        <v>13133.59656860066</v>
+        <v>10808.12218155297</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>8538557</v>
+        <v>9170634</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>190240995</v>
+        <v>197121911</v>
       </c>
       <c r="E17" t="n">
-        <v>1711525958</v>
+        <v>1773430947</v>
       </c>
       <c r="F17" t="n">
-        <v>6827.906056976341</v>
+        <v>6829.601284884287</v>
       </c>
       <c r="G17" t="n">
-        <v>7057.154058787197</v>
+        <v>7060.264210602267</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>32252279</v>
+        <v>30530136</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13419166</v>
+        <v>13428884</v>
       </c>
       <c r="E18" t="n">
-        <v>82250481</v>
+        <v>82310045</v>
       </c>
       <c r="F18" t="n">
-        <v>25385.37423054883</v>
+        <v>71715.2840498212</v>
       </c>
       <c r="G18" t="n">
-        <v>35635.13813528477</v>
+        <v>40020.60806751691</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>10059230</v>
+        <v>10500927</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46815793</v>
+        <v>47494474</v>
       </c>
       <c r="E19" t="n">
-        <v>201677319</v>
+        <v>204601002</v>
       </c>
       <c r="F19" t="n">
-        <v>63049.45880372512</v>
+        <v>50242.16854831674</v>
       </c>
       <c r="G19" t="n">
-        <v>67519.67728895952</v>
+        <v>97471.16899458662</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>17750256</v>
+        <v>15751031</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>210587948</v>
+        <v>211389551</v>
       </c>
       <c r="E20" t="n">
-        <v>210587948</v>
+        <v>211389551</v>
       </c>
       <c r="F20" t="n">
-        <v>50808.56458859333</v>
+        <v>64586.92470026153</v>
       </c>
       <c r="G20" t="n">
-        <v>107729.5352170695</v>
+        <v>110539.1307696273</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>75709082</v>
+        <v>56575074</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27144379</v>
+        <v>27550159</v>
       </c>
       <c r="E21" t="n">
-        <v>99293839</v>
+        <v>100778179</v>
       </c>
       <c r="F21" t="n">
-        <v>45342.24516681906</v>
+        <v>42283.36373089963</v>
       </c>
       <c r="G21" t="n">
-        <v>57898.33019572797</v>
+        <v>66787.28002044543</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>9209183</v>
+        <v>9232448</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29399013</v>
+        <v>29846109</v>
       </c>
       <c r="E22" t="n">
-        <v>190644773</v>
+        <v>193544076</v>
       </c>
       <c r="F22" t="n">
-        <v>5612.722580171504</v>
+        <v>2875.157679700818</v>
       </c>
       <c r="G22" t="n">
-        <v>2977.344973318516</v>
+        <v>4504.883459560513</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>15264816</v>
+        <v>14160269</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123151768</v>
+        <v>123528326</v>
       </c>
       <c r="E23" t="n">
-        <v>2039494148</v>
+        <v>2045730258</v>
       </c>
       <c r="F23" t="n">
-        <v>346298.3100093307</v>
+        <v>353369.0414910463</v>
       </c>
       <c r="G23" t="n">
-        <v>316745.806415933</v>
+        <v>316882.2592588984</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6274107</v>
+        <v>5394469</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1420517</v>
+        <v>1400129</v>
       </c>
       <c r="E24" t="n">
-        <v>6682602</v>
+        <v>6586692</v>
       </c>
       <c r="F24" t="n">
-        <v>245.5421129878264</v>
+        <v>602.2047197804534</v>
       </c>
       <c r="G24" t="n">
-        <v>451.6699685132392</v>
+        <v>349.8827414595839</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2355302</v>
+        <v>1975912</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11907073</v>
+        <v>12446407</v>
       </c>
       <c r="E25" t="n">
-        <v>11907073</v>
+        <v>12446407</v>
       </c>
       <c r="F25" t="n">
-        <v>15851.77561976518</v>
+        <v>18672.23941678103</v>
       </c>
       <c r="G25" t="n">
-        <v>10188.45167887576</v>
+        <v>3901.399435164637</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>1547839</v>
+        <v>1630675</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>223941428</v>
+        <v>228599222</v>
       </c>
       <c r="E27" t="n">
-        <v>404491967</v>
+        <v>412905062</v>
       </c>
       <c r="F27" t="n">
-        <v>104977.6317798981</v>
+        <v>109423.1590100199</v>
       </c>
       <c r="G27" t="n">
-        <v>105881.6709976476</v>
+        <v>115301.7006466991</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>14928037</v>
+        <v>14483920</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29068292</v>
+        <v>29398859</v>
       </c>
       <c r="E28" t="n">
-        <v>29068292</v>
+        <v>29398859</v>
       </c>
       <c r="F28" t="n">
-        <v>25353.55593298519</v>
+        <v>28327.1918557218</v>
       </c>
       <c r="G28" t="n">
-        <v>37907.52921268273</v>
+        <v>41834.1606064028</v>
       </c>
       <c r="H28" t="n">
         <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>4339573</v>
+        <v>4293464</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>469595050</v>
+        <v>484012257</v>
       </c>
       <c r="E29" t="n">
-        <v>1711660454</v>
+        <v>1764210757</v>
       </c>
       <c r="F29" t="n">
-        <v>55995.39610877151</v>
+        <v>46737.27444832155</v>
       </c>
       <c r="G29" t="n">
-        <v>91032.3590548174</v>
+        <v>106683.3067295102</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>37024918</v>
+        <v>34807809</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>84151085</v>
+        <v>85030325</v>
       </c>
       <c r="E30" t="n">
-        <v>251492124</v>
+        <v>254119800</v>
       </c>
       <c r="F30" t="n">
-        <v>141363.8019616952</v>
+        <v>136688.9552183659</v>
       </c>
       <c r="G30" t="n">
-        <v>173826.6545445817</v>
+        <v>171151.8230906486</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>17785323</v>
+        <v>15403930</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22604147</v>
+        <v>22683861</v>
       </c>
       <c r="F31" t="n">
-        <v>3368.945867791995</v>
+        <v>5530.932136172856</v>
       </c>
       <c r="G31" t="n">
-        <v>5751.57255598374</v>
+        <v>17216.12580607072</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>3332200</v>
+        <v>3252055</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>180678590</v>
+        <v>184564222</v>
       </c>
       <c r="E32" t="n">
-        <v>653975182</v>
+        <v>667933033</v>
       </c>
       <c r="F32" t="n">
-        <v>1183.931757880914</v>
+        <v>1169.92035932387</v>
       </c>
       <c r="G32" t="n">
-        <v>1169.714384719011</v>
+        <v>1579.836989266626</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>2540162</v>
+        <v>2877500</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>247296137</v>
+        <v>257967187</v>
       </c>
       <c r="E33" t="n">
-        <v>851747264</v>
+        <v>888500921</v>
       </c>
       <c r="F33" t="n">
-        <v>144410.2195763091</v>
+        <v>153962.2564255397</v>
       </c>
       <c r="G33" t="n">
-        <v>178312.816035816</v>
+        <v>192895.50168206</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>28969508</v>
+        <v>30841829</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80040211</v>
+        <v>80914441</v>
       </c>
       <c r="E34" t="n">
-        <v>117502772</v>
+        <v>118786182</v>
       </c>
       <c r="F34" t="n">
-        <v>41690.47971376331</v>
+        <v>42817.33636025322</v>
       </c>
       <c r="G34" t="n">
-        <v>46255.11880074577</v>
+        <v>54178.13663548529</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>12459491</v>
+        <v>10471288</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2168339</v>
+        <v>2265003</v>
       </c>
       <c r="E35" t="n">
-        <v>8673357</v>
+        <v>9060012</v>
       </c>
       <c r="F35" t="n">
-        <v>32365.25235491074</v>
+        <v>28608.33555632428</v>
       </c>
       <c r="G35" t="n">
-        <v>63850.99782060691</v>
+        <v>39699.51332271127</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>7348982</v>
+        <v>7399279</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>152709169</v>
+        <v>156306605</v>
       </c>
       <c r="E36" t="n">
-        <v>438312144</v>
+        <v>448637654</v>
       </c>
       <c r="F36" t="n">
-        <v>182855.4233624184</v>
+        <v>194877.7672326582</v>
       </c>
       <c r="G36" t="n">
-        <v>211282.7025522691</v>
+        <v>223875.3273940145</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>15227413</v>
+        <v>13408963</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>88074135</v>
+        <v>89230799</v>
       </c>
       <c r="E37" t="n">
-        <v>230091224</v>
+        <v>233112975</v>
       </c>
       <c r="F37" t="n">
-        <v>36742.61345347907</v>
+        <v>38287.9012393323</v>
       </c>
       <c r="G37" t="n">
-        <v>35174.80298340999</v>
+        <v>35388.39650700642</v>
       </c>
       <c r="H37" t="n">
         <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>7316267</v>
+        <v>8456649</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>249839329</v>
+        <v>253656078</v>
       </c>
       <c r="E38" t="n">
-        <v>1427653311</v>
+        <v>1449463302</v>
       </c>
       <c r="F38" t="n">
-        <v>22133.07982632519</v>
+        <v>44659.61309370558</v>
       </c>
       <c r="G38" t="n">
-        <v>69675.35827973095</v>
+        <v>72441.1589614665</v>
       </c>
       <c r="H38" t="n">
         <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>36015462</v>
+        <v>37106810</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>286150794</v>
+        <v>289782312</v>
       </c>
       <c r="E2" t="n">
-        <v>1521438463</v>
+        <v>1540746922</v>
       </c>
       <c r="F2" t="n">
-        <v>196692.456968771</v>
+        <v>196313.7184390292</v>
       </c>
       <c r="G2" t="n">
-        <v>241453.2056576882</v>
+        <v>240586.0973488797</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>58153316</v>
+        <v>40795052</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>104611070</v>
+        <v>106985205</v>
       </c>
       <c r="E3" t="n">
-        <v>115827062</v>
+        <v>118455743</v>
       </c>
       <c r="F3" t="n">
-        <v>72630.2194756727</v>
+        <v>73269.21710592227</v>
       </c>
       <c r="G3" t="n">
-        <v>171328.1041902861</v>
+        <v>173700.1776711579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>22719087</v>
+        <v>21433127</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>418979376</v>
+        <v>418985286</v>
       </c>
       <c r="E4" t="n">
-        <v>524080928</v>
+        <v>524088320</v>
       </c>
       <c r="F4" t="n">
-        <v>91215.84977264321</v>
+        <v>103649.9676797218</v>
       </c>
       <c r="G4" t="n">
-        <v>120888.9095810329</v>
+        <v>125810.8203650695</v>
       </c>
       <c r="H4" t="n">
         <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>61017632</v>
+        <v>52579361</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>96442011</v>
+        <v>98860528</v>
       </c>
       <c r="E5" t="n">
-        <v>96442011</v>
+        <v>98860528</v>
       </c>
       <c r="F5" t="n">
-        <v>65411.72043719787</v>
+        <v>62096.82850943157</v>
       </c>
       <c r="G5" t="n">
-        <v>108010.5915942717</v>
+        <v>99273.49585376032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>50855913</v>
+        <v>51173393</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>166362677</v>
+        <v>170935670</v>
       </c>
       <c r="E6" t="n">
-        <v>166362677</v>
+        <v>170935670</v>
       </c>
       <c r="F6" t="n">
-        <v>60286.14821952871</v>
+        <v>63376.89047526318</v>
       </c>
       <c r="G6" t="n">
-        <v>93480.03029049837</v>
+        <v>87574.69465301174</v>
       </c>
       <c r="H6" t="n">
         <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>15534931</v>
+        <v>14049211</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78676635</v>
+        <v>78744519</v>
       </c>
       <c r="E7" t="n">
-        <v>98100541</v>
+        <v>98185184</v>
       </c>
       <c r="F7" t="n">
-        <v>9597.56149285213</v>
+        <v>12920.56708241115</v>
       </c>
       <c r="G7" t="n">
-        <v>38368.9426478141</v>
+        <v>37607.60887444984</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>9985369</v>
+        <v>9035005</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56462071</v>
+        <v>58213733</v>
       </c>
       <c r="E8" t="n">
-        <v>117718882</v>
+        <v>121370957</v>
       </c>
       <c r="F8" t="n">
-        <v>38774.84681018042</v>
+        <v>46931.77438674772</v>
       </c>
       <c r="G8" t="n">
-        <v>50665.54926713618</v>
+        <v>55604.3817599598</v>
       </c>
       <c r="H8" t="n">
         <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>11276479</v>
+        <v>13918706</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144794677</v>
+        <v>144814083</v>
       </c>
       <c r="E9" t="n">
-        <v>144804989</v>
+        <v>144829340</v>
       </c>
       <c r="F9" t="n">
-        <v>16229.34743561811</v>
+        <v>11760.36238097774</v>
       </c>
       <c r="G9" t="n">
-        <v>21443.23777829033</v>
+        <v>24357.96033789851</v>
       </c>
       <c r="H9" t="n">
         <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>4193191</v>
+        <v>5326046</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>492819980</v>
+        <v>521384211</v>
       </c>
       <c r="E10" t="n">
-        <v>492819980</v>
+        <v>521384211</v>
       </c>
       <c r="F10" t="n">
-        <v>175826.7206910451</v>
+        <v>311855.3615136439</v>
       </c>
       <c r="G10" t="n">
-        <v>379202.3527224647</v>
+        <v>399087.962364173</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>353121814</v>
+        <v>350029669</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70513585</v>
+        <v>70703686</v>
       </c>
       <c r="E11" t="n">
-        <v>80905357</v>
+        <v>81123473</v>
       </c>
       <c r="F11" t="n">
-        <v>3066.493195802634</v>
+        <v>6559.535010809891</v>
       </c>
       <c r="G11" t="n">
-        <v>7625.925278545314</v>
+        <v>9374.426477513534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2248788</v>
+        <v>2232249</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>159410719</v>
+        <v>163522268</v>
       </c>
       <c r="E12" t="n">
-        <v>688105158</v>
+        <v>705852885</v>
       </c>
       <c r="F12" t="n">
-        <v>363306.3345074077</v>
+        <v>388234.9035122051</v>
       </c>
       <c r="G12" t="n">
-        <v>369572.7625443781</v>
+        <v>317584.4867764476</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>61225831</v>
+        <v>58805966</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>91605751</v>
+        <v>92630908</v>
       </c>
       <c r="E13" t="n">
-        <v>91605751</v>
+        <v>92630908</v>
       </c>
       <c r="F13" t="n">
-        <v>2486.857240077921</v>
+        <v>2378.779494779827</v>
       </c>
       <c r="G13" t="n">
-        <v>2641.04614276882</v>
+        <v>6874.726270381849</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="n">
-        <v>5114626</v>
+        <v>5498875</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8326881</v>
+        <v>8627227</v>
       </c>
       <c r="E14" t="n">
-        <v>20817203</v>
+        <v>21568067</v>
       </c>
       <c r="F14" t="n">
-        <v>10524.50506805337</v>
+        <v>11759.48233532809</v>
       </c>
       <c r="G14" t="n">
-        <v>8898.53818093528</v>
+        <v>8491.167246765413</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>1708936</v>
+        <v>1853863</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10384975</v>
+        <v>10450344</v>
       </c>
       <c r="E15" t="n">
-        <v>15338787</v>
+        <v>15435338</v>
       </c>
       <c r="F15" t="n">
-        <v>5709.246802666775</v>
+        <v>6076.452278283338</v>
       </c>
       <c r="G15" t="n">
-        <v>3331.852336528713</v>
+        <v>9955.383676705911</v>
       </c>
       <c r="H15" t="n">
         <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>374626</v>
+        <v>445165</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26432054</v>
+        <v>27278214</v>
       </c>
       <c r="E16" t="n">
-        <v>82300936</v>
+        <v>84935607</v>
       </c>
       <c r="F16" t="n">
-        <v>14045.82235019711</v>
+        <v>10665.10008615764</v>
       </c>
       <c r="G16" t="n">
-        <v>10808.12218155297</v>
+        <v>13534.03055543471</v>
       </c>
       <c r="H16" t="n">
         <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>9170634</v>
+        <v>10125180</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>197121911</v>
+        <v>198680264</v>
       </c>
       <c r="E17" t="n">
-        <v>1773430947</v>
+        <v>1787450853</v>
       </c>
       <c r="F17" t="n">
-        <v>6829.601284884287</v>
+        <v>6576.638658357852</v>
       </c>
       <c r="G17" t="n">
-        <v>7060.264210602267</v>
+        <v>7315.503712909004</v>
       </c>
       <c r="H17" t="n">
         <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>30530136</v>
+        <v>26439872</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13428884</v>
+        <v>13596670</v>
       </c>
       <c r="E18" t="n">
-        <v>82310045</v>
+        <v>83338464</v>
       </c>
       <c r="F18" t="n">
-        <v>71715.2840498212</v>
+        <v>27155.27938333971</v>
       </c>
       <c r="G18" t="n">
-        <v>40020.60806751691</v>
+        <v>37416.53531286901</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>10500927</v>
+        <v>11277659</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47494474</v>
+        <v>50392893</v>
       </c>
       <c r="E19" t="n">
-        <v>204601002</v>
+        <v>217087073</v>
       </c>
       <c r="F19" t="n">
-        <v>50242.16854831674</v>
+        <v>51140.01952695972</v>
       </c>
       <c r="G19" t="n">
-        <v>97471.16899458662</v>
+        <v>66831.84885966874</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>15751031</v>
+        <v>14685765</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>211389551</v>
+        <v>225522750</v>
       </c>
       <c r="E20" t="n">
-        <v>211389551</v>
+        <v>225522750</v>
       </c>
       <c r="F20" t="n">
-        <v>64586.92470026153</v>
+        <v>47953.70556332985</v>
       </c>
       <c r="G20" t="n">
-        <v>110539.1307696273</v>
+        <v>116815.198605297</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>56575074</v>
+        <v>112040540</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27550159</v>
+        <v>27718759</v>
       </c>
       <c r="E21" t="n">
-        <v>100778179</v>
+        <v>101394913</v>
       </c>
       <c r="F21" t="n">
-        <v>42283.36373089963</v>
+        <v>46150.55552887481</v>
       </c>
       <c r="G21" t="n">
-        <v>66787.28002044543</v>
+        <v>65284.30579460543</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>9232448</v>
+        <v>9081914</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29846109</v>
+        <v>30709511</v>
       </c>
       <c r="E22" t="n">
-        <v>193544076</v>
+        <v>199143006</v>
       </c>
       <c r="F22" t="n">
-        <v>2875.157679700818</v>
+        <v>28360.41701290934</v>
       </c>
       <c r="G22" t="n">
-        <v>4504.883459560513</v>
+        <v>71838.7609058464</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>14160269</v>
+        <v>12206630</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123528326</v>
+        <v>123688025</v>
       </c>
       <c r="E23" t="n">
-        <v>2045730258</v>
+        <v>2048374994</v>
       </c>
       <c r="F23" t="n">
-        <v>353369.0414910463</v>
+        <v>367386.2164523502</v>
       </c>
       <c r="G23" t="n">
-        <v>316882.2592588984</v>
+        <v>341272.740403079</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5394469</v>
+        <v>5474935</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1400129</v>
+        <v>1599062</v>
       </c>
       <c r="E24" t="n">
-        <v>6586692</v>
+        <v>7522543</v>
       </c>
       <c r="F24" t="n">
-        <v>602.2047197804534</v>
+        <v>1276.158083822292</v>
       </c>
       <c r="G24" t="n">
-        <v>349.8827414595839</v>
+        <v>271.242179994641</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>1975912</v>
+        <v>1799691</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12446407</v>
+        <v>12901365</v>
       </c>
       <c r="E25" t="n">
-        <v>12446407</v>
+        <v>12901535</v>
       </c>
       <c r="F25" t="n">
-        <v>18672.23941678103</v>
+        <v>8384.100509228218</v>
       </c>
       <c r="G25" t="n">
-        <v>3901.399435164637</v>
+        <v>5546.90279316996</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1630675</v>
+        <v>1660217</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>228599222</v>
+        <v>232118075</v>
       </c>
       <c r="E27" t="n">
-        <v>412905062</v>
+        <v>419260955</v>
       </c>
       <c r="F27" t="n">
-        <v>109423.1590100199</v>
+        <v>90741.41976246056</v>
       </c>
       <c r="G27" t="n">
-        <v>115301.7006466991</v>
+        <v>93246.43475392897</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>14483920</v>
+        <v>14678699</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29398859</v>
+        <v>30902945</v>
       </c>
       <c r="E28" t="n">
-        <v>29398859</v>
+        <v>30902945</v>
       </c>
       <c r="F28" t="n">
-        <v>28327.1918557218</v>
+        <v>23241.32374570841</v>
       </c>
       <c r="G28" t="n">
-        <v>41834.1606064028</v>
+        <v>36728.0807998946</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I28" t="n">
-        <v>4293464</v>
+        <v>5708770</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>484012257</v>
+        <v>489831367</v>
       </c>
       <c r="E29" t="n">
-        <v>1764210757</v>
+        <v>1785421249</v>
       </c>
       <c r="F29" t="n">
-        <v>46737.27444832155</v>
+        <v>39342.3242302597</v>
       </c>
       <c r="G29" t="n">
-        <v>106683.3067295102</v>
+        <v>114608.7476540969</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>34807809</v>
+        <v>28745869</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>85030325</v>
+        <v>84875941</v>
       </c>
       <c r="E30" t="n">
-        <v>254119800</v>
+        <v>253658413</v>
       </c>
       <c r="F30" t="n">
-        <v>136688.9552183659</v>
+        <v>142728.6633843202</v>
       </c>
       <c r="G30" t="n">
-        <v>171151.8230906486</v>
+        <v>171962.2452058115</v>
       </c>
       <c r="H30" t="n">
         <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>15403930</v>
+        <v>15031628</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22683861</v>
+        <v>22691036</v>
       </c>
       <c r="F31" t="n">
-        <v>5530.932136172856</v>
+        <v>11485.19563662515</v>
       </c>
       <c r="G31" t="n">
-        <v>17216.12580607072</v>
+        <v>4857.722761426754</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>3252055</v>
+        <v>3346872</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>184564222</v>
+        <v>192870452</v>
       </c>
       <c r="E32" t="n">
-        <v>667933033</v>
+        <v>697413710</v>
       </c>
       <c r="F32" t="n">
-        <v>1169.92035932387</v>
+        <v>10221.08683215038</v>
       </c>
       <c r="G32" t="n">
-        <v>1579.836989266626</v>
+        <v>2427.070192642776</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>2877500</v>
+        <v>2731037</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>257967187</v>
+        <v>258501454</v>
       </c>
       <c r="E33" t="n">
-        <v>888500921</v>
+        <v>890341067</v>
       </c>
       <c r="F33" t="n">
-        <v>153962.2564255397</v>
+        <v>163981.57452229</v>
       </c>
       <c r="G33" t="n">
-        <v>192895.50168206</v>
+        <v>202786.3741477629</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>30841829</v>
+        <v>32066408</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80914441</v>
+        <v>80388303</v>
       </c>
       <c r="E34" t="n">
-        <v>118786182</v>
+        <v>118013787</v>
       </c>
       <c r="F34" t="n">
-        <v>42817.33636025322</v>
+        <v>43208.85583433922</v>
       </c>
       <c r="G34" t="n">
-        <v>54178.13663548529</v>
+        <v>51473.00890306837</v>
       </c>
       <c r="H34" t="n">
         <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>10471288</v>
+        <v>7817206</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2265003</v>
+        <v>2244734</v>
       </c>
       <c r="E35" t="n">
-        <v>9060012</v>
+        <v>8978936</v>
       </c>
       <c r="F35" t="n">
-        <v>28608.33555632428</v>
+        <v>34963.19631234798</v>
       </c>
       <c r="G35" t="n">
-        <v>39699.51332271127</v>
+        <v>75948.43274219833</v>
       </c>
       <c r="H35" t="n">
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>7399279</v>
+        <v>6407765</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>156306605</v>
+        <v>155844875</v>
       </c>
       <c r="E36" t="n">
-        <v>448637654</v>
+        <v>447312378</v>
       </c>
       <c r="F36" t="n">
-        <v>194877.7672326582</v>
+        <v>173757.4517234911</v>
       </c>
       <c r="G36" t="n">
-        <v>223875.3273940145</v>
+        <v>217538.5976312009</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>13408963</v>
+        <v>11762729</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>89230799</v>
+        <v>94376485</v>
       </c>
       <c r="E37" t="n">
-        <v>233112975</v>
+        <v>246555937</v>
       </c>
       <c r="F37" t="n">
-        <v>38287.9012393323</v>
+        <v>40871.59230592908</v>
       </c>
       <c r="G37" t="n">
-        <v>35388.39650700642</v>
+        <v>38115.05028542898</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>8456649</v>
+        <v>10571909</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>253656078</v>
+        <v>255465199</v>
       </c>
       <c r="E38" t="n">
-        <v>1449463302</v>
+        <v>1459801138</v>
       </c>
       <c r="F38" t="n">
-        <v>44659.61309370558</v>
+        <v>42041.32220642489</v>
       </c>
       <c r="G38" t="n">
-        <v>72441.1589614665</v>
+        <v>73927.8010372563</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I38" t="n">
-        <v>37106810</v>
+        <v>40842662</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>289782312</v>
+        <v>283253864</v>
       </c>
       <c r="E2" t="n">
-        <v>1540746922</v>
+        <v>1506035741</v>
       </c>
       <c r="F2" t="n">
-        <v>196313.7184390292</v>
+        <v>189869.5143160875</v>
       </c>
       <c r="G2" t="n">
-        <v>240586.0973488797</v>
+        <v>241696.908237065</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>40795052</v>
+        <v>28980077</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>106985205</v>
+        <v>105244223</v>
       </c>
       <c r="E3" t="n">
-        <v>118455743</v>
+        <v>116528100</v>
       </c>
       <c r="F3" t="n">
-        <v>73269.21710592227</v>
+        <v>72643.56738806001</v>
       </c>
       <c r="G3" t="n">
-        <v>173700.1776711579</v>
+        <v>174859.3402736981</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>21433127</v>
+        <v>18774817</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>418985286</v>
+        <v>412951778</v>
       </c>
       <c r="E4" t="n">
-        <v>524088320</v>
+        <v>516541298</v>
       </c>
       <c r="F4" t="n">
-        <v>103649.9676797218</v>
+        <v>107676.8477442857</v>
       </c>
       <c r="G4" t="n">
-        <v>125810.8203650695</v>
+        <v>125050.7148466134</v>
       </c>
       <c r="H4" t="n">
         <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>52579361</v>
+        <v>51141266</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>98860528</v>
+        <v>97695832</v>
       </c>
       <c r="E5" t="n">
-        <v>98860528</v>
+        <v>97695832</v>
       </c>
       <c r="F5" t="n">
-        <v>62096.82850943157</v>
+        <v>65364.37285593084</v>
       </c>
       <c r="G5" t="n">
-        <v>99273.49585376032</v>
+        <v>110722.0873535429</v>
       </c>
       <c r="H5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>51173393</v>
+        <v>50048137</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>170935670</v>
+        <v>169029738</v>
       </c>
       <c r="E6" t="n">
-        <v>170935670</v>
+        <v>169029738</v>
       </c>
       <c r="F6" t="n">
-        <v>63376.89047526318</v>
+        <v>59228.07823802269</v>
       </c>
       <c r="G6" t="n">
-        <v>87574.69465301174</v>
+        <v>94698.75457333855</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>14049211</v>
+        <v>11250771</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78744519</v>
+        <v>77801203</v>
       </c>
       <c r="E7" t="n">
-        <v>98185184</v>
+        <v>97008980</v>
       </c>
       <c r="F7" t="n">
-        <v>12920.56708241115</v>
+        <v>11135.39902697724</v>
       </c>
       <c r="G7" t="n">
-        <v>37607.60887444984</v>
+        <v>36850.47023508267</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9035005</v>
+        <v>8843921</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58213733</v>
+        <v>57180652</v>
       </c>
       <c r="E8" t="n">
-        <v>121370957</v>
+        <v>118579547</v>
       </c>
       <c r="F8" t="n">
-        <v>46931.77438674772</v>
+        <v>44306.33604015828</v>
       </c>
       <c r="G8" t="n">
-        <v>55604.3817599598</v>
+        <v>43631.9945740883</v>
       </c>
       <c r="H8" t="n">
         <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>13918706</v>
+        <v>14260865</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144814083</v>
+        <v>143475353</v>
       </c>
       <c r="E9" t="n">
-        <v>144829340</v>
+        <v>143495896</v>
       </c>
       <c r="F9" t="n">
-        <v>11760.36238097774</v>
+        <v>14420.88885778159</v>
       </c>
       <c r="G9" t="n">
-        <v>24357.96033789851</v>
+        <v>25821.6485276369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>5326046</v>
+        <v>5226087</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>521384211</v>
+        <v>506445638</v>
       </c>
       <c r="E10" t="n">
-        <v>521384211</v>
+        <v>506445638</v>
       </c>
       <c r="F10" t="n">
-        <v>311855.3615136439</v>
+        <v>324550.7311904957</v>
       </c>
       <c r="G10" t="n">
-        <v>399087.962364173</v>
+        <v>405668.3564380733</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>350029669</v>
+        <v>321042491</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70703686</v>
+        <v>70621527</v>
       </c>
       <c r="E11" t="n">
-        <v>81123473</v>
+        <v>81029207</v>
       </c>
       <c r="F11" t="n">
-        <v>6559.535010809891</v>
+        <v>5167.674395315807</v>
       </c>
       <c r="G11" t="n">
-        <v>9374.426477513534</v>
+        <v>8930.317490327005</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2232249</v>
+        <v>2095145</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>163522268</v>
+        <v>159413407</v>
       </c>
       <c r="E12" t="n">
-        <v>705852885</v>
+        <v>688116761</v>
       </c>
       <c r="F12" t="n">
-        <v>388234.9035122051</v>
+        <v>363876.302097271</v>
       </c>
       <c r="G12" t="n">
-        <v>317584.4867764476</v>
+        <v>339888.209594023</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>58805966</v>
+        <v>56106520</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>92630908</v>
+        <v>92581485</v>
       </c>
       <c r="E13" t="n">
-        <v>92630908</v>
+        <v>92581485</v>
       </c>
       <c r="F13" t="n">
-        <v>2378.779494779827</v>
+        <v>2513.868934418283</v>
       </c>
       <c r="G13" t="n">
-        <v>6874.726270381849</v>
+        <v>6917.776546506443</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>5498875</v>
+        <v>5458187</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8627227</v>
+        <v>8860383</v>
       </c>
       <c r="E14" t="n">
-        <v>21568067</v>
+        <v>22150958</v>
       </c>
       <c r="F14" t="n">
-        <v>11759.48233532809</v>
+        <v>11113.47587804585</v>
       </c>
       <c r="G14" t="n">
-        <v>8491.167246765413</v>
+        <v>7330.103742622588</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>1853863</v>
+        <v>1620537</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10450344</v>
+        <v>10694010</v>
       </c>
       <c r="E15" t="n">
-        <v>15435338</v>
+        <v>15795237</v>
       </c>
       <c r="F15" t="n">
-        <v>6076.452278283338</v>
+        <v>6675.854157841997</v>
       </c>
       <c r="G15" t="n">
-        <v>9955.383676705911</v>
+        <v>3032.136235443566</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>445165</v>
+        <v>814097</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27278214</v>
+        <v>26852350</v>
       </c>
       <c r="E16" t="n">
-        <v>84935607</v>
+        <v>83609601</v>
       </c>
       <c r="F16" t="n">
-        <v>10665.10008615764</v>
+        <v>7371.910605561571</v>
       </c>
       <c r="G16" t="n">
-        <v>13534.03055543471</v>
+        <v>18423.74103279464</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I16" t="n">
-        <v>10125180</v>
+        <v>10561037</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>198680264</v>
+        <v>214813647</v>
       </c>
       <c r="E17" t="n">
-        <v>1787450853</v>
+        <v>1932596765</v>
       </c>
       <c r="F17" t="n">
-        <v>6576.638658357852</v>
+        <v>757735.1532363008</v>
       </c>
       <c r="G17" t="n">
-        <v>7315.503712909004</v>
+        <v>939663.0979163646</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>26439872</v>
+        <v>67578128</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13596670</v>
+        <v>13550115</v>
       </c>
       <c r="E18" t="n">
-        <v>83338464</v>
+        <v>83053109</v>
       </c>
       <c r="F18" t="n">
-        <v>27155.27938333971</v>
+        <v>26560.99554789498</v>
       </c>
       <c r="G18" t="n">
-        <v>37416.53531286901</v>
+        <v>40675.14548830536</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11277659</v>
+        <v>11837685</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50392893</v>
+        <v>47100436</v>
       </c>
       <c r="E19" t="n">
-        <v>217087073</v>
+        <v>202903528</v>
       </c>
       <c r="F19" t="n">
-        <v>51140.01952695972</v>
+        <v>29759.47308500587</v>
       </c>
       <c r="G19" t="n">
-        <v>66831.84885966874</v>
+        <v>42085.39676038146</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>14685765</v>
+        <v>23465158</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>225522750</v>
+        <v>214271607</v>
       </c>
       <c r="E20" t="n">
-        <v>225522750</v>
+        <v>214271607</v>
       </c>
       <c r="F20" t="n">
-        <v>47953.70556332985</v>
+        <v>86314.62983486653</v>
       </c>
       <c r="G20" t="n">
-        <v>116815.198605297</v>
+        <v>115342.3335501689</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>112040540</v>
+        <v>113787610</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27718759</v>
+        <v>28372124</v>
       </c>
       <c r="E21" t="n">
-        <v>101394913</v>
+        <v>103784916</v>
       </c>
       <c r="F21" t="n">
-        <v>46150.55552887481</v>
+        <v>47610.35724979154</v>
       </c>
       <c r="G21" t="n">
-        <v>65284.30579460543</v>
+        <v>63330.30620511877</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>9081914</v>
+        <v>7938765</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30709511</v>
+        <v>30215864</v>
       </c>
       <c r="E22" t="n">
-        <v>199143006</v>
+        <v>195941833</v>
       </c>
       <c r="F22" t="n">
-        <v>28360.41701290934</v>
+        <v>20885.50625517782</v>
       </c>
       <c r="G22" t="n">
-        <v>71838.7609058464</v>
+        <v>70652.0595771081</v>
       </c>
       <c r="H22" t="n">
         <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>12206630</v>
+        <v>10657591</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123688025</v>
+        <v>123287895</v>
       </c>
       <c r="E23" t="n">
-        <v>2048374994</v>
+        <v>2041748517</v>
       </c>
       <c r="F23" t="n">
-        <v>367386.2164523502</v>
+        <v>377091.4444067074</v>
       </c>
       <c r="G23" t="n">
-        <v>341272.740403079</v>
+        <v>320617.5261380553</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5474935</v>
+        <v>6946439</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1599062</v>
+        <v>1380197</v>
       </c>
       <c r="E24" t="n">
-        <v>7522543</v>
+        <v>6492925</v>
       </c>
       <c r="F24" t="n">
-        <v>1276.158083822292</v>
+        <v>223.8271722418699</v>
       </c>
       <c r="G24" t="n">
-        <v>271.242179994641</v>
+        <v>359.3039065595546</v>
       </c>
       <c r="H24" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I24" t="n">
-        <v>1799691</v>
+        <v>1686452</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12901365</v>
+        <v>13082455</v>
       </c>
       <c r="E25" t="n">
-        <v>12901535</v>
+        <v>13082455</v>
       </c>
       <c r="F25" t="n">
-        <v>8384.100509228218</v>
+        <v>5545.000164946599</v>
       </c>
       <c r="G25" t="n">
-        <v>5546.90279316996</v>
+        <v>17877.48702517408</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1660217</v>
+        <v>1649271</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>232118075</v>
+        <v>228572391</v>
       </c>
       <c r="E27" t="n">
-        <v>419260955</v>
+        <v>412856598</v>
       </c>
       <c r="F27" t="n">
-        <v>90741.41976246056</v>
+        <v>95483.71084467649</v>
       </c>
       <c r="G27" t="n">
-        <v>93246.43475392897</v>
+        <v>98079.78228587491</v>
       </c>
       <c r="H27" t="n">
         <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>14678699</v>
+        <v>14120250</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30902945</v>
+        <v>31476497</v>
       </c>
       <c r="E28" t="n">
-        <v>30902945</v>
+        <v>31476497</v>
       </c>
       <c r="F28" t="n">
-        <v>23241.32374570841</v>
+        <v>23278.2597126982</v>
       </c>
       <c r="G28" t="n">
-        <v>36728.0807998946</v>
+        <v>46974.88264414088</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>5708770</v>
+        <v>4030867</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>489831367</v>
+        <v>480380275</v>
       </c>
       <c r="E29" t="n">
-        <v>1785421249</v>
+        <v>1750972290</v>
       </c>
       <c r="F29" t="n">
-        <v>39342.3242302597</v>
+        <v>132498.8612542542</v>
       </c>
       <c r="G29" t="n">
-        <v>114608.7476540969</v>
+        <v>192031.4643247916</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>28745869</v>
+        <v>24777462</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>84875941</v>
+        <v>85123548</v>
       </c>
       <c r="E30" t="n">
-        <v>253658413</v>
+        <v>254398405</v>
       </c>
       <c r="F30" t="n">
-        <v>142728.6633843202</v>
+        <v>137618.2305271235</v>
       </c>
       <c r="G30" t="n">
-        <v>171962.2452058115</v>
+        <v>169961.4816127646</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>15031628</v>
+        <v>15292887</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22691036</v>
+        <v>22628913</v>
       </c>
       <c r="F31" t="n">
-        <v>11485.19563662515</v>
+        <v>5751.688868335847</v>
       </c>
       <c r="G31" t="n">
-        <v>4857.722761426754</v>
+        <v>12995.45954524481</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I31" t="n">
-        <v>3346872</v>
+        <v>3102196</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>192870452</v>
+        <v>194371995</v>
       </c>
       <c r="E32" t="n">
-        <v>697413710</v>
+        <v>702802721</v>
       </c>
       <c r="F32" t="n">
-        <v>10221.08683215038</v>
+        <v>2579.329525491527</v>
       </c>
       <c r="G32" t="n">
-        <v>2427.070192642776</v>
+        <v>1569.259594707474</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>2731037</v>
+        <v>2453774</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>258501454</v>
+        <v>255166145</v>
       </c>
       <c r="E33" t="n">
-        <v>890341067</v>
+        <v>878412726</v>
       </c>
       <c r="F33" t="n">
-        <v>163981.57452229</v>
+        <v>157316.0158542033</v>
       </c>
       <c r="G33" t="n">
-        <v>202786.3741477629</v>
+        <v>182798.2969540604</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>32066408</v>
+        <v>31207785</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80388303</v>
+        <v>79208317</v>
       </c>
       <c r="E34" t="n">
-        <v>118013787</v>
+        <v>116281512</v>
       </c>
       <c r="F34" t="n">
-        <v>43208.85583433922</v>
+        <v>40859.69415488304</v>
       </c>
       <c r="G34" t="n">
-        <v>51473.00890306837</v>
+        <v>52075.50022895149</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>7817206</v>
+        <v>5652182</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2244734</v>
+        <v>2225871</v>
       </c>
       <c r="E35" t="n">
-        <v>8978936</v>
+        <v>8903482</v>
       </c>
       <c r="F35" t="n">
-        <v>34963.19631234798</v>
+        <v>9770.695614603201</v>
       </c>
       <c r="G35" t="n">
-        <v>75948.43274219833</v>
+        <v>71296.33120903309</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>6407765</v>
+        <v>4749693</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>155844875</v>
+        <v>153644626</v>
       </c>
       <c r="E36" t="n">
-        <v>447312378</v>
+        <v>440997133</v>
       </c>
       <c r="F36" t="n">
-        <v>173757.4517234911</v>
+        <v>154360.4138654252</v>
       </c>
       <c r="G36" t="n">
-        <v>217538.5976312009</v>
+        <v>210600.4089201508</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>11762729</v>
+        <v>10473165</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>94376485</v>
+        <v>98396029</v>
       </c>
       <c r="E37" t="n">
-        <v>246555937</v>
+        <v>257056885</v>
       </c>
       <c r="F37" t="n">
-        <v>40871.59230592908</v>
+        <v>36031.07879004031</v>
       </c>
       <c r="G37" t="n">
-        <v>38115.05028542898</v>
+        <v>39590.1323507984</v>
       </c>
       <c r="H37" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I37" t="n">
-        <v>10571909</v>
+        <v>12226083</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>255465199</v>
+        <v>253785676</v>
       </c>
       <c r="E38" t="n">
-        <v>1459801138</v>
-      </c>
-      <c r="F38" t="n">
-        <v>42041.32220642489</v>
-      </c>
-      <c r="G38" t="n">
-        <v>73927.8010372563</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.03</v>
+        <v>1450203865</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>40842662</v>
+        <v>41957010</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>283253864</v>
+        <v>290062214</v>
       </c>
       <c r="E2" t="n">
-        <v>1506035741</v>
+        <v>1542235135</v>
       </c>
       <c r="F2" t="n">
-        <v>189869.5143160875</v>
+        <v>187743.1848325562</v>
       </c>
       <c r="G2" t="n">
-        <v>241696.908237065</v>
+        <v>216870.7356824845</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>28980077</v>
+        <v>31534782</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105244223</v>
+        <v>105363445</v>
       </c>
       <c r="E3" t="n">
-        <v>116528100</v>
+        <v>116660105</v>
       </c>
       <c r="F3" t="n">
-        <v>72643.56738806001</v>
+        <v>81688.39595885282</v>
       </c>
       <c r="G3" t="n">
-        <v>174859.3402736981</v>
+        <v>173124.8425884754</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I3" t="n">
-        <v>18774817</v>
+        <v>17603109</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>412951778</v>
+        <v>413482737</v>
       </c>
       <c r="E4" t="n">
-        <v>516541298</v>
+        <v>517205450</v>
       </c>
       <c r="F4" t="n">
-        <v>107676.8477442857</v>
+        <v>109648.8535225391</v>
       </c>
       <c r="G4" t="n">
-        <v>125050.7148466134</v>
+        <v>119338.5195705001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>51141266</v>
+        <v>40747877</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>97695832</v>
+        <v>97713125</v>
       </c>
       <c r="E5" t="n">
-        <v>97695832</v>
+        <v>97713125</v>
       </c>
       <c r="F5" t="n">
-        <v>65364.37285593084</v>
+        <v>60671.15775484458</v>
       </c>
       <c r="G5" t="n">
-        <v>110722.0873535429</v>
+        <v>109145.0637068854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>50048137</v>
+        <v>50940000</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>169029738</v>
+        <v>168744604</v>
       </c>
       <c r="E6" t="n">
-        <v>169029738</v>
+        <v>168744604</v>
       </c>
       <c r="F6" t="n">
-        <v>59228.07823802269</v>
+        <v>64375.46144023829</v>
       </c>
       <c r="G6" t="n">
-        <v>94698.75457333855</v>
+        <v>83429.72568640538</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>11250771</v>
+        <v>10796099</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77801203</v>
+        <v>78069561</v>
       </c>
       <c r="E7" t="n">
-        <v>97008980</v>
+        <v>97343591</v>
       </c>
       <c r="F7" t="n">
-        <v>11135.39902697724</v>
+        <v>12106.15889781843</v>
       </c>
       <c r="G7" t="n">
-        <v>36850.47023508267</v>
+        <v>38494.69754262254</v>
       </c>
       <c r="H7" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>8843921</v>
+        <v>8234417</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57180652</v>
+        <v>57292793</v>
       </c>
       <c r="E8" t="n">
-        <v>118579547</v>
+        <v>118812103</v>
       </c>
       <c r="F8" t="n">
-        <v>44306.33604015828</v>
+        <v>54050.1026539157</v>
       </c>
       <c r="G8" t="n">
-        <v>43631.9945740883</v>
+        <v>44100.47986107432</v>
       </c>
       <c r="H8" t="n">
         <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>14260865</v>
+        <v>13794362</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143475353</v>
+        <v>144573581</v>
       </c>
       <c r="E9" t="n">
-        <v>143495896</v>
+        <v>144596093</v>
       </c>
       <c r="F9" t="n">
-        <v>14420.88885778159</v>
+        <v>11679.54154431683</v>
       </c>
       <c r="G9" t="n">
-        <v>25821.6485276369</v>
+        <v>25880.0640938106</v>
       </c>
       <c r="H9" t="n">
         <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>5226087</v>
+        <v>5078045</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>506445638</v>
+        <v>501773334</v>
       </c>
       <c r="E10" t="n">
-        <v>506445638</v>
+        <v>501773334</v>
       </c>
       <c r="F10" t="n">
-        <v>324550.7311904957</v>
+        <v>327072.5696408165</v>
       </c>
       <c r="G10" t="n">
-        <v>405668.3564380733</v>
+        <v>470203.5966542852</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>321042491</v>
+        <v>292410168</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70621527</v>
+        <v>69611329</v>
       </c>
       <c r="E11" t="n">
-        <v>81029207</v>
+        <v>79870133</v>
       </c>
       <c r="F11" t="n">
-        <v>5167.674395315807</v>
+        <v>6564.05478232277</v>
       </c>
       <c r="G11" t="n">
-        <v>8930.317490327005</v>
+        <v>6493.413789947617</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2095145</v>
+        <v>2188079</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>159413407</v>
+        <v>160807444</v>
       </c>
       <c r="E12" t="n">
-        <v>688116761</v>
+        <v>694134201</v>
       </c>
       <c r="F12" t="n">
-        <v>363876.302097271</v>
+        <v>381497.4156781875</v>
       </c>
       <c r="G12" t="n">
-        <v>339888.209594023</v>
+        <v>329763.769884956</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>56106520</v>
+        <v>56580208</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>92581485</v>
+        <v>92213619</v>
       </c>
       <c r="E13" t="n">
-        <v>92581485</v>
+        <v>92213619</v>
       </c>
       <c r="F13" t="n">
-        <v>2513.868934418283</v>
+        <v>2408.418956505018</v>
       </c>
       <c r="G13" t="n">
-        <v>6917.776546506443</v>
+        <v>8046.625205987777</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="n">
-        <v>5458187</v>
+        <v>5438964</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8860383</v>
+        <v>9449781</v>
       </c>
       <c r="E14" t="n">
-        <v>22150958</v>
+        <v>23624453</v>
       </c>
       <c r="F14" t="n">
-        <v>11113.47587804585</v>
+        <v>17081.87968169852</v>
       </c>
       <c r="G14" t="n">
-        <v>7330.103742622588</v>
+        <v>10679.11944466108</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>1620537</v>
+        <v>2366917</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10694010</v>
+        <v>10615964</v>
       </c>
       <c r="E15" t="n">
-        <v>15795237</v>
+        <v>15679962</v>
       </c>
       <c r="F15" t="n">
-        <v>6675.854157841997</v>
+        <v>5710.089502371354</v>
       </c>
       <c r="G15" t="n">
-        <v>3032.136235443566</v>
+        <v>4504.632443450775</v>
       </c>
       <c r="H15" t="n">
         <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>814097</v>
+        <v>538963</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26852350</v>
+        <v>26842036</v>
       </c>
       <c r="E16" t="n">
-        <v>83609601</v>
+        <v>83577487</v>
       </c>
       <c r="F16" t="n">
-        <v>7371.910605561571</v>
+        <v>8051.19248357141</v>
       </c>
       <c r="G16" t="n">
-        <v>18423.74103279464</v>
+        <v>17157.46422058813</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>10561037</v>
+        <v>10055906</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>214813647</v>
+        <v>244231528</v>
       </c>
       <c r="E17" t="n">
-        <v>1932596765</v>
+        <v>2197258270</v>
       </c>
       <c r="F17" t="n">
-        <v>757735.1532363008</v>
+        <v>700421.2927567664</v>
       </c>
       <c r="G17" t="n">
-        <v>939663.0979163646</v>
+        <v>980312.8250060984</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>67578128</v>
+        <v>212141841</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13550115</v>
+        <v>13659261</v>
       </c>
       <c r="E18" t="n">
-        <v>83053109</v>
+        <v>83722105</v>
       </c>
       <c r="F18" t="n">
-        <v>26560.99554789498</v>
+        <v>26520.93409728607</v>
       </c>
       <c r="G18" t="n">
-        <v>40675.14548830536</v>
+        <v>37717.28883677119</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11837685</v>
+        <v>11377473</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47100436</v>
+        <v>46864576</v>
       </c>
       <c r="E19" t="n">
-        <v>202903528</v>
+        <v>201887469</v>
       </c>
       <c r="F19" t="n">
-        <v>29759.47308500587</v>
+        <v>56965.24675941705</v>
       </c>
       <c r="G19" t="n">
-        <v>42085.39676038146</v>
+        <v>68500.9306758137</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>23465158</v>
+        <v>23482569</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>214271607</v>
+        <v>219076322</v>
       </c>
       <c r="E20" t="n">
-        <v>214271607</v>
+        <v>219076322</v>
       </c>
       <c r="F20" t="n">
-        <v>86314.62983486653</v>
+        <v>93442.7205668799</v>
       </c>
       <c r="G20" t="n">
-        <v>115342.3335501689</v>
+        <v>120308.205474382</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>113787610</v>
+        <v>142304118</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28372124</v>
+        <v>28330417</v>
       </c>
       <c r="E21" t="n">
-        <v>103784916</v>
+        <v>103632352</v>
       </c>
       <c r="F21" t="n">
-        <v>47610.35724979154</v>
+        <v>49849.46049807512</v>
       </c>
       <c r="G21" t="n">
-        <v>63330.30620511877</v>
+        <v>64096.67874399175</v>
       </c>
       <c r="H21" t="n">
         <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>7938765</v>
+        <v>7886031</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30215864</v>
+        <v>30201127</v>
       </c>
       <c r="E22" t="n">
-        <v>195941833</v>
+        <v>195846270</v>
       </c>
       <c r="F22" t="n">
-        <v>20885.50625517782</v>
+        <v>24431.66577885517</v>
       </c>
       <c r="G22" t="n">
-        <v>70652.0595771081</v>
+        <v>71038.08687665095</v>
       </c>
       <c r="H22" t="n">
         <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>10657591</v>
+        <v>10686568</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123287895</v>
+        <v>123635515</v>
       </c>
       <c r="E23" t="n">
-        <v>2041748517</v>
+        <v>2047505392</v>
       </c>
       <c r="F23" t="n">
-        <v>377091.4444067074</v>
+        <v>361589.8264413114</v>
       </c>
       <c r="G23" t="n">
-        <v>320617.5261380553</v>
+        <v>325102.0907407948</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>6946439</v>
+        <v>8145497</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1380197</v>
+        <v>1340828</v>
       </c>
       <c r="E24" t="n">
-        <v>6492925</v>
+        <v>6307717</v>
       </c>
       <c r="F24" t="n">
-        <v>223.8271722418699</v>
+        <v>532.3948055759847</v>
       </c>
       <c r="G24" t="n">
-        <v>359.3039065595546</v>
+        <v>4475.795781790542</v>
       </c>
       <c r="H24" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="I24" t="n">
-        <v>1686452</v>
+        <v>1628941</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13082455</v>
+        <v>13231165</v>
       </c>
       <c r="E25" t="n">
-        <v>13082455</v>
+        <v>13231165</v>
       </c>
       <c r="F25" t="n">
-        <v>5545.000164946599</v>
+        <v>3846.113884062304</v>
       </c>
       <c r="G25" t="n">
-        <v>17877.48702517408</v>
+        <v>10807.90647778107</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I25" t="n">
-        <v>1649271</v>
+        <v>1649516</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>228572391</v>
+        <v>233234565</v>
       </c>
       <c r="E27" t="n">
-        <v>412856598</v>
+        <v>421277603</v>
       </c>
       <c r="F27" t="n">
-        <v>95483.71084467649</v>
+        <v>104620.5054333159</v>
       </c>
       <c r="G27" t="n">
-        <v>98079.78228587491</v>
+        <v>108260.21747068</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>14120250</v>
+        <v>14249619</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31476497</v>
+        <v>31284054</v>
       </c>
       <c r="E28" t="n">
-        <v>31476497</v>
+        <v>31284054</v>
       </c>
       <c r="F28" t="n">
-        <v>23278.2597126982</v>
+        <v>22917.69482975733</v>
       </c>
       <c r="G28" t="n">
-        <v>46974.88264414088</v>
+        <v>48727.64372169894</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>4030867</v>
+        <v>5166845</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>480380275</v>
+        <v>482203226</v>
       </c>
       <c r="E29" t="n">
-        <v>1750972290</v>
+        <v>1757616894</v>
       </c>
       <c r="F29" t="n">
-        <v>132498.8612542542</v>
+        <v>135723.2744062699</v>
       </c>
       <c r="G29" t="n">
-        <v>192031.4643247916</v>
+        <v>191687.0315272532</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>24777462</v>
+        <v>24828745</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>85123548</v>
+        <v>84062617</v>
       </c>
       <c r="E30" t="n">
-        <v>254398405</v>
+        <v>251227729</v>
       </c>
       <c r="F30" t="n">
-        <v>137618.2305271235</v>
+        <v>142687.0501972475</v>
       </c>
       <c r="G30" t="n">
-        <v>169961.4816127646</v>
+        <v>172249.2666204925</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>15292887</v>
+        <v>16372747</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22628913</v>
+        <v>23014476</v>
       </c>
       <c r="F31" t="n">
-        <v>5751.688868335847</v>
+        <v>5005.02453067127</v>
       </c>
       <c r="G31" t="n">
-        <v>12995.45954524481</v>
+        <v>13265.50466692531</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>3102196</v>
+        <v>2996097</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>194371995</v>
+        <v>193553977</v>
       </c>
       <c r="E32" t="n">
-        <v>702802721</v>
+        <v>699829809</v>
       </c>
       <c r="F32" t="n">
-        <v>2579.329525491527</v>
+        <v>3468.959020428491</v>
       </c>
       <c r="G32" t="n">
-        <v>1569.259594707474</v>
+        <v>5987.923437516622</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>2453774</v>
+        <v>2108028</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>255166145</v>
+        <v>260626580</v>
       </c>
       <c r="E33" t="n">
-        <v>878412726</v>
+        <v>897210345</v>
       </c>
       <c r="F33" t="n">
-        <v>157316.0158542033</v>
+        <v>161468.3397028036</v>
       </c>
       <c r="G33" t="n">
-        <v>182798.2969540604</v>
+        <v>197867.1148908802</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>31207785</v>
+        <v>33803473</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79208317</v>
+        <v>79603765</v>
       </c>
       <c r="E34" t="n">
-        <v>116281512</v>
+        <v>116862048</v>
       </c>
       <c r="F34" t="n">
-        <v>40859.69415488304</v>
+        <v>43689.11192371786</v>
       </c>
       <c r="G34" t="n">
-        <v>52075.50022895149</v>
+        <v>65548.19916024555</v>
       </c>
       <c r="H34" t="n">
         <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>5652182</v>
+        <v>5836445</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2225871</v>
+        <v>2224723</v>
       </c>
       <c r="E35" t="n">
-        <v>8903482</v>
+        <v>8898890</v>
       </c>
       <c r="F35" t="n">
-        <v>9770.695614603201</v>
+        <v>26839.75018471354</v>
       </c>
       <c r="G35" t="n">
-        <v>71296.33120903309</v>
+        <v>47840.39672899289</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I35" t="n">
-        <v>4749693</v>
+        <v>3902080</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>153644626</v>
+        <v>159083740</v>
       </c>
       <c r="E36" t="n">
-        <v>440997133</v>
+        <v>456608701</v>
       </c>
       <c r="F36" t="n">
-        <v>154360.4138654252</v>
+        <v>153362.664685466</v>
       </c>
       <c r="G36" t="n">
-        <v>210600.4089201508</v>
+        <v>225022.6554572311</v>
       </c>
       <c r="H36" t="n">
         <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>10473165</v>
+        <v>13905401</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>98396029</v>
+        <v>98009847</v>
       </c>
       <c r="E37" t="n">
-        <v>257056885</v>
+        <v>256047994</v>
       </c>
       <c r="F37" t="n">
-        <v>36031.07879004031</v>
+        <v>35694.90283209753</v>
       </c>
       <c r="G37" t="n">
-        <v>39590.1323507984</v>
+        <v>45212.40264183895</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>12226083</v>
+        <v>11320673</v>
       </c>
     </row>
     <row r="38">
@@ -1749,20 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>253785676</v>
+        <v>260049907</v>
       </c>
       <c r="E38" t="n">
-        <v>1450203865</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1485999470</v>
+      </c>
+      <c r="F38" t="n">
+        <v>46653.66323880068</v>
+      </c>
+      <c r="G38" t="n">
+        <v>85480.46724685789</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>41957010</v>
+        <v>50435668</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>290062214</v>
+        <v>299797641</v>
       </c>
       <c r="E2" t="n">
-        <v>1542235135</v>
+        <v>1593997543</v>
       </c>
       <c r="F2" t="n">
-        <v>187743.1848325562</v>
+        <v>204745.5548117349</v>
       </c>
       <c r="G2" t="n">
-        <v>216870.7356824845</v>
+        <v>248360.8630193795</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>31534782</v>
+        <v>31242040</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105363445</v>
+        <v>109706321</v>
       </c>
       <c r="E3" t="n">
-        <v>116660105</v>
+        <v>121468606</v>
       </c>
       <c r="F3" t="n">
-        <v>81688.39595885282</v>
+        <v>64609.78677433536</v>
       </c>
       <c r="G3" t="n">
-        <v>173124.8425884754</v>
+        <v>173530.24869979</v>
       </c>
       <c r="H3" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>17603109</v>
+        <v>13751784</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>413482737</v>
+        <v>423090639</v>
       </c>
       <c r="E4" t="n">
-        <v>517205450</v>
+        <v>529223507</v>
       </c>
       <c r="F4" t="n">
-        <v>109648.8535225391</v>
+        <v>101556.3795912793</v>
       </c>
       <c r="G4" t="n">
-        <v>119338.5195705001</v>
+        <v>143759.1918751874</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>40747877</v>
+        <v>31351633</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>97713125</v>
+        <v>100691925</v>
       </c>
       <c r="E5" t="n">
-        <v>97713125</v>
+        <v>100691925</v>
       </c>
       <c r="F5" t="n">
-        <v>60671.15775484458</v>
+        <v>59211.04569902973</v>
       </c>
       <c r="G5" t="n">
-        <v>109145.0637068854</v>
+        <v>111560.5717178373</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>50940000</v>
+        <v>45235458</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>168744604</v>
+        <v>172228105</v>
       </c>
       <c r="E6" t="n">
-        <v>168744604</v>
+        <v>172228105</v>
       </c>
       <c r="F6" t="n">
-        <v>64375.46144023829</v>
+        <v>62772.70635921499</v>
       </c>
       <c r="G6" t="n">
-        <v>83429.72568640538</v>
+        <v>96893.55455413915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>10796099</v>
+        <v>7999723</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78069561</v>
+        <v>78658299</v>
       </c>
       <c r="E7" t="n">
-        <v>97343591</v>
+        <v>98077679</v>
       </c>
       <c r="F7" t="n">
-        <v>12106.15889781843</v>
+        <v>12817.15594961366</v>
       </c>
       <c r="G7" t="n">
-        <v>38494.69754262254</v>
+        <v>33416.39899040604</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>8234417</v>
+        <v>7277516</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57292793</v>
+        <v>58962318</v>
       </c>
       <c r="E8" t="n">
-        <v>118812103</v>
+        <v>122274315</v>
       </c>
       <c r="F8" t="n">
-        <v>54050.1026539157</v>
+        <v>45263.54183395611</v>
       </c>
       <c r="G8" t="n">
-        <v>44100.47986107432</v>
+        <v>44792.0991759425</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>13794362</v>
+        <v>10621147</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144573581</v>
+        <v>146860632</v>
       </c>
       <c r="E9" t="n">
-        <v>144596093</v>
+        <v>146890904</v>
       </c>
       <c r="F9" t="n">
-        <v>11679.54154431683</v>
+        <v>16053.50195043486</v>
       </c>
       <c r="G9" t="n">
-        <v>25880.0640938106</v>
+        <v>24429.22630638552</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>5078045</v>
+        <v>3270385</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>501773334</v>
+        <v>500290396</v>
       </c>
       <c r="E10" t="n">
-        <v>501773334</v>
+        <v>500290396</v>
       </c>
       <c r="F10" t="n">
-        <v>327072.5696408165</v>
+        <v>332846.3147877597</v>
       </c>
       <c r="G10" t="n">
-        <v>470203.5966542852</v>
+        <v>422456.0492374969</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>292410168</v>
+        <v>215365843</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69611329</v>
+        <v>70080067</v>
       </c>
       <c r="E11" t="n">
-        <v>79870133</v>
+        <v>80407950</v>
       </c>
       <c r="F11" t="n">
-        <v>6564.05478232277</v>
+        <v>6192.485208837869</v>
       </c>
       <c r="G11" t="n">
-        <v>6493.413789947617</v>
+        <v>3588.757999177737</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2188079</v>
+        <v>2146865</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>160807444</v>
+        <v>164092056</v>
       </c>
       <c r="E12" t="n">
-        <v>694134201</v>
+        <v>708312409</v>
       </c>
       <c r="F12" t="n">
-        <v>381497.4156781875</v>
+        <v>370371.8786469646</v>
       </c>
       <c r="G12" t="n">
-        <v>329763.769884956</v>
+        <v>232265.8170400575</v>
       </c>
       <c r="H12" t="n">
         <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>56580208</v>
+        <v>45080937</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>92213619</v>
+        <v>92662473</v>
       </c>
       <c r="E13" t="n">
-        <v>92213619</v>
+        <v>92662473</v>
       </c>
       <c r="F13" t="n">
-        <v>2408.418956505018</v>
+        <v>2499.295977248039</v>
       </c>
       <c r="G13" t="n">
-        <v>8046.625205987777</v>
+        <v>7513.425605424468</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>5438964</v>
+        <v>4775083</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9449781</v>
+        <v>9440086</v>
       </c>
       <c r="E14" t="n">
-        <v>23624453</v>
+        <v>23600216</v>
       </c>
       <c r="F14" t="n">
-        <v>17081.87968169852</v>
+        <v>6383.302852871288</v>
       </c>
       <c r="G14" t="n">
-        <v>10679.11944466108</v>
+        <v>23427.00556639189</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I14" t="n">
-        <v>2366917</v>
+        <v>2523205</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10615964</v>
+        <v>10558735</v>
       </c>
       <c r="E15" t="n">
-        <v>15679962</v>
+        <v>15595433</v>
       </c>
       <c r="F15" t="n">
-        <v>5710.089502371354</v>
+        <v>6821.424061654128</v>
       </c>
       <c r="G15" t="n">
-        <v>4504.632443450775</v>
+        <v>37191.90337798255</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>538963</v>
+        <v>1063925</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26842036</v>
+        <v>27216725</v>
       </c>
       <c r="E16" t="n">
-        <v>83577487</v>
+        <v>84744149</v>
       </c>
       <c r="F16" t="n">
-        <v>8051.19248357141</v>
+        <v>6359.715046165578</v>
       </c>
       <c r="G16" t="n">
-        <v>17157.46422058813</v>
+        <v>26516.08001771266</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>10055906</v>
+        <v>9223856</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>244231528</v>
+        <v>252706438</v>
       </c>
       <c r="E17" t="n">
-        <v>2197258270</v>
+        <v>2273503814</v>
       </c>
       <c r="F17" t="n">
-        <v>700421.2927567664</v>
+        <v>600365.2677886889</v>
       </c>
       <c r="G17" t="n">
-        <v>980312.8250060984</v>
+        <v>1018114.243954505</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>212141841</v>
+        <v>301746717</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13659261</v>
+        <v>13642187</v>
       </c>
       <c r="E18" t="n">
-        <v>83722105</v>
+        <v>83617449</v>
       </c>
       <c r="F18" t="n">
-        <v>26520.93409728607</v>
+        <v>27148.09657555409</v>
       </c>
       <c r="G18" t="n">
-        <v>37717.28883677119</v>
+        <v>37190.64392418734</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11377473</v>
+        <v>10457196</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46864576</v>
+        <v>49533770</v>
       </c>
       <c r="E19" t="n">
-        <v>201887469</v>
+        <v>213386065</v>
       </c>
       <c r="F19" t="n">
-        <v>56965.24675941705</v>
+        <v>53891.61070691553</v>
       </c>
       <c r="G19" t="n">
-        <v>68500.9306758137</v>
+        <v>61743.28878481864</v>
       </c>
       <c r="H19" t="n">
         <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>23482569</v>
+        <v>30288728</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>219076322</v>
+        <v>268102575</v>
       </c>
       <c r="E20" t="n">
-        <v>219076322</v>
+        <v>268102575</v>
       </c>
       <c r="F20" t="n">
-        <v>93442.7205668799</v>
+        <v>71645.21174856662</v>
       </c>
       <c r="G20" t="n">
-        <v>120308.205474382</v>
+        <v>105001.7125441459</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>142304118</v>
+        <v>257952105</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28330417</v>
+        <v>32003682</v>
       </c>
       <c r="E21" t="n">
-        <v>103632352</v>
+        <v>117069118</v>
       </c>
       <c r="F21" t="n">
-        <v>49849.46049807512</v>
+        <v>47437.56496767076</v>
       </c>
       <c r="G21" t="n">
-        <v>64096.67874399175</v>
+        <v>66638.03811941395</v>
       </c>
       <c r="H21" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>7886031</v>
+        <v>8439168</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30201127</v>
+        <v>31108746</v>
       </c>
       <c r="E22" t="n">
-        <v>195846270</v>
+        <v>201731941</v>
       </c>
       <c r="F22" t="n">
-        <v>24431.66577885517</v>
+        <v>21063.25017145561</v>
       </c>
       <c r="G22" t="n">
-        <v>71038.08687665095</v>
+        <v>73863.35379419364</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>10686568</v>
+        <v>8981563</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123635515</v>
+        <v>123425858</v>
       </c>
       <c r="E23" t="n">
-        <v>2047505392</v>
+        <v>2044033294</v>
       </c>
       <c r="F23" t="n">
-        <v>361589.8264413114</v>
+        <v>362850.342660156</v>
       </c>
       <c r="G23" t="n">
-        <v>325102.0907407948</v>
+        <v>345333.926195531</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>8145497</v>
+        <v>8639749</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1340828</v>
+        <v>1343687</v>
       </c>
       <c r="E24" t="n">
-        <v>6307717</v>
+        <v>6321168</v>
       </c>
       <c r="F24" t="n">
-        <v>532.3948055759847</v>
+        <v>559.8986787448603</v>
       </c>
       <c r="G24" t="n">
-        <v>4475.795781790542</v>
+        <v>3677.406894432514</v>
       </c>
       <c r="H24" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I24" t="n">
-        <v>1628941</v>
+        <v>1339851</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13231165</v>
+        <v>13438819</v>
       </c>
       <c r="E25" t="n">
-        <v>13231165</v>
+        <v>13438819</v>
       </c>
       <c r="F25" t="n">
-        <v>3846.113884062304</v>
+        <v>2414.926300755369</v>
       </c>
       <c r="G25" t="n">
-        <v>10807.90647778107</v>
+        <v>22809.59722043118</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>1649516</v>
+        <v>1737544</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>233234565</v>
+        <v>234902700</v>
       </c>
       <c r="E27" t="n">
-        <v>421277603</v>
+        <v>424290655</v>
       </c>
       <c r="F27" t="n">
-        <v>104620.5054333159</v>
+        <v>104699.5705684628</v>
       </c>
       <c r="G27" t="n">
-        <v>108260.21747068</v>
+        <v>107579.1360348205</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>14249619</v>
+        <v>13149880</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31284054</v>
+        <v>31824898</v>
       </c>
       <c r="E28" t="n">
-        <v>31284054</v>
+        <v>31824898</v>
       </c>
       <c r="F28" t="n">
-        <v>22917.69482975733</v>
+        <v>20848.46710429971</v>
       </c>
       <c r="G28" t="n">
-        <v>48727.64372169894</v>
+        <v>51836.88111452702</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I28" t="n">
-        <v>5166845</v>
+        <v>3900471</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>482203226</v>
+        <v>510760762</v>
       </c>
       <c r="E29" t="n">
-        <v>1757616894</v>
+        <v>1861708289</v>
       </c>
       <c r="F29" t="n">
-        <v>135723.2744062699</v>
+        <v>137387.3144529087</v>
       </c>
       <c r="G29" t="n">
-        <v>191687.0315272532</v>
+        <v>208266.782812671</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>24828745</v>
+        <v>23498605</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>84062617</v>
+        <v>84553969</v>
       </c>
       <c r="E30" t="n">
-        <v>251227729</v>
+        <v>252696174</v>
       </c>
       <c r="F30" t="n">
-        <v>142687.0501972475</v>
+        <v>144918.936973932</v>
       </c>
       <c r="G30" t="n">
-        <v>172249.2666204925</v>
+        <v>172785.2520172057</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>16372747</v>
+        <v>14250508</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23014476</v>
+        <v>23302806</v>
       </c>
       <c r="F31" t="n">
-        <v>5005.02453067127</v>
+        <v>6175.15001422478</v>
       </c>
       <c r="G31" t="n">
-        <v>13265.50466692531</v>
+        <v>15682.90250124899</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>2996097</v>
+        <v>2538260</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>193553977</v>
+        <v>192741449</v>
       </c>
       <c r="E32" t="n">
-        <v>699829809</v>
+        <v>696876942</v>
       </c>
       <c r="F32" t="n">
-        <v>3468.959020428491</v>
+        <v>1267.976062415851</v>
       </c>
       <c r="G32" t="n">
-        <v>5987.923437516622</v>
+        <v>13159.02764306458</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>2108028</v>
+        <v>1004260</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>260626580</v>
+        <v>267850023</v>
       </c>
       <c r="E33" t="n">
-        <v>897210345</v>
+        <v>922077138</v>
       </c>
       <c r="F33" t="n">
-        <v>161468.3397028036</v>
+        <v>160788.1554256747</v>
       </c>
       <c r="G33" t="n">
-        <v>197867.1148908802</v>
+        <v>196518.136853889</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>33803473</v>
+        <v>32273360</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79603765</v>
+        <v>81662421</v>
       </c>
       <c r="E34" t="n">
-        <v>116862048</v>
+        <v>119884252</v>
       </c>
       <c r="F34" t="n">
-        <v>43689.11192371786</v>
+        <v>49612.02789557163</v>
       </c>
       <c r="G34" t="n">
-        <v>65548.19916024555</v>
+        <v>71411.57715987934</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>5836445</v>
+        <v>5952782</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2224723</v>
+        <v>2381623</v>
       </c>
       <c r="E35" t="n">
-        <v>8898890</v>
+        <v>9526492</v>
       </c>
       <c r="F35" t="n">
-        <v>26839.75018471354</v>
+        <v>28897.38046826969</v>
       </c>
       <c r="G35" t="n">
-        <v>47840.39672899289</v>
+        <v>80963.41416315961</v>
       </c>
       <c r="H35" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I35" t="n">
-        <v>3902080</v>
+        <v>3237051</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>159083740</v>
+        <v>160795699</v>
       </c>
       <c r="E36" t="n">
-        <v>456608701</v>
+        <v>461522436</v>
       </c>
       <c r="F36" t="n">
-        <v>153362.664685466</v>
+        <v>145316.6256593606</v>
       </c>
       <c r="G36" t="n">
-        <v>225022.6554572311</v>
+        <v>231294.278311841</v>
       </c>
       <c r="H36" t="n">
         <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>13905401</v>
+        <v>10084721</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>98009847</v>
+        <v>102676592</v>
       </c>
       <c r="E37" t="n">
-        <v>256047994</v>
+        <v>268239736</v>
       </c>
       <c r="F37" t="n">
-        <v>35694.90283209753</v>
+        <v>36621.5842782843</v>
       </c>
       <c r="G37" t="n">
-        <v>45212.40264183895</v>
+        <v>42881.1416088344</v>
       </c>
       <c r="H37" t="n">
         <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>11320673</v>
+        <v>9606434</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>260049907</v>
+        <v>266848687</v>
       </c>
       <c r="E38" t="n">
-        <v>1485999470</v>
+        <v>1524849642</v>
       </c>
       <c r="F38" t="n">
-        <v>46653.66323880068</v>
+        <v>55301.50797476731</v>
       </c>
       <c r="G38" t="n">
-        <v>85480.46724685789</v>
+        <v>86296.41598222843</v>
       </c>
       <c r="H38" t="n">
         <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>50435668</v>
+        <v>44434619</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Arbitrum Ecosystem, Impossible Finance Launchpad, Ethereum Ecosystem, DePIN, Animoca Brands Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,24 +496,16 @@
           <t>aethir</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>299797641</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1593997543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>204745.5548117349</v>
-      </c>
-      <c r="G2" t="n">
-        <v>248360.8630193795</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31242040</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Decentralized Finance (DeFi), Binance Launchpool, Derivatives, Perpetuals, Ethereum Ecosystem, Layer 2 (L2), DragonFly Capital Portfolio, Pantera Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,24 +523,16 @@
           <t>aevo-exchange</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>109706321</v>
-      </c>
-      <c r="E3" t="n">
-        <v>121468606</v>
-      </c>
-      <c r="F3" t="n">
-        <v>64609.78677433536</v>
-      </c>
-      <c r="G3" t="n">
-        <v>173530.24869979</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13751784</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Blockchains, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Coinbase 50 Index</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,24 +550,16 @@
           <t>apecoin</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>423090639</v>
-      </c>
-      <c r="E4" t="n">
-        <v>529223507</v>
-      </c>
-      <c r="F4" t="n">
-        <v>101556.3795912793</v>
-      </c>
-      <c r="G4" t="n">
-        <v>143759.1918751874</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31351633</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -593,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Frog-Themed, Solana Meme, GMCI Meme Index, GMCI Index</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,24 +577,16 @@
           <t>book-of-meme</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>100691925</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100691925</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59211.04569902973</v>
-      </c>
-      <c r="G5" t="n">
-        <v>111560.5717178373</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45235458</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -637,22 +605,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>172228105</v>
+        <v>172323696</v>
       </c>
       <c r="E6" t="n">
-        <v>172228105</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62772.70635921499</v>
-      </c>
-      <c r="G6" t="n">
-        <v>96893.55455413915</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.05</v>
+        <v>172323696</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>7999723</v>
+        <v>7190445</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software as a service, Polygon Ecosystem, Ethereum Ecosystem, Decentralized Identifier (DID), Pantera Capital Portfolio, Energi Ecosystem, Blockchain Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,24 +637,16 @@
           <t>civic</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>78658299</v>
-      </c>
-      <c r="E7" t="n">
-        <v>98077679</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12817.15594961366</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33416.39899040604</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7277516</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -698,7 +656,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Meme, Base Ecosystem, Layer 3 (L3), Base Meme, Farcaster Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,24 +664,16 @@
           <t>degen-base</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>58962318</v>
-      </c>
-      <c r="E8" t="n">
-        <v>122274315</v>
-      </c>
-      <c r="F8" t="n">
-        <v>45263.54183395611</v>
-      </c>
-      <c r="G8" t="n">
-        <v>44792.0991759425</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10621147</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,22 +692,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146860632</v>
+        <v>146566903</v>
       </c>
       <c r="E9" t="n">
-        <v>146890904</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16053.50195043486</v>
-      </c>
-      <c r="G9" t="n">
-        <v>24429.22630638552</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.16</v>
+        <v>146571548</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>3270385</v>
+        <v>3076713</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +716,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Dog-Themed, Solana Meme, GMCI Meme Index, GMCI Index</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -776,24 +724,16 @@
           <t>dogwifcoin</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>500290396</v>
-      </c>
-      <c r="E10" t="n">
-        <v>500290396</v>
-      </c>
-      <c r="F10" t="n">
-        <v>332846.3147877597</v>
-      </c>
-      <c r="G10" t="n">
-        <v>422456.0492374969</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I10" t="n">
-        <v>215365843</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -803,7 +743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Collectibles, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Energi Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -811,24 +751,16 @@
           <t>ecomi</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>70080067</v>
-      </c>
-      <c r="E11" t="n">
-        <v>80407950</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6192.485208837869</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3588.757999177737</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2146865</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -847,22 +779,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>164092056</v>
+        <v>160939361</v>
       </c>
       <c r="E12" t="n">
-        <v>708312409</v>
-      </c>
-      <c r="F12" t="n">
-        <v>370371.8786469646</v>
-      </c>
-      <c r="G12" t="n">
-        <v>232265.8170400575</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.01</v>
+        <v>694703627</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>45080937</v>
+        <v>42742653</v>
       </c>
     </row>
     <row r="13">
@@ -873,7 +803,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Big Data, Media, BNB Chain Ecosystem, Polygon Ecosystem, Ethereum Ecosystem, GMCI DePIN Index, Galaxy Digital Portfolio, GMCI Index</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -881,24 +811,16 @@
           <t>everipedia</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>92662473</v>
-      </c>
-      <c r="E13" t="n">
-        <v>92662473</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2499.295977248039</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7513.425605424468</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4775083</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -908,7 +830,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Meme, Linea Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -916,24 +838,16 @@
           <t>foxy</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>9440086</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23600216</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6383.302852871288</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23427.00556639189</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2523205</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -943,7 +857,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sports, Fan Token, Chiliz Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -951,24 +865,16 @@
           <t>galatasaray-fan-token</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>10558735</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15595433</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6821.424061654128</v>
-      </c>
-      <c r="G15" t="n">
-        <v>37191.90337798255</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1063925</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -978,7 +884,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, Mobile Mining</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -986,24 +892,16 @@
           <t>ice</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>27216725</v>
-      </c>
-      <c r="E16" t="n">
-        <v>84744149</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6359.715046165578</v>
-      </c>
-      <c r="G16" t="n">
-        <v>26516.08001771266</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9223856</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1013,7 +911,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Avalanche Ecosystem, Polygon Ecosystem, Arbitrum Ecosystem, Ethereum Ecosystem, Optimism Ecosystem, Base Ecosystem, Multicoin Capital Portfolio, Layer 0 (L0), Cross-chain Communication, Circle Ventures Portfolio, Sequoia Capital Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1021,24 +919,16 @@
           <t>layerzero</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>252706438</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2273503814</v>
-      </c>
-      <c r="F17" t="n">
-        <v>600365.2677886889</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1018114.243954505</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I17" t="n">
-        <v>301746717</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1048,7 +938,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Shooting Games, Gaming Platform, Action Games</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1056,24 +946,16 @@
           <t>matr1x</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>13642187</v>
-      </c>
-      <c r="E18" t="n">
-        <v>83617449</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27148.09657555409</v>
-      </c>
-      <c r="G18" t="n">
-        <v>37190.64392418734</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10457196</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1083,7 +965,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Merlin Chain Ecosystem, Bitcoin Sidechains, SideChain, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1091,24 +973,16 @@
           <t>merlin-chain</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>49533770</v>
-      </c>
-      <c r="E19" t="n">
-        <v>213386065</v>
-      </c>
-      <c r="F19" t="n">
-        <v>53891.61070691553</v>
-      </c>
-      <c r="G19" t="n">
-        <v>61743.28878481864</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30288728</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1118,7 +992,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Binance Launchpool, Meme, Play To Earn, TON Ecosystem, TON Meme, Tap to Earn</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1126,24 +1000,16 @@
           <t>notcoin</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>268102575</v>
-      </c>
-      <c r="E20" t="n">
-        <v>268102575</v>
-      </c>
-      <c r="F20" t="n">
-        <v>71645.21174856662</v>
-      </c>
-      <c r="G20" t="n">
-        <v>105001.7125441459</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I20" t="n">
-        <v>257952105</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1153,7 +1019,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tokenized Real Estate, Decentralized Finance (DeFi), Tokenized Assets, Derivatives, Solana Ecosystem, Real World Assets (RWA), Coinbase Ventures Portfolio, DragonFly Capital Portfolio, RWA Protocol, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1161,24 +1027,16 @@
           <t>parcl</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>32003682</v>
-      </c>
-      <c r="E21" t="n">
-        <v>117069118</v>
-      </c>
-      <c r="F21" t="n">
-        <v>47437.56496767076</v>
-      </c>
-      <c r="G21" t="n">
-        <v>66638.03811941395</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8439168</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1188,7 +1046,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1196,24 +1054,16 @@
           <t>pixels</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>31108746</v>
-      </c>
-      <c r="E22" t="n">
-        <v>201731941</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21063.25017145561</v>
-      </c>
-      <c r="G22" t="n">
-        <v>73863.35379419364</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8981563</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1232,22 +1082,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>123425858</v>
+        <v>123735964</v>
       </c>
       <c r="E23" t="n">
-        <v>2044033294</v>
-      </c>
-      <c r="F23" t="n">
-        <v>362850.342660156</v>
-      </c>
-      <c r="G23" t="n">
-        <v>345333.926195531</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.02</v>
+        <v>2049168909</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>8639749</v>
+        <v>8244277</v>
       </c>
     </row>
     <row r="24">
@@ -1258,7 +1106,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Binance Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1266,24 +1114,16 @@
           <t>qna3-ai</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1343687</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6321168</v>
-      </c>
-      <c r="F24" t="n">
-        <v>559.8986787448603</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3677.406894432514</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1339851</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1293,7 +1133,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Solana Ecosystem, Ethereum Ecosystem, Algorand Ecosystem, Real World Assets (RWA), Osmosis Ecosystem, Stellar Ecosystem, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1301,24 +1141,16 @@
           <t>realio-network</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>13438819</v>
-      </c>
-      <c r="E25" t="n">
-        <v>13438819</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2414.926300755369</v>
-      </c>
-      <c r="G25" t="n">
-        <v>22809.59722043118</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1737544</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1355,7 +1187,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Infrastructure, Wallets, Gnosis Chain Ecosystem, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1363,24 +1195,16 @@
           <t>safe</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>234902700</v>
-      </c>
-      <c r="E27" t="n">
-        <v>424290655</v>
-      </c>
-      <c r="F27" t="n">
-        <v>104699.5705684628</v>
-      </c>
-      <c r="G27" t="n">
-        <v>107579.1360348205</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13149880</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1390,7 +1214,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Solana Meme</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1398,24 +1222,16 @@
           <t>slerf</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>31824898</v>
-      </c>
-      <c r="E28" t="n">
-        <v>31824898</v>
-      </c>
-      <c r="F28" t="n">
-        <v>20848.46710429971</v>
-      </c>
-      <c r="G28" t="n">
-        <v>51836.88111452702</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3900471</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1425,7 +1241,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Zero Knowledge (ZK), Starknet Ecosystem, Paradigm Portfolio, Coinbase Ventures Portfolio, Rollup, Multicoin Capital Portfolio, Alameda Research Portfolio, Pantera Capital Portfolio, GMCI Layer 2 Index, Consensys Portfolio, Sequoia Capital Portfolio, GMCI Index, Polychain Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1433,24 +1249,16 @@
           <t>starknet</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>510760762</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1861708289</v>
-      </c>
-      <c r="F29" t="n">
-        <v>137387.3144529087</v>
-      </c>
-      <c r="G29" t="n">
-        <v>208266.782812671</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I29" t="n">
-        <v>23498605</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1469,22 +1277,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>84553969</v>
+        <v>83454279</v>
       </c>
       <c r="E30" t="n">
-        <v>252696174</v>
-      </c>
-      <c r="F30" t="n">
-        <v>144918.936973932</v>
-      </c>
-      <c r="G30" t="n">
-        <v>172785.2520172057</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.04</v>
+        <v>249409664</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I30" t="n">
-        <v>14250508</v>
+        <v>13255861</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1313,17 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23302806</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6175.15001422478</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15682.90250124899</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.09</v>
+        <v>23165943</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I31" t="n">
-        <v>2538260</v>
+        <v>2224919</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1343,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>192741449</v>
+        <v>191602692</v>
       </c>
       <c r="E32" t="n">
-        <v>696876942</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1267.976062415851</v>
-      </c>
-      <c r="G32" t="n">
-        <v>13159.02764306458</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.02</v>
+        <v>692731487</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I32" t="n">
-        <v>1004260</v>
+        <v>380668</v>
       </c>
     </row>
     <row r="33">
@@ -1565,7 +1367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Arbitrum Ecosystem, Ethereum Ecosystem, Interoperability, Base Ecosystem, Multicoin Capital Portfolio, Cross-chain Communication, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1573,24 +1375,16 @@
           <t>wormhole</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>267850023</v>
-      </c>
-      <c r="E33" t="n">
-        <v>922077138</v>
-      </c>
-      <c r="F33" t="n">
-        <v>160788.1554256747</v>
-      </c>
-      <c r="G33" t="n">
-        <v>196518.136853889</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32273360</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1600,7 +1394,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Play To Earn, Guild and Scholarship, Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, DWF Labs Portfolio, Ronin Ecosystem, Coinbase Ventures Portfolio, DeFiance Capital Portfolio, Pantera Capital Portfolio, Binance Labs Portfolio, MMO</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1608,24 +1402,16 @@
           <t>zentry</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>81662421</v>
-      </c>
-      <c r="E34" t="n">
-        <v>119884252</v>
-      </c>
-      <c r="F34" t="n">
-        <v>49612.02789557163</v>
-      </c>
-      <c r="G34" t="n">
-        <v>71411.57715987934</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5952782</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1635,7 +1421,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Linea Ecosystem, Account Abstraction</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1643,24 +1429,16 @@
           <t>zerolend</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2381623</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9526492</v>
-      </c>
-      <c r="F35" t="n">
-        <v>28897.38046826969</v>
-      </c>
-      <c r="G35" t="n">
-        <v>80963.41416315961</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3237051</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1679,22 +1457,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>160795699</v>
+        <v>158885932</v>
       </c>
       <c r="E36" t="n">
-        <v>461522436</v>
+        <v>456040946</v>
       </c>
       <c r="F36" t="n">
-        <v>145316.6256593606</v>
+        <v>146512.0078958881</v>
       </c>
       <c r="G36" t="n">
-        <v>231294.278311841</v>
+        <v>222507.5418354462</v>
       </c>
       <c r="H36" t="n">
         <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>10084721</v>
+        <v>11149830</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1492,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>102676592</v>
+        <v>101355650</v>
       </c>
       <c r="E37" t="n">
-        <v>268239736</v>
+        <v>264788806</v>
       </c>
       <c r="F37" t="n">
-        <v>36621.5842782843</v>
+        <v>40789.43812952197</v>
       </c>
       <c r="G37" t="n">
-        <v>42881.1416088344</v>
+        <v>35789.40260341755</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>9606434</v>
+        <v>7742932</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1527,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>266848687</v>
+        <v>266428247</v>
       </c>
       <c r="E38" t="n">
-        <v>1524849642</v>
+        <v>1522447125</v>
       </c>
       <c r="F38" t="n">
-        <v>55301.50797476731</v>
+        <v>34541.38490237763</v>
       </c>
       <c r="G38" t="n">
-        <v>86296.41598222843</v>
+        <v>84474.99548240159</v>
       </c>
       <c r="H38" t="n">
         <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>44434619</v>
+        <v>37583941</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Dog-Themed, Solana Meme, Cat-Themed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +604,8 @@
           <t>cat-in-a-dogs-world</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>172323696</v>
-      </c>
-      <c r="E6" t="n">
-        <v>172323696</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -617,9 +613,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>7190445</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -683,7 +677,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Internet of Things (IOT), Smart Contract Platform, Layer 1 (L1), Proof of Work (PoW), Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,12 +685,8 @@
           <t>digibyte</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>146566903</v>
-      </c>
-      <c r="E9" t="n">
-        <v>146571548</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -704,9 +694,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>3076713</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -770,7 +758,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Binance Launchpool, Arbitrum Ecosystem, Ethereum Ecosystem, Restaking, Liquid Restaking Governance Tokens, Ether.fi Ecosystem, Consensys Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -778,12 +766,8 @@
           <t>ether-fi</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>160939361</v>
-      </c>
-      <c r="E12" t="n">
-        <v>694703627</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -791,9 +775,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>42742653</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1073,7 +1055,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Ethereum Ecosystem, Zero Knowledge (ZK), Animoca Brands Portfolio, Binance Labs Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1081,12 +1063,8 @@
           <t>polyhedra-network</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>123735964</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2049168909</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1094,9 +1072,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>8244277</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1268,7 +1244,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NFT, Solana Ecosystem, NFT Marketplace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1276,12 +1252,8 @@
           <t>tensor</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>83454279</v>
-      </c>
-      <c r="E30" t="n">
-        <v>249409664</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -1289,9 +1261,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>13255861</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1301,7 +1271,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1309,12 +1279,8 @@
           <t>ultiverse</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>23165943</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1322,9 +1288,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>2224919</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1334,7 +1298,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Venom Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1342,12 +1306,8 @@
           <t>venom</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>191602692</v>
-      </c>
-      <c r="E32" t="n">
-        <v>692731487</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1355,9 +1315,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>380668</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1448,7 +1406,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, ZetaChain Ecosystem, Cross-chain Communication, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1456,24 +1414,16 @@
           <t>zetachain</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>158885932</v>
-      </c>
-      <c r="E36" t="n">
-        <v>456040946</v>
-      </c>
-      <c r="F36" t="n">
-        <v>146512.0078958881</v>
-      </c>
-      <c r="G36" t="n">
-        <v>222507.5418354462</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11149830</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1483,7 +1433,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Infrastructure, Solana Ecosystem, Animoca Brands Portfolio, Cross-chain Communication, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1491,24 +1441,16 @@
           <t>zeus-network</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>101355650</v>
-      </c>
-      <c r="E37" t="n">
-        <v>264788806</v>
-      </c>
-      <c r="F37" t="n">
-        <v>40789.43812952197</v>
-      </c>
-      <c r="G37" t="n">
-        <v>35789.40260341755</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7742932</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1518,7 +1460,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Layer 2 (L2), Zero Knowledge (ZK), ZkSync Ecosystem, Consensys Portfolio, Blockchain Capital Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1526,24 +1468,16 @@
           <t>zksync</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>266428247</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1522447125</v>
-      </c>
-      <c r="F38" t="n">
-        <v>34541.38490237763</v>
-      </c>
-      <c r="G38" t="n">
-        <v>84474.99548240159</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I38" t="n">
-        <v>37583941</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Solana Ecosystem, Arbitrum Ecosystem, Impossible Finance Launchpad, Ethereum Ecosystem, DePIN, Animoca Brands Portfolio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,16 +496,24 @@
           <t>aethir</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>233508842</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1241545857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>173003.5031548683</v>
+      </c>
+      <c r="G2" t="n">
+        <v>197981.2826492422</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17854349</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -515,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, Decentralized Finance (DeFi), Binance Launchpool, Derivatives, Perpetuals, Ethereum Ecosystem, Layer 2 (L2), DragonFly Capital Portfolio, Pantera Capital Portfolio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,16 +531,24 @@
           <t>aevo-exchange</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>97725987</v>
+      </c>
+      <c r="E3" t="n">
+        <v>108202561</v>
+      </c>
+      <c r="F3" t="n">
+        <v>67179.83455039884</v>
+      </c>
+      <c r="G3" t="n">
+        <v>154920.1998837906</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25759183</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Blockchains, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Coinbase 50 Index</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,16 +566,24 @@
           <t>apecoin</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>378274991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>473165792</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67266.90076852127</v>
+      </c>
+      <c r="G4" t="n">
+        <v>102986.9786121511</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36410604</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -569,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Solana Ecosystem, Meme, Frog-Themed, Solana Meme, GMCI Meme Index, GMCI Index</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +601,24 @@
           <t>book-of-meme</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>90926928</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90926928</v>
+      </c>
+      <c r="F5" t="n">
+        <v>65137.37403589085</v>
+      </c>
+      <c r="G5" t="n">
+        <v>89545.81217258255</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46960350</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Solana Ecosystem, Meme, Dog-Themed, Solana Meme, Cat-Themed</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,16 +636,24 @@
           <t>cat-in-a-dogs-world</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>238045995</v>
+      </c>
+      <c r="E6" t="n">
+        <v>238045995</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46553.79994860253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>143372.1290752985</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>75587294</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -623,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Software as a service, Polygon Ecosystem, Ethereum Ecosystem, Decentralized Identifier (DID), Pantera Capital Portfolio, Energi Ecosystem, Blockchain Capital Portfolio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,16 +671,24 @@
           <t>civic</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>72916831</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90918741</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7763.988860179117</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24189.42427433095</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8698655</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, Meme, Base Ecosystem, Layer 3 (L3), Base Meme, Farcaster Ecosystem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,16 +706,24 @@
           <t>degen-base</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>52539495</v>
+      </c>
+      <c r="E8" t="n">
+        <v>106482806</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35285.50854859694</v>
+      </c>
+      <c r="G8" t="n">
+        <v>39045.7342985198</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14672374</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -677,7 +733,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Internet of Things (IOT), Smart Contract Platform, Layer 1 (L1), Proof of Work (PoW), Made in USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -685,16 +741,24 @@
           <t>digibyte</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>147611915</v>
+      </c>
+      <c r="E9" t="n">
+        <v>147617177</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14290.85893315773</v>
+      </c>
+      <c r="G9" t="n">
+        <v>41679.81377780885</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5503182</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -704,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Solana Ecosystem, Meme, Dog-Themed, Solana Meme, GMCI Meme Index, GMCI Index</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -712,16 +776,24 @@
           <t>dogwifcoin</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>424916110</v>
+      </c>
+      <c r="E10" t="n">
+        <v>424916110</v>
+      </c>
+      <c r="F10" t="n">
+        <v>173877.7114914918</v>
+      </c>
+      <c r="G10" t="n">
+        <v>298201.4019725494</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>156255852</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -731,7 +803,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), NFT, Metaverse, Collectibles, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Energi Ecosystem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,16 +811,24 @@
           <t>ecomi</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>61418054</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70469394</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1902.904206455778</v>
+      </c>
+      <c r="G11" t="n">
+        <v>713.0908976402435</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1924053</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -758,7 +838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Decentralized Finance (DeFi), Binance Launchpool, Arbitrum Ecosystem, Ethereum Ecosystem, Restaking, Liquid Restaking Governance Tokens, Ether.fi Ecosystem, Consensys Portfolio, OKX Ventures Portfolio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -766,16 +846,24 @@
           <t>ether-fi</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>133090354</v>
+      </c>
+      <c r="E12" t="n">
+        <v>580805972</v>
+      </c>
+      <c r="F12" t="n">
+        <v>367688.2871339736</v>
+      </c>
+      <c r="G12" t="n">
+        <v>344353.9482993624</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I12" t="n">
+        <v>68033874</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -785,7 +873,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Artificial Intelligence (AI), Big Data, Media, BNB Chain Ecosystem, Polygon Ecosystem, Ethereum Ecosystem, GMCI DePIN Index, Galaxy Digital Portfolio, GMCI Index</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -793,16 +881,24 @@
           <t>everipedia</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>85640471</v>
+      </c>
+      <c r="E13" t="n">
+        <v>85640471</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5812.054430522758</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2857.377934988128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13868774</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -812,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Meme, Linea Ecosystem</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -820,16 +916,24 @@
           <t>foxy</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>7335566</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18338914</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4921.700331680548</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8481.026445897214</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1560388</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -839,7 +943,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sports, Fan Token, Chiliz Ecosystem</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -847,16 +951,24 @@
           <t>galatasaray-fan-token</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>11194251</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16466770</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5266.943289029692</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9221.211517099922</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I15" t="n">
+        <v>506729</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -866,7 +978,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, Mobile Mining</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -874,16 +986,24 @@
           <t>ice</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>22440988</v>
+      </c>
+      <c r="E16" t="n">
+        <v>69874037</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4523.144545441645</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6692.020507909906</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6983317</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -893,7 +1013,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, BNB Chain Ecosystem, Avalanche Ecosystem, Polygon Ecosystem, Arbitrum Ecosystem, Ethereum Ecosystem, Optimism Ecosystem, Base Ecosystem, Multicoin Capital Portfolio, Layer 0 (L0), Cross-chain Communication, Circle Ventures Portfolio, Sequoia Capital Portfolio, OKX Ventures Portfolio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -901,16 +1021,24 @@
           <t>layerzero</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>310468162</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2793164103</v>
+      </c>
+      <c r="F17" t="n">
+        <v>865042.3693894778</v>
+      </c>
+      <c r="G17" t="n">
+        <v>961866.3223999122</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>141043756</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -920,7 +1048,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Shooting Games, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -928,16 +1056,24 @@
           <t>matr1x</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>11907365</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72984155</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23232.73454539172</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26311.01720647881</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8718960</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -947,7 +1083,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, BNB Chain Ecosystem, Ethereum Ecosystem, Layer 2 (L2), Merlin Chain Ecosystem, Bitcoin Sidechains, SideChain, OKX Ventures Portfolio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -955,16 +1091,24 @@
           <t>merlin-chain</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>50044732</v>
+      </c>
+      <c r="E19" t="n">
+        <v>215587232</v>
+      </c>
+      <c r="F19" t="n">
+        <v>54959.23949313151</v>
+      </c>
+      <c r="G19" t="n">
+        <v>65834.03772118923</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14353741</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -974,7 +1118,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), Binance Launchpool, Meme, Play To Earn, TON Ecosystem, TON Meme, Tap to Earn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -982,16 +1126,24 @@
           <t>notcoin</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>232710314</v>
+      </c>
+      <c r="E20" t="n">
+        <v>232710314</v>
+      </c>
+      <c r="F20" t="n">
+        <v>66937.58766128517</v>
+      </c>
+      <c r="G20" t="n">
+        <v>106865.8741097469</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30275358</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1001,7 +1153,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Tokenized Real Estate, Decentralized Finance (DeFi), Tokenized Assets, Derivatives, Solana Ecosystem, Real World Assets (RWA), Coinbase Ventures Portfolio, DragonFly Capital Portfolio, RWA Protocol, Made in USA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1009,16 +1161,24 @@
           <t>parcl</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>26432441</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96689580</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22259.8972190127</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55145.07007266708</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6165989</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1028,7 +1188,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1036,16 +1196,24 @@
           <t>pixels</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>22790923</v>
+      </c>
+      <c r="E22" t="n">
+        <v>147793069</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4184.493489126227</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3998.326145132534</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10813055</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1055,7 +1223,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, BNB Chain Ecosystem, Ethereum Ecosystem, Zero Knowledge (ZK), Animoca Brands Portfolio, YZi Labs (Prev. Binance Labs) Portfolio, OKX Ventures Portfolio</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1063,16 +1231,24 @@
           <t>polyhedra-network</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>135673134</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2246858216</v>
+      </c>
+      <c r="F23" t="n">
+        <v>423863.4424171616</v>
+      </c>
+      <c r="G23" t="n">
+        <v>357422.1447295485</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4835459</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1082,7 +1258,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BNB Chain Ecosystem, YZi Labs (Prev. Binance Labs) Portfolio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1090,8 +1266,12 @@
           <t>qna3-ai</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1551118</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2459111</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1099,7 +1279,9 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>590067</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1109,7 +1291,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BNB Chain Ecosystem, Solana Ecosystem, Ethereum Ecosystem, Algorand Ecosystem, Real World Assets (RWA), Osmosis Ecosystem, Stellar Ecosystem, Made in USA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1117,16 +1299,24 @@
           <t>realio-network</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>13826019</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13826019</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18151.48209410811</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7567.300279472072</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1540902</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1163,7 +1353,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Infrastructure, Wallets, Gnosis Chain Ecosystem, Ethereum Ecosystem</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1171,16 +1361,24 @@
           <t>safe</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>321643503</v>
+      </c>
+      <c r="E27" t="n">
+        <v>567366377</v>
+      </c>
+      <c r="F27" t="n">
+        <v>95831.60129517628</v>
+      </c>
+      <c r="G27" t="n">
+        <v>50857.15908179648</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I27" t="n">
+        <v>101530951</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1190,7 +1388,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Solana Ecosystem, Meme, Solana Meme</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1198,16 +1396,24 @@
           <t>slerf</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>29777993</v>
+      </c>
+      <c r="E28" t="n">
+        <v>29777993</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11214.33039342503</v>
+      </c>
+      <c r="G28" t="n">
+        <v>28112.06223775002</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7729939</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1217,7 +1423,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Infrastructure, Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Zero Knowledge (ZK), Starknet Ecosystem, Paradigm Portfolio, Coinbase Ventures Portfolio, Rollup, Multicoin Capital Portfolio, Alameda Research Portfolio, Pantera Capital Portfolio, GMCI Layer 2 Index, Consensys Portfolio, Sequoia Capital Portfolio, GMCI Index, Polychain Capital Portfolio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1225,16 +1431,24 @@
           <t>starknet</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>435030360</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1497379549</v>
+      </c>
+      <c r="F29" t="n">
+        <v>137700.5330976123</v>
+      </c>
+      <c r="G29" t="n">
+        <v>152453.509998073</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27029243</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1244,7 +1458,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>NFT, Solana Ecosystem, NFT Marketplace</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1252,16 +1466,24 @@
           <t>tensor</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>55088964</v>
+      </c>
+      <c r="E30" t="n">
+        <v>164637693</v>
+      </c>
+      <c r="F30" t="n">
+        <v>97846.52984984769</v>
+      </c>
+      <c r="G30" t="n">
+        <v>146430.6518853623</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6713516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1271,7 +1493,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1279,16 +1501,24 @@
           <t>ultiverse</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>33929644</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4718.892397434438</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7157.366340688518</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4888678</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1298,7 +1528,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Infrastructure, Smart Contract Platform, Venom Ecosystem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1306,16 +1536,24 @@
           <t>venom</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>241391218</v>
+      </c>
+      <c r="E32" t="n">
+        <v>859085214</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24647.30230949149</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25859.50764763724</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I32" t="n">
+        <v>464447</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1325,7 +1563,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Solana Ecosystem, Arbitrum Ecosystem, Ethereum Ecosystem, Interoperability, Base Ecosystem, Multicoin Capital Portfolio, Cross-chain Communication, Made in USA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1333,16 +1571,24 @@
           <t>wormhole</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>239245848</v>
+      </c>
+      <c r="E33" t="n">
+        <v>815739829</v>
+      </c>
+      <c r="F33" t="n">
+        <v>138181.4217820875</v>
+      </c>
+      <c r="G33" t="n">
+        <v>231501.3818174293</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I33" t="n">
+        <v>40450404</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1352,7 +1598,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaming (GameFi), Play To Earn, Guild and Scholarship, Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, DWF Labs Portfolio, Ronin Ecosystem, Coinbase Ventures Portfolio, DeFiance Capital Portfolio, Pantera Capital Portfolio, YZi Labs (Prev. Binance Labs) Portfolio, MMO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1360,16 +1606,24 @@
           <t>zentry</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>72203110</v>
+      </c>
+      <c r="E34" t="n">
+        <v>106000045</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10017.06322880572</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15933.94107702439</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10340313</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1379,7 +1633,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Linea Ecosystem, Account Abstraction</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1387,16 +1641,24 @@
           <t>zerolend</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>7899411</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11723831</v>
+      </c>
+      <c r="F35" t="n">
+        <v>112403.1295518995</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4437.066834008542</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4853258</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1406,7 +1668,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, ZetaChain Ecosystem, Cross-chain Communication, Made in USA, Chain Abstraction</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1414,16 +1676,24 @@
           <t>zetachain</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>225515288</v>
+      </c>
+      <c r="E36" t="n">
+        <v>606937698</v>
+      </c>
+      <c r="F36" t="n">
+        <v>75434.2146463696</v>
+      </c>
+      <c r="G36" t="n">
+        <v>227002.2352240371</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I36" t="n">
+        <v>97327410</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1433,7 +1703,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Infrastructure, Solana Ecosystem, Animoca Brands Portfolio, Cross-chain Communication, OKX Ventures Portfolio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1441,16 +1711,24 @@
           <t>zeus-network</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>108146822</v>
+      </c>
+      <c r="E37" t="n">
+        <v>282530529</v>
+      </c>
+      <c r="F37" t="n">
+        <v>37038.21314129289</v>
+      </c>
+      <c r="G37" t="n">
+        <v>37232.60278866741</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5695974</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1460,7 +1738,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Smart Contract Platform, Layer 2 (L2), Zero Knowledge (ZK), ZkSync Ecosystem, Consensys Portfolio, Blockchain Capital Portfolio, OKX Ventures Portfolio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1468,16 +1746,24 @@
           <t>zksync</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>242470144</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1385543679</v>
+      </c>
+      <c r="F38" t="n">
+        <v>46072.03596598314</v>
+      </c>
+      <c r="G38" t="n">
+        <v>73992.84336642688</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I38" t="n">
+        <v>28065778</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OkxData.xlsx
+++ b/OkxData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>233508842</v>
+        <v>242444089</v>
       </c>
       <c r="E2" t="n">
-        <v>1241545857</v>
+        <v>1289053780</v>
       </c>
       <c r="F2" t="n">
-        <v>173003.5031548683</v>
+        <v>178378.9569977121</v>
       </c>
       <c r="G2" t="n">
-        <v>197981.2826492422</v>
+        <v>209507.3450353798</v>
       </c>
       <c r="H2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>17854349</v>
+        <v>20252011</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>97725987</v>
+        <v>99703104</v>
       </c>
       <c r="E3" t="n">
-        <v>108202561</v>
+        <v>110391632</v>
       </c>
       <c r="F3" t="n">
-        <v>67179.83455039884</v>
+        <v>73633.76733635647</v>
       </c>
       <c r="G3" t="n">
-        <v>154920.1998837906</v>
+        <v>159741.0091697302</v>
       </c>
       <c r="H3" t="n">
         <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>25759183</v>
+        <v>24847009</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>378274991</v>
+        <v>392249392</v>
       </c>
       <c r="E4" t="n">
-        <v>473165792</v>
+        <v>490645691</v>
       </c>
       <c r="F4" t="n">
-        <v>67266.90076852127</v>
+        <v>102912.5380990257</v>
       </c>
       <c r="G4" t="n">
-        <v>102986.9786121511</v>
+        <v>91733.68926297284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>36410604</v>
+        <v>37929091</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90926928</v>
+        <v>92639257</v>
       </c>
       <c r="E5" t="n">
-        <v>90926928</v>
+        <v>92639257</v>
       </c>
       <c r="F5" t="n">
-        <v>65137.37403589085</v>
+        <v>66100.80078493574</v>
       </c>
       <c r="G5" t="n">
-        <v>89545.81217258255</v>
+        <v>86245.27248933345</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>46960350</v>
+        <v>45373242</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>238045995</v>
+        <v>249760047</v>
       </c>
       <c r="E6" t="n">
-        <v>238045995</v>
+        <v>249760047</v>
       </c>
       <c r="F6" t="n">
-        <v>46553.79994860253</v>
+        <v>36074.98485382002</v>
       </c>
       <c r="G6" t="n">
-        <v>143372.1290752985</v>
+        <v>131141.6443520255</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>75587294</v>
+        <v>124477798</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72916831</v>
+        <v>74749351</v>
       </c>
       <c r="E7" t="n">
-        <v>90918741</v>
+        <v>93203679</v>
       </c>
       <c r="F7" t="n">
-        <v>7763.988860179117</v>
+        <v>10339.2615257431</v>
       </c>
       <c r="G7" t="n">
-        <v>24189.42427433095</v>
+        <v>22952.60025254394</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>8698655</v>
+        <v>8541253</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52539495</v>
+        <v>54252008</v>
       </c>
       <c r="E8" t="n">
-        <v>106482806</v>
+        <v>109953590</v>
       </c>
       <c r="F8" t="n">
-        <v>35285.50854859694</v>
+        <v>32138.21197775197</v>
       </c>
       <c r="G8" t="n">
-        <v>39045.7342985198</v>
+        <v>50170.39455707126</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14672374</v>
+        <v>13907839</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>147611915</v>
+        <v>151454129</v>
       </c>
       <c r="E9" t="n">
-        <v>147617177</v>
+        <v>151461949</v>
       </c>
       <c r="F9" t="n">
-        <v>14290.85893315773</v>
+        <v>12397.94697764855</v>
       </c>
       <c r="G9" t="n">
-        <v>41679.81377780885</v>
+        <v>38454.61095397455</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>5503182</v>
+        <v>5605753</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>424916110</v>
+        <v>432528784</v>
       </c>
       <c r="E10" t="n">
-        <v>424916110</v>
+        <v>432528784</v>
       </c>
       <c r="F10" t="n">
-        <v>173877.7114914918</v>
+        <v>288633.7647343173</v>
       </c>
       <c r="G10" t="n">
-        <v>298201.4019725494</v>
+        <v>280684.5199402162</v>
       </c>
       <c r="H10" t="n">
         <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>156255852</v>
+        <v>176863480</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61418054</v>
+        <v>63673718</v>
       </c>
       <c r="E11" t="n">
-        <v>70469394</v>
+        <v>73057481</v>
       </c>
       <c r="F11" t="n">
-        <v>1902.904206455778</v>
+        <v>3594.549077160182</v>
       </c>
       <c r="G11" t="n">
-        <v>713.0908976402435</v>
+        <v>10967.02688006673</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1924053</v>
+        <v>2080678</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>133090354</v>
+        <v>137219330</v>
       </c>
       <c r="E12" t="n">
-        <v>580805972</v>
+        <v>598824813</v>
       </c>
       <c r="F12" t="n">
-        <v>367688.2871339736</v>
+        <v>373690.1220619695</v>
       </c>
       <c r="G12" t="n">
-        <v>344353.9482993624</v>
+        <v>312693.7622561076</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>68033874</v>
+        <v>52490648</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>85640471</v>
+        <v>88331738</v>
       </c>
       <c r="E13" t="n">
-        <v>85640471</v>
+        <v>88331738</v>
       </c>
       <c r="F13" t="n">
-        <v>5812.054430522758</v>
+        <v>6065.744261812468</v>
       </c>
       <c r="G13" t="n">
-        <v>2857.377934988128</v>
+        <v>4296.770125816539</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>13868774</v>
+        <v>5998238</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7335566</v>
+        <v>8325113</v>
       </c>
       <c r="E14" t="n">
-        <v>18338914</v>
+        <v>20812782</v>
       </c>
       <c r="F14" t="n">
-        <v>4921.700331680548</v>
+        <v>3286.837727121503</v>
       </c>
       <c r="G14" t="n">
-        <v>8481.026445897214</v>
+        <v>7077.798146225745</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>1560388</v>
+        <v>1853611</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11194251</v>
+        <v>11174185</v>
       </c>
       <c r="E15" t="n">
-        <v>16466770</v>
+        <v>16437254</v>
       </c>
       <c r="F15" t="n">
-        <v>5266.943289029692</v>
+        <v>5547.466240452011</v>
       </c>
       <c r="G15" t="n">
-        <v>9221.211517099922</v>
+        <v>10075.78056076788</v>
       </c>
       <c r="H15" t="n">
         <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>506729</v>
+        <v>510566</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22440988</v>
+        <v>23113068</v>
       </c>
       <c r="E16" t="n">
-        <v>69874037</v>
+        <v>71966678</v>
       </c>
       <c r="F16" t="n">
-        <v>4523.144545441645</v>
+        <v>10322.31391146303</v>
       </c>
       <c r="G16" t="n">
-        <v>6692.020507909906</v>
+        <v>10493.46817403796</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I16" t="n">
-        <v>6983317</v>
+        <v>7199558</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>310468162</v>
+        <v>313062018</v>
       </c>
       <c r="E17" t="n">
-        <v>2793164103</v>
+        <v>2816500033</v>
       </c>
       <c r="F17" t="n">
-        <v>865042.3693894778</v>
+        <v>4466.5151946455</v>
       </c>
       <c r="G17" t="n">
-        <v>961866.3223999122</v>
+        <v>6058.343923422627</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>141043756</v>
+        <v>81049146</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11907365</v>
+        <v>9983164</v>
       </c>
       <c r="E18" t="n">
-        <v>72984155</v>
+        <v>61190095</v>
       </c>
       <c r="F18" t="n">
-        <v>23232.73454539172</v>
+        <v>17391.83046701083</v>
       </c>
       <c r="G18" t="n">
-        <v>26311.01720647881</v>
+        <v>23309.88142396005</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I18" t="n">
-        <v>8718960</v>
+        <v>9576731</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50044732</v>
+        <v>49723126</v>
       </c>
       <c r="E19" t="n">
-        <v>215587232</v>
+        <v>214201790</v>
       </c>
       <c r="F19" t="n">
-        <v>54959.23949313151</v>
+        <v>48607.41828513094</v>
       </c>
       <c r="G19" t="n">
-        <v>65834.03772118923</v>
+        <v>59993.83457910312</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>14353741</v>
+        <v>9493258</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>232710314</v>
+        <v>235176305</v>
       </c>
       <c r="E20" t="n">
-        <v>232710314</v>
+        <v>235176305</v>
       </c>
       <c r="F20" t="n">
-        <v>66937.58766128517</v>
+        <v>88626.19286905507</v>
       </c>
       <c r="G20" t="n">
-        <v>106865.8741097469</v>
+        <v>112601.722764918</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>30275358</v>
+        <v>30077203</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26432441</v>
+        <v>26954995</v>
       </c>
       <c r="E21" t="n">
-        <v>96689580</v>
+        <v>98601075</v>
       </c>
       <c r="F21" t="n">
-        <v>22259.8972190127</v>
+        <v>33997.60580522475</v>
       </c>
       <c r="G21" t="n">
-        <v>55145.07007266708</v>
+        <v>43907.80308952743</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I21" t="n">
-        <v>6165989</v>
+        <v>6198136</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22790923</v>
+        <v>22983775</v>
       </c>
       <c r="E22" t="n">
-        <v>147793069</v>
+        <v>149043661</v>
       </c>
       <c r="F22" t="n">
-        <v>4184.493489126227</v>
+        <v>2844.960136963041</v>
       </c>
       <c r="G22" t="n">
-        <v>3998.326145132534</v>
+        <v>4284.45020660208</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>10813055</v>
+        <v>10325105</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>135673134</v>
+        <v>137549746</v>
       </c>
       <c r="E23" t="n">
-        <v>2246858216</v>
+        <v>2277936456</v>
       </c>
       <c r="F23" t="n">
-        <v>423863.4424171616</v>
+        <v>408606.0691724824</v>
       </c>
       <c r="G23" t="n">
-        <v>357422.1447295485</v>
+        <v>359148.1924819372</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>4835459</v>
+        <v>4239655</v>
       </c>
     </row>
     <row r="24">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1551118</v>
+        <v>1382417</v>
       </c>
       <c r="E24" t="n">
-        <v>2459111</v>
+        <v>2191656</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>590067</v>
+        <v>554451</v>
       </c>
     </row>
     <row r="25">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13826019</v>
+        <v>15063777</v>
       </c>
       <c r="E25" t="n">
-        <v>13826019</v>
+        <v>15063884</v>
       </c>
       <c r="F25" t="n">
-        <v>18151.48209410811</v>
+        <v>17015.7386364111</v>
       </c>
       <c r="G25" t="n">
-        <v>7567.300279472072</v>
+        <v>7143.795277993823</v>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>1540902</v>
+        <v>1644595</v>
       </c>
     </row>
     <row r="26">
@@ -1362,22 +1362,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>321643503</v>
+        <v>339921109</v>
       </c>
       <c r="E27" t="n">
-        <v>567366377</v>
+        <v>599607348</v>
       </c>
       <c r="F27" t="n">
-        <v>95831.60129517628</v>
+        <v>101096.2043593982</v>
       </c>
       <c r="G27" t="n">
-        <v>50857.15908179648</v>
+        <v>93929.2805848206</v>
       </c>
       <c r="H27" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>101530951</v>
+        <v>66187298</v>
       </c>
     </row>
     <row r="28">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29777993</v>
+        <v>31165436</v>
       </c>
       <c r="E28" t="n">
-        <v>29777993</v>
+        <v>31165436</v>
       </c>
       <c r="F28" t="n">
-        <v>11214.33039342503</v>
+        <v>12855.3202254716</v>
       </c>
       <c r="G28" t="n">
-        <v>28112.06223775002</v>
+        <v>27318.386440208</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>7729939</v>
+        <v>6628219</v>
       </c>
     </row>
     <row r="29">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>435030360</v>
+        <v>449390398</v>
       </c>
       <c r="E29" t="n">
-        <v>1497379549</v>
+        <v>1546806964</v>
       </c>
       <c r="F29" t="n">
-        <v>137700.5330976123</v>
+        <v>138687.2264657438</v>
       </c>
       <c r="G29" t="n">
-        <v>152453.509998073</v>
+        <v>149709.0065947459</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>27029243</v>
+        <v>26185852</v>
       </c>
     </row>
     <row r="30">
@@ -1467,22 +1467,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55088964</v>
+        <v>56482945</v>
       </c>
       <c r="E30" t="n">
-        <v>164637693</v>
+        <v>168803714</v>
       </c>
       <c r="F30" t="n">
-        <v>97846.52984984769</v>
+        <v>97690.99247868366</v>
       </c>
       <c r="G30" t="n">
-        <v>146430.6518853623</v>
+        <v>142209.9083061903</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>6713516</v>
+        <v>7945413</v>
       </c>
     </row>
     <row r="31">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33929644</v>
+        <v>37376769</v>
       </c>
       <c r="F31" t="n">
-        <v>4718.892397434438</v>
+        <v>6134.008840944568</v>
       </c>
       <c r="G31" t="n">
-        <v>7157.366340688518</v>
+        <v>7180.716784425658</v>
       </c>
       <c r="H31" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I31" t="n">
-        <v>4888678</v>
+        <v>9318529</v>
       </c>
     </row>
     <row r="32">
@@ -1537,22 +1537,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>241391218</v>
+        <v>242850142</v>
       </c>
       <c r="E32" t="n">
-        <v>859085214</v>
+        <v>856125999</v>
       </c>
       <c r="F32" t="n">
-        <v>24647.30230949149</v>
+        <v>26276.62291960804</v>
       </c>
       <c r="G32" t="n">
-        <v>25859.50764763724</v>
+        <v>24296.14661492252</v>
       </c>
 